--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pimiento.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pimiento.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R473"/>
+  <dimension ref="A1:R480"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18425,20 +18425,20 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J251" t="n">
         <v>500</v>
       </c>
       <c r="K251" t="n">
-        <v>26000</v>
+        <v>31000</v>
       </c>
       <c r="L251" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="M251" t="n">
-        <v>26500</v>
+        <v>31500</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>1472</v>
+        <v>1750</v>
       </c>
       <c r="Q251" t="n">
         <v>18</v>
@@ -18497,20 +18497,20 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J252" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="K252" t="n">
-        <v>21000</v>
+        <v>26000</v>
       </c>
       <c r="L252" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="M252" t="n">
-        <v>21500</v>
+        <v>26500</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>1194</v>
+        <v>1472</v>
       </c>
       <c r="Q252" t="n">
         <v>18</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44259</v>
+        <v>44447</v>
       </c>
       <c r="E253" t="n">
         <v>4</v>
@@ -18564,25 +18564,25 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J253" t="n">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="K253" t="n">
-        <v>8500</v>
+        <v>21000</v>
       </c>
       <c r="L253" t="n">
-        <v>9000</v>
+        <v>22000</v>
       </c>
       <c r="M253" t="n">
-        <v>8750</v>
+        <v>21500</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>486</v>
+        <v>1194</v>
       </c>
       <c r="Q253" t="n">
         <v>18</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44259</v>
+        <v>44447</v>
       </c>
       <c r="E254" t="n">
         <v>4</v>
@@ -18636,25 +18636,25 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J254" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K254" t="n">
-        <v>6500</v>
+        <v>30000</v>
       </c>
       <c r="L254" t="n">
-        <v>7000</v>
+        <v>31000</v>
       </c>
       <c r="M254" t="n">
-        <v>6750</v>
+        <v>30500</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>375</v>
+        <v>1694</v>
       </c>
       <c r="Q254" t="n">
         <v>18</v>
@@ -18713,20 +18713,20 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J255" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K255" t="n">
-        <v>4500</v>
+        <v>8500</v>
       </c>
       <c r="L255" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M255" t="n">
-        <v>4750</v>
+        <v>8750</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>264</v>
+        <v>486</v>
       </c>
       <c r="Q255" t="n">
         <v>18</v>
@@ -18780,25 +18780,25 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J256" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K256" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L256" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M256" t="n">
-        <v>5750</v>
+        <v>6750</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>319</v>
+        <v>375</v>
       </c>
       <c r="Q256" t="n">
         <v>18</v>
@@ -18852,25 +18852,25 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J257" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K257" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L257" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M257" t="n">
-        <v>3750</v>
+        <v>4750</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>208</v>
+        <v>264</v>
       </c>
       <c r="Q257" t="n">
         <v>18</v>
@@ -18924,7 +18924,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
@@ -18933,16 +18933,16 @@
         </is>
       </c>
       <c r="J258" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K258" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L258" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M258" t="n">
-        <v>7500</v>
+        <v>5750</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>417</v>
+        <v>319</v>
       </c>
       <c r="Q258" t="n">
         <v>18</v>
@@ -18996,7 +18996,7 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
@@ -19005,16 +19005,16 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K259" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L259" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M259" t="n">
-        <v>5500</v>
+        <v>3750</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>306</v>
+        <v>208</v>
       </c>
       <c r="Q259" t="n">
         <v>18</v>
@@ -19073,20 +19073,20 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J260" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K260" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="L260" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M260" t="n">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>194</v>
+        <v>417</v>
       </c>
       <c r="Q260" t="n">
         <v>18</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44300</v>
+        <v>44259</v>
       </c>
       <c r="E261" t="n">
         <v>4</v>
@@ -19140,25 +19140,25 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J261" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K261" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L261" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M261" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>528</v>
+        <v>306</v>
       </c>
       <c r="Q261" t="n">
         <v>18</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44300</v>
+        <v>44259</v>
       </c>
       <c r="E262" t="n">
         <v>4</v>
@@ -19212,25 +19212,25 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J262" t="n">
         <v>300</v>
       </c>
       <c r="K262" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L262" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M262" t="n">
-        <v>7500</v>
+        <v>3500</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>417</v>
+        <v>194</v>
       </c>
       <c r="Q262" t="n">
         <v>18</v>
@@ -19289,20 +19289,20 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J263" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K263" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L263" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M263" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>306</v>
+        <v>528</v>
       </c>
       <c r="Q263" t="n">
         <v>18</v>
@@ -19356,16 +19356,16 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J264" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K264" t="n">
         <v>7000</v>
@@ -19428,16 +19428,16 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J265" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K265" t="n">
         <v>5000</v>
@@ -19505,20 +19505,20 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J266" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="K266" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="L266" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M266" t="n">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>194</v>
+        <v>417</v>
       </c>
       <c r="Q266" t="n">
         <v>18</v>
@@ -19572,16 +19572,16 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J267" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K267" t="n">
         <v>5000</v>
@@ -19644,16 +19644,16 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J268" t="n">
-        <v>700</v>
+        <v>240</v>
       </c>
       <c r="K268" t="n">
         <v>3000</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44392</v>
+        <v>44300</v>
       </c>
       <c r="E269" t="n">
         <v>4</v>
@@ -19716,7 +19716,7 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
@@ -19725,16 +19725,16 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K269" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="L269" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="M269" t="n">
-        <v>14500</v>
+        <v>5500</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>806</v>
+        <v>306</v>
       </c>
       <c r="Q269" t="n">
         <v>18</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44392</v>
+        <v>44300</v>
       </c>
       <c r="E270" t="n">
         <v>4</v>
@@ -19788,7 +19788,7 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
@@ -19797,16 +19797,16 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K270" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="L270" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="M270" t="n">
-        <v>12500</v>
+        <v>3500</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>694</v>
+        <v>194</v>
       </c>
       <c r="Q270" t="n">
         <v>18</v>
@@ -19865,20 +19865,20 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J271" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K271" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L271" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M271" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>583</v>
+        <v>806</v>
       </c>
       <c r="Q271" t="n">
         <v>18</v>
@@ -19932,25 +19932,25 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J272" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K272" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L272" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M272" t="n">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>861</v>
+        <v>694</v>
       </c>
       <c r="Q272" t="n">
         <v>18</v>
@@ -20004,25 +20004,25 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J273" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K273" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L273" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M273" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>694</v>
+        <v>583</v>
       </c>
       <c r="Q273" t="n">
         <v>18</v>
@@ -20081,20 +20081,20 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J274" t="n">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="K274" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L274" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="M274" t="n">
-        <v>10500</v>
+        <v>15500</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>583</v>
+        <v>861</v>
       </c>
       <c r="Q274" t="n">
         <v>18</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44224</v>
+        <v>44392</v>
       </c>
       <c r="E275" t="n">
         <v>4</v>
@@ -20148,25 +20148,25 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J275" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="K275" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L275" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M275" t="n">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>861</v>
+        <v>694</v>
       </c>
       <c r="Q275" t="n">
         <v>18</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44224</v>
+        <v>44392</v>
       </c>
       <c r="E276" t="n">
         <v>4</v>
@@ -20220,25 +20220,25 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J276" t="n">
         <v>240</v>
       </c>
       <c r="K276" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L276" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M276" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>750</v>
+        <v>583</v>
       </c>
       <c r="Q276" t="n">
         <v>18</v>
@@ -20297,20 +20297,20 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J277" t="n">
-        <v>140</v>
+        <v>240</v>
       </c>
       <c r="K277" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L277" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="M277" t="n">
-        <v>10500</v>
+        <v>15500</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>583</v>
+        <v>861</v>
       </c>
       <c r="Q277" t="n">
         <v>18</v>
@@ -20364,25 +20364,25 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J278" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="K278" t="n">
-        <v>6500</v>
+        <v>13000</v>
       </c>
       <c r="L278" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M278" t="n">
-        <v>6750</v>
+        <v>13500</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>375</v>
+        <v>750</v>
       </c>
       <c r="Q278" t="n">
         <v>18</v>
@@ -20436,25 +20436,25 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J279" t="n">
-        <v>600</v>
+        <v>140</v>
       </c>
       <c r="K279" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="L279" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="M279" t="n">
-        <v>4750</v>
+        <v>10500</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>264</v>
+        <v>583</v>
       </c>
       <c r="Q279" t="n">
         <v>18</v>
@@ -20513,20 +20513,20 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J280" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K280" t="n">
-        <v>2500</v>
+        <v>6500</v>
       </c>
       <c r="L280" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="M280" t="n">
-        <v>2750</v>
+        <v>6750</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>153</v>
+        <v>375</v>
       </c>
       <c r="Q280" t="n">
         <v>18</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44217</v>
+        <v>44224</v>
       </c>
       <c r="E281" t="n">
         <v>4</v>
@@ -20585,20 +20585,20 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J281" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K281" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="L281" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M281" t="n">
-        <v>6750</v>
+        <v>4750</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>375</v>
+        <v>264</v>
       </c>
       <c r="Q281" t="n">
         <v>18</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44217</v>
+        <v>44224</v>
       </c>
       <c r="E282" t="n">
         <v>4</v>
@@ -20657,20 +20657,20 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J282" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K282" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="L282" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M282" t="n">
-        <v>4750</v>
+        <v>2750</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>264</v>
+        <v>153</v>
       </c>
       <c r="Q282" t="n">
         <v>18</v>
@@ -20729,20 +20729,20 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J283" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K283" t="n">
-        <v>2500</v>
+        <v>6500</v>
       </c>
       <c r="L283" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="M283" t="n">
-        <v>2750</v>
+        <v>6750</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>153</v>
+        <v>375</v>
       </c>
       <c r="Q283" t="n">
         <v>18</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44384</v>
+        <v>44217</v>
       </c>
       <c r="E284" t="n">
         <v>4</v>
@@ -20801,20 +20801,20 @@
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J284" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K284" t="n">
-        <v>11500</v>
+        <v>4500</v>
       </c>
       <c r="L284" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="M284" t="n">
-        <v>11750</v>
+        <v>4750</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>653</v>
+        <v>264</v>
       </c>
       <c r="Q284" t="n">
         <v>18</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44384</v>
+        <v>44217</v>
       </c>
       <c r="E285" t="n">
         <v>4</v>
@@ -20873,20 +20873,20 @@
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J285" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="K285" t="n">
-        <v>9500</v>
+        <v>2500</v>
       </c>
       <c r="L285" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="M285" t="n">
-        <v>9750</v>
+        <v>2750</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>542</v>
+        <v>153</v>
       </c>
       <c r="Q285" t="n">
         <v>18</v>
@@ -20945,20 +20945,20 @@
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J286" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="K286" t="n">
-        <v>6500</v>
+        <v>11500</v>
       </c>
       <c r="L286" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M286" t="n">
-        <v>6750</v>
+        <v>11750</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>375</v>
+        <v>653</v>
       </c>
       <c r="Q286" t="n">
         <v>18</v>
@@ -21012,25 +21012,25 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J287" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K287" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="L287" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M287" t="n">
-        <v>10750</v>
+        <v>9750</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -21043,7 +21043,7 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>597</v>
+        <v>542</v>
       </c>
       <c r="Q287" t="n">
         <v>18</v>
@@ -21084,25 +21084,25 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J288" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="K288" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="L288" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M288" t="n">
-        <v>8750</v>
+        <v>6750</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>486</v>
+        <v>375</v>
       </c>
       <c r="Q288" t="n">
         <v>18</v>
@@ -21161,20 +21161,20 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J289" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K289" t="n">
-        <v>6500</v>
+        <v>10500</v>
       </c>
       <c r="L289" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M289" t="n">
-        <v>6750</v>
+        <v>10750</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>375</v>
+        <v>597</v>
       </c>
       <c r="Q289" t="n">
         <v>18</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44168</v>
+        <v>44384</v>
       </c>
       <c r="E290" t="n">
         <v>4</v>
@@ -21228,25 +21228,25 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J290" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="K290" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="L290" t="n">
-        <v>13500</v>
+        <v>9000</v>
       </c>
       <c r="M290" t="n">
-        <v>13250</v>
+        <v>8750</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>736</v>
+        <v>486</v>
       </c>
       <c r="Q290" t="n">
         <v>18</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44168</v>
+        <v>44384</v>
       </c>
       <c r="E291" t="n">
         <v>4</v>
@@ -21300,25 +21300,25 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J291" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="K291" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L291" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="M291" t="n">
-        <v>8250</v>
+        <v>6750</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>458</v>
+        <v>375</v>
       </c>
       <c r="Q291" t="n">
         <v>18</v>
@@ -21377,20 +21377,20 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J292" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="K292" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="L292" t="n">
-        <v>5500</v>
+        <v>13500</v>
       </c>
       <c r="M292" t="n">
-        <v>5250</v>
+        <v>13250</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>292</v>
+        <v>736</v>
       </c>
       <c r="Q292" t="n">
         <v>18</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44322</v>
+        <v>44168</v>
       </c>
       <c r="E293" t="n">
         <v>4</v>
@@ -21449,20 +21449,20 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J293" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K293" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L293" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M293" t="n">
-        <v>6500</v>
+        <v>8250</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>361</v>
+        <v>458</v>
       </c>
       <c r="Q293" t="n">
         <v>18</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44322</v>
+        <v>44168</v>
       </c>
       <c r="E294" t="n">
         <v>4</v>
@@ -21521,20 +21521,20 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J294" t="n">
         <v>500</v>
       </c>
       <c r="K294" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L294" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M294" t="n">
-        <v>4500</v>
+        <v>5250</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>250</v>
+        <v>292</v>
       </c>
       <c r="Q294" t="n">
         <v>18</v>
@@ -21593,20 +21593,20 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J295" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="K295" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="L295" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="M295" t="n">
-        <v>2500</v>
+        <v>6500</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>139</v>
+        <v>361</v>
       </c>
       <c r="Q295" t="n">
         <v>18</v>
@@ -21660,25 +21660,25 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J296" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K296" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L296" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M296" t="n">
-        <v>6250</v>
+        <v>4500</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>347</v>
+        <v>250</v>
       </c>
       <c r="Q296" t="n">
         <v>18</v>
@@ -21732,25 +21732,25 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J297" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="K297" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="L297" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="M297" t="n">
-        <v>4250</v>
+        <v>2500</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>236</v>
+        <v>139</v>
       </c>
       <c r="Q297" t="n">
         <v>18</v>
@@ -21809,20 +21809,20 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J298" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K298" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="L298" t="n">
-        <v>2500</v>
+        <v>6500</v>
       </c>
       <c r="M298" t="n">
-        <v>2250</v>
+        <v>6250</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>125</v>
+        <v>347</v>
       </c>
       <c r="Q298" t="n">
         <v>18</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44272</v>
+        <v>44322</v>
       </c>
       <c r="E299" t="n">
         <v>4</v>
@@ -21876,25 +21876,25 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J299" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K299" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="L299" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M299" t="n">
-        <v>7750</v>
+        <v>4250</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>431</v>
+        <v>236</v>
       </c>
       <c r="Q299" t="n">
         <v>18</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44272</v>
+        <v>44322</v>
       </c>
       <c r="E300" t="n">
         <v>4</v>
@@ -21948,25 +21948,25 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J300" t="n">
         <v>300</v>
       </c>
       <c r="K300" t="n">
-        <v>5500</v>
+        <v>2000</v>
       </c>
       <c r="L300" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="M300" t="n">
-        <v>5750</v>
+        <v>2250</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>319</v>
+        <v>125</v>
       </c>
       <c r="Q300" t="n">
         <v>18</v>
@@ -22025,20 +22025,20 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J301" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K301" t="n">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="L301" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M301" t="n">
-        <v>3750</v>
+        <v>7750</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>208</v>
+        <v>431</v>
       </c>
       <c r="Q301" t="n">
         <v>18</v>
@@ -22092,16 +22092,16 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J302" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K302" t="n">
         <v>5500</v>
@@ -22164,16 +22164,16 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J303" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K303" t="n">
         <v>3500</v>
@@ -22241,20 +22241,20 @@
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J304" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K304" t="n">
-        <v>1500</v>
+        <v>5500</v>
       </c>
       <c r="L304" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="M304" t="n">
-        <v>1750</v>
+        <v>5750</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>97</v>
+        <v>319</v>
       </c>
       <c r="Q304" t="n">
         <v>18</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44433</v>
+        <v>44272</v>
       </c>
       <c r="E305" t="n">
         <v>4</v>
@@ -22313,20 +22313,20 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J305" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K305" t="n">
-        <v>24000</v>
+        <v>3500</v>
       </c>
       <c r="L305" t="n">
-        <v>25000</v>
+        <v>4000</v>
       </c>
       <c r="M305" t="n">
-        <v>24500</v>
+        <v>3750</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>1361</v>
+        <v>208</v>
       </c>
       <c r="Q305" t="n">
         <v>18</v>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44433</v>
+        <v>44272</v>
       </c>
       <c r="E306" t="n">
         <v>4</v>
@@ -22385,20 +22385,20 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J306" t="n">
-        <v>470</v>
+        <v>300</v>
       </c>
       <c r="K306" t="n">
-        <v>22000</v>
+        <v>1500</v>
       </c>
       <c r="L306" t="n">
-        <v>23000</v>
+        <v>2000</v>
       </c>
       <c r="M306" t="n">
-        <v>22532</v>
+        <v>1750</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>1252</v>
+        <v>97</v>
       </c>
       <c r="Q306" t="n">
         <v>18</v>
@@ -22457,20 +22457,20 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J307" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K307" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="L307" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="M307" t="n">
-        <v>18500</v>
+        <v>24500</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>1028</v>
+        <v>1361</v>
       </c>
       <c r="Q307" t="n">
         <v>18</v>
@@ -22524,25 +22524,25 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J308" t="n">
-        <v>600</v>
+        <v>470</v>
       </c>
       <c r="K308" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="L308" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="M308" t="n">
-        <v>29000</v>
+        <v>22532</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>1611</v>
+        <v>1252</v>
       </c>
       <c r="Q308" t="n">
         <v>18</v>
@@ -22596,25 +22596,25 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J309" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K309" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="L309" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="M309" t="n">
-        <v>24000</v>
+        <v>18500</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>1333</v>
+        <v>1028</v>
       </c>
       <c r="Q309" t="n">
         <v>18</v>
@@ -22673,20 +22673,20 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J310" t="n">
-        <v>360</v>
+        <v>600</v>
       </c>
       <c r="K310" t="n">
-        <v>18000</v>
+        <v>28000</v>
       </c>
       <c r="L310" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="M310" t="n">
-        <v>19000</v>
+        <v>29000</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>1056</v>
+        <v>1611</v>
       </c>
       <c r="Q310" t="n">
         <v>18</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44321</v>
+        <v>44433</v>
       </c>
       <c r="E311" t="n">
         <v>4</v>
@@ -22740,25 +22740,25 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J311" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K311" t="n">
-        <v>6000</v>
+        <v>23000</v>
       </c>
       <c r="L311" t="n">
-        <v>7000</v>
+        <v>25000</v>
       </c>
       <c r="M311" t="n">
-        <v>6500</v>
+        <v>24000</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>361</v>
+        <v>1333</v>
       </c>
       <c r="Q311" t="n">
         <v>18</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44321</v>
+        <v>44433</v>
       </c>
       <c r="E312" t="n">
         <v>4</v>
@@ -22812,25 +22812,25 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J312" t="n">
-        <v>700</v>
+        <v>360</v>
       </c>
       <c r="K312" t="n">
-        <v>4000</v>
+        <v>18000</v>
       </c>
       <c r="L312" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="M312" t="n">
-        <v>4500</v>
+        <v>19000</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>250</v>
+        <v>1056</v>
       </c>
       <c r="Q312" t="n">
         <v>18</v>
@@ -22889,20 +22889,20 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J313" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K313" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="L313" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="M313" t="n">
-        <v>2500</v>
+        <v>6500</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>139</v>
+        <v>361</v>
       </c>
       <c r="Q313" t="n">
         <v>18</v>
@@ -22956,25 +22956,25 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J314" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K314" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L314" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M314" t="n">
-        <v>6250</v>
+        <v>4500</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>347</v>
+        <v>250</v>
       </c>
       <c r="Q314" t="n">
         <v>18</v>
@@ -23028,25 +23028,25 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J315" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K315" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="L315" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="M315" t="n">
-        <v>4250</v>
+        <v>2500</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>236</v>
+        <v>139</v>
       </c>
       <c r="Q315" t="n">
         <v>18</v>
@@ -23105,20 +23105,20 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J316" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K316" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="L316" t="n">
-        <v>2500</v>
+        <v>6500</v>
       </c>
       <c r="M316" t="n">
-        <v>2250</v>
+        <v>6250</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>125</v>
+        <v>347</v>
       </c>
       <c r="Q316" t="n">
         <v>18</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44335</v>
+        <v>44321</v>
       </c>
       <c r="E317" t="n">
         <v>4</v>
@@ -23172,25 +23172,25 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J317" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K317" t="n">
-        <v>9500</v>
+        <v>4000</v>
       </c>
       <c r="L317" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="M317" t="n">
-        <v>9750</v>
+        <v>4250</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>542</v>
+        <v>236</v>
       </c>
       <c r="Q317" t="n">
         <v>18</v>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44335</v>
+        <v>44321</v>
       </c>
       <c r="E318" t="n">
         <v>4</v>
@@ -23244,25 +23244,25 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J318" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K318" t="n">
-        <v>7500</v>
+        <v>2000</v>
       </c>
       <c r="L318" t="n">
-        <v>8000</v>
+        <v>2500</v>
       </c>
       <c r="M318" t="n">
-        <v>7750</v>
+        <v>2250</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
@@ -23275,7 +23275,7 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>431</v>
+        <v>125</v>
       </c>
       <c r="Q318" t="n">
         <v>18</v>
@@ -23321,20 +23321,20 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J319" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="K319" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="L319" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M319" t="n">
-        <v>5750</v>
+        <v>9750</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>319</v>
+        <v>542</v>
       </c>
       <c r="Q319" t="n">
         <v>18</v>
@@ -23388,25 +23388,25 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J320" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K320" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="L320" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M320" t="n">
-        <v>13500</v>
+        <v>7750</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>750</v>
+        <v>431</v>
       </c>
       <c r="Q320" t="n">
         <v>18</v>
@@ -23460,25 +23460,25 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J321" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K321" t="n">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="L321" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M321" t="n">
-        <v>11500</v>
+        <v>5750</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>639</v>
+        <v>319</v>
       </c>
       <c r="Q321" t="n">
         <v>18</v>
@@ -23537,20 +23537,20 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J322" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K322" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L322" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M322" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>528</v>
+        <v>750</v>
       </c>
       <c r="Q322" t="n">
         <v>18</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E323" t="n">
         <v>4</v>
@@ -23604,25 +23604,25 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J323" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K323" t="n">
-        <v>29000</v>
+        <v>11000</v>
       </c>
       <c r="L323" t="n">
-        <v>30000</v>
+        <v>12000</v>
       </c>
       <c r="M323" t="n">
-        <v>29500</v>
+        <v>11500</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>1639</v>
+        <v>639</v>
       </c>
       <c r="Q323" t="n">
         <v>18</v>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E324" t="n">
         <v>4</v>
@@ -23676,25 +23676,25 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J324" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K324" t="n">
-        <v>24000</v>
+        <v>9000</v>
       </c>
       <c r="L324" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="M324" t="n">
-        <v>24500</v>
+        <v>9500</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>1361</v>
+        <v>528</v>
       </c>
       <c r="Q324" t="n">
         <v>18</v>
@@ -23753,20 +23753,20 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J325" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="K325" t="n">
-        <v>19000</v>
+        <v>29000</v>
       </c>
       <c r="L325" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="M325" t="n">
-        <v>19500</v>
+        <v>29500</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>1083</v>
+        <v>1639</v>
       </c>
       <c r="Q325" t="n">
         <v>18</v>
@@ -23820,29 +23820,29 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J326" t="n">
-        <v>240</v>
+        <v>700</v>
       </c>
       <c r="K326" t="n">
-        <v>29000</v>
+        <v>24000</v>
       </c>
       <c r="L326" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M326" t="n">
-        <v>29500</v>
+        <v>24500</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O326" t="inlineStr">
@@ -23851,10 +23851,10 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>1475</v>
+        <v>1361</v>
       </c>
       <c r="Q326" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R326" t="inlineStr">
         <is>
@@ -23892,29 +23892,29 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J327" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K327" t="n">
-        <v>26000</v>
+        <v>19000</v>
       </c>
       <c r="L327" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="M327" t="n">
-        <v>26500</v>
+        <v>19500</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O327" t="inlineStr">
@@ -23923,10 +23923,10 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>1325</v>
+        <v>1083</v>
       </c>
       <c r="Q327" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R327" t="inlineStr">
         <is>
@@ -23969,20 +23969,20 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J328" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="K328" t="n">
-        <v>21000</v>
+        <v>29000</v>
       </c>
       <c r="L328" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="M328" t="n">
-        <v>21500</v>
+        <v>29500</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>1075</v>
+        <v>1475</v>
       </c>
       <c r="Q328" t="n">
         <v>20</v>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44434</v>
+        <v>44426</v>
       </c>
       <c r="E329" t="n">
         <v>4</v>
@@ -24036,29 +24036,29 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J329" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K329" t="n">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="L329" t="n">
-        <v>24000</v>
+        <v>27000</v>
       </c>
       <c r="M329" t="n">
-        <v>23500</v>
+        <v>26500</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O329" t="inlineStr">
@@ -24067,10 +24067,10 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>1306</v>
+        <v>1325</v>
       </c>
       <c r="Q329" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R329" t="inlineStr">
         <is>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44434</v>
+        <v>44426</v>
       </c>
       <c r="E330" t="n">
         <v>4</v>
@@ -24108,16 +24108,16 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J330" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="K330" t="n">
         <v>21000</v>
@@ -24130,7 +24130,7 @@
       </c>
       <c r="N330" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O330" t="inlineStr">
@@ -24139,10 +24139,10 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>1194</v>
+        <v>1075</v>
       </c>
       <c r="Q330" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R330" t="inlineStr">
         <is>
@@ -24185,20 +24185,20 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J331" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K331" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="L331" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="M331" t="n">
-        <v>17500</v>
+        <v>23500</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>972</v>
+        <v>1306</v>
       </c>
       <c r="Q331" t="n">
         <v>18</v>
@@ -24252,25 +24252,25 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J332" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K332" t="n">
-        <v>27000</v>
+        <v>21000</v>
       </c>
       <c r="L332" t="n">
-        <v>29000</v>
+        <v>22000</v>
       </c>
       <c r="M332" t="n">
-        <v>28000</v>
+        <v>21500</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>1556</v>
+        <v>1194</v>
       </c>
       <c r="Q332" t="n">
         <v>18</v>
@@ -24324,25 +24324,25 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J333" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K333" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="L333" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="M333" t="n">
-        <v>23000</v>
+        <v>17500</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>1278</v>
+        <v>972</v>
       </c>
       <c r="Q333" t="n">
         <v>18</v>
@@ -24401,20 +24401,20 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J334" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="K334" t="n">
-        <v>17000</v>
+        <v>27000</v>
       </c>
       <c r="L334" t="n">
-        <v>19000</v>
+        <v>29000</v>
       </c>
       <c r="M334" t="n">
-        <v>18000</v>
+        <v>28000</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>1000</v>
+        <v>1556</v>
       </c>
       <c r="Q334" t="n">
         <v>18</v>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44398</v>
+        <v>44434</v>
       </c>
       <c r="E335" t="n">
         <v>4</v>
@@ -24468,25 +24468,25 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J335" t="n">
         <v>500</v>
       </c>
       <c r="K335" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="L335" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="M335" t="n">
-        <v>16500</v>
+        <v>23000</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>917</v>
+        <v>1278</v>
       </c>
       <c r="Q335" t="n">
         <v>18</v>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44398</v>
+        <v>44434</v>
       </c>
       <c r="E336" t="n">
         <v>4</v>
@@ -24540,25 +24540,25 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J336" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K336" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L336" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="M336" t="n">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="Q336" t="n">
         <v>18</v>
@@ -24617,20 +24617,20 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J337" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="K337" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="L337" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="M337" t="n">
-        <v>9500</v>
+        <v>16500</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
@@ -24643,7 +24643,7 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>528</v>
+        <v>917</v>
       </c>
       <c r="Q337" t="n">
         <v>18</v>
@@ -24684,25 +24684,25 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J338" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K338" t="n">
-        <v>18500</v>
+        <v>13000</v>
       </c>
       <c r="L338" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="M338" t="n">
-        <v>18750</v>
+        <v>13500</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>1042</v>
+        <v>750</v>
       </c>
       <c r="Q338" t="n">
         <v>18</v>
@@ -24756,25 +24756,25 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J339" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K339" t="n">
-        <v>16500</v>
+        <v>9000</v>
       </c>
       <c r="L339" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="M339" t="n">
-        <v>16750</v>
+        <v>9500</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>931</v>
+        <v>528</v>
       </c>
       <c r="Q339" t="n">
         <v>18</v>
@@ -24833,20 +24833,20 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J340" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K340" t="n">
-        <v>14500</v>
+        <v>18500</v>
       </c>
       <c r="L340" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="M340" t="n">
-        <v>14750</v>
+        <v>18750</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>819</v>
+        <v>1042</v>
       </c>
       <c r="Q340" t="n">
         <v>18</v>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E341" t="n">
         <v>4</v>
@@ -24900,25 +24900,25 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J341" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K341" t="n">
-        <v>29000</v>
+        <v>16500</v>
       </c>
       <c r="L341" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="M341" t="n">
-        <v>29500</v>
+        <v>16750</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         </is>
       </c>
       <c r="P341" t="n">
-        <v>1639</v>
+        <v>931</v>
       </c>
       <c r="Q341" t="n">
         <v>18</v>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E342" t="n">
         <v>4</v>
@@ -24972,25 +24972,25 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J342" t="n">
-        <v>1100</v>
+        <v>200</v>
       </c>
       <c r="K342" t="n">
-        <v>27000</v>
+        <v>14500</v>
       </c>
       <c r="L342" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="M342" t="n">
-        <v>27500</v>
+        <v>14750</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>1528</v>
+        <v>819</v>
       </c>
       <c r="Q342" t="n">
         <v>18</v>
@@ -25049,20 +25049,20 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J343" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K343" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="L343" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M343" t="n">
-        <v>24500</v>
+        <v>29500</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         </is>
       </c>
       <c r="P343" t="n">
-        <v>1361</v>
+        <v>1639</v>
       </c>
       <c r="Q343" t="n">
         <v>18</v>
@@ -25116,29 +25116,29 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J344" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="K344" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L344" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="M344" t="n">
-        <v>26000</v>
+        <v>27500</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O344" t="inlineStr">
@@ -25147,10 +25147,10 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>1300</v>
+        <v>1528</v>
       </c>
       <c r="Q344" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R344" t="inlineStr">
         <is>
@@ -25188,29 +25188,29 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J345" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K345" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="L345" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M345" t="n">
-        <v>22000</v>
+        <v>24500</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O345" t="inlineStr">
@@ -25219,10 +25219,10 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>1100</v>
+        <v>1361</v>
       </c>
       <c r="Q345" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R345" t="inlineStr">
         <is>
@@ -25265,20 +25265,20 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J346" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="K346" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="L346" t="n">
-        <v>19000</v>
+        <v>27000</v>
       </c>
       <c r="M346" t="n">
-        <v>18000</v>
+        <v>26000</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         </is>
       </c>
       <c r="P346" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="Q346" t="n">
         <v>20</v>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44210</v>
+        <v>44420</v>
       </c>
       <c r="E347" t="n">
         <v>4</v>
@@ -25332,29 +25332,29 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J347" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K347" t="n">
-        <v>9500</v>
+        <v>21000</v>
       </c>
       <c r="L347" t="n">
-        <v>10000</v>
+        <v>23000</v>
       </c>
       <c r="M347" t="n">
-        <v>9750</v>
+        <v>22000</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O347" t="inlineStr">
@@ -25363,10 +25363,10 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>542</v>
+        <v>1100</v>
       </c>
       <c r="Q347" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R347" t="inlineStr">
         <is>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44210</v>
+        <v>44420</v>
       </c>
       <c r="E348" t="n">
         <v>4</v>
@@ -25404,29 +25404,29 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J348" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K348" t="n">
-        <v>7500</v>
+        <v>17000</v>
       </c>
       <c r="L348" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="M348" t="n">
-        <v>7750</v>
+        <v>18000</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O348" t="inlineStr">
@@ -25435,10 +25435,10 @@
         </is>
       </c>
       <c r="P348" t="n">
-        <v>431</v>
+        <v>900</v>
       </c>
       <c r="Q348" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R348" t="inlineStr">
         <is>
@@ -25481,20 +25481,20 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J349" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="K349" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="L349" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M349" t="n">
-        <v>5750</v>
+        <v>9750</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>319</v>
+        <v>542</v>
       </c>
       <c r="Q349" t="n">
         <v>18</v>
@@ -25548,25 +25548,25 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J350" t="n">
-        <v>540</v>
+        <v>360</v>
       </c>
       <c r="K350" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L350" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M350" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>375</v>
+        <v>431</v>
       </c>
       <c r="Q350" t="n">
         <v>18</v>
@@ -25620,25 +25620,25 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J351" t="n">
-        <v>440</v>
+        <v>340</v>
       </c>
       <c r="K351" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L351" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M351" t="n">
-        <v>4750</v>
+        <v>5750</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>264</v>
+        <v>319</v>
       </c>
       <c r="Q351" t="n">
         <v>18</v>
@@ -25697,20 +25697,20 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J352" t="n">
-        <v>300</v>
+        <v>540</v>
       </c>
       <c r="K352" t="n">
-        <v>2500</v>
+        <v>6500</v>
       </c>
       <c r="L352" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="M352" t="n">
-        <v>2750</v>
+        <v>6750</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>153</v>
+        <v>375</v>
       </c>
       <c r="Q352" t="n">
         <v>18</v>
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44427</v>
+        <v>44210</v>
       </c>
       <c r="E353" t="n">
         <v>4</v>
@@ -25769,20 +25769,20 @@
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J353" t="n">
-        <v>1100</v>
+        <v>440</v>
       </c>
       <c r="K353" t="n">
-        <v>29000</v>
+        <v>4500</v>
       </c>
       <c r="L353" t="n">
-        <v>30000</v>
+        <v>5000</v>
       </c>
       <c r="M353" t="n">
-        <v>29500</v>
+        <v>4750</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
@@ -25795,7 +25795,7 @@
         </is>
       </c>
       <c r="P353" t="n">
-        <v>1639</v>
+        <v>264</v>
       </c>
       <c r="Q353" t="n">
         <v>18</v>
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44427</v>
+        <v>44210</v>
       </c>
       <c r="E354" t="n">
         <v>4</v>
@@ -25841,20 +25841,20 @@
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J354" t="n">
         <v>300</v>
       </c>
       <c r="K354" t="n">
-        <v>24000</v>
+        <v>2500</v>
       </c>
       <c r="L354" t="n">
-        <v>25000</v>
+        <v>3000</v>
       </c>
       <c r="M354" t="n">
-        <v>24500</v>
+        <v>2750</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         </is>
       </c>
       <c r="P354" t="n">
-        <v>1361</v>
+        <v>153</v>
       </c>
       <c r="Q354" t="n">
         <v>18</v>
@@ -25913,20 +25913,20 @@
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J355" t="n">
-        <v>240</v>
+        <v>1100</v>
       </c>
       <c r="K355" t="n">
-        <v>19000</v>
+        <v>29000</v>
       </c>
       <c r="L355" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="M355" t="n">
-        <v>19500</v>
+        <v>29500</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
@@ -25939,7 +25939,7 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>1083</v>
+        <v>1639</v>
       </c>
       <c r="Q355" t="n">
         <v>18</v>
@@ -25980,29 +25980,29 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J356" t="n">
         <v>300</v>
       </c>
       <c r="K356" t="n">
-        <v>29000</v>
+        <v>24000</v>
       </c>
       <c r="L356" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M356" t="n">
-        <v>29500</v>
+        <v>24500</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O356" t="inlineStr">
@@ -26011,10 +26011,10 @@
         </is>
       </c>
       <c r="P356" t="n">
-        <v>1475</v>
+        <v>1361</v>
       </c>
       <c r="Q356" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R356" t="inlineStr">
         <is>
@@ -26052,29 +26052,29 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J357" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="K357" t="n">
-        <v>26000</v>
+        <v>19000</v>
       </c>
       <c r="L357" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="M357" t="n">
-        <v>26500</v>
+        <v>19500</v>
       </c>
       <c r="N357" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O357" t="inlineStr">
@@ -26083,10 +26083,10 @@
         </is>
       </c>
       <c r="P357" t="n">
-        <v>1325</v>
+        <v>1083</v>
       </c>
       <c r="Q357" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R357" t="inlineStr">
         <is>
@@ -26129,20 +26129,20 @@
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J358" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K358" t="n">
-        <v>21000</v>
+        <v>29000</v>
       </c>
       <c r="L358" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="M358" t="n">
-        <v>21500</v>
+        <v>29500</v>
       </c>
       <c r="N358" t="inlineStr">
         <is>
@@ -26155,7 +26155,7 @@
         </is>
       </c>
       <c r="P358" t="n">
-        <v>1075</v>
+        <v>1475</v>
       </c>
       <c r="Q358" t="n">
         <v>20</v>
@@ -26181,7 +26181,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44301</v>
+        <v>44427</v>
       </c>
       <c r="E359" t="n">
         <v>4</v>
@@ -26196,29 +26196,29 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J359" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K359" t="n">
-        <v>7000</v>
+        <v>26000</v>
       </c>
       <c r="L359" t="n">
-        <v>8000</v>
+        <v>27000</v>
       </c>
       <c r="M359" t="n">
-        <v>7500</v>
+        <v>26500</v>
       </c>
       <c r="N359" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O359" t="inlineStr">
@@ -26227,10 +26227,10 @@
         </is>
       </c>
       <c r="P359" t="n">
-        <v>417</v>
+        <v>1325</v>
       </c>
       <c r="Q359" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R359" t="inlineStr">
         <is>
@@ -26253,7 +26253,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44301</v>
+        <v>44427</v>
       </c>
       <c r="E360" t="n">
         <v>4</v>
@@ -26268,29 +26268,29 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J360" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K360" t="n">
-        <v>5000</v>
+        <v>21000</v>
       </c>
       <c r="L360" t="n">
-        <v>6000</v>
+        <v>22000</v>
       </c>
       <c r="M360" t="n">
-        <v>5500</v>
+        <v>21500</v>
       </c>
       <c r="N360" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O360" t="inlineStr">
@@ -26299,10 +26299,10 @@
         </is>
       </c>
       <c r="P360" t="n">
-        <v>306</v>
+        <v>1075</v>
       </c>
       <c r="Q360" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R360" t="inlineStr">
         <is>
@@ -26345,20 +26345,20 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J361" t="n">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="K361" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="L361" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M361" t="n">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="N361" t="inlineStr">
         <is>
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="P361" t="n">
-        <v>194</v>
+        <v>417</v>
       </c>
       <c r="Q361" t="n">
         <v>18</v>
@@ -26412,16 +26412,16 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J362" t="n">
-        <v>700</v>
+        <v>240</v>
       </c>
       <c r="K362" t="n">
         <v>5000</v>
@@ -26484,16 +26484,16 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J363" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="K363" t="n">
         <v>3000</v>
@@ -26541,7 +26541,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44244</v>
+        <v>44301</v>
       </c>
       <c r="E364" t="n">
         <v>4</v>
@@ -26556,7 +26556,7 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
@@ -26565,16 +26565,16 @@
         </is>
       </c>
       <c r="J364" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K364" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L364" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="M364" t="n">
-        <v>10500</v>
+        <v>5500</v>
       </c>
       <c r="N364" t="inlineStr">
         <is>
@@ -26587,7 +26587,7 @@
         </is>
       </c>
       <c r="P364" t="n">
-        <v>583</v>
+        <v>306</v>
       </c>
       <c r="Q364" t="n">
         <v>18</v>
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44244</v>
+        <v>44301</v>
       </c>
       <c r="E365" t="n">
         <v>4</v>
@@ -26628,7 +26628,7 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
@@ -26637,16 +26637,16 @@
         </is>
       </c>
       <c r="J365" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K365" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L365" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M365" t="n">
-        <v>7500</v>
+        <v>3500</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         </is>
       </c>
       <c r="P365" t="n">
-        <v>417</v>
+        <v>194</v>
       </c>
       <c r="Q365" t="n">
         <v>18</v>
@@ -26705,20 +26705,20 @@
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J366" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="K366" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L366" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M366" t="n">
-        <v>5500</v>
+        <v>10500</v>
       </c>
       <c r="N366" t="inlineStr">
         <is>
@@ -26731,7 +26731,7 @@
         </is>
       </c>
       <c r="P366" t="n">
-        <v>306</v>
+        <v>583</v>
       </c>
       <c r="Q366" t="n">
         <v>18</v>
@@ -26772,25 +26772,25 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J367" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K367" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L367" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M367" t="n">
-        <v>4750</v>
+        <v>7500</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
@@ -26803,7 +26803,7 @@
         </is>
       </c>
       <c r="P367" t="n">
-        <v>264</v>
+        <v>417</v>
       </c>
       <c r="Q367" t="n">
         <v>18</v>
@@ -26844,25 +26844,25 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J368" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K368" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="L368" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M368" t="n">
-        <v>2750</v>
+        <v>5500</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
@@ -26875,7 +26875,7 @@
         </is>
       </c>
       <c r="P368" t="n">
-        <v>153</v>
+        <v>306</v>
       </c>
       <c r="Q368" t="n">
         <v>18</v>
@@ -26916,7 +26916,7 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
@@ -26928,13 +26928,13 @@
         <v>600</v>
       </c>
       <c r="K369" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="L369" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="M369" t="n">
-        <v>15500</v>
+        <v>4750</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         </is>
       </c>
       <c r="P369" t="n">
-        <v>861</v>
+        <v>264</v>
       </c>
       <c r="Q369" t="n">
         <v>18</v>
@@ -26988,7 +26988,7 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
@@ -26997,16 +26997,16 @@
         </is>
       </c>
       <c r="J370" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K370" t="n">
-        <v>12000</v>
+        <v>2500</v>
       </c>
       <c r="L370" t="n">
-        <v>13000</v>
+        <v>3000</v>
       </c>
       <c r="M370" t="n">
-        <v>12500</v>
+        <v>2750</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         </is>
       </c>
       <c r="P370" t="n">
-        <v>694</v>
+        <v>153</v>
       </c>
       <c r="Q370" t="n">
         <v>18</v>
@@ -27045,7 +27045,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44441</v>
+        <v>44244</v>
       </c>
       <c r="E371" t="n">
         <v>4</v>
@@ -27060,7 +27060,7 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
@@ -27069,16 +27069,16 @@
         </is>
       </c>
       <c r="J371" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K371" t="n">
-        <v>29000</v>
+        <v>15000</v>
       </c>
       <c r="L371" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="M371" t="n">
-        <v>29500</v>
+        <v>15500</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
@@ -27091,7 +27091,7 @@
         </is>
       </c>
       <c r="P371" t="n">
-        <v>1639</v>
+        <v>861</v>
       </c>
       <c r="Q371" t="n">
         <v>18</v>
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44441</v>
+        <v>44244</v>
       </c>
       <c r="E372" t="n">
         <v>4</v>
@@ -27132,7 +27132,7 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
@@ -27141,16 +27141,16 @@
         </is>
       </c>
       <c r="J372" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K372" t="n">
-        <v>26000</v>
+        <v>12000</v>
       </c>
       <c r="L372" t="n">
-        <v>27000</v>
+        <v>13000</v>
       </c>
       <c r="M372" t="n">
-        <v>26500</v>
+        <v>12500</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         </is>
       </c>
       <c r="P372" t="n">
-        <v>1472</v>
+        <v>694</v>
       </c>
       <c r="Q372" t="n">
         <v>18</v>
@@ -27209,20 +27209,20 @@
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J373" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="K373" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="L373" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M373" t="n">
-        <v>24000</v>
+        <v>29500</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         </is>
       </c>
       <c r="P373" t="n">
-        <v>1333</v>
+        <v>1639</v>
       </c>
       <c r="Q373" t="n">
         <v>18</v>
@@ -27276,7 +27276,7 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
@@ -27285,16 +27285,16 @@
         </is>
       </c>
       <c r="J374" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K374" t="n">
+        <v>26000</v>
+      </c>
+      <c r="L374" t="n">
         <v>27000</v>
       </c>
-      <c r="L374" t="n">
-        <v>28000</v>
-      </c>
       <c r="M374" t="n">
-        <v>27500</v>
+        <v>26500</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         </is>
       </c>
       <c r="P374" t="n">
-        <v>1528</v>
+        <v>1472</v>
       </c>
       <c r="Q374" t="n">
         <v>18</v>
@@ -27348,7 +27348,7 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
@@ -27360,13 +27360,13 @@
         <v>400</v>
       </c>
       <c r="K375" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="L375" t="n">
         <v>25000</v>
       </c>
       <c r="M375" t="n">
-        <v>24500</v>
+        <v>24000</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         </is>
       </c>
       <c r="P375" t="n">
-        <v>1361</v>
+        <v>1333</v>
       </c>
       <c r="Q375" t="n">
         <v>18</v>
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44237</v>
+        <v>44441</v>
       </c>
       <c r="E376" t="n">
         <v>4</v>
@@ -27420,7 +27420,7 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
@@ -27429,16 +27429,16 @@
         </is>
       </c>
       <c r="J376" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K376" t="n">
-        <v>11000</v>
+        <v>30000</v>
       </c>
       <c r="L376" t="n">
-        <v>12000</v>
+        <v>31000</v>
       </c>
       <c r="M376" t="n">
-        <v>11500</v>
+        <v>30500</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         </is>
       </c>
       <c r="P376" t="n">
-        <v>639</v>
+        <v>1694</v>
       </c>
       <c r="Q376" t="n">
         <v>18</v>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44237</v>
+        <v>44441</v>
       </c>
       <c r="E377" t="n">
         <v>4</v>
@@ -27492,7 +27492,7 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
@@ -27501,16 +27501,16 @@
         </is>
       </c>
       <c r="J377" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K377" t="n">
-        <v>9000</v>
+        <v>27000</v>
       </c>
       <c r="L377" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="M377" t="n">
-        <v>9500</v>
+        <v>27500</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
@@ -27523,7 +27523,7 @@
         </is>
       </c>
       <c r="P377" t="n">
-        <v>528</v>
+        <v>1528</v>
       </c>
       <c r="Q377" t="n">
         <v>18</v>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44237</v>
+        <v>44441</v>
       </c>
       <c r="E378" t="n">
         <v>4</v>
@@ -27564,7 +27564,7 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
@@ -27573,16 +27573,16 @@
         </is>
       </c>
       <c r="J378" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K378" t="n">
-        <v>7000</v>
+        <v>24000</v>
       </c>
       <c r="L378" t="n">
-        <v>8000</v>
+        <v>25000</v>
       </c>
       <c r="M378" t="n">
-        <v>7500</v>
+        <v>24500</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
@@ -27595,7 +27595,7 @@
         </is>
       </c>
       <c r="P378" t="n">
-        <v>417</v>
+        <v>1361</v>
       </c>
       <c r="Q378" t="n">
         <v>18</v>
@@ -27636,7 +27636,7 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
@@ -27645,16 +27645,16 @@
         </is>
       </c>
       <c r="J379" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K379" t="n">
-        <v>5500</v>
+        <v>11000</v>
       </c>
       <c r="L379" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M379" t="n">
-        <v>5750</v>
+        <v>11500</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
@@ -27667,7 +27667,7 @@
         </is>
       </c>
       <c r="P379" t="n">
-        <v>319</v>
+        <v>639</v>
       </c>
       <c r="Q379" t="n">
         <v>18</v>
@@ -27708,7 +27708,7 @@
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
@@ -27717,16 +27717,16 @@
         </is>
       </c>
       <c r="J380" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="K380" t="n">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="L380" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="M380" t="n">
-        <v>3750</v>
+        <v>9500</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         </is>
       </c>
       <c r="P380" t="n">
-        <v>208</v>
+        <v>528</v>
       </c>
       <c r="Q380" t="n">
         <v>18</v>
@@ -27765,7 +27765,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44273</v>
+        <v>44237</v>
       </c>
       <c r="E381" t="n">
         <v>4</v>
@@ -27785,20 +27785,20 @@
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J381" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K381" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="L381" t="n">
         <v>8000</v>
       </c>
       <c r="M381" t="n">
-        <v>7750</v>
+        <v>7500</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
@@ -27811,7 +27811,7 @@
         </is>
       </c>
       <c r="P381" t="n">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="Q381" t="n">
         <v>18</v>
@@ -27837,7 +27837,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44273</v>
+        <v>44237</v>
       </c>
       <c r="E382" t="n">
         <v>4</v>
@@ -27852,16 +27852,16 @@
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J382" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="K382" t="n">
         <v>5500</v>
@@ -27909,7 +27909,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44273</v>
+        <v>44237</v>
       </c>
       <c r="E383" t="n">
         <v>4</v>
@@ -27924,16 +27924,16 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J383" t="n">
-        <v>160</v>
+        <v>700</v>
       </c>
       <c r="K383" t="n">
         <v>3500</v>
@@ -27996,7 +27996,7 @@
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
@@ -28005,16 +28005,16 @@
         </is>
       </c>
       <c r="J384" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="K384" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L384" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M384" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         </is>
       </c>
       <c r="P384" t="n">
-        <v>319</v>
+        <v>431</v>
       </c>
       <c r="Q384" t="n">
         <v>18</v>
@@ -28068,7 +28068,7 @@
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
@@ -28077,16 +28077,16 @@
         </is>
       </c>
       <c r="J385" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K385" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L385" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M385" t="n">
-        <v>3750</v>
+        <v>5750</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
@@ -28099,7 +28099,7 @@
         </is>
       </c>
       <c r="P385" t="n">
-        <v>208</v>
+        <v>319</v>
       </c>
       <c r="Q385" t="n">
         <v>18</v>
@@ -28140,7 +28140,7 @@
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
@@ -28149,16 +28149,16 @@
         </is>
       </c>
       <c r="J386" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="K386" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="L386" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="M386" t="n">
-        <v>1750</v>
+        <v>3750</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
@@ -28171,7 +28171,7 @@
         </is>
       </c>
       <c r="P386" t="n">
-        <v>97</v>
+        <v>208</v>
       </c>
       <c r="Q386" t="n">
         <v>18</v>
@@ -28197,7 +28197,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44294</v>
+        <v>44273</v>
       </c>
       <c r="E387" t="n">
         <v>4</v>
@@ -28221,16 +28221,16 @@
         </is>
       </c>
       <c r="J387" t="n">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="K387" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="L387" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M387" t="n">
-        <v>9750</v>
+        <v>5750</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
@@ -28243,7 +28243,7 @@
         </is>
       </c>
       <c r="P387" t="n">
-        <v>542</v>
+        <v>319</v>
       </c>
       <c r="Q387" t="n">
         <v>18</v>
@@ -28269,7 +28269,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44294</v>
+        <v>44273</v>
       </c>
       <c r="E388" t="n">
         <v>4</v>
@@ -28293,16 +28293,16 @@
         </is>
       </c>
       <c r="J388" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="K388" t="n">
-        <v>7500</v>
+        <v>3500</v>
       </c>
       <c r="L388" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M388" t="n">
-        <v>7750</v>
+        <v>3750</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         </is>
       </c>
       <c r="P388" t="n">
-        <v>431</v>
+        <v>208</v>
       </c>
       <c r="Q388" t="n">
         <v>18</v>
@@ -28341,7 +28341,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44294</v>
+        <v>44273</v>
       </c>
       <c r="E389" t="n">
         <v>4</v>
@@ -28365,16 +28365,16 @@
         </is>
       </c>
       <c r="J389" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K389" t="n">
-        <v>5500</v>
+        <v>1500</v>
       </c>
       <c r="L389" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="M389" t="n">
-        <v>5750</v>
+        <v>1750</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
@@ -28387,7 +28387,7 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>319</v>
+        <v>97</v>
       </c>
       <c r="Q389" t="n">
         <v>18</v>
@@ -28428,7 +28428,7 @@
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
@@ -28437,20 +28437,20 @@
         </is>
       </c>
       <c r="J390" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K390" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="L390" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M390" t="n">
-        <v>5750</v>
+        <v>9750</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O390" t="inlineStr">
@@ -28459,10 +28459,10 @@
         </is>
       </c>
       <c r="P390" t="n">
-        <v>288</v>
+        <v>542</v>
       </c>
       <c r="Q390" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R390" t="inlineStr">
         <is>
@@ -28500,7 +28500,7 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
@@ -28509,20 +28509,20 @@
         </is>
       </c>
       <c r="J391" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="K391" t="n">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="L391" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M391" t="n">
-        <v>3750</v>
+        <v>7750</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O391" t="inlineStr">
@@ -28531,10 +28531,10 @@
         </is>
       </c>
       <c r="P391" t="n">
-        <v>188</v>
+        <v>431</v>
       </c>
       <c r="Q391" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R391" t="inlineStr">
         <is>
@@ -28572,7 +28572,7 @@
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
@@ -28584,17 +28584,17 @@
         <v>200</v>
       </c>
       <c r="K392" t="n">
-        <v>1500</v>
+        <v>5500</v>
       </c>
       <c r="L392" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="M392" t="n">
-        <v>1750</v>
+        <v>5750</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O392" t="inlineStr">
@@ -28603,10 +28603,10 @@
         </is>
       </c>
       <c r="P392" t="n">
-        <v>88</v>
+        <v>319</v>
       </c>
       <c r="Q392" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R392" t="inlineStr">
         <is>
@@ -28629,7 +28629,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44315</v>
+        <v>44294</v>
       </c>
       <c r="E393" t="n">
         <v>4</v>
@@ -28644,7 +28644,7 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
@@ -28653,20 +28653,20 @@
         </is>
       </c>
       <c r="J393" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K393" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="L393" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M393" t="n">
-        <v>9500</v>
+        <v>5750</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O393" t="inlineStr">
@@ -28675,10 +28675,10 @@
         </is>
       </c>
       <c r="P393" t="n">
-        <v>528</v>
+        <v>288</v>
       </c>
       <c r="Q393" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R393" t="inlineStr">
         <is>
@@ -28701,7 +28701,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44315</v>
+        <v>44294</v>
       </c>
       <c r="E394" t="n">
         <v>4</v>
@@ -28716,7 +28716,7 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
@@ -28725,20 +28725,20 @@
         </is>
       </c>
       <c r="J394" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K394" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="L394" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M394" t="n">
-        <v>7500</v>
+        <v>3750</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O394" t="inlineStr">
@@ -28747,10 +28747,10 @@
         </is>
       </c>
       <c r="P394" t="n">
-        <v>417</v>
+        <v>188</v>
       </c>
       <c r="Q394" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R394" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44315</v>
+        <v>44294</v>
       </c>
       <c r="E395" t="n">
         <v>4</v>
@@ -28788,7 +28788,7 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
@@ -28797,20 +28797,20 @@
         </is>
       </c>
       <c r="J395" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K395" t="n">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="L395" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="M395" t="n">
-        <v>5500</v>
+        <v>1750</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O395" t="inlineStr">
@@ -28819,10 +28819,10 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>306</v>
+        <v>88</v>
       </c>
       <c r="Q395" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R395" t="inlineStr">
         <is>
@@ -28860,7 +28860,7 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
@@ -28869,16 +28869,16 @@
         </is>
       </c>
       <c r="J396" t="n">
-        <v>700</v>
+        <v>360</v>
       </c>
       <c r="K396" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L396" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M396" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         </is>
       </c>
       <c r="P396" t="n">
-        <v>361</v>
+        <v>528</v>
       </c>
       <c r="Q396" t="n">
         <v>18</v>
@@ -28932,7 +28932,7 @@
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
@@ -28941,16 +28941,16 @@
         </is>
       </c>
       <c r="J397" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K397" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L397" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M397" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="N397" t="inlineStr">
         <is>
@@ -28963,7 +28963,7 @@
         </is>
       </c>
       <c r="P397" t="n">
-        <v>250</v>
+        <v>417</v>
       </c>
       <c r="Q397" t="n">
         <v>18</v>
@@ -29004,7 +29004,7 @@
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
@@ -29013,16 +29013,16 @@
         </is>
       </c>
       <c r="J398" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="K398" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="L398" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M398" t="n">
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="P398" t="n">
-        <v>139</v>
+        <v>306</v>
       </c>
       <c r="Q398" t="n">
         <v>18</v>
@@ -29076,7 +29076,7 @@
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
@@ -29085,16 +29085,16 @@
         </is>
       </c>
       <c r="J399" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K399" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L399" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M399" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         </is>
       </c>
       <c r="P399" t="n">
-        <v>306</v>
+        <v>361</v>
       </c>
       <c r="Q399" t="n">
         <v>18</v>
@@ -29148,7 +29148,7 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
@@ -29157,16 +29157,16 @@
         </is>
       </c>
       <c r="J400" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K400" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L400" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M400" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         </is>
       </c>
       <c r="P400" t="n">
-        <v>194</v>
+        <v>250</v>
       </c>
       <c r="Q400" t="n">
         <v>18</v>
@@ -29220,7 +29220,7 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
@@ -29229,16 +29229,16 @@
         </is>
       </c>
       <c r="J401" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="K401" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="L401" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M401" t="n">
-        <v>1750</v>
+        <v>2500</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         </is>
       </c>
       <c r="P401" t="n">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="Q401" t="n">
         <v>18</v>
@@ -29277,7 +29277,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E402" t="n">
         <v>4</v>
@@ -29292,7 +29292,7 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
@@ -29301,16 +29301,16 @@
         </is>
       </c>
       <c r="J402" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K402" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="L402" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="M402" t="n">
-        <v>14500</v>
+        <v>5500</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         </is>
       </c>
       <c r="P402" t="n">
-        <v>806</v>
+        <v>306</v>
       </c>
       <c r="Q402" t="n">
         <v>18</v>
@@ -29349,7 +29349,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E403" t="n">
         <v>4</v>
@@ -29364,7 +29364,7 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
@@ -29373,16 +29373,16 @@
         </is>
       </c>
       <c r="J403" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K403" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="L403" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="M403" t="n">
-        <v>12500</v>
+        <v>3500</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
@@ -29395,7 +29395,7 @@
         </is>
       </c>
       <c r="P403" t="n">
-        <v>694</v>
+        <v>194</v>
       </c>
       <c r="Q403" t="n">
         <v>18</v>
@@ -29421,7 +29421,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E404" t="n">
         <v>4</v>
@@ -29436,7 +29436,7 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
@@ -29445,16 +29445,16 @@
         </is>
       </c>
       <c r="J404" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K404" t="n">
-        <v>10000</v>
+        <v>1500</v>
       </c>
       <c r="L404" t="n">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="M404" t="n">
-        <v>10500</v>
+        <v>1750</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
@@ -29467,7 +29467,7 @@
         </is>
       </c>
       <c r="P404" t="n">
-        <v>583</v>
+        <v>97</v>
       </c>
       <c r="Q404" t="n">
         <v>18</v>
@@ -29508,7 +29508,7 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
@@ -29517,16 +29517,16 @@
         </is>
       </c>
       <c r="J405" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K405" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L405" t="n">
         <v>15000</v>
       </c>
-      <c r="L405" t="n">
-        <v>16000</v>
-      </c>
       <c r="M405" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
@@ -29539,7 +29539,7 @@
         </is>
       </c>
       <c r="P405" t="n">
-        <v>861</v>
+        <v>806</v>
       </c>
       <c r="Q405" t="n">
         <v>18</v>
@@ -29580,7 +29580,7 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
@@ -29589,7 +29589,7 @@
         </is>
       </c>
       <c r="J406" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K406" t="n">
         <v>12000</v>
@@ -29652,7 +29652,7 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
@@ -29661,7 +29661,7 @@
         </is>
       </c>
       <c r="J407" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K407" t="n">
         <v>10000</v>
@@ -29709,7 +29709,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44329</v>
+        <v>44391</v>
       </c>
       <c r="E408" t="n">
         <v>4</v>
@@ -29724,7 +29724,7 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
@@ -29733,16 +29733,16 @@
         </is>
       </c>
       <c r="J408" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K408" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="L408" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="M408" t="n">
-        <v>7750</v>
+        <v>15500</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         </is>
       </c>
       <c r="P408" t="n">
-        <v>431</v>
+        <v>861</v>
       </c>
       <c r="Q408" t="n">
         <v>18</v>
@@ -29781,7 +29781,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44329</v>
+        <v>44391</v>
       </c>
       <c r="E409" t="n">
         <v>4</v>
@@ -29796,7 +29796,7 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
@@ -29805,16 +29805,16 @@
         </is>
       </c>
       <c r="J409" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K409" t="n">
-        <v>5500</v>
+        <v>12000</v>
       </c>
       <c r="L409" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="M409" t="n">
-        <v>5750</v>
+        <v>12500</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
@@ -29827,7 +29827,7 @@
         </is>
       </c>
       <c r="P409" t="n">
-        <v>319</v>
+        <v>694</v>
       </c>
       <c r="Q409" t="n">
         <v>18</v>
@@ -29853,7 +29853,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44329</v>
+        <v>44391</v>
       </c>
       <c r="E410" t="n">
         <v>4</v>
@@ -29868,7 +29868,7 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
@@ -29877,16 +29877,16 @@
         </is>
       </c>
       <c r="J410" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K410" t="n">
-        <v>3500</v>
+        <v>10000</v>
       </c>
       <c r="L410" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="M410" t="n">
-        <v>3750</v>
+        <v>10500</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
@@ -29899,7 +29899,7 @@
         </is>
       </c>
       <c r="P410" t="n">
-        <v>208</v>
+        <v>583</v>
       </c>
       <c r="Q410" t="n">
         <v>18</v>
@@ -29940,7 +29940,7 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
@@ -29949,16 +29949,16 @@
         </is>
       </c>
       <c r="J411" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K411" t="n">
-        <v>12500</v>
+        <v>7500</v>
       </c>
       <c r="L411" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M411" t="n">
-        <v>12750</v>
+        <v>7750</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
@@ -29971,7 +29971,7 @@
         </is>
       </c>
       <c r="P411" t="n">
-        <v>708</v>
+        <v>431</v>
       </c>
       <c r="Q411" t="n">
         <v>18</v>
@@ -30012,7 +30012,7 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
@@ -30021,16 +30021,16 @@
         </is>
       </c>
       <c r="J412" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K412" t="n">
-        <v>10500</v>
+        <v>5500</v>
       </c>
       <c r="L412" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="M412" t="n">
-        <v>10750</v>
+        <v>5750</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
@@ -30043,7 +30043,7 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>597</v>
+        <v>319</v>
       </c>
       <c r="Q412" t="n">
         <v>18</v>
@@ -30084,7 +30084,7 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
@@ -30093,16 +30093,16 @@
         </is>
       </c>
       <c r="J413" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K413" t="n">
-        <v>8500</v>
+        <v>3500</v>
       </c>
       <c r="L413" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="M413" t="n">
-        <v>8750</v>
+        <v>3750</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
@@ -30115,7 +30115,7 @@
         </is>
       </c>
       <c r="P413" t="n">
-        <v>486</v>
+        <v>208</v>
       </c>
       <c r="Q413" t="n">
         <v>18</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44161</v>
+        <v>44329</v>
       </c>
       <c r="E414" t="n">
         <v>4</v>
@@ -30156,7 +30156,7 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
@@ -30168,13 +30168,13 @@
         <v>700</v>
       </c>
       <c r="K414" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L414" t="n">
         <v>13000</v>
       </c>
-      <c r="L414" t="n">
-        <v>14000</v>
-      </c>
       <c r="M414" t="n">
-        <v>13500</v>
+        <v>12750</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
@@ -30187,7 +30187,7 @@
         </is>
       </c>
       <c r="P414" t="n">
-        <v>750</v>
+        <v>708</v>
       </c>
       <c r="Q414" t="n">
         <v>18</v>
@@ -30213,7 +30213,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44161</v>
+        <v>44329</v>
       </c>
       <c r="E415" t="n">
         <v>4</v>
@@ -30228,7 +30228,7 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
@@ -30237,16 +30237,16 @@
         </is>
       </c>
       <c r="J415" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K415" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="L415" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M415" t="n">
-        <v>9500</v>
+        <v>10750</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
@@ -30259,7 +30259,7 @@
         </is>
       </c>
       <c r="P415" t="n">
-        <v>528</v>
+        <v>597</v>
       </c>
       <c r="Q415" t="n">
         <v>18</v>
@@ -30285,7 +30285,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44161</v>
+        <v>44329</v>
       </c>
       <c r="E416" t="n">
         <v>4</v>
@@ -30300,7 +30300,7 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
@@ -30309,16 +30309,16 @@
         </is>
       </c>
       <c r="J416" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K416" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="L416" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M416" t="n">
-        <v>6500</v>
+        <v>8750</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>361</v>
+        <v>486</v>
       </c>
       <c r="Q416" t="n">
         <v>18</v>
@@ -30357,7 +30357,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44251</v>
+        <v>44161</v>
       </c>
       <c r="E417" t="n">
         <v>4</v>
@@ -30372,7 +30372,7 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
@@ -30381,16 +30381,16 @@
         </is>
       </c>
       <c r="J417" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K417" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="L417" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M417" t="n">
-        <v>7750</v>
+        <v>13500</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
@@ -30403,7 +30403,7 @@
         </is>
       </c>
       <c r="P417" t="n">
-        <v>431</v>
+        <v>750</v>
       </c>
       <c r="Q417" t="n">
         <v>18</v>
@@ -30429,7 +30429,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44251</v>
+        <v>44161</v>
       </c>
       <c r="E418" t="n">
         <v>4</v>
@@ -30444,7 +30444,7 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
@@ -30453,16 +30453,16 @@
         </is>
       </c>
       <c r="J418" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K418" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="L418" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M418" t="n">
-        <v>5750</v>
+        <v>9500</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         </is>
       </c>
       <c r="P418" t="n">
-        <v>319</v>
+        <v>528</v>
       </c>
       <c r="Q418" t="n">
         <v>18</v>
@@ -30501,7 +30501,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44251</v>
+        <v>44161</v>
       </c>
       <c r="E419" t="n">
         <v>4</v>
@@ -30516,7 +30516,7 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
@@ -30525,16 +30525,16 @@
         </is>
       </c>
       <c r="J419" t="n">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="K419" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L419" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M419" t="n">
-        <v>3750</v>
+        <v>6500</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         </is>
       </c>
       <c r="P419" t="n">
-        <v>208</v>
+        <v>361</v>
       </c>
       <c r="Q419" t="n">
         <v>18</v>
@@ -30588,7 +30588,7 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
@@ -30597,16 +30597,16 @@
         </is>
       </c>
       <c r="J420" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K420" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="L420" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M420" t="n">
-        <v>4500</v>
+        <v>7750</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>250</v>
+        <v>431</v>
       </c>
       <c r="Q420" t="n">
         <v>18</v>
@@ -30660,7 +30660,7 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
@@ -30669,16 +30669,16 @@
         </is>
       </c>
       <c r="J421" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K421" t="n">
-        <v>2000</v>
+        <v>5500</v>
       </c>
       <c r="L421" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M421" t="n">
-        <v>2500</v>
+        <v>5750</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
@@ -30691,7 +30691,7 @@
         </is>
       </c>
       <c r="P421" t="n">
-        <v>139</v>
+        <v>319</v>
       </c>
       <c r="Q421" t="n">
         <v>18</v>
@@ -30732,25 +30732,25 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J422" t="n">
-        <v>1100</v>
+        <v>160</v>
       </c>
       <c r="K422" t="n">
-        <v>9000</v>
+        <v>3500</v>
       </c>
       <c r="L422" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M422" t="n">
-        <v>9500</v>
+        <v>3750</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
@@ -30763,7 +30763,7 @@
         </is>
       </c>
       <c r="P422" t="n">
-        <v>528</v>
+        <v>208</v>
       </c>
       <c r="Q422" t="n">
         <v>18</v>
@@ -30804,25 +30804,25 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J423" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K423" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L423" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M423" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
@@ -30835,7 +30835,7 @@
         </is>
       </c>
       <c r="P423" t="n">
-        <v>417</v>
+        <v>250</v>
       </c>
       <c r="Q423" t="n">
         <v>18</v>
@@ -30861,7 +30861,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44435</v>
+        <v>44251</v>
       </c>
       <c r="E424" t="n">
         <v>4</v>
@@ -30881,20 +30881,20 @@
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J424" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K424" t="n">
-        <v>23000</v>
+        <v>2000</v>
       </c>
       <c r="L424" t="n">
-        <v>25000</v>
+        <v>3000</v>
       </c>
       <c r="M424" t="n">
-        <v>24045</v>
+        <v>2500</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
@@ -30907,7 +30907,7 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>1336</v>
+        <v>139</v>
       </c>
       <c r="Q424" t="n">
         <v>18</v>
@@ -30933,7 +30933,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44435</v>
+        <v>44251</v>
       </c>
       <c r="E425" t="n">
         <v>4</v>
@@ -30948,25 +30948,25 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J425" t="n">
-        <v>870</v>
+        <v>1100</v>
       </c>
       <c r="K425" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="L425" t="n">
-        <v>23000</v>
+        <v>10000</v>
       </c>
       <c r="M425" t="n">
-        <v>22057</v>
+        <v>9500</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>1225</v>
+        <v>528</v>
       </c>
       <c r="Q425" t="n">
         <v>18</v>
@@ -31005,7 +31005,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44435</v>
+        <v>44251</v>
       </c>
       <c r="E426" t="n">
         <v>4</v>
@@ -31020,25 +31020,25 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J426" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K426" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="L426" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="M426" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>1000</v>
+        <v>417</v>
       </c>
       <c r="Q426" t="n">
         <v>18</v>
@@ -31092,7 +31092,7 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
@@ -31104,13 +31104,13 @@
         <v>1100</v>
       </c>
       <c r="K427" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="L427" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M427" t="n">
-        <v>28545</v>
+        <v>24045</v>
       </c>
       <c r="N427" t="inlineStr">
         <is>
@@ -31123,7 +31123,7 @@
         </is>
       </c>
       <c r="P427" t="n">
-        <v>1586</v>
+        <v>1336</v>
       </c>
       <c r="Q427" t="n">
         <v>18</v>
@@ -31164,7 +31164,7 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
@@ -31173,16 +31173,16 @@
         </is>
       </c>
       <c r="J428" t="n">
-        <v>1100</v>
+        <v>870</v>
       </c>
       <c r="K428" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="L428" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="M428" t="n">
-        <v>23545</v>
+        <v>22057</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         </is>
       </c>
       <c r="P428" t="n">
-        <v>1308</v>
+        <v>1225</v>
       </c>
       <c r="Q428" t="n">
         <v>18</v>
@@ -31236,7 +31236,7 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
@@ -31251,10 +31251,10 @@
         <v>17000</v>
       </c>
       <c r="L429" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="M429" t="n">
-        <v>18600</v>
+        <v>18000</v>
       </c>
       <c r="N429" t="inlineStr">
         <is>
@@ -31267,7 +31267,7 @@
         </is>
       </c>
       <c r="P429" t="n">
-        <v>1033</v>
+        <v>1000</v>
       </c>
       <c r="Q429" t="n">
         <v>18</v>
@@ -31293,7 +31293,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44175</v>
+        <v>44435</v>
       </c>
       <c r="E430" t="n">
         <v>4</v>
@@ -31308,7 +31308,7 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
@@ -31317,16 +31317,16 @@
         </is>
       </c>
       <c r="J430" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="K430" t="n">
-        <v>9000</v>
+        <v>27000</v>
       </c>
       <c r="L430" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="M430" t="n">
-        <v>9500</v>
+        <v>28545</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
@@ -31339,7 +31339,7 @@
         </is>
       </c>
       <c r="P430" t="n">
-        <v>528</v>
+        <v>1586</v>
       </c>
       <c r="Q430" t="n">
         <v>18</v>
@@ -31365,7 +31365,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44175</v>
+        <v>44435</v>
       </c>
       <c r="E431" t="n">
         <v>4</v>
@@ -31380,7 +31380,7 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
@@ -31389,16 +31389,16 @@
         </is>
       </c>
       <c r="J431" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="K431" t="n">
-        <v>7000</v>
+        <v>22000</v>
       </c>
       <c r="L431" t="n">
-        <v>8000</v>
+        <v>25000</v>
       </c>
       <c r="M431" t="n">
-        <v>7500</v>
+        <v>23545</v>
       </c>
       <c r="N431" t="inlineStr">
         <is>
@@ -31411,7 +31411,7 @@
         </is>
       </c>
       <c r="P431" t="n">
-        <v>417</v>
+        <v>1308</v>
       </c>
       <c r="Q431" t="n">
         <v>18</v>
@@ -31437,7 +31437,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44175</v>
+        <v>44435</v>
       </c>
       <c r="E432" t="n">
         <v>4</v>
@@ -31452,7 +31452,7 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
@@ -31461,16 +31461,16 @@
         </is>
       </c>
       <c r="J432" t="n">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="K432" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="L432" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="M432" t="n">
-        <v>4500</v>
+        <v>18600</v>
       </c>
       <c r="N432" t="inlineStr">
         <is>
@@ -31483,7 +31483,7 @@
         </is>
       </c>
       <c r="P432" t="n">
-        <v>250</v>
+        <v>1033</v>
       </c>
       <c r="Q432" t="n">
         <v>18</v>
@@ -31509,7 +31509,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44279</v>
+        <v>44175</v>
       </c>
       <c r="E433" t="n">
         <v>4</v>
@@ -31524,7 +31524,7 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
@@ -31536,13 +31536,13 @@
         <v>300</v>
       </c>
       <c r="K433" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L433" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M433" t="n">
-        <v>7750</v>
+        <v>9500</v>
       </c>
       <c r="N433" t="inlineStr">
         <is>
@@ -31555,7 +31555,7 @@
         </is>
       </c>
       <c r="P433" t="n">
-        <v>431</v>
+        <v>528</v>
       </c>
       <c r="Q433" t="n">
         <v>18</v>
@@ -31581,7 +31581,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44279</v>
+        <v>44175</v>
       </c>
       <c r="E434" t="n">
         <v>4</v>
@@ -31596,7 +31596,7 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
@@ -31605,16 +31605,16 @@
         </is>
       </c>
       <c r="J434" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K434" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L434" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M434" t="n">
-        <v>5750</v>
+        <v>7500</v>
       </c>
       <c r="N434" t="inlineStr">
         <is>
@@ -31627,7 +31627,7 @@
         </is>
       </c>
       <c r="P434" t="n">
-        <v>319</v>
+        <v>417</v>
       </c>
       <c r="Q434" t="n">
         <v>18</v>
@@ -31653,7 +31653,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44279</v>
+        <v>44175</v>
       </c>
       <c r="E435" t="n">
         <v>4</v>
@@ -31668,7 +31668,7 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
@@ -31677,16 +31677,16 @@
         </is>
       </c>
       <c r="J435" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="K435" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L435" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M435" t="n">
-        <v>3750</v>
+        <v>4500</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
@@ -31699,7 +31699,7 @@
         </is>
       </c>
       <c r="P435" t="n">
-        <v>208</v>
+        <v>250</v>
       </c>
       <c r="Q435" t="n">
         <v>18</v>
@@ -31740,7 +31740,7 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
@@ -31749,16 +31749,16 @@
         </is>
       </c>
       <c r="J436" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K436" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L436" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M436" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N436" t="inlineStr">
         <is>
@@ -31771,7 +31771,7 @@
         </is>
       </c>
       <c r="P436" t="n">
-        <v>319</v>
+        <v>431</v>
       </c>
       <c r="Q436" t="n">
         <v>18</v>
@@ -31812,7 +31812,7 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
@@ -31821,16 +31821,16 @@
         </is>
       </c>
       <c r="J437" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K437" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L437" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M437" t="n">
-        <v>3750</v>
+        <v>5750</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
@@ -31843,7 +31843,7 @@
         </is>
       </c>
       <c r="P437" t="n">
-        <v>208</v>
+        <v>319</v>
       </c>
       <c r="Q437" t="n">
         <v>18</v>
@@ -31884,7 +31884,7 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
@@ -31893,16 +31893,16 @@
         </is>
       </c>
       <c r="J438" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="K438" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="L438" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="M438" t="n">
-        <v>1750</v>
+        <v>3750</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         </is>
       </c>
       <c r="P438" t="n">
-        <v>97</v>
+        <v>208</v>
       </c>
       <c r="Q438" t="n">
         <v>18</v>
@@ -31941,7 +31941,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E439" t="n">
         <v>4</v>
@@ -31965,16 +31965,16 @@
         </is>
       </c>
       <c r="J439" t="n">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="K439" t="n">
-        <v>19000</v>
+        <v>5500</v>
       </c>
       <c r="L439" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="M439" t="n">
-        <v>19500</v>
+        <v>5750</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
@@ -31987,7 +31987,7 @@
         </is>
       </c>
       <c r="P439" t="n">
-        <v>1083</v>
+        <v>319</v>
       </c>
       <c r="Q439" t="n">
         <v>18</v>
@@ -32013,7 +32013,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E440" t="n">
         <v>4</v>
@@ -32037,16 +32037,16 @@
         </is>
       </c>
       <c r="J440" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K440" t="n">
-        <v>16000</v>
+        <v>3500</v>
       </c>
       <c r="L440" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="M440" t="n">
-        <v>16500</v>
+        <v>3750</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
@@ -32059,7 +32059,7 @@
         </is>
       </c>
       <c r="P440" t="n">
-        <v>917</v>
+        <v>208</v>
       </c>
       <c r="Q440" t="n">
         <v>18</v>
@@ -32085,7 +32085,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E441" t="n">
         <v>4</v>
@@ -32109,16 +32109,16 @@
         </is>
       </c>
       <c r="J441" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K441" t="n">
-        <v>13000</v>
+        <v>1500</v>
       </c>
       <c r="L441" t="n">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="M441" t="n">
-        <v>13500</v>
+        <v>1750</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         </is>
       </c>
       <c r="P441" t="n">
-        <v>750</v>
+        <v>97</v>
       </c>
       <c r="Q441" t="n">
         <v>18</v>
@@ -32172,7 +32172,7 @@
       </c>
       <c r="H442" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I442" t="inlineStr">
@@ -32181,16 +32181,16 @@
         </is>
       </c>
       <c r="J442" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K442" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="L442" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="M442" t="n">
-        <v>21500</v>
+        <v>19500</v>
       </c>
       <c r="N442" t="inlineStr">
         <is>
@@ -32203,7 +32203,7 @@
         </is>
       </c>
       <c r="P442" t="n">
-        <v>1194</v>
+        <v>1083</v>
       </c>
       <c r="Q442" t="n">
         <v>18</v>
@@ -32244,7 +32244,7 @@
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I443" t="inlineStr">
@@ -32253,16 +32253,16 @@
         </is>
       </c>
       <c r="J443" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K443" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L443" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="M443" t="n">
-        <v>18500</v>
+        <v>16500</v>
       </c>
       <c r="N443" t="inlineStr">
         <is>
@@ -32275,7 +32275,7 @@
         </is>
       </c>
       <c r="P443" t="n">
-        <v>1028</v>
+        <v>917</v>
       </c>
       <c r="Q443" t="n">
         <v>18</v>
@@ -32316,7 +32316,7 @@
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I444" t="inlineStr">
@@ -32325,16 +32325,16 @@
         </is>
       </c>
       <c r="J444" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K444" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L444" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M444" t="n">
-        <v>15500</v>
+        <v>13500</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
@@ -32347,7 +32347,7 @@
         </is>
       </c>
       <c r="P444" t="n">
-        <v>861</v>
+        <v>750</v>
       </c>
       <c r="Q444" t="n">
         <v>18</v>
@@ -32373,7 +32373,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E445" t="n">
         <v>4</v>
@@ -32388,7 +32388,7 @@
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
@@ -32397,16 +32397,16 @@
         </is>
       </c>
       <c r="J445" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K445" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="L445" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="M445" t="n">
-        <v>15500</v>
+        <v>21500</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         </is>
       </c>
       <c r="P445" t="n">
-        <v>861</v>
+        <v>1194</v>
       </c>
       <c r="Q445" t="n">
         <v>18</v>
@@ -32445,7 +32445,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E446" t="n">
         <v>4</v>
@@ -32460,7 +32460,7 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
@@ -32469,16 +32469,16 @@
         </is>
       </c>
       <c r="J446" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K446" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L446" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="M446" t="n">
-        <v>13500</v>
+        <v>18500</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
@@ -32491,7 +32491,7 @@
         </is>
       </c>
       <c r="P446" t="n">
-        <v>750</v>
+        <v>1028</v>
       </c>
       <c r="Q446" t="n">
         <v>18</v>
@@ -32517,7 +32517,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E447" t="n">
         <v>4</v>
@@ -32532,7 +32532,7 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
@@ -32541,16 +32541,16 @@
         </is>
       </c>
       <c r="J447" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K447" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L447" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="M447" t="n">
-        <v>10500</v>
+        <v>15500</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
@@ -32563,7 +32563,7 @@
         </is>
       </c>
       <c r="P447" t="n">
-        <v>583</v>
+        <v>861</v>
       </c>
       <c r="Q447" t="n">
         <v>18</v>
@@ -32604,7 +32604,7 @@
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
@@ -32613,16 +32613,16 @@
         </is>
       </c>
       <c r="J448" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K448" t="n">
-        <v>6500</v>
+        <v>15000</v>
       </c>
       <c r="L448" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="M448" t="n">
-        <v>6750</v>
+        <v>15500</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         </is>
       </c>
       <c r="P448" t="n">
-        <v>375</v>
+        <v>861</v>
       </c>
       <c r="Q448" t="n">
         <v>18</v>
@@ -32676,7 +32676,7 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
@@ -32685,16 +32685,16 @@
         </is>
       </c>
       <c r="J449" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K449" t="n">
-        <v>4500</v>
+        <v>13000</v>
       </c>
       <c r="L449" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="M449" t="n">
-        <v>4750</v>
+        <v>13500</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
@@ -32707,7 +32707,7 @@
         </is>
       </c>
       <c r="P449" t="n">
-        <v>264</v>
+        <v>750</v>
       </c>
       <c r="Q449" t="n">
         <v>18</v>
@@ -32748,7 +32748,7 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
@@ -32757,16 +32757,16 @@
         </is>
       </c>
       <c r="J450" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K450" t="n">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="L450" t="n">
-        <v>3000</v>
+        <v>11000</v>
       </c>
       <c r="M450" t="n">
-        <v>2750</v>
+        <v>10500</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
@@ -32779,7 +32779,7 @@
         </is>
       </c>
       <c r="P450" t="n">
-        <v>153</v>
+        <v>583</v>
       </c>
       <c r="Q450" t="n">
         <v>18</v>
@@ -32805,7 +32805,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E451" t="n">
         <v>4</v>
@@ -32820,7 +32820,7 @@
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
@@ -32829,16 +32829,16 @@
         </is>
       </c>
       <c r="J451" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K451" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="L451" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M451" t="n">
-        <v>9500</v>
+        <v>6750</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
@@ -32851,7 +32851,7 @@
         </is>
       </c>
       <c r="P451" t="n">
-        <v>528</v>
+        <v>375</v>
       </c>
       <c r="Q451" t="n">
         <v>18</v>
@@ -32877,7 +32877,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E452" t="n">
         <v>4</v>
@@ -32892,7 +32892,7 @@
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I452" t="inlineStr">
@@ -32904,13 +32904,13 @@
         <v>400</v>
       </c>
       <c r="K452" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L452" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M452" t="n">
-        <v>7500</v>
+        <v>4750</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
@@ -32923,7 +32923,7 @@
         </is>
       </c>
       <c r="P452" t="n">
-        <v>417</v>
+        <v>264</v>
       </c>
       <c r="Q452" t="n">
         <v>18</v>
@@ -32949,7 +32949,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E453" t="n">
         <v>4</v>
@@ -32964,7 +32964,7 @@
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I453" t="inlineStr">
@@ -32976,13 +32976,13 @@
         <v>300</v>
       </c>
       <c r="K453" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="L453" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M453" t="n">
-        <v>5500</v>
+        <v>2750</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
@@ -32995,7 +32995,7 @@
         </is>
       </c>
       <c r="P453" t="n">
-        <v>306</v>
+        <v>153</v>
       </c>
       <c r="Q453" t="n">
         <v>18</v>
@@ -33036,7 +33036,7 @@
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I454" t="inlineStr">
@@ -33045,16 +33045,16 @@
         </is>
       </c>
       <c r="J454" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="K454" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L454" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M454" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
@@ -33067,7 +33067,7 @@
         </is>
       </c>
       <c r="P454" t="n">
-        <v>361</v>
+        <v>528</v>
       </c>
       <c r="Q454" t="n">
         <v>18</v>
@@ -33108,7 +33108,7 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
@@ -33117,16 +33117,16 @@
         </is>
       </c>
       <c r="J455" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K455" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L455" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M455" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="N455" t="inlineStr">
         <is>
@@ -33139,7 +33139,7 @@
         </is>
       </c>
       <c r="P455" t="n">
-        <v>250</v>
+        <v>417</v>
       </c>
       <c r="Q455" t="n">
         <v>18</v>
@@ -33180,7 +33180,7 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
@@ -33192,13 +33192,13 @@
         <v>300</v>
       </c>
       <c r="K456" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="L456" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M456" t="n">
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
@@ -33211,7 +33211,7 @@
         </is>
       </c>
       <c r="P456" t="n">
-        <v>139</v>
+        <v>306</v>
       </c>
       <c r="Q456" t="n">
         <v>18</v>
@@ -33252,7 +33252,7 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
@@ -33261,16 +33261,16 @@
         </is>
       </c>
       <c r="J457" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="K457" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L457" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M457" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
@@ -33283,7 +33283,7 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>306</v>
+        <v>361</v>
       </c>
       <c r="Q457" t="n">
         <v>18</v>
@@ -33324,7 +33324,7 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
@@ -33333,16 +33333,16 @@
         </is>
       </c>
       <c r="J458" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K458" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L458" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M458" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         </is>
       </c>
       <c r="P458" t="n">
-        <v>194</v>
+        <v>250</v>
       </c>
       <c r="Q458" t="n">
         <v>18</v>
@@ -33396,7 +33396,7 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
@@ -33408,13 +33408,13 @@
         <v>300</v>
       </c>
       <c r="K459" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="L459" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M459" t="n">
-        <v>1750</v>
+        <v>2500</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
@@ -33427,7 +33427,7 @@
         </is>
       </c>
       <c r="P459" t="n">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="Q459" t="n">
         <v>18</v>
@@ -33453,7 +33453,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44167</v>
+        <v>44314</v>
       </c>
       <c r="E460" t="n">
         <v>4</v>
@@ -33468,7 +33468,7 @@
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
@@ -33480,13 +33480,13 @@
         <v>1200</v>
       </c>
       <c r="K460" t="n">
-        <v>13500</v>
+        <v>5000</v>
       </c>
       <c r="L460" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="M460" t="n">
-        <v>13750</v>
+        <v>5500</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
@@ -33499,7 +33499,7 @@
         </is>
       </c>
       <c r="P460" t="n">
-        <v>764</v>
+        <v>306</v>
       </c>
       <c r="Q460" t="n">
         <v>18</v>
@@ -33525,7 +33525,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44167</v>
+        <v>44314</v>
       </c>
       <c r="E461" t="n">
         <v>4</v>
@@ -33540,7 +33540,7 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
@@ -33549,16 +33549,16 @@
         </is>
       </c>
       <c r="J461" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K461" t="n">
-        <v>8500</v>
+        <v>3000</v>
       </c>
       <c r="L461" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="M461" t="n">
-        <v>8750</v>
+        <v>3500</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
@@ -33571,7 +33571,7 @@
         </is>
       </c>
       <c r="P461" t="n">
-        <v>486</v>
+        <v>194</v>
       </c>
       <c r="Q461" t="n">
         <v>18</v>
@@ -33597,7 +33597,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44167</v>
+        <v>44314</v>
       </c>
       <c r="E462" t="n">
         <v>4</v>
@@ -33612,7 +33612,7 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
@@ -33621,16 +33621,16 @@
         </is>
       </c>
       <c r="J462" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K462" t="n">
-        <v>5500</v>
+        <v>1500</v>
       </c>
       <c r="L462" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="M462" t="n">
-        <v>5750</v>
+        <v>1750</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
@@ -33643,7 +33643,7 @@
         </is>
       </c>
       <c r="P462" t="n">
-        <v>319</v>
+        <v>97</v>
       </c>
       <c r="Q462" t="n">
         <v>18</v>
@@ -33669,7 +33669,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E463" t="n">
         <v>4</v>
@@ -33684,7 +33684,7 @@
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
@@ -33693,16 +33693,16 @@
         </is>
       </c>
       <c r="J463" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K463" t="n">
-        <v>11000</v>
+        <v>31000</v>
       </c>
       <c r="L463" t="n">
-        <v>12000</v>
+        <v>32000</v>
       </c>
       <c r="M463" t="n">
-        <v>11500</v>
+        <v>31500</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
@@ -33715,7 +33715,7 @@
         </is>
       </c>
       <c r="P463" t="n">
-        <v>639</v>
+        <v>1750</v>
       </c>
       <c r="Q463" t="n">
         <v>18</v>
@@ -33741,7 +33741,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E464" t="n">
         <v>4</v>
@@ -33756,7 +33756,7 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
@@ -33765,16 +33765,16 @@
         </is>
       </c>
       <c r="J464" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K464" t="n">
-        <v>9000</v>
+        <v>27000</v>
       </c>
       <c r="L464" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="M464" t="n">
-        <v>9500</v>
+        <v>27500</v>
       </c>
       <c r="N464" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         </is>
       </c>
       <c r="P464" t="n">
-        <v>528</v>
+        <v>1528</v>
       </c>
       <c r="Q464" t="n">
         <v>18</v>
@@ -33813,7 +33813,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E465" t="n">
         <v>4</v>
@@ -33828,7 +33828,7 @@
       </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I465" t="inlineStr">
@@ -33840,13 +33840,13 @@
         <v>240</v>
       </c>
       <c r="K465" t="n">
-        <v>7000</v>
+        <v>22000</v>
       </c>
       <c r="L465" t="n">
-        <v>8000</v>
+        <v>23000</v>
       </c>
       <c r="M465" t="n">
-        <v>7500</v>
+        <v>22500</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
@@ -33859,7 +33859,7 @@
         </is>
       </c>
       <c r="P465" t="n">
-        <v>417</v>
+        <v>1250</v>
       </c>
       <c r="Q465" t="n">
         <v>18</v>
@@ -33885,7 +33885,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E466" t="n">
         <v>4</v>
@@ -33900,25 +33900,25 @@
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J466" t="n">
-        <v>700</v>
+        <v>360</v>
       </c>
       <c r="K466" t="n">
-        <v>5500</v>
+        <v>31000</v>
       </c>
       <c r="L466" t="n">
-        <v>6000</v>
+        <v>32000</v>
       </c>
       <c r="M466" t="n">
-        <v>5750</v>
+        <v>31500</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
@@ -33931,7 +33931,7 @@
         </is>
       </c>
       <c r="P466" t="n">
-        <v>319</v>
+        <v>1750</v>
       </c>
       <c r="Q466" t="n">
         <v>18</v>
@@ -33957,7 +33957,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E467" t="n">
         <v>4</v>
@@ -33977,20 +33977,20 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J467" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K467" t="n">
-        <v>3500</v>
+        <v>13500</v>
       </c>
       <c r="L467" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="M467" t="n">
-        <v>3750</v>
+        <v>13750</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
@@ -34003,7 +34003,7 @@
         </is>
       </c>
       <c r="P467" t="n">
-        <v>208</v>
+        <v>764</v>
       </c>
       <c r="Q467" t="n">
         <v>18</v>
@@ -34029,7 +34029,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E468" t="n">
         <v>4</v>
@@ -34049,20 +34049,20 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J468" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K468" t="n">
-        <v>16000</v>
+        <v>8500</v>
       </c>
       <c r="L468" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="M468" t="n">
-        <v>16500</v>
+        <v>8750</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         </is>
       </c>
       <c r="P468" t="n">
-        <v>917</v>
+        <v>486</v>
       </c>
       <c r="Q468" t="n">
         <v>18</v>
@@ -34101,7 +34101,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E469" t="n">
         <v>4</v>
@@ -34121,20 +34121,20 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J469" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K469" t="n">
-        <v>13000</v>
+        <v>5500</v>
       </c>
       <c r="L469" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="M469" t="n">
-        <v>13500</v>
+        <v>5750</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
@@ -34147,7 +34147,7 @@
         </is>
       </c>
       <c r="P469" t="n">
-        <v>750</v>
+        <v>319</v>
       </c>
       <c r="Q469" t="n">
         <v>18</v>
@@ -34173,7 +34173,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E470" t="n">
         <v>4</v>
@@ -34188,25 +34188,25 @@
       </c>
       <c r="H470" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J470" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K470" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L470" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M470" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
@@ -34219,7 +34219,7 @@
         </is>
       </c>
       <c r="P470" t="n">
-        <v>528</v>
+        <v>639</v>
       </c>
       <c r="Q470" t="n">
         <v>18</v>
@@ -34245,7 +34245,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E471" t="n">
         <v>4</v>
@@ -34260,25 +34260,25 @@
       </c>
       <c r="H471" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J471" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K471" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="L471" t="n">
-        <v>18500</v>
+        <v>10000</v>
       </c>
       <c r="M471" t="n">
-        <v>18250</v>
+        <v>9500</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
@@ -34291,7 +34291,7 @@
         </is>
       </c>
       <c r="P471" t="n">
-        <v>1014</v>
+        <v>528</v>
       </c>
       <c r="Q471" t="n">
         <v>18</v>
@@ -34317,7 +34317,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E472" t="n">
         <v>4</v>
@@ -34332,25 +34332,25 @@
       </c>
       <c r="H472" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J472" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K472" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="L472" t="n">
-        <v>16500</v>
+        <v>8000</v>
       </c>
       <c r="M472" t="n">
-        <v>16250</v>
+        <v>7500</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
@@ -34363,7 +34363,7 @@
         </is>
       </c>
       <c r="P472" t="n">
-        <v>903</v>
+        <v>417</v>
       </c>
       <c r="Q472" t="n">
         <v>18</v>
@@ -34389,58 +34389,562 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
+        <v>44238</v>
+      </c>
+      <c r="E473" t="n">
+        <v>4</v>
+      </c>
+      <c r="F473" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G473" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H473" t="inlineStr">
+        <is>
+          <t>Cuatro cascos verde</t>
+        </is>
+      </c>
+      <c r="I473" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J473" t="n">
+        <v>700</v>
+      </c>
+      <c r="K473" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L473" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M473" t="n">
+        <v>5750</v>
+      </c>
+      <c r="N473" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O473" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P473" t="n">
+        <v>319</v>
+      </c>
+      <c r="Q473" t="n">
+        <v>18</v>
+      </c>
+      <c r="R473" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>2</v>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D474" s="2" t="n">
+        <v>44238</v>
+      </c>
+      <c r="E474" t="n">
+        <v>4</v>
+      </c>
+      <c r="F474" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G474" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>Cuatro cascos verde</t>
+        </is>
+      </c>
+      <c r="I474" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J474" t="n">
+        <v>600</v>
+      </c>
+      <c r="K474" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L474" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M474" t="n">
+        <v>3750</v>
+      </c>
+      <c r="N474" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O474" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P474" t="n">
+        <v>208</v>
+      </c>
+      <c r="Q474" t="n">
+        <v>18</v>
+      </c>
+      <c r="R474" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>2</v>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D475" s="2" t="n">
         <v>44399</v>
       </c>
-      <c r="E473" t="n">
-        <v>4</v>
-      </c>
-      <c r="F473" t="n">
-        <v>100112002</v>
-      </c>
-      <c r="G473" t="inlineStr">
-        <is>
-          <t>Pimiento</t>
-        </is>
-      </c>
-      <c r="H473" t="inlineStr">
+      <c r="E475" t="n">
+        <v>4</v>
+      </c>
+      <c r="F475" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G475" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H475" t="inlineStr">
+        <is>
+          <t>Cuatro cascos verde</t>
+        </is>
+      </c>
+      <c r="I475" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J475" t="n">
+        <v>500</v>
+      </c>
+      <c r="K475" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L475" t="n">
+        <v>17000</v>
+      </c>
+      <c r="M475" t="n">
+        <v>16500</v>
+      </c>
+      <c r="N475" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O475" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P475" t="n">
+        <v>917</v>
+      </c>
+      <c r="Q475" t="n">
+        <v>18</v>
+      </c>
+      <c r="R475" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>2</v>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D476" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E476" t="n">
+        <v>4</v>
+      </c>
+      <c r="F476" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G476" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H476" t="inlineStr">
+        <is>
+          <t>Cuatro cascos verde</t>
+        </is>
+      </c>
+      <c r="I476" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J476" t="n">
+        <v>400</v>
+      </c>
+      <c r="K476" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L476" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M476" t="n">
+        <v>13500</v>
+      </c>
+      <c r="N476" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O476" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P476" t="n">
+        <v>750</v>
+      </c>
+      <c r="Q476" t="n">
+        <v>18</v>
+      </c>
+      <c r="R476" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>2</v>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D477" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E477" t="n">
+        <v>4</v>
+      </c>
+      <c r="F477" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H477" t="inlineStr">
+        <is>
+          <t>Cuatro cascos verde</t>
+        </is>
+      </c>
+      <c r="I477" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J477" t="n">
+        <v>200</v>
+      </c>
+      <c r="K477" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L477" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M477" t="n">
+        <v>9500</v>
+      </c>
+      <c r="N477" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O477" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P477" t="n">
+        <v>528</v>
+      </c>
+      <c r="Q477" t="n">
+        <v>18</v>
+      </c>
+      <c r="R477" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>2</v>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D478" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E478" t="n">
+        <v>4</v>
+      </c>
+      <c r="F478" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G478" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H478" t="inlineStr">
         <is>
           <t>Morrón rojo</t>
         </is>
       </c>
-      <c r="I473" t="inlineStr">
+      <c r="I478" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J478" t="n">
+        <v>400</v>
+      </c>
+      <c r="K478" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L478" t="n">
+        <v>18500</v>
+      </c>
+      <c r="M478" t="n">
+        <v>18250</v>
+      </c>
+      <c r="N478" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O478" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P478" t="n">
+        <v>1014</v>
+      </c>
+      <c r="Q478" t="n">
+        <v>18</v>
+      </c>
+      <c r="R478" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>2</v>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D479" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E479" t="n">
+        <v>4</v>
+      </c>
+      <c r="F479" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G479" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H479" t="inlineStr">
+        <is>
+          <t>Morrón rojo</t>
+        </is>
+      </c>
+      <c r="I479" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J479" t="n">
+        <v>400</v>
+      </c>
+      <c r="K479" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L479" t="n">
+        <v>16500</v>
+      </c>
+      <c r="M479" t="n">
+        <v>16250</v>
+      </c>
+      <c r="N479" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O479" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P479" t="n">
+        <v>903</v>
+      </c>
+      <c r="Q479" t="n">
+        <v>18</v>
+      </c>
+      <c r="R479" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>2</v>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D480" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E480" t="n">
+        <v>4</v>
+      </c>
+      <c r="F480" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G480" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H480" t="inlineStr">
+        <is>
+          <t>Morrón rojo</t>
+        </is>
+      </c>
+      <c r="I480" t="inlineStr">
         <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="J473" t="n">
+      <c r="J480" t="n">
         <v>200</v>
       </c>
-      <c r="K473" t="n">
+      <c r="K480" t="n">
         <v>14000</v>
       </c>
-      <c r="L473" t="n">
+      <c r="L480" t="n">
         <v>14500</v>
       </c>
-      <c r="M473" t="n">
+      <c r="M480" t="n">
         <v>14250</v>
       </c>
-      <c r="N473" t="inlineStr">
-        <is>
-          <t>$/caja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O473" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P473" t="n">
+      <c r="N480" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O480" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P480" t="n">
         <v>792</v>
       </c>
-      <c r="Q473" t="n">
-        <v>18</v>
-      </c>
-      <c r="R473" t="inlineStr">
+      <c r="Q480" t="n">
+        <v>18</v>
+      </c>
+      <c r="R480" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pimiento.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pimiento.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R487"/>
+  <dimension ref="A1:R490"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33885,7 +33885,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E466" t="n">
         <v>4</v>
@@ -33900,7 +33900,7 @@
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
@@ -33909,16 +33909,16 @@
         </is>
       </c>
       <c r="J466" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K466" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="L466" t="n">
-        <v>13000</v>
+        <v>31000</v>
       </c>
       <c r="M466" t="n">
-        <v>12500</v>
+        <v>30500</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
@@ -33931,7 +33931,7 @@
         </is>
       </c>
       <c r="P466" t="n">
-        <v>694</v>
+        <v>1694</v>
       </c>
       <c r="Q466" t="n">
         <v>18</v>
@@ -33957,7 +33957,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E467" t="n">
         <v>4</v>
@@ -33972,7 +33972,7 @@
       </c>
       <c r="H467" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I467" t="inlineStr">
@@ -33984,13 +33984,13 @@
         <v>600</v>
       </c>
       <c r="K467" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="L467" t="n">
-        <v>11000</v>
+        <v>29000</v>
       </c>
       <c r="M467" t="n">
-        <v>10500</v>
+        <v>28500</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
@@ -34003,7 +34003,7 @@
         </is>
       </c>
       <c r="P467" t="n">
-        <v>583</v>
+        <v>1583</v>
       </c>
       <c r="Q467" t="n">
         <v>18</v>
@@ -34029,7 +34029,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E468" t="n">
         <v>4</v>
@@ -34044,7 +34044,7 @@
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I468" t="inlineStr">
@@ -34053,16 +34053,16 @@
         </is>
       </c>
       <c r="J468" t="n">
-        <v>530</v>
+        <v>500</v>
       </c>
       <c r="K468" t="n">
-        <v>8000</v>
+        <v>25000</v>
       </c>
       <c r="L468" t="n">
-        <v>9000</v>
+        <v>26000</v>
       </c>
       <c r="M468" t="n">
-        <v>8472</v>
+        <v>25500</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         </is>
       </c>
       <c r="P468" t="n">
-        <v>471</v>
+        <v>1417</v>
       </c>
       <c r="Q468" t="n">
         <v>18</v>
@@ -34116,7 +34116,7 @@
       </c>
       <c r="H469" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I469" t="inlineStr">
@@ -34188,7 +34188,7 @@
       </c>
       <c r="H470" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I470" t="inlineStr">
@@ -34197,7 +34197,7 @@
         </is>
       </c>
       <c r="J470" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K470" t="n">
         <v>10000</v>
@@ -34260,7 +34260,7 @@
       </c>
       <c r="H471" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I471" t="inlineStr">
@@ -34269,7 +34269,7 @@
         </is>
       </c>
       <c r="J471" t="n">
-        <v>260</v>
+        <v>530</v>
       </c>
       <c r="K471" t="n">
         <v>8000</v>
@@ -34278,7 +34278,7 @@
         <v>9000</v>
       </c>
       <c r="M471" t="n">
-        <v>8500</v>
+        <v>8472</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
@@ -34291,7 +34291,7 @@
         </is>
       </c>
       <c r="P471" t="n">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="Q471" t="n">
         <v>18</v>
@@ -34332,7 +34332,7 @@
       </c>
       <c r="H472" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I472" t="inlineStr">
@@ -34341,7 +34341,7 @@
         </is>
       </c>
       <c r="J472" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K472" t="n">
         <v>12000</v>
@@ -34404,7 +34404,7 @@
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
@@ -34413,7 +34413,7 @@
         </is>
       </c>
       <c r="J473" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K473" t="n">
         <v>10000</v>
@@ -34476,7 +34476,7 @@
       </c>
       <c r="H474" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I474" t="inlineStr">
@@ -34485,7 +34485,7 @@
         </is>
       </c>
       <c r="J474" t="n">
-        <v>500</v>
+        <v>260</v>
       </c>
       <c r="K474" t="n">
         <v>8000</v>
@@ -34533,7 +34533,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E475" t="n">
         <v>4</v>
@@ -34548,7 +34548,7 @@
       </c>
       <c r="H475" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I475" t="inlineStr">
@@ -34557,16 +34557,16 @@
         </is>
       </c>
       <c r="J475" t="n">
-        <v>160</v>
+        <v>700</v>
       </c>
       <c r="K475" t="n">
-        <v>14500</v>
+        <v>12000</v>
       </c>
       <c r="L475" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M475" t="n">
-        <v>14750</v>
+        <v>12500</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         </is>
       </c>
       <c r="P475" t="n">
-        <v>819</v>
+        <v>694</v>
       </c>
       <c r="Q475" t="n">
         <v>18</v>
@@ -34605,7 +34605,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E476" t="n">
         <v>4</v>
@@ -34620,7 +34620,7 @@
       </c>
       <c r="H476" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I476" t="inlineStr">
@@ -34629,16 +34629,16 @@
         </is>
       </c>
       <c r="J476" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K476" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="L476" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M476" t="n">
-        <v>12750</v>
+        <v>10500</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
@@ -34651,7 +34651,7 @@
         </is>
       </c>
       <c r="P476" t="n">
-        <v>708</v>
+        <v>583</v>
       </c>
       <c r="Q476" t="n">
         <v>18</v>
@@ -34677,7 +34677,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E477" t="n">
         <v>4</v>
@@ -34692,7 +34692,7 @@
       </c>
       <c r="H477" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I477" t="inlineStr">
@@ -34701,16 +34701,16 @@
         </is>
       </c>
       <c r="J477" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K477" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L477" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M477" t="n">
-        <v>9750</v>
+        <v>8500</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
@@ -34723,7 +34723,7 @@
         </is>
       </c>
       <c r="P477" t="n">
-        <v>542</v>
+        <v>472</v>
       </c>
       <c r="Q477" t="n">
         <v>18</v>
@@ -34764,7 +34764,7 @@
       </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I478" t="inlineStr">
@@ -34773,16 +34773,16 @@
         </is>
       </c>
       <c r="J478" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="K478" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="L478" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M478" t="n">
-        <v>9750</v>
+        <v>14750</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
@@ -34795,7 +34795,7 @@
         </is>
       </c>
       <c r="P478" t="n">
-        <v>542</v>
+        <v>819</v>
       </c>
       <c r="Q478" t="n">
         <v>18</v>
@@ -34836,7 +34836,7 @@
       </c>
       <c r="H479" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I479" t="inlineStr">
@@ -34848,13 +34848,13 @@
         <v>200</v>
       </c>
       <c r="K479" t="n">
-        <v>7500</v>
+        <v>12500</v>
       </c>
       <c r="L479" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M479" t="n">
-        <v>7750</v>
+        <v>12750</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
@@ -34867,7 +34867,7 @@
         </is>
       </c>
       <c r="P479" t="n">
-        <v>431</v>
+        <v>708</v>
       </c>
       <c r="Q479" t="n">
         <v>18</v>
@@ -34908,7 +34908,7 @@
       </c>
       <c r="H480" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I480" t="inlineStr">
@@ -34917,16 +34917,16 @@
         </is>
       </c>
       <c r="J480" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K480" t="n">
-        <v>4500</v>
+        <v>9500</v>
       </c>
       <c r="L480" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M480" t="n">
-        <v>4750</v>
+        <v>9750</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
@@ -34939,7 +34939,7 @@
         </is>
       </c>
       <c r="P480" t="n">
-        <v>264</v>
+        <v>542</v>
       </c>
       <c r="Q480" t="n">
         <v>18</v>
@@ -34965,7 +34965,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44244</v>
+        <v>44203</v>
       </c>
       <c r="E481" t="n">
         <v>4</v>
@@ -34980,7 +34980,7 @@
       </c>
       <c r="H481" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I481" t="inlineStr">
@@ -34989,16 +34989,16 @@
         </is>
       </c>
       <c r="J481" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K481" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L481" t="n">
         <v>10000</v>
       </c>
-      <c r="L481" t="n">
-        <v>11000</v>
-      </c>
       <c r="M481" t="n">
-        <v>10500</v>
+        <v>9750</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         </is>
       </c>
       <c r="P481" t="n">
-        <v>583</v>
+        <v>542</v>
       </c>
       <c r="Q481" t="n">
         <v>18</v>
@@ -35037,7 +35037,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44244</v>
+        <v>44203</v>
       </c>
       <c r="E482" t="n">
         <v>4</v>
@@ -35052,7 +35052,7 @@
       </c>
       <c r="H482" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I482" t="inlineStr">
@@ -35061,16 +35061,16 @@
         </is>
       </c>
       <c r="J482" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K482" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L482" t="n">
         <v>8000</v>
       </c>
       <c r="M482" t="n">
-        <v>7500</v>
+        <v>7750</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
@@ -35083,7 +35083,7 @@
         </is>
       </c>
       <c r="P482" t="n">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="Q482" t="n">
         <v>18</v>
@@ -35109,7 +35109,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44244</v>
+        <v>44203</v>
       </c>
       <c r="E483" t="n">
         <v>4</v>
@@ -35124,7 +35124,7 @@
       </c>
       <c r="H483" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I483" t="inlineStr">
@@ -35133,16 +35133,16 @@
         </is>
       </c>
       <c r="J483" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K483" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L483" t="n">
         <v>5000</v>
       </c>
-      <c r="L483" t="n">
-        <v>6000</v>
-      </c>
       <c r="M483" t="n">
-        <v>5500</v>
+        <v>4750</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
@@ -35155,7 +35155,7 @@
         </is>
       </c>
       <c r="P483" t="n">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="Q483" t="n">
         <v>18</v>
@@ -35196,7 +35196,7 @@
       </c>
       <c r="H484" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I484" t="inlineStr">
@@ -35205,16 +35205,16 @@
         </is>
       </c>
       <c r="J484" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K484" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="L484" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="M484" t="n">
-        <v>4750</v>
+        <v>10500</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
@@ -35227,7 +35227,7 @@
         </is>
       </c>
       <c r="P484" t="n">
-        <v>264</v>
+        <v>583</v>
       </c>
       <c r="Q484" t="n">
         <v>18</v>
@@ -35268,7 +35268,7 @@
       </c>
       <c r="H485" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I485" t="inlineStr">
@@ -35280,13 +35280,13 @@
         <v>300</v>
       </c>
       <c r="K485" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="L485" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="M485" t="n">
-        <v>2750</v>
+        <v>7500</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         </is>
       </c>
       <c r="P485" t="n">
-        <v>153</v>
+        <v>417</v>
       </c>
       <c r="Q485" t="n">
         <v>18</v>
@@ -35340,25 +35340,25 @@
       </c>
       <c r="H486" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J486" t="n">
-        <v>600</v>
+        <v>160</v>
       </c>
       <c r="K486" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="L486" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="M486" t="n">
-        <v>15500</v>
+        <v>5500</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         </is>
       </c>
       <c r="P486" t="n">
-        <v>861</v>
+        <v>306</v>
       </c>
       <c r="Q486" t="n">
         <v>18</v>
@@ -35412,43 +35412,259 @@
       </c>
       <c r="H487" t="inlineStr">
         <is>
+          <t>Cuatro cascos verde</t>
+        </is>
+      </c>
+      <c r="I487" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J487" t="n">
+        <v>600</v>
+      </c>
+      <c r="K487" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L487" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M487" t="n">
+        <v>4750</v>
+      </c>
+      <c r="N487" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O487" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P487" t="n">
+        <v>264</v>
+      </c>
+      <c r="Q487" t="n">
+        <v>18</v>
+      </c>
+      <c r="R487" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>2</v>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D488" s="2" t="n">
+        <v>44244</v>
+      </c>
+      <c r="E488" t="n">
+        <v>4</v>
+      </c>
+      <c r="F488" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G488" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H488" t="inlineStr">
+        <is>
+          <t>Cuatro cascos verde</t>
+        </is>
+      </c>
+      <c r="I488" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J488" t="n">
+        <v>300</v>
+      </c>
+      <c r="K488" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L488" t="n">
+        <v>3000</v>
+      </c>
+      <c r="M488" t="n">
+        <v>2750</v>
+      </c>
+      <c r="N488" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O488" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P488" t="n">
+        <v>153</v>
+      </c>
+      <c r="Q488" t="n">
+        <v>18</v>
+      </c>
+      <c r="R488" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>2</v>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D489" s="2" t="n">
+        <v>44244</v>
+      </c>
+      <c r="E489" t="n">
+        <v>4</v>
+      </c>
+      <c r="F489" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G489" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H489" t="inlineStr">
+        <is>
           <t>Morrón rojo</t>
         </is>
       </c>
-      <c r="I487" t="inlineStr">
+      <c r="I489" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J489" t="n">
+        <v>600</v>
+      </c>
+      <c r="K489" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L489" t="n">
+        <v>16000</v>
+      </c>
+      <c r="M489" t="n">
+        <v>15500</v>
+      </c>
+      <c r="N489" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O489" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P489" t="n">
+        <v>861</v>
+      </c>
+      <c r="Q489" t="n">
+        <v>18</v>
+      </c>
+      <c r="R489" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>2</v>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D490" s="2" t="n">
+        <v>44244</v>
+      </c>
+      <c r="E490" t="n">
+        <v>4</v>
+      </c>
+      <c r="F490" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G490" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H490" t="inlineStr">
+        <is>
+          <t>Morrón rojo</t>
+        </is>
+      </c>
+      <c r="I490" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J487" t="n">
+      <c r="J490" t="n">
         <v>400</v>
       </c>
-      <c r="K487" t="n">
+      <c r="K490" t="n">
         <v>12000</v>
       </c>
-      <c r="L487" t="n">
+      <c r="L490" t="n">
         <v>13000</v>
       </c>
-      <c r="M487" t="n">
+      <c r="M490" t="n">
         <v>12500</v>
       </c>
-      <c r="N487" t="inlineStr">
-        <is>
-          <t>$/caja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O487" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P487" t="n">
+      <c r="N490" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O490" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P490" t="n">
         <v>694</v>
       </c>
-      <c r="Q487" t="n">
-        <v>18</v>
-      </c>
-      <c r="R487" t="inlineStr">
+      <c r="Q490" t="n">
+        <v>18</v>
+      </c>
+      <c r="R490" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pimiento.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pimiento.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R496"/>
+  <dimension ref="A1:R499"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27981,7 +27981,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44308</v>
+        <v>44468</v>
       </c>
       <c r="E384" t="n">
         <v>4</v>
@@ -28005,16 +28005,16 @@
         </is>
       </c>
       <c r="J384" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K384" t="n">
-        <v>7500</v>
+        <v>32000</v>
       </c>
       <c r="L384" t="n">
-        <v>8000</v>
+        <v>33000</v>
       </c>
       <c r="M384" t="n">
-        <v>7750</v>
+        <v>32500</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         </is>
       </c>
       <c r="P384" t="n">
-        <v>431</v>
+        <v>1806</v>
       </c>
       <c r="Q384" t="n">
         <v>18</v>
@@ -28053,7 +28053,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44308</v>
+        <v>44468</v>
       </c>
       <c r="E385" t="n">
         <v>4</v>
@@ -28077,16 +28077,16 @@
         </is>
       </c>
       <c r="J385" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K385" t="n">
-        <v>5500</v>
+        <v>29000</v>
       </c>
       <c r="L385" t="n">
-        <v>6000</v>
+        <v>30000</v>
       </c>
       <c r="M385" t="n">
-        <v>5750</v>
+        <v>29500</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
@@ -28099,7 +28099,7 @@
         </is>
       </c>
       <c r="P385" t="n">
-        <v>319</v>
+        <v>1639</v>
       </c>
       <c r="Q385" t="n">
         <v>18</v>
@@ -28125,7 +28125,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44308</v>
+        <v>44468</v>
       </c>
       <c r="E386" t="n">
         <v>4</v>
@@ -28149,16 +28149,16 @@
         </is>
       </c>
       <c r="J386" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K386" t="n">
-        <v>3500</v>
+        <v>25000</v>
       </c>
       <c r="L386" t="n">
-        <v>4000</v>
+        <v>26000</v>
       </c>
       <c r="M386" t="n">
-        <v>3750</v>
+        <v>25500</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
@@ -28171,7 +28171,7 @@
         </is>
       </c>
       <c r="P386" t="n">
-        <v>208</v>
+        <v>1417</v>
       </c>
       <c r="Q386" t="n">
         <v>18</v>
@@ -28212,7 +28212,7 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
@@ -28221,16 +28221,16 @@
         </is>
       </c>
       <c r="J387" t="n">
-        <v>360</v>
+        <v>600</v>
       </c>
       <c r="K387" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L387" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M387" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
@@ -28243,7 +28243,7 @@
         </is>
       </c>
       <c r="P387" t="n">
-        <v>319</v>
+        <v>431</v>
       </c>
       <c r="Q387" t="n">
         <v>18</v>
@@ -28284,7 +28284,7 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
@@ -28296,13 +28296,13 @@
         <v>400</v>
       </c>
       <c r="K388" t="n">
-        <v>3200</v>
+        <v>5500</v>
       </c>
       <c r="L388" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M388" t="n">
-        <v>3600</v>
+        <v>5750</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         </is>
       </c>
       <c r="P388" t="n">
-        <v>200</v>
+        <v>319</v>
       </c>
       <c r="Q388" t="n">
         <v>18</v>
@@ -28356,7 +28356,7 @@
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
@@ -28368,13 +28368,13 @@
         <v>200</v>
       </c>
       <c r="K389" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="L389" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="M389" t="n">
-        <v>2250</v>
+        <v>3750</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
@@ -28387,7 +28387,7 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>125</v>
+        <v>208</v>
       </c>
       <c r="Q389" t="n">
         <v>18</v>
@@ -28413,7 +28413,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44301</v>
+        <v>44308</v>
       </c>
       <c r="E390" t="n">
         <v>4</v>
@@ -28428,7 +28428,7 @@
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
@@ -28437,16 +28437,16 @@
         </is>
       </c>
       <c r="J390" t="n">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="K390" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L390" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M390" t="n">
-        <v>7500</v>
+        <v>5750</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
@@ -28459,7 +28459,7 @@
         </is>
       </c>
       <c r="P390" t="n">
-        <v>417</v>
+        <v>319</v>
       </c>
       <c r="Q390" t="n">
         <v>18</v>
@@ -28485,7 +28485,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44301</v>
+        <v>44308</v>
       </c>
       <c r="E391" t="n">
         <v>4</v>
@@ -28500,7 +28500,7 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
@@ -28509,16 +28509,16 @@
         </is>
       </c>
       <c r="J391" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K391" t="n">
-        <v>5000</v>
+        <v>3200</v>
       </c>
       <c r="L391" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M391" t="n">
-        <v>5500</v>
+        <v>3600</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
@@ -28531,7 +28531,7 @@
         </is>
       </c>
       <c r="P391" t="n">
-        <v>306</v>
+        <v>200</v>
       </c>
       <c r="Q391" t="n">
         <v>18</v>
@@ -28557,7 +28557,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44301</v>
+        <v>44308</v>
       </c>
       <c r="E392" t="n">
         <v>4</v>
@@ -28572,7 +28572,7 @@
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
@@ -28581,16 +28581,16 @@
         </is>
       </c>
       <c r="J392" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K392" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L392" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="M392" t="n">
-        <v>3500</v>
+        <v>2250</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         </is>
       </c>
       <c r="P392" t="n">
-        <v>194</v>
+        <v>125</v>
       </c>
       <c r="Q392" t="n">
         <v>18</v>
@@ -28644,7 +28644,7 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
@@ -28653,16 +28653,16 @@
         </is>
       </c>
       <c r="J393" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K393" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L393" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M393" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         </is>
       </c>
       <c r="P393" t="n">
-        <v>306</v>
+        <v>417</v>
       </c>
       <c r="Q393" t="n">
         <v>18</v>
@@ -28716,7 +28716,7 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
@@ -28725,16 +28725,16 @@
         </is>
       </c>
       <c r="J394" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="K394" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L394" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M394" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
@@ -28747,7 +28747,7 @@
         </is>
       </c>
       <c r="P394" t="n">
-        <v>194</v>
+        <v>306</v>
       </c>
       <c r="Q394" t="n">
         <v>18</v>
@@ -28773,7 +28773,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E395" t="n">
         <v>4</v>
@@ -28788,25 +28788,25 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J395" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K395" t="n">
-        <v>7500</v>
+        <v>3000</v>
       </c>
       <c r="L395" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M395" t="n">
-        <v>7750</v>
+        <v>3500</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>431</v>
+        <v>194</v>
       </c>
       <c r="Q395" t="n">
         <v>18</v>
@@ -28845,7 +28845,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E396" t="n">
         <v>4</v>
@@ -28860,25 +28860,25 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J396" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="K396" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L396" t="n">
         <v>6000</v>
       </c>
       <c r="M396" t="n">
-        <v>5750</v>
+        <v>5500</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         </is>
       </c>
       <c r="P396" t="n">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="Q396" t="n">
         <v>18</v>
@@ -28917,7 +28917,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E397" t="n">
         <v>4</v>
@@ -28932,25 +28932,25 @@
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J397" t="n">
-        <v>160</v>
+        <v>600</v>
       </c>
       <c r="K397" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L397" t="n">
         <v>4000</v>
       </c>
       <c r="M397" t="n">
-        <v>3750</v>
+        <v>3500</v>
       </c>
       <c r="N397" t="inlineStr">
         <is>
@@ -28963,7 +28963,7 @@
         </is>
       </c>
       <c r="P397" t="n">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="Q397" t="n">
         <v>18</v>
@@ -29004,7 +29004,7 @@
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
@@ -29013,16 +29013,16 @@
         </is>
       </c>
       <c r="J398" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K398" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="L398" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M398" t="n">
-        <v>4500</v>
+        <v>7750</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="P398" t="n">
-        <v>250</v>
+        <v>431</v>
       </c>
       <c r="Q398" t="n">
         <v>18</v>
@@ -29076,7 +29076,7 @@
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
@@ -29085,16 +29085,16 @@
         </is>
       </c>
       <c r="J399" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K399" t="n">
-        <v>2000</v>
+        <v>5500</v>
       </c>
       <c r="L399" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M399" t="n">
-        <v>2500</v>
+        <v>5750</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         </is>
       </c>
       <c r="P399" t="n">
-        <v>139</v>
+        <v>319</v>
       </c>
       <c r="Q399" t="n">
         <v>18</v>
@@ -29148,25 +29148,25 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J400" t="n">
-        <v>1100</v>
+        <v>160</v>
       </c>
       <c r="K400" t="n">
-        <v>9000</v>
+        <v>3500</v>
       </c>
       <c r="L400" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M400" t="n">
-        <v>9500</v>
+        <v>3750</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         </is>
       </c>
       <c r="P400" t="n">
-        <v>528</v>
+        <v>208</v>
       </c>
       <c r="Q400" t="n">
         <v>18</v>
@@ -29220,25 +29220,25 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J401" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K401" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L401" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M401" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         </is>
       </c>
       <c r="P401" t="n">
-        <v>417</v>
+        <v>250</v>
       </c>
       <c r="Q401" t="n">
         <v>18</v>
@@ -29277,7 +29277,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E402" t="n">
         <v>4</v>
@@ -29292,25 +29292,25 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J402" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K402" t="n">
-        <v>7500</v>
+        <v>2000</v>
       </c>
       <c r="L402" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="M402" t="n">
-        <v>7750</v>
+        <v>2500</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         </is>
       </c>
       <c r="P402" t="n">
-        <v>431</v>
+        <v>139</v>
       </c>
       <c r="Q402" t="n">
         <v>18</v>
@@ -29349,7 +29349,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E403" t="n">
         <v>4</v>
@@ -29364,25 +29364,25 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J403" t="n">
-        <v>240</v>
+        <v>1100</v>
       </c>
       <c r="K403" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="L403" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M403" t="n">
-        <v>5750</v>
+        <v>9500</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
@@ -29395,7 +29395,7 @@
         </is>
       </c>
       <c r="P403" t="n">
-        <v>319</v>
+        <v>528</v>
       </c>
       <c r="Q403" t="n">
         <v>18</v>
@@ -29421,7 +29421,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E404" t="n">
         <v>4</v>
@@ -29436,25 +29436,25 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J404" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="K404" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="L404" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M404" t="n">
-        <v>3750</v>
+        <v>7500</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
@@ -29467,7 +29467,7 @@
         </is>
       </c>
       <c r="P404" t="n">
-        <v>208</v>
+        <v>417</v>
       </c>
       <c r="Q404" t="n">
         <v>18</v>
@@ -29508,7 +29508,7 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
@@ -29517,16 +29517,16 @@
         </is>
       </c>
       <c r="J405" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="K405" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="L405" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M405" t="n">
-        <v>4500</v>
+        <v>7750</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
@@ -29539,7 +29539,7 @@
         </is>
       </c>
       <c r="P405" t="n">
-        <v>250</v>
+        <v>431</v>
       </c>
       <c r="Q405" t="n">
         <v>18</v>
@@ -29580,7 +29580,7 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
@@ -29589,16 +29589,16 @@
         </is>
       </c>
       <c r="J406" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="K406" t="n">
-        <v>2000</v>
+        <v>5500</v>
       </c>
       <c r="L406" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M406" t="n">
-        <v>2500</v>
+        <v>5750</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         </is>
       </c>
       <c r="P406" t="n">
-        <v>139</v>
+        <v>319</v>
       </c>
       <c r="Q406" t="n">
         <v>18</v>
@@ -29652,25 +29652,25 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J407" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="K407" t="n">
-        <v>9000</v>
+        <v>3500</v>
       </c>
       <c r="L407" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M407" t="n">
-        <v>9500</v>
+        <v>3750</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
@@ -29683,7 +29683,7 @@
         </is>
       </c>
       <c r="P407" t="n">
-        <v>528</v>
+        <v>208</v>
       </c>
       <c r="Q407" t="n">
         <v>18</v>
@@ -29724,25 +29724,25 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J408" t="n">
         <v>700</v>
       </c>
       <c r="K408" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L408" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M408" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         </is>
       </c>
       <c r="P408" t="n">
-        <v>417</v>
+        <v>250</v>
       </c>
       <c r="Q408" t="n">
         <v>18</v>
@@ -29781,7 +29781,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E409" t="n">
         <v>4</v>
@@ -29801,20 +29801,20 @@
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J409" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="K409" t="n">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="L409" t="n">
-        <v>13500</v>
+        <v>3000</v>
       </c>
       <c r="M409" t="n">
-        <v>13250</v>
+        <v>2500</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
@@ -29827,7 +29827,7 @@
         </is>
       </c>
       <c r="P409" t="n">
-        <v>736</v>
+        <v>139</v>
       </c>
       <c r="Q409" t="n">
         <v>18</v>
@@ -29853,7 +29853,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E410" t="n">
         <v>4</v>
@@ -29868,25 +29868,25 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J410" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="K410" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L410" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="M410" t="n">
-        <v>8250</v>
+        <v>9500</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
@@ -29899,7 +29899,7 @@
         </is>
       </c>
       <c r="P410" t="n">
-        <v>458</v>
+        <v>528</v>
       </c>
       <c r="Q410" t="n">
         <v>18</v>
@@ -29925,7 +29925,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E411" t="n">
         <v>4</v>
@@ -29940,25 +29940,25 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J411" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K411" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L411" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="M411" t="n">
-        <v>5250</v>
+        <v>7500</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
@@ -29971,7 +29971,7 @@
         </is>
       </c>
       <c r="P411" t="n">
-        <v>292</v>
+        <v>417</v>
       </c>
       <c r="Q411" t="n">
         <v>18</v>
@@ -29997,7 +29997,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44433</v>
+        <v>44168</v>
       </c>
       <c r="E412" t="n">
         <v>4</v>
@@ -30021,16 +30021,16 @@
         </is>
       </c>
       <c r="J412" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="K412" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="L412" t="n">
-        <v>25000</v>
+        <v>13500</v>
       </c>
       <c r="M412" t="n">
-        <v>24500</v>
+        <v>13250</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
@@ -30043,7 +30043,7 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>1361</v>
+        <v>736</v>
       </c>
       <c r="Q412" t="n">
         <v>18</v>
@@ -30069,7 +30069,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44433</v>
+        <v>44168</v>
       </c>
       <c r="E413" t="n">
         <v>4</v>
@@ -30093,16 +30093,16 @@
         </is>
       </c>
       <c r="J413" t="n">
-        <v>470</v>
+        <v>700</v>
       </c>
       <c r="K413" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="L413" t="n">
-        <v>23000</v>
+        <v>8500</v>
       </c>
       <c r="M413" t="n">
-        <v>22532</v>
+        <v>8250</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
@@ -30115,7 +30115,7 @@
         </is>
       </c>
       <c r="P413" t="n">
-        <v>1252</v>
+        <v>458</v>
       </c>
       <c r="Q413" t="n">
         <v>18</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44433</v>
+        <v>44168</v>
       </c>
       <c r="E414" t="n">
         <v>4</v>
@@ -30165,16 +30165,16 @@
         </is>
       </c>
       <c r="J414" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K414" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="L414" t="n">
-        <v>19000</v>
+        <v>5500</v>
       </c>
       <c r="M414" t="n">
-        <v>18500</v>
+        <v>5250</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
@@ -30187,7 +30187,7 @@
         </is>
       </c>
       <c r="P414" t="n">
-        <v>1028</v>
+        <v>292</v>
       </c>
       <c r="Q414" t="n">
         <v>18</v>
@@ -30228,7 +30228,7 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
@@ -30240,13 +30240,13 @@
         <v>600</v>
       </c>
       <c r="K415" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="L415" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M415" t="n">
-        <v>29000</v>
+        <v>24500</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
@@ -30259,7 +30259,7 @@
         </is>
       </c>
       <c r="P415" t="n">
-        <v>1611</v>
+        <v>1361</v>
       </c>
       <c r="Q415" t="n">
         <v>18</v>
@@ -30300,7 +30300,7 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
@@ -30309,16 +30309,16 @@
         </is>
       </c>
       <c r="J416" t="n">
-        <v>600</v>
+        <v>470</v>
       </c>
       <c r="K416" t="n">
+        <v>22000</v>
+      </c>
+      <c r="L416" t="n">
         <v>23000</v>
       </c>
-      <c r="L416" t="n">
-        <v>25000</v>
-      </c>
       <c r="M416" t="n">
-        <v>24000</v>
+        <v>22532</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>1333</v>
+        <v>1252</v>
       </c>
       <c r="Q416" t="n">
         <v>18</v>
@@ -30372,7 +30372,7 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
@@ -30381,16 +30381,16 @@
         </is>
       </c>
       <c r="J417" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K417" t="n">
         <v>18000</v>
       </c>
       <c r="L417" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="M417" t="n">
-        <v>19000</v>
+        <v>18500</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
@@ -30403,7 +30403,7 @@
         </is>
       </c>
       <c r="P417" t="n">
-        <v>1056</v>
+        <v>1028</v>
       </c>
       <c r="Q417" t="n">
         <v>18</v>
@@ -30429,7 +30429,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E418" t="n">
         <v>4</v>
@@ -30444,7 +30444,7 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
@@ -30453,16 +30453,16 @@
         </is>
       </c>
       <c r="J418" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K418" t="n">
-        <v>14500</v>
+        <v>28000</v>
       </c>
       <c r="L418" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="M418" t="n">
-        <v>14750</v>
+        <v>29000</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         </is>
       </c>
       <c r="P418" t="n">
-        <v>819</v>
+        <v>1611</v>
       </c>
       <c r="Q418" t="n">
         <v>18</v>
@@ -30501,7 +30501,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E419" t="n">
         <v>4</v>
@@ -30516,7 +30516,7 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
@@ -30525,16 +30525,16 @@
         </is>
       </c>
       <c r="J419" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K419" t="n">
-        <v>11500</v>
+        <v>23000</v>
       </c>
       <c r="L419" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="M419" t="n">
-        <v>11750</v>
+        <v>24000</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         </is>
       </c>
       <c r="P419" t="n">
-        <v>653</v>
+        <v>1333</v>
       </c>
       <c r="Q419" t="n">
         <v>18</v>
@@ -30573,7 +30573,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E420" t="n">
         <v>4</v>
@@ -30588,7 +30588,7 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
@@ -30597,16 +30597,16 @@
         </is>
       </c>
       <c r="J420" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="K420" t="n">
-        <v>8500</v>
+        <v>18000</v>
       </c>
       <c r="L420" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="M420" t="n">
-        <v>8750</v>
+        <v>19000</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>486</v>
+        <v>1056</v>
       </c>
       <c r="Q420" t="n">
         <v>18</v>
@@ -30660,7 +30660,7 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
@@ -30669,16 +30669,16 @@
         </is>
       </c>
       <c r="J421" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K421" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="L421" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M421" t="n">
-        <v>13750</v>
+        <v>14750</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
@@ -30691,7 +30691,7 @@
         </is>
       </c>
       <c r="P421" t="n">
-        <v>764</v>
+        <v>819</v>
       </c>
       <c r="Q421" t="n">
         <v>18</v>
@@ -30732,7 +30732,7 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
@@ -30741,7 +30741,7 @@
         </is>
       </c>
       <c r="J422" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K422" t="n">
         <v>11500</v>
@@ -30804,7 +30804,7 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
@@ -30813,16 +30813,16 @@
         </is>
       </c>
       <c r="J423" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K423" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="L423" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M423" t="n">
-        <v>9750</v>
+        <v>8750</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
@@ -30835,7 +30835,7 @@
         </is>
       </c>
       <c r="P423" t="n">
-        <v>542</v>
+        <v>486</v>
       </c>
       <c r="Q423" t="n">
         <v>18</v>
@@ -30861,7 +30861,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E424" t="n">
         <v>4</v>
@@ -30876,7 +30876,7 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
@@ -30885,16 +30885,16 @@
         </is>
       </c>
       <c r="J424" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K424" t="n">
-        <v>7500</v>
+        <v>13500</v>
       </c>
       <c r="L424" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M424" t="n">
-        <v>7750</v>
+        <v>13750</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
@@ -30907,7 +30907,7 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>431</v>
+        <v>764</v>
       </c>
       <c r="Q424" t="n">
         <v>18</v>
@@ -30933,7 +30933,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E425" t="n">
         <v>4</v>
@@ -30948,7 +30948,7 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
@@ -30957,16 +30957,16 @@
         </is>
       </c>
       <c r="J425" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K425" t="n">
-        <v>5500</v>
+        <v>11500</v>
       </c>
       <c r="L425" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M425" t="n">
-        <v>5750</v>
+        <v>11750</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>319</v>
+        <v>653</v>
       </c>
       <c r="Q425" t="n">
         <v>18</v>
@@ -31005,7 +31005,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E426" t="n">
         <v>4</v>
@@ -31020,7 +31020,7 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
@@ -31029,16 +31029,16 @@
         </is>
       </c>
       <c r="J426" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="K426" t="n">
-        <v>3500</v>
+        <v>9500</v>
       </c>
       <c r="L426" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="M426" t="n">
-        <v>3750</v>
+        <v>9750</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>208</v>
+        <v>542</v>
       </c>
       <c r="Q426" t="n">
         <v>18</v>
@@ -31092,7 +31092,7 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
@@ -31101,16 +31101,16 @@
         </is>
       </c>
       <c r="J427" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K427" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L427" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M427" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N427" t="inlineStr">
         <is>
@@ -31123,7 +31123,7 @@
         </is>
       </c>
       <c r="P427" t="n">
-        <v>319</v>
+        <v>431</v>
       </c>
       <c r="Q427" t="n">
         <v>18</v>
@@ -31164,7 +31164,7 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
@@ -31173,16 +31173,16 @@
         </is>
       </c>
       <c r="J428" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K428" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L428" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M428" t="n">
-        <v>3750</v>
+        <v>5750</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         </is>
       </c>
       <c r="P428" t="n">
-        <v>208</v>
+        <v>319</v>
       </c>
       <c r="Q428" t="n">
         <v>18</v>
@@ -31236,7 +31236,7 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
@@ -31245,16 +31245,16 @@
         </is>
       </c>
       <c r="J429" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="K429" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="L429" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="M429" t="n">
-        <v>1750</v>
+        <v>3750</v>
       </c>
       <c r="N429" t="inlineStr">
         <is>
@@ -31267,7 +31267,7 @@
         </is>
       </c>
       <c r="P429" t="n">
-        <v>97</v>
+        <v>208</v>
       </c>
       <c r="Q429" t="n">
         <v>18</v>
@@ -31293,7 +31293,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44363</v>
+        <v>44279</v>
       </c>
       <c r="E430" t="n">
         <v>4</v>
@@ -31308,7 +31308,7 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
@@ -31317,16 +31317,16 @@
         </is>
       </c>
       <c r="J430" t="n">
-        <v>800</v>
+        <v>360</v>
       </c>
       <c r="K430" t="n">
-        <v>15000</v>
+        <v>5500</v>
       </c>
       <c r="L430" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="M430" t="n">
-        <v>15500</v>
+        <v>5750</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
@@ -31339,7 +31339,7 @@
         </is>
       </c>
       <c r="P430" t="n">
-        <v>861</v>
+        <v>319</v>
       </c>
       <c r="Q430" t="n">
         <v>18</v>
@@ -31365,7 +31365,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44363</v>
+        <v>44279</v>
       </c>
       <c r="E431" t="n">
         <v>4</v>
@@ -31380,7 +31380,7 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
@@ -31389,16 +31389,16 @@
         </is>
       </c>
       <c r="J431" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="K431" t="n">
-        <v>12000</v>
+        <v>3500</v>
       </c>
       <c r="L431" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="M431" t="n">
-        <v>12500</v>
+        <v>3750</v>
       </c>
       <c r="N431" t="inlineStr">
         <is>
@@ -31411,7 +31411,7 @@
         </is>
       </c>
       <c r="P431" t="n">
-        <v>694</v>
+        <v>208</v>
       </c>
       <c r="Q431" t="n">
         <v>18</v>
@@ -31437,7 +31437,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44363</v>
+        <v>44279</v>
       </c>
       <c r="E432" t="n">
         <v>4</v>
@@ -31452,7 +31452,7 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
@@ -31461,16 +31461,16 @@
         </is>
       </c>
       <c r="J432" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K432" t="n">
-        <v>9000</v>
+        <v>1500</v>
       </c>
       <c r="L432" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="M432" t="n">
-        <v>9500</v>
+        <v>1750</v>
       </c>
       <c r="N432" t="inlineStr">
         <is>
@@ -31483,7 +31483,7 @@
         </is>
       </c>
       <c r="P432" t="n">
-        <v>528</v>
+        <v>97</v>
       </c>
       <c r="Q432" t="n">
         <v>18</v>
@@ -31524,7 +31524,7 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
@@ -31533,16 +31533,16 @@
         </is>
       </c>
       <c r="J433" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="K433" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L433" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M433" t="n">
-        <v>13500</v>
+        <v>15500</v>
       </c>
       <c r="N433" t="inlineStr">
         <is>
@@ -31555,7 +31555,7 @@
         </is>
       </c>
       <c r="P433" t="n">
-        <v>750</v>
+        <v>861</v>
       </c>
       <c r="Q433" t="n">
         <v>18</v>
@@ -31596,7 +31596,7 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
@@ -31605,16 +31605,16 @@
         </is>
       </c>
       <c r="J434" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K434" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L434" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M434" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="N434" t="inlineStr">
         <is>
@@ -31627,7 +31627,7 @@
         </is>
       </c>
       <c r="P434" t="n">
-        <v>583</v>
+        <v>694</v>
       </c>
       <c r="Q434" t="n">
         <v>18</v>
@@ -31668,7 +31668,7 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
@@ -31677,16 +31677,16 @@
         </is>
       </c>
       <c r="J435" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K435" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L435" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M435" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
@@ -31699,7 +31699,7 @@
         </is>
       </c>
       <c r="P435" t="n">
-        <v>472</v>
+        <v>528</v>
       </c>
       <c r="Q435" t="n">
         <v>18</v>
@@ -31740,7 +31740,7 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
@@ -31749,7 +31749,7 @@
         </is>
       </c>
       <c r="J436" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="K436" t="n">
         <v>13000</v>
@@ -31812,7 +31812,7 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
@@ -31821,16 +31821,16 @@
         </is>
       </c>
       <c r="J437" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K437" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L437" t="n">
         <v>11000</v>
       </c>
-      <c r="L437" t="n">
-        <v>12000</v>
-      </c>
       <c r="M437" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
@@ -31843,7 +31843,7 @@
         </is>
       </c>
       <c r="P437" t="n">
-        <v>639</v>
+        <v>583</v>
       </c>
       <c r="Q437" t="n">
         <v>18</v>
@@ -31884,7 +31884,7 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
@@ -31893,16 +31893,16 @@
         </is>
       </c>
       <c r="J438" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K438" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L438" t="n">
         <v>9000</v>
       </c>
-      <c r="L438" t="n">
-        <v>10000</v>
-      </c>
       <c r="M438" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         </is>
       </c>
       <c r="P438" t="n">
-        <v>528</v>
+        <v>472</v>
       </c>
       <c r="Q438" t="n">
         <v>18</v>
@@ -31941,7 +31941,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E439" t="n">
         <v>4</v>
@@ -31956,7 +31956,7 @@
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I439" t="inlineStr">
@@ -31965,16 +31965,16 @@
         </is>
       </c>
       <c r="J439" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="K439" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="L439" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M439" t="n">
-        <v>7750</v>
+        <v>13500</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
@@ -31987,7 +31987,7 @@
         </is>
       </c>
       <c r="P439" t="n">
-        <v>431</v>
+        <v>750</v>
       </c>
       <c r="Q439" t="n">
         <v>18</v>
@@ -32013,7 +32013,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E440" t="n">
         <v>4</v>
@@ -32028,7 +32028,7 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
@@ -32037,16 +32037,16 @@
         </is>
       </c>
       <c r="J440" t="n">
-        <v>240</v>
+        <v>700</v>
       </c>
       <c r="K440" t="n">
-        <v>5500</v>
+        <v>11000</v>
       </c>
       <c r="L440" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M440" t="n">
-        <v>5750</v>
+        <v>11500</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
@@ -32059,7 +32059,7 @@
         </is>
       </c>
       <c r="P440" t="n">
-        <v>319</v>
+        <v>639</v>
       </c>
       <c r="Q440" t="n">
         <v>18</v>
@@ -32085,7 +32085,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E441" t="n">
         <v>4</v>
@@ -32100,7 +32100,7 @@
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I441" t="inlineStr">
@@ -32109,16 +32109,16 @@
         </is>
       </c>
       <c r="J441" t="n">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="K441" t="n">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="L441" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="M441" t="n">
-        <v>3750</v>
+        <v>9500</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         </is>
       </c>
       <c r="P441" t="n">
-        <v>208</v>
+        <v>528</v>
       </c>
       <c r="Q441" t="n">
         <v>18</v>
@@ -32172,7 +32172,7 @@
       </c>
       <c r="H442" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I442" t="inlineStr">
@@ -32181,16 +32181,16 @@
         </is>
       </c>
       <c r="J442" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="K442" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L442" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M442" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N442" t="inlineStr">
         <is>
@@ -32203,7 +32203,7 @@
         </is>
       </c>
       <c r="P442" t="n">
-        <v>319</v>
+        <v>431</v>
       </c>
       <c r="Q442" t="n">
         <v>18</v>
@@ -32244,7 +32244,7 @@
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I443" t="inlineStr">
@@ -32253,16 +32253,16 @@
         </is>
       </c>
       <c r="J443" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K443" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L443" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M443" t="n">
-        <v>3750</v>
+        <v>5750</v>
       </c>
       <c r="N443" t="inlineStr">
         <is>
@@ -32275,7 +32275,7 @@
         </is>
       </c>
       <c r="P443" t="n">
-        <v>208</v>
+        <v>319</v>
       </c>
       <c r="Q443" t="n">
         <v>18</v>
@@ -32316,7 +32316,7 @@
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I444" t="inlineStr">
@@ -32325,16 +32325,16 @@
         </is>
       </c>
       <c r="J444" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="K444" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="L444" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="M444" t="n">
-        <v>1750</v>
+        <v>3750</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
@@ -32347,7 +32347,7 @@
         </is>
       </c>
       <c r="P444" t="n">
-        <v>97</v>
+        <v>208</v>
       </c>
       <c r="Q444" t="n">
         <v>18</v>
@@ -32373,7 +32373,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44286</v>
+        <v>44273</v>
       </c>
       <c r="E445" t="n">
         <v>4</v>
@@ -32388,7 +32388,7 @@
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
@@ -32397,16 +32397,16 @@
         </is>
       </c>
       <c r="J445" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="K445" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L445" t="n">
         <v>6000</v>
       </c>
       <c r="M445" t="n">
-        <v>5500</v>
+        <v>5750</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         </is>
       </c>
       <c r="P445" t="n">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="Q445" t="n">
         <v>18</v>
@@ -32445,7 +32445,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44286</v>
+        <v>44273</v>
       </c>
       <c r="E446" t="n">
         <v>4</v>
@@ -32460,7 +32460,7 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
@@ -32469,16 +32469,16 @@
         </is>
       </c>
       <c r="J446" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K446" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L446" t="n">
         <v>4000</v>
       </c>
       <c r="M446" t="n">
-        <v>3500</v>
+        <v>3750</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
@@ -32491,7 +32491,7 @@
         </is>
       </c>
       <c r="P446" t="n">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="Q446" t="n">
         <v>18</v>
@@ -32517,7 +32517,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44286</v>
+        <v>44273</v>
       </c>
       <c r="E447" t="n">
         <v>4</v>
@@ -32537,20 +32537,20 @@
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J447" t="n">
-        <v>1200</v>
+        <v>240</v>
       </c>
       <c r="K447" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="L447" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="M447" t="n">
-        <v>4500</v>
+        <v>1750</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
@@ -32563,7 +32563,7 @@
         </is>
       </c>
       <c r="P447" t="n">
-        <v>250</v>
+        <v>97</v>
       </c>
       <c r="Q447" t="n">
         <v>18</v>
@@ -32604,25 +32604,25 @@
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J448" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="K448" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="L448" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M448" t="n">
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         </is>
       </c>
       <c r="P448" t="n">
-        <v>139</v>
+        <v>306</v>
       </c>
       <c r="Q448" t="n">
         <v>18</v>
@@ -32676,25 +32676,25 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J449" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="K449" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L449" t="n">
         <v>4000</v>
       </c>
-      <c r="L449" t="n">
-        <v>5000</v>
-      </c>
       <c r="M449" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
@@ -32707,7 +32707,7 @@
         </is>
       </c>
       <c r="P449" t="n">
-        <v>250</v>
+        <v>194</v>
       </c>
       <c r="Q449" t="n">
         <v>18</v>
@@ -32748,25 +32748,25 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J450" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="K450" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="L450" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M450" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
@@ -32779,7 +32779,7 @@
         </is>
       </c>
       <c r="P450" t="n">
-        <v>139</v>
+        <v>250</v>
       </c>
       <c r="Q450" t="n">
         <v>18</v>
@@ -32805,7 +32805,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E451" t="n">
         <v>4</v>
@@ -32820,25 +32820,25 @@
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J451" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K451" t="n">
-        <v>9500</v>
+        <v>2000</v>
       </c>
       <c r="L451" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="M451" t="n">
-        <v>9750</v>
+        <v>2500</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
@@ -32851,7 +32851,7 @@
         </is>
       </c>
       <c r="P451" t="n">
-        <v>542</v>
+        <v>139</v>
       </c>
       <c r="Q451" t="n">
         <v>18</v>
@@ -32877,7 +32877,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E452" t="n">
         <v>4</v>
@@ -32892,25 +32892,25 @@
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J452" t="n">
-        <v>360</v>
+        <v>1200</v>
       </c>
       <c r="K452" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="L452" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M452" t="n">
-        <v>7750</v>
+        <v>4500</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
@@ -32923,7 +32923,7 @@
         </is>
       </c>
       <c r="P452" t="n">
-        <v>431</v>
+        <v>250</v>
       </c>
       <c r="Q452" t="n">
         <v>18</v>
@@ -32949,7 +32949,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E453" t="n">
         <v>4</v>
@@ -32964,25 +32964,25 @@
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J453" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="K453" t="n">
-        <v>5500</v>
+        <v>2000</v>
       </c>
       <c r="L453" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M453" t="n">
-        <v>5750</v>
+        <v>2500</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
@@ -32995,7 +32995,7 @@
         </is>
       </c>
       <c r="P453" t="n">
-        <v>319</v>
+        <v>139</v>
       </c>
       <c r="Q453" t="n">
         <v>18</v>
@@ -33036,7 +33036,7 @@
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I454" t="inlineStr">
@@ -33045,16 +33045,16 @@
         </is>
       </c>
       <c r="J454" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K454" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="L454" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M454" t="n">
-        <v>6750</v>
+        <v>9750</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
@@ -33067,7 +33067,7 @@
         </is>
       </c>
       <c r="P454" t="n">
-        <v>375</v>
+        <v>542</v>
       </c>
       <c r="Q454" t="n">
         <v>18</v>
@@ -33108,7 +33108,7 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
@@ -33117,16 +33117,16 @@
         </is>
       </c>
       <c r="J455" t="n">
-        <v>540</v>
+        <v>360</v>
       </c>
       <c r="K455" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="L455" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M455" t="n">
-        <v>4750</v>
+        <v>7750</v>
       </c>
       <c r="N455" t="inlineStr">
         <is>
@@ -33139,7 +33139,7 @@
         </is>
       </c>
       <c r="P455" t="n">
-        <v>264</v>
+        <v>431</v>
       </c>
       <c r="Q455" t="n">
         <v>18</v>
@@ -33180,7 +33180,7 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
@@ -33189,16 +33189,16 @@
         </is>
       </c>
       <c r="J456" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K456" t="n">
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="L456" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M456" t="n">
-        <v>2750</v>
+        <v>5750</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
@@ -33211,7 +33211,7 @@
         </is>
       </c>
       <c r="P456" t="n">
-        <v>153</v>
+        <v>319</v>
       </c>
       <c r="Q456" t="n">
         <v>18</v>
@@ -33237,7 +33237,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E457" t="n">
         <v>4</v>
@@ -33252,7 +33252,7 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
@@ -33261,16 +33261,16 @@
         </is>
       </c>
       <c r="J457" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K457" t="n">
-        <v>13000</v>
+        <v>6500</v>
       </c>
       <c r="L457" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M457" t="n">
-        <v>13500</v>
+        <v>6750</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
@@ -33283,7 +33283,7 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>750</v>
+        <v>375</v>
       </c>
       <c r="Q457" t="n">
         <v>18</v>
@@ -33309,7 +33309,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E458" t="n">
         <v>4</v>
@@ -33324,7 +33324,7 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
@@ -33333,16 +33333,16 @@
         </is>
       </c>
       <c r="J458" t="n">
-        <v>300</v>
+        <v>540</v>
       </c>
       <c r="K458" t="n">
-        <v>11000</v>
+        <v>4500</v>
       </c>
       <c r="L458" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="M458" t="n">
-        <v>11500</v>
+        <v>4750</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         </is>
       </c>
       <c r="P458" t="n">
-        <v>639</v>
+        <v>264</v>
       </c>
       <c r="Q458" t="n">
         <v>18</v>
@@ -33381,7 +33381,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E459" t="n">
         <v>4</v>
@@ -33396,7 +33396,7 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
@@ -33405,16 +33405,16 @@
         </is>
       </c>
       <c r="J459" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K459" t="n">
-        <v>9000</v>
+        <v>2500</v>
       </c>
       <c r="L459" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="M459" t="n">
-        <v>9500</v>
+        <v>2750</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
@@ -33427,7 +33427,7 @@
         </is>
       </c>
       <c r="P459" t="n">
-        <v>528</v>
+        <v>153</v>
       </c>
       <c r="Q459" t="n">
         <v>18</v>
@@ -33468,7 +33468,7 @@
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
@@ -33480,13 +33480,13 @@
         <v>600</v>
       </c>
       <c r="K460" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L460" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M460" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
@@ -33499,7 +33499,7 @@
         </is>
       </c>
       <c r="P460" t="n">
-        <v>694</v>
+        <v>750</v>
       </c>
       <c r="Q460" t="n">
         <v>18</v>
@@ -33540,7 +33540,7 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
@@ -33549,16 +33549,16 @@
         </is>
       </c>
       <c r="J461" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K461" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L461" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M461" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
@@ -33571,7 +33571,7 @@
         </is>
       </c>
       <c r="P461" t="n">
-        <v>583</v>
+        <v>639</v>
       </c>
       <c r="Q461" t="n">
         <v>18</v>
@@ -33612,7 +33612,7 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
@@ -33621,16 +33621,16 @@
         </is>
       </c>
       <c r="J462" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K462" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L462" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M462" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
@@ -33643,7 +33643,7 @@
         </is>
       </c>
       <c r="P462" t="n">
-        <v>472</v>
+        <v>528</v>
       </c>
       <c r="Q462" t="n">
         <v>18</v>
@@ -33684,7 +33684,7 @@
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
@@ -33693,7 +33693,7 @@
         </is>
       </c>
       <c r="J463" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K463" t="n">
         <v>12000</v>
@@ -33756,7 +33756,7 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
@@ -33765,7 +33765,7 @@
         </is>
       </c>
       <c r="J464" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K464" t="n">
         <v>10000</v>
@@ -33828,7 +33828,7 @@
       </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I465" t="inlineStr">
@@ -33885,7 +33885,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E466" t="n">
         <v>4</v>
@@ -33900,7 +33900,7 @@
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
@@ -33909,16 +33909,16 @@
         </is>
       </c>
       <c r="J466" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K466" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L466" t="n">
         <v>13000</v>
       </c>
-      <c r="L466" t="n">
-        <v>14000</v>
-      </c>
       <c r="M466" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
@@ -33931,7 +33931,7 @@
         </is>
       </c>
       <c r="P466" t="n">
-        <v>750</v>
+        <v>694</v>
       </c>
       <c r="Q466" t="n">
         <v>18</v>
@@ -33957,7 +33957,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E467" t="n">
         <v>4</v>
@@ -33972,7 +33972,7 @@
       </c>
       <c r="H467" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I467" t="inlineStr">
@@ -33981,16 +33981,16 @@
         </is>
       </c>
       <c r="J467" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="K467" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L467" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M467" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
@@ -34003,7 +34003,7 @@
         </is>
       </c>
       <c r="P467" t="n">
-        <v>528</v>
+        <v>583</v>
       </c>
       <c r="Q467" t="n">
         <v>18</v>
@@ -34029,7 +34029,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E468" t="n">
         <v>4</v>
@@ -34044,7 +34044,7 @@
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I468" t="inlineStr">
@@ -34053,16 +34053,16 @@
         </is>
       </c>
       <c r="J468" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="K468" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L468" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M468" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         </is>
       </c>
       <c r="P468" t="n">
-        <v>361</v>
+        <v>472</v>
       </c>
       <c r="Q468" t="n">
         <v>18</v>
@@ -34101,7 +34101,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44175</v>
+        <v>44160</v>
       </c>
       <c r="E469" t="n">
         <v>4</v>
@@ -34125,16 +34125,16 @@
         </is>
       </c>
       <c r="J469" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="K469" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L469" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M469" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
@@ -34147,7 +34147,7 @@
         </is>
       </c>
       <c r="P469" t="n">
-        <v>528</v>
+        <v>750</v>
       </c>
       <c r="Q469" t="n">
         <v>18</v>
@@ -34173,7 +34173,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44175</v>
+        <v>44160</v>
       </c>
       <c r="E470" t="n">
         <v>4</v>
@@ -34197,16 +34197,16 @@
         </is>
       </c>
       <c r="J470" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="K470" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L470" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M470" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
@@ -34219,7 +34219,7 @@
         </is>
       </c>
       <c r="P470" t="n">
-        <v>417</v>
+        <v>528</v>
       </c>
       <c r="Q470" t="n">
         <v>18</v>
@@ -34245,7 +34245,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44175</v>
+        <v>44160</v>
       </c>
       <c r="E471" t="n">
         <v>4</v>
@@ -34269,16 +34269,16 @@
         </is>
       </c>
       <c r="J471" t="n">
-        <v>240</v>
+        <v>700</v>
       </c>
       <c r="K471" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L471" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M471" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
@@ -34291,7 +34291,7 @@
         </is>
       </c>
       <c r="P471" t="n">
-        <v>250</v>
+        <v>361</v>
       </c>
       <c r="Q471" t="n">
         <v>18</v>
@@ -34317,7 +34317,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E472" t="n">
         <v>4</v>
@@ -34341,16 +34341,16 @@
         </is>
       </c>
       <c r="J472" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="K472" t="n">
-        <v>30000</v>
+        <v>9000</v>
       </c>
       <c r="L472" t="n">
-        <v>31000</v>
+        <v>10000</v>
       </c>
       <c r="M472" t="n">
-        <v>30500</v>
+        <v>9500</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
@@ -34363,7 +34363,7 @@
         </is>
       </c>
       <c r="P472" t="n">
-        <v>1694</v>
+        <v>528</v>
       </c>
       <c r="Q472" t="n">
         <v>18</v>
@@ -34389,7 +34389,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E473" t="n">
         <v>4</v>
@@ -34413,16 +34413,16 @@
         </is>
       </c>
       <c r="J473" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K473" t="n">
-        <v>28000</v>
+        <v>7000</v>
       </c>
       <c r="L473" t="n">
-        <v>29000</v>
+        <v>8000</v>
       </c>
       <c r="M473" t="n">
-        <v>28500</v>
+        <v>7500</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
@@ -34435,7 +34435,7 @@
         </is>
       </c>
       <c r="P473" t="n">
-        <v>1583</v>
+        <v>417</v>
       </c>
       <c r="Q473" t="n">
         <v>18</v>
@@ -34461,7 +34461,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E474" t="n">
         <v>4</v>
@@ -34485,16 +34485,16 @@
         </is>
       </c>
       <c r="J474" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="K474" t="n">
-        <v>25000</v>
+        <v>4000</v>
       </c>
       <c r="L474" t="n">
-        <v>26000</v>
+        <v>5000</v>
       </c>
       <c r="M474" t="n">
-        <v>25500</v>
+        <v>4500</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
@@ -34507,7 +34507,7 @@
         </is>
       </c>
       <c r="P474" t="n">
-        <v>1417</v>
+        <v>250</v>
       </c>
       <c r="Q474" t="n">
         <v>18</v>
@@ -34533,7 +34533,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E475" t="n">
         <v>4</v>
@@ -34548,7 +34548,7 @@
       </c>
       <c r="H475" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I475" t="inlineStr">
@@ -34557,16 +34557,16 @@
         </is>
       </c>
       <c r="J475" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K475" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="L475" t="n">
-        <v>13000</v>
+        <v>31000</v>
       </c>
       <c r="M475" t="n">
-        <v>12500</v>
+        <v>30500</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         </is>
       </c>
       <c r="P475" t="n">
-        <v>694</v>
+        <v>1694</v>
       </c>
       <c r="Q475" t="n">
         <v>18</v>
@@ -34605,7 +34605,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E476" t="n">
         <v>4</v>
@@ -34620,7 +34620,7 @@
       </c>
       <c r="H476" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I476" t="inlineStr">
@@ -34632,13 +34632,13 @@
         <v>600</v>
       </c>
       <c r="K476" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="L476" t="n">
-        <v>11000</v>
+        <v>29000</v>
       </c>
       <c r="M476" t="n">
-        <v>10500</v>
+        <v>28500</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
@@ -34651,7 +34651,7 @@
         </is>
       </c>
       <c r="P476" t="n">
-        <v>583</v>
+        <v>1583</v>
       </c>
       <c r="Q476" t="n">
         <v>18</v>
@@ -34677,7 +34677,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E477" t="n">
         <v>4</v>
@@ -34692,7 +34692,7 @@
       </c>
       <c r="H477" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I477" t="inlineStr">
@@ -34701,16 +34701,16 @@
         </is>
       </c>
       <c r="J477" t="n">
-        <v>530</v>
+        <v>500</v>
       </c>
       <c r="K477" t="n">
-        <v>8000</v>
+        <v>25000</v>
       </c>
       <c r="L477" t="n">
-        <v>9000</v>
+        <v>26000</v>
       </c>
       <c r="M477" t="n">
-        <v>8472</v>
+        <v>25500</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
@@ -34723,7 +34723,7 @@
         </is>
       </c>
       <c r="P477" t="n">
-        <v>471</v>
+        <v>1417</v>
       </c>
       <c r="Q477" t="n">
         <v>18</v>
@@ -34764,7 +34764,7 @@
       </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I478" t="inlineStr">
@@ -34836,7 +34836,7 @@
       </c>
       <c r="H479" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I479" t="inlineStr">
@@ -34845,7 +34845,7 @@
         </is>
       </c>
       <c r="J479" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K479" t="n">
         <v>10000</v>
@@ -34908,7 +34908,7 @@
       </c>
       <c r="H480" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I480" t="inlineStr">
@@ -34917,7 +34917,7 @@
         </is>
       </c>
       <c r="J480" t="n">
-        <v>260</v>
+        <v>530</v>
       </c>
       <c r="K480" t="n">
         <v>8000</v>
@@ -34926,7 +34926,7 @@
         <v>9000</v>
       </c>
       <c r="M480" t="n">
-        <v>8500</v>
+        <v>8472</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
@@ -34939,7 +34939,7 @@
         </is>
       </c>
       <c r="P480" t="n">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="Q480" t="n">
         <v>18</v>
@@ -34980,7 +34980,7 @@
       </c>
       <c r="H481" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I481" t="inlineStr">
@@ -34989,7 +34989,7 @@
         </is>
       </c>
       <c r="J481" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K481" t="n">
         <v>12000</v>
@@ -35052,7 +35052,7 @@
       </c>
       <c r="H482" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I482" t="inlineStr">
@@ -35061,7 +35061,7 @@
         </is>
       </c>
       <c r="J482" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K482" t="n">
         <v>10000</v>
@@ -35124,7 +35124,7 @@
       </c>
       <c r="H483" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I483" t="inlineStr">
@@ -35133,7 +35133,7 @@
         </is>
       </c>
       <c r="J483" t="n">
-        <v>500</v>
+        <v>260</v>
       </c>
       <c r="K483" t="n">
         <v>8000</v>
@@ -35181,7 +35181,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E484" t="n">
         <v>4</v>
@@ -35196,7 +35196,7 @@
       </c>
       <c r="H484" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I484" t="inlineStr">
@@ -35205,16 +35205,16 @@
         </is>
       </c>
       <c r="J484" t="n">
-        <v>160</v>
+        <v>700</v>
       </c>
       <c r="K484" t="n">
-        <v>14500</v>
+        <v>12000</v>
       </c>
       <c r="L484" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M484" t="n">
-        <v>14750</v>
+        <v>12500</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
@@ -35227,7 +35227,7 @@
         </is>
       </c>
       <c r="P484" t="n">
-        <v>819</v>
+        <v>694</v>
       </c>
       <c r="Q484" t="n">
         <v>18</v>
@@ -35253,7 +35253,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E485" t="n">
         <v>4</v>
@@ -35268,7 +35268,7 @@
       </c>
       <c r="H485" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I485" t="inlineStr">
@@ -35277,16 +35277,16 @@
         </is>
       </c>
       <c r="J485" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K485" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="L485" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M485" t="n">
-        <v>12750</v>
+        <v>10500</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         </is>
       </c>
       <c r="P485" t="n">
-        <v>708</v>
+        <v>583</v>
       </c>
       <c r="Q485" t="n">
         <v>18</v>
@@ -35325,7 +35325,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E486" t="n">
         <v>4</v>
@@ -35340,7 +35340,7 @@
       </c>
       <c r="H486" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I486" t="inlineStr">
@@ -35349,16 +35349,16 @@
         </is>
       </c>
       <c r="J486" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K486" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L486" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M486" t="n">
-        <v>9750</v>
+        <v>8500</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         </is>
       </c>
       <c r="P486" t="n">
-        <v>542</v>
+        <v>472</v>
       </c>
       <c r="Q486" t="n">
         <v>18</v>
@@ -35412,7 +35412,7 @@
       </c>
       <c r="H487" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I487" t="inlineStr">
@@ -35421,16 +35421,16 @@
         </is>
       </c>
       <c r="J487" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="K487" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="L487" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M487" t="n">
-        <v>9750</v>
+        <v>14750</v>
       </c>
       <c r="N487" t="inlineStr">
         <is>
@@ -35443,7 +35443,7 @@
         </is>
       </c>
       <c r="P487" t="n">
-        <v>542</v>
+        <v>819</v>
       </c>
       <c r="Q487" t="n">
         <v>18</v>
@@ -35484,7 +35484,7 @@
       </c>
       <c r="H488" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I488" t="inlineStr">
@@ -35496,13 +35496,13 @@
         <v>200</v>
       </c>
       <c r="K488" t="n">
-        <v>7500</v>
+        <v>12500</v>
       </c>
       <c r="L488" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M488" t="n">
-        <v>7750</v>
+        <v>12750</v>
       </c>
       <c r="N488" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
         </is>
       </c>
       <c r="P488" t="n">
-        <v>431</v>
+        <v>708</v>
       </c>
       <c r="Q488" t="n">
         <v>18</v>
@@ -35556,7 +35556,7 @@
       </c>
       <c r="H489" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I489" t="inlineStr">
@@ -35565,16 +35565,16 @@
         </is>
       </c>
       <c r="J489" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K489" t="n">
-        <v>4500</v>
+        <v>9500</v>
       </c>
       <c r="L489" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M489" t="n">
-        <v>4750</v>
+        <v>9750</v>
       </c>
       <c r="N489" t="inlineStr">
         <is>
@@ -35587,7 +35587,7 @@
         </is>
       </c>
       <c r="P489" t="n">
-        <v>264</v>
+        <v>542</v>
       </c>
       <c r="Q489" t="n">
         <v>18</v>
@@ -35613,7 +35613,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44244</v>
+        <v>44203</v>
       </c>
       <c r="E490" t="n">
         <v>4</v>
@@ -35628,7 +35628,7 @@
       </c>
       <c r="H490" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I490" t="inlineStr">
@@ -35637,16 +35637,16 @@
         </is>
       </c>
       <c r="J490" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K490" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L490" t="n">
         <v>10000</v>
       </c>
-      <c r="L490" t="n">
-        <v>11000</v>
-      </c>
       <c r="M490" t="n">
-        <v>10500</v>
+        <v>9750</v>
       </c>
       <c r="N490" t="inlineStr">
         <is>
@@ -35659,7 +35659,7 @@
         </is>
       </c>
       <c r="P490" t="n">
-        <v>583</v>
+        <v>542</v>
       </c>
       <c r="Q490" t="n">
         <v>18</v>
@@ -35685,7 +35685,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44244</v>
+        <v>44203</v>
       </c>
       <c r="E491" t="n">
         <v>4</v>
@@ -35700,7 +35700,7 @@
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I491" t="inlineStr">
@@ -35709,16 +35709,16 @@
         </is>
       </c>
       <c r="J491" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K491" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L491" t="n">
         <v>8000</v>
       </c>
       <c r="M491" t="n">
-        <v>7500</v>
+        <v>7750</v>
       </c>
       <c r="N491" t="inlineStr">
         <is>
@@ -35731,7 +35731,7 @@
         </is>
       </c>
       <c r="P491" t="n">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="Q491" t="n">
         <v>18</v>
@@ -35757,7 +35757,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44244</v>
+        <v>44203</v>
       </c>
       <c r="E492" t="n">
         <v>4</v>
@@ -35772,7 +35772,7 @@
       </c>
       <c r="H492" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I492" t="inlineStr">
@@ -35781,16 +35781,16 @@
         </is>
       </c>
       <c r="J492" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K492" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L492" t="n">
         <v>5000</v>
       </c>
-      <c r="L492" t="n">
-        <v>6000</v>
-      </c>
       <c r="M492" t="n">
-        <v>5500</v>
+        <v>4750</v>
       </c>
       <c r="N492" t="inlineStr">
         <is>
@@ -35803,7 +35803,7 @@
         </is>
       </c>
       <c r="P492" t="n">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="Q492" t="n">
         <v>18</v>
@@ -35844,7 +35844,7 @@
       </c>
       <c r="H493" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I493" t="inlineStr">
@@ -35853,16 +35853,16 @@
         </is>
       </c>
       <c r="J493" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K493" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="L493" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="M493" t="n">
-        <v>4750</v>
+        <v>10500</v>
       </c>
       <c r="N493" t="inlineStr">
         <is>
@@ -35875,7 +35875,7 @@
         </is>
       </c>
       <c r="P493" t="n">
-        <v>264</v>
+        <v>583</v>
       </c>
       <c r="Q493" t="n">
         <v>18</v>
@@ -35916,7 +35916,7 @@
       </c>
       <c r="H494" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I494" t="inlineStr">
@@ -35928,13 +35928,13 @@
         <v>300</v>
       </c>
       <c r="K494" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="L494" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="M494" t="n">
-        <v>2750</v>
+        <v>7500</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
@@ -35947,7 +35947,7 @@
         </is>
       </c>
       <c r="P494" t="n">
-        <v>153</v>
+        <v>417</v>
       </c>
       <c r="Q494" t="n">
         <v>18</v>
@@ -35988,25 +35988,25 @@
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J495" t="n">
-        <v>600</v>
+        <v>160</v>
       </c>
       <c r="K495" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="L495" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="M495" t="n">
-        <v>15500</v>
+        <v>5500</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         </is>
       </c>
       <c r="P495" t="n">
-        <v>861</v>
+        <v>306</v>
       </c>
       <c r="Q495" t="n">
         <v>18</v>
@@ -36060,43 +36060,259 @@
       </c>
       <c r="H496" t="inlineStr">
         <is>
+          <t>Cuatro cascos verde</t>
+        </is>
+      </c>
+      <c r="I496" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J496" t="n">
+        <v>600</v>
+      </c>
+      <c r="K496" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L496" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M496" t="n">
+        <v>4750</v>
+      </c>
+      <c r="N496" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O496" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P496" t="n">
+        <v>264</v>
+      </c>
+      <c r="Q496" t="n">
+        <v>18</v>
+      </c>
+      <c r="R496" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>2</v>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D497" s="2" t="n">
+        <v>44244</v>
+      </c>
+      <c r="E497" t="n">
+        <v>4</v>
+      </c>
+      <c r="F497" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G497" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H497" t="inlineStr">
+        <is>
+          <t>Cuatro cascos verde</t>
+        </is>
+      </c>
+      <c r="I497" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J497" t="n">
+        <v>300</v>
+      </c>
+      <c r="K497" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L497" t="n">
+        <v>3000</v>
+      </c>
+      <c r="M497" t="n">
+        <v>2750</v>
+      </c>
+      <c r="N497" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O497" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P497" t="n">
+        <v>153</v>
+      </c>
+      <c r="Q497" t="n">
+        <v>18</v>
+      </c>
+      <c r="R497" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>2</v>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D498" s="2" t="n">
+        <v>44244</v>
+      </c>
+      <c r="E498" t="n">
+        <v>4</v>
+      </c>
+      <c r="F498" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G498" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H498" t="inlineStr">
+        <is>
           <t>Morrón rojo</t>
         </is>
       </c>
-      <c r="I496" t="inlineStr">
+      <c r="I498" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J498" t="n">
+        <v>600</v>
+      </c>
+      <c r="K498" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L498" t="n">
+        <v>16000</v>
+      </c>
+      <c r="M498" t="n">
+        <v>15500</v>
+      </c>
+      <c r="N498" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O498" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P498" t="n">
+        <v>861</v>
+      </c>
+      <c r="Q498" t="n">
+        <v>18</v>
+      </c>
+      <c r="R498" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>2</v>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D499" s="2" t="n">
+        <v>44244</v>
+      </c>
+      <c r="E499" t="n">
+        <v>4</v>
+      </c>
+      <c r="F499" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G499" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H499" t="inlineStr">
+        <is>
+          <t>Morrón rojo</t>
+        </is>
+      </c>
+      <c r="I499" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J496" t="n">
+      <c r="J499" t="n">
         <v>400</v>
       </c>
-      <c r="K496" t="n">
+      <c r="K499" t="n">
         <v>12000</v>
       </c>
-      <c r="L496" t="n">
+      <c r="L499" t="n">
         <v>13000</v>
       </c>
-      <c r="M496" t="n">
+      <c r="M499" t="n">
         <v>12500</v>
       </c>
-      <c r="N496" t="inlineStr">
-        <is>
-          <t>$/caja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O496" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P496" t="n">
+      <c r="N499" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O499" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P499" t="n">
         <v>694</v>
       </c>
-      <c r="Q496" t="n">
-        <v>18</v>
-      </c>
-      <c r="R496" t="inlineStr">
+      <c r="Q499" t="n">
+        <v>18</v>
+      </c>
+      <c r="R499" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pimiento.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pimiento.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R509"/>
+  <dimension ref="A1:R512"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31653,7 +31653,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E435" t="n">
         <v>4</v>
@@ -31677,7 +31677,7 @@
         </is>
       </c>
       <c r="J435" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K435" t="n">
         <v>32000</v>
@@ -31725,7 +31725,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E436" t="n">
         <v>4</v>
@@ -31797,7 +31797,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E437" t="n">
         <v>4</v>
@@ -31821,16 +31821,16 @@
         </is>
       </c>
       <c r="J437" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K437" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="L437" t="n">
-        <v>26000</v>
+        <v>27000</v>
       </c>
       <c r="M437" t="n">
-        <v>25500</v>
+        <v>26500</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
@@ -31843,7 +31843,7 @@
         </is>
       </c>
       <c r="P437" t="n">
-        <v>1417</v>
+        <v>1472</v>
       </c>
       <c r="Q437" t="n">
         <v>18</v>
@@ -31869,7 +31869,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E438" t="n">
         <v>4</v>
@@ -31893,16 +31893,16 @@
         </is>
       </c>
       <c r="J438" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K438" t="n">
-        <v>11500</v>
+        <v>32000</v>
       </c>
       <c r="L438" t="n">
-        <v>12000</v>
+        <v>33000</v>
       </c>
       <c r="M438" t="n">
-        <v>11750</v>
+        <v>32500</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         </is>
       </c>
       <c r="P438" t="n">
-        <v>653</v>
+        <v>1806</v>
       </c>
       <c r="Q438" t="n">
         <v>18</v>
@@ -31941,7 +31941,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E439" t="n">
         <v>4</v>
@@ -31965,16 +31965,16 @@
         </is>
       </c>
       <c r="J439" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K439" t="n">
-        <v>9500</v>
+        <v>29000</v>
       </c>
       <c r="L439" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="M439" t="n">
-        <v>9750</v>
+        <v>29500</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
@@ -31987,7 +31987,7 @@
         </is>
       </c>
       <c r="P439" t="n">
-        <v>542</v>
+        <v>1639</v>
       </c>
       <c r="Q439" t="n">
         <v>18</v>
@@ -32013,7 +32013,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E440" t="n">
         <v>4</v>
@@ -32037,16 +32037,16 @@
         </is>
       </c>
       <c r="J440" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="K440" t="n">
-        <v>6500</v>
+        <v>25000</v>
       </c>
       <c r="L440" t="n">
-        <v>7000</v>
+        <v>26000</v>
       </c>
       <c r="M440" t="n">
-        <v>6750</v>
+        <v>25500</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
@@ -32059,7 +32059,7 @@
         </is>
       </c>
       <c r="P440" t="n">
-        <v>375</v>
+        <v>1417</v>
       </c>
       <c r="Q440" t="n">
         <v>18</v>
@@ -32100,7 +32100,7 @@
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I441" t="inlineStr">
@@ -32109,16 +32109,16 @@
         </is>
       </c>
       <c r="J441" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K441" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="L441" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M441" t="n">
-        <v>10750</v>
+        <v>11750</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         </is>
       </c>
       <c r="P441" t="n">
-        <v>597</v>
+        <v>653</v>
       </c>
       <c r="Q441" t="n">
         <v>18</v>
@@ -32172,7 +32172,7 @@
       </c>
       <c r="H442" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I442" t="inlineStr">
@@ -32184,13 +32184,13 @@
         <v>500</v>
       </c>
       <c r="K442" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="L442" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M442" t="n">
-        <v>8750</v>
+        <v>9750</v>
       </c>
       <c r="N442" t="inlineStr">
         <is>
@@ -32203,7 +32203,7 @@
         </is>
       </c>
       <c r="P442" t="n">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="Q442" t="n">
         <v>18</v>
@@ -32244,7 +32244,7 @@
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I443" t="inlineStr">
@@ -32253,7 +32253,7 @@
         </is>
       </c>
       <c r="J443" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K443" t="n">
         <v>6500</v>
@@ -32301,7 +32301,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E444" t="n">
         <v>4</v>
@@ -32316,7 +32316,7 @@
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I444" t="inlineStr">
@@ -32325,16 +32325,16 @@
         </is>
       </c>
       <c r="J444" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K444" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="L444" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="M444" t="n">
-        <v>15500</v>
+        <v>10750</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
@@ -32347,7 +32347,7 @@
         </is>
       </c>
       <c r="P444" t="n">
-        <v>861</v>
+        <v>597</v>
       </c>
       <c r="Q444" t="n">
         <v>18</v>
@@ -32373,7 +32373,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E445" t="n">
         <v>4</v>
@@ -32388,7 +32388,7 @@
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
@@ -32397,16 +32397,16 @@
         </is>
       </c>
       <c r="J445" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K445" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="L445" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M445" t="n">
-        <v>12500</v>
+        <v>8750</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         </is>
       </c>
       <c r="P445" t="n">
-        <v>694</v>
+        <v>486</v>
       </c>
       <c r="Q445" t="n">
         <v>18</v>
@@ -32445,7 +32445,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E446" t="n">
         <v>4</v>
@@ -32460,7 +32460,7 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
@@ -32469,16 +32469,16 @@
         </is>
       </c>
       <c r="J446" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K446" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="L446" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M446" t="n">
-        <v>9500</v>
+        <v>6750</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
@@ -32491,7 +32491,7 @@
         </is>
       </c>
       <c r="P446" t="n">
-        <v>528</v>
+        <v>375</v>
       </c>
       <c r="Q446" t="n">
         <v>18</v>
@@ -32532,7 +32532,7 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
@@ -32541,16 +32541,16 @@
         </is>
       </c>
       <c r="J447" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="K447" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L447" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M447" t="n">
-        <v>13500</v>
+        <v>15500</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
@@ -32563,7 +32563,7 @@
         </is>
       </c>
       <c r="P447" t="n">
-        <v>750</v>
+        <v>861</v>
       </c>
       <c r="Q447" t="n">
         <v>18</v>
@@ -32604,7 +32604,7 @@
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
@@ -32613,16 +32613,16 @@
         </is>
       </c>
       <c r="J448" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K448" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L448" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M448" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         </is>
       </c>
       <c r="P448" t="n">
-        <v>583</v>
+        <v>694</v>
       </c>
       <c r="Q448" t="n">
         <v>18</v>
@@ -32676,7 +32676,7 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
@@ -32685,16 +32685,16 @@
         </is>
       </c>
       <c r="J449" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K449" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L449" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M449" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
@@ -32707,7 +32707,7 @@
         </is>
       </c>
       <c r="P449" t="n">
-        <v>472</v>
+        <v>528</v>
       </c>
       <c r="Q449" t="n">
         <v>18</v>
@@ -32748,7 +32748,7 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
@@ -32757,7 +32757,7 @@
         </is>
       </c>
       <c r="J450" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="K450" t="n">
         <v>13000</v>
@@ -32820,7 +32820,7 @@
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
@@ -32829,16 +32829,16 @@
         </is>
       </c>
       <c r="J451" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K451" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L451" t="n">
         <v>11000</v>
       </c>
-      <c r="L451" t="n">
-        <v>12000</v>
-      </c>
       <c r="M451" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
@@ -32851,7 +32851,7 @@
         </is>
       </c>
       <c r="P451" t="n">
-        <v>639</v>
+        <v>583</v>
       </c>
       <c r="Q451" t="n">
         <v>18</v>
@@ -32892,7 +32892,7 @@
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I452" t="inlineStr">
@@ -32901,16 +32901,16 @@
         </is>
       </c>
       <c r="J452" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K452" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L452" t="n">
         <v>9000</v>
       </c>
-      <c r="L452" t="n">
-        <v>10000</v>
-      </c>
       <c r="M452" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
@@ -32923,7 +32923,7 @@
         </is>
       </c>
       <c r="P452" t="n">
-        <v>528</v>
+        <v>472</v>
       </c>
       <c r="Q452" t="n">
         <v>18</v>
@@ -32949,7 +32949,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44301</v>
+        <v>44363</v>
       </c>
       <c r="E453" t="n">
         <v>4</v>
@@ -32964,7 +32964,7 @@
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I453" t="inlineStr">
@@ -32973,16 +32973,16 @@
         </is>
       </c>
       <c r="J453" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K453" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L453" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M453" t="n">
-        <v>7500</v>
+        <v>13500</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
@@ -32995,7 +32995,7 @@
         </is>
       </c>
       <c r="P453" t="n">
-        <v>417</v>
+        <v>750</v>
       </c>
       <c r="Q453" t="n">
         <v>18</v>
@@ -33021,7 +33021,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44301</v>
+        <v>44363</v>
       </c>
       <c r="E454" t="n">
         <v>4</v>
@@ -33036,7 +33036,7 @@
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I454" t="inlineStr">
@@ -33045,16 +33045,16 @@
         </is>
       </c>
       <c r="J454" t="n">
-        <v>240</v>
+        <v>700</v>
       </c>
       <c r="K454" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="L454" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M454" t="n">
-        <v>5500</v>
+        <v>11500</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
@@ -33067,7 +33067,7 @@
         </is>
       </c>
       <c r="P454" t="n">
-        <v>306</v>
+        <v>639</v>
       </c>
       <c r="Q454" t="n">
         <v>18</v>
@@ -33093,7 +33093,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44301</v>
+        <v>44363</v>
       </c>
       <c r="E455" t="n">
         <v>4</v>
@@ -33108,7 +33108,7 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
@@ -33117,16 +33117,16 @@
         </is>
       </c>
       <c r="J455" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="K455" t="n">
-        <v>3000</v>
+        <v>9000</v>
       </c>
       <c r="L455" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="M455" t="n">
-        <v>3500</v>
+        <v>9500</v>
       </c>
       <c r="N455" t="inlineStr">
         <is>
@@ -33139,7 +33139,7 @@
         </is>
       </c>
       <c r="P455" t="n">
-        <v>194</v>
+        <v>528</v>
       </c>
       <c r="Q455" t="n">
         <v>18</v>
@@ -33180,7 +33180,7 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
@@ -33189,16 +33189,16 @@
         </is>
       </c>
       <c r="J456" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K456" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L456" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M456" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
@@ -33211,7 +33211,7 @@
         </is>
       </c>
       <c r="P456" t="n">
-        <v>306</v>
+        <v>417</v>
       </c>
       <c r="Q456" t="n">
         <v>18</v>
@@ -33252,7 +33252,7 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
@@ -33261,16 +33261,16 @@
         </is>
       </c>
       <c r="J457" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="K457" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L457" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M457" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
@@ -33283,7 +33283,7 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>194</v>
+        <v>306</v>
       </c>
       <c r="Q457" t="n">
         <v>18</v>
@@ -33309,7 +33309,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E458" t="n">
         <v>4</v>
@@ -33324,25 +33324,25 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J458" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="K458" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="L458" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="M458" t="n">
-        <v>12500</v>
+        <v>3500</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         </is>
       </c>
       <c r="P458" t="n">
-        <v>694</v>
+        <v>194</v>
       </c>
       <c r="Q458" t="n">
         <v>18</v>
@@ -33381,7 +33381,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E459" t="n">
         <v>4</v>
@@ -33396,25 +33396,25 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J459" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K459" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L459" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="M459" t="n">
-        <v>10500</v>
+        <v>5500</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
@@ -33427,7 +33427,7 @@
         </is>
       </c>
       <c r="P459" t="n">
-        <v>583</v>
+        <v>306</v>
       </c>
       <c r="Q459" t="n">
         <v>18</v>
@@ -33453,7 +33453,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E460" t="n">
         <v>4</v>
@@ -33468,25 +33468,25 @@
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J460" t="n">
-        <v>530</v>
+        <v>600</v>
       </c>
       <c r="K460" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="L460" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="M460" t="n">
-        <v>8472</v>
+        <v>3500</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
@@ -33499,7 +33499,7 @@
         </is>
       </c>
       <c r="P460" t="n">
-        <v>471</v>
+        <v>194</v>
       </c>
       <c r="Q460" t="n">
         <v>18</v>
@@ -33540,7 +33540,7 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
@@ -33612,7 +33612,7 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
@@ -33621,7 +33621,7 @@
         </is>
       </c>
       <c r="J462" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K462" t="n">
         <v>10000</v>
@@ -33684,7 +33684,7 @@
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
@@ -33693,7 +33693,7 @@
         </is>
       </c>
       <c r="J463" t="n">
-        <v>260</v>
+        <v>530</v>
       </c>
       <c r="K463" t="n">
         <v>8000</v>
@@ -33702,7 +33702,7 @@
         <v>9000</v>
       </c>
       <c r="M463" t="n">
-        <v>8500</v>
+        <v>8472</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
@@ -33715,7 +33715,7 @@
         </is>
       </c>
       <c r="P463" t="n">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="Q463" t="n">
         <v>18</v>
@@ -33756,7 +33756,7 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
@@ -33765,7 +33765,7 @@
         </is>
       </c>
       <c r="J464" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K464" t="n">
         <v>12000</v>
@@ -33828,7 +33828,7 @@
       </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I465" t="inlineStr">
@@ -33837,7 +33837,7 @@
         </is>
       </c>
       <c r="J465" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K465" t="n">
         <v>10000</v>
@@ -33900,7 +33900,7 @@
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
@@ -33909,7 +33909,7 @@
         </is>
       </c>
       <c r="J466" t="n">
-        <v>500</v>
+        <v>260</v>
       </c>
       <c r="K466" t="n">
         <v>8000</v>
@@ -33957,7 +33957,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E467" t="n">
         <v>4</v>
@@ -33972,7 +33972,7 @@
       </c>
       <c r="H467" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I467" t="inlineStr">
@@ -33981,16 +33981,16 @@
         </is>
       </c>
       <c r="J467" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K467" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="L467" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M467" t="n">
-        <v>7750</v>
+        <v>12500</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
@@ -34003,7 +34003,7 @@
         </is>
       </c>
       <c r="P467" t="n">
-        <v>431</v>
+        <v>694</v>
       </c>
       <c r="Q467" t="n">
         <v>18</v>
@@ -34029,7 +34029,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E468" t="n">
         <v>4</v>
@@ -34044,7 +34044,7 @@
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I468" t="inlineStr">
@@ -34053,16 +34053,16 @@
         </is>
       </c>
       <c r="J468" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K468" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="L468" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M468" t="n">
-        <v>5750</v>
+        <v>10500</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         </is>
       </c>
       <c r="P468" t="n">
-        <v>319</v>
+        <v>583</v>
       </c>
       <c r="Q468" t="n">
         <v>18</v>
@@ -34101,7 +34101,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E469" t="n">
         <v>4</v>
@@ -34116,7 +34116,7 @@
       </c>
       <c r="H469" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I469" t="inlineStr">
@@ -34125,16 +34125,16 @@
         </is>
       </c>
       <c r="J469" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K469" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="L469" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="M469" t="n">
-        <v>3750</v>
+        <v>8500</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
@@ -34147,7 +34147,7 @@
         </is>
       </c>
       <c r="P469" t="n">
-        <v>208</v>
+        <v>472</v>
       </c>
       <c r="Q469" t="n">
         <v>18</v>
@@ -34188,7 +34188,7 @@
       </c>
       <c r="H470" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I470" t="inlineStr">
@@ -34197,16 +34197,16 @@
         </is>
       </c>
       <c r="J470" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K470" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="L470" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M470" t="n">
-        <v>11750</v>
+        <v>7750</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
@@ -34219,7 +34219,7 @@
         </is>
       </c>
       <c r="P470" t="n">
-        <v>653</v>
+        <v>431</v>
       </c>
       <c r="Q470" t="n">
         <v>18</v>
@@ -34260,7 +34260,7 @@
       </c>
       <c r="H471" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I471" t="inlineStr">
@@ -34269,16 +34269,16 @@
         </is>
       </c>
       <c r="J471" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K471" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="L471" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M471" t="n">
-        <v>9750</v>
+        <v>5750</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
@@ -34291,7 +34291,7 @@
         </is>
       </c>
       <c r="P471" t="n">
-        <v>542</v>
+        <v>319</v>
       </c>
       <c r="Q471" t="n">
         <v>18</v>
@@ -34332,7 +34332,7 @@
       </c>
       <c r="H472" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I472" t="inlineStr">
@@ -34341,16 +34341,16 @@
         </is>
       </c>
       <c r="J472" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K472" t="n">
-        <v>7500</v>
+        <v>3500</v>
       </c>
       <c r="L472" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M472" t="n">
-        <v>7750</v>
+        <v>3750</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
@@ -34363,7 +34363,7 @@
         </is>
       </c>
       <c r="P472" t="n">
-        <v>431</v>
+        <v>208</v>
       </c>
       <c r="Q472" t="n">
         <v>18</v>
@@ -34389,7 +34389,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E473" t="n">
         <v>4</v>
@@ -34404,7 +34404,7 @@
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
@@ -34413,16 +34413,16 @@
         </is>
       </c>
       <c r="J473" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K473" t="n">
-        <v>6000</v>
+        <v>11500</v>
       </c>
       <c r="L473" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M473" t="n">
-        <v>6500</v>
+        <v>11750</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
@@ -34435,7 +34435,7 @@
         </is>
       </c>
       <c r="P473" t="n">
-        <v>361</v>
+        <v>653</v>
       </c>
       <c r="Q473" t="n">
         <v>18</v>
@@ -34461,7 +34461,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E474" t="n">
         <v>4</v>
@@ -34476,7 +34476,7 @@
       </c>
       <c r="H474" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I474" t="inlineStr">
@@ -34485,16 +34485,16 @@
         </is>
       </c>
       <c r="J474" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K474" t="n">
-        <v>4000</v>
+        <v>9500</v>
       </c>
       <c r="L474" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M474" t="n">
-        <v>4500</v>
+        <v>9750</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
@@ -34507,7 +34507,7 @@
         </is>
       </c>
       <c r="P474" t="n">
-        <v>250</v>
+        <v>542</v>
       </c>
       <c r="Q474" t="n">
         <v>18</v>
@@ -34533,7 +34533,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E475" t="n">
         <v>4</v>
@@ -34548,7 +34548,7 @@
       </c>
       <c r="H475" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I475" t="inlineStr">
@@ -34557,16 +34557,16 @@
         </is>
       </c>
       <c r="J475" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K475" t="n">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="L475" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="M475" t="n">
-        <v>2500</v>
+        <v>7750</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         </is>
       </c>
       <c r="P475" t="n">
-        <v>139</v>
+        <v>431</v>
       </c>
       <c r="Q475" t="n">
         <v>18</v>
@@ -34620,7 +34620,7 @@
       </c>
       <c r="H476" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I476" t="inlineStr">
@@ -34629,17 +34629,17 @@
         </is>
       </c>
       <c r="J476" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K476" t="n">
         <v>6000</v>
       </c>
       <c r="L476" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M476" t="n">
         <v>6500</v>
       </c>
-      <c r="M476" t="n">
-        <v>6250</v>
-      </c>
       <c r="N476" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
@@ -34651,7 +34651,7 @@
         </is>
       </c>
       <c r="P476" t="n">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="Q476" t="n">
         <v>18</v>
@@ -34692,7 +34692,7 @@
       </c>
       <c r="H477" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I477" t="inlineStr">
@@ -34701,17 +34701,17 @@
         </is>
       </c>
       <c r="J477" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K477" t="n">
         <v>4000</v>
       </c>
       <c r="L477" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M477" t="n">
         <v>4500</v>
       </c>
-      <c r="M477" t="n">
-        <v>4250</v>
-      </c>
       <c r="N477" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
@@ -34723,7 +34723,7 @@
         </is>
       </c>
       <c r="P477" t="n">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="Q477" t="n">
         <v>18</v>
@@ -34764,7 +34764,7 @@
       </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I478" t="inlineStr">
@@ -34779,11 +34779,11 @@
         <v>2000</v>
       </c>
       <c r="L478" t="n">
+        <v>3000</v>
+      </c>
+      <c r="M478" t="n">
         <v>2500</v>
       </c>
-      <c r="M478" t="n">
-        <v>2250</v>
-      </c>
       <c r="N478" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
@@ -34795,7 +34795,7 @@
         </is>
       </c>
       <c r="P478" t="n">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="Q478" t="n">
         <v>18</v>
@@ -34821,7 +34821,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E479" t="n">
         <v>4</v>
@@ -34836,7 +34836,7 @@
       </c>
       <c r="H479" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I479" t="inlineStr">
@@ -34845,16 +34845,16 @@
         </is>
       </c>
       <c r="J479" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="K479" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="L479" t="n">
-        <v>16000</v>
+        <v>6500</v>
       </c>
       <c r="M479" t="n">
-        <v>15500</v>
+        <v>6250</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
@@ -34867,7 +34867,7 @@
         </is>
       </c>
       <c r="P479" t="n">
-        <v>861</v>
+        <v>347</v>
       </c>
       <c r="Q479" t="n">
         <v>18</v>
@@ -34893,7 +34893,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E480" t="n">
         <v>4</v>
@@ -34908,7 +34908,7 @@
       </c>
       <c r="H480" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I480" t="inlineStr">
@@ -34917,16 +34917,16 @@
         </is>
       </c>
       <c r="J480" t="n">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="K480" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="L480" t="n">
-        <v>14000</v>
+        <v>4500</v>
       </c>
       <c r="M480" t="n">
-        <v>13500</v>
+        <v>4250</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
@@ -34939,7 +34939,7 @@
         </is>
       </c>
       <c r="P480" t="n">
-        <v>750</v>
+        <v>236</v>
       </c>
       <c r="Q480" t="n">
         <v>18</v>
@@ -34965,7 +34965,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E481" t="n">
         <v>4</v>
@@ -34980,7 +34980,7 @@
       </c>
       <c r="H481" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I481" t="inlineStr">
@@ -34989,16 +34989,16 @@
         </is>
       </c>
       <c r="J481" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="K481" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="L481" t="n">
-        <v>11000</v>
+        <v>2500</v>
       </c>
       <c r="M481" t="n">
-        <v>10500</v>
+        <v>2250</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         </is>
       </c>
       <c r="P481" t="n">
-        <v>583</v>
+        <v>125</v>
       </c>
       <c r="Q481" t="n">
         <v>18</v>
@@ -35052,7 +35052,7 @@
       </c>
       <c r="H482" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I482" t="inlineStr">
@@ -35061,16 +35061,16 @@
         </is>
       </c>
       <c r="J482" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K482" t="n">
-        <v>6500</v>
+        <v>15000</v>
       </c>
       <c r="L482" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="M482" t="n">
-        <v>6750</v>
+        <v>15500</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
@@ -35083,7 +35083,7 @@
         </is>
       </c>
       <c r="P482" t="n">
-        <v>375</v>
+        <v>861</v>
       </c>
       <c r="Q482" t="n">
         <v>18</v>
@@ -35124,7 +35124,7 @@
       </c>
       <c r="H483" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I483" t="inlineStr">
@@ -35133,16 +35133,16 @@
         </is>
       </c>
       <c r="J483" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K483" t="n">
-        <v>4500</v>
+        <v>13000</v>
       </c>
       <c r="L483" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="M483" t="n">
-        <v>4750</v>
+        <v>13500</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
@@ -35155,7 +35155,7 @@
         </is>
       </c>
       <c r="P483" t="n">
-        <v>264</v>
+        <v>750</v>
       </c>
       <c r="Q483" t="n">
         <v>18</v>
@@ -35196,7 +35196,7 @@
       </c>
       <c r="H484" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I484" t="inlineStr">
@@ -35205,16 +35205,16 @@
         </is>
       </c>
       <c r="J484" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K484" t="n">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="L484" t="n">
-        <v>3000</v>
+        <v>11000</v>
       </c>
       <c r="M484" t="n">
-        <v>2750</v>
+        <v>10500</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
@@ -35227,7 +35227,7 @@
         </is>
       </c>
       <c r="P484" t="n">
-        <v>153</v>
+        <v>583</v>
       </c>
       <c r="Q484" t="n">
         <v>18</v>
@@ -35253,7 +35253,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E485" t="n">
         <v>4</v>
@@ -35268,7 +35268,7 @@
       </c>
       <c r="H485" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I485" t="inlineStr">
@@ -35277,16 +35277,16 @@
         </is>
       </c>
       <c r="J485" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K485" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="L485" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M485" t="n">
-        <v>9500</v>
+        <v>6750</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         </is>
       </c>
       <c r="P485" t="n">
-        <v>528</v>
+        <v>375</v>
       </c>
       <c r="Q485" t="n">
         <v>18</v>
@@ -35325,7 +35325,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E486" t="n">
         <v>4</v>
@@ -35340,7 +35340,7 @@
       </c>
       <c r="H486" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I486" t="inlineStr">
@@ -35352,13 +35352,13 @@
         <v>400</v>
       </c>
       <c r="K486" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L486" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M486" t="n">
-        <v>7500</v>
+        <v>4750</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         </is>
       </c>
       <c r="P486" t="n">
-        <v>417</v>
+        <v>264</v>
       </c>
       <c r="Q486" t="n">
         <v>18</v>
@@ -35397,7 +35397,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E487" t="n">
         <v>4</v>
@@ -35412,7 +35412,7 @@
       </c>
       <c r="H487" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I487" t="inlineStr">
@@ -35424,13 +35424,13 @@
         <v>300</v>
       </c>
       <c r="K487" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="L487" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M487" t="n">
-        <v>5500</v>
+        <v>2750</v>
       </c>
       <c r="N487" t="inlineStr">
         <is>
@@ -35443,7 +35443,7 @@
         </is>
       </c>
       <c r="P487" t="n">
-        <v>306</v>
+        <v>153</v>
       </c>
       <c r="Q487" t="n">
         <v>18</v>
@@ -35484,7 +35484,7 @@
       </c>
       <c r="H488" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I488" t="inlineStr">
@@ -35493,16 +35493,16 @@
         </is>
       </c>
       <c r="J488" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="K488" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L488" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M488" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="N488" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
         </is>
       </c>
       <c r="P488" t="n">
-        <v>361</v>
+        <v>528</v>
       </c>
       <c r="Q488" t="n">
         <v>18</v>
@@ -35556,7 +35556,7 @@
       </c>
       <c r="H489" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I489" t="inlineStr">
@@ -35565,16 +35565,16 @@
         </is>
       </c>
       <c r="J489" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K489" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L489" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M489" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="N489" t="inlineStr">
         <is>
@@ -35587,7 +35587,7 @@
         </is>
       </c>
       <c r="P489" t="n">
-        <v>250</v>
+        <v>417</v>
       </c>
       <c r="Q489" t="n">
         <v>18</v>
@@ -35628,7 +35628,7 @@
       </c>
       <c r="H490" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I490" t="inlineStr">
@@ -35640,13 +35640,13 @@
         <v>300</v>
       </c>
       <c r="K490" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="L490" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M490" t="n">
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="N490" t="inlineStr">
         <is>
@@ -35659,7 +35659,7 @@
         </is>
       </c>
       <c r="P490" t="n">
-        <v>139</v>
+        <v>306</v>
       </c>
       <c r="Q490" t="n">
         <v>18</v>
@@ -35700,7 +35700,7 @@
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I491" t="inlineStr">
@@ -35709,16 +35709,16 @@
         </is>
       </c>
       <c r="J491" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="K491" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L491" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M491" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="N491" t="inlineStr">
         <is>
@@ -35731,7 +35731,7 @@
         </is>
       </c>
       <c r="P491" t="n">
-        <v>306</v>
+        <v>361</v>
       </c>
       <c r="Q491" t="n">
         <v>18</v>
@@ -35772,7 +35772,7 @@
       </c>
       <c r="H492" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I492" t="inlineStr">
@@ -35781,16 +35781,16 @@
         </is>
       </c>
       <c r="J492" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K492" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L492" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M492" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="N492" t="inlineStr">
         <is>
@@ -35803,7 +35803,7 @@
         </is>
       </c>
       <c r="P492" t="n">
-        <v>194</v>
+        <v>250</v>
       </c>
       <c r="Q492" t="n">
         <v>18</v>
@@ -35844,7 +35844,7 @@
       </c>
       <c r="H493" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I493" t="inlineStr">
@@ -35856,13 +35856,13 @@
         <v>300</v>
       </c>
       <c r="K493" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="L493" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M493" t="n">
-        <v>1750</v>
+        <v>2500</v>
       </c>
       <c r="N493" t="inlineStr">
         <is>
@@ -35875,7 +35875,7 @@
         </is>
       </c>
       <c r="P493" t="n">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="Q493" t="n">
         <v>18</v>
@@ -35901,7 +35901,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E494" t="n">
         <v>4</v>
@@ -35916,7 +35916,7 @@
       </c>
       <c r="H494" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I494" t="inlineStr">
@@ -35925,16 +35925,16 @@
         </is>
       </c>
       <c r="J494" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K494" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="L494" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="M494" t="n">
-        <v>14500</v>
+        <v>5500</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
@@ -35947,7 +35947,7 @@
         </is>
       </c>
       <c r="P494" t="n">
-        <v>806</v>
+        <v>306</v>
       </c>
       <c r="Q494" t="n">
         <v>18</v>
@@ -35973,7 +35973,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E495" t="n">
         <v>4</v>
@@ -35988,7 +35988,7 @@
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I495" t="inlineStr">
@@ -35997,16 +35997,16 @@
         </is>
       </c>
       <c r="J495" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K495" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="L495" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="M495" t="n">
-        <v>12500</v>
+        <v>3500</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         </is>
       </c>
       <c r="P495" t="n">
-        <v>694</v>
+        <v>194</v>
       </c>
       <c r="Q495" t="n">
         <v>18</v>
@@ -36045,7 +36045,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E496" t="n">
         <v>4</v>
@@ -36060,7 +36060,7 @@
       </c>
       <c r="H496" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I496" t="inlineStr">
@@ -36072,13 +36072,13 @@
         <v>300</v>
       </c>
       <c r="K496" t="n">
-        <v>10000</v>
+        <v>1500</v>
       </c>
       <c r="L496" t="n">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="M496" t="n">
-        <v>10500</v>
+        <v>1750</v>
       </c>
       <c r="N496" t="inlineStr">
         <is>
@@ -36091,7 +36091,7 @@
         </is>
       </c>
       <c r="P496" t="n">
-        <v>583</v>
+        <v>97</v>
       </c>
       <c r="Q496" t="n">
         <v>18</v>
@@ -36132,7 +36132,7 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
@@ -36144,13 +36144,13 @@
         <v>600</v>
       </c>
       <c r="K497" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L497" t="n">
         <v>15000</v>
       </c>
-      <c r="L497" t="n">
-        <v>16000</v>
-      </c>
       <c r="M497" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="N497" t="inlineStr">
         <is>
@@ -36163,7 +36163,7 @@
         </is>
       </c>
       <c r="P497" t="n">
-        <v>861</v>
+        <v>806</v>
       </c>
       <c r="Q497" t="n">
         <v>18</v>
@@ -36204,7 +36204,7 @@
       </c>
       <c r="H498" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I498" t="inlineStr">
@@ -36276,7 +36276,7 @@
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I499" t="inlineStr">
@@ -36285,7 +36285,7 @@
         </is>
       </c>
       <c r="J499" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K499" t="n">
         <v>10000</v>
@@ -36333,7 +36333,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44461</v>
+        <v>44392</v>
       </c>
       <c r="E500" t="n">
         <v>4</v>
@@ -36348,7 +36348,7 @@
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I500" t="inlineStr">
@@ -36357,16 +36357,16 @@
         </is>
       </c>
       <c r="J500" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K500" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="L500" t="n">
-        <v>31000</v>
+        <v>16000</v>
       </c>
       <c r="M500" t="n">
-        <v>30500</v>
+        <v>15500</v>
       </c>
       <c r="N500" t="inlineStr">
         <is>
@@ -36379,7 +36379,7 @@
         </is>
       </c>
       <c r="P500" t="n">
-        <v>1694</v>
+        <v>861</v>
       </c>
       <c r="Q500" t="n">
         <v>18</v>
@@ -36405,7 +36405,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44461</v>
+        <v>44392</v>
       </c>
       <c r="E501" t="n">
         <v>4</v>
@@ -36420,7 +36420,7 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
@@ -36429,16 +36429,16 @@
         </is>
       </c>
       <c r="J501" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K501" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="L501" t="n">
-        <v>29000</v>
+        <v>13000</v>
       </c>
       <c r="M501" t="n">
-        <v>28500</v>
+        <v>12500</v>
       </c>
       <c r="N501" t="inlineStr">
         <is>
@@ -36451,7 +36451,7 @@
         </is>
       </c>
       <c r="P501" t="n">
-        <v>1583</v>
+        <v>694</v>
       </c>
       <c r="Q501" t="n">
         <v>18</v>
@@ -36477,7 +36477,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44461</v>
+        <v>44392</v>
       </c>
       <c r="E502" t="n">
         <v>4</v>
@@ -36492,7 +36492,7 @@
       </c>
       <c r="H502" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I502" t="inlineStr">
@@ -36501,16 +36501,16 @@
         </is>
       </c>
       <c r="J502" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="K502" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="L502" t="n">
-        <v>26000</v>
+        <v>11000</v>
       </c>
       <c r="M502" t="n">
-        <v>25500</v>
+        <v>10500</v>
       </c>
       <c r="N502" t="inlineStr">
         <is>
@@ -36523,7 +36523,7 @@
         </is>
       </c>
       <c r="P502" t="n">
-        <v>1417</v>
+        <v>583</v>
       </c>
       <c r="Q502" t="n">
         <v>18</v>
@@ -36564,25 +36564,25 @@
       </c>
       <c r="H503" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I503" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J503" t="n">
-        <v>360</v>
+        <v>800</v>
       </c>
       <c r="K503" t="n">
-        <v>37000</v>
+        <v>30000</v>
       </c>
       <c r="L503" t="n">
-        <v>38000</v>
+        <v>31000</v>
       </c>
       <c r="M503" t="n">
-        <v>37500</v>
+        <v>30500</v>
       </c>
       <c r="N503" t="inlineStr">
         <is>
@@ -36595,7 +36595,7 @@
         </is>
       </c>
       <c r="P503" t="n">
-        <v>2083</v>
+        <v>1694</v>
       </c>
       <c r="Q503" t="n">
         <v>18</v>
@@ -36621,7 +36621,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E504" t="n">
         <v>4</v>
@@ -36636,25 +36636,25 @@
       </c>
       <c r="H504" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I504" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J504" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="K504" t="n">
-        <v>5000</v>
+        <v>28000</v>
       </c>
       <c r="L504" t="n">
-        <v>6000</v>
+        <v>29000</v>
       </c>
       <c r="M504" t="n">
-        <v>5500</v>
+        <v>28500</v>
       </c>
       <c r="N504" t="inlineStr">
         <is>
@@ -36667,7 +36667,7 @@
         </is>
       </c>
       <c r="P504" t="n">
-        <v>306</v>
+        <v>1583</v>
       </c>
       <c r="Q504" t="n">
         <v>18</v>
@@ -36693,7 +36693,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E505" t="n">
         <v>4</v>
@@ -36708,25 +36708,25 @@
       </c>
       <c r="H505" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I505" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J505" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K505" t="n">
-        <v>3000</v>
+        <v>25000</v>
       </c>
       <c r="L505" t="n">
-        <v>4000</v>
+        <v>26000</v>
       </c>
       <c r="M505" t="n">
-        <v>3500</v>
+        <v>25500</v>
       </c>
       <c r="N505" t="inlineStr">
         <is>
@@ -36739,7 +36739,7 @@
         </is>
       </c>
       <c r="P505" t="n">
-        <v>194</v>
+        <v>1417</v>
       </c>
       <c r="Q505" t="n">
         <v>18</v>
@@ -36765,7 +36765,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E506" t="n">
         <v>4</v>
@@ -36780,25 +36780,25 @@
       </c>
       <c r="H506" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I506" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J506" t="n">
-        <v>1200</v>
+        <v>360</v>
       </c>
       <c r="K506" t="n">
-        <v>4000</v>
+        <v>37000</v>
       </c>
       <c r="L506" t="n">
-        <v>5000</v>
+        <v>38000</v>
       </c>
       <c r="M506" t="n">
-        <v>4500</v>
+        <v>37500</v>
       </c>
       <c r="N506" t="inlineStr">
         <is>
@@ -36811,7 +36811,7 @@
         </is>
       </c>
       <c r="P506" t="n">
-        <v>250</v>
+        <v>2083</v>
       </c>
       <c r="Q506" t="n">
         <v>18</v>
@@ -36852,25 +36852,25 @@
       </c>
       <c r="H507" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I507" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J507" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="K507" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="L507" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M507" t="n">
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="N507" t="inlineStr">
         <is>
@@ -36883,7 +36883,7 @@
         </is>
       </c>
       <c r="P507" t="n">
-        <v>139</v>
+        <v>306</v>
       </c>
       <c r="Q507" t="n">
         <v>18</v>
@@ -36924,25 +36924,25 @@
       </c>
       <c r="H508" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I508" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J508" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="K508" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L508" t="n">
         <v>4000</v>
       </c>
-      <c r="L508" t="n">
-        <v>5000</v>
-      </c>
       <c r="M508" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="N508" t="inlineStr">
         <is>
@@ -36955,7 +36955,7 @@
         </is>
       </c>
       <c r="P508" t="n">
-        <v>250</v>
+        <v>194</v>
       </c>
       <c r="Q508" t="n">
         <v>18</v>
@@ -36996,43 +36996,259 @@
       </c>
       <c r="H509" t="inlineStr">
         <is>
+          <t>Cuatro cascos verde</t>
+        </is>
+      </c>
+      <c r="I509" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J509" t="n">
+        <v>1200</v>
+      </c>
+      <c r="K509" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L509" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M509" t="n">
+        <v>4500</v>
+      </c>
+      <c r="N509" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O509" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P509" t="n">
+        <v>250</v>
+      </c>
+      <c r="Q509" t="n">
+        <v>18</v>
+      </c>
+      <c r="R509" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="n">
+        <v>2</v>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D510" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E510" t="n">
+        <v>4</v>
+      </c>
+      <c r="F510" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G510" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H510" t="inlineStr">
+        <is>
+          <t>Cuatro cascos verde</t>
+        </is>
+      </c>
+      <c r="I510" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J510" t="n">
+        <v>1100</v>
+      </c>
+      <c r="K510" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L510" t="n">
+        <v>3000</v>
+      </c>
+      <c r="M510" t="n">
+        <v>2500</v>
+      </c>
+      <c r="N510" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O510" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P510" t="n">
+        <v>139</v>
+      </c>
+      <c r="Q510" t="n">
+        <v>18</v>
+      </c>
+      <c r="R510" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="n">
+        <v>2</v>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D511" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E511" t="n">
+        <v>4</v>
+      </c>
+      <c r="F511" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G511" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H511" t="inlineStr">
+        <is>
           <t>Morrón rojo</t>
         </is>
       </c>
-      <c r="I509" t="inlineStr">
+      <c r="I511" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J511" t="n">
+        <v>1200</v>
+      </c>
+      <c r="K511" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L511" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M511" t="n">
+        <v>4500</v>
+      </c>
+      <c r="N511" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O511" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P511" t="n">
+        <v>250</v>
+      </c>
+      <c r="Q511" t="n">
+        <v>18</v>
+      </c>
+      <c r="R511" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="n">
+        <v>2</v>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D512" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E512" t="n">
+        <v>4</v>
+      </c>
+      <c r="F512" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G512" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H512" t="inlineStr">
+        <is>
+          <t>Morrón rojo</t>
+        </is>
+      </c>
+      <c r="I512" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J509" t="n">
+      <c r="J512" t="n">
         <v>800</v>
       </c>
-      <c r="K509" t="n">
+      <c r="K512" t="n">
         <v>2000</v>
       </c>
-      <c r="L509" t="n">
+      <c r="L512" t="n">
         <v>3000</v>
       </c>
-      <c r="M509" t="n">
+      <c r="M512" t="n">
         <v>2500</v>
       </c>
-      <c r="N509" t="inlineStr">
-        <is>
-          <t>$/caja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O509" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P509" t="n">
+      <c r="N512" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O512" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P512" t="n">
         <v>139</v>
       </c>
-      <c r="Q509" t="n">
-        <v>18</v>
-      </c>
-      <c r="R509" t="inlineStr">
+      <c r="Q512" t="n">
+        <v>18</v>
+      </c>
+      <c r="R512" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pimiento.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pimiento.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R518"/>
+  <dimension ref="A1:R521"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44391</v>
+        <v>44489</v>
       </c>
       <c r="E336" t="n">
         <v>4</v>
@@ -24549,16 +24549,16 @@
         </is>
       </c>
       <c r="J336" t="n">
-        <v>700</v>
+        <v>1800</v>
       </c>
       <c r="K336" t="n">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="L336" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="M336" t="n">
-        <v>14500</v>
+        <v>27000</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>806</v>
+        <v>1500</v>
       </c>
       <c r="Q336" t="n">
         <v>18</v>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44391</v>
+        <v>44489</v>
       </c>
       <c r="E337" t="n">
         <v>4</v>
@@ -24621,16 +24621,16 @@
         </is>
       </c>
       <c r="J337" t="n">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="K337" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="L337" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="M337" t="n">
-        <v>12500</v>
+        <v>23000</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
@@ -24643,7 +24643,7 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>694</v>
+        <v>1278</v>
       </c>
       <c r="Q337" t="n">
         <v>18</v>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44391</v>
+        <v>44489</v>
       </c>
       <c r="E338" t="n">
         <v>4</v>
@@ -24693,16 +24693,16 @@
         </is>
       </c>
       <c r="J338" t="n">
-        <v>160</v>
+        <v>1200</v>
       </c>
       <c r="K338" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="L338" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="M338" t="n">
-        <v>10500</v>
+        <v>19000</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>583</v>
+        <v>1056</v>
       </c>
       <c r="Q338" t="n">
         <v>18</v>
@@ -24756,7 +24756,7 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
@@ -24765,16 +24765,16 @@
         </is>
       </c>
       <c r="J339" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K339" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L339" t="n">
         <v>15000</v>
       </c>
-      <c r="L339" t="n">
-        <v>16000</v>
-      </c>
       <c r="M339" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>861</v>
+        <v>806</v>
       </c>
       <c r="Q339" t="n">
         <v>18</v>
@@ -24828,7 +24828,7 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="J340" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K340" t="n">
         <v>12000</v>
@@ -24900,7 +24900,7 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
@@ -24909,7 +24909,7 @@
         </is>
       </c>
       <c r="J341" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K341" t="n">
         <v>10000</v>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E342" t="n">
         <v>4</v>
@@ -24972,7 +24972,7 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
@@ -24981,16 +24981,16 @@
         </is>
       </c>
       <c r="J342" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K342" t="n">
-        <v>9500</v>
+        <v>15000</v>
       </c>
       <c r="L342" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M342" t="n">
-        <v>9750</v>
+        <v>15500</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>542</v>
+        <v>861</v>
       </c>
       <c r="Q342" t="n">
         <v>18</v>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E343" t="n">
         <v>4</v>
@@ -25044,7 +25044,7 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
@@ -25053,16 +25053,16 @@
         </is>
       </c>
       <c r="J343" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K343" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="L343" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M343" t="n">
-        <v>7750</v>
+        <v>12500</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         </is>
       </c>
       <c r="P343" t="n">
-        <v>431</v>
+        <v>694</v>
       </c>
       <c r="Q343" t="n">
         <v>18</v>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E344" t="n">
         <v>4</v>
@@ -25116,7 +25116,7 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
@@ -25125,16 +25125,16 @@
         </is>
       </c>
       <c r="J344" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K344" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="L344" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M344" t="n">
-        <v>5750</v>
+        <v>10500</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>319</v>
+        <v>583</v>
       </c>
       <c r="Q344" t="n">
         <v>18</v>
@@ -25188,7 +25188,7 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
@@ -25197,16 +25197,16 @@
         </is>
       </c>
       <c r="J345" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K345" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="L345" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M345" t="n">
-        <v>13500</v>
+        <v>9750</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
@@ -25219,7 +25219,7 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>750</v>
+        <v>542</v>
       </c>
       <c r="Q345" t="n">
         <v>18</v>
@@ -25260,7 +25260,7 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
@@ -25269,16 +25269,16 @@
         </is>
       </c>
       <c r="J346" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K346" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="L346" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M346" t="n">
-        <v>11500</v>
+        <v>7750</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         </is>
       </c>
       <c r="P346" t="n">
-        <v>639</v>
+        <v>431</v>
       </c>
       <c r="Q346" t="n">
         <v>18</v>
@@ -25332,7 +25332,7 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
@@ -25344,13 +25344,13 @@
         <v>400</v>
       </c>
       <c r="K347" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="L347" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M347" t="n">
-        <v>9500</v>
+        <v>5750</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>528</v>
+        <v>319</v>
       </c>
       <c r="Q347" t="n">
         <v>18</v>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44231</v>
+        <v>44335</v>
       </c>
       <c r="E348" t="n">
         <v>4</v>
@@ -25404,7 +25404,7 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
@@ -25413,16 +25413,16 @@
         </is>
       </c>
       <c r="J348" t="n">
-        <v>160</v>
+        <v>600</v>
       </c>
       <c r="K348" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="L348" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M348" t="n">
-        <v>12750</v>
+        <v>13500</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
@@ -25435,7 +25435,7 @@
         </is>
       </c>
       <c r="P348" t="n">
-        <v>708</v>
+        <v>750</v>
       </c>
       <c r="Q348" t="n">
         <v>18</v>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44231</v>
+        <v>44335</v>
       </c>
       <c r="E349" t="n">
         <v>4</v>
@@ -25476,7 +25476,7 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I349" t="inlineStr">
@@ -25485,16 +25485,16 @@
         </is>
       </c>
       <c r="J349" t="n">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="K349" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="L349" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M349" t="n">
-        <v>10750</v>
+        <v>11500</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>597</v>
+        <v>639</v>
       </c>
       <c r="Q349" t="n">
         <v>18</v>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44231</v>
+        <v>44335</v>
       </c>
       <c r="E350" t="n">
         <v>4</v>
@@ -25548,7 +25548,7 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
@@ -25557,16 +25557,16 @@
         </is>
       </c>
       <c r="J350" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="K350" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L350" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M350" t="n">
-        <v>7750</v>
+        <v>9500</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>431</v>
+        <v>528</v>
       </c>
       <c r="Q350" t="n">
         <v>18</v>
@@ -25620,7 +25620,7 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
@@ -25629,16 +25629,16 @@
         </is>
       </c>
       <c r="J351" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="K351" t="n">
-        <v>5500</v>
+        <v>12500</v>
       </c>
       <c r="L351" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="M351" t="n">
-        <v>5750</v>
+        <v>12750</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>319</v>
+        <v>708</v>
       </c>
       <c r="Q351" t="n">
         <v>18</v>
@@ -25692,7 +25692,7 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
@@ -25701,16 +25701,16 @@
         </is>
       </c>
       <c r="J352" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="K352" t="n">
-        <v>3500</v>
+        <v>10500</v>
       </c>
       <c r="L352" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="M352" t="n">
-        <v>3750</v>
+        <v>10750</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>208</v>
+        <v>597</v>
       </c>
       <c r="Q352" t="n">
         <v>18</v>
@@ -25764,25 +25764,25 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J353" t="n">
-        <v>700</v>
+        <v>120</v>
       </c>
       <c r="K353" t="n">
-        <v>16500</v>
+        <v>7500</v>
       </c>
       <c r="L353" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="M353" t="n">
-        <v>16750</v>
+        <v>7750</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
@@ -25795,7 +25795,7 @@
         </is>
       </c>
       <c r="P353" t="n">
-        <v>931</v>
+        <v>431</v>
       </c>
       <c r="Q353" t="n">
         <v>18</v>
@@ -25836,25 +25836,25 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J354" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K354" t="n">
-        <v>13500</v>
+        <v>5500</v>
       </c>
       <c r="L354" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="M354" t="n">
-        <v>13750</v>
+        <v>5750</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         </is>
       </c>
       <c r="P354" t="n">
-        <v>764</v>
+        <v>319</v>
       </c>
       <c r="Q354" t="n">
         <v>18</v>
@@ -25908,25 +25908,25 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J355" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K355" t="n">
-        <v>9500</v>
+        <v>3500</v>
       </c>
       <c r="L355" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M355" t="n">
-        <v>9750</v>
+        <v>3750</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
@@ -25939,7 +25939,7 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>542</v>
+        <v>208</v>
       </c>
       <c r="Q355" t="n">
         <v>18</v>
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44258</v>
+        <v>44231</v>
       </c>
       <c r="E356" t="n">
         <v>4</v>
@@ -25980,7 +25980,7 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
@@ -25989,16 +25989,16 @@
         </is>
       </c>
       <c r="J356" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K356" t="n">
-        <v>8500</v>
+        <v>16500</v>
       </c>
       <c r="L356" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="M356" t="n">
-        <v>8750</v>
+        <v>16750</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         </is>
       </c>
       <c r="P356" t="n">
-        <v>486</v>
+        <v>931</v>
       </c>
       <c r="Q356" t="n">
         <v>18</v>
@@ -26037,7 +26037,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44258</v>
+        <v>44231</v>
       </c>
       <c r="E357" t="n">
         <v>4</v>
@@ -26052,7 +26052,7 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
@@ -26061,16 +26061,16 @@
         </is>
       </c>
       <c r="J357" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K357" t="n">
-        <v>6500</v>
+        <v>13500</v>
       </c>
       <c r="L357" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M357" t="n">
-        <v>6750</v>
+        <v>13750</v>
       </c>
       <c r="N357" t="inlineStr">
         <is>
@@ -26083,7 +26083,7 @@
         </is>
       </c>
       <c r="P357" t="n">
-        <v>375</v>
+        <v>764</v>
       </c>
       <c r="Q357" t="n">
         <v>18</v>
@@ -26109,7 +26109,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44258</v>
+        <v>44231</v>
       </c>
       <c r="E358" t="n">
         <v>4</v>
@@ -26124,7 +26124,7 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
@@ -26133,16 +26133,16 @@
         </is>
       </c>
       <c r="J358" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K358" t="n">
-        <v>4500</v>
+        <v>9500</v>
       </c>
       <c r="L358" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M358" t="n">
-        <v>4750</v>
+        <v>9750</v>
       </c>
       <c r="N358" t="inlineStr">
         <is>
@@ -26155,7 +26155,7 @@
         </is>
       </c>
       <c r="P358" t="n">
-        <v>264</v>
+        <v>542</v>
       </c>
       <c r="Q358" t="n">
         <v>18</v>
@@ -26196,7 +26196,7 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
@@ -26205,16 +26205,16 @@
         </is>
       </c>
       <c r="J359" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="K359" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="L359" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="M359" t="n">
-        <v>5250</v>
+        <v>8750</v>
       </c>
       <c r="N359" t="inlineStr">
         <is>
@@ -26227,7 +26227,7 @@
         </is>
       </c>
       <c r="P359" t="n">
-        <v>292</v>
+        <v>486</v>
       </c>
       <c r="Q359" t="n">
         <v>18</v>
@@ -26268,7 +26268,7 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
@@ -26277,16 +26277,16 @@
         </is>
       </c>
       <c r="J360" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K360" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="L360" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="M360" t="n">
-        <v>3250</v>
+        <v>6750</v>
       </c>
       <c r="N360" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         </is>
       </c>
       <c r="P360" t="n">
-        <v>181</v>
+        <v>375</v>
       </c>
       <c r="Q360" t="n">
         <v>18</v>
@@ -26340,25 +26340,25 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J361" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="K361" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L361" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M361" t="n">
-        <v>7500</v>
+        <v>4750</v>
       </c>
       <c r="N361" t="inlineStr">
         <is>
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="P361" t="n">
-        <v>417</v>
+        <v>264</v>
       </c>
       <c r="Q361" t="n">
         <v>18</v>
@@ -26412,25 +26412,25 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J362" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K362" t="n">
         <v>5000</v>
       </c>
       <c r="L362" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M362" t="n">
-        <v>5500</v>
+        <v>5250</v>
       </c>
       <c r="N362" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         </is>
       </c>
       <c r="P362" t="n">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="Q362" t="n">
         <v>18</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E363" t="n">
         <v>4</v>
@@ -26489,20 +26489,20 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J363" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K363" t="n">
-        <v>31000</v>
+        <v>3000</v>
       </c>
       <c r="L363" t="n">
-        <v>33000</v>
+        <v>3500</v>
       </c>
       <c r="M363" t="n">
-        <v>32000</v>
+        <v>3250</v>
       </c>
       <c r="N363" t="inlineStr">
         <is>
@@ -26515,7 +26515,7 @@
         </is>
       </c>
       <c r="P363" t="n">
-        <v>1778</v>
+        <v>181</v>
       </c>
       <c r="Q363" t="n">
         <v>18</v>
@@ -26541,7 +26541,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E364" t="n">
         <v>4</v>
@@ -26556,25 +26556,25 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J364" t="n">
         <v>900</v>
       </c>
       <c r="K364" t="n">
-        <v>28000</v>
+        <v>7000</v>
       </c>
       <c r="L364" t="n">
-        <v>30000</v>
+        <v>8000</v>
       </c>
       <c r="M364" t="n">
-        <v>29000</v>
+        <v>7500</v>
       </c>
       <c r="N364" t="inlineStr">
         <is>
@@ -26587,7 +26587,7 @@
         </is>
       </c>
       <c r="P364" t="n">
-        <v>1611</v>
+        <v>417</v>
       </c>
       <c r="Q364" t="n">
         <v>18</v>
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E365" t="n">
         <v>4</v>
@@ -26628,25 +26628,25 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J365" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K365" t="n">
-        <v>25000</v>
+        <v>5000</v>
       </c>
       <c r="L365" t="n">
-        <v>27000</v>
+        <v>6000</v>
       </c>
       <c r="M365" t="n">
-        <v>26000</v>
+        <v>5500</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         </is>
       </c>
       <c r="P365" t="n">
-        <v>1444</v>
+        <v>306</v>
       </c>
       <c r="Q365" t="n">
         <v>18</v>
@@ -26685,7 +26685,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44252</v>
+        <v>44475</v>
       </c>
       <c r="E366" t="n">
         <v>4</v>
@@ -26700,7 +26700,7 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
@@ -26709,16 +26709,16 @@
         </is>
       </c>
       <c r="J366" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="K366" t="n">
-        <v>7500</v>
+        <v>31000</v>
       </c>
       <c r="L366" t="n">
-        <v>8000</v>
+        <v>33000</v>
       </c>
       <c r="M366" t="n">
-        <v>7750</v>
+        <v>32000</v>
       </c>
       <c r="N366" t="inlineStr">
         <is>
@@ -26731,7 +26731,7 @@
         </is>
       </c>
       <c r="P366" t="n">
-        <v>431</v>
+        <v>1778</v>
       </c>
       <c r="Q366" t="n">
         <v>18</v>
@@ -26757,7 +26757,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44252</v>
+        <v>44475</v>
       </c>
       <c r="E367" t="n">
         <v>4</v>
@@ -26772,7 +26772,7 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
@@ -26781,16 +26781,16 @@
         </is>
       </c>
       <c r="J367" t="n">
-        <v>240</v>
+        <v>900</v>
       </c>
       <c r="K367" t="n">
-        <v>5500</v>
+        <v>28000</v>
       </c>
       <c r="L367" t="n">
-        <v>6000</v>
+        <v>30000</v>
       </c>
       <c r="M367" t="n">
-        <v>5750</v>
+        <v>29000</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
@@ -26803,7 +26803,7 @@
         </is>
       </c>
       <c r="P367" t="n">
-        <v>319</v>
+        <v>1611</v>
       </c>
       <c r="Q367" t="n">
         <v>18</v>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44252</v>
+        <v>44475</v>
       </c>
       <c r="E368" t="n">
         <v>4</v>
@@ -26844,7 +26844,7 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
@@ -26853,16 +26853,16 @@
         </is>
       </c>
       <c r="J368" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K368" t="n">
-        <v>3500</v>
+        <v>25000</v>
       </c>
       <c r="L368" t="n">
-        <v>4000</v>
+        <v>27000</v>
       </c>
       <c r="M368" t="n">
-        <v>3750</v>
+        <v>26000</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
@@ -26875,7 +26875,7 @@
         </is>
       </c>
       <c r="P368" t="n">
-        <v>208</v>
+        <v>1444</v>
       </c>
       <c r="Q368" t="n">
         <v>18</v>
@@ -26916,7 +26916,7 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
@@ -26925,16 +26925,16 @@
         </is>
       </c>
       <c r="J369" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="K369" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="L369" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M369" t="n">
-        <v>4500</v>
+        <v>7750</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         </is>
       </c>
       <c r="P369" t="n">
-        <v>250</v>
+        <v>431</v>
       </c>
       <c r="Q369" t="n">
         <v>18</v>
@@ -26988,7 +26988,7 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
@@ -26997,16 +26997,16 @@
         </is>
       </c>
       <c r="J370" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="K370" t="n">
-        <v>2000</v>
+        <v>5500</v>
       </c>
       <c r="L370" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M370" t="n">
-        <v>2500</v>
+        <v>5750</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         </is>
       </c>
       <c r="P370" t="n">
-        <v>139</v>
+        <v>319</v>
       </c>
       <c r="Q370" t="n">
         <v>18</v>
@@ -27060,25 +27060,25 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J371" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="K371" t="n">
-        <v>9000</v>
+        <v>3500</v>
       </c>
       <c r="L371" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M371" t="n">
-        <v>9500</v>
+        <v>3750</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
@@ -27091,7 +27091,7 @@
         </is>
       </c>
       <c r="P371" t="n">
-        <v>528</v>
+        <v>208</v>
       </c>
       <c r="Q371" t="n">
         <v>18</v>
@@ -27132,25 +27132,25 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J372" t="n">
         <v>700</v>
       </c>
       <c r="K372" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L372" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M372" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         </is>
       </c>
       <c r="P372" t="n">
-        <v>417</v>
+        <v>250</v>
       </c>
       <c r="Q372" t="n">
         <v>18</v>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44300</v>
+        <v>44252</v>
       </c>
       <c r="E373" t="n">
         <v>4</v>
@@ -27204,25 +27204,25 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J373" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="K373" t="n">
-        <v>9000</v>
+        <v>2000</v>
       </c>
       <c r="L373" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="M373" t="n">
-        <v>9500</v>
+        <v>2500</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         </is>
       </c>
       <c r="P373" t="n">
-        <v>528</v>
+        <v>139</v>
       </c>
       <c r="Q373" t="n">
         <v>18</v>
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44300</v>
+        <v>44252</v>
       </c>
       <c r="E374" t="n">
         <v>4</v>
@@ -27276,25 +27276,25 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J374" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="K374" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L374" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M374" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         </is>
       </c>
       <c r="P374" t="n">
-        <v>417</v>
+        <v>528</v>
       </c>
       <c r="Q374" t="n">
         <v>18</v>
@@ -27333,7 +27333,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44300</v>
+        <v>44252</v>
       </c>
       <c r="E375" t="n">
         <v>4</v>
@@ -27348,25 +27348,25 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J375" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="K375" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L375" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M375" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         </is>
       </c>
       <c r="P375" t="n">
-        <v>306</v>
+        <v>417</v>
       </c>
       <c r="Q375" t="n">
         <v>18</v>
@@ -27420,7 +27420,7 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
@@ -27429,16 +27429,16 @@
         </is>
       </c>
       <c r="J376" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="K376" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L376" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M376" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         </is>
       </c>
       <c r="P376" t="n">
-        <v>417</v>
+        <v>528</v>
       </c>
       <c r="Q376" t="n">
         <v>18</v>
@@ -27492,7 +27492,7 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
@@ -27501,16 +27501,16 @@
         </is>
       </c>
       <c r="J377" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K377" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L377" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M377" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
@@ -27523,7 +27523,7 @@
         </is>
       </c>
       <c r="P377" t="n">
-        <v>306</v>
+        <v>417</v>
       </c>
       <c r="Q377" t="n">
         <v>18</v>
@@ -27564,7 +27564,7 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
@@ -27573,16 +27573,16 @@
         </is>
       </c>
       <c r="J378" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K378" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L378" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M378" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
@@ -27595,7 +27595,7 @@
         </is>
       </c>
       <c r="P378" t="n">
-        <v>194</v>
+        <v>306</v>
       </c>
       <c r="Q378" t="n">
         <v>18</v>
@@ -27636,7 +27636,7 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
@@ -27645,16 +27645,16 @@
         </is>
       </c>
       <c r="J379" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K379" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L379" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M379" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
@@ -27667,7 +27667,7 @@
         </is>
       </c>
       <c r="P379" t="n">
-        <v>306</v>
+        <v>417</v>
       </c>
       <c r="Q379" t="n">
         <v>18</v>
@@ -27708,7 +27708,7 @@
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
@@ -27717,16 +27717,16 @@
         </is>
       </c>
       <c r="J380" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K380" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L380" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M380" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         </is>
       </c>
       <c r="P380" t="n">
-        <v>194</v>
+        <v>306</v>
       </c>
       <c r="Q380" t="n">
         <v>18</v>
@@ -27765,7 +27765,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c r="E381" t="n">
         <v>4</v>
@@ -27785,20 +27785,20 @@
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J381" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K381" t="n">
-        <v>8500</v>
+        <v>3000</v>
       </c>
       <c r="L381" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="M381" t="n">
-        <v>8750</v>
+        <v>3500</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
@@ -27811,7 +27811,7 @@
         </is>
       </c>
       <c r="P381" t="n">
-        <v>486</v>
+        <v>194</v>
       </c>
       <c r="Q381" t="n">
         <v>18</v>
@@ -27837,7 +27837,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c r="E382" t="n">
         <v>4</v>
@@ -27852,25 +27852,25 @@
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J382" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="K382" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L382" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M382" t="n">
-        <v>6750</v>
+        <v>5500</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
@@ -27883,7 +27883,7 @@
         </is>
       </c>
       <c r="P382" t="n">
-        <v>375</v>
+        <v>306</v>
       </c>
       <c r="Q382" t="n">
         <v>18</v>
@@ -27909,7 +27909,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c r="E383" t="n">
         <v>4</v>
@@ -27924,25 +27924,25 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J383" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K383" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L383" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M383" t="n">
-        <v>4750</v>
+        <v>3500</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         </is>
       </c>
       <c r="P383" t="n">
-        <v>264</v>
+        <v>194</v>
       </c>
       <c r="Q383" t="n">
         <v>18</v>
@@ -27996,7 +27996,7 @@
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
@@ -28008,13 +28008,13 @@
         <v>400</v>
       </c>
       <c r="K384" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="L384" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M384" t="n">
-        <v>12500</v>
+        <v>8750</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         </is>
       </c>
       <c r="P384" t="n">
-        <v>694</v>
+        <v>486</v>
       </c>
       <c r="Q384" t="n">
         <v>18</v>
@@ -28068,7 +28068,7 @@
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
@@ -28077,16 +28077,16 @@
         </is>
       </c>
       <c r="J385" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K385" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="L385" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M385" t="n">
-        <v>9500</v>
+        <v>6750</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
@@ -28099,7 +28099,7 @@
         </is>
       </c>
       <c r="P385" t="n">
-        <v>528</v>
+        <v>375</v>
       </c>
       <c r="Q385" t="n">
         <v>18</v>
@@ -28140,7 +28140,7 @@
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
@@ -28149,16 +28149,16 @@
         </is>
       </c>
       <c r="J386" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K386" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L386" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M386" t="n">
-        <v>6500</v>
+        <v>4750</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
@@ -28171,7 +28171,7 @@
         </is>
       </c>
       <c r="P386" t="n">
-        <v>361</v>
+        <v>264</v>
       </c>
       <c r="Q386" t="n">
         <v>18</v>
@@ -28197,7 +28197,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E387" t="n">
         <v>4</v>
@@ -28212,7 +28212,7 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
@@ -28221,7 +28221,7 @@
         </is>
       </c>
       <c r="J387" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K387" t="n">
         <v>12000</v>
@@ -28269,7 +28269,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E388" t="n">
         <v>4</v>
@@ -28284,7 +28284,7 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
@@ -28293,16 +28293,16 @@
         </is>
       </c>
       <c r="J388" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="K388" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L388" t="n">
         <v>10000</v>
       </c>
-      <c r="L388" t="n">
-        <v>11000</v>
-      </c>
       <c r="M388" t="n">
-        <v>10486</v>
+        <v>9500</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         </is>
       </c>
       <c r="P388" t="n">
-        <v>583</v>
+        <v>528</v>
       </c>
       <c r="Q388" t="n">
         <v>18</v>
@@ -28341,7 +28341,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E389" t="n">
         <v>4</v>
@@ -28356,7 +28356,7 @@
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
@@ -28365,16 +28365,16 @@
         </is>
       </c>
       <c r="J389" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="K389" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L389" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M389" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
@@ -28387,7 +28387,7 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>472</v>
+        <v>361</v>
       </c>
       <c r="Q389" t="n">
         <v>18</v>
@@ -28428,7 +28428,7 @@
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
@@ -28437,16 +28437,16 @@
         </is>
       </c>
       <c r="J390" t="n">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="K390" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="L390" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M390" t="n">
-        <v>8750</v>
+        <v>12500</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
@@ -28459,7 +28459,7 @@
         </is>
       </c>
       <c r="P390" t="n">
-        <v>486</v>
+        <v>694</v>
       </c>
       <c r="Q390" t="n">
         <v>18</v>
@@ -28500,7 +28500,7 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
@@ -28509,16 +28509,16 @@
         </is>
       </c>
       <c r="J391" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="K391" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="L391" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M391" t="n">
-        <v>6750</v>
+        <v>10486</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
@@ -28531,7 +28531,7 @@
         </is>
       </c>
       <c r="P391" t="n">
-        <v>375</v>
+        <v>583</v>
       </c>
       <c r="Q391" t="n">
         <v>18</v>
@@ -28572,7 +28572,7 @@
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
@@ -28581,16 +28581,16 @@
         </is>
       </c>
       <c r="J392" t="n">
-        <v>340</v>
+        <v>240</v>
       </c>
       <c r="K392" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="L392" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M392" t="n">
-        <v>4750</v>
+        <v>8500</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         </is>
       </c>
       <c r="P392" t="n">
-        <v>264</v>
+        <v>472</v>
       </c>
       <c r="Q392" t="n">
         <v>18</v>
@@ -28644,7 +28644,7 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
@@ -28653,16 +28653,16 @@
         </is>
       </c>
       <c r="J393" t="n">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="K393" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="L393" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M393" t="n">
-        <v>13500</v>
+        <v>8750</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         </is>
       </c>
       <c r="P393" t="n">
-        <v>750</v>
+        <v>486</v>
       </c>
       <c r="Q393" t="n">
         <v>18</v>
@@ -28716,7 +28716,7 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
@@ -28725,16 +28725,16 @@
         </is>
       </c>
       <c r="J394" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="K394" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="L394" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M394" t="n">
-        <v>10500</v>
+        <v>6750</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
@@ -28747,7 +28747,7 @@
         </is>
       </c>
       <c r="P394" t="n">
-        <v>583</v>
+        <v>375</v>
       </c>
       <c r="Q394" t="n">
         <v>18</v>
@@ -28788,7 +28788,7 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
@@ -28797,16 +28797,16 @@
         </is>
       </c>
       <c r="J395" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K395" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L395" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M395" t="n">
-        <v>7500</v>
+        <v>4750</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>417</v>
+        <v>264</v>
       </c>
       <c r="Q395" t="n">
         <v>18</v>
@@ -28845,7 +28845,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E396" t="n">
         <v>4</v>
@@ -28860,7 +28860,7 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
@@ -28869,16 +28869,16 @@
         </is>
       </c>
       <c r="J396" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="K396" t="n">
-        <v>31000</v>
+        <v>13000</v>
       </c>
       <c r="L396" t="n">
-        <v>32000</v>
+        <v>14000</v>
       </c>
       <c r="M396" t="n">
-        <v>31500</v>
+        <v>13500</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         </is>
       </c>
       <c r="P396" t="n">
-        <v>1750</v>
+        <v>750</v>
       </c>
       <c r="Q396" t="n">
         <v>18</v>
@@ -28917,7 +28917,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E397" t="n">
         <v>4</v>
@@ -28932,7 +28932,7 @@
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
@@ -28941,16 +28941,16 @@
         </is>
       </c>
       <c r="J397" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K397" t="n">
-        <v>27000</v>
+        <v>10000</v>
       </c>
       <c r="L397" t="n">
-        <v>28000</v>
+        <v>11000</v>
       </c>
       <c r="M397" t="n">
-        <v>27500</v>
+        <v>10500</v>
       </c>
       <c r="N397" t="inlineStr">
         <is>
@@ -28963,7 +28963,7 @@
         </is>
       </c>
       <c r="P397" t="n">
-        <v>1528</v>
+        <v>583</v>
       </c>
       <c r="Q397" t="n">
         <v>18</v>
@@ -28989,7 +28989,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E398" t="n">
         <v>4</v>
@@ -29004,7 +29004,7 @@
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
@@ -29013,16 +29013,16 @@
         </is>
       </c>
       <c r="J398" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="K398" t="n">
-        <v>22000</v>
+        <v>7000</v>
       </c>
       <c r="L398" t="n">
-        <v>23000</v>
+        <v>8000</v>
       </c>
       <c r="M398" t="n">
-        <v>22500</v>
+        <v>7500</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="P398" t="n">
-        <v>1250</v>
+        <v>417</v>
       </c>
       <c r="Q398" t="n">
         <v>18</v>
@@ -29076,7 +29076,7 @@
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
@@ -29085,16 +29085,16 @@
         </is>
       </c>
       <c r="J399" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K399" t="n">
-        <v>38000</v>
+        <v>31000</v>
       </c>
       <c r="L399" t="n">
-        <v>39000</v>
+        <v>32000</v>
       </c>
       <c r="M399" t="n">
-        <v>38500</v>
+        <v>31500</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         </is>
       </c>
       <c r="P399" t="n">
-        <v>2139</v>
+        <v>1750</v>
       </c>
       <c r="Q399" t="n">
         <v>18</v>
@@ -29148,7 +29148,7 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
@@ -29157,16 +29157,16 @@
         </is>
       </c>
       <c r="J400" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K400" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="L400" t="n">
-        <v>36000</v>
+        <v>28000</v>
       </c>
       <c r="M400" t="n">
-        <v>35500</v>
+        <v>27500</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         </is>
       </c>
       <c r="P400" t="n">
-        <v>1972</v>
+        <v>1528</v>
       </c>
       <c r="Q400" t="n">
         <v>18</v>
@@ -29220,7 +29220,7 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
@@ -29229,16 +29229,16 @@
         </is>
       </c>
       <c r="J401" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="K401" t="n">
-        <v>31000</v>
+        <v>22000</v>
       </c>
       <c r="L401" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="M401" t="n">
-        <v>31500</v>
+        <v>22500</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         </is>
       </c>
       <c r="P401" t="n">
-        <v>1750</v>
+        <v>1250</v>
       </c>
       <c r="Q401" t="n">
         <v>18</v>
@@ -29277,7 +29277,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E402" t="n">
         <v>4</v>
@@ -29292,7 +29292,7 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
@@ -29301,16 +29301,16 @@
         </is>
       </c>
       <c r="J402" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K402" t="n">
-        <v>11500</v>
+        <v>38000</v>
       </c>
       <c r="L402" t="n">
-        <v>12000</v>
+        <v>39000</v>
       </c>
       <c r="M402" t="n">
-        <v>11750</v>
+        <v>38500</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         </is>
       </c>
       <c r="P402" t="n">
-        <v>653</v>
+        <v>2139</v>
       </c>
       <c r="Q402" t="n">
         <v>18</v>
@@ -29349,7 +29349,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E403" t="n">
         <v>4</v>
@@ -29364,7 +29364,7 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
@@ -29373,16 +29373,16 @@
         </is>
       </c>
       <c r="J403" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K403" t="n">
-        <v>9500</v>
+        <v>35000</v>
       </c>
       <c r="L403" t="n">
-        <v>10000</v>
+        <v>36000</v>
       </c>
       <c r="M403" t="n">
-        <v>9750</v>
+        <v>35500</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
@@ -29395,7 +29395,7 @@
         </is>
       </c>
       <c r="P403" t="n">
-        <v>542</v>
+        <v>1972</v>
       </c>
       <c r="Q403" t="n">
         <v>18</v>
@@ -29421,7 +29421,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E404" t="n">
         <v>4</v>
@@ -29436,7 +29436,7 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
@@ -29445,16 +29445,16 @@
         </is>
       </c>
       <c r="J404" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="K404" t="n">
-        <v>6500</v>
+        <v>31000</v>
       </c>
       <c r="L404" t="n">
-        <v>7000</v>
+        <v>32000</v>
       </c>
       <c r="M404" t="n">
-        <v>6750</v>
+        <v>31500</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
@@ -29467,7 +29467,7 @@
         </is>
       </c>
       <c r="P404" t="n">
-        <v>375</v>
+        <v>1750</v>
       </c>
       <c r="Q404" t="n">
         <v>18</v>
@@ -29508,7 +29508,7 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
@@ -29517,16 +29517,16 @@
         </is>
       </c>
       <c r="J405" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K405" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="L405" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M405" t="n">
-        <v>10750</v>
+        <v>11750</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
@@ -29539,7 +29539,7 @@
         </is>
       </c>
       <c r="P405" t="n">
-        <v>597</v>
+        <v>653</v>
       </c>
       <c r="Q405" t="n">
         <v>18</v>
@@ -29580,7 +29580,7 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
@@ -29589,16 +29589,16 @@
         </is>
       </c>
       <c r="J406" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K406" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="L406" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M406" t="n">
-        <v>8750</v>
+        <v>9750</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         </is>
       </c>
       <c r="P406" t="n">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="Q406" t="n">
         <v>18</v>
@@ -29652,7 +29652,7 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
@@ -29661,7 +29661,7 @@
         </is>
       </c>
       <c r="J407" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K407" t="n">
         <v>6500</v>
@@ -29709,7 +29709,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44202</v>
+        <v>44385</v>
       </c>
       <c r="E408" t="n">
         <v>4</v>
@@ -29724,7 +29724,7 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
@@ -29733,16 +29733,16 @@
         </is>
       </c>
       <c r="J408" t="n">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="K408" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="L408" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M408" t="n">
-        <v>14750</v>
+        <v>10750</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         </is>
       </c>
       <c r="P408" t="n">
-        <v>819</v>
+        <v>597</v>
       </c>
       <c r="Q408" t="n">
         <v>18</v>
@@ -29781,7 +29781,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44202</v>
+        <v>44385</v>
       </c>
       <c r="E409" t="n">
         <v>4</v>
@@ -29796,7 +29796,7 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
@@ -29805,16 +29805,16 @@
         </is>
       </c>
       <c r="J409" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K409" t="n">
-        <v>12500</v>
+        <v>8500</v>
       </c>
       <c r="L409" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M409" t="n">
-        <v>12750</v>
+        <v>8750</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
@@ -29827,7 +29827,7 @@
         </is>
       </c>
       <c r="P409" t="n">
-        <v>708</v>
+        <v>486</v>
       </c>
       <c r="Q409" t="n">
         <v>18</v>
@@ -29853,7 +29853,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44202</v>
+        <v>44385</v>
       </c>
       <c r="E410" t="n">
         <v>4</v>
@@ -29868,7 +29868,7 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
@@ -29877,16 +29877,16 @@
         </is>
       </c>
       <c r="J410" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="K410" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="L410" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M410" t="n">
-        <v>9750</v>
+        <v>6750</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
@@ -29899,7 +29899,7 @@
         </is>
       </c>
       <c r="P410" t="n">
-        <v>542</v>
+        <v>375</v>
       </c>
       <c r="Q410" t="n">
         <v>18</v>
@@ -29940,7 +29940,7 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
@@ -29949,16 +29949,16 @@
         </is>
       </c>
       <c r="J411" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K411" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="L411" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M411" t="n">
-        <v>9750</v>
+        <v>14750</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
@@ -29971,7 +29971,7 @@
         </is>
       </c>
       <c r="P411" t="n">
-        <v>542</v>
+        <v>819</v>
       </c>
       <c r="Q411" t="n">
         <v>18</v>
@@ -30012,7 +30012,7 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
@@ -30024,13 +30024,13 @@
         <v>200</v>
       </c>
       <c r="K412" t="n">
-        <v>7500</v>
+        <v>12500</v>
       </c>
       <c r="L412" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M412" t="n">
-        <v>7750</v>
+        <v>12750</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
@@ -30043,7 +30043,7 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>431</v>
+        <v>708</v>
       </c>
       <c r="Q412" t="n">
         <v>18</v>
@@ -30084,7 +30084,7 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
@@ -30096,13 +30096,13 @@
         <v>160</v>
       </c>
       <c r="K413" t="n">
-        <v>4500</v>
+        <v>9500</v>
       </c>
       <c r="L413" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M413" t="n">
-        <v>4750</v>
+        <v>9750</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
@@ -30115,7 +30115,7 @@
         </is>
       </c>
       <c r="P413" t="n">
-        <v>264</v>
+        <v>542</v>
       </c>
       <c r="Q413" t="n">
         <v>18</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44435</v>
+        <v>44202</v>
       </c>
       <c r="E414" t="n">
         <v>4</v>
@@ -30165,16 +30165,16 @@
         </is>
       </c>
       <c r="J414" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="K414" t="n">
-        <v>23000</v>
+        <v>9500</v>
       </c>
       <c r="L414" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="M414" t="n">
-        <v>24045</v>
+        <v>9750</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
@@ -30187,7 +30187,7 @@
         </is>
       </c>
       <c r="P414" t="n">
-        <v>1336</v>
+        <v>542</v>
       </c>
       <c r="Q414" t="n">
         <v>18</v>
@@ -30213,7 +30213,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44435</v>
+        <v>44202</v>
       </c>
       <c r="E415" t="n">
         <v>4</v>
@@ -30237,16 +30237,16 @@
         </is>
       </c>
       <c r="J415" t="n">
-        <v>870</v>
+        <v>200</v>
       </c>
       <c r="K415" t="n">
-        <v>21000</v>
+        <v>7500</v>
       </c>
       <c r="L415" t="n">
-        <v>23000</v>
+        <v>8000</v>
       </c>
       <c r="M415" t="n">
-        <v>22057</v>
+        <v>7750</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
@@ -30259,7 +30259,7 @@
         </is>
       </c>
       <c r="P415" t="n">
-        <v>1225</v>
+        <v>431</v>
       </c>
       <c r="Q415" t="n">
         <v>18</v>
@@ -30285,7 +30285,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44435</v>
+        <v>44202</v>
       </c>
       <c r="E416" t="n">
         <v>4</v>
@@ -30309,16 +30309,16 @@
         </is>
       </c>
       <c r="J416" t="n">
-        <v>600</v>
+        <v>160</v>
       </c>
       <c r="K416" t="n">
-        <v>17000</v>
+        <v>4500</v>
       </c>
       <c r="L416" t="n">
-        <v>19000</v>
+        <v>5000</v>
       </c>
       <c r="M416" t="n">
-        <v>18000</v>
+        <v>4750</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>1000</v>
+        <v>264</v>
       </c>
       <c r="Q416" t="n">
         <v>18</v>
@@ -30372,7 +30372,7 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
@@ -30384,13 +30384,13 @@
         <v>1100</v>
       </c>
       <c r="K417" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="L417" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M417" t="n">
-        <v>28545</v>
+        <v>24045</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
@@ -30403,7 +30403,7 @@
         </is>
       </c>
       <c r="P417" t="n">
-        <v>1586</v>
+        <v>1336</v>
       </c>
       <c r="Q417" t="n">
         <v>18</v>
@@ -30444,7 +30444,7 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
@@ -30453,16 +30453,16 @@
         </is>
       </c>
       <c r="J418" t="n">
-        <v>1100</v>
+        <v>870</v>
       </c>
       <c r="K418" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="L418" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="M418" t="n">
-        <v>23545</v>
+        <v>22057</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         </is>
       </c>
       <c r="P418" t="n">
-        <v>1308</v>
+        <v>1225</v>
       </c>
       <c r="Q418" t="n">
         <v>18</v>
@@ -30516,7 +30516,7 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
@@ -30531,10 +30531,10 @@
         <v>17000</v>
       </c>
       <c r="L419" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="M419" t="n">
-        <v>18600</v>
+        <v>18000</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         </is>
       </c>
       <c r="P419" t="n">
-        <v>1033</v>
+        <v>1000</v>
       </c>
       <c r="Q419" t="n">
         <v>18</v>
@@ -30573,7 +30573,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E420" t="n">
         <v>4</v>
@@ -30588,7 +30588,7 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
@@ -30597,16 +30597,16 @@
         </is>
       </c>
       <c r="J420" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K420" t="n">
-        <v>13500</v>
+        <v>27000</v>
       </c>
       <c r="L420" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="M420" t="n">
-        <v>13750</v>
+        <v>28545</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>764</v>
+        <v>1586</v>
       </c>
       <c r="Q420" t="n">
         <v>18</v>
@@ -30645,7 +30645,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E421" t="n">
         <v>4</v>
@@ -30660,7 +30660,7 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
@@ -30669,16 +30669,16 @@
         </is>
       </c>
       <c r="J421" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K421" t="n">
-        <v>11500</v>
+        <v>22000</v>
       </c>
       <c r="L421" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="M421" t="n">
-        <v>11750</v>
+        <v>23545</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
@@ -30691,7 +30691,7 @@
         </is>
       </c>
       <c r="P421" t="n">
-        <v>653</v>
+        <v>1308</v>
       </c>
       <c r="Q421" t="n">
         <v>18</v>
@@ -30717,7 +30717,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E422" t="n">
         <v>4</v>
@@ -30732,7 +30732,7 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
@@ -30741,16 +30741,16 @@
         </is>
       </c>
       <c r="J422" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K422" t="n">
-        <v>8500</v>
+        <v>17000</v>
       </c>
       <c r="L422" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="M422" t="n">
-        <v>8750</v>
+        <v>18600</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
@@ -30763,7 +30763,7 @@
         </is>
       </c>
       <c r="P422" t="n">
-        <v>486</v>
+        <v>1033</v>
       </c>
       <c r="Q422" t="n">
         <v>18</v>
@@ -30804,7 +30804,7 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
@@ -30813,16 +30813,16 @@
         </is>
       </c>
       <c r="J423" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="K423" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="L423" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M423" t="n">
-        <v>12500</v>
+        <v>13750</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
@@ -30835,7 +30835,7 @@
         </is>
       </c>
       <c r="P423" t="n">
-        <v>694</v>
+        <v>764</v>
       </c>
       <c r="Q423" t="n">
         <v>18</v>
@@ -30876,7 +30876,7 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
@@ -30885,16 +30885,16 @@
         </is>
       </c>
       <c r="J424" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K424" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="L424" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M424" t="n">
-        <v>10500</v>
+        <v>11750</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
@@ -30907,7 +30907,7 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>583</v>
+        <v>653</v>
       </c>
       <c r="Q424" t="n">
         <v>18</v>
@@ -30948,7 +30948,7 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
@@ -30957,16 +30957,16 @@
         </is>
       </c>
       <c r="J425" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K425" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="L425" t="n">
         <v>9000</v>
       </c>
       <c r="M425" t="n">
-        <v>8500</v>
+        <v>8750</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="Q425" t="n">
         <v>18</v>
@@ -31005,7 +31005,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E426" t="n">
         <v>4</v>
@@ -31020,7 +31020,7 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
@@ -31029,16 +31029,16 @@
         </is>
       </c>
       <c r="J426" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K426" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="L426" t="n">
-        <v>25000</v>
+        <v>13000</v>
       </c>
       <c r="M426" t="n">
-        <v>24500</v>
+        <v>12500</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>1361</v>
+        <v>694</v>
       </c>
       <c r="Q426" t="n">
         <v>18</v>
@@ -31077,7 +31077,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E427" t="n">
         <v>4</v>
@@ -31092,7 +31092,7 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
@@ -31101,16 +31101,16 @@
         </is>
       </c>
       <c r="J427" t="n">
-        <v>470</v>
+        <v>700</v>
       </c>
       <c r="K427" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="L427" t="n">
-        <v>23000</v>
+        <v>11000</v>
       </c>
       <c r="M427" t="n">
-        <v>22532</v>
+        <v>10500</v>
       </c>
       <c r="N427" t="inlineStr">
         <is>
@@ -31123,7 +31123,7 @@
         </is>
       </c>
       <c r="P427" t="n">
-        <v>1252</v>
+        <v>583</v>
       </c>
       <c r="Q427" t="n">
         <v>18</v>
@@ -31149,7 +31149,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E428" t="n">
         <v>4</v>
@@ -31164,7 +31164,7 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
@@ -31173,16 +31173,16 @@
         </is>
       </c>
       <c r="J428" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K428" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="L428" t="n">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="M428" t="n">
-        <v>18500</v>
+        <v>8500</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         </is>
       </c>
       <c r="P428" t="n">
-        <v>1028</v>
+        <v>472</v>
       </c>
       <c r="Q428" t="n">
         <v>18</v>
@@ -31236,7 +31236,7 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
@@ -31248,13 +31248,13 @@
         <v>600</v>
       </c>
       <c r="K429" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="L429" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M429" t="n">
-        <v>29000</v>
+        <v>24500</v>
       </c>
       <c r="N429" t="inlineStr">
         <is>
@@ -31267,7 +31267,7 @@
         </is>
       </c>
       <c r="P429" t="n">
-        <v>1611</v>
+        <v>1361</v>
       </c>
       <c r="Q429" t="n">
         <v>18</v>
@@ -31308,7 +31308,7 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
@@ -31317,16 +31317,16 @@
         </is>
       </c>
       <c r="J430" t="n">
-        <v>600</v>
+        <v>470</v>
       </c>
       <c r="K430" t="n">
+        <v>22000</v>
+      </c>
+      <c r="L430" t="n">
         <v>23000</v>
       </c>
-      <c r="L430" t="n">
-        <v>25000</v>
-      </c>
       <c r="M430" t="n">
-        <v>24000</v>
+        <v>22532</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
@@ -31339,7 +31339,7 @@
         </is>
       </c>
       <c r="P430" t="n">
-        <v>1333</v>
+        <v>1252</v>
       </c>
       <c r="Q430" t="n">
         <v>18</v>
@@ -31380,7 +31380,7 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
@@ -31389,16 +31389,16 @@
         </is>
       </c>
       <c r="J431" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K431" t="n">
         <v>18000</v>
       </c>
       <c r="L431" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="M431" t="n">
-        <v>19000</v>
+        <v>18500</v>
       </c>
       <c r="N431" t="inlineStr">
         <is>
@@ -31411,7 +31411,7 @@
         </is>
       </c>
       <c r="P431" t="n">
-        <v>1056</v>
+        <v>1028</v>
       </c>
       <c r="Q431" t="n">
         <v>18</v>
@@ -31437,7 +31437,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E432" t="n">
         <v>4</v>
@@ -31452,7 +31452,7 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
@@ -31461,16 +31461,16 @@
         </is>
       </c>
       <c r="J432" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K432" t="n">
-        <v>9500</v>
+        <v>28000</v>
       </c>
       <c r="L432" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="M432" t="n">
-        <v>9750</v>
+        <v>29000</v>
       </c>
       <c r="N432" t="inlineStr">
         <is>
@@ -31483,7 +31483,7 @@
         </is>
       </c>
       <c r="P432" t="n">
-        <v>542</v>
+        <v>1611</v>
       </c>
       <c r="Q432" t="n">
         <v>18</v>
@@ -31509,7 +31509,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E433" t="n">
         <v>4</v>
@@ -31524,7 +31524,7 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
@@ -31533,16 +31533,16 @@
         </is>
       </c>
       <c r="J433" t="n">
-        <v>220</v>
+        <v>600</v>
       </c>
       <c r="K433" t="n">
-        <v>7500</v>
+        <v>23000</v>
       </c>
       <c r="L433" t="n">
-        <v>8000</v>
+        <v>25000</v>
       </c>
       <c r="M433" t="n">
-        <v>7955</v>
+        <v>24000</v>
       </c>
       <c r="N433" t="inlineStr">
         <is>
@@ -31555,7 +31555,7 @@
         </is>
       </c>
       <c r="P433" t="n">
-        <v>442</v>
+        <v>1333</v>
       </c>
       <c r="Q433" t="n">
         <v>18</v>
@@ -31581,7 +31581,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E434" t="n">
         <v>4</v>
@@ -31596,7 +31596,7 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
@@ -31605,16 +31605,16 @@
         </is>
       </c>
       <c r="J434" t="n">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="K434" t="n">
-        <v>5500</v>
+        <v>18000</v>
       </c>
       <c r="L434" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="M434" t="n">
-        <v>5750</v>
+        <v>19000</v>
       </c>
       <c r="N434" t="inlineStr">
         <is>
@@ -31627,7 +31627,7 @@
         </is>
       </c>
       <c r="P434" t="n">
-        <v>319</v>
+        <v>1056</v>
       </c>
       <c r="Q434" t="n">
         <v>18</v>
@@ -31668,7 +31668,7 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
@@ -31677,16 +31677,16 @@
         </is>
       </c>
       <c r="J435" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K435" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L435" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M435" t="n">
-        <v>7750</v>
+        <v>9750</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
@@ -31699,7 +31699,7 @@
         </is>
       </c>
       <c r="P435" t="n">
-        <v>431</v>
+        <v>542</v>
       </c>
       <c r="Q435" t="n">
         <v>18</v>
@@ -31740,7 +31740,7 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
@@ -31749,16 +31749,16 @@
         </is>
       </c>
       <c r="J436" t="n">
-        <v>400</v>
+        <v>220</v>
       </c>
       <c r="K436" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L436" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M436" t="n">
-        <v>5750</v>
+        <v>7955</v>
       </c>
       <c r="N436" t="inlineStr">
         <is>
@@ -31771,7 +31771,7 @@
         </is>
       </c>
       <c r="P436" t="n">
-        <v>319</v>
+        <v>442</v>
       </c>
       <c r="Q436" t="n">
         <v>18</v>
@@ -31812,7 +31812,7 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
@@ -31824,13 +31824,13 @@
         <v>160</v>
       </c>
       <c r="K437" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L437" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M437" t="n">
-        <v>3750</v>
+        <v>5750</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
@@ -31843,7 +31843,7 @@
         </is>
       </c>
       <c r="P437" t="n">
-        <v>208</v>
+        <v>319</v>
       </c>
       <c r="Q437" t="n">
         <v>18</v>
@@ -31884,7 +31884,7 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
@@ -31896,13 +31896,13 @@
         <v>700</v>
       </c>
       <c r="K438" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L438" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M438" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         </is>
       </c>
       <c r="P438" t="n">
-        <v>319</v>
+        <v>431</v>
       </c>
       <c r="Q438" t="n">
         <v>18</v>
@@ -31956,7 +31956,7 @@
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I439" t="inlineStr">
@@ -31965,16 +31965,16 @@
         </is>
       </c>
       <c r="J439" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K439" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L439" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M439" t="n">
-        <v>3750</v>
+        <v>5750</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
@@ -31987,7 +31987,7 @@
         </is>
       </c>
       <c r="P439" t="n">
-        <v>208</v>
+        <v>319</v>
       </c>
       <c r="Q439" t="n">
         <v>18</v>
@@ -32028,7 +32028,7 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
@@ -32037,16 +32037,16 @@
         </is>
       </c>
       <c r="J440" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K440" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="L440" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="M440" t="n">
-        <v>2250</v>
+        <v>3750</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
@@ -32059,7 +32059,7 @@
         </is>
       </c>
       <c r="P440" t="n">
-        <v>125</v>
+        <v>208</v>
       </c>
       <c r="Q440" t="n">
         <v>18</v>
@@ -32085,7 +32085,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44476</v>
+        <v>44307</v>
       </c>
       <c r="E441" t="n">
         <v>4</v>
@@ -32100,7 +32100,7 @@
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I441" t="inlineStr">
@@ -32109,16 +32109,16 @@
         </is>
       </c>
       <c r="J441" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="K441" t="n">
-        <v>32000</v>
+        <v>5500</v>
       </c>
       <c r="L441" t="n">
-        <v>33000</v>
+        <v>6000</v>
       </c>
       <c r="M441" t="n">
-        <v>32500</v>
+        <v>5750</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         </is>
       </c>
       <c r="P441" t="n">
-        <v>1806</v>
+        <v>319</v>
       </c>
       <c r="Q441" t="n">
         <v>18</v>
@@ -32157,7 +32157,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44476</v>
+        <v>44307</v>
       </c>
       <c r="E442" t="n">
         <v>4</v>
@@ -32172,7 +32172,7 @@
       </c>
       <c r="H442" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I442" t="inlineStr">
@@ -32181,16 +32181,16 @@
         </is>
       </c>
       <c r="J442" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K442" t="n">
-        <v>29000</v>
+        <v>3500</v>
       </c>
       <c r="L442" t="n">
-        <v>30000</v>
+        <v>4000</v>
       </c>
       <c r="M442" t="n">
-        <v>29500</v>
+        <v>3750</v>
       </c>
       <c r="N442" t="inlineStr">
         <is>
@@ -32203,7 +32203,7 @@
         </is>
       </c>
       <c r="P442" t="n">
-        <v>1639</v>
+        <v>208</v>
       </c>
       <c r="Q442" t="n">
         <v>18</v>
@@ -32229,7 +32229,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44476</v>
+        <v>44307</v>
       </c>
       <c r="E443" t="n">
         <v>4</v>
@@ -32244,7 +32244,7 @@
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I443" t="inlineStr">
@@ -32253,16 +32253,16 @@
         </is>
       </c>
       <c r="J443" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K443" t="n">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="L443" t="n">
-        <v>27000</v>
+        <v>2500</v>
       </c>
       <c r="M443" t="n">
-        <v>26500</v>
+        <v>2250</v>
       </c>
       <c r="N443" t="inlineStr">
         <is>
@@ -32275,7 +32275,7 @@
         </is>
       </c>
       <c r="P443" t="n">
-        <v>1472</v>
+        <v>125</v>
       </c>
       <c r="Q443" t="n">
         <v>18</v>
@@ -32301,7 +32301,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E444" t="n">
         <v>4</v>
@@ -32325,7 +32325,7 @@
         </is>
       </c>
       <c r="J444" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K444" t="n">
         <v>32000</v>
@@ -32373,7 +32373,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E445" t="n">
         <v>4</v>
@@ -32445,7 +32445,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E446" t="n">
         <v>4</v>
@@ -32469,16 +32469,16 @@
         </is>
       </c>
       <c r="J446" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K446" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="L446" t="n">
-        <v>26000</v>
+        <v>27000</v>
       </c>
       <c r="M446" t="n">
-        <v>25500</v>
+        <v>26500</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
@@ -32491,7 +32491,7 @@
         </is>
       </c>
       <c r="P446" t="n">
-        <v>1417</v>
+        <v>1472</v>
       </c>
       <c r="Q446" t="n">
         <v>18</v>
@@ -32517,7 +32517,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E447" t="n">
         <v>4</v>
@@ -32541,16 +32541,16 @@
         </is>
       </c>
       <c r="J447" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K447" t="n">
-        <v>11500</v>
+        <v>32000</v>
       </c>
       <c r="L447" t="n">
-        <v>12000</v>
+        <v>33000</v>
       </c>
       <c r="M447" t="n">
-        <v>11750</v>
+        <v>32500</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
@@ -32563,7 +32563,7 @@
         </is>
       </c>
       <c r="P447" t="n">
-        <v>653</v>
+        <v>1806</v>
       </c>
       <c r="Q447" t="n">
         <v>18</v>
@@ -32589,7 +32589,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E448" t="n">
         <v>4</v>
@@ -32613,16 +32613,16 @@
         </is>
       </c>
       <c r="J448" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K448" t="n">
-        <v>9500</v>
+        <v>29000</v>
       </c>
       <c r="L448" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="M448" t="n">
-        <v>9750</v>
+        <v>29500</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         </is>
       </c>
       <c r="P448" t="n">
-        <v>542</v>
+        <v>1639</v>
       </c>
       <c r="Q448" t="n">
         <v>18</v>
@@ -32661,7 +32661,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E449" t="n">
         <v>4</v>
@@ -32685,16 +32685,16 @@
         </is>
       </c>
       <c r="J449" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="K449" t="n">
-        <v>6500</v>
+        <v>25000</v>
       </c>
       <c r="L449" t="n">
-        <v>7000</v>
+        <v>26000</v>
       </c>
       <c r="M449" t="n">
-        <v>6750</v>
+        <v>25500</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
@@ -32707,7 +32707,7 @@
         </is>
       </c>
       <c r="P449" t="n">
-        <v>375</v>
+        <v>1417</v>
       </c>
       <c r="Q449" t="n">
         <v>18</v>
@@ -32748,7 +32748,7 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
@@ -32757,16 +32757,16 @@
         </is>
       </c>
       <c r="J450" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K450" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="L450" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M450" t="n">
-        <v>10750</v>
+        <v>11750</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
@@ -32779,7 +32779,7 @@
         </is>
       </c>
       <c r="P450" t="n">
-        <v>597</v>
+        <v>653</v>
       </c>
       <c r="Q450" t="n">
         <v>18</v>
@@ -32820,7 +32820,7 @@
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
@@ -32832,13 +32832,13 @@
         <v>500</v>
       </c>
       <c r="K451" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="L451" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M451" t="n">
-        <v>8750</v>
+        <v>9750</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
@@ -32851,7 +32851,7 @@
         </is>
       </c>
       <c r="P451" t="n">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="Q451" t="n">
         <v>18</v>
@@ -32892,7 +32892,7 @@
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I452" t="inlineStr">
@@ -32901,7 +32901,7 @@
         </is>
       </c>
       <c r="J452" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K452" t="n">
         <v>6500</v>
@@ -32949,7 +32949,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E453" t="n">
         <v>4</v>
@@ -32964,7 +32964,7 @@
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I453" t="inlineStr">
@@ -32973,16 +32973,16 @@
         </is>
       </c>
       <c r="J453" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K453" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="L453" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="M453" t="n">
-        <v>15500</v>
+        <v>10750</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
@@ -32995,7 +32995,7 @@
         </is>
       </c>
       <c r="P453" t="n">
-        <v>861</v>
+        <v>597</v>
       </c>
       <c r="Q453" t="n">
         <v>18</v>
@@ -33021,7 +33021,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E454" t="n">
         <v>4</v>
@@ -33036,7 +33036,7 @@
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I454" t="inlineStr">
@@ -33045,16 +33045,16 @@
         </is>
       </c>
       <c r="J454" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K454" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="L454" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M454" t="n">
-        <v>12500</v>
+        <v>8750</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
@@ -33067,7 +33067,7 @@
         </is>
       </c>
       <c r="P454" t="n">
-        <v>694</v>
+        <v>486</v>
       </c>
       <c r="Q454" t="n">
         <v>18</v>
@@ -33093,7 +33093,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E455" t="n">
         <v>4</v>
@@ -33108,7 +33108,7 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
@@ -33117,16 +33117,16 @@
         </is>
       </c>
       <c r="J455" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K455" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="L455" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M455" t="n">
-        <v>9500</v>
+        <v>6750</v>
       </c>
       <c r="N455" t="inlineStr">
         <is>
@@ -33139,7 +33139,7 @@
         </is>
       </c>
       <c r="P455" t="n">
-        <v>528</v>
+        <v>375</v>
       </c>
       <c r="Q455" t="n">
         <v>18</v>
@@ -33180,7 +33180,7 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
@@ -33189,16 +33189,16 @@
         </is>
       </c>
       <c r="J456" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="K456" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L456" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M456" t="n">
-        <v>13500</v>
+        <v>15500</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
@@ -33211,7 +33211,7 @@
         </is>
       </c>
       <c r="P456" t="n">
-        <v>750</v>
+        <v>861</v>
       </c>
       <c r="Q456" t="n">
         <v>18</v>
@@ -33252,7 +33252,7 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
@@ -33261,16 +33261,16 @@
         </is>
       </c>
       <c r="J457" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K457" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L457" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M457" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
@@ -33283,7 +33283,7 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>583</v>
+        <v>694</v>
       </c>
       <c r="Q457" t="n">
         <v>18</v>
@@ -33324,7 +33324,7 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
@@ -33333,16 +33333,16 @@
         </is>
       </c>
       <c r="J458" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K458" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L458" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M458" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         </is>
       </c>
       <c r="P458" t="n">
-        <v>472</v>
+        <v>528</v>
       </c>
       <c r="Q458" t="n">
         <v>18</v>
@@ -33396,7 +33396,7 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
@@ -33405,7 +33405,7 @@
         </is>
       </c>
       <c r="J459" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="K459" t="n">
         <v>13000</v>
@@ -33468,7 +33468,7 @@
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
@@ -33477,16 +33477,16 @@
         </is>
       </c>
       <c r="J460" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K460" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L460" t="n">
         <v>11000</v>
       </c>
-      <c r="L460" t="n">
-        <v>12000</v>
-      </c>
       <c r="M460" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
@@ -33499,7 +33499,7 @@
         </is>
       </c>
       <c r="P460" t="n">
-        <v>639</v>
+        <v>583</v>
       </c>
       <c r="Q460" t="n">
         <v>18</v>
@@ -33540,7 +33540,7 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
@@ -33549,16 +33549,16 @@
         </is>
       </c>
       <c r="J461" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K461" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L461" t="n">
         <v>9000</v>
       </c>
-      <c r="L461" t="n">
-        <v>10000</v>
-      </c>
       <c r="M461" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
@@ -33571,7 +33571,7 @@
         </is>
       </c>
       <c r="P461" t="n">
-        <v>528</v>
+        <v>472</v>
       </c>
       <c r="Q461" t="n">
         <v>18</v>
@@ -33597,7 +33597,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44301</v>
+        <v>44363</v>
       </c>
       <c r="E462" t="n">
         <v>4</v>
@@ -33612,7 +33612,7 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
@@ -33621,16 +33621,16 @@
         </is>
       </c>
       <c r="J462" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K462" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L462" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M462" t="n">
-        <v>7500</v>
+        <v>13500</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
@@ -33643,7 +33643,7 @@
         </is>
       </c>
       <c r="P462" t="n">
-        <v>417</v>
+        <v>750</v>
       </c>
       <c r="Q462" t="n">
         <v>18</v>
@@ -33669,7 +33669,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44301</v>
+        <v>44363</v>
       </c>
       <c r="E463" t="n">
         <v>4</v>
@@ -33684,7 +33684,7 @@
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
@@ -33693,16 +33693,16 @@
         </is>
       </c>
       <c r="J463" t="n">
-        <v>240</v>
+        <v>700</v>
       </c>
       <c r="K463" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="L463" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M463" t="n">
-        <v>5500</v>
+        <v>11500</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
@@ -33715,7 +33715,7 @@
         </is>
       </c>
       <c r="P463" t="n">
-        <v>306</v>
+        <v>639</v>
       </c>
       <c r="Q463" t="n">
         <v>18</v>
@@ -33741,7 +33741,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44301</v>
+        <v>44363</v>
       </c>
       <c r="E464" t="n">
         <v>4</v>
@@ -33756,7 +33756,7 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
@@ -33765,16 +33765,16 @@
         </is>
       </c>
       <c r="J464" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="K464" t="n">
-        <v>3000</v>
+        <v>9000</v>
       </c>
       <c r="L464" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="M464" t="n">
-        <v>3500</v>
+        <v>9500</v>
       </c>
       <c r="N464" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         </is>
       </c>
       <c r="P464" t="n">
-        <v>194</v>
+        <v>528</v>
       </c>
       <c r="Q464" t="n">
         <v>18</v>
@@ -33828,7 +33828,7 @@
       </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I465" t="inlineStr">
@@ -33837,16 +33837,16 @@
         </is>
       </c>
       <c r="J465" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K465" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L465" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M465" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
@@ -33859,7 +33859,7 @@
         </is>
       </c>
       <c r="P465" t="n">
-        <v>306</v>
+        <v>417</v>
       </c>
       <c r="Q465" t="n">
         <v>18</v>
@@ -33900,7 +33900,7 @@
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
@@ -33909,16 +33909,16 @@
         </is>
       </c>
       <c r="J466" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="K466" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L466" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M466" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
@@ -33931,7 +33931,7 @@
         </is>
       </c>
       <c r="P466" t="n">
-        <v>194</v>
+        <v>306</v>
       </c>
       <c r="Q466" t="n">
         <v>18</v>
@@ -33957,7 +33957,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E467" t="n">
         <v>4</v>
@@ -33972,25 +33972,25 @@
       </c>
       <c r="H467" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J467" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="K467" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="L467" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="M467" t="n">
-        <v>12500</v>
+        <v>3500</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
@@ -34003,7 +34003,7 @@
         </is>
       </c>
       <c r="P467" t="n">
-        <v>694</v>
+        <v>194</v>
       </c>
       <c r="Q467" t="n">
         <v>18</v>
@@ -34029,7 +34029,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E468" t="n">
         <v>4</v>
@@ -34044,25 +34044,25 @@
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J468" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K468" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L468" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="M468" t="n">
-        <v>10500</v>
+        <v>5500</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         </is>
       </c>
       <c r="P468" t="n">
-        <v>583</v>
+        <v>306</v>
       </c>
       <c r="Q468" t="n">
         <v>18</v>
@@ -34101,7 +34101,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E469" t="n">
         <v>4</v>
@@ -34116,25 +34116,25 @@
       </c>
       <c r="H469" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J469" t="n">
-        <v>530</v>
+        <v>600</v>
       </c>
       <c r="K469" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="L469" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="M469" t="n">
-        <v>8472</v>
+        <v>3500</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
@@ -34147,7 +34147,7 @@
         </is>
       </c>
       <c r="P469" t="n">
-        <v>471</v>
+        <v>194</v>
       </c>
       <c r="Q469" t="n">
         <v>18</v>
@@ -34188,7 +34188,7 @@
       </c>
       <c r="H470" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I470" t="inlineStr">
@@ -34260,7 +34260,7 @@
       </c>
       <c r="H471" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I471" t="inlineStr">
@@ -34269,7 +34269,7 @@
         </is>
       </c>
       <c r="J471" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K471" t="n">
         <v>10000</v>
@@ -34332,7 +34332,7 @@
       </c>
       <c r="H472" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I472" t="inlineStr">
@@ -34341,7 +34341,7 @@
         </is>
       </c>
       <c r="J472" t="n">
-        <v>260</v>
+        <v>530</v>
       </c>
       <c r="K472" t="n">
         <v>8000</v>
@@ -34350,7 +34350,7 @@
         <v>9000</v>
       </c>
       <c r="M472" t="n">
-        <v>8500</v>
+        <v>8472</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
@@ -34363,7 +34363,7 @@
         </is>
       </c>
       <c r="P472" t="n">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="Q472" t="n">
         <v>18</v>
@@ -34404,7 +34404,7 @@
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
@@ -34413,7 +34413,7 @@
         </is>
       </c>
       <c r="J473" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K473" t="n">
         <v>12000</v>
@@ -34476,7 +34476,7 @@
       </c>
       <c r="H474" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I474" t="inlineStr">
@@ -34485,7 +34485,7 @@
         </is>
       </c>
       <c r="J474" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K474" t="n">
         <v>10000</v>
@@ -34548,7 +34548,7 @@
       </c>
       <c r="H475" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I475" t="inlineStr">
@@ -34557,7 +34557,7 @@
         </is>
       </c>
       <c r="J475" t="n">
-        <v>500</v>
+        <v>260</v>
       </c>
       <c r="K475" t="n">
         <v>8000</v>
@@ -34605,7 +34605,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E476" t="n">
         <v>4</v>
@@ -34620,7 +34620,7 @@
       </c>
       <c r="H476" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I476" t="inlineStr">
@@ -34629,16 +34629,16 @@
         </is>
       </c>
       <c r="J476" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K476" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="L476" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M476" t="n">
-        <v>7750</v>
+        <v>12500</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
@@ -34651,7 +34651,7 @@
         </is>
       </c>
       <c r="P476" t="n">
-        <v>431</v>
+        <v>694</v>
       </c>
       <c r="Q476" t="n">
         <v>18</v>
@@ -34677,7 +34677,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E477" t="n">
         <v>4</v>
@@ -34692,7 +34692,7 @@
       </c>
       <c r="H477" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I477" t="inlineStr">
@@ -34701,16 +34701,16 @@
         </is>
       </c>
       <c r="J477" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K477" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="L477" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M477" t="n">
-        <v>5750</v>
+        <v>10500</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
@@ -34723,7 +34723,7 @@
         </is>
       </c>
       <c r="P477" t="n">
-        <v>319</v>
+        <v>583</v>
       </c>
       <c r="Q477" t="n">
         <v>18</v>
@@ -34749,7 +34749,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E478" t="n">
         <v>4</v>
@@ -34764,7 +34764,7 @@
       </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I478" t="inlineStr">
@@ -34773,16 +34773,16 @@
         </is>
       </c>
       <c r="J478" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K478" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="L478" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="M478" t="n">
-        <v>3750</v>
+        <v>8500</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
@@ -34795,7 +34795,7 @@
         </is>
       </c>
       <c r="P478" t="n">
-        <v>208</v>
+        <v>472</v>
       </c>
       <c r="Q478" t="n">
         <v>18</v>
@@ -34836,7 +34836,7 @@
       </c>
       <c r="H479" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I479" t="inlineStr">
@@ -34845,16 +34845,16 @@
         </is>
       </c>
       <c r="J479" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K479" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="L479" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M479" t="n">
-        <v>11750</v>
+        <v>7750</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
@@ -34867,7 +34867,7 @@
         </is>
       </c>
       <c r="P479" t="n">
-        <v>653</v>
+        <v>431</v>
       </c>
       <c r="Q479" t="n">
         <v>18</v>
@@ -34908,7 +34908,7 @@
       </c>
       <c r="H480" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I480" t="inlineStr">
@@ -34917,16 +34917,16 @@
         </is>
       </c>
       <c r="J480" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K480" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="L480" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M480" t="n">
-        <v>9750</v>
+        <v>5750</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
@@ -34939,7 +34939,7 @@
         </is>
       </c>
       <c r="P480" t="n">
-        <v>542</v>
+        <v>319</v>
       </c>
       <c r="Q480" t="n">
         <v>18</v>
@@ -34980,7 +34980,7 @@
       </c>
       <c r="H481" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I481" t="inlineStr">
@@ -34989,16 +34989,16 @@
         </is>
       </c>
       <c r="J481" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K481" t="n">
-        <v>7500</v>
+        <v>3500</v>
       </c>
       <c r="L481" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M481" t="n">
-        <v>7750</v>
+        <v>3750</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         </is>
       </c>
       <c r="P481" t="n">
-        <v>431</v>
+        <v>208</v>
       </c>
       <c r="Q481" t="n">
         <v>18</v>
@@ -35037,7 +35037,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E482" t="n">
         <v>4</v>
@@ -35052,7 +35052,7 @@
       </c>
       <c r="H482" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I482" t="inlineStr">
@@ -35061,16 +35061,16 @@
         </is>
       </c>
       <c r="J482" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K482" t="n">
-        <v>6000</v>
+        <v>11500</v>
       </c>
       <c r="L482" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M482" t="n">
-        <v>6500</v>
+        <v>11750</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
@@ -35083,7 +35083,7 @@
         </is>
       </c>
       <c r="P482" t="n">
-        <v>361</v>
+        <v>653</v>
       </c>
       <c r="Q482" t="n">
         <v>18</v>
@@ -35109,7 +35109,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E483" t="n">
         <v>4</v>
@@ -35124,7 +35124,7 @@
       </c>
       <c r="H483" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I483" t="inlineStr">
@@ -35133,16 +35133,16 @@
         </is>
       </c>
       <c r="J483" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K483" t="n">
-        <v>4000</v>
+        <v>9500</v>
       </c>
       <c r="L483" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M483" t="n">
-        <v>4500</v>
+        <v>9750</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
@@ -35155,7 +35155,7 @@
         </is>
       </c>
       <c r="P483" t="n">
-        <v>250</v>
+        <v>542</v>
       </c>
       <c r="Q483" t="n">
         <v>18</v>
@@ -35181,7 +35181,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E484" t="n">
         <v>4</v>
@@ -35196,7 +35196,7 @@
       </c>
       <c r="H484" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I484" t="inlineStr">
@@ -35205,16 +35205,16 @@
         </is>
       </c>
       <c r="J484" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K484" t="n">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="L484" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="M484" t="n">
-        <v>2500</v>
+        <v>7750</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
@@ -35227,7 +35227,7 @@
         </is>
       </c>
       <c r="P484" t="n">
-        <v>139</v>
+        <v>431</v>
       </c>
       <c r="Q484" t="n">
         <v>18</v>
@@ -35268,7 +35268,7 @@
       </c>
       <c r="H485" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I485" t="inlineStr">
@@ -35277,17 +35277,17 @@
         </is>
       </c>
       <c r="J485" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K485" t="n">
         <v>6000</v>
       </c>
       <c r="L485" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M485" t="n">
         <v>6500</v>
       </c>
-      <c r="M485" t="n">
-        <v>6250</v>
-      </c>
       <c r="N485" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
@@ -35299,7 +35299,7 @@
         </is>
       </c>
       <c r="P485" t="n">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="Q485" t="n">
         <v>18</v>
@@ -35340,7 +35340,7 @@
       </c>
       <c r="H486" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I486" t="inlineStr">
@@ -35349,17 +35349,17 @@
         </is>
       </c>
       <c r="J486" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K486" t="n">
         <v>4000</v>
       </c>
       <c r="L486" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M486" t="n">
         <v>4500</v>
       </c>
-      <c r="M486" t="n">
-        <v>4250</v>
-      </c>
       <c r="N486" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
@@ -35371,7 +35371,7 @@
         </is>
       </c>
       <c r="P486" t="n">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="Q486" t="n">
         <v>18</v>
@@ -35412,7 +35412,7 @@
       </c>
       <c r="H487" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I487" t="inlineStr">
@@ -35427,11 +35427,11 @@
         <v>2000</v>
       </c>
       <c r="L487" t="n">
+        <v>3000</v>
+      </c>
+      <c r="M487" t="n">
         <v>2500</v>
       </c>
-      <c r="M487" t="n">
-        <v>2250</v>
-      </c>
       <c r="N487" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
@@ -35443,7 +35443,7 @@
         </is>
       </c>
       <c r="P487" t="n">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="Q487" t="n">
         <v>18</v>
@@ -35469,7 +35469,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E488" t="n">
         <v>4</v>
@@ -35484,7 +35484,7 @@
       </c>
       <c r="H488" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I488" t="inlineStr">
@@ -35493,16 +35493,16 @@
         </is>
       </c>
       <c r="J488" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="K488" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="L488" t="n">
-        <v>16000</v>
+        <v>6500</v>
       </c>
       <c r="M488" t="n">
-        <v>15500</v>
+        <v>6250</v>
       </c>
       <c r="N488" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
         </is>
       </c>
       <c r="P488" t="n">
-        <v>861</v>
+        <v>347</v>
       </c>
       <c r="Q488" t="n">
         <v>18</v>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E489" t="n">
         <v>4</v>
@@ -35556,7 +35556,7 @@
       </c>
       <c r="H489" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I489" t="inlineStr">
@@ -35565,16 +35565,16 @@
         </is>
       </c>
       <c r="J489" t="n">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="K489" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="L489" t="n">
-        <v>14000</v>
+        <v>4500</v>
       </c>
       <c r="M489" t="n">
-        <v>13500</v>
+        <v>4250</v>
       </c>
       <c r="N489" t="inlineStr">
         <is>
@@ -35587,7 +35587,7 @@
         </is>
       </c>
       <c r="P489" t="n">
-        <v>750</v>
+        <v>236</v>
       </c>
       <c r="Q489" t="n">
         <v>18</v>
@@ -35613,7 +35613,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E490" t="n">
         <v>4</v>
@@ -35628,7 +35628,7 @@
       </c>
       <c r="H490" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I490" t="inlineStr">
@@ -35637,16 +35637,16 @@
         </is>
       </c>
       <c r="J490" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="K490" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="L490" t="n">
-        <v>11000</v>
+        <v>2500</v>
       </c>
       <c r="M490" t="n">
-        <v>10500</v>
+        <v>2250</v>
       </c>
       <c r="N490" t="inlineStr">
         <is>
@@ -35659,7 +35659,7 @@
         </is>
       </c>
       <c r="P490" t="n">
-        <v>583</v>
+        <v>125</v>
       </c>
       <c r="Q490" t="n">
         <v>18</v>
@@ -35700,7 +35700,7 @@
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I491" t="inlineStr">
@@ -35709,16 +35709,16 @@
         </is>
       </c>
       <c r="J491" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K491" t="n">
-        <v>6500</v>
+        <v>15000</v>
       </c>
       <c r="L491" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="M491" t="n">
-        <v>6750</v>
+        <v>15500</v>
       </c>
       <c r="N491" t="inlineStr">
         <is>
@@ -35731,7 +35731,7 @@
         </is>
       </c>
       <c r="P491" t="n">
-        <v>375</v>
+        <v>861</v>
       </c>
       <c r="Q491" t="n">
         <v>18</v>
@@ -35772,7 +35772,7 @@
       </c>
       <c r="H492" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I492" t="inlineStr">
@@ -35781,16 +35781,16 @@
         </is>
       </c>
       <c r="J492" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K492" t="n">
-        <v>4500</v>
+        <v>13000</v>
       </c>
       <c r="L492" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="M492" t="n">
-        <v>4750</v>
+        <v>13500</v>
       </c>
       <c r="N492" t="inlineStr">
         <is>
@@ -35803,7 +35803,7 @@
         </is>
       </c>
       <c r="P492" t="n">
-        <v>264</v>
+        <v>750</v>
       </c>
       <c r="Q492" t="n">
         <v>18</v>
@@ -35844,7 +35844,7 @@
       </c>
       <c r="H493" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I493" t="inlineStr">
@@ -35853,16 +35853,16 @@
         </is>
       </c>
       <c r="J493" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K493" t="n">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="L493" t="n">
-        <v>3000</v>
+        <v>11000</v>
       </c>
       <c r="M493" t="n">
-        <v>2750</v>
+        <v>10500</v>
       </c>
       <c r="N493" t="inlineStr">
         <is>
@@ -35875,7 +35875,7 @@
         </is>
       </c>
       <c r="P493" t="n">
-        <v>153</v>
+        <v>583</v>
       </c>
       <c r="Q493" t="n">
         <v>18</v>
@@ -35901,7 +35901,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E494" t="n">
         <v>4</v>
@@ -35916,7 +35916,7 @@
       </c>
       <c r="H494" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I494" t="inlineStr">
@@ -35925,16 +35925,16 @@
         </is>
       </c>
       <c r="J494" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K494" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="L494" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M494" t="n">
-        <v>9500</v>
+        <v>6750</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
@@ -35947,7 +35947,7 @@
         </is>
       </c>
       <c r="P494" t="n">
-        <v>528</v>
+        <v>375</v>
       </c>
       <c r="Q494" t="n">
         <v>18</v>
@@ -35973,7 +35973,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E495" t="n">
         <v>4</v>
@@ -35988,7 +35988,7 @@
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I495" t="inlineStr">
@@ -36000,13 +36000,13 @@
         <v>400</v>
       </c>
       <c r="K495" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L495" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M495" t="n">
-        <v>7500</v>
+        <v>4750</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         </is>
       </c>
       <c r="P495" t="n">
-        <v>417</v>
+        <v>264</v>
       </c>
       <c r="Q495" t="n">
         <v>18</v>
@@ -36045,7 +36045,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E496" t="n">
         <v>4</v>
@@ -36060,7 +36060,7 @@
       </c>
       <c r="H496" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I496" t="inlineStr">
@@ -36072,13 +36072,13 @@
         <v>300</v>
       </c>
       <c r="K496" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="L496" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M496" t="n">
-        <v>5500</v>
+        <v>2750</v>
       </c>
       <c r="N496" t="inlineStr">
         <is>
@@ -36091,7 +36091,7 @@
         </is>
       </c>
       <c r="P496" t="n">
-        <v>306</v>
+        <v>153</v>
       </c>
       <c r="Q496" t="n">
         <v>18</v>
@@ -36132,7 +36132,7 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
@@ -36141,16 +36141,16 @@
         </is>
       </c>
       <c r="J497" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="K497" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L497" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M497" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="N497" t="inlineStr">
         <is>
@@ -36163,7 +36163,7 @@
         </is>
       </c>
       <c r="P497" t="n">
-        <v>361</v>
+        <v>528</v>
       </c>
       <c r="Q497" t="n">
         <v>18</v>
@@ -36204,7 +36204,7 @@
       </c>
       <c r="H498" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I498" t="inlineStr">
@@ -36213,16 +36213,16 @@
         </is>
       </c>
       <c r="J498" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K498" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L498" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M498" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="N498" t="inlineStr">
         <is>
@@ -36235,7 +36235,7 @@
         </is>
       </c>
       <c r="P498" t="n">
-        <v>250</v>
+        <v>417</v>
       </c>
       <c r="Q498" t="n">
         <v>18</v>
@@ -36276,7 +36276,7 @@
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I499" t="inlineStr">
@@ -36288,13 +36288,13 @@
         <v>300</v>
       </c>
       <c r="K499" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="L499" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M499" t="n">
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="N499" t="inlineStr">
         <is>
@@ -36307,7 +36307,7 @@
         </is>
       </c>
       <c r="P499" t="n">
-        <v>139</v>
+        <v>306</v>
       </c>
       <c r="Q499" t="n">
         <v>18</v>
@@ -36348,7 +36348,7 @@
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I500" t="inlineStr">
@@ -36357,16 +36357,16 @@
         </is>
       </c>
       <c r="J500" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="K500" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L500" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M500" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="N500" t="inlineStr">
         <is>
@@ -36379,7 +36379,7 @@
         </is>
       </c>
       <c r="P500" t="n">
-        <v>306</v>
+        <v>361</v>
       </c>
       <c r="Q500" t="n">
         <v>18</v>
@@ -36420,7 +36420,7 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
@@ -36429,16 +36429,16 @@
         </is>
       </c>
       <c r="J501" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K501" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L501" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M501" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="N501" t="inlineStr">
         <is>
@@ -36451,7 +36451,7 @@
         </is>
       </c>
       <c r="P501" t="n">
-        <v>194</v>
+        <v>250</v>
       </c>
       <c r="Q501" t="n">
         <v>18</v>
@@ -36492,7 +36492,7 @@
       </c>
       <c r="H502" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I502" t="inlineStr">
@@ -36504,13 +36504,13 @@
         <v>300</v>
       </c>
       <c r="K502" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="L502" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M502" t="n">
-        <v>1750</v>
+        <v>2500</v>
       </c>
       <c r="N502" t="inlineStr">
         <is>
@@ -36523,7 +36523,7 @@
         </is>
       </c>
       <c r="P502" t="n">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="Q502" t="n">
         <v>18</v>
@@ -36549,7 +36549,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E503" t="n">
         <v>4</v>
@@ -36564,7 +36564,7 @@
       </c>
       <c r="H503" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I503" t="inlineStr">
@@ -36573,16 +36573,16 @@
         </is>
       </c>
       <c r="J503" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K503" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="L503" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="M503" t="n">
-        <v>14500</v>
+        <v>5500</v>
       </c>
       <c r="N503" t="inlineStr">
         <is>
@@ -36595,7 +36595,7 @@
         </is>
       </c>
       <c r="P503" t="n">
-        <v>806</v>
+        <v>306</v>
       </c>
       <c r="Q503" t="n">
         <v>18</v>
@@ -36621,7 +36621,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E504" t="n">
         <v>4</v>
@@ -36636,7 +36636,7 @@
       </c>
       <c r="H504" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I504" t="inlineStr">
@@ -36645,16 +36645,16 @@
         </is>
       </c>
       <c r="J504" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K504" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="L504" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="M504" t="n">
-        <v>12500</v>
+        <v>3500</v>
       </c>
       <c r="N504" t="inlineStr">
         <is>
@@ -36667,7 +36667,7 @@
         </is>
       </c>
       <c r="P504" t="n">
-        <v>694</v>
+        <v>194</v>
       </c>
       <c r="Q504" t="n">
         <v>18</v>
@@ -36693,7 +36693,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E505" t="n">
         <v>4</v>
@@ -36708,7 +36708,7 @@
       </c>
       <c r="H505" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I505" t="inlineStr">
@@ -36720,13 +36720,13 @@
         <v>300</v>
       </c>
       <c r="K505" t="n">
-        <v>10000</v>
+        <v>1500</v>
       </c>
       <c r="L505" t="n">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="M505" t="n">
-        <v>10500</v>
+        <v>1750</v>
       </c>
       <c r="N505" t="inlineStr">
         <is>
@@ -36739,7 +36739,7 @@
         </is>
       </c>
       <c r="P505" t="n">
-        <v>583</v>
+        <v>97</v>
       </c>
       <c r="Q505" t="n">
         <v>18</v>
@@ -36780,7 +36780,7 @@
       </c>
       <c r="H506" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I506" t="inlineStr">
@@ -36792,13 +36792,13 @@
         <v>600</v>
       </c>
       <c r="K506" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L506" t="n">
         <v>15000</v>
       </c>
-      <c r="L506" t="n">
-        <v>16000</v>
-      </c>
       <c r="M506" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="N506" t="inlineStr">
         <is>
@@ -36811,7 +36811,7 @@
         </is>
       </c>
       <c r="P506" t="n">
-        <v>861</v>
+        <v>806</v>
       </c>
       <c r="Q506" t="n">
         <v>18</v>
@@ -36852,7 +36852,7 @@
       </c>
       <c r="H507" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I507" t="inlineStr">
@@ -36924,7 +36924,7 @@
       </c>
       <c r="H508" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I508" t="inlineStr">
@@ -36933,7 +36933,7 @@
         </is>
       </c>
       <c r="J508" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K508" t="n">
         <v>10000</v>
@@ -36981,7 +36981,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44461</v>
+        <v>44392</v>
       </c>
       <c r="E509" t="n">
         <v>4</v>
@@ -36996,7 +36996,7 @@
       </c>
       <c r="H509" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I509" t="inlineStr">
@@ -37005,16 +37005,16 @@
         </is>
       </c>
       <c r="J509" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K509" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="L509" t="n">
-        <v>31000</v>
+        <v>16000</v>
       </c>
       <c r="M509" t="n">
-        <v>30500</v>
+        <v>15500</v>
       </c>
       <c r="N509" t="inlineStr">
         <is>
@@ -37027,7 +37027,7 @@
         </is>
       </c>
       <c r="P509" t="n">
-        <v>1694</v>
+        <v>861</v>
       </c>
       <c r="Q509" t="n">
         <v>18</v>
@@ -37053,7 +37053,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44461</v>
+        <v>44392</v>
       </c>
       <c r="E510" t="n">
         <v>4</v>
@@ -37068,7 +37068,7 @@
       </c>
       <c r="H510" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I510" t="inlineStr">
@@ -37077,16 +37077,16 @@
         </is>
       </c>
       <c r="J510" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K510" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="L510" t="n">
-        <v>29000</v>
+        <v>13000</v>
       </c>
       <c r="M510" t="n">
-        <v>28500</v>
+        <v>12500</v>
       </c>
       <c r="N510" t="inlineStr">
         <is>
@@ -37099,7 +37099,7 @@
         </is>
       </c>
       <c r="P510" t="n">
-        <v>1583</v>
+        <v>694</v>
       </c>
       <c r="Q510" t="n">
         <v>18</v>
@@ -37125,7 +37125,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44461</v>
+        <v>44392</v>
       </c>
       <c r="E511" t="n">
         <v>4</v>
@@ -37140,7 +37140,7 @@
       </c>
       <c r="H511" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I511" t="inlineStr">
@@ -37149,16 +37149,16 @@
         </is>
       </c>
       <c r="J511" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="K511" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="L511" t="n">
-        <v>26000</v>
+        <v>11000</v>
       </c>
       <c r="M511" t="n">
-        <v>25500</v>
+        <v>10500</v>
       </c>
       <c r="N511" t="inlineStr">
         <is>
@@ -37171,7 +37171,7 @@
         </is>
       </c>
       <c r="P511" t="n">
-        <v>1417</v>
+        <v>583</v>
       </c>
       <c r="Q511" t="n">
         <v>18</v>
@@ -37212,25 +37212,25 @@
       </c>
       <c r="H512" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I512" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J512" t="n">
-        <v>360</v>
+        <v>800</v>
       </c>
       <c r="K512" t="n">
-        <v>37000</v>
+        <v>30000</v>
       </c>
       <c r="L512" t="n">
-        <v>38000</v>
+        <v>31000</v>
       </c>
       <c r="M512" t="n">
-        <v>37500</v>
+        <v>30500</v>
       </c>
       <c r="N512" t="inlineStr">
         <is>
@@ -37243,7 +37243,7 @@
         </is>
       </c>
       <c r="P512" t="n">
-        <v>2083</v>
+        <v>1694</v>
       </c>
       <c r="Q512" t="n">
         <v>18</v>
@@ -37269,7 +37269,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E513" t="n">
         <v>4</v>
@@ -37284,25 +37284,25 @@
       </c>
       <c r="H513" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I513" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J513" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="K513" t="n">
-        <v>5000</v>
+        <v>28000</v>
       </c>
       <c r="L513" t="n">
-        <v>6000</v>
+        <v>29000</v>
       </c>
       <c r="M513" t="n">
-        <v>5500</v>
+        <v>28500</v>
       </c>
       <c r="N513" t="inlineStr">
         <is>
@@ -37315,7 +37315,7 @@
         </is>
       </c>
       <c r="P513" t="n">
-        <v>306</v>
+        <v>1583</v>
       </c>
       <c r="Q513" t="n">
         <v>18</v>
@@ -37341,7 +37341,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E514" t="n">
         <v>4</v>
@@ -37356,25 +37356,25 @@
       </c>
       <c r="H514" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I514" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J514" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K514" t="n">
-        <v>3000</v>
+        <v>25000</v>
       </c>
       <c r="L514" t="n">
-        <v>4000</v>
+        <v>26000</v>
       </c>
       <c r="M514" t="n">
-        <v>3500</v>
+        <v>25500</v>
       </c>
       <c r="N514" t="inlineStr">
         <is>
@@ -37387,7 +37387,7 @@
         </is>
       </c>
       <c r="P514" t="n">
-        <v>194</v>
+        <v>1417</v>
       </c>
       <c r="Q514" t="n">
         <v>18</v>
@@ -37413,7 +37413,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E515" t="n">
         <v>4</v>
@@ -37428,25 +37428,25 @@
       </c>
       <c r="H515" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I515" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J515" t="n">
-        <v>1200</v>
+        <v>360</v>
       </c>
       <c r="K515" t="n">
-        <v>4000</v>
+        <v>37000</v>
       </c>
       <c r="L515" t="n">
-        <v>5000</v>
+        <v>38000</v>
       </c>
       <c r="M515" t="n">
-        <v>4500</v>
+        <v>37500</v>
       </c>
       <c r="N515" t="inlineStr">
         <is>
@@ -37459,7 +37459,7 @@
         </is>
       </c>
       <c r="P515" t="n">
-        <v>250</v>
+        <v>2083</v>
       </c>
       <c r="Q515" t="n">
         <v>18</v>
@@ -37500,25 +37500,25 @@
       </c>
       <c r="H516" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I516" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J516" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="K516" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="L516" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M516" t="n">
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="N516" t="inlineStr">
         <is>
@@ -37531,7 +37531,7 @@
         </is>
       </c>
       <c r="P516" t="n">
-        <v>139</v>
+        <v>306</v>
       </c>
       <c r="Q516" t="n">
         <v>18</v>
@@ -37572,25 +37572,25 @@
       </c>
       <c r="H517" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I517" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J517" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="K517" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L517" t="n">
         <v>4000</v>
       </c>
-      <c r="L517" t="n">
-        <v>5000</v>
-      </c>
       <c r="M517" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="N517" t="inlineStr">
         <is>
@@ -37603,7 +37603,7 @@
         </is>
       </c>
       <c r="P517" t="n">
-        <v>250</v>
+        <v>194</v>
       </c>
       <c r="Q517" t="n">
         <v>18</v>
@@ -37644,43 +37644,259 @@
       </c>
       <c r="H518" t="inlineStr">
         <is>
+          <t>Cuatro cascos verde</t>
+        </is>
+      </c>
+      <c r="I518" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J518" t="n">
+        <v>1200</v>
+      </c>
+      <c r="K518" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L518" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M518" t="n">
+        <v>4500</v>
+      </c>
+      <c r="N518" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O518" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P518" t="n">
+        <v>250</v>
+      </c>
+      <c r="Q518" t="n">
+        <v>18</v>
+      </c>
+      <c r="R518" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="n">
+        <v>2</v>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D519" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E519" t="n">
+        <v>4</v>
+      </c>
+      <c r="F519" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G519" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H519" t="inlineStr">
+        <is>
+          <t>Cuatro cascos verde</t>
+        </is>
+      </c>
+      <c r="I519" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J519" t="n">
+        <v>1100</v>
+      </c>
+      <c r="K519" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L519" t="n">
+        <v>3000</v>
+      </c>
+      <c r="M519" t="n">
+        <v>2500</v>
+      </c>
+      <c r="N519" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O519" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P519" t="n">
+        <v>139</v>
+      </c>
+      <c r="Q519" t="n">
+        <v>18</v>
+      </c>
+      <c r="R519" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="n">
+        <v>2</v>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D520" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E520" t="n">
+        <v>4</v>
+      </c>
+      <c r="F520" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G520" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H520" t="inlineStr">
+        <is>
           <t>Morrón rojo</t>
         </is>
       </c>
-      <c r="I518" t="inlineStr">
+      <c r="I520" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J520" t="n">
+        <v>1200</v>
+      </c>
+      <c r="K520" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L520" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M520" t="n">
+        <v>4500</v>
+      </c>
+      <c r="N520" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O520" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P520" t="n">
+        <v>250</v>
+      </c>
+      <c r="Q520" t="n">
+        <v>18</v>
+      </c>
+      <c r="R520" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="n">
+        <v>2</v>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D521" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E521" t="n">
+        <v>4</v>
+      </c>
+      <c r="F521" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G521" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H521" t="inlineStr">
+        <is>
+          <t>Morrón rojo</t>
+        </is>
+      </c>
+      <c r="I521" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J518" t="n">
+      <c r="J521" t="n">
         <v>800</v>
       </c>
-      <c r="K518" t="n">
+      <c r="K521" t="n">
         <v>2000</v>
       </c>
-      <c r="L518" t="n">
+      <c r="L521" t="n">
         <v>3000</v>
       </c>
-      <c r="M518" t="n">
+      <c r="M521" t="n">
         <v>2500</v>
       </c>
-      <c r="N518" t="inlineStr">
-        <is>
-          <t>$/caja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O518" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P518" t="n">
+      <c r="N521" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O521" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P521" t="n">
         <v>139</v>
       </c>
-      <c r="Q518" t="n">
-        <v>18</v>
-      </c>
-      <c r="R518" t="inlineStr">
+      <c r="Q521" t="n">
+        <v>18</v>
+      </c>
+      <c r="R521" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pimiento.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pimiento.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R530"/>
+  <dimension ref="A1:R533"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32517,7 +32517,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E447" t="n">
         <v>4</v>
@@ -32544,13 +32544,13 @@
         <v>1000</v>
       </c>
       <c r="K447" t="n">
-        <v>11500</v>
+        <v>23000</v>
       </c>
       <c r="L447" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="M447" t="n">
-        <v>11750</v>
+        <v>23500</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
@@ -32563,7 +32563,7 @@
         </is>
       </c>
       <c r="P447" t="n">
-        <v>653</v>
+        <v>1306</v>
       </c>
       <c r="Q447" t="n">
         <v>18</v>
@@ -32589,7 +32589,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E448" t="n">
         <v>4</v>
@@ -32613,16 +32613,16 @@
         </is>
       </c>
       <c r="J448" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K448" t="n">
-        <v>9500</v>
+        <v>18000</v>
       </c>
       <c r="L448" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="M448" t="n">
-        <v>9750</v>
+        <v>18500</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         </is>
       </c>
       <c r="P448" t="n">
-        <v>542</v>
+        <v>1028</v>
       </c>
       <c r="Q448" t="n">
         <v>18</v>
@@ -32661,7 +32661,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E449" t="n">
         <v>4</v>
@@ -32685,16 +32685,16 @@
         </is>
       </c>
       <c r="J449" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="K449" t="n">
-        <v>6500</v>
+        <v>13000</v>
       </c>
       <c r="L449" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M449" t="n">
-        <v>6750</v>
+        <v>13500</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
@@ -32707,7 +32707,7 @@
         </is>
       </c>
       <c r="P449" t="n">
-        <v>375</v>
+        <v>750</v>
       </c>
       <c r="Q449" t="n">
         <v>18</v>
@@ -32748,7 +32748,7 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
@@ -32757,16 +32757,16 @@
         </is>
       </c>
       <c r="J450" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K450" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="L450" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M450" t="n">
-        <v>10750</v>
+        <v>11750</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
@@ -32779,7 +32779,7 @@
         </is>
       </c>
       <c r="P450" t="n">
-        <v>597</v>
+        <v>653</v>
       </c>
       <c r="Q450" t="n">
         <v>18</v>
@@ -32820,7 +32820,7 @@
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
@@ -32832,13 +32832,13 @@
         <v>500</v>
       </c>
       <c r="K451" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="L451" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M451" t="n">
-        <v>8750</v>
+        <v>9750</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
@@ -32851,7 +32851,7 @@
         </is>
       </c>
       <c r="P451" t="n">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="Q451" t="n">
         <v>18</v>
@@ -32892,7 +32892,7 @@
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I452" t="inlineStr">
@@ -32901,7 +32901,7 @@
         </is>
       </c>
       <c r="J452" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K452" t="n">
         <v>6500</v>
@@ -32949,7 +32949,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44343</v>
+        <v>44384</v>
       </c>
       <c r="E453" t="n">
         <v>4</v>
@@ -32964,7 +32964,7 @@
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I453" t="inlineStr">
@@ -32973,16 +32973,16 @@
         </is>
       </c>
       <c r="J453" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K453" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="L453" t="n">
         <v>11000</v>
       </c>
       <c r="M453" t="n">
-        <v>10500</v>
+        <v>10750</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
@@ -32995,7 +32995,7 @@
         </is>
       </c>
       <c r="P453" t="n">
-        <v>583</v>
+        <v>597</v>
       </c>
       <c r="Q453" t="n">
         <v>18</v>
@@ -33021,7 +33021,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44343</v>
+        <v>44384</v>
       </c>
       <c r="E454" t="n">
         <v>4</v>
@@ -33036,7 +33036,7 @@
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I454" t="inlineStr">
@@ -33045,16 +33045,16 @@
         </is>
       </c>
       <c r="J454" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K454" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="L454" t="n">
         <v>9000</v>
       </c>
       <c r="M454" t="n">
-        <v>8500</v>
+        <v>8750</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
@@ -33067,7 +33067,7 @@
         </is>
       </c>
       <c r="P454" t="n">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="Q454" t="n">
         <v>18</v>
@@ -33093,7 +33093,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44343</v>
+        <v>44384</v>
       </c>
       <c r="E455" t="n">
         <v>4</v>
@@ -33108,7 +33108,7 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
@@ -33120,13 +33120,13 @@
         <v>300</v>
       </c>
       <c r="K455" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L455" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M455" t="n">
-        <v>5500</v>
+        <v>6750</v>
       </c>
       <c r="N455" t="inlineStr">
         <is>
@@ -33139,7 +33139,7 @@
         </is>
       </c>
       <c r="P455" t="n">
-        <v>306</v>
+        <v>375</v>
       </c>
       <c r="Q455" t="n">
         <v>18</v>
@@ -33180,7 +33180,7 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
@@ -33189,16 +33189,16 @@
         </is>
       </c>
       <c r="J456" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K456" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L456" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M456" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
@@ -33211,7 +33211,7 @@
         </is>
       </c>
       <c r="P456" t="n">
-        <v>806</v>
+        <v>583</v>
       </c>
       <c r="Q456" t="n">
         <v>18</v>
@@ -33252,7 +33252,7 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
@@ -33261,16 +33261,16 @@
         </is>
       </c>
       <c r="J457" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K457" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L457" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M457" t="n">
-        <v>12500</v>
+        <v>8500</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
@@ -33283,7 +33283,7 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>694</v>
+        <v>472</v>
       </c>
       <c r="Q457" t="n">
         <v>18</v>
@@ -33324,7 +33324,7 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
@@ -33333,16 +33333,16 @@
         </is>
       </c>
       <c r="J458" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K458" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L458" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="M458" t="n">
-        <v>10500</v>
+        <v>5500</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         </is>
       </c>
       <c r="P458" t="n">
-        <v>583</v>
+        <v>306</v>
       </c>
       <c r="Q458" t="n">
         <v>18</v>
@@ -33381,7 +33381,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E459" t="n">
         <v>4</v>
@@ -33396,7 +33396,7 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
@@ -33405,16 +33405,16 @@
         </is>
       </c>
       <c r="J459" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K459" t="n">
-        <v>16500</v>
+        <v>14000</v>
       </c>
       <c r="L459" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M459" t="n">
-        <v>16750</v>
+        <v>14500</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
@@ -33427,7 +33427,7 @@
         </is>
       </c>
       <c r="P459" t="n">
-        <v>931</v>
+        <v>806</v>
       </c>
       <c r="Q459" t="n">
         <v>18</v>
@@ -33453,7 +33453,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E460" t="n">
         <v>4</v>
@@ -33468,7 +33468,7 @@
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
@@ -33480,13 +33480,13 @@
         <v>500</v>
       </c>
       <c r="K460" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="L460" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M460" t="n">
-        <v>13750</v>
+        <v>12500</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
@@ -33499,7 +33499,7 @@
         </is>
       </c>
       <c r="P460" t="n">
-        <v>764</v>
+        <v>694</v>
       </c>
       <c r="Q460" t="n">
         <v>18</v>
@@ -33525,7 +33525,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E461" t="n">
         <v>4</v>
@@ -33540,7 +33540,7 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
@@ -33549,16 +33549,16 @@
         </is>
       </c>
       <c r="J461" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K461" t="n">
-        <v>11500</v>
+        <v>10000</v>
       </c>
       <c r="L461" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M461" t="n">
-        <v>11750</v>
+        <v>10500</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
@@ -33571,7 +33571,7 @@
         </is>
       </c>
       <c r="P461" t="n">
-        <v>653</v>
+        <v>583</v>
       </c>
       <c r="Q461" t="n">
         <v>18</v>
@@ -33612,7 +33612,7 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
@@ -33624,13 +33624,13 @@
         <v>700</v>
       </c>
       <c r="K462" t="n">
-        <v>15500</v>
+        <v>16500</v>
       </c>
       <c r="L462" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M462" t="n">
-        <v>15750</v>
+        <v>16750</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
@@ -33643,7 +33643,7 @@
         </is>
       </c>
       <c r="P462" t="n">
-        <v>875</v>
+        <v>931</v>
       </c>
       <c r="Q462" t="n">
         <v>18</v>
@@ -33684,7 +33684,7 @@
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
@@ -33696,13 +33696,13 @@
         <v>500</v>
       </c>
       <c r="K463" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="L463" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M463" t="n">
-        <v>12750</v>
+        <v>13750</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
@@ -33715,7 +33715,7 @@
         </is>
       </c>
       <c r="P463" t="n">
-        <v>708</v>
+        <v>764</v>
       </c>
       <c r="Q463" t="n">
         <v>18</v>
@@ -33756,7 +33756,7 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
@@ -33768,13 +33768,13 @@
         <v>300</v>
       </c>
       <c r="K464" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="L464" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M464" t="n">
-        <v>9750</v>
+        <v>11750</v>
       </c>
       <c r="N464" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         </is>
       </c>
       <c r="P464" t="n">
-        <v>542</v>
+        <v>653</v>
       </c>
       <c r="Q464" t="n">
         <v>18</v>
@@ -33828,7 +33828,7 @@
       </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I465" t="inlineStr">
@@ -33840,13 +33840,13 @@
         <v>700</v>
       </c>
       <c r="K465" t="n">
-        <v>13500</v>
+        <v>15500</v>
       </c>
       <c r="L465" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M465" t="n">
-        <v>13750</v>
+        <v>15750</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
@@ -33859,7 +33859,7 @@
         </is>
       </c>
       <c r="P465" t="n">
-        <v>764</v>
+        <v>875</v>
       </c>
       <c r="Q465" t="n">
         <v>18</v>
@@ -33900,7 +33900,7 @@
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
@@ -33909,16 +33909,16 @@
         </is>
       </c>
       <c r="J466" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K466" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="L466" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M466" t="n">
-        <v>11750</v>
+        <v>12750</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
@@ -33931,7 +33931,7 @@
         </is>
       </c>
       <c r="P466" t="n">
-        <v>653</v>
+        <v>708</v>
       </c>
       <c r="Q466" t="n">
         <v>18</v>
@@ -33972,7 +33972,7 @@
       </c>
       <c r="H467" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I467" t="inlineStr">
@@ -33981,7 +33981,7 @@
         </is>
       </c>
       <c r="J467" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K467" t="n">
         <v>9500</v>
@@ -34029,7 +34029,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E468" t="n">
         <v>4</v>
@@ -34044,7 +34044,7 @@
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I468" t="inlineStr">
@@ -34053,16 +34053,16 @@
         </is>
       </c>
       <c r="J468" t="n">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="K468" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="L468" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="M468" t="n">
-        <v>13250</v>
+        <v>13750</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         </is>
       </c>
       <c r="P468" t="n">
-        <v>736</v>
+        <v>764</v>
       </c>
       <c r="Q468" t="n">
         <v>18</v>
@@ -34101,7 +34101,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E469" t="n">
         <v>4</v>
@@ -34116,7 +34116,7 @@
       </c>
       <c r="H469" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I469" t="inlineStr">
@@ -34125,16 +34125,16 @@
         </is>
       </c>
       <c r="J469" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K469" t="n">
-        <v>8000</v>
+        <v>11500</v>
       </c>
       <c r="L469" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="M469" t="n">
-        <v>8250</v>
+        <v>11750</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
@@ -34147,7 +34147,7 @@
         </is>
       </c>
       <c r="P469" t="n">
-        <v>458</v>
+        <v>653</v>
       </c>
       <c r="Q469" t="n">
         <v>18</v>
@@ -34173,7 +34173,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E470" t="n">
         <v>4</v>
@@ -34188,7 +34188,7 @@
       </c>
       <c r="H470" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I470" t="inlineStr">
@@ -34197,16 +34197,16 @@
         </is>
       </c>
       <c r="J470" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K470" t="n">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="L470" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="M470" t="n">
-        <v>5250</v>
+        <v>9750</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
@@ -34219,7 +34219,7 @@
         </is>
       </c>
       <c r="P470" t="n">
-        <v>292</v>
+        <v>542</v>
       </c>
       <c r="Q470" t="n">
         <v>18</v>
@@ -34245,7 +34245,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E471" t="n">
         <v>4</v>
@@ -34269,16 +34269,16 @@
         </is>
       </c>
       <c r="J471" t="n">
-        <v>300</v>
+        <v>1300</v>
       </c>
       <c r="K471" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L471" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="M471" t="n">
-        <v>9500</v>
+        <v>13250</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
@@ -34291,7 +34291,7 @@
         </is>
       </c>
       <c r="P471" t="n">
-        <v>528</v>
+        <v>736</v>
       </c>
       <c r="Q471" t="n">
         <v>18</v>
@@ -34317,7 +34317,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E472" t="n">
         <v>4</v>
@@ -34341,16 +34341,16 @@
         </is>
       </c>
       <c r="J472" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K472" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L472" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="M472" t="n">
-        <v>7500</v>
+        <v>8250</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
@@ -34363,7 +34363,7 @@
         </is>
       </c>
       <c r="P472" t="n">
-        <v>417</v>
+        <v>458</v>
       </c>
       <c r="Q472" t="n">
         <v>18</v>
@@ -34389,7 +34389,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E473" t="n">
         <v>4</v>
@@ -34413,16 +34413,16 @@
         </is>
       </c>
       <c r="J473" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="K473" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L473" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M473" t="n">
-        <v>4500</v>
+        <v>5250</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
@@ -34435,7 +34435,7 @@
         </is>
       </c>
       <c r="P473" t="n">
-        <v>250</v>
+        <v>292</v>
       </c>
       <c r="Q473" t="n">
         <v>18</v>
@@ -34461,7 +34461,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E474" t="n">
         <v>4</v>
@@ -34485,16 +34485,16 @@
         </is>
       </c>
       <c r="J474" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K474" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L474" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M474" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
@@ -34507,7 +34507,7 @@
         </is>
       </c>
       <c r="P474" t="n">
-        <v>806</v>
+        <v>528</v>
       </c>
       <c r="Q474" t="n">
         <v>18</v>
@@ -34533,7 +34533,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E475" t="n">
         <v>4</v>
@@ -34557,16 +34557,16 @@
         </is>
       </c>
       <c r="J475" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K475" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L475" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M475" t="n">
-        <v>12500</v>
+        <v>7500</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         </is>
       </c>
       <c r="P475" t="n">
-        <v>694</v>
+        <v>417</v>
       </c>
       <c r="Q475" t="n">
         <v>18</v>
@@ -34605,7 +34605,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E476" t="n">
         <v>4</v>
@@ -34629,16 +34629,16 @@
         </is>
       </c>
       <c r="J476" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K476" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="L476" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="M476" t="n">
-        <v>10500</v>
+        <v>4500</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
@@ -34651,7 +34651,7 @@
         </is>
       </c>
       <c r="P476" t="n">
-        <v>583</v>
+        <v>250</v>
       </c>
       <c r="Q476" t="n">
         <v>18</v>
@@ -34692,7 +34692,7 @@
       </c>
       <c r="H477" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I477" t="inlineStr">
@@ -34704,13 +34704,13 @@
         <v>600</v>
       </c>
       <c r="K477" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L477" t="n">
         <v>15000</v>
       </c>
-      <c r="L477" t="n">
-        <v>16000</v>
-      </c>
       <c r="M477" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
@@ -34723,7 +34723,7 @@
         </is>
       </c>
       <c r="P477" t="n">
-        <v>861</v>
+        <v>806</v>
       </c>
       <c r="Q477" t="n">
         <v>18</v>
@@ -34764,7 +34764,7 @@
       </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I478" t="inlineStr">
@@ -34836,7 +34836,7 @@
       </c>
       <c r="H479" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I479" t="inlineStr">
@@ -34845,7 +34845,7 @@
         </is>
       </c>
       <c r="J479" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K479" t="n">
         <v>10000</v>
@@ -34893,7 +34893,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E480" t="n">
         <v>4</v>
@@ -34908,7 +34908,7 @@
       </c>
       <c r="H480" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I480" t="inlineStr">
@@ -34917,16 +34917,16 @@
         </is>
       </c>
       <c r="J480" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="K480" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="L480" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="M480" t="n">
-        <v>5500</v>
+        <v>15500</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
@@ -34939,7 +34939,7 @@
         </is>
       </c>
       <c r="P480" t="n">
-        <v>306</v>
+        <v>861</v>
       </c>
       <c r="Q480" t="n">
         <v>18</v>
@@ -34965,7 +34965,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E481" t="n">
         <v>4</v>
@@ -34980,7 +34980,7 @@
       </c>
       <c r="H481" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I481" t="inlineStr">
@@ -34989,16 +34989,16 @@
         </is>
       </c>
       <c r="J481" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K481" t="n">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="L481" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="M481" t="n">
-        <v>3500</v>
+        <v>12500</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         </is>
       </c>
       <c r="P481" t="n">
-        <v>194</v>
+        <v>694</v>
       </c>
       <c r="Q481" t="n">
         <v>18</v>
@@ -35037,7 +35037,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E482" t="n">
         <v>4</v>
@@ -35052,25 +35052,25 @@
       </c>
       <c r="H482" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J482" t="n">
-        <v>1200</v>
+        <v>240</v>
       </c>
       <c r="K482" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="L482" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="M482" t="n">
-        <v>4500</v>
+        <v>10500</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
@@ -35083,7 +35083,7 @@
         </is>
       </c>
       <c r="P482" t="n">
-        <v>250</v>
+        <v>583</v>
       </c>
       <c r="Q482" t="n">
         <v>18</v>
@@ -35124,25 +35124,25 @@
       </c>
       <c r="H483" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J483" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="K483" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="L483" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M483" t="n">
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
@@ -35155,7 +35155,7 @@
         </is>
       </c>
       <c r="P483" t="n">
-        <v>139</v>
+        <v>306</v>
       </c>
       <c r="Q483" t="n">
         <v>18</v>
@@ -35196,25 +35196,25 @@
       </c>
       <c r="H484" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J484" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="K484" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L484" t="n">
         <v>4000</v>
       </c>
-      <c r="L484" t="n">
-        <v>5000</v>
-      </c>
       <c r="M484" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
@@ -35227,7 +35227,7 @@
         </is>
       </c>
       <c r="P484" t="n">
-        <v>250</v>
+        <v>194</v>
       </c>
       <c r="Q484" t="n">
         <v>18</v>
@@ -35268,25 +35268,25 @@
       </c>
       <c r="H485" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J485" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="K485" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="L485" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M485" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         </is>
       </c>
       <c r="P485" t="n">
-        <v>139</v>
+        <v>250</v>
       </c>
       <c r="Q485" t="n">
         <v>18</v>
@@ -35325,7 +35325,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44181</v>
+        <v>44286</v>
       </c>
       <c r="E486" t="n">
         <v>4</v>
@@ -35345,20 +35345,20 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J486" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="K486" t="n">
-        <v>9000</v>
+        <v>2000</v>
       </c>
       <c r="L486" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="M486" t="n">
-        <v>9500</v>
+        <v>2500</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         </is>
       </c>
       <c r="P486" t="n">
-        <v>528</v>
+        <v>139</v>
       </c>
       <c r="Q486" t="n">
         <v>18</v>
@@ -35397,7 +35397,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44181</v>
+        <v>44286</v>
       </c>
       <c r="E487" t="n">
         <v>4</v>
@@ -35412,25 +35412,25 @@
       </c>
       <c r="H487" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J487" t="n">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="K487" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L487" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M487" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="N487" t="inlineStr">
         <is>
@@ -35443,7 +35443,7 @@
         </is>
       </c>
       <c r="P487" t="n">
-        <v>417</v>
+        <v>250</v>
       </c>
       <c r="Q487" t="n">
         <v>18</v>
@@ -35469,7 +35469,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44181</v>
+        <v>44286</v>
       </c>
       <c r="E488" t="n">
         <v>4</v>
@@ -35484,25 +35484,25 @@
       </c>
       <c r="H488" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I488" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J488" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="K488" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="L488" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M488" t="n">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="N488" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
         </is>
       </c>
       <c r="P488" t="n">
-        <v>306</v>
+        <v>139</v>
       </c>
       <c r="Q488" t="n">
         <v>18</v>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44328</v>
+        <v>44181</v>
       </c>
       <c r="E489" t="n">
         <v>4</v>
@@ -35565,16 +35565,16 @@
         </is>
       </c>
       <c r="J489" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K489" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L489" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M489" t="n">
-        <v>7750</v>
+        <v>9500</v>
       </c>
       <c r="N489" t="inlineStr">
         <is>
@@ -35587,7 +35587,7 @@
         </is>
       </c>
       <c r="P489" t="n">
-        <v>431</v>
+        <v>528</v>
       </c>
       <c r="Q489" t="n">
         <v>18</v>
@@ -35613,7 +35613,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44328</v>
+        <v>44181</v>
       </c>
       <c r="E490" t="n">
         <v>4</v>
@@ -35637,16 +35637,16 @@
         </is>
       </c>
       <c r="J490" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K490" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L490" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M490" t="n">
-        <v>5750</v>
+        <v>7500</v>
       </c>
       <c r="N490" t="inlineStr">
         <is>
@@ -35659,7 +35659,7 @@
         </is>
       </c>
       <c r="P490" t="n">
-        <v>319</v>
+        <v>417</v>
       </c>
       <c r="Q490" t="n">
         <v>18</v>
@@ -35685,7 +35685,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44328</v>
+        <v>44181</v>
       </c>
       <c r="E491" t="n">
         <v>4</v>
@@ -35709,16 +35709,16 @@
         </is>
       </c>
       <c r="J491" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K491" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L491" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M491" t="n">
-        <v>3750</v>
+        <v>5500</v>
       </c>
       <c r="N491" t="inlineStr">
         <is>
@@ -35731,7 +35731,7 @@
         </is>
       </c>
       <c r="P491" t="n">
-        <v>208</v>
+        <v>306</v>
       </c>
       <c r="Q491" t="n">
         <v>18</v>
@@ -35772,7 +35772,7 @@
       </c>
       <c r="H492" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I492" t="inlineStr">
@@ -35781,16 +35781,16 @@
         </is>
       </c>
       <c r="J492" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K492" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="L492" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M492" t="n">
-        <v>11750</v>
+        <v>7750</v>
       </c>
       <c r="N492" t="inlineStr">
         <is>
@@ -35803,7 +35803,7 @@
         </is>
       </c>
       <c r="P492" t="n">
-        <v>653</v>
+        <v>431</v>
       </c>
       <c r="Q492" t="n">
         <v>18</v>
@@ -35844,7 +35844,7 @@
       </c>
       <c r="H493" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I493" t="inlineStr">
@@ -35853,16 +35853,16 @@
         </is>
       </c>
       <c r="J493" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K493" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="L493" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M493" t="n">
-        <v>9750</v>
+        <v>5750</v>
       </c>
       <c r="N493" t="inlineStr">
         <is>
@@ -35875,7 +35875,7 @@
         </is>
       </c>
       <c r="P493" t="n">
-        <v>542</v>
+        <v>319</v>
       </c>
       <c r="Q493" t="n">
         <v>18</v>
@@ -35916,7 +35916,7 @@
       </c>
       <c r="H494" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I494" t="inlineStr">
@@ -35925,16 +35925,16 @@
         </is>
       </c>
       <c r="J494" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K494" t="n">
-        <v>7500</v>
+        <v>3500</v>
       </c>
       <c r="L494" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M494" t="n">
-        <v>7750</v>
+        <v>3750</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
@@ -35947,7 +35947,7 @@
         </is>
       </c>
       <c r="P494" t="n">
-        <v>431</v>
+        <v>208</v>
       </c>
       <c r="Q494" t="n">
         <v>18</v>
@@ -35973,7 +35973,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E495" t="n">
         <v>4</v>
@@ -35988,7 +35988,7 @@
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I495" t="inlineStr">
@@ -35997,16 +35997,16 @@
         </is>
       </c>
       <c r="J495" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K495" t="n">
-        <v>7000</v>
+        <v>11500</v>
       </c>
       <c r="L495" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M495" t="n">
-        <v>7500</v>
+        <v>11750</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         </is>
       </c>
       <c r="P495" t="n">
-        <v>417</v>
+        <v>653</v>
       </c>
       <c r="Q495" t="n">
         <v>18</v>
@@ -36045,7 +36045,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E496" t="n">
         <v>4</v>
@@ -36060,7 +36060,7 @@
       </c>
       <c r="H496" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I496" t="inlineStr">
@@ -36069,16 +36069,16 @@
         </is>
       </c>
       <c r="J496" t="n">
-        <v>240</v>
+        <v>800</v>
       </c>
       <c r="K496" t="n">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="L496" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M496" t="n">
-        <v>5500</v>
+        <v>9750</v>
       </c>
       <c r="N496" t="inlineStr">
         <is>
@@ -36091,7 +36091,7 @@
         </is>
       </c>
       <c r="P496" t="n">
-        <v>306</v>
+        <v>542</v>
       </c>
       <c r="Q496" t="n">
         <v>18</v>
@@ -36117,7 +36117,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E497" t="n">
         <v>4</v>
@@ -36132,7 +36132,7 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
@@ -36141,16 +36141,16 @@
         </is>
       </c>
       <c r="J497" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="K497" t="n">
-        <v>3000</v>
+        <v>7500</v>
       </c>
       <c r="L497" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M497" t="n">
-        <v>3500</v>
+        <v>7750</v>
       </c>
       <c r="N497" t="inlineStr">
         <is>
@@ -36163,7 +36163,7 @@
         </is>
       </c>
       <c r="P497" t="n">
-        <v>194</v>
+        <v>431</v>
       </c>
       <c r="Q497" t="n">
         <v>18</v>
@@ -36204,7 +36204,7 @@
       </c>
       <c r="H498" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I498" t="inlineStr">
@@ -36213,16 +36213,16 @@
         </is>
       </c>
       <c r="J498" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K498" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L498" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M498" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="N498" t="inlineStr">
         <is>
@@ -36235,7 +36235,7 @@
         </is>
       </c>
       <c r="P498" t="n">
-        <v>306</v>
+        <v>417</v>
       </c>
       <c r="Q498" t="n">
         <v>18</v>
@@ -36276,7 +36276,7 @@
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I499" t="inlineStr">
@@ -36285,16 +36285,16 @@
         </is>
       </c>
       <c r="J499" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="K499" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L499" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M499" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="N499" t="inlineStr">
         <is>
@@ -36307,7 +36307,7 @@
         </is>
       </c>
       <c r="P499" t="n">
-        <v>194</v>
+        <v>306</v>
       </c>
       <c r="Q499" t="n">
         <v>18</v>
@@ -36333,7 +36333,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44217</v>
+        <v>44301</v>
       </c>
       <c r="E500" t="n">
         <v>4</v>
@@ -36353,20 +36353,20 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J500" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K500" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L500" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M500" t="n">
-        <v>6750</v>
+        <v>3500</v>
       </c>
       <c r="N500" t="inlineStr">
         <is>
@@ -36379,7 +36379,7 @@
         </is>
       </c>
       <c r="P500" t="n">
-        <v>375</v>
+        <v>194</v>
       </c>
       <c r="Q500" t="n">
         <v>18</v>
@@ -36405,7 +36405,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44217</v>
+        <v>44301</v>
       </c>
       <c r="E501" t="n">
         <v>4</v>
@@ -36420,25 +36420,25 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J501" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K501" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L501" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M501" t="n">
-        <v>4750</v>
+        <v>5500</v>
       </c>
       <c r="N501" t="inlineStr">
         <is>
@@ -36451,7 +36451,7 @@
         </is>
       </c>
       <c r="P501" t="n">
-        <v>264</v>
+        <v>306</v>
       </c>
       <c r="Q501" t="n">
         <v>18</v>
@@ -36477,7 +36477,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44217</v>
+        <v>44301</v>
       </c>
       <c r="E502" t="n">
         <v>4</v>
@@ -36492,25 +36492,25 @@
       </c>
       <c r="H502" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I502" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J502" t="n">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="K502" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L502" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M502" t="n">
-        <v>2750</v>
+        <v>3500</v>
       </c>
       <c r="N502" t="inlineStr">
         <is>
@@ -36523,7 +36523,7 @@
         </is>
       </c>
       <c r="P502" t="n">
-        <v>153</v>
+        <v>194</v>
       </c>
       <c r="Q502" t="n">
         <v>18</v>
@@ -36549,7 +36549,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E503" t="n">
         <v>4</v>
@@ -36564,7 +36564,7 @@
       </c>
       <c r="H503" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I503" t="inlineStr">
@@ -36576,13 +36576,13 @@
         <v>400</v>
       </c>
       <c r="K503" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="L503" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M503" t="n">
-        <v>10500</v>
+        <v>6750</v>
       </c>
       <c r="N503" t="inlineStr">
         <is>
@@ -36595,7 +36595,7 @@
         </is>
       </c>
       <c r="P503" t="n">
-        <v>583</v>
+        <v>375</v>
       </c>
       <c r="Q503" t="n">
         <v>18</v>
@@ -36621,7 +36621,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E504" t="n">
         <v>4</v>
@@ -36636,7 +36636,7 @@
       </c>
       <c r="H504" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I504" t="inlineStr">
@@ -36645,16 +36645,16 @@
         </is>
       </c>
       <c r="J504" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K504" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L504" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M504" t="n">
-        <v>7500</v>
+        <v>4750</v>
       </c>
       <c r="N504" t="inlineStr">
         <is>
@@ -36667,7 +36667,7 @@
         </is>
       </c>
       <c r="P504" t="n">
-        <v>417</v>
+        <v>264</v>
       </c>
       <c r="Q504" t="n">
         <v>18</v>
@@ -36693,7 +36693,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E505" t="n">
         <v>4</v>
@@ -36708,7 +36708,7 @@
       </c>
       <c r="H505" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I505" t="inlineStr">
@@ -36717,16 +36717,16 @@
         </is>
       </c>
       <c r="J505" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="K505" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="L505" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M505" t="n">
-        <v>5500</v>
+        <v>2750</v>
       </c>
       <c r="N505" t="inlineStr">
         <is>
@@ -36739,7 +36739,7 @@
         </is>
       </c>
       <c r="P505" t="n">
-        <v>306</v>
+        <v>153</v>
       </c>
       <c r="Q505" t="n">
         <v>18</v>
@@ -36780,7 +36780,7 @@
       </c>
       <c r="H506" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I506" t="inlineStr">
@@ -36789,16 +36789,16 @@
         </is>
       </c>
       <c r="J506" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K506" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="L506" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="M506" t="n">
-        <v>4750</v>
+        <v>10500</v>
       </c>
       <c r="N506" t="inlineStr">
         <is>
@@ -36811,7 +36811,7 @@
         </is>
       </c>
       <c r="P506" t="n">
-        <v>264</v>
+        <v>583</v>
       </c>
       <c r="Q506" t="n">
         <v>18</v>
@@ -36852,7 +36852,7 @@
       </c>
       <c r="H507" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I507" t="inlineStr">
@@ -36864,13 +36864,13 @@
         <v>300</v>
       </c>
       <c r="K507" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="L507" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="M507" t="n">
-        <v>2750</v>
+        <v>7500</v>
       </c>
       <c r="N507" t="inlineStr">
         <is>
@@ -36883,7 +36883,7 @@
         </is>
       </c>
       <c r="P507" t="n">
-        <v>153</v>
+        <v>417</v>
       </c>
       <c r="Q507" t="n">
         <v>18</v>
@@ -36924,25 +36924,25 @@
       </c>
       <c r="H508" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I508" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J508" t="n">
-        <v>600</v>
+        <v>160</v>
       </c>
       <c r="K508" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="L508" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="M508" t="n">
-        <v>15500</v>
+        <v>5500</v>
       </c>
       <c r="N508" t="inlineStr">
         <is>
@@ -36955,7 +36955,7 @@
         </is>
       </c>
       <c r="P508" t="n">
-        <v>861</v>
+        <v>306</v>
       </c>
       <c r="Q508" t="n">
         <v>18</v>
@@ -36996,25 +36996,25 @@
       </c>
       <c r="H509" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I509" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J509" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K509" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="L509" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="M509" t="n">
-        <v>12500</v>
+        <v>4750</v>
       </c>
       <c r="N509" t="inlineStr">
         <is>
@@ -37027,7 +37027,7 @@
         </is>
       </c>
       <c r="P509" t="n">
-        <v>694</v>
+        <v>264</v>
       </c>
       <c r="Q509" t="n">
         <v>18</v>
@@ -37053,7 +37053,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E510" t="n">
         <v>4</v>
@@ -37068,25 +37068,25 @@
       </c>
       <c r="H510" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I510" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J510" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K510" t="n">
-        <v>9500</v>
+        <v>2500</v>
       </c>
       <c r="L510" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="M510" t="n">
-        <v>9750</v>
+        <v>2750</v>
       </c>
       <c r="N510" t="inlineStr">
         <is>
@@ -37099,7 +37099,7 @@
         </is>
       </c>
       <c r="P510" t="n">
-        <v>542</v>
+        <v>153</v>
       </c>
       <c r="Q510" t="n">
         <v>18</v>
@@ -37125,7 +37125,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E511" t="n">
         <v>4</v>
@@ -37140,25 +37140,25 @@
       </c>
       <c r="H511" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I511" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J511" t="n">
-        <v>220</v>
+        <v>600</v>
       </c>
       <c r="K511" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="L511" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="M511" t="n">
-        <v>7955</v>
+        <v>15500</v>
       </c>
       <c r="N511" t="inlineStr">
         <is>
@@ -37171,7 +37171,7 @@
         </is>
       </c>
       <c r="P511" t="n">
-        <v>442</v>
+        <v>861</v>
       </c>
       <c r="Q511" t="n">
         <v>18</v>
@@ -37197,7 +37197,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E512" t="n">
         <v>4</v>
@@ -37212,25 +37212,25 @@
       </c>
       <c r="H512" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I512" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J512" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="K512" t="n">
-        <v>5500</v>
+        <v>12000</v>
       </c>
       <c r="L512" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="M512" t="n">
-        <v>5750</v>
+        <v>12500</v>
       </c>
       <c r="N512" t="inlineStr">
         <is>
@@ -37243,7 +37243,7 @@
         </is>
       </c>
       <c r="P512" t="n">
-        <v>319</v>
+        <v>694</v>
       </c>
       <c r="Q512" t="n">
         <v>18</v>
@@ -37284,7 +37284,7 @@
       </c>
       <c r="H513" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I513" t="inlineStr">
@@ -37293,16 +37293,16 @@
         </is>
       </c>
       <c r="J513" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K513" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L513" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M513" t="n">
-        <v>7750</v>
+        <v>9750</v>
       </c>
       <c r="N513" t="inlineStr">
         <is>
@@ -37315,7 +37315,7 @@
         </is>
       </c>
       <c r="P513" t="n">
-        <v>431</v>
+        <v>542</v>
       </c>
       <c r="Q513" t="n">
         <v>18</v>
@@ -37356,7 +37356,7 @@
       </c>
       <c r="H514" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I514" t="inlineStr">
@@ -37365,16 +37365,16 @@
         </is>
       </c>
       <c r="J514" t="n">
-        <v>400</v>
+        <v>220</v>
       </c>
       <c r="K514" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L514" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M514" t="n">
-        <v>5750</v>
+        <v>7955</v>
       </c>
       <c r="N514" t="inlineStr">
         <is>
@@ -37387,7 +37387,7 @@
         </is>
       </c>
       <c r="P514" t="n">
-        <v>319</v>
+        <v>442</v>
       </c>
       <c r="Q514" t="n">
         <v>18</v>
@@ -37428,7 +37428,7 @@
       </c>
       <c r="H515" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I515" t="inlineStr">
@@ -37440,13 +37440,13 @@
         <v>160</v>
       </c>
       <c r="K515" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L515" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M515" t="n">
-        <v>3750</v>
+        <v>5750</v>
       </c>
       <c r="N515" t="inlineStr">
         <is>
@@ -37459,7 +37459,7 @@
         </is>
       </c>
       <c r="P515" t="n">
-        <v>208</v>
+        <v>319</v>
       </c>
       <c r="Q515" t="n">
         <v>18</v>
@@ -37500,7 +37500,7 @@
       </c>
       <c r="H516" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I516" t="inlineStr">
@@ -37512,13 +37512,13 @@
         <v>700</v>
       </c>
       <c r="K516" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L516" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M516" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N516" t="inlineStr">
         <is>
@@ -37531,7 +37531,7 @@
         </is>
       </c>
       <c r="P516" t="n">
-        <v>319</v>
+        <v>431</v>
       </c>
       <c r="Q516" t="n">
         <v>18</v>
@@ -37572,7 +37572,7 @@
       </c>
       <c r="H517" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I517" t="inlineStr">
@@ -37581,16 +37581,16 @@
         </is>
       </c>
       <c r="J517" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K517" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L517" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M517" t="n">
-        <v>3750</v>
+        <v>5750</v>
       </c>
       <c r="N517" t="inlineStr">
         <is>
@@ -37603,7 +37603,7 @@
         </is>
       </c>
       <c r="P517" t="n">
-        <v>208</v>
+        <v>319</v>
       </c>
       <c r="Q517" t="n">
         <v>18</v>
@@ -37644,7 +37644,7 @@
       </c>
       <c r="H518" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I518" t="inlineStr">
@@ -37653,16 +37653,16 @@
         </is>
       </c>
       <c r="J518" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K518" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="L518" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="M518" t="n">
-        <v>2250</v>
+        <v>3750</v>
       </c>
       <c r="N518" t="inlineStr">
         <is>
@@ -37675,7 +37675,7 @@
         </is>
       </c>
       <c r="P518" t="n">
-        <v>125</v>
+        <v>208</v>
       </c>
       <c r="Q518" t="n">
         <v>18</v>
@@ -37701,7 +37701,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E519" t="n">
         <v>4</v>
@@ -37716,7 +37716,7 @@
       </c>
       <c r="H519" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I519" t="inlineStr">
@@ -37725,16 +37725,16 @@
         </is>
       </c>
       <c r="J519" t="n">
-        <v>240</v>
+        <v>700</v>
       </c>
       <c r="K519" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L519" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M519" t="n">
-        <v>7750</v>
+        <v>5750</v>
       </c>
       <c r="N519" t="inlineStr">
         <is>
@@ -37747,7 +37747,7 @@
         </is>
       </c>
       <c r="P519" t="n">
-        <v>431</v>
+        <v>319</v>
       </c>
       <c r="Q519" t="n">
         <v>18</v>
@@ -37773,7 +37773,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E520" t="n">
         <v>4</v>
@@ -37788,7 +37788,7 @@
       </c>
       <c r="H520" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I520" t="inlineStr">
@@ -37797,16 +37797,16 @@
         </is>
       </c>
       <c r="J520" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="K520" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="L520" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M520" t="n">
-        <v>5750</v>
+        <v>3750</v>
       </c>
       <c r="N520" t="inlineStr">
         <is>
@@ -37819,7 +37819,7 @@
         </is>
       </c>
       <c r="P520" t="n">
-        <v>319</v>
+        <v>208</v>
       </c>
       <c r="Q520" t="n">
         <v>18</v>
@@ -37845,7 +37845,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E521" t="n">
         <v>4</v>
@@ -37860,7 +37860,7 @@
       </c>
       <c r="H521" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I521" t="inlineStr">
@@ -37869,16 +37869,16 @@
         </is>
       </c>
       <c r="J521" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K521" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="L521" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="M521" t="n">
-        <v>3750</v>
+        <v>2250</v>
       </c>
       <c r="N521" t="inlineStr">
         <is>
@@ -37891,7 +37891,7 @@
         </is>
       </c>
       <c r="P521" t="n">
-        <v>208</v>
+        <v>125</v>
       </c>
       <c r="Q521" t="n">
         <v>18</v>
@@ -37932,7 +37932,7 @@
       </c>
       <c r="H522" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I522" t="inlineStr">
@@ -37941,16 +37941,16 @@
         </is>
       </c>
       <c r="J522" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="K522" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L522" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M522" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N522" t="inlineStr">
         <is>
@@ -37963,7 +37963,7 @@
         </is>
       </c>
       <c r="P522" t="n">
-        <v>319</v>
+        <v>431</v>
       </c>
       <c r="Q522" t="n">
         <v>18</v>
@@ -38004,7 +38004,7 @@
       </c>
       <c r="H523" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I523" t="inlineStr">
@@ -38013,16 +38013,16 @@
         </is>
       </c>
       <c r="J523" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K523" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L523" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M523" t="n">
-        <v>3750</v>
+        <v>5750</v>
       </c>
       <c r="N523" t="inlineStr">
         <is>
@@ -38035,7 +38035,7 @@
         </is>
       </c>
       <c r="P523" t="n">
-        <v>208</v>
+        <v>319</v>
       </c>
       <c r="Q523" t="n">
         <v>18</v>
@@ -38076,7 +38076,7 @@
       </c>
       <c r="H524" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I524" t="inlineStr">
@@ -38085,16 +38085,16 @@
         </is>
       </c>
       <c r="J524" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="K524" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="L524" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="M524" t="n">
-        <v>1750</v>
+        <v>3750</v>
       </c>
       <c r="N524" t="inlineStr">
         <is>
@@ -38107,7 +38107,7 @@
         </is>
       </c>
       <c r="P524" t="n">
-        <v>97</v>
+        <v>208</v>
       </c>
       <c r="Q524" t="n">
         <v>18</v>
@@ -38133,7 +38133,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E525" t="n">
         <v>4</v>
@@ -38157,16 +38157,16 @@
         </is>
       </c>
       <c r="J525" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K525" t="n">
-        <v>24000</v>
+        <v>5500</v>
       </c>
       <c r="L525" t="n">
-        <v>25000</v>
+        <v>6000</v>
       </c>
       <c r="M525" t="n">
-        <v>24500</v>
+        <v>5750</v>
       </c>
       <c r="N525" t="inlineStr">
         <is>
@@ -38179,7 +38179,7 @@
         </is>
       </c>
       <c r="P525" t="n">
-        <v>1361</v>
+        <v>319</v>
       </c>
       <c r="Q525" t="n">
         <v>18</v>
@@ -38205,7 +38205,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E526" t="n">
         <v>4</v>
@@ -38229,16 +38229,16 @@
         </is>
       </c>
       <c r="J526" t="n">
-        <v>470</v>
+        <v>400</v>
       </c>
       <c r="K526" t="n">
-        <v>22000</v>
+        <v>3500</v>
       </c>
       <c r="L526" t="n">
-        <v>23000</v>
+        <v>4000</v>
       </c>
       <c r="M526" t="n">
-        <v>22532</v>
+        <v>3750</v>
       </c>
       <c r="N526" t="inlineStr">
         <is>
@@ -38251,7 +38251,7 @@
         </is>
       </c>
       <c r="P526" t="n">
-        <v>1252</v>
+        <v>208</v>
       </c>
       <c r="Q526" t="n">
         <v>18</v>
@@ -38277,7 +38277,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E527" t="n">
         <v>4</v>
@@ -38301,16 +38301,16 @@
         </is>
       </c>
       <c r="J527" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K527" t="n">
-        <v>18000</v>
+        <v>1500</v>
       </c>
       <c r="L527" t="n">
-        <v>19000</v>
+        <v>2000</v>
       </c>
       <c r="M527" t="n">
-        <v>18500</v>
+        <v>1750</v>
       </c>
       <c r="N527" t="inlineStr">
         <is>
@@ -38323,7 +38323,7 @@
         </is>
       </c>
       <c r="P527" t="n">
-        <v>1028</v>
+        <v>97</v>
       </c>
       <c r="Q527" t="n">
         <v>18</v>
@@ -38364,7 +38364,7 @@
       </c>
       <c r="H528" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I528" t="inlineStr">
@@ -38376,13 +38376,13 @@
         <v>600</v>
       </c>
       <c r="K528" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="L528" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M528" t="n">
-        <v>29000</v>
+        <v>24500</v>
       </c>
       <c r="N528" t="inlineStr">
         <is>
@@ -38395,7 +38395,7 @@
         </is>
       </c>
       <c r="P528" t="n">
-        <v>1611</v>
+        <v>1361</v>
       </c>
       <c r="Q528" t="n">
         <v>18</v>
@@ -38436,7 +38436,7 @@
       </c>
       <c r="H529" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I529" t="inlineStr">
@@ -38445,16 +38445,16 @@
         </is>
       </c>
       <c r="J529" t="n">
-        <v>600</v>
+        <v>470</v>
       </c>
       <c r="K529" t="n">
+        <v>22000</v>
+      </c>
+      <c r="L529" t="n">
         <v>23000</v>
       </c>
-      <c r="L529" t="n">
-        <v>25000</v>
-      </c>
       <c r="M529" t="n">
-        <v>24000</v>
+        <v>22532</v>
       </c>
       <c r="N529" t="inlineStr">
         <is>
@@ -38467,7 +38467,7 @@
         </is>
       </c>
       <c r="P529" t="n">
-        <v>1333</v>
+        <v>1252</v>
       </c>
       <c r="Q529" t="n">
         <v>18</v>
@@ -38508,7 +38508,7 @@
       </c>
       <c r="H530" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I530" t="inlineStr">
@@ -38517,34 +38517,250 @@
         </is>
       </c>
       <c r="J530" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K530" t="n">
         <v>18000</v>
       </c>
       <c r="L530" t="n">
+        <v>19000</v>
+      </c>
+      <c r="M530" t="n">
+        <v>18500</v>
+      </c>
+      <c r="N530" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O530" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P530" t="n">
+        <v>1028</v>
+      </c>
+      <c r="Q530" t="n">
+        <v>18</v>
+      </c>
+      <c r="R530" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="n">
+        <v>2</v>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D531" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="E531" t="n">
+        <v>4</v>
+      </c>
+      <c r="F531" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G531" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H531" t="inlineStr">
+        <is>
+          <t>Morrón rojo</t>
+        </is>
+      </c>
+      <c r="I531" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J531" t="n">
+        <v>600</v>
+      </c>
+      <c r="K531" t="n">
+        <v>28000</v>
+      </c>
+      <c r="L531" t="n">
+        <v>30000</v>
+      </c>
+      <c r="M531" t="n">
+        <v>29000</v>
+      </c>
+      <c r="N531" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O531" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P531" t="n">
+        <v>1611</v>
+      </c>
+      <c r="Q531" t="n">
+        <v>18</v>
+      </c>
+      <c r="R531" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="n">
+        <v>2</v>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D532" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="E532" t="n">
+        <v>4</v>
+      </c>
+      <c r="F532" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G532" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H532" t="inlineStr">
+        <is>
+          <t>Morrón rojo</t>
+        </is>
+      </c>
+      <c r="I532" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J532" t="n">
+        <v>600</v>
+      </c>
+      <c r="K532" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L532" t="n">
+        <v>25000</v>
+      </c>
+      <c r="M532" t="n">
+        <v>24000</v>
+      </c>
+      <c r="N532" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O532" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P532" t="n">
+        <v>1333</v>
+      </c>
+      <c r="Q532" t="n">
+        <v>18</v>
+      </c>
+      <c r="R532" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="n">
+        <v>2</v>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D533" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="E533" t="n">
+        <v>4</v>
+      </c>
+      <c r="F533" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G533" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H533" t="inlineStr">
+        <is>
+          <t>Morrón rojo</t>
+        </is>
+      </c>
+      <c r="I533" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J533" t="n">
+        <v>360</v>
+      </c>
+      <c r="K533" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L533" t="n">
         <v>20000</v>
       </c>
-      <c r="M530" t="n">
+      <c r="M533" t="n">
         <v>19000</v>
       </c>
-      <c r="N530" t="inlineStr">
-        <is>
-          <t>$/caja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O530" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P530" t="n">
+      <c r="N533" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O533" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P533" t="n">
         <v>1056</v>
       </c>
-      <c r="Q530" t="n">
-        <v>18</v>
-      </c>
-      <c r="R530" t="inlineStr">
+      <c r="Q533" t="n">
+        <v>18</v>
+      </c>
+      <c r="R533" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pimiento.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pimiento.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R533"/>
+  <dimension ref="A1:R536"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29493,7 +29493,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44329</v>
+        <v>44510</v>
       </c>
       <c r="E405" t="n">
         <v>4</v>
@@ -29517,16 +29517,16 @@
         </is>
       </c>
       <c r="J405" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="K405" t="n">
-        <v>7500</v>
+        <v>19000</v>
       </c>
       <c r="L405" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="M405" t="n">
-        <v>7750</v>
+        <v>19500</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
@@ -29539,7 +29539,7 @@
         </is>
       </c>
       <c r="P405" t="n">
-        <v>431</v>
+        <v>1083</v>
       </c>
       <c r="Q405" t="n">
         <v>18</v>
@@ -29565,7 +29565,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44329</v>
+        <v>44510</v>
       </c>
       <c r="E406" t="n">
         <v>4</v>
@@ -29589,16 +29589,16 @@
         </is>
       </c>
       <c r="J406" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K406" t="n">
-        <v>5500</v>
+        <v>16000</v>
       </c>
       <c r="L406" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="M406" t="n">
-        <v>5750</v>
+        <v>16500</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         </is>
       </c>
       <c r="P406" t="n">
-        <v>319</v>
+        <v>917</v>
       </c>
       <c r="Q406" t="n">
         <v>18</v>
@@ -29637,7 +29637,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44329</v>
+        <v>44510</v>
       </c>
       <c r="E407" t="n">
         <v>4</v>
@@ -29661,16 +29661,16 @@
         </is>
       </c>
       <c r="J407" t="n">
-        <v>240</v>
+        <v>800</v>
       </c>
       <c r="K407" t="n">
-        <v>3500</v>
+        <v>13000</v>
       </c>
       <c r="L407" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="M407" t="n">
-        <v>3750</v>
+        <v>13500</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
@@ -29683,7 +29683,7 @@
         </is>
       </c>
       <c r="P407" t="n">
-        <v>208</v>
+        <v>750</v>
       </c>
       <c r="Q407" t="n">
         <v>18</v>
@@ -29724,7 +29724,7 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
@@ -29733,16 +29733,16 @@
         </is>
       </c>
       <c r="J408" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K408" t="n">
-        <v>12500</v>
+        <v>7500</v>
       </c>
       <c r="L408" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M408" t="n">
-        <v>12750</v>
+        <v>7750</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         </is>
       </c>
       <c r="P408" t="n">
-        <v>708</v>
+        <v>431</v>
       </c>
       <c r="Q408" t="n">
         <v>18</v>
@@ -29796,7 +29796,7 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
@@ -29805,16 +29805,16 @@
         </is>
       </c>
       <c r="J409" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K409" t="n">
-        <v>10500</v>
+        <v>5500</v>
       </c>
       <c r="L409" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="M409" t="n">
-        <v>10750</v>
+        <v>5750</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
@@ -29827,7 +29827,7 @@
         </is>
       </c>
       <c r="P409" t="n">
-        <v>597</v>
+        <v>319</v>
       </c>
       <c r="Q409" t="n">
         <v>18</v>
@@ -29868,7 +29868,7 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
@@ -29877,16 +29877,16 @@
         </is>
       </c>
       <c r="J410" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K410" t="n">
-        <v>8500</v>
+        <v>3500</v>
       </c>
       <c r="L410" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="M410" t="n">
-        <v>8750</v>
+        <v>3750</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
@@ -29899,7 +29899,7 @@
         </is>
       </c>
       <c r="P410" t="n">
-        <v>486</v>
+        <v>208</v>
       </c>
       <c r="Q410" t="n">
         <v>18</v>
@@ -29925,7 +29925,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44279</v>
+        <v>44329</v>
       </c>
       <c r="E411" t="n">
         <v>4</v>
@@ -29940,7 +29940,7 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
@@ -29949,16 +29949,16 @@
         </is>
       </c>
       <c r="J411" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K411" t="n">
-        <v>7500</v>
+        <v>12500</v>
       </c>
       <c r="L411" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M411" t="n">
-        <v>7750</v>
+        <v>12750</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
@@ -29971,7 +29971,7 @@
         </is>
       </c>
       <c r="P411" t="n">
-        <v>431</v>
+        <v>708</v>
       </c>
       <c r="Q411" t="n">
         <v>18</v>
@@ -29997,7 +29997,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44279</v>
+        <v>44329</v>
       </c>
       <c r="E412" t="n">
         <v>4</v>
@@ -30012,7 +30012,7 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
@@ -30021,16 +30021,16 @@
         </is>
       </c>
       <c r="J412" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="K412" t="n">
-        <v>5500</v>
+        <v>10500</v>
       </c>
       <c r="L412" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M412" t="n">
-        <v>5750</v>
+        <v>10750</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
@@ -30043,7 +30043,7 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>319</v>
+        <v>597</v>
       </c>
       <c r="Q412" t="n">
         <v>18</v>
@@ -30069,7 +30069,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44279</v>
+        <v>44329</v>
       </c>
       <c r="E413" t="n">
         <v>4</v>
@@ -30084,7 +30084,7 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
@@ -30093,16 +30093,16 @@
         </is>
       </c>
       <c r="J413" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K413" t="n">
-        <v>3500</v>
+        <v>8500</v>
       </c>
       <c r="L413" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="M413" t="n">
-        <v>3750</v>
+        <v>8750</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
@@ -30115,7 +30115,7 @@
         </is>
       </c>
       <c r="P413" t="n">
-        <v>208</v>
+        <v>486</v>
       </c>
       <c r="Q413" t="n">
         <v>18</v>
@@ -30156,7 +30156,7 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
@@ -30165,16 +30165,16 @@
         </is>
       </c>
       <c r="J414" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K414" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L414" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M414" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
@@ -30187,7 +30187,7 @@
         </is>
       </c>
       <c r="P414" t="n">
-        <v>319</v>
+        <v>431</v>
       </c>
       <c r="Q414" t="n">
         <v>18</v>
@@ -30228,7 +30228,7 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
@@ -30237,16 +30237,16 @@
         </is>
       </c>
       <c r="J415" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K415" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L415" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M415" t="n">
-        <v>3750</v>
+        <v>5750</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
@@ -30259,7 +30259,7 @@
         </is>
       </c>
       <c r="P415" t="n">
-        <v>208</v>
+        <v>319</v>
       </c>
       <c r="Q415" t="n">
         <v>18</v>
@@ -30300,7 +30300,7 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
@@ -30309,16 +30309,16 @@
         </is>
       </c>
       <c r="J416" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="K416" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="L416" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="M416" t="n">
-        <v>1750</v>
+        <v>3750</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>97</v>
+        <v>208</v>
       </c>
       <c r="Q416" t="n">
         <v>18</v>
@@ -30357,7 +30357,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="E417" t="n">
         <v>4</v>
@@ -30372,7 +30372,7 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
@@ -30381,16 +30381,16 @@
         </is>
       </c>
       <c r="J417" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="K417" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L417" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M417" t="n">
-        <v>7750</v>
+        <v>5750</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
@@ -30403,7 +30403,7 @@
         </is>
       </c>
       <c r="P417" t="n">
-        <v>431</v>
+        <v>319</v>
       </c>
       <c r="Q417" t="n">
         <v>18</v>
@@ -30429,7 +30429,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="E418" t="n">
         <v>4</v>
@@ -30444,7 +30444,7 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
@@ -30456,13 +30456,13 @@
         <v>240</v>
       </c>
       <c r="K418" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="L418" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M418" t="n">
-        <v>5750</v>
+        <v>3750</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         </is>
       </c>
       <c r="P418" t="n">
-        <v>319</v>
+        <v>208</v>
       </c>
       <c r="Q418" t="n">
         <v>18</v>
@@ -30501,7 +30501,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="E419" t="n">
         <v>4</v>
@@ -30516,7 +30516,7 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
@@ -30528,13 +30528,13 @@
         <v>200</v>
       </c>
       <c r="K419" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="L419" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M419" t="n">
-        <v>3750</v>
+        <v>1750</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         </is>
       </c>
       <c r="P419" t="n">
-        <v>208</v>
+        <v>97</v>
       </c>
       <c r="Q419" t="n">
         <v>18</v>
@@ -30588,7 +30588,7 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
@@ -30597,16 +30597,16 @@
         </is>
       </c>
       <c r="J420" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K420" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L420" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M420" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>319</v>
+        <v>431</v>
       </c>
       <c r="Q420" t="n">
         <v>18</v>
@@ -30660,7 +30660,7 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
@@ -30669,16 +30669,16 @@
         </is>
       </c>
       <c r="J421" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K421" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L421" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M421" t="n">
-        <v>3750</v>
+        <v>5750</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
@@ -30691,7 +30691,7 @@
         </is>
       </c>
       <c r="P421" t="n">
-        <v>208</v>
+        <v>319</v>
       </c>
       <c r="Q421" t="n">
         <v>18</v>
@@ -30732,7 +30732,7 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
@@ -30741,16 +30741,16 @@
         </is>
       </c>
       <c r="J422" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K422" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="L422" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="M422" t="n">
-        <v>1750</v>
+        <v>3750</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
@@ -30763,7 +30763,7 @@
         </is>
       </c>
       <c r="P422" t="n">
-        <v>97</v>
+        <v>208</v>
       </c>
       <c r="Q422" t="n">
         <v>18</v>
@@ -30789,7 +30789,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44476</v>
+        <v>44280</v>
       </c>
       <c r="E423" t="n">
         <v>4</v>
@@ -30813,16 +30813,16 @@
         </is>
       </c>
       <c r="J423" t="n">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="K423" t="n">
-        <v>32000</v>
+        <v>5500</v>
       </c>
       <c r="L423" t="n">
-        <v>33000</v>
+        <v>6000</v>
       </c>
       <c r="M423" t="n">
-        <v>32500</v>
+        <v>5750</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
@@ -30835,7 +30835,7 @@
         </is>
       </c>
       <c r="P423" t="n">
-        <v>1806</v>
+        <v>319</v>
       </c>
       <c r="Q423" t="n">
         <v>18</v>
@@ -30861,7 +30861,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44476</v>
+        <v>44280</v>
       </c>
       <c r="E424" t="n">
         <v>4</v>
@@ -30885,16 +30885,16 @@
         </is>
       </c>
       <c r="J424" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="K424" t="n">
-        <v>29000</v>
+        <v>3500</v>
       </c>
       <c r="L424" t="n">
-        <v>30000</v>
+        <v>4000</v>
       </c>
       <c r="M424" t="n">
-        <v>29500</v>
+        <v>3750</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
@@ -30907,7 +30907,7 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>1639</v>
+        <v>208</v>
       </c>
       <c r="Q424" t="n">
         <v>18</v>
@@ -30933,7 +30933,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44476</v>
+        <v>44280</v>
       </c>
       <c r="E425" t="n">
         <v>4</v>
@@ -30957,16 +30957,16 @@
         </is>
       </c>
       <c r="J425" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="K425" t="n">
-        <v>26000</v>
+        <v>1500</v>
       </c>
       <c r="L425" t="n">
-        <v>27000</v>
+        <v>2000</v>
       </c>
       <c r="M425" t="n">
-        <v>26500</v>
+        <v>1750</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>1472</v>
+        <v>97</v>
       </c>
       <c r="Q425" t="n">
         <v>18</v>
@@ -31005,7 +31005,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44482</v>
+        <v>44476</v>
       </c>
       <c r="E426" t="n">
         <v>4</v>
@@ -31029,16 +31029,16 @@
         </is>
       </c>
       <c r="J426" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="K426" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="L426" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="M426" t="n">
-        <v>29000</v>
+        <v>32500</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>1611</v>
+        <v>1806</v>
       </c>
       <c r="Q426" t="n">
         <v>18</v>
@@ -31077,7 +31077,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44482</v>
+        <v>44476</v>
       </c>
       <c r="E427" t="n">
         <v>4</v>
@@ -31101,16 +31101,16 @@
         </is>
       </c>
       <c r="J427" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K427" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="L427" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M427" t="n">
-        <v>26000</v>
+        <v>29500</v>
       </c>
       <c r="N427" t="inlineStr">
         <is>
@@ -31123,7 +31123,7 @@
         </is>
       </c>
       <c r="P427" t="n">
-        <v>1444</v>
+        <v>1639</v>
       </c>
       <c r="Q427" t="n">
         <v>18</v>
@@ -31149,7 +31149,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44482</v>
+        <v>44476</v>
       </c>
       <c r="E428" t="n">
         <v>4</v>
@@ -31173,16 +31173,16 @@
         </is>
       </c>
       <c r="J428" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K428" t="n">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="L428" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="M428" t="n">
-        <v>21000</v>
+        <v>26500</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         </is>
       </c>
       <c r="P428" t="n">
-        <v>1167</v>
+        <v>1472</v>
       </c>
       <c r="Q428" t="n">
         <v>18</v>
@@ -31221,7 +31221,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44293</v>
+        <v>44482</v>
       </c>
       <c r="E429" t="n">
         <v>4</v>
@@ -31245,16 +31245,16 @@
         </is>
       </c>
       <c r="J429" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K429" t="n">
-        <v>9500</v>
+        <v>28000</v>
       </c>
       <c r="L429" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="M429" t="n">
-        <v>9750</v>
+        <v>29000</v>
       </c>
       <c r="N429" t="inlineStr">
         <is>
@@ -31267,7 +31267,7 @@
         </is>
       </c>
       <c r="P429" t="n">
-        <v>542</v>
+        <v>1611</v>
       </c>
       <c r="Q429" t="n">
         <v>18</v>
@@ -31293,7 +31293,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44293</v>
+        <v>44482</v>
       </c>
       <c r="E430" t="n">
         <v>4</v>
@@ -31317,16 +31317,16 @@
         </is>
       </c>
       <c r="J430" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K430" t="n">
-        <v>7500</v>
+        <v>25000</v>
       </c>
       <c r="L430" t="n">
-        <v>8000</v>
+        <v>27000</v>
       </c>
       <c r="M430" t="n">
-        <v>7750</v>
+        <v>26000</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
@@ -31339,7 +31339,7 @@
         </is>
       </c>
       <c r="P430" t="n">
-        <v>431</v>
+        <v>1444</v>
       </c>
       <c r="Q430" t="n">
         <v>18</v>
@@ -31365,7 +31365,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44293</v>
+        <v>44482</v>
       </c>
       <c r="E431" t="n">
         <v>4</v>
@@ -31389,16 +31389,16 @@
         </is>
       </c>
       <c r="J431" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K431" t="n">
-        <v>5500</v>
+        <v>20000</v>
       </c>
       <c r="L431" t="n">
-        <v>6000</v>
+        <v>22000</v>
       </c>
       <c r="M431" t="n">
-        <v>5750</v>
+        <v>21000</v>
       </c>
       <c r="N431" t="inlineStr">
         <is>
@@ -31411,7 +31411,7 @@
         </is>
       </c>
       <c r="P431" t="n">
-        <v>319</v>
+        <v>1167</v>
       </c>
       <c r="Q431" t="n">
         <v>18</v>
@@ -31452,7 +31452,7 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
@@ -31464,17 +31464,17 @@
         <v>400</v>
       </c>
       <c r="K432" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="L432" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M432" t="n">
-        <v>5750</v>
+        <v>9750</v>
       </c>
       <c r="N432" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O432" t="inlineStr">
@@ -31483,10 +31483,10 @@
         </is>
       </c>
       <c r="P432" t="n">
-        <v>288</v>
+        <v>542</v>
       </c>
       <c r="Q432" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R432" t="inlineStr">
         <is>
@@ -31524,7 +31524,7 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
@@ -31536,17 +31536,17 @@
         <v>300</v>
       </c>
       <c r="K433" t="n">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="L433" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M433" t="n">
-        <v>3750</v>
+        <v>7750</v>
       </c>
       <c r="N433" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O433" t="inlineStr">
@@ -31555,10 +31555,10 @@
         </is>
       </c>
       <c r="P433" t="n">
-        <v>188</v>
+        <v>431</v>
       </c>
       <c r="Q433" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R433" t="inlineStr">
         <is>
@@ -31596,7 +31596,7 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
@@ -31608,17 +31608,17 @@
         <v>240</v>
       </c>
       <c r="K434" t="n">
-        <v>1500</v>
+        <v>5500</v>
       </c>
       <c r="L434" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="M434" t="n">
-        <v>1750</v>
+        <v>5750</v>
       </c>
       <c r="N434" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O434" t="inlineStr">
@@ -31627,10 +31627,10 @@
         </is>
       </c>
       <c r="P434" t="n">
-        <v>88</v>
+        <v>319</v>
       </c>
       <c r="Q434" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R434" t="inlineStr">
         <is>
@@ -31653,7 +31653,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44356</v>
+        <v>44293</v>
       </c>
       <c r="E435" t="n">
         <v>4</v>
@@ -31668,7 +31668,7 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
@@ -31677,20 +31677,20 @@
         </is>
       </c>
       <c r="J435" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K435" t="n">
-        <v>13000</v>
+        <v>5500</v>
       </c>
       <c r="L435" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="M435" t="n">
-        <v>13500</v>
+        <v>5750</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O435" t="inlineStr">
@@ -31699,10 +31699,10 @@
         </is>
       </c>
       <c r="P435" t="n">
-        <v>750</v>
+        <v>288</v>
       </c>
       <c r="Q435" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R435" t="inlineStr">
         <is>
@@ -31725,7 +31725,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44356</v>
+        <v>44293</v>
       </c>
       <c r="E436" t="n">
         <v>4</v>
@@ -31740,7 +31740,7 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
@@ -31752,17 +31752,17 @@
         <v>300</v>
       </c>
       <c r="K436" t="n">
-        <v>11000</v>
+        <v>3500</v>
       </c>
       <c r="L436" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="M436" t="n">
-        <v>11500</v>
+        <v>3750</v>
       </c>
       <c r="N436" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O436" t="inlineStr">
@@ -31771,10 +31771,10 @@
         </is>
       </c>
       <c r="P436" t="n">
-        <v>639</v>
+        <v>188</v>
       </c>
       <c r="Q436" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R436" t="inlineStr">
         <is>
@@ -31797,7 +31797,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44356</v>
+        <v>44293</v>
       </c>
       <c r="E437" t="n">
         <v>4</v>
@@ -31812,7 +31812,7 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
@@ -31821,20 +31821,20 @@
         </is>
       </c>
       <c r="J437" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K437" t="n">
-        <v>9000</v>
+        <v>1500</v>
       </c>
       <c r="L437" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="M437" t="n">
-        <v>9500</v>
+        <v>1750</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O437" t="inlineStr">
@@ -31843,10 +31843,10 @@
         </is>
       </c>
       <c r="P437" t="n">
-        <v>528</v>
+        <v>88</v>
       </c>
       <c r="Q437" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R437" t="inlineStr">
         <is>
@@ -31884,7 +31884,7 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
@@ -31896,13 +31896,13 @@
         <v>600</v>
       </c>
       <c r="K438" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L438" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M438" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         </is>
       </c>
       <c r="P438" t="n">
-        <v>694</v>
+        <v>750</v>
       </c>
       <c r="Q438" t="n">
         <v>18</v>
@@ -31956,7 +31956,7 @@
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I439" t="inlineStr">
@@ -31965,16 +31965,16 @@
         </is>
       </c>
       <c r="J439" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K439" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L439" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M439" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
@@ -31987,7 +31987,7 @@
         </is>
       </c>
       <c r="P439" t="n">
-        <v>583</v>
+        <v>639</v>
       </c>
       <c r="Q439" t="n">
         <v>18</v>
@@ -32028,7 +32028,7 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
@@ -32037,16 +32037,16 @@
         </is>
       </c>
       <c r="J440" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K440" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L440" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M440" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
@@ -32059,7 +32059,7 @@
         </is>
       </c>
       <c r="P440" t="n">
-        <v>472</v>
+        <v>528</v>
       </c>
       <c r="Q440" t="n">
         <v>18</v>
@@ -32100,7 +32100,7 @@
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I441" t="inlineStr">
@@ -32109,7 +32109,7 @@
         </is>
       </c>
       <c r="J441" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K441" t="n">
         <v>12000</v>
@@ -32172,7 +32172,7 @@
       </c>
       <c r="H442" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I442" t="inlineStr">
@@ -32181,7 +32181,7 @@
         </is>
       </c>
       <c r="J442" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K442" t="n">
         <v>10000</v>
@@ -32244,7 +32244,7 @@
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I443" t="inlineStr">
@@ -32301,7 +32301,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44469</v>
+        <v>44356</v>
       </c>
       <c r="E444" t="n">
         <v>4</v>
@@ -32316,7 +32316,7 @@
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I444" t="inlineStr">
@@ -32325,16 +32325,16 @@
         </is>
       </c>
       <c r="J444" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K444" t="n">
-        <v>34000</v>
+        <v>12000</v>
       </c>
       <c r="L444" t="n">
-        <v>35000</v>
+        <v>13000</v>
       </c>
       <c r="M444" t="n">
-        <v>34500</v>
+        <v>12500</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
@@ -32347,7 +32347,7 @@
         </is>
       </c>
       <c r="P444" t="n">
-        <v>1917</v>
+        <v>694</v>
       </c>
       <c r="Q444" t="n">
         <v>18</v>
@@ -32373,7 +32373,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44469</v>
+        <v>44356</v>
       </c>
       <c r="E445" t="n">
         <v>4</v>
@@ -32388,7 +32388,7 @@
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
@@ -32397,16 +32397,16 @@
         </is>
       </c>
       <c r="J445" t="n">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="K445" t="n">
-        <v>31000</v>
+        <v>10000</v>
       </c>
       <c r="L445" t="n">
-        <v>32000</v>
+        <v>11000</v>
       </c>
       <c r="M445" t="n">
-        <v>31500</v>
+        <v>10500</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         </is>
       </c>
       <c r="P445" t="n">
-        <v>1750</v>
+        <v>583</v>
       </c>
       <c r="Q445" t="n">
         <v>18</v>
@@ -32445,7 +32445,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44469</v>
+        <v>44356</v>
       </c>
       <c r="E446" t="n">
         <v>4</v>
@@ -32460,7 +32460,7 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
@@ -32472,13 +32472,13 @@
         <v>300</v>
       </c>
       <c r="K446" t="n">
-        <v>27000</v>
+        <v>8000</v>
       </c>
       <c r="L446" t="n">
-        <v>28000</v>
+        <v>9000</v>
       </c>
       <c r="M446" t="n">
-        <v>27500</v>
+        <v>8500</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
@@ -32491,7 +32491,7 @@
         </is>
       </c>
       <c r="P446" t="n">
-        <v>1528</v>
+        <v>472</v>
       </c>
       <c r="Q446" t="n">
         <v>18</v>
@@ -32517,7 +32517,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44504</v>
+        <v>44469</v>
       </c>
       <c r="E447" t="n">
         <v>4</v>
@@ -32541,16 +32541,16 @@
         </is>
       </c>
       <c r="J447" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K447" t="n">
-        <v>23000</v>
+        <v>34000</v>
       </c>
       <c r="L447" t="n">
-        <v>24000</v>
+        <v>35000</v>
       </c>
       <c r="M447" t="n">
-        <v>23500</v>
+        <v>34500</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
@@ -32563,7 +32563,7 @@
         </is>
       </c>
       <c r="P447" t="n">
-        <v>1306</v>
+        <v>1917</v>
       </c>
       <c r="Q447" t="n">
         <v>18</v>
@@ -32589,7 +32589,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44504</v>
+        <v>44469</v>
       </c>
       <c r="E448" t="n">
         <v>4</v>
@@ -32613,16 +32613,16 @@
         </is>
       </c>
       <c r="J448" t="n">
-        <v>700</v>
+        <v>360</v>
       </c>
       <c r="K448" t="n">
-        <v>18000</v>
+        <v>31000</v>
       </c>
       <c r="L448" t="n">
-        <v>19000</v>
+        <v>32000</v>
       </c>
       <c r="M448" t="n">
-        <v>18500</v>
+        <v>31500</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         </is>
       </c>
       <c r="P448" t="n">
-        <v>1028</v>
+        <v>1750</v>
       </c>
       <c r="Q448" t="n">
         <v>18</v>
@@ -32661,7 +32661,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44504</v>
+        <v>44469</v>
       </c>
       <c r="E449" t="n">
         <v>4</v>
@@ -32685,16 +32685,16 @@
         </is>
       </c>
       <c r="J449" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K449" t="n">
-        <v>13000</v>
+        <v>27000</v>
       </c>
       <c r="L449" t="n">
-        <v>14000</v>
+        <v>28000</v>
       </c>
       <c r="M449" t="n">
-        <v>13500</v>
+        <v>27500</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
@@ -32707,7 +32707,7 @@
         </is>
       </c>
       <c r="P449" t="n">
-        <v>750</v>
+        <v>1528</v>
       </c>
       <c r="Q449" t="n">
         <v>18</v>
@@ -32733,7 +32733,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E450" t="n">
         <v>4</v>
@@ -32760,13 +32760,13 @@
         <v>1000</v>
       </c>
       <c r="K450" t="n">
-        <v>11500</v>
+        <v>23000</v>
       </c>
       <c r="L450" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="M450" t="n">
-        <v>11750</v>
+        <v>23500</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
@@ -32779,7 +32779,7 @@
         </is>
       </c>
       <c r="P450" t="n">
-        <v>653</v>
+        <v>1306</v>
       </c>
       <c r="Q450" t="n">
         <v>18</v>
@@ -32805,7 +32805,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E451" t="n">
         <v>4</v>
@@ -32829,16 +32829,16 @@
         </is>
       </c>
       <c r="J451" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K451" t="n">
-        <v>9500</v>
+        <v>18000</v>
       </c>
       <c r="L451" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="M451" t="n">
-        <v>9750</v>
+        <v>18500</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
@@ -32851,7 +32851,7 @@
         </is>
       </c>
       <c r="P451" t="n">
-        <v>542</v>
+        <v>1028</v>
       </c>
       <c r="Q451" t="n">
         <v>18</v>
@@ -32877,7 +32877,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E452" t="n">
         <v>4</v>
@@ -32901,16 +32901,16 @@
         </is>
       </c>
       <c r="J452" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="K452" t="n">
-        <v>6500</v>
+        <v>13000</v>
       </c>
       <c r="L452" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M452" t="n">
-        <v>6750</v>
+        <v>13500</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
@@ -32923,7 +32923,7 @@
         </is>
       </c>
       <c r="P452" t="n">
-        <v>375</v>
+        <v>750</v>
       </c>
       <c r="Q452" t="n">
         <v>18</v>
@@ -32964,7 +32964,7 @@
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I453" t="inlineStr">
@@ -32973,16 +32973,16 @@
         </is>
       </c>
       <c r="J453" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K453" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="L453" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M453" t="n">
-        <v>10750</v>
+        <v>11750</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
@@ -32995,7 +32995,7 @@
         </is>
       </c>
       <c r="P453" t="n">
-        <v>597</v>
+        <v>653</v>
       </c>
       <c r="Q453" t="n">
         <v>18</v>
@@ -33036,7 +33036,7 @@
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I454" t="inlineStr">
@@ -33048,13 +33048,13 @@
         <v>500</v>
       </c>
       <c r="K454" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="L454" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M454" t="n">
-        <v>8750</v>
+        <v>9750</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
@@ -33067,7 +33067,7 @@
         </is>
       </c>
       <c r="P454" t="n">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="Q454" t="n">
         <v>18</v>
@@ -33108,7 +33108,7 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
@@ -33117,7 +33117,7 @@
         </is>
       </c>
       <c r="J455" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K455" t="n">
         <v>6500</v>
@@ -33165,7 +33165,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44343</v>
+        <v>44384</v>
       </c>
       <c r="E456" t="n">
         <v>4</v>
@@ -33180,7 +33180,7 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
@@ -33189,16 +33189,16 @@
         </is>
       </c>
       <c r="J456" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K456" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="L456" t="n">
         <v>11000</v>
       </c>
       <c r="M456" t="n">
-        <v>10500</v>
+        <v>10750</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
@@ -33211,7 +33211,7 @@
         </is>
       </c>
       <c r="P456" t="n">
-        <v>583</v>
+        <v>597</v>
       </c>
       <c r="Q456" t="n">
         <v>18</v>
@@ -33237,7 +33237,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44343</v>
+        <v>44384</v>
       </c>
       <c r="E457" t="n">
         <v>4</v>
@@ -33252,7 +33252,7 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
@@ -33261,16 +33261,16 @@
         </is>
       </c>
       <c r="J457" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K457" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="L457" t="n">
         <v>9000</v>
       </c>
       <c r="M457" t="n">
-        <v>8500</v>
+        <v>8750</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
@@ -33283,7 +33283,7 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="Q457" t="n">
         <v>18</v>
@@ -33309,7 +33309,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44343</v>
+        <v>44384</v>
       </c>
       <c r="E458" t="n">
         <v>4</v>
@@ -33324,7 +33324,7 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
@@ -33336,13 +33336,13 @@
         <v>300</v>
       </c>
       <c r="K458" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L458" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M458" t="n">
-        <v>5500</v>
+        <v>6750</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         </is>
       </c>
       <c r="P458" t="n">
-        <v>306</v>
+        <v>375</v>
       </c>
       <c r="Q458" t="n">
         <v>18</v>
@@ -33396,7 +33396,7 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
@@ -33405,16 +33405,16 @@
         </is>
       </c>
       <c r="J459" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K459" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L459" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M459" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
@@ -33427,7 +33427,7 @@
         </is>
       </c>
       <c r="P459" t="n">
-        <v>806</v>
+        <v>583</v>
       </c>
       <c r="Q459" t="n">
         <v>18</v>
@@ -33468,7 +33468,7 @@
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
@@ -33477,16 +33477,16 @@
         </is>
       </c>
       <c r="J460" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K460" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L460" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M460" t="n">
-        <v>12500</v>
+        <v>8500</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
@@ -33499,7 +33499,7 @@
         </is>
       </c>
       <c r="P460" t="n">
-        <v>694</v>
+        <v>472</v>
       </c>
       <c r="Q460" t="n">
         <v>18</v>
@@ -33540,7 +33540,7 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
@@ -33549,16 +33549,16 @@
         </is>
       </c>
       <c r="J461" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K461" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L461" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="M461" t="n">
-        <v>10500</v>
+        <v>5500</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
@@ -33571,7 +33571,7 @@
         </is>
       </c>
       <c r="P461" t="n">
-        <v>583</v>
+        <v>306</v>
       </c>
       <c r="Q461" t="n">
         <v>18</v>
@@ -33597,7 +33597,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E462" t="n">
         <v>4</v>
@@ -33612,7 +33612,7 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
@@ -33621,16 +33621,16 @@
         </is>
       </c>
       <c r="J462" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K462" t="n">
-        <v>16500</v>
+        <v>14000</v>
       </c>
       <c r="L462" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M462" t="n">
-        <v>16750</v>
+        <v>14500</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
@@ -33643,7 +33643,7 @@
         </is>
       </c>
       <c r="P462" t="n">
-        <v>931</v>
+        <v>806</v>
       </c>
       <c r="Q462" t="n">
         <v>18</v>
@@ -33669,7 +33669,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E463" t="n">
         <v>4</v>
@@ -33684,7 +33684,7 @@
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
@@ -33696,13 +33696,13 @@
         <v>500</v>
       </c>
       <c r="K463" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="L463" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M463" t="n">
-        <v>13750</v>
+        <v>12500</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
@@ -33715,7 +33715,7 @@
         </is>
       </c>
       <c r="P463" t="n">
-        <v>764</v>
+        <v>694</v>
       </c>
       <c r="Q463" t="n">
         <v>18</v>
@@ -33741,7 +33741,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E464" t="n">
         <v>4</v>
@@ -33756,7 +33756,7 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
@@ -33765,16 +33765,16 @@
         </is>
       </c>
       <c r="J464" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K464" t="n">
-        <v>11500</v>
+        <v>10000</v>
       </c>
       <c r="L464" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M464" t="n">
-        <v>11750</v>
+        <v>10500</v>
       </c>
       <c r="N464" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         </is>
       </c>
       <c r="P464" t="n">
-        <v>653</v>
+        <v>583</v>
       </c>
       <c r="Q464" t="n">
         <v>18</v>
@@ -33828,7 +33828,7 @@
       </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I465" t="inlineStr">
@@ -33840,13 +33840,13 @@
         <v>700</v>
       </c>
       <c r="K465" t="n">
-        <v>15500</v>
+        <v>16500</v>
       </c>
       <c r="L465" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M465" t="n">
-        <v>15750</v>
+        <v>16750</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
@@ -33859,7 +33859,7 @@
         </is>
       </c>
       <c r="P465" t="n">
-        <v>875</v>
+        <v>931</v>
       </c>
       <c r="Q465" t="n">
         <v>18</v>
@@ -33900,7 +33900,7 @@
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
@@ -33912,13 +33912,13 @@
         <v>500</v>
       </c>
       <c r="K466" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="L466" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M466" t="n">
-        <v>12750</v>
+        <v>13750</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
@@ -33931,7 +33931,7 @@
         </is>
       </c>
       <c r="P466" t="n">
-        <v>708</v>
+        <v>764</v>
       </c>
       <c r="Q466" t="n">
         <v>18</v>
@@ -33972,7 +33972,7 @@
       </c>
       <c r="H467" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I467" t="inlineStr">
@@ -33984,13 +33984,13 @@
         <v>300</v>
       </c>
       <c r="K467" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="L467" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M467" t="n">
-        <v>9750</v>
+        <v>11750</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
@@ -34003,7 +34003,7 @@
         </is>
       </c>
       <c r="P467" t="n">
-        <v>542</v>
+        <v>653</v>
       </c>
       <c r="Q467" t="n">
         <v>18</v>
@@ -34044,7 +34044,7 @@
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I468" t="inlineStr">
@@ -34056,13 +34056,13 @@
         <v>700</v>
       </c>
       <c r="K468" t="n">
-        <v>13500</v>
+        <v>15500</v>
       </c>
       <c r="L468" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M468" t="n">
-        <v>13750</v>
+        <v>15750</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         </is>
       </c>
       <c r="P468" t="n">
-        <v>764</v>
+        <v>875</v>
       </c>
       <c r="Q468" t="n">
         <v>18</v>
@@ -34116,7 +34116,7 @@
       </c>
       <c r="H469" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I469" t="inlineStr">
@@ -34125,16 +34125,16 @@
         </is>
       </c>
       <c r="J469" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K469" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="L469" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M469" t="n">
-        <v>11750</v>
+        <v>12750</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
@@ -34147,7 +34147,7 @@
         </is>
       </c>
       <c r="P469" t="n">
-        <v>653</v>
+        <v>708</v>
       </c>
       <c r="Q469" t="n">
         <v>18</v>
@@ -34188,7 +34188,7 @@
       </c>
       <c r="H470" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I470" t="inlineStr">
@@ -34197,7 +34197,7 @@
         </is>
       </c>
       <c r="J470" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K470" t="n">
         <v>9500</v>
@@ -34245,7 +34245,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E471" t="n">
         <v>4</v>
@@ -34260,7 +34260,7 @@
       </c>
       <c r="H471" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I471" t="inlineStr">
@@ -34269,16 +34269,16 @@
         </is>
       </c>
       <c r="J471" t="n">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="K471" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="L471" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="M471" t="n">
-        <v>13250</v>
+        <v>13750</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
@@ -34291,7 +34291,7 @@
         </is>
       </c>
       <c r="P471" t="n">
-        <v>736</v>
+        <v>764</v>
       </c>
       <c r="Q471" t="n">
         <v>18</v>
@@ -34317,7 +34317,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E472" t="n">
         <v>4</v>
@@ -34332,7 +34332,7 @@
       </c>
       <c r="H472" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I472" t="inlineStr">
@@ -34341,16 +34341,16 @@
         </is>
       </c>
       <c r="J472" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K472" t="n">
-        <v>8000</v>
+        <v>11500</v>
       </c>
       <c r="L472" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="M472" t="n">
-        <v>8250</v>
+        <v>11750</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
@@ -34363,7 +34363,7 @@
         </is>
       </c>
       <c r="P472" t="n">
-        <v>458</v>
+        <v>653</v>
       </c>
       <c r="Q472" t="n">
         <v>18</v>
@@ -34389,7 +34389,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E473" t="n">
         <v>4</v>
@@ -34404,7 +34404,7 @@
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
@@ -34413,16 +34413,16 @@
         </is>
       </c>
       <c r="J473" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K473" t="n">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="L473" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="M473" t="n">
-        <v>5250</v>
+        <v>9750</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
@@ -34435,7 +34435,7 @@
         </is>
       </c>
       <c r="P473" t="n">
-        <v>292</v>
+        <v>542</v>
       </c>
       <c r="Q473" t="n">
         <v>18</v>
@@ -34461,7 +34461,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E474" t="n">
         <v>4</v>
@@ -34485,16 +34485,16 @@
         </is>
       </c>
       <c r="J474" t="n">
-        <v>300</v>
+        <v>1300</v>
       </c>
       <c r="K474" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L474" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="M474" t="n">
-        <v>9500</v>
+        <v>13250</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
@@ -34507,7 +34507,7 @@
         </is>
       </c>
       <c r="P474" t="n">
-        <v>528</v>
+        <v>736</v>
       </c>
       <c r="Q474" t="n">
         <v>18</v>
@@ -34533,7 +34533,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E475" t="n">
         <v>4</v>
@@ -34557,16 +34557,16 @@
         </is>
       </c>
       <c r="J475" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K475" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L475" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="M475" t="n">
-        <v>7500</v>
+        <v>8250</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         </is>
       </c>
       <c r="P475" t="n">
-        <v>417</v>
+        <v>458</v>
       </c>
       <c r="Q475" t="n">
         <v>18</v>
@@ -34605,7 +34605,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E476" t="n">
         <v>4</v>
@@ -34629,16 +34629,16 @@
         </is>
       </c>
       <c r="J476" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="K476" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L476" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M476" t="n">
-        <v>4500</v>
+        <v>5250</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
@@ -34651,7 +34651,7 @@
         </is>
       </c>
       <c r="P476" t="n">
-        <v>250</v>
+        <v>292</v>
       </c>
       <c r="Q476" t="n">
         <v>18</v>
@@ -34677,7 +34677,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E477" t="n">
         <v>4</v>
@@ -34701,16 +34701,16 @@
         </is>
       </c>
       <c r="J477" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K477" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L477" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M477" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
@@ -34723,7 +34723,7 @@
         </is>
       </c>
       <c r="P477" t="n">
-        <v>806</v>
+        <v>528</v>
       </c>
       <c r="Q477" t="n">
         <v>18</v>
@@ -34749,7 +34749,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E478" t="n">
         <v>4</v>
@@ -34773,16 +34773,16 @@
         </is>
       </c>
       <c r="J478" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K478" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L478" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M478" t="n">
-        <v>12500</v>
+        <v>7500</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
@@ -34795,7 +34795,7 @@
         </is>
       </c>
       <c r="P478" t="n">
-        <v>694</v>
+        <v>417</v>
       </c>
       <c r="Q478" t="n">
         <v>18</v>
@@ -34821,7 +34821,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E479" t="n">
         <v>4</v>
@@ -34845,16 +34845,16 @@
         </is>
       </c>
       <c r="J479" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K479" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="L479" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="M479" t="n">
-        <v>10500</v>
+        <v>4500</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
@@ -34867,7 +34867,7 @@
         </is>
       </c>
       <c r="P479" t="n">
-        <v>583</v>
+        <v>250</v>
       </c>
       <c r="Q479" t="n">
         <v>18</v>
@@ -34908,7 +34908,7 @@
       </c>
       <c r="H480" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I480" t="inlineStr">
@@ -34920,13 +34920,13 @@
         <v>600</v>
       </c>
       <c r="K480" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L480" t="n">
         <v>15000</v>
       </c>
-      <c r="L480" t="n">
-        <v>16000</v>
-      </c>
       <c r="M480" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
@@ -34939,7 +34939,7 @@
         </is>
       </c>
       <c r="P480" t="n">
-        <v>861</v>
+        <v>806</v>
       </c>
       <c r="Q480" t="n">
         <v>18</v>
@@ -34980,7 +34980,7 @@
       </c>
       <c r="H481" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I481" t="inlineStr">
@@ -35052,7 +35052,7 @@
       </c>
       <c r="H482" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I482" t="inlineStr">
@@ -35061,7 +35061,7 @@
         </is>
       </c>
       <c r="J482" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K482" t="n">
         <v>10000</v>
@@ -35109,7 +35109,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E483" t="n">
         <v>4</v>
@@ -35124,7 +35124,7 @@
       </c>
       <c r="H483" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I483" t="inlineStr">
@@ -35133,16 +35133,16 @@
         </is>
       </c>
       <c r="J483" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="K483" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="L483" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="M483" t="n">
-        <v>5500</v>
+        <v>15500</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
@@ -35155,7 +35155,7 @@
         </is>
       </c>
       <c r="P483" t="n">
-        <v>306</v>
+        <v>861</v>
       </c>
       <c r="Q483" t="n">
         <v>18</v>
@@ -35181,7 +35181,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E484" t="n">
         <v>4</v>
@@ -35196,7 +35196,7 @@
       </c>
       <c r="H484" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I484" t="inlineStr">
@@ -35205,16 +35205,16 @@
         </is>
       </c>
       <c r="J484" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K484" t="n">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="L484" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="M484" t="n">
-        <v>3500</v>
+        <v>12500</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
@@ -35227,7 +35227,7 @@
         </is>
       </c>
       <c r="P484" t="n">
-        <v>194</v>
+        <v>694</v>
       </c>
       <c r="Q484" t="n">
         <v>18</v>
@@ -35253,7 +35253,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E485" t="n">
         <v>4</v>
@@ -35268,25 +35268,25 @@
       </c>
       <c r="H485" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J485" t="n">
-        <v>1200</v>
+        <v>240</v>
       </c>
       <c r="K485" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="L485" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="M485" t="n">
-        <v>4500</v>
+        <v>10500</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         </is>
       </c>
       <c r="P485" t="n">
-        <v>250</v>
+        <v>583</v>
       </c>
       <c r="Q485" t="n">
         <v>18</v>
@@ -35340,25 +35340,25 @@
       </c>
       <c r="H486" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J486" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="K486" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="L486" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M486" t="n">
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         </is>
       </c>
       <c r="P486" t="n">
-        <v>139</v>
+        <v>306</v>
       </c>
       <c r="Q486" t="n">
         <v>18</v>
@@ -35412,25 +35412,25 @@
       </c>
       <c r="H487" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J487" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="K487" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L487" t="n">
         <v>4000</v>
       </c>
-      <c r="L487" t="n">
-        <v>5000</v>
-      </c>
       <c r="M487" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="N487" t="inlineStr">
         <is>
@@ -35443,7 +35443,7 @@
         </is>
       </c>
       <c r="P487" t="n">
-        <v>250</v>
+        <v>194</v>
       </c>
       <c r="Q487" t="n">
         <v>18</v>
@@ -35484,25 +35484,25 @@
       </c>
       <c r="H488" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I488" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J488" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="K488" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="L488" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M488" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="N488" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
         </is>
       </c>
       <c r="P488" t="n">
-        <v>139</v>
+        <v>250</v>
       </c>
       <c r="Q488" t="n">
         <v>18</v>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44181</v>
+        <v>44286</v>
       </c>
       <c r="E489" t="n">
         <v>4</v>
@@ -35561,20 +35561,20 @@
       </c>
       <c r="I489" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J489" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="K489" t="n">
-        <v>9000</v>
+        <v>2000</v>
       </c>
       <c r="L489" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="M489" t="n">
-        <v>9500</v>
+        <v>2500</v>
       </c>
       <c r="N489" t="inlineStr">
         <is>
@@ -35587,7 +35587,7 @@
         </is>
       </c>
       <c r="P489" t="n">
-        <v>528</v>
+        <v>139</v>
       </c>
       <c r="Q489" t="n">
         <v>18</v>
@@ -35613,7 +35613,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44181</v>
+        <v>44286</v>
       </c>
       <c r="E490" t="n">
         <v>4</v>
@@ -35628,25 +35628,25 @@
       </c>
       <c r="H490" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J490" t="n">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="K490" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L490" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M490" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="N490" t="inlineStr">
         <is>
@@ -35659,7 +35659,7 @@
         </is>
       </c>
       <c r="P490" t="n">
-        <v>417</v>
+        <v>250</v>
       </c>
       <c r="Q490" t="n">
         <v>18</v>
@@ -35685,7 +35685,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44181</v>
+        <v>44286</v>
       </c>
       <c r="E491" t="n">
         <v>4</v>
@@ -35700,25 +35700,25 @@
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J491" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="K491" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="L491" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M491" t="n">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="N491" t="inlineStr">
         <is>
@@ -35731,7 +35731,7 @@
         </is>
       </c>
       <c r="P491" t="n">
-        <v>306</v>
+        <v>139</v>
       </c>
       <c r="Q491" t="n">
         <v>18</v>
@@ -35757,7 +35757,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44328</v>
+        <v>44181</v>
       </c>
       <c r="E492" t="n">
         <v>4</v>
@@ -35781,16 +35781,16 @@
         </is>
       </c>
       <c r="J492" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K492" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L492" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M492" t="n">
-        <v>7750</v>
+        <v>9500</v>
       </c>
       <c r="N492" t="inlineStr">
         <is>
@@ -35803,7 +35803,7 @@
         </is>
       </c>
       <c r="P492" t="n">
-        <v>431</v>
+        <v>528</v>
       </c>
       <c r="Q492" t="n">
         <v>18</v>
@@ -35829,7 +35829,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44328</v>
+        <v>44181</v>
       </c>
       <c r="E493" t="n">
         <v>4</v>
@@ -35853,16 +35853,16 @@
         </is>
       </c>
       <c r="J493" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K493" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L493" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M493" t="n">
-        <v>5750</v>
+        <v>7500</v>
       </c>
       <c r="N493" t="inlineStr">
         <is>
@@ -35875,7 +35875,7 @@
         </is>
       </c>
       <c r="P493" t="n">
-        <v>319</v>
+        <v>417</v>
       </c>
       <c r="Q493" t="n">
         <v>18</v>
@@ -35901,7 +35901,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44328</v>
+        <v>44181</v>
       </c>
       <c r="E494" t="n">
         <v>4</v>
@@ -35925,16 +35925,16 @@
         </is>
       </c>
       <c r="J494" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K494" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L494" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M494" t="n">
-        <v>3750</v>
+        <v>5500</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
@@ -35947,7 +35947,7 @@
         </is>
       </c>
       <c r="P494" t="n">
-        <v>208</v>
+        <v>306</v>
       </c>
       <c r="Q494" t="n">
         <v>18</v>
@@ -35988,7 +35988,7 @@
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I495" t="inlineStr">
@@ -35997,16 +35997,16 @@
         </is>
       </c>
       <c r="J495" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K495" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="L495" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M495" t="n">
-        <v>11750</v>
+        <v>7750</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         </is>
       </c>
       <c r="P495" t="n">
-        <v>653</v>
+        <v>431</v>
       </c>
       <c r="Q495" t="n">
         <v>18</v>
@@ -36060,7 +36060,7 @@
       </c>
       <c r="H496" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I496" t="inlineStr">
@@ -36069,16 +36069,16 @@
         </is>
       </c>
       <c r="J496" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K496" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="L496" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M496" t="n">
-        <v>9750</v>
+        <v>5750</v>
       </c>
       <c r="N496" t="inlineStr">
         <is>
@@ -36091,7 +36091,7 @@
         </is>
       </c>
       <c r="P496" t="n">
-        <v>542</v>
+        <v>319</v>
       </c>
       <c r="Q496" t="n">
         <v>18</v>
@@ -36132,7 +36132,7 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
@@ -36141,16 +36141,16 @@
         </is>
       </c>
       <c r="J497" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K497" t="n">
-        <v>7500</v>
+        <v>3500</v>
       </c>
       <c r="L497" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M497" t="n">
-        <v>7750</v>
+        <v>3750</v>
       </c>
       <c r="N497" t="inlineStr">
         <is>
@@ -36163,7 +36163,7 @@
         </is>
       </c>
       <c r="P497" t="n">
-        <v>431</v>
+        <v>208</v>
       </c>
       <c r="Q497" t="n">
         <v>18</v>
@@ -36189,7 +36189,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E498" t="n">
         <v>4</v>
@@ -36204,7 +36204,7 @@
       </c>
       <c r="H498" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I498" t="inlineStr">
@@ -36213,16 +36213,16 @@
         </is>
       </c>
       <c r="J498" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K498" t="n">
-        <v>7000</v>
+        <v>11500</v>
       </c>
       <c r="L498" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M498" t="n">
-        <v>7500</v>
+        <v>11750</v>
       </c>
       <c r="N498" t="inlineStr">
         <is>
@@ -36235,7 +36235,7 @@
         </is>
       </c>
       <c r="P498" t="n">
-        <v>417</v>
+        <v>653</v>
       </c>
       <c r="Q498" t="n">
         <v>18</v>
@@ -36261,7 +36261,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E499" t="n">
         <v>4</v>
@@ -36276,7 +36276,7 @@
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I499" t="inlineStr">
@@ -36285,16 +36285,16 @@
         </is>
       </c>
       <c r="J499" t="n">
-        <v>240</v>
+        <v>800</v>
       </c>
       <c r="K499" t="n">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="L499" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M499" t="n">
-        <v>5500</v>
+        <v>9750</v>
       </c>
       <c r="N499" t="inlineStr">
         <is>
@@ -36307,7 +36307,7 @@
         </is>
       </c>
       <c r="P499" t="n">
-        <v>306</v>
+        <v>542</v>
       </c>
       <c r="Q499" t="n">
         <v>18</v>
@@ -36333,7 +36333,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E500" t="n">
         <v>4</v>
@@ -36348,7 +36348,7 @@
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I500" t="inlineStr">
@@ -36357,16 +36357,16 @@
         </is>
       </c>
       <c r="J500" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="K500" t="n">
-        <v>3000</v>
+        <v>7500</v>
       </c>
       <c r="L500" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M500" t="n">
-        <v>3500</v>
+        <v>7750</v>
       </c>
       <c r="N500" t="inlineStr">
         <is>
@@ -36379,7 +36379,7 @@
         </is>
       </c>
       <c r="P500" t="n">
-        <v>194</v>
+        <v>431</v>
       </c>
       <c r="Q500" t="n">
         <v>18</v>
@@ -36420,7 +36420,7 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
@@ -36429,16 +36429,16 @@
         </is>
       </c>
       <c r="J501" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K501" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L501" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M501" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="N501" t="inlineStr">
         <is>
@@ -36451,7 +36451,7 @@
         </is>
       </c>
       <c r="P501" t="n">
-        <v>306</v>
+        <v>417</v>
       </c>
       <c r="Q501" t="n">
         <v>18</v>
@@ -36492,7 +36492,7 @@
       </c>
       <c r="H502" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I502" t="inlineStr">
@@ -36501,16 +36501,16 @@
         </is>
       </c>
       <c r="J502" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="K502" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L502" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M502" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="N502" t="inlineStr">
         <is>
@@ -36523,7 +36523,7 @@
         </is>
       </c>
       <c r="P502" t="n">
-        <v>194</v>
+        <v>306</v>
       </c>
       <c r="Q502" t="n">
         <v>18</v>
@@ -36549,7 +36549,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44217</v>
+        <v>44301</v>
       </c>
       <c r="E503" t="n">
         <v>4</v>
@@ -36569,20 +36569,20 @@
       </c>
       <c r="I503" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J503" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K503" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L503" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M503" t="n">
-        <v>6750</v>
+        <v>3500</v>
       </c>
       <c r="N503" t="inlineStr">
         <is>
@@ -36595,7 +36595,7 @@
         </is>
       </c>
       <c r="P503" t="n">
-        <v>375</v>
+        <v>194</v>
       </c>
       <c r="Q503" t="n">
         <v>18</v>
@@ -36621,7 +36621,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44217</v>
+        <v>44301</v>
       </c>
       <c r="E504" t="n">
         <v>4</v>
@@ -36636,25 +36636,25 @@
       </c>
       <c r="H504" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I504" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J504" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K504" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L504" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M504" t="n">
-        <v>4750</v>
+        <v>5500</v>
       </c>
       <c r="N504" t="inlineStr">
         <is>
@@ -36667,7 +36667,7 @@
         </is>
       </c>
       <c r="P504" t="n">
-        <v>264</v>
+        <v>306</v>
       </c>
       <c r="Q504" t="n">
         <v>18</v>
@@ -36693,7 +36693,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44217</v>
+        <v>44301</v>
       </c>
       <c r="E505" t="n">
         <v>4</v>
@@ -36708,25 +36708,25 @@
       </c>
       <c r="H505" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I505" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J505" t="n">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="K505" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L505" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M505" t="n">
-        <v>2750</v>
+        <v>3500</v>
       </c>
       <c r="N505" t="inlineStr">
         <is>
@@ -36739,7 +36739,7 @@
         </is>
       </c>
       <c r="P505" t="n">
-        <v>153</v>
+        <v>194</v>
       </c>
       <c r="Q505" t="n">
         <v>18</v>
@@ -36765,7 +36765,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E506" t="n">
         <v>4</v>
@@ -36780,7 +36780,7 @@
       </c>
       <c r="H506" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I506" t="inlineStr">
@@ -36792,13 +36792,13 @@
         <v>400</v>
       </c>
       <c r="K506" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="L506" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M506" t="n">
-        <v>10500</v>
+        <v>6750</v>
       </c>
       <c r="N506" t="inlineStr">
         <is>
@@ -36811,7 +36811,7 @@
         </is>
       </c>
       <c r="P506" t="n">
-        <v>583</v>
+        <v>375</v>
       </c>
       <c r="Q506" t="n">
         <v>18</v>
@@ -36837,7 +36837,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E507" t="n">
         <v>4</v>
@@ -36852,7 +36852,7 @@
       </c>
       <c r="H507" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I507" t="inlineStr">
@@ -36861,16 +36861,16 @@
         </is>
       </c>
       <c r="J507" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K507" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L507" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M507" t="n">
-        <v>7500</v>
+        <v>4750</v>
       </c>
       <c r="N507" t="inlineStr">
         <is>
@@ -36883,7 +36883,7 @@
         </is>
       </c>
       <c r="P507" t="n">
-        <v>417</v>
+        <v>264</v>
       </c>
       <c r="Q507" t="n">
         <v>18</v>
@@ -36909,7 +36909,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E508" t="n">
         <v>4</v>
@@ -36924,7 +36924,7 @@
       </c>
       <c r="H508" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I508" t="inlineStr">
@@ -36933,16 +36933,16 @@
         </is>
       </c>
       <c r="J508" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="K508" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="L508" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M508" t="n">
-        <v>5500</v>
+        <v>2750</v>
       </c>
       <c r="N508" t="inlineStr">
         <is>
@@ -36955,7 +36955,7 @@
         </is>
       </c>
       <c r="P508" t="n">
-        <v>306</v>
+        <v>153</v>
       </c>
       <c r="Q508" t="n">
         <v>18</v>
@@ -36996,7 +36996,7 @@
       </c>
       <c r="H509" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I509" t="inlineStr">
@@ -37005,16 +37005,16 @@
         </is>
       </c>
       <c r="J509" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K509" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="L509" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="M509" t="n">
-        <v>4750</v>
+        <v>10500</v>
       </c>
       <c r="N509" t="inlineStr">
         <is>
@@ -37027,7 +37027,7 @@
         </is>
       </c>
       <c r="P509" t="n">
-        <v>264</v>
+        <v>583</v>
       </c>
       <c r="Q509" t="n">
         <v>18</v>
@@ -37068,7 +37068,7 @@
       </c>
       <c r="H510" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I510" t="inlineStr">
@@ -37080,13 +37080,13 @@
         <v>300</v>
       </c>
       <c r="K510" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="L510" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="M510" t="n">
-        <v>2750</v>
+        <v>7500</v>
       </c>
       <c r="N510" t="inlineStr">
         <is>
@@ -37099,7 +37099,7 @@
         </is>
       </c>
       <c r="P510" t="n">
-        <v>153</v>
+        <v>417</v>
       </c>
       <c r="Q510" t="n">
         <v>18</v>
@@ -37140,25 +37140,25 @@
       </c>
       <c r="H511" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I511" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J511" t="n">
-        <v>600</v>
+        <v>160</v>
       </c>
       <c r="K511" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="L511" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="M511" t="n">
-        <v>15500</v>
+        <v>5500</v>
       </c>
       <c r="N511" t="inlineStr">
         <is>
@@ -37171,7 +37171,7 @@
         </is>
       </c>
       <c r="P511" t="n">
-        <v>861</v>
+        <v>306</v>
       </c>
       <c r="Q511" t="n">
         <v>18</v>
@@ -37212,25 +37212,25 @@
       </c>
       <c r="H512" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I512" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J512" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K512" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="L512" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="M512" t="n">
-        <v>12500</v>
+        <v>4750</v>
       </c>
       <c r="N512" t="inlineStr">
         <is>
@@ -37243,7 +37243,7 @@
         </is>
       </c>
       <c r="P512" t="n">
-        <v>694</v>
+        <v>264</v>
       </c>
       <c r="Q512" t="n">
         <v>18</v>
@@ -37269,7 +37269,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E513" t="n">
         <v>4</v>
@@ -37284,25 +37284,25 @@
       </c>
       <c r="H513" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I513" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J513" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K513" t="n">
-        <v>9500</v>
+        <v>2500</v>
       </c>
       <c r="L513" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="M513" t="n">
-        <v>9750</v>
+        <v>2750</v>
       </c>
       <c r="N513" t="inlineStr">
         <is>
@@ -37315,7 +37315,7 @@
         </is>
       </c>
       <c r="P513" t="n">
-        <v>542</v>
+        <v>153</v>
       </c>
       <c r="Q513" t="n">
         <v>18</v>
@@ -37341,7 +37341,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E514" t="n">
         <v>4</v>
@@ -37356,25 +37356,25 @@
       </c>
       <c r="H514" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I514" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J514" t="n">
-        <v>220</v>
+        <v>600</v>
       </c>
       <c r="K514" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="L514" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="M514" t="n">
-        <v>7955</v>
+        <v>15500</v>
       </c>
       <c r="N514" t="inlineStr">
         <is>
@@ -37387,7 +37387,7 @@
         </is>
       </c>
       <c r="P514" t="n">
-        <v>442</v>
+        <v>861</v>
       </c>
       <c r="Q514" t="n">
         <v>18</v>
@@ -37413,7 +37413,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E515" t="n">
         <v>4</v>
@@ -37428,25 +37428,25 @@
       </c>
       <c r="H515" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I515" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J515" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="K515" t="n">
-        <v>5500</v>
+        <v>12000</v>
       </c>
       <c r="L515" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="M515" t="n">
-        <v>5750</v>
+        <v>12500</v>
       </c>
       <c r="N515" t="inlineStr">
         <is>
@@ -37459,7 +37459,7 @@
         </is>
       </c>
       <c r="P515" t="n">
-        <v>319</v>
+        <v>694</v>
       </c>
       <c r="Q515" t="n">
         <v>18</v>
@@ -37500,7 +37500,7 @@
       </c>
       <c r="H516" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I516" t="inlineStr">
@@ -37509,16 +37509,16 @@
         </is>
       </c>
       <c r="J516" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K516" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L516" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M516" t="n">
-        <v>7750</v>
+        <v>9750</v>
       </c>
       <c r="N516" t="inlineStr">
         <is>
@@ -37531,7 +37531,7 @@
         </is>
       </c>
       <c r="P516" t="n">
-        <v>431</v>
+        <v>542</v>
       </c>
       <c r="Q516" t="n">
         <v>18</v>
@@ -37572,7 +37572,7 @@
       </c>
       <c r="H517" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I517" t="inlineStr">
@@ -37581,16 +37581,16 @@
         </is>
       </c>
       <c r="J517" t="n">
-        <v>400</v>
+        <v>220</v>
       </c>
       <c r="K517" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L517" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M517" t="n">
-        <v>5750</v>
+        <v>7955</v>
       </c>
       <c r="N517" t="inlineStr">
         <is>
@@ -37603,7 +37603,7 @@
         </is>
       </c>
       <c r="P517" t="n">
-        <v>319</v>
+        <v>442</v>
       </c>
       <c r="Q517" t="n">
         <v>18</v>
@@ -37644,7 +37644,7 @@
       </c>
       <c r="H518" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I518" t="inlineStr">
@@ -37656,13 +37656,13 @@
         <v>160</v>
       </c>
       <c r="K518" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L518" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M518" t="n">
-        <v>3750</v>
+        <v>5750</v>
       </c>
       <c r="N518" t="inlineStr">
         <is>
@@ -37675,7 +37675,7 @@
         </is>
       </c>
       <c r="P518" t="n">
-        <v>208</v>
+        <v>319</v>
       </c>
       <c r="Q518" t="n">
         <v>18</v>
@@ -37716,7 +37716,7 @@
       </c>
       <c r="H519" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I519" t="inlineStr">
@@ -37728,13 +37728,13 @@
         <v>700</v>
       </c>
       <c r="K519" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L519" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M519" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N519" t="inlineStr">
         <is>
@@ -37747,7 +37747,7 @@
         </is>
       </c>
       <c r="P519" t="n">
-        <v>319</v>
+        <v>431</v>
       </c>
       <c r="Q519" t="n">
         <v>18</v>
@@ -37788,7 +37788,7 @@
       </c>
       <c r="H520" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I520" t="inlineStr">
@@ -37797,16 +37797,16 @@
         </is>
       </c>
       <c r="J520" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K520" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L520" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M520" t="n">
-        <v>3750</v>
+        <v>5750</v>
       </c>
       <c r="N520" t="inlineStr">
         <is>
@@ -37819,7 +37819,7 @@
         </is>
       </c>
       <c r="P520" t="n">
-        <v>208</v>
+        <v>319</v>
       </c>
       <c r="Q520" t="n">
         <v>18</v>
@@ -37860,7 +37860,7 @@
       </c>
       <c r="H521" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I521" t="inlineStr">
@@ -37869,16 +37869,16 @@
         </is>
       </c>
       <c r="J521" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K521" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="L521" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="M521" t="n">
-        <v>2250</v>
+        <v>3750</v>
       </c>
       <c r="N521" t="inlineStr">
         <is>
@@ -37891,7 +37891,7 @@
         </is>
       </c>
       <c r="P521" t="n">
-        <v>125</v>
+        <v>208</v>
       </c>
       <c r="Q521" t="n">
         <v>18</v>
@@ -37917,7 +37917,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E522" t="n">
         <v>4</v>
@@ -37932,7 +37932,7 @@
       </c>
       <c r="H522" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I522" t="inlineStr">
@@ -37941,16 +37941,16 @@
         </is>
       </c>
       <c r="J522" t="n">
-        <v>240</v>
+        <v>700</v>
       </c>
       <c r="K522" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L522" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M522" t="n">
-        <v>7750</v>
+        <v>5750</v>
       </c>
       <c r="N522" t="inlineStr">
         <is>
@@ -37963,7 +37963,7 @@
         </is>
       </c>
       <c r="P522" t="n">
-        <v>431</v>
+        <v>319</v>
       </c>
       <c r="Q522" t="n">
         <v>18</v>
@@ -37989,7 +37989,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E523" t="n">
         <v>4</v>
@@ -38004,7 +38004,7 @@
       </c>
       <c r="H523" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I523" t="inlineStr">
@@ -38013,16 +38013,16 @@
         </is>
       </c>
       <c r="J523" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="K523" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="L523" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M523" t="n">
-        <v>5750</v>
+        <v>3750</v>
       </c>
       <c r="N523" t="inlineStr">
         <is>
@@ -38035,7 +38035,7 @@
         </is>
       </c>
       <c r="P523" t="n">
-        <v>319</v>
+        <v>208</v>
       </c>
       <c r="Q523" t="n">
         <v>18</v>
@@ -38061,7 +38061,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E524" t="n">
         <v>4</v>
@@ -38076,7 +38076,7 @@
       </c>
       <c r="H524" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I524" t="inlineStr">
@@ -38085,16 +38085,16 @@
         </is>
       </c>
       <c r="J524" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K524" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="L524" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="M524" t="n">
-        <v>3750</v>
+        <v>2250</v>
       </c>
       <c r="N524" t="inlineStr">
         <is>
@@ -38107,7 +38107,7 @@
         </is>
       </c>
       <c r="P524" t="n">
-        <v>208</v>
+        <v>125</v>
       </c>
       <c r="Q524" t="n">
         <v>18</v>
@@ -38148,7 +38148,7 @@
       </c>
       <c r="H525" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I525" t="inlineStr">
@@ -38157,16 +38157,16 @@
         </is>
       </c>
       <c r="J525" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="K525" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L525" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M525" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N525" t="inlineStr">
         <is>
@@ -38179,7 +38179,7 @@
         </is>
       </c>
       <c r="P525" t="n">
-        <v>319</v>
+        <v>431</v>
       </c>
       <c r="Q525" t="n">
         <v>18</v>
@@ -38220,7 +38220,7 @@
       </c>
       <c r="H526" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I526" t="inlineStr">
@@ -38229,16 +38229,16 @@
         </is>
       </c>
       <c r="J526" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K526" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L526" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M526" t="n">
-        <v>3750</v>
+        <v>5750</v>
       </c>
       <c r="N526" t="inlineStr">
         <is>
@@ -38251,7 +38251,7 @@
         </is>
       </c>
       <c r="P526" t="n">
-        <v>208</v>
+        <v>319</v>
       </c>
       <c r="Q526" t="n">
         <v>18</v>
@@ -38292,7 +38292,7 @@
       </c>
       <c r="H527" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I527" t="inlineStr">
@@ -38301,16 +38301,16 @@
         </is>
       </c>
       <c r="J527" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="K527" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="L527" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="M527" t="n">
-        <v>1750</v>
+        <v>3750</v>
       </c>
       <c r="N527" t="inlineStr">
         <is>
@@ -38323,7 +38323,7 @@
         </is>
       </c>
       <c r="P527" t="n">
-        <v>97</v>
+        <v>208</v>
       </c>
       <c r="Q527" t="n">
         <v>18</v>
@@ -38349,7 +38349,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E528" t="n">
         <v>4</v>
@@ -38373,16 +38373,16 @@
         </is>
       </c>
       <c r="J528" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K528" t="n">
-        <v>24000</v>
+        <v>5500</v>
       </c>
       <c r="L528" t="n">
-        <v>25000</v>
+        <v>6000</v>
       </c>
       <c r="M528" t="n">
-        <v>24500</v>
+        <v>5750</v>
       </c>
       <c r="N528" t="inlineStr">
         <is>
@@ -38395,7 +38395,7 @@
         </is>
       </c>
       <c r="P528" t="n">
-        <v>1361</v>
+        <v>319</v>
       </c>
       <c r="Q528" t="n">
         <v>18</v>
@@ -38421,7 +38421,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E529" t="n">
         <v>4</v>
@@ -38445,16 +38445,16 @@
         </is>
       </c>
       <c r="J529" t="n">
-        <v>470</v>
+        <v>400</v>
       </c>
       <c r="K529" t="n">
-        <v>22000</v>
+        <v>3500</v>
       </c>
       <c r="L529" t="n">
-        <v>23000</v>
+        <v>4000</v>
       </c>
       <c r="M529" t="n">
-        <v>22532</v>
+        <v>3750</v>
       </c>
       <c r="N529" t="inlineStr">
         <is>
@@ -38467,7 +38467,7 @@
         </is>
       </c>
       <c r="P529" t="n">
-        <v>1252</v>
+        <v>208</v>
       </c>
       <c r="Q529" t="n">
         <v>18</v>
@@ -38493,7 +38493,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E530" t="n">
         <v>4</v>
@@ -38517,16 +38517,16 @@
         </is>
       </c>
       <c r="J530" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K530" t="n">
-        <v>18000</v>
+        <v>1500</v>
       </c>
       <c r="L530" t="n">
-        <v>19000</v>
+        <v>2000</v>
       </c>
       <c r="M530" t="n">
-        <v>18500</v>
+        <v>1750</v>
       </c>
       <c r="N530" t="inlineStr">
         <is>
@@ -38539,7 +38539,7 @@
         </is>
       </c>
       <c r="P530" t="n">
-        <v>1028</v>
+        <v>97</v>
       </c>
       <c r="Q530" t="n">
         <v>18</v>
@@ -38580,7 +38580,7 @@
       </c>
       <c r="H531" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I531" t="inlineStr">
@@ -38592,13 +38592,13 @@
         <v>600</v>
       </c>
       <c r="K531" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="L531" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M531" t="n">
-        <v>29000</v>
+        <v>24500</v>
       </c>
       <c r="N531" t="inlineStr">
         <is>
@@ -38611,7 +38611,7 @@
         </is>
       </c>
       <c r="P531" t="n">
-        <v>1611</v>
+        <v>1361</v>
       </c>
       <c r="Q531" t="n">
         <v>18</v>
@@ -38652,7 +38652,7 @@
       </c>
       <c r="H532" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I532" t="inlineStr">
@@ -38661,16 +38661,16 @@
         </is>
       </c>
       <c r="J532" t="n">
-        <v>600</v>
+        <v>470</v>
       </c>
       <c r="K532" t="n">
+        <v>22000</v>
+      </c>
+      <c r="L532" t="n">
         <v>23000</v>
       </c>
-      <c r="L532" t="n">
-        <v>25000</v>
-      </c>
       <c r="M532" t="n">
-        <v>24000</v>
+        <v>22532</v>
       </c>
       <c r="N532" t="inlineStr">
         <is>
@@ -38683,7 +38683,7 @@
         </is>
       </c>
       <c r="P532" t="n">
-        <v>1333</v>
+        <v>1252</v>
       </c>
       <c r="Q532" t="n">
         <v>18</v>
@@ -38724,7 +38724,7 @@
       </c>
       <c r="H533" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I533" t="inlineStr">
@@ -38733,34 +38733,250 @@
         </is>
       </c>
       <c r="J533" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K533" t="n">
         <v>18000</v>
       </c>
       <c r="L533" t="n">
+        <v>19000</v>
+      </c>
+      <c r="M533" t="n">
+        <v>18500</v>
+      </c>
+      <c r="N533" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O533" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P533" t="n">
+        <v>1028</v>
+      </c>
+      <c r="Q533" t="n">
+        <v>18</v>
+      </c>
+      <c r="R533" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="n">
+        <v>2</v>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D534" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="E534" t="n">
+        <v>4</v>
+      </c>
+      <c r="F534" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G534" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H534" t="inlineStr">
+        <is>
+          <t>Morrón rojo</t>
+        </is>
+      </c>
+      <c r="I534" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J534" t="n">
+        <v>600</v>
+      </c>
+      <c r="K534" t="n">
+        <v>28000</v>
+      </c>
+      <c r="L534" t="n">
+        <v>30000</v>
+      </c>
+      <c r="M534" t="n">
+        <v>29000</v>
+      </c>
+      <c r="N534" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O534" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P534" t="n">
+        <v>1611</v>
+      </c>
+      <c r="Q534" t="n">
+        <v>18</v>
+      </c>
+      <c r="R534" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="n">
+        <v>2</v>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D535" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="E535" t="n">
+        <v>4</v>
+      </c>
+      <c r="F535" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G535" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H535" t="inlineStr">
+        <is>
+          <t>Morrón rojo</t>
+        </is>
+      </c>
+      <c r="I535" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J535" t="n">
+        <v>600</v>
+      </c>
+      <c r="K535" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L535" t="n">
+        <v>25000</v>
+      </c>
+      <c r="M535" t="n">
+        <v>24000</v>
+      </c>
+      <c r="N535" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O535" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P535" t="n">
+        <v>1333</v>
+      </c>
+      <c r="Q535" t="n">
+        <v>18</v>
+      </c>
+      <c r="R535" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="n">
+        <v>2</v>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D536" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="E536" t="n">
+        <v>4</v>
+      </c>
+      <c r="F536" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G536" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H536" t="inlineStr">
+        <is>
+          <t>Morrón rojo</t>
+        </is>
+      </c>
+      <c r="I536" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J536" t="n">
+        <v>360</v>
+      </c>
+      <c r="K536" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L536" t="n">
         <v>20000</v>
       </c>
-      <c r="M533" t="n">
+      <c r="M536" t="n">
         <v>19000</v>
       </c>
-      <c r="N533" t="inlineStr">
-        <is>
-          <t>$/caja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O533" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P533" t="n">
+      <c r="N536" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O536" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P536" t="n">
         <v>1056</v>
       </c>
-      <c r="Q533" t="n">
-        <v>18</v>
-      </c>
-      <c r="R533" t="inlineStr">
+      <c r="Q536" t="n">
+        <v>18</v>
+      </c>
+      <c r="R536" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pimiento.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pimiento.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R542"/>
+  <dimension ref="A1:R548"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29997,7 +29997,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44426</v>
+        <v>44524</v>
       </c>
       <c r="E412" t="n">
         <v>4</v>
@@ -30012,7 +30012,7 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
@@ -30021,16 +30021,16 @@
         </is>
       </c>
       <c r="J412" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="K412" t="n">
-        <v>29000</v>
+        <v>24000</v>
       </c>
       <c r="L412" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M412" t="n">
-        <v>29500</v>
+        <v>24357</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
@@ -30043,7 +30043,7 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>1639</v>
+        <v>1353</v>
       </c>
       <c r="Q412" t="n">
         <v>18</v>
@@ -30069,7 +30069,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44426</v>
+        <v>44524</v>
       </c>
       <c r="E413" t="n">
         <v>4</v>
@@ -30084,7 +30084,7 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
@@ -30093,16 +30093,16 @@
         </is>
       </c>
       <c r="J413" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="K413" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="L413" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M413" t="n">
-        <v>24500</v>
+        <v>19500</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
@@ -30115,7 +30115,7 @@
         </is>
       </c>
       <c r="P413" t="n">
-        <v>1361</v>
+        <v>1083</v>
       </c>
       <c r="Q413" t="n">
         <v>18</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44426</v>
+        <v>44524</v>
       </c>
       <c r="E414" t="n">
         <v>4</v>
@@ -30156,7 +30156,7 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
@@ -30165,16 +30165,16 @@
         </is>
       </c>
       <c r="J414" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K414" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L414" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M414" t="n">
-        <v>19500</v>
+        <v>14500</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
@@ -30187,7 +30187,7 @@
         </is>
       </c>
       <c r="P414" t="n">
-        <v>1083</v>
+        <v>806</v>
       </c>
       <c r="Q414" t="n">
         <v>18</v>
@@ -30213,7 +30213,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44426</v>
+        <v>44524</v>
       </c>
       <c r="E415" t="n">
         <v>4</v>
@@ -30228,7 +30228,7 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
@@ -30237,20 +30237,20 @@
         </is>
       </c>
       <c r="J415" t="n">
-        <v>240</v>
+        <v>800</v>
       </c>
       <c r="K415" t="n">
-        <v>29000</v>
+        <v>11000</v>
       </c>
       <c r="L415" t="n">
-        <v>30000</v>
+        <v>12000</v>
       </c>
       <c r="M415" t="n">
-        <v>29500</v>
+        <v>11500</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O415" t="inlineStr">
@@ -30259,10 +30259,10 @@
         </is>
       </c>
       <c r="P415" t="n">
-        <v>1475</v>
+        <v>639</v>
       </c>
       <c r="Q415" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R415" t="inlineStr">
         <is>
@@ -30285,7 +30285,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44426</v>
+        <v>44524</v>
       </c>
       <c r="E416" t="n">
         <v>4</v>
@@ -30300,7 +30300,7 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
@@ -30309,20 +30309,20 @@
         </is>
       </c>
       <c r="J416" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K416" t="n">
-        <v>26000</v>
+        <v>8000</v>
       </c>
       <c r="L416" t="n">
-        <v>27000</v>
+        <v>9000</v>
       </c>
       <c r="M416" t="n">
-        <v>26500</v>
+        <v>8500</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O416" t="inlineStr">
@@ -30331,10 +30331,10 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>1325</v>
+        <v>472</v>
       </c>
       <c r="Q416" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R416" t="inlineStr">
         <is>
@@ -30357,7 +30357,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44426</v>
+        <v>44524</v>
       </c>
       <c r="E417" t="n">
         <v>4</v>
@@ -30372,7 +30372,7 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
@@ -30381,20 +30381,20 @@
         </is>
       </c>
       <c r="J417" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K417" t="n">
-        <v>21000</v>
+        <v>5000</v>
       </c>
       <c r="L417" t="n">
-        <v>22000</v>
+        <v>6000</v>
       </c>
       <c r="M417" t="n">
-        <v>21500</v>
+        <v>5500</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O417" t="inlineStr">
@@ -30403,10 +30403,10 @@
         </is>
       </c>
       <c r="P417" t="n">
-        <v>1075</v>
+        <v>306</v>
       </c>
       <c r="Q417" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R417" t="inlineStr">
         <is>
@@ -30429,7 +30429,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44448</v>
+        <v>44426</v>
       </c>
       <c r="E418" t="n">
         <v>4</v>
@@ -30453,16 +30453,16 @@
         </is>
       </c>
       <c r="J418" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="K418" t="n">
-        <v>31000</v>
+        <v>29000</v>
       </c>
       <c r="L418" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="M418" t="n">
-        <v>31500</v>
+        <v>29500</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         </is>
       </c>
       <c r="P418" t="n">
-        <v>1750</v>
+        <v>1639</v>
       </c>
       <c r="Q418" t="n">
         <v>18</v>
@@ -30501,7 +30501,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44448</v>
+        <v>44426</v>
       </c>
       <c r="E419" t="n">
         <v>4</v>
@@ -30525,16 +30525,16 @@
         </is>
       </c>
       <c r="J419" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K419" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="L419" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M419" t="n">
-        <v>27500</v>
+        <v>24500</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         </is>
       </c>
       <c r="P419" t="n">
-        <v>1528</v>
+        <v>1361</v>
       </c>
       <c r="Q419" t="n">
         <v>18</v>
@@ -30573,7 +30573,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44448</v>
+        <v>44426</v>
       </c>
       <c r="E420" t="n">
         <v>4</v>
@@ -30597,16 +30597,16 @@
         </is>
       </c>
       <c r="J420" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K420" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="L420" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="M420" t="n">
-        <v>22500</v>
+        <v>19500</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>1250</v>
+        <v>1083</v>
       </c>
       <c r="Q420" t="n">
         <v>18</v>
@@ -30645,7 +30645,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44448</v>
+        <v>44426</v>
       </c>
       <c r="E421" t="n">
         <v>4</v>
@@ -30669,20 +30669,20 @@
         </is>
       </c>
       <c r="J421" t="n">
-        <v>700</v>
+        <v>240</v>
       </c>
       <c r="K421" t="n">
-        <v>38000</v>
+        <v>29000</v>
       </c>
       <c r="L421" t="n">
-        <v>39000</v>
+        <v>30000</v>
       </c>
       <c r="M421" t="n">
-        <v>38500</v>
+        <v>29500</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O421" t="inlineStr">
@@ -30691,10 +30691,10 @@
         </is>
       </c>
       <c r="P421" t="n">
-        <v>2139</v>
+        <v>1475</v>
       </c>
       <c r="Q421" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R421" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44448</v>
+        <v>44426</v>
       </c>
       <c r="E422" t="n">
         <v>4</v>
@@ -30741,20 +30741,20 @@
         </is>
       </c>
       <c r="J422" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K422" t="n">
-        <v>35000</v>
+        <v>26000</v>
       </c>
       <c r="L422" t="n">
-        <v>36000</v>
+        <v>27000</v>
       </c>
       <c r="M422" t="n">
-        <v>35500</v>
+        <v>26500</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O422" t="inlineStr">
@@ -30763,10 +30763,10 @@
         </is>
       </c>
       <c r="P422" t="n">
-        <v>1972</v>
+        <v>1325</v>
       </c>
       <c r="Q422" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R422" t="inlineStr">
         <is>
@@ -30789,7 +30789,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44448</v>
+        <v>44426</v>
       </c>
       <c r="E423" t="n">
         <v>4</v>
@@ -30813,20 +30813,20 @@
         </is>
       </c>
       <c r="J423" t="n">
-        <v>360</v>
+        <v>160</v>
       </c>
       <c r="K423" t="n">
-        <v>31000</v>
+        <v>21000</v>
       </c>
       <c r="L423" t="n">
-        <v>32000</v>
+        <v>22000</v>
       </c>
       <c r="M423" t="n">
-        <v>31500</v>
+        <v>21500</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O423" t="inlineStr">
@@ -30835,10 +30835,10 @@
         </is>
       </c>
       <c r="P423" t="n">
-        <v>1750</v>
+        <v>1075</v>
       </c>
       <c r="Q423" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R423" t="inlineStr">
         <is>
@@ -30861,7 +30861,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44210</v>
+        <v>44448</v>
       </c>
       <c r="E424" t="n">
         <v>4</v>
@@ -30876,7 +30876,7 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
@@ -30885,16 +30885,16 @@
         </is>
       </c>
       <c r="J424" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K424" t="n">
-        <v>9500</v>
+        <v>31000</v>
       </c>
       <c r="L424" t="n">
-        <v>10000</v>
+        <v>32000</v>
       </c>
       <c r="M424" t="n">
-        <v>9750</v>
+        <v>31500</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
@@ -30907,7 +30907,7 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>542</v>
+        <v>1750</v>
       </c>
       <c r="Q424" t="n">
         <v>18</v>
@@ -30933,7 +30933,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44210</v>
+        <v>44448</v>
       </c>
       <c r="E425" t="n">
         <v>4</v>
@@ -30948,7 +30948,7 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
@@ -30957,16 +30957,16 @@
         </is>
       </c>
       <c r="J425" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="K425" t="n">
-        <v>7500</v>
+        <v>27000</v>
       </c>
       <c r="L425" t="n">
-        <v>8000</v>
+        <v>28000</v>
       </c>
       <c r="M425" t="n">
-        <v>7750</v>
+        <v>27500</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>431</v>
+        <v>1528</v>
       </c>
       <c r="Q425" t="n">
         <v>18</v>
@@ -31005,7 +31005,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44210</v>
+        <v>44448</v>
       </c>
       <c r="E426" t="n">
         <v>4</v>
@@ -31020,7 +31020,7 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
@@ -31029,16 +31029,16 @@
         </is>
       </c>
       <c r="J426" t="n">
-        <v>340</v>
+        <v>240</v>
       </c>
       <c r="K426" t="n">
-        <v>5500</v>
+        <v>22000</v>
       </c>
       <c r="L426" t="n">
-        <v>6000</v>
+        <v>23000</v>
       </c>
       <c r="M426" t="n">
-        <v>5750</v>
+        <v>22500</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>319</v>
+        <v>1250</v>
       </c>
       <c r="Q426" t="n">
         <v>18</v>
@@ -31077,7 +31077,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44210</v>
+        <v>44448</v>
       </c>
       <c r="E427" t="n">
         <v>4</v>
@@ -31092,7 +31092,7 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
@@ -31101,16 +31101,16 @@
         </is>
       </c>
       <c r="J427" t="n">
-        <v>540</v>
+        <v>700</v>
       </c>
       <c r="K427" t="n">
-        <v>6500</v>
+        <v>38000</v>
       </c>
       <c r="L427" t="n">
-        <v>7000</v>
+        <v>39000</v>
       </c>
       <c r="M427" t="n">
-        <v>6750</v>
+        <v>38500</v>
       </c>
       <c r="N427" t="inlineStr">
         <is>
@@ -31123,7 +31123,7 @@
         </is>
       </c>
       <c r="P427" t="n">
-        <v>375</v>
+        <v>2139</v>
       </c>
       <c r="Q427" t="n">
         <v>18</v>
@@ -31149,7 +31149,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44210</v>
+        <v>44448</v>
       </c>
       <c r="E428" t="n">
         <v>4</v>
@@ -31164,7 +31164,7 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
@@ -31173,16 +31173,16 @@
         </is>
       </c>
       <c r="J428" t="n">
-        <v>440</v>
+        <v>600</v>
       </c>
       <c r="K428" t="n">
-        <v>4500</v>
+        <v>35000</v>
       </c>
       <c r="L428" t="n">
-        <v>5000</v>
+        <v>36000</v>
       </c>
       <c r="M428" t="n">
-        <v>4750</v>
+        <v>35500</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         </is>
       </c>
       <c r="P428" t="n">
-        <v>264</v>
+        <v>1972</v>
       </c>
       <c r="Q428" t="n">
         <v>18</v>
@@ -31221,7 +31221,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44210</v>
+        <v>44448</v>
       </c>
       <c r="E429" t="n">
         <v>4</v>
@@ -31236,7 +31236,7 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
@@ -31245,16 +31245,16 @@
         </is>
       </c>
       <c r="J429" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K429" t="n">
-        <v>2500</v>
+        <v>31000</v>
       </c>
       <c r="L429" t="n">
-        <v>3000</v>
+        <v>32000</v>
       </c>
       <c r="M429" t="n">
-        <v>2750</v>
+        <v>31500</v>
       </c>
       <c r="N429" t="inlineStr">
         <is>
@@ -31267,7 +31267,7 @@
         </is>
       </c>
       <c r="P429" t="n">
-        <v>153</v>
+        <v>1750</v>
       </c>
       <c r="Q429" t="n">
         <v>18</v>
@@ -31293,7 +31293,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44301</v>
+        <v>44210</v>
       </c>
       <c r="E430" t="n">
         <v>4</v>
@@ -31308,7 +31308,7 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
@@ -31317,16 +31317,16 @@
         </is>
       </c>
       <c r="J430" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K430" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="L430" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M430" t="n">
-        <v>7500</v>
+        <v>9750</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
@@ -31339,7 +31339,7 @@
         </is>
       </c>
       <c r="P430" t="n">
-        <v>417</v>
+        <v>542</v>
       </c>
       <c r="Q430" t="n">
         <v>18</v>
@@ -31365,7 +31365,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44301</v>
+        <v>44210</v>
       </c>
       <c r="E431" t="n">
         <v>4</v>
@@ -31380,7 +31380,7 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
@@ -31389,16 +31389,16 @@
         </is>
       </c>
       <c r="J431" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="K431" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="L431" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M431" t="n">
-        <v>5500</v>
+        <v>7750</v>
       </c>
       <c r="N431" t="inlineStr">
         <is>
@@ -31411,7 +31411,7 @@
         </is>
       </c>
       <c r="P431" t="n">
-        <v>306</v>
+        <v>431</v>
       </c>
       <c r="Q431" t="n">
         <v>18</v>
@@ -31437,7 +31437,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44301</v>
+        <v>44210</v>
       </c>
       <c r="E432" t="n">
         <v>4</v>
@@ -31452,7 +31452,7 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
@@ -31461,16 +31461,16 @@
         </is>
       </c>
       <c r="J432" t="n">
-        <v>240</v>
+        <v>340</v>
       </c>
       <c r="K432" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L432" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M432" t="n">
-        <v>3500</v>
+        <v>5750</v>
       </c>
       <c r="N432" t="inlineStr">
         <is>
@@ -31483,7 +31483,7 @@
         </is>
       </c>
       <c r="P432" t="n">
-        <v>194</v>
+        <v>319</v>
       </c>
       <c r="Q432" t="n">
         <v>18</v>
@@ -31509,7 +31509,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44301</v>
+        <v>44210</v>
       </c>
       <c r="E433" t="n">
         <v>4</v>
@@ -31524,7 +31524,7 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
@@ -31533,16 +31533,16 @@
         </is>
       </c>
       <c r="J433" t="n">
-        <v>700</v>
+        <v>540</v>
       </c>
       <c r="K433" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L433" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M433" t="n">
-        <v>5500</v>
+        <v>6750</v>
       </c>
       <c r="N433" t="inlineStr">
         <is>
@@ -31555,7 +31555,7 @@
         </is>
       </c>
       <c r="P433" t="n">
-        <v>306</v>
+        <v>375</v>
       </c>
       <c r="Q433" t="n">
         <v>18</v>
@@ -31581,7 +31581,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44301</v>
+        <v>44210</v>
       </c>
       <c r="E434" t="n">
         <v>4</v>
@@ -31596,7 +31596,7 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
@@ -31605,16 +31605,16 @@
         </is>
       </c>
       <c r="J434" t="n">
-        <v>600</v>
+        <v>440</v>
       </c>
       <c r="K434" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L434" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M434" t="n">
-        <v>3500</v>
+        <v>4750</v>
       </c>
       <c r="N434" t="inlineStr">
         <is>
@@ -31627,7 +31627,7 @@
         </is>
       </c>
       <c r="P434" t="n">
-        <v>194</v>
+        <v>264</v>
       </c>
       <c r="Q434" t="n">
         <v>18</v>
@@ -31653,7 +31653,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44441</v>
+        <v>44210</v>
       </c>
       <c r="E435" t="n">
         <v>4</v>
@@ -31673,20 +31673,20 @@
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J435" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="K435" t="n">
-        <v>29000</v>
+        <v>2500</v>
       </c>
       <c r="L435" t="n">
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="M435" t="n">
-        <v>29500</v>
+        <v>2750</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
@@ -31699,7 +31699,7 @@
         </is>
       </c>
       <c r="P435" t="n">
-        <v>1639</v>
+        <v>153</v>
       </c>
       <c r="Q435" t="n">
         <v>18</v>
@@ -31725,7 +31725,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44441</v>
+        <v>44301</v>
       </c>
       <c r="E436" t="n">
         <v>4</v>
@@ -31745,20 +31745,20 @@
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J436" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K436" t="n">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="L436" t="n">
-        <v>27000</v>
+        <v>8000</v>
       </c>
       <c r="M436" t="n">
-        <v>26500</v>
+        <v>7500</v>
       </c>
       <c r="N436" t="inlineStr">
         <is>
@@ -31771,7 +31771,7 @@
         </is>
       </c>
       <c r="P436" t="n">
-        <v>1472</v>
+        <v>417</v>
       </c>
       <c r="Q436" t="n">
         <v>18</v>
@@ -31797,7 +31797,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44441</v>
+        <v>44301</v>
       </c>
       <c r="E437" t="n">
         <v>4</v>
@@ -31817,20 +31817,20 @@
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J437" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K437" t="n">
-        <v>23000</v>
+        <v>5000</v>
       </c>
       <c r="L437" t="n">
-        <v>25000</v>
+        <v>6000</v>
       </c>
       <c r="M437" t="n">
-        <v>24000</v>
+        <v>5500</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
@@ -31843,7 +31843,7 @@
         </is>
       </c>
       <c r="P437" t="n">
-        <v>1333</v>
+        <v>306</v>
       </c>
       <c r="Q437" t="n">
         <v>18</v>
@@ -31869,7 +31869,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44441</v>
+        <v>44301</v>
       </c>
       <c r="E438" t="n">
         <v>4</v>
@@ -31884,25 +31884,25 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J438" t="n">
-        <v>700</v>
+        <v>240</v>
       </c>
       <c r="K438" t="n">
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="L438" t="n">
-        <v>31000</v>
+        <v>4000</v>
       </c>
       <c r="M438" t="n">
-        <v>30500</v>
+        <v>3500</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         </is>
       </c>
       <c r="P438" t="n">
-        <v>1694</v>
+        <v>194</v>
       </c>
       <c r="Q438" t="n">
         <v>18</v>
@@ -31941,7 +31941,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44441</v>
+        <v>44301</v>
       </c>
       <c r="E439" t="n">
         <v>4</v>
@@ -31961,20 +31961,20 @@
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J439" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K439" t="n">
-        <v>27000</v>
+        <v>5000</v>
       </c>
       <c r="L439" t="n">
-        <v>28000</v>
+        <v>6000</v>
       </c>
       <c r="M439" t="n">
-        <v>27500</v>
+        <v>5500</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
@@ -31987,7 +31987,7 @@
         </is>
       </c>
       <c r="P439" t="n">
-        <v>1528</v>
+        <v>306</v>
       </c>
       <c r="Q439" t="n">
         <v>18</v>
@@ -32013,7 +32013,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44441</v>
+        <v>44301</v>
       </c>
       <c r="E440" t="n">
         <v>4</v>
@@ -32033,20 +32033,20 @@
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J440" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K440" t="n">
-        <v>24000</v>
+        <v>3000</v>
       </c>
       <c r="L440" t="n">
-        <v>25000</v>
+        <v>4000</v>
       </c>
       <c r="M440" t="n">
-        <v>24500</v>
+        <v>3500</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
@@ -32059,7 +32059,7 @@
         </is>
       </c>
       <c r="P440" t="n">
-        <v>1361</v>
+        <v>194</v>
       </c>
       <c r="Q440" t="n">
         <v>18</v>
@@ -32085,7 +32085,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44279</v>
+        <v>44441</v>
       </c>
       <c r="E441" t="n">
         <v>4</v>
@@ -32100,7 +32100,7 @@
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I441" t="inlineStr">
@@ -32109,16 +32109,16 @@
         </is>
       </c>
       <c r="J441" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="K441" t="n">
-        <v>7500</v>
+        <v>29000</v>
       </c>
       <c r="L441" t="n">
-        <v>8000</v>
+        <v>30000</v>
       </c>
       <c r="M441" t="n">
-        <v>7750</v>
+        <v>29500</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         </is>
       </c>
       <c r="P441" t="n">
-        <v>431</v>
+        <v>1639</v>
       </c>
       <c r="Q441" t="n">
         <v>18</v>
@@ -32157,7 +32157,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44279</v>
+        <v>44441</v>
       </c>
       <c r="E442" t="n">
         <v>4</v>
@@ -32172,7 +32172,7 @@
       </c>
       <c r="H442" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I442" t="inlineStr">
@@ -32181,16 +32181,16 @@
         </is>
       </c>
       <c r="J442" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="K442" t="n">
-        <v>5500</v>
+        <v>26000</v>
       </c>
       <c r="L442" t="n">
-        <v>6000</v>
+        <v>27000</v>
       </c>
       <c r="M442" t="n">
-        <v>5750</v>
+        <v>26500</v>
       </c>
       <c r="N442" t="inlineStr">
         <is>
@@ -32203,7 +32203,7 @@
         </is>
       </c>
       <c r="P442" t="n">
-        <v>319</v>
+        <v>1472</v>
       </c>
       <c r="Q442" t="n">
         <v>18</v>
@@ -32229,7 +32229,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44279</v>
+        <v>44441</v>
       </c>
       <c r="E443" t="n">
         <v>4</v>
@@ -32244,7 +32244,7 @@
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I443" t="inlineStr">
@@ -32253,16 +32253,16 @@
         </is>
       </c>
       <c r="J443" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="K443" t="n">
-        <v>3500</v>
+        <v>23000</v>
       </c>
       <c r="L443" t="n">
-        <v>4000</v>
+        <v>25000</v>
       </c>
       <c r="M443" t="n">
-        <v>3750</v>
+        <v>24000</v>
       </c>
       <c r="N443" t="inlineStr">
         <is>
@@ -32275,7 +32275,7 @@
         </is>
       </c>
       <c r="P443" t="n">
-        <v>208</v>
+        <v>1333</v>
       </c>
       <c r="Q443" t="n">
         <v>18</v>
@@ -32301,7 +32301,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44279</v>
+        <v>44441</v>
       </c>
       <c r="E444" t="n">
         <v>4</v>
@@ -32316,7 +32316,7 @@
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I444" t="inlineStr">
@@ -32325,16 +32325,16 @@
         </is>
       </c>
       <c r="J444" t="n">
-        <v>360</v>
+        <v>700</v>
       </c>
       <c r="K444" t="n">
-        <v>5500</v>
+        <v>30000</v>
       </c>
       <c r="L444" t="n">
-        <v>6000</v>
+        <v>31000</v>
       </c>
       <c r="M444" t="n">
-        <v>5750</v>
+        <v>30500</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
@@ -32347,7 +32347,7 @@
         </is>
       </c>
       <c r="P444" t="n">
-        <v>319</v>
+        <v>1694</v>
       </c>
       <c r="Q444" t="n">
         <v>18</v>
@@ -32373,7 +32373,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44279</v>
+        <v>44441</v>
       </c>
       <c r="E445" t="n">
         <v>4</v>
@@ -32388,7 +32388,7 @@
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
@@ -32397,16 +32397,16 @@
         </is>
       </c>
       <c r="J445" t="n">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="K445" t="n">
-        <v>3500</v>
+        <v>27000</v>
       </c>
       <c r="L445" t="n">
-        <v>4000</v>
+        <v>28000</v>
       </c>
       <c r="M445" t="n">
-        <v>3750</v>
+        <v>27500</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         </is>
       </c>
       <c r="P445" t="n">
-        <v>208</v>
+        <v>1528</v>
       </c>
       <c r="Q445" t="n">
         <v>18</v>
@@ -32445,7 +32445,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44279</v>
+        <v>44441</v>
       </c>
       <c r="E446" t="n">
         <v>4</v>
@@ -32460,7 +32460,7 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
@@ -32469,16 +32469,16 @@
         </is>
       </c>
       <c r="J446" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K446" t="n">
-        <v>1500</v>
+        <v>24000</v>
       </c>
       <c r="L446" t="n">
-        <v>2000</v>
+        <v>25000</v>
       </c>
       <c r="M446" t="n">
-        <v>1750</v>
+        <v>24500</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
@@ -32491,7 +32491,7 @@
         </is>
       </c>
       <c r="P446" t="n">
-        <v>97</v>
+        <v>1361</v>
       </c>
       <c r="Q446" t="n">
         <v>18</v>
@@ -32517,7 +32517,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44504</v>
+        <v>44279</v>
       </c>
       <c r="E447" t="n">
         <v>4</v>
@@ -32532,7 +32532,7 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
@@ -32541,16 +32541,16 @@
         </is>
       </c>
       <c r="J447" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="K447" t="n">
-        <v>23000</v>
+        <v>7500</v>
       </c>
       <c r="L447" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="M447" t="n">
-        <v>23500</v>
+        <v>7750</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
@@ -32563,7 +32563,7 @@
         </is>
       </c>
       <c r="P447" t="n">
-        <v>1306</v>
+        <v>431</v>
       </c>
       <c r="Q447" t="n">
         <v>18</v>
@@ -32589,7 +32589,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44504</v>
+        <v>44279</v>
       </c>
       <c r="E448" t="n">
         <v>4</v>
@@ -32604,7 +32604,7 @@
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
@@ -32613,16 +32613,16 @@
         </is>
       </c>
       <c r="J448" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="K448" t="n">
-        <v>18000</v>
+        <v>5500</v>
       </c>
       <c r="L448" t="n">
-        <v>19000</v>
+        <v>6000</v>
       </c>
       <c r="M448" t="n">
-        <v>18500</v>
+        <v>5750</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         </is>
       </c>
       <c r="P448" t="n">
-        <v>1028</v>
+        <v>319</v>
       </c>
       <c r="Q448" t="n">
         <v>18</v>
@@ -32661,7 +32661,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44504</v>
+        <v>44279</v>
       </c>
       <c r="E449" t="n">
         <v>4</v>
@@ -32676,7 +32676,7 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
@@ -32685,16 +32685,16 @@
         </is>
       </c>
       <c r="J449" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="K449" t="n">
-        <v>13000</v>
+        <v>3500</v>
       </c>
       <c r="L449" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="M449" t="n">
-        <v>13500</v>
+        <v>3750</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
@@ -32707,7 +32707,7 @@
         </is>
       </c>
       <c r="P449" t="n">
-        <v>750</v>
+        <v>208</v>
       </c>
       <c r="Q449" t="n">
         <v>18</v>
@@ -32733,7 +32733,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44350</v>
+        <v>44279</v>
       </c>
       <c r="E450" t="n">
         <v>4</v>
@@ -32748,7 +32748,7 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
@@ -32757,16 +32757,16 @@
         </is>
       </c>
       <c r="J450" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="K450" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="L450" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="M450" t="n">
-        <v>12500</v>
+        <v>5750</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
@@ -32779,7 +32779,7 @@
         </is>
       </c>
       <c r="P450" t="n">
-        <v>694</v>
+        <v>319</v>
       </c>
       <c r="Q450" t="n">
         <v>18</v>
@@ -32805,7 +32805,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44350</v>
+        <v>44279</v>
       </c>
       <c r="E451" t="n">
         <v>4</v>
@@ -32820,7 +32820,7 @@
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
@@ -32829,16 +32829,16 @@
         </is>
       </c>
       <c r="J451" t="n">
-        <v>350</v>
+        <v>240</v>
       </c>
       <c r="K451" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="L451" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="M451" t="n">
-        <v>10486</v>
+        <v>3750</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
@@ -32851,7 +32851,7 @@
         </is>
       </c>
       <c r="P451" t="n">
-        <v>583</v>
+        <v>208</v>
       </c>
       <c r="Q451" t="n">
         <v>18</v>
@@ -32877,7 +32877,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44350</v>
+        <v>44279</v>
       </c>
       <c r="E452" t="n">
         <v>4</v>
@@ -32892,7 +32892,7 @@
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I452" t="inlineStr">
@@ -32901,16 +32901,16 @@
         </is>
       </c>
       <c r="J452" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K452" t="n">
-        <v>8000</v>
+        <v>1500</v>
       </c>
       <c r="L452" t="n">
-        <v>9000</v>
+        <v>2000</v>
       </c>
       <c r="M452" t="n">
-        <v>8500</v>
+        <v>1750</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
@@ -32923,7 +32923,7 @@
         </is>
       </c>
       <c r="P452" t="n">
-        <v>472</v>
+        <v>97</v>
       </c>
       <c r="Q452" t="n">
         <v>18</v>
@@ -32949,7 +32949,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44350</v>
+        <v>44504</v>
       </c>
       <c r="E453" t="n">
         <v>4</v>
@@ -32973,16 +32973,16 @@
         </is>
       </c>
       <c r="J453" t="n">
-        <v>360</v>
+        <v>1000</v>
       </c>
       <c r="K453" t="n">
-        <v>8500</v>
+        <v>23000</v>
       </c>
       <c r="L453" t="n">
-        <v>9000</v>
+        <v>24000</v>
       </c>
       <c r="M453" t="n">
-        <v>8750</v>
+        <v>23500</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
@@ -32995,7 +32995,7 @@
         </is>
       </c>
       <c r="P453" t="n">
-        <v>486</v>
+        <v>1306</v>
       </c>
       <c r="Q453" t="n">
         <v>18</v>
@@ -33021,7 +33021,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44350</v>
+        <v>44504</v>
       </c>
       <c r="E454" t="n">
         <v>4</v>
@@ -33045,16 +33045,16 @@
         </is>
       </c>
       <c r="J454" t="n">
-        <v>360</v>
+        <v>700</v>
       </c>
       <c r="K454" t="n">
-        <v>6500</v>
+        <v>18000</v>
       </c>
       <c r="L454" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="M454" t="n">
-        <v>6750</v>
+        <v>18500</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
@@ -33067,7 +33067,7 @@
         </is>
       </c>
       <c r="P454" t="n">
-        <v>375</v>
+        <v>1028</v>
       </c>
       <c r="Q454" t="n">
         <v>18</v>
@@ -33093,7 +33093,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44350</v>
+        <v>44504</v>
       </c>
       <c r="E455" t="n">
         <v>4</v>
@@ -33117,16 +33117,16 @@
         </is>
       </c>
       <c r="J455" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="K455" t="n">
-        <v>4500</v>
+        <v>13000</v>
       </c>
       <c r="L455" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="M455" t="n">
-        <v>4750</v>
+        <v>13500</v>
       </c>
       <c r="N455" t="inlineStr">
         <is>
@@ -33139,7 +33139,7 @@
         </is>
       </c>
       <c r="P455" t="n">
-        <v>264</v>
+        <v>750</v>
       </c>
       <c r="Q455" t="n">
         <v>18</v>
@@ -33180,7 +33180,7 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
@@ -33189,16 +33189,16 @@
         </is>
       </c>
       <c r="J456" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="K456" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L456" t="n">
         <v>13000</v>
       </c>
-      <c r="L456" t="n">
-        <v>14000</v>
-      </c>
       <c r="M456" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
@@ -33211,7 +33211,7 @@
         </is>
       </c>
       <c r="P456" t="n">
-        <v>750</v>
+        <v>694</v>
       </c>
       <c r="Q456" t="n">
         <v>18</v>
@@ -33252,7 +33252,7 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
@@ -33261,7 +33261,7 @@
         </is>
       </c>
       <c r="J457" t="n">
-        <v>240</v>
+        <v>350</v>
       </c>
       <c r="K457" t="n">
         <v>10000</v>
@@ -33270,7 +33270,7 @@
         <v>11000</v>
       </c>
       <c r="M457" t="n">
-        <v>10500</v>
+        <v>10486</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
@@ -33324,7 +33324,7 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
@@ -33333,16 +33333,16 @@
         </is>
       </c>
       <c r="J458" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="K458" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L458" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M458" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         </is>
       </c>
       <c r="P458" t="n">
-        <v>417</v>
+        <v>472</v>
       </c>
       <c r="Q458" t="n">
         <v>18</v>
@@ -33381,7 +33381,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44384</v>
+        <v>44350</v>
       </c>
       <c r="E459" t="n">
         <v>4</v>
@@ -33405,16 +33405,16 @@
         </is>
       </c>
       <c r="J459" t="n">
-        <v>1000</v>
+        <v>360</v>
       </c>
       <c r="K459" t="n">
-        <v>11500</v>
+        <v>8500</v>
       </c>
       <c r="L459" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M459" t="n">
-        <v>11750</v>
+        <v>8750</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
@@ -33427,7 +33427,7 @@
         </is>
       </c>
       <c r="P459" t="n">
-        <v>653</v>
+        <v>486</v>
       </c>
       <c r="Q459" t="n">
         <v>18</v>
@@ -33453,7 +33453,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44384</v>
+        <v>44350</v>
       </c>
       <c r="E460" t="n">
         <v>4</v>
@@ -33477,16 +33477,16 @@
         </is>
       </c>
       <c r="J460" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="K460" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="L460" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M460" t="n">
-        <v>9750</v>
+        <v>6750</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
@@ -33499,7 +33499,7 @@
         </is>
       </c>
       <c r="P460" t="n">
-        <v>542</v>
+        <v>375</v>
       </c>
       <c r="Q460" t="n">
         <v>18</v>
@@ -33525,7 +33525,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44384</v>
+        <v>44350</v>
       </c>
       <c r="E461" t="n">
         <v>4</v>
@@ -33549,16 +33549,16 @@
         </is>
       </c>
       <c r="J461" t="n">
-        <v>240</v>
+        <v>340</v>
       </c>
       <c r="K461" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="L461" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M461" t="n">
-        <v>6750</v>
+        <v>4750</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
@@ -33571,7 +33571,7 @@
         </is>
       </c>
       <c r="P461" t="n">
-        <v>375</v>
+        <v>264</v>
       </c>
       <c r="Q461" t="n">
         <v>18</v>
@@ -33597,7 +33597,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44384</v>
+        <v>44350</v>
       </c>
       <c r="E462" t="n">
         <v>4</v>
@@ -33621,16 +33621,16 @@
         </is>
       </c>
       <c r="J462" t="n">
-        <v>600</v>
+        <v>340</v>
       </c>
       <c r="K462" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="L462" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M462" t="n">
-        <v>10750</v>
+        <v>13500</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
@@ -33643,7 +33643,7 @@
         </is>
       </c>
       <c r="P462" t="n">
-        <v>597</v>
+        <v>750</v>
       </c>
       <c r="Q462" t="n">
         <v>18</v>
@@ -33669,7 +33669,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44384</v>
+        <v>44350</v>
       </c>
       <c r="E463" t="n">
         <v>4</v>
@@ -33693,16 +33693,16 @@
         </is>
       </c>
       <c r="J463" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="K463" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="L463" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M463" t="n">
-        <v>8750</v>
+        <v>10500</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
@@ -33715,7 +33715,7 @@
         </is>
       </c>
       <c r="P463" t="n">
-        <v>486</v>
+        <v>583</v>
       </c>
       <c r="Q463" t="n">
         <v>18</v>
@@ -33741,7 +33741,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44384</v>
+        <v>44350</v>
       </c>
       <c r="E464" t="n">
         <v>4</v>
@@ -33765,16 +33765,16 @@
         </is>
       </c>
       <c r="J464" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K464" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L464" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M464" t="n">
-        <v>6750</v>
+        <v>7500</v>
       </c>
       <c r="N464" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         </is>
       </c>
       <c r="P464" t="n">
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="Q464" t="n">
         <v>18</v>
@@ -33813,7 +33813,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44329</v>
+        <v>44384</v>
       </c>
       <c r="E465" t="n">
         <v>4</v>
@@ -33837,16 +33837,16 @@
         </is>
       </c>
       <c r="J465" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="K465" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="L465" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M465" t="n">
-        <v>7750</v>
+        <v>11750</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
@@ -33859,7 +33859,7 @@
         </is>
       </c>
       <c r="P465" t="n">
-        <v>431</v>
+        <v>653</v>
       </c>
       <c r="Q465" t="n">
         <v>18</v>
@@ -33885,7 +33885,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44329</v>
+        <v>44384</v>
       </c>
       <c r="E466" t="n">
         <v>4</v>
@@ -33912,13 +33912,13 @@
         <v>500</v>
       </c>
       <c r="K466" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="L466" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M466" t="n">
-        <v>5750</v>
+        <v>9750</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
@@ -33931,7 +33931,7 @@
         </is>
       </c>
       <c r="P466" t="n">
-        <v>319</v>
+        <v>542</v>
       </c>
       <c r="Q466" t="n">
         <v>18</v>
@@ -33957,7 +33957,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44329</v>
+        <v>44384</v>
       </c>
       <c r="E467" t="n">
         <v>4</v>
@@ -33984,13 +33984,13 @@
         <v>240</v>
       </c>
       <c r="K467" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="L467" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M467" t="n">
-        <v>3750</v>
+        <v>6750</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
@@ -34003,7 +34003,7 @@
         </is>
       </c>
       <c r="P467" t="n">
-        <v>208</v>
+        <v>375</v>
       </c>
       <c r="Q467" t="n">
         <v>18</v>
@@ -34029,7 +34029,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44329</v>
+        <v>44384</v>
       </c>
       <c r="E468" t="n">
         <v>4</v>
@@ -34053,16 +34053,16 @@
         </is>
       </c>
       <c r="J468" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K468" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="L468" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M468" t="n">
-        <v>12750</v>
+        <v>10750</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         </is>
       </c>
       <c r="P468" t="n">
-        <v>708</v>
+        <v>597</v>
       </c>
       <c r="Q468" t="n">
         <v>18</v>
@@ -34101,7 +34101,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44329</v>
+        <v>44384</v>
       </c>
       <c r="E469" t="n">
         <v>4</v>
@@ -34125,16 +34125,16 @@
         </is>
       </c>
       <c r="J469" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K469" t="n">
-        <v>10500</v>
+        <v>8500</v>
       </c>
       <c r="L469" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M469" t="n">
-        <v>10750</v>
+        <v>8750</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
@@ -34147,7 +34147,7 @@
         </is>
       </c>
       <c r="P469" t="n">
-        <v>597</v>
+        <v>486</v>
       </c>
       <c r="Q469" t="n">
         <v>18</v>
@@ -34173,7 +34173,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44329</v>
+        <v>44384</v>
       </c>
       <c r="E470" t="n">
         <v>4</v>
@@ -34200,13 +34200,13 @@
         <v>300</v>
       </c>
       <c r="K470" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="L470" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M470" t="n">
-        <v>8750</v>
+        <v>6750</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
@@ -34219,7 +34219,7 @@
         </is>
       </c>
       <c r="P470" t="n">
-        <v>486</v>
+        <v>375</v>
       </c>
       <c r="Q470" t="n">
         <v>18</v>
@@ -34245,7 +34245,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44272</v>
+        <v>44329</v>
       </c>
       <c r="E471" t="n">
         <v>4</v>
@@ -34260,7 +34260,7 @@
       </c>
       <c r="H471" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I471" t="inlineStr">
@@ -34269,7 +34269,7 @@
         </is>
       </c>
       <c r="J471" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K471" t="n">
         <v>7500</v>
@@ -34317,7 +34317,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44272</v>
+        <v>44329</v>
       </c>
       <c r="E472" t="n">
         <v>4</v>
@@ -34332,7 +34332,7 @@
       </c>
       <c r="H472" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I472" t="inlineStr">
@@ -34341,7 +34341,7 @@
         </is>
       </c>
       <c r="J472" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K472" t="n">
         <v>5500</v>
@@ -34389,7 +34389,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44272</v>
+        <v>44329</v>
       </c>
       <c r="E473" t="n">
         <v>4</v>
@@ -34404,7 +34404,7 @@
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
@@ -34461,7 +34461,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44272</v>
+        <v>44329</v>
       </c>
       <c r="E474" t="n">
         <v>4</v>
@@ -34476,7 +34476,7 @@
       </c>
       <c r="H474" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I474" t="inlineStr">
@@ -34485,16 +34485,16 @@
         </is>
       </c>
       <c r="J474" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K474" t="n">
-        <v>5500</v>
+        <v>12500</v>
       </c>
       <c r="L474" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="M474" t="n">
-        <v>5750</v>
+        <v>12750</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
@@ -34507,7 +34507,7 @@
         </is>
       </c>
       <c r="P474" t="n">
-        <v>319</v>
+        <v>708</v>
       </c>
       <c r="Q474" t="n">
         <v>18</v>
@@ -34533,7 +34533,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44272</v>
+        <v>44329</v>
       </c>
       <c r="E475" t="n">
         <v>4</v>
@@ -34548,7 +34548,7 @@
       </c>
       <c r="H475" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I475" t="inlineStr">
@@ -34557,16 +34557,16 @@
         </is>
       </c>
       <c r="J475" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K475" t="n">
-        <v>3500</v>
+        <v>10500</v>
       </c>
       <c r="L475" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="M475" t="n">
-        <v>3750</v>
+        <v>10750</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         </is>
       </c>
       <c r="P475" t="n">
-        <v>208</v>
+        <v>597</v>
       </c>
       <c r="Q475" t="n">
         <v>18</v>
@@ -34605,7 +34605,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44272</v>
+        <v>44329</v>
       </c>
       <c r="E476" t="n">
         <v>4</v>
@@ -34620,7 +34620,7 @@
       </c>
       <c r="H476" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I476" t="inlineStr">
@@ -34632,13 +34632,13 @@
         <v>300</v>
       </c>
       <c r="K476" t="n">
-        <v>1500</v>
+        <v>8500</v>
       </c>
       <c r="L476" t="n">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="M476" t="n">
-        <v>1750</v>
+        <v>8750</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
@@ -34651,7 +34651,7 @@
         </is>
       </c>
       <c r="P476" t="n">
-        <v>97</v>
+        <v>486</v>
       </c>
       <c r="Q476" t="n">
         <v>18</v>
@@ -34677,7 +34677,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44447</v>
+        <v>44272</v>
       </c>
       <c r="E477" t="n">
         <v>4</v>
@@ -34692,7 +34692,7 @@
       </c>
       <c r="H477" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I477" t="inlineStr">
@@ -34701,16 +34701,16 @@
         </is>
       </c>
       <c r="J477" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K477" t="n">
-        <v>31000</v>
+        <v>7500</v>
       </c>
       <c r="L477" t="n">
-        <v>32000</v>
+        <v>8000</v>
       </c>
       <c r="M477" t="n">
-        <v>31500</v>
+        <v>7750</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
@@ -34723,7 +34723,7 @@
         </is>
       </c>
       <c r="P477" t="n">
-        <v>1750</v>
+        <v>431</v>
       </c>
       <c r="Q477" t="n">
         <v>18</v>
@@ -34749,7 +34749,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44447</v>
+        <v>44272</v>
       </c>
       <c r="E478" t="n">
         <v>4</v>
@@ -34764,7 +34764,7 @@
       </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I478" t="inlineStr">
@@ -34773,16 +34773,16 @@
         </is>
       </c>
       <c r="J478" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K478" t="n">
-        <v>26000</v>
+        <v>5500</v>
       </c>
       <c r="L478" t="n">
-        <v>27000</v>
+        <v>6000</v>
       </c>
       <c r="M478" t="n">
-        <v>26500</v>
+        <v>5750</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
@@ -34795,7 +34795,7 @@
         </is>
       </c>
       <c r="P478" t="n">
-        <v>1472</v>
+        <v>319</v>
       </c>
       <c r="Q478" t="n">
         <v>18</v>
@@ -34821,7 +34821,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44447</v>
+        <v>44272</v>
       </c>
       <c r="E479" t="n">
         <v>4</v>
@@ -34836,7 +34836,7 @@
       </c>
       <c r="H479" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I479" t="inlineStr">
@@ -34845,16 +34845,16 @@
         </is>
       </c>
       <c r="J479" t="n">
-        <v>340</v>
+        <v>240</v>
       </c>
       <c r="K479" t="n">
-        <v>21000</v>
+        <v>3500</v>
       </c>
       <c r="L479" t="n">
-        <v>22000</v>
+        <v>4000</v>
       </c>
       <c r="M479" t="n">
-        <v>21500</v>
+        <v>3750</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
@@ -34867,7 +34867,7 @@
         </is>
       </c>
       <c r="P479" t="n">
-        <v>1194</v>
+        <v>208</v>
       </c>
       <c r="Q479" t="n">
         <v>18</v>
@@ -34893,7 +34893,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44447</v>
+        <v>44272</v>
       </c>
       <c r="E480" t="n">
         <v>4</v>
@@ -34908,7 +34908,7 @@
       </c>
       <c r="H480" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I480" t="inlineStr">
@@ -34917,16 +34917,16 @@
         </is>
       </c>
       <c r="J480" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K480" t="n">
-        <v>36000</v>
+        <v>5500</v>
       </c>
       <c r="L480" t="n">
-        <v>37000</v>
+        <v>6000</v>
       </c>
       <c r="M480" t="n">
-        <v>36500</v>
+        <v>5750</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
@@ -34939,7 +34939,7 @@
         </is>
       </c>
       <c r="P480" t="n">
-        <v>2028</v>
+        <v>319</v>
       </c>
       <c r="Q480" t="n">
         <v>18</v>
@@ -34965,7 +34965,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44447</v>
+        <v>44272</v>
       </c>
       <c r="E481" t="n">
         <v>4</v>
@@ -34980,7 +34980,7 @@
       </c>
       <c r="H481" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I481" t="inlineStr">
@@ -34989,16 +34989,16 @@
         </is>
       </c>
       <c r="J481" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K481" t="n">
-        <v>33000</v>
+        <v>3500</v>
       </c>
       <c r="L481" t="n">
-        <v>34000</v>
+        <v>4000</v>
       </c>
       <c r="M481" t="n">
-        <v>33500</v>
+        <v>3750</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         </is>
       </c>
       <c r="P481" t="n">
-        <v>1861</v>
+        <v>208</v>
       </c>
       <c r="Q481" t="n">
         <v>18</v>
@@ -35037,7 +35037,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44447</v>
+        <v>44272</v>
       </c>
       <c r="E482" t="n">
         <v>4</v>
@@ -35052,7 +35052,7 @@
       </c>
       <c r="H482" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I482" t="inlineStr">
@@ -35061,16 +35061,16 @@
         </is>
       </c>
       <c r="J482" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K482" t="n">
-        <v>30000</v>
+        <v>1500</v>
       </c>
       <c r="L482" t="n">
-        <v>31000</v>
+        <v>2000</v>
       </c>
       <c r="M482" t="n">
-        <v>30500</v>
+        <v>1750</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
@@ -35083,7 +35083,7 @@
         </is>
       </c>
       <c r="P482" t="n">
-        <v>1694</v>
+        <v>97</v>
       </c>
       <c r="Q482" t="n">
         <v>18</v>
@@ -35109,7 +35109,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44315</v>
+        <v>44447</v>
       </c>
       <c r="E483" t="n">
         <v>4</v>
@@ -35124,7 +35124,7 @@
       </c>
       <c r="H483" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I483" t="inlineStr">
@@ -35133,16 +35133,16 @@
         </is>
       </c>
       <c r="J483" t="n">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="K483" t="n">
-        <v>9000</v>
+        <v>31000</v>
       </c>
       <c r="L483" t="n">
-        <v>10000</v>
+        <v>32000</v>
       </c>
       <c r="M483" t="n">
-        <v>9500</v>
+        <v>31500</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
@@ -35155,7 +35155,7 @@
         </is>
       </c>
       <c r="P483" t="n">
-        <v>528</v>
+        <v>1750</v>
       </c>
       <c r="Q483" t="n">
         <v>18</v>
@@ -35181,7 +35181,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44315</v>
+        <v>44447</v>
       </c>
       <c r="E484" t="n">
         <v>4</v>
@@ -35196,7 +35196,7 @@
       </c>
       <c r="H484" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I484" t="inlineStr">
@@ -35205,16 +35205,16 @@
         </is>
       </c>
       <c r="J484" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K484" t="n">
-        <v>7000</v>
+        <v>26000</v>
       </c>
       <c r="L484" t="n">
-        <v>8000</v>
+        <v>27000</v>
       </c>
       <c r="M484" t="n">
-        <v>7500</v>
+        <v>26500</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
@@ -35227,7 +35227,7 @@
         </is>
       </c>
       <c r="P484" t="n">
-        <v>417</v>
+        <v>1472</v>
       </c>
       <c r="Q484" t="n">
         <v>18</v>
@@ -35253,7 +35253,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44315</v>
+        <v>44447</v>
       </c>
       <c r="E485" t="n">
         <v>4</v>
@@ -35268,7 +35268,7 @@
       </c>
       <c r="H485" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I485" t="inlineStr">
@@ -35277,16 +35277,16 @@
         </is>
       </c>
       <c r="J485" t="n">
-        <v>240</v>
+        <v>340</v>
       </c>
       <c r="K485" t="n">
-        <v>5000</v>
+        <v>21000</v>
       </c>
       <c r="L485" t="n">
-        <v>6000</v>
+        <v>22000</v>
       </c>
       <c r="M485" t="n">
-        <v>5500</v>
+        <v>21500</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         </is>
       </c>
       <c r="P485" t="n">
-        <v>306</v>
+        <v>1194</v>
       </c>
       <c r="Q485" t="n">
         <v>18</v>
@@ -35325,7 +35325,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44315</v>
+        <v>44447</v>
       </c>
       <c r="E486" t="n">
         <v>4</v>
@@ -35340,7 +35340,7 @@
       </c>
       <c r="H486" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I486" t="inlineStr">
@@ -35349,16 +35349,16 @@
         </is>
       </c>
       <c r="J486" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K486" t="n">
-        <v>6000</v>
+        <v>36000</v>
       </c>
       <c r="L486" t="n">
-        <v>7000</v>
+        <v>37000</v>
       </c>
       <c r="M486" t="n">
-        <v>6500</v>
+        <v>36500</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         </is>
       </c>
       <c r="P486" t="n">
-        <v>361</v>
+        <v>2028</v>
       </c>
       <c r="Q486" t="n">
         <v>18</v>
@@ -35397,7 +35397,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44315</v>
+        <v>44447</v>
       </c>
       <c r="E487" t="n">
         <v>4</v>
@@ -35412,7 +35412,7 @@
       </c>
       <c r="H487" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I487" t="inlineStr">
@@ -35421,16 +35421,16 @@
         </is>
       </c>
       <c r="J487" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K487" t="n">
-        <v>4000</v>
+        <v>33000</v>
       </c>
       <c r="L487" t="n">
-        <v>5000</v>
+        <v>34000</v>
       </c>
       <c r="M487" t="n">
-        <v>4500</v>
+        <v>33500</v>
       </c>
       <c r="N487" t="inlineStr">
         <is>
@@ -35443,7 +35443,7 @@
         </is>
       </c>
       <c r="P487" t="n">
-        <v>250</v>
+        <v>1861</v>
       </c>
       <c r="Q487" t="n">
         <v>18</v>
@@ -35469,7 +35469,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44315</v>
+        <v>44447</v>
       </c>
       <c r="E488" t="n">
         <v>4</v>
@@ -35484,7 +35484,7 @@
       </c>
       <c r="H488" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I488" t="inlineStr">
@@ -35493,16 +35493,16 @@
         </is>
       </c>
       <c r="J488" t="n">
-        <v>260</v>
+        <v>360</v>
       </c>
       <c r="K488" t="n">
-        <v>2000</v>
+        <v>30000</v>
       </c>
       <c r="L488" t="n">
-        <v>3000</v>
+        <v>31000</v>
       </c>
       <c r="M488" t="n">
-        <v>2500</v>
+        <v>30500</v>
       </c>
       <c r="N488" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
         </is>
       </c>
       <c r="P488" t="n">
-        <v>139</v>
+        <v>1694</v>
       </c>
       <c r="Q488" t="n">
         <v>18</v>
@@ -35556,7 +35556,7 @@
       </c>
       <c r="H489" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I489" t="inlineStr">
@@ -35565,16 +35565,16 @@
         </is>
       </c>
       <c r="J489" t="n">
-        <v>1000</v>
+        <v>360</v>
       </c>
       <c r="K489" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L489" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M489" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="N489" t="inlineStr">
         <is>
@@ -35587,7 +35587,7 @@
         </is>
       </c>
       <c r="P489" t="n">
-        <v>306</v>
+        <v>528</v>
       </c>
       <c r="Q489" t="n">
         <v>18</v>
@@ -35628,7 +35628,7 @@
       </c>
       <c r="H490" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I490" t="inlineStr">
@@ -35637,16 +35637,16 @@
         </is>
       </c>
       <c r="J490" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K490" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="L490" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M490" t="n">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="N490" t="inlineStr">
         <is>
@@ -35659,7 +35659,7 @@
         </is>
       </c>
       <c r="P490" t="n">
-        <v>194</v>
+        <v>417</v>
       </c>
       <c r="Q490" t="n">
         <v>18</v>
@@ -35700,7 +35700,7 @@
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I491" t="inlineStr">
@@ -35709,16 +35709,16 @@
         </is>
       </c>
       <c r="J491" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K491" t="n">
-        <v>1500</v>
+        <v>5000</v>
       </c>
       <c r="L491" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="M491" t="n">
-        <v>1750</v>
+        <v>5500</v>
       </c>
       <c r="N491" t="inlineStr">
         <is>
@@ -35731,7 +35731,7 @@
         </is>
       </c>
       <c r="P491" t="n">
-        <v>97</v>
+        <v>306</v>
       </c>
       <c r="Q491" t="n">
         <v>18</v>
@@ -35757,7 +35757,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44322</v>
+        <v>44315</v>
       </c>
       <c r="E492" t="n">
         <v>4</v>
@@ -35781,7 +35781,7 @@
         </is>
       </c>
       <c r="J492" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K492" t="n">
         <v>6000</v>
@@ -35829,7 +35829,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44322</v>
+        <v>44315</v>
       </c>
       <c r="E493" t="n">
         <v>4</v>
@@ -35901,7 +35901,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44322</v>
+        <v>44315</v>
       </c>
       <c r="E494" t="n">
         <v>4</v>
@@ -35925,7 +35925,7 @@
         </is>
       </c>
       <c r="J494" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="K494" t="n">
         <v>2000</v>
@@ -35973,7 +35973,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44322</v>
+        <v>44315</v>
       </c>
       <c r="E495" t="n">
         <v>4</v>
@@ -35997,16 +35997,16 @@
         </is>
       </c>
       <c r="J495" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K495" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L495" t="n">
         <v>6000</v>
       </c>
-      <c r="L495" t="n">
-        <v>6500</v>
-      </c>
       <c r="M495" t="n">
-        <v>6250</v>
+        <v>5500</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         </is>
       </c>
       <c r="P495" t="n">
-        <v>347</v>
+        <v>306</v>
       </c>
       <c r="Q495" t="n">
         <v>18</v>
@@ -36045,7 +36045,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44322</v>
+        <v>44315</v>
       </c>
       <c r="E496" t="n">
         <v>4</v>
@@ -36069,16 +36069,16 @@
         </is>
       </c>
       <c r="J496" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K496" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L496" t="n">
         <v>4000</v>
       </c>
-      <c r="L496" t="n">
-        <v>4500</v>
-      </c>
       <c r="M496" t="n">
-        <v>4250</v>
+        <v>3500</v>
       </c>
       <c r="N496" t="inlineStr">
         <is>
@@ -36091,7 +36091,7 @@
         </is>
       </c>
       <c r="P496" t="n">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="Q496" t="n">
         <v>18</v>
@@ -36117,7 +36117,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44322</v>
+        <v>44315</v>
       </c>
       <c r="E497" t="n">
         <v>4</v>
@@ -36144,13 +36144,13 @@
         <v>300</v>
       </c>
       <c r="K497" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L497" t="n">
         <v>2000</v>
       </c>
-      <c r="L497" t="n">
-        <v>2500</v>
-      </c>
       <c r="M497" t="n">
-        <v>2250</v>
+        <v>1750</v>
       </c>
       <c r="N497" t="inlineStr">
         <is>
@@ -36163,7 +36163,7 @@
         </is>
       </c>
       <c r="P497" t="n">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="Q497" t="n">
         <v>18</v>
@@ -36189,7 +36189,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44510</v>
+        <v>44322</v>
       </c>
       <c r="E498" t="n">
         <v>4</v>
@@ -36213,16 +36213,16 @@
         </is>
       </c>
       <c r="J498" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="K498" t="n">
-        <v>19000</v>
+        <v>6000</v>
       </c>
       <c r="L498" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="M498" t="n">
-        <v>19500</v>
+        <v>6500</v>
       </c>
       <c r="N498" t="inlineStr">
         <is>
@@ -36235,7 +36235,7 @@
         </is>
       </c>
       <c r="P498" t="n">
-        <v>1083</v>
+        <v>361</v>
       </c>
       <c r="Q498" t="n">
         <v>18</v>
@@ -36261,7 +36261,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44510</v>
+        <v>44322</v>
       </c>
       <c r="E499" t="n">
         <v>4</v>
@@ -36285,16 +36285,16 @@
         </is>
       </c>
       <c r="J499" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K499" t="n">
-        <v>16000</v>
+        <v>4000</v>
       </c>
       <c r="L499" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="M499" t="n">
-        <v>16500</v>
+        <v>4500</v>
       </c>
       <c r="N499" t="inlineStr">
         <is>
@@ -36307,7 +36307,7 @@
         </is>
       </c>
       <c r="P499" t="n">
-        <v>917</v>
+        <v>250</v>
       </c>
       <c r="Q499" t="n">
         <v>18</v>
@@ -36333,7 +36333,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44510</v>
+        <v>44322</v>
       </c>
       <c r="E500" t="n">
         <v>4</v>
@@ -36357,16 +36357,16 @@
         </is>
       </c>
       <c r="J500" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="K500" t="n">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="L500" t="n">
-        <v>14000</v>
+        <v>3000</v>
       </c>
       <c r="M500" t="n">
-        <v>13500</v>
+        <v>2500</v>
       </c>
       <c r="N500" t="inlineStr">
         <is>
@@ -36379,7 +36379,7 @@
         </is>
       </c>
       <c r="P500" t="n">
-        <v>750</v>
+        <v>139</v>
       </c>
       <c r="Q500" t="n">
         <v>18</v>
@@ -36405,7 +36405,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44161</v>
+        <v>44322</v>
       </c>
       <c r="E501" t="n">
         <v>4</v>
@@ -36420,7 +36420,7 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
@@ -36432,13 +36432,13 @@
         <v>700</v>
       </c>
       <c r="K501" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="L501" t="n">
-        <v>14000</v>
+        <v>6500</v>
       </c>
       <c r="M501" t="n">
-        <v>13500</v>
+        <v>6250</v>
       </c>
       <c r="N501" t="inlineStr">
         <is>
@@ -36451,7 +36451,7 @@
         </is>
       </c>
       <c r="P501" t="n">
-        <v>750</v>
+        <v>347</v>
       </c>
       <c r="Q501" t="n">
         <v>18</v>
@@ -36477,7 +36477,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44161</v>
+        <v>44322</v>
       </c>
       <c r="E502" t="n">
         <v>4</v>
@@ -36492,7 +36492,7 @@
       </c>
       <c r="H502" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I502" t="inlineStr">
@@ -36501,16 +36501,16 @@
         </is>
       </c>
       <c r="J502" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K502" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L502" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="M502" t="n">
-        <v>9500</v>
+        <v>4250</v>
       </c>
       <c r="N502" t="inlineStr">
         <is>
@@ -36523,7 +36523,7 @@
         </is>
       </c>
       <c r="P502" t="n">
-        <v>528</v>
+        <v>236</v>
       </c>
       <c r="Q502" t="n">
         <v>18</v>
@@ -36549,7 +36549,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44161</v>
+        <v>44322</v>
       </c>
       <c r="E503" t="n">
         <v>4</v>
@@ -36564,7 +36564,7 @@
       </c>
       <c r="H503" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I503" t="inlineStr">
@@ -36573,16 +36573,16 @@
         </is>
       </c>
       <c r="J503" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K503" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="L503" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="M503" t="n">
-        <v>6500</v>
+        <v>2250</v>
       </c>
       <c r="N503" t="inlineStr">
         <is>
@@ -36595,7 +36595,7 @@
         </is>
       </c>
       <c r="P503" t="n">
-        <v>361</v>
+        <v>125</v>
       </c>
       <c r="Q503" t="n">
         <v>18</v>
@@ -36621,7 +36621,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44468</v>
+        <v>44510</v>
       </c>
       <c r="E504" t="n">
         <v>4</v>
@@ -36645,16 +36645,16 @@
         </is>
       </c>
       <c r="J504" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="K504" t="n">
-        <v>32000</v>
+        <v>19000</v>
       </c>
       <c r="L504" t="n">
-        <v>33000</v>
+        <v>20000</v>
       </c>
       <c r="M504" t="n">
-        <v>32500</v>
+        <v>19500</v>
       </c>
       <c r="N504" t="inlineStr">
         <is>
@@ -36667,7 +36667,7 @@
         </is>
       </c>
       <c r="P504" t="n">
-        <v>1806</v>
+        <v>1083</v>
       </c>
       <c r="Q504" t="n">
         <v>18</v>
@@ -36693,7 +36693,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44468</v>
+        <v>44510</v>
       </c>
       <c r="E505" t="n">
         <v>4</v>
@@ -36717,16 +36717,16 @@
         </is>
       </c>
       <c r="J505" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K505" t="n">
-        <v>29000</v>
+        <v>16000</v>
       </c>
       <c r="L505" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="M505" t="n">
-        <v>29500</v>
+        <v>16500</v>
       </c>
       <c r="N505" t="inlineStr">
         <is>
@@ -36739,7 +36739,7 @@
         </is>
       </c>
       <c r="P505" t="n">
-        <v>1639</v>
+        <v>917</v>
       </c>
       <c r="Q505" t="n">
         <v>18</v>
@@ -36765,7 +36765,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44468</v>
+        <v>44510</v>
       </c>
       <c r="E506" t="n">
         <v>4</v>
@@ -36789,16 +36789,16 @@
         </is>
       </c>
       <c r="J506" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K506" t="n">
-        <v>25000</v>
+        <v>13000</v>
       </c>
       <c r="L506" t="n">
-        <v>26000</v>
+        <v>14000</v>
       </c>
       <c r="M506" t="n">
-        <v>25500</v>
+        <v>13500</v>
       </c>
       <c r="N506" t="inlineStr">
         <is>
@@ -36811,7 +36811,7 @@
         </is>
       </c>
       <c r="P506" t="n">
-        <v>1417</v>
+        <v>750</v>
       </c>
       <c r="Q506" t="n">
         <v>18</v>
@@ -36837,7 +36837,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44517</v>
+        <v>44161</v>
       </c>
       <c r="E507" t="n">
         <v>4</v>
@@ -36852,7 +36852,7 @@
       </c>
       <c r="H507" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I507" t="inlineStr">
@@ -36861,16 +36861,16 @@
         </is>
       </c>
       <c r="J507" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K507" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="L507" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="M507" t="n">
-        <v>24500</v>
+        <v>13500</v>
       </c>
       <c r="N507" t="inlineStr">
         <is>
@@ -36883,7 +36883,7 @@
         </is>
       </c>
       <c r="P507" t="n">
-        <v>1361</v>
+        <v>750</v>
       </c>
       <c r="Q507" t="n">
         <v>18</v>
@@ -36909,7 +36909,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44517</v>
+        <v>44161</v>
       </c>
       <c r="E508" t="n">
         <v>4</v>
@@ -36924,7 +36924,7 @@
       </c>
       <c r="H508" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I508" t="inlineStr">
@@ -36933,16 +36933,16 @@
         </is>
       </c>
       <c r="J508" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K508" t="n">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="L508" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M508" t="n">
-        <v>19500</v>
+        <v>9500</v>
       </c>
       <c r="N508" t="inlineStr">
         <is>
@@ -36955,7 +36955,7 @@
         </is>
       </c>
       <c r="P508" t="n">
-        <v>1083</v>
+        <v>528</v>
       </c>
       <c r="Q508" t="n">
         <v>18</v>
@@ -36981,7 +36981,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44517</v>
+        <v>44161</v>
       </c>
       <c r="E509" t="n">
         <v>4</v>
@@ -36996,7 +36996,7 @@
       </c>
       <c r="H509" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I509" t="inlineStr">
@@ -37005,16 +37005,16 @@
         </is>
       </c>
       <c r="J509" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="K509" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L509" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M509" t="n">
-        <v>14500</v>
+        <v>6500</v>
       </c>
       <c r="N509" t="inlineStr">
         <is>
@@ -37027,7 +37027,7 @@
         </is>
       </c>
       <c r="P509" t="n">
-        <v>806</v>
+        <v>361</v>
       </c>
       <c r="Q509" t="n">
         <v>18</v>
@@ -37053,7 +37053,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44517</v>
+        <v>44468</v>
       </c>
       <c r="E510" t="n">
         <v>4</v>
@@ -37077,16 +37077,16 @@
         </is>
       </c>
       <c r="J510" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="K510" t="n">
-        <v>16000</v>
+        <v>32000</v>
       </c>
       <c r="L510" t="n">
-        <v>17000</v>
+        <v>33000</v>
       </c>
       <c r="M510" t="n">
-        <v>16500</v>
+        <v>32500</v>
       </c>
       <c r="N510" t="inlineStr">
         <is>
@@ -37099,7 +37099,7 @@
         </is>
       </c>
       <c r="P510" t="n">
-        <v>917</v>
+        <v>1806</v>
       </c>
       <c r="Q510" t="n">
         <v>18</v>
@@ -37125,7 +37125,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44517</v>
+        <v>44468</v>
       </c>
       <c r="E511" t="n">
         <v>4</v>
@@ -37149,16 +37149,16 @@
         </is>
       </c>
       <c r="J511" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K511" t="n">
-        <v>13000</v>
+        <v>29000</v>
       </c>
       <c r="L511" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="M511" t="n">
-        <v>13500</v>
+        <v>29500</v>
       </c>
       <c r="N511" t="inlineStr">
         <is>
@@ -37171,7 +37171,7 @@
         </is>
       </c>
       <c r="P511" t="n">
-        <v>750</v>
+        <v>1639</v>
       </c>
       <c r="Q511" t="n">
         <v>18</v>
@@ -37197,7 +37197,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44517</v>
+        <v>44468</v>
       </c>
       <c r="E512" t="n">
         <v>4</v>
@@ -37224,13 +37224,13 @@
         <v>500</v>
       </c>
       <c r="K512" t="n">
-        <v>9000</v>
+        <v>25000</v>
       </c>
       <c r="L512" t="n">
-        <v>10000</v>
+        <v>26000</v>
       </c>
       <c r="M512" t="n">
-        <v>9500</v>
+        <v>25500</v>
       </c>
       <c r="N512" t="inlineStr">
         <is>
@@ -37243,7 +37243,7 @@
         </is>
       </c>
       <c r="P512" t="n">
-        <v>528</v>
+        <v>1417</v>
       </c>
       <c r="Q512" t="n">
         <v>18</v>
@@ -37269,7 +37269,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E513" t="n">
         <v>4</v>
@@ -37293,16 +37293,16 @@
         </is>
       </c>
       <c r="J513" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K513" t="n">
-        <v>11000</v>
+        <v>24000</v>
       </c>
       <c r="L513" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="M513" t="n">
-        <v>11500</v>
+        <v>24500</v>
       </c>
       <c r="N513" t="inlineStr">
         <is>
@@ -37315,7 +37315,7 @@
         </is>
       </c>
       <c r="P513" t="n">
-        <v>639</v>
+        <v>1361</v>
       </c>
       <c r="Q513" t="n">
         <v>18</v>
@@ -37341,7 +37341,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E514" t="n">
         <v>4</v>
@@ -37368,13 +37368,13 @@
         <v>300</v>
       </c>
       <c r="K514" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="L514" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M514" t="n">
-        <v>9500</v>
+        <v>19500</v>
       </c>
       <c r="N514" t="inlineStr">
         <is>
@@ -37387,7 +37387,7 @@
         </is>
       </c>
       <c r="P514" t="n">
-        <v>528</v>
+        <v>1083</v>
       </c>
       <c r="Q514" t="n">
         <v>18</v>
@@ -37413,7 +37413,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E515" t="n">
         <v>4</v>
@@ -37440,13 +37440,13 @@
         <v>240</v>
       </c>
       <c r="K515" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L515" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M515" t="n">
-        <v>7500</v>
+        <v>14500</v>
       </c>
       <c r="N515" t="inlineStr">
         <is>
@@ -37459,7 +37459,7 @@
         </is>
       </c>
       <c r="P515" t="n">
-        <v>417</v>
+        <v>806</v>
       </c>
       <c r="Q515" t="n">
         <v>18</v>
@@ -37485,7 +37485,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E516" t="n">
         <v>4</v>
@@ -37509,16 +37509,16 @@
         </is>
       </c>
       <c r="J516" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="K516" t="n">
-        <v>5500</v>
+        <v>16000</v>
       </c>
       <c r="L516" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="M516" t="n">
-        <v>5750</v>
+        <v>16500</v>
       </c>
       <c r="N516" t="inlineStr">
         <is>
@@ -37531,7 +37531,7 @@
         </is>
       </c>
       <c r="P516" t="n">
-        <v>319</v>
+        <v>917</v>
       </c>
       <c r="Q516" t="n">
         <v>18</v>
@@ -37557,7 +37557,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E517" t="n">
         <v>4</v>
@@ -37581,16 +37581,16 @@
         </is>
       </c>
       <c r="J517" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K517" t="n">
-        <v>3500</v>
+        <v>13000</v>
       </c>
       <c r="L517" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="M517" t="n">
-        <v>3750</v>
+        <v>13500</v>
       </c>
       <c r="N517" t="inlineStr">
         <is>
@@ -37603,7 +37603,7 @@
         </is>
       </c>
       <c r="P517" t="n">
-        <v>208</v>
+        <v>750</v>
       </c>
       <c r="Q517" t="n">
         <v>18</v>
@@ -37629,7 +37629,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44391</v>
+        <v>44517</v>
       </c>
       <c r="E518" t="n">
         <v>4</v>
@@ -37649,20 +37649,20 @@
       </c>
       <c r="I518" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J518" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K518" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L518" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M518" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="N518" t="inlineStr">
         <is>
@@ -37675,7 +37675,7 @@
         </is>
       </c>
       <c r="P518" t="n">
-        <v>806</v>
+        <v>528</v>
       </c>
       <c r="Q518" t="n">
         <v>18</v>
@@ -37701,7 +37701,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E519" t="n">
         <v>4</v>
@@ -37716,25 +37716,25 @@
       </c>
       <c r="H519" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I519" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J519" t="n">
         <v>500</v>
       </c>
       <c r="K519" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L519" t="n">
         <v>12000</v>
       </c>
-      <c r="L519" t="n">
-        <v>13000</v>
-      </c>
       <c r="M519" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="N519" t="inlineStr">
         <is>
@@ -37747,7 +37747,7 @@
         </is>
       </c>
       <c r="P519" t="n">
-        <v>694</v>
+        <v>639</v>
       </c>
       <c r="Q519" t="n">
         <v>18</v>
@@ -37773,7 +37773,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E520" t="n">
         <v>4</v>
@@ -37788,25 +37788,25 @@
       </c>
       <c r="H520" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I520" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J520" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K520" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L520" t="n">
         <v>10000</v>
       </c>
-      <c r="L520" t="n">
-        <v>11000</v>
-      </c>
       <c r="M520" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N520" t="inlineStr">
         <is>
@@ -37819,7 +37819,7 @@
         </is>
       </c>
       <c r="P520" t="n">
-        <v>583</v>
+        <v>528</v>
       </c>
       <c r="Q520" t="n">
         <v>18</v>
@@ -37845,7 +37845,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E521" t="n">
         <v>4</v>
@@ -37860,25 +37860,25 @@
       </c>
       <c r="H521" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I521" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J521" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="K521" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="L521" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="M521" t="n">
-        <v>15500</v>
+        <v>7500</v>
       </c>
       <c r="N521" t="inlineStr">
         <is>
@@ -37891,7 +37891,7 @@
         </is>
       </c>
       <c r="P521" t="n">
-        <v>861</v>
+        <v>417</v>
       </c>
       <c r="Q521" t="n">
         <v>18</v>
@@ -37917,7 +37917,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E522" t="n">
         <v>4</v>
@@ -37932,25 +37932,25 @@
       </c>
       <c r="H522" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I522" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J522" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K522" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="L522" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="M522" t="n">
-        <v>12500</v>
+        <v>5750</v>
       </c>
       <c r="N522" t="inlineStr">
         <is>
@@ -37963,7 +37963,7 @@
         </is>
       </c>
       <c r="P522" t="n">
-        <v>694</v>
+        <v>319</v>
       </c>
       <c r="Q522" t="n">
         <v>18</v>
@@ -37989,7 +37989,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E523" t="n">
         <v>4</v>
@@ -38004,25 +38004,25 @@
       </c>
       <c r="H523" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I523" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J523" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K523" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="L523" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="M523" t="n">
-        <v>10500</v>
+        <v>3750</v>
       </c>
       <c r="N523" t="inlineStr">
         <is>
@@ -38035,7 +38035,7 @@
         </is>
       </c>
       <c r="P523" t="n">
-        <v>583</v>
+        <v>208</v>
       </c>
       <c r="Q523" t="n">
         <v>18</v>
@@ -38061,7 +38061,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44251</v>
+        <v>44391</v>
       </c>
       <c r="E524" t="n">
         <v>4</v>
@@ -38076,7 +38076,7 @@
       </c>
       <c r="H524" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I524" t="inlineStr">
@@ -38085,16 +38085,16 @@
         </is>
       </c>
       <c r="J524" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K524" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="L524" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M524" t="n">
-        <v>7750</v>
+        <v>14500</v>
       </c>
       <c r="N524" t="inlineStr">
         <is>
@@ -38107,7 +38107,7 @@
         </is>
       </c>
       <c r="P524" t="n">
-        <v>431</v>
+        <v>806</v>
       </c>
       <c r="Q524" t="n">
         <v>18</v>
@@ -38133,7 +38133,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44251</v>
+        <v>44391</v>
       </c>
       <c r="E525" t="n">
         <v>4</v>
@@ -38148,7 +38148,7 @@
       </c>
       <c r="H525" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I525" t="inlineStr">
@@ -38157,16 +38157,16 @@
         </is>
       </c>
       <c r="J525" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K525" t="n">
-        <v>5500</v>
+        <v>12000</v>
       </c>
       <c r="L525" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="M525" t="n">
-        <v>5750</v>
+        <v>12500</v>
       </c>
       <c r="N525" t="inlineStr">
         <is>
@@ -38179,7 +38179,7 @@
         </is>
       </c>
       <c r="P525" t="n">
-        <v>319</v>
+        <v>694</v>
       </c>
       <c r="Q525" t="n">
         <v>18</v>
@@ -38205,7 +38205,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44251</v>
+        <v>44391</v>
       </c>
       <c r="E526" t="n">
         <v>4</v>
@@ -38220,7 +38220,7 @@
       </c>
       <c r="H526" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I526" t="inlineStr">
@@ -38232,13 +38232,13 @@
         <v>160</v>
       </c>
       <c r="K526" t="n">
-        <v>3500</v>
+        <v>10000</v>
       </c>
       <c r="L526" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="M526" t="n">
-        <v>3750</v>
+        <v>10500</v>
       </c>
       <c r="N526" t="inlineStr">
         <is>
@@ -38251,7 +38251,7 @@
         </is>
       </c>
       <c r="P526" t="n">
-        <v>208</v>
+        <v>583</v>
       </c>
       <c r="Q526" t="n">
         <v>18</v>
@@ -38277,7 +38277,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44251</v>
+        <v>44391</v>
       </c>
       <c r="E527" t="n">
         <v>4</v>
@@ -38292,7 +38292,7 @@
       </c>
       <c r="H527" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I527" t="inlineStr">
@@ -38304,13 +38304,13 @@
         <v>600</v>
       </c>
       <c r="K527" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="L527" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="M527" t="n">
-        <v>4500</v>
+        <v>15500</v>
       </c>
       <c r="N527" t="inlineStr">
         <is>
@@ -38323,7 +38323,7 @@
         </is>
       </c>
       <c r="P527" t="n">
-        <v>250</v>
+        <v>861</v>
       </c>
       <c r="Q527" t="n">
         <v>18</v>
@@ -38349,7 +38349,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44251</v>
+        <v>44391</v>
       </c>
       <c r="E528" t="n">
         <v>4</v>
@@ -38364,7 +38364,7 @@
       </c>
       <c r="H528" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I528" t="inlineStr">
@@ -38373,16 +38373,16 @@
         </is>
       </c>
       <c r="J528" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K528" t="n">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="L528" t="n">
-        <v>3000</v>
+        <v>13000</v>
       </c>
       <c r="M528" t="n">
-        <v>2500</v>
+        <v>12500</v>
       </c>
       <c r="N528" t="inlineStr">
         <is>
@@ -38395,7 +38395,7 @@
         </is>
       </c>
       <c r="P528" t="n">
-        <v>139</v>
+        <v>694</v>
       </c>
       <c r="Q528" t="n">
         <v>18</v>
@@ -38421,7 +38421,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44251</v>
+        <v>44391</v>
       </c>
       <c r="E529" t="n">
         <v>4</v>
@@ -38441,20 +38441,20 @@
       </c>
       <c r="I529" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J529" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="K529" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L529" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M529" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="N529" t="inlineStr">
         <is>
@@ -38467,7 +38467,7 @@
         </is>
       </c>
       <c r="P529" t="n">
-        <v>528</v>
+        <v>583</v>
       </c>
       <c r="Q529" t="n">
         <v>18</v>
@@ -38508,25 +38508,25 @@
       </c>
       <c r="H530" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I530" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J530" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="K530" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L530" t="n">
         <v>8000</v>
       </c>
       <c r="M530" t="n">
-        <v>7500</v>
+        <v>7750</v>
       </c>
       <c r="N530" t="inlineStr">
         <is>
@@ -38539,7 +38539,7 @@
         </is>
       </c>
       <c r="P530" t="n">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="Q530" t="n">
         <v>18</v>
@@ -38565,7 +38565,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44181</v>
+        <v>44251</v>
       </c>
       <c r="E531" t="n">
         <v>4</v>
@@ -38580,25 +38580,25 @@
       </c>
       <c r="H531" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I531" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J531" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="K531" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="L531" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M531" t="n">
-        <v>9500</v>
+        <v>5750</v>
       </c>
       <c r="N531" t="inlineStr">
         <is>
@@ -38611,7 +38611,7 @@
         </is>
       </c>
       <c r="P531" t="n">
-        <v>528</v>
+        <v>319</v>
       </c>
       <c r="Q531" t="n">
         <v>18</v>
@@ -38637,7 +38637,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44181</v>
+        <v>44251</v>
       </c>
       <c r="E532" t="n">
         <v>4</v>
@@ -38652,25 +38652,25 @@
       </c>
       <c r="H532" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I532" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J532" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K532" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="L532" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M532" t="n">
-        <v>7500</v>
+        <v>3750</v>
       </c>
       <c r="N532" t="inlineStr">
         <is>
@@ -38683,7 +38683,7 @@
         </is>
       </c>
       <c r="P532" t="n">
-        <v>417</v>
+        <v>208</v>
       </c>
       <c r="Q532" t="n">
         <v>18</v>
@@ -38709,7 +38709,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44181</v>
+        <v>44251</v>
       </c>
       <c r="E533" t="n">
         <v>4</v>
@@ -38729,20 +38729,20 @@
       </c>
       <c r="I533" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J533" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K533" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L533" t="n">
         <v>5000</v>
       </c>
-      <c r="L533" t="n">
-        <v>6000</v>
-      </c>
       <c r="M533" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="N533" t="inlineStr">
         <is>
@@ -38755,7 +38755,7 @@
         </is>
       </c>
       <c r="P533" t="n">
-        <v>306</v>
+        <v>250</v>
       </c>
       <c r="Q533" t="n">
         <v>18</v>
@@ -38781,7 +38781,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44307</v>
+        <v>44251</v>
       </c>
       <c r="E534" t="n">
         <v>4</v>
@@ -38796,25 +38796,25 @@
       </c>
       <c r="H534" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I534" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J534" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K534" t="n">
-        <v>9500</v>
+        <v>2000</v>
       </c>
       <c r="L534" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="M534" t="n">
-        <v>9750</v>
+        <v>2500</v>
       </c>
       <c r="N534" t="inlineStr">
         <is>
@@ -38827,7 +38827,7 @@
         </is>
       </c>
       <c r="P534" t="n">
-        <v>542</v>
+        <v>139</v>
       </c>
       <c r="Q534" t="n">
         <v>18</v>
@@ -38853,7 +38853,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44307</v>
+        <v>44251</v>
       </c>
       <c r="E535" t="n">
         <v>4</v>
@@ -38868,25 +38868,25 @@
       </c>
       <c r="H535" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I535" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J535" t="n">
-        <v>220</v>
+        <v>1100</v>
       </c>
       <c r="K535" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L535" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M535" t="n">
-        <v>7955</v>
+        <v>9500</v>
       </c>
       <c r="N535" t="inlineStr">
         <is>
@@ -38899,7 +38899,7 @@
         </is>
       </c>
       <c r="P535" t="n">
-        <v>442</v>
+        <v>528</v>
       </c>
       <c r="Q535" t="n">
         <v>18</v>
@@ -38925,7 +38925,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44307</v>
+        <v>44251</v>
       </c>
       <c r="E536" t="n">
         <v>4</v>
@@ -38940,25 +38940,25 @@
       </c>
       <c r="H536" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I536" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J536" t="n">
-        <v>160</v>
+        <v>800</v>
       </c>
       <c r="K536" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L536" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M536" t="n">
-        <v>5750</v>
+        <v>7500</v>
       </c>
       <c r="N536" t="inlineStr">
         <is>
@@ -38971,7 +38971,7 @@
         </is>
       </c>
       <c r="P536" t="n">
-        <v>319</v>
+        <v>417</v>
       </c>
       <c r="Q536" t="n">
         <v>18</v>
@@ -38997,7 +38997,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44307</v>
+        <v>44181</v>
       </c>
       <c r="E537" t="n">
         <v>4</v>
@@ -39024,13 +39024,13 @@
         <v>700</v>
       </c>
       <c r="K537" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L537" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M537" t="n">
-        <v>7750</v>
+        <v>9500</v>
       </c>
       <c r="N537" t="inlineStr">
         <is>
@@ -39043,7 +39043,7 @@
         </is>
       </c>
       <c r="P537" t="n">
-        <v>431</v>
+        <v>528</v>
       </c>
       <c r="Q537" t="n">
         <v>18</v>
@@ -39069,7 +39069,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44307</v>
+        <v>44181</v>
       </c>
       <c r="E538" t="n">
         <v>4</v>
@@ -39093,16 +39093,16 @@
         </is>
       </c>
       <c r="J538" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K538" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L538" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M538" t="n">
-        <v>5750</v>
+        <v>7500</v>
       </c>
       <c r="N538" t="inlineStr">
         <is>
@@ -39115,7 +39115,7 @@
         </is>
       </c>
       <c r="P538" t="n">
-        <v>319</v>
+        <v>417</v>
       </c>
       <c r="Q538" t="n">
         <v>18</v>
@@ -39141,7 +39141,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44307</v>
+        <v>44181</v>
       </c>
       <c r="E539" t="n">
         <v>4</v>
@@ -39165,16 +39165,16 @@
         </is>
       </c>
       <c r="J539" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K539" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L539" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M539" t="n">
-        <v>3750</v>
+        <v>5500</v>
       </c>
       <c r="N539" t="inlineStr">
         <is>
@@ -39187,7 +39187,7 @@
         </is>
       </c>
       <c r="P539" t="n">
-        <v>208</v>
+        <v>306</v>
       </c>
       <c r="Q539" t="n">
         <v>18</v>
@@ -39228,7 +39228,7 @@
       </c>
       <c r="H540" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I540" t="inlineStr">
@@ -39237,16 +39237,16 @@
         </is>
       </c>
       <c r="J540" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K540" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="L540" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M540" t="n">
-        <v>5750</v>
+        <v>9750</v>
       </c>
       <c r="N540" t="inlineStr">
         <is>
@@ -39259,7 +39259,7 @@
         </is>
       </c>
       <c r="P540" t="n">
-        <v>319</v>
+        <v>542</v>
       </c>
       <c r="Q540" t="n">
         <v>18</v>
@@ -39300,7 +39300,7 @@
       </c>
       <c r="H541" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I541" t="inlineStr">
@@ -39309,16 +39309,16 @@
         </is>
       </c>
       <c r="J541" t="n">
-        <v>500</v>
+        <v>220</v>
       </c>
       <c r="K541" t="n">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="L541" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M541" t="n">
-        <v>3750</v>
+        <v>7955</v>
       </c>
       <c r="N541" t="inlineStr">
         <is>
@@ -39331,7 +39331,7 @@
         </is>
       </c>
       <c r="P541" t="n">
-        <v>208</v>
+        <v>442</v>
       </c>
       <c r="Q541" t="n">
         <v>18</v>
@@ -39372,43 +39372,475 @@
       </c>
       <c r="H542" t="inlineStr">
         <is>
+          <t>Cuatro cascos rojo</t>
+        </is>
+      </c>
+      <c r="I542" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J542" t="n">
+        <v>160</v>
+      </c>
+      <c r="K542" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L542" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M542" t="n">
+        <v>5750</v>
+      </c>
+      <c r="N542" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O542" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P542" t="n">
+        <v>319</v>
+      </c>
+      <c r="Q542" t="n">
+        <v>18</v>
+      </c>
+      <c r="R542" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="n">
+        <v>2</v>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D543" s="2" t="n">
+        <v>44307</v>
+      </c>
+      <c r="E543" t="n">
+        <v>4</v>
+      </c>
+      <c r="F543" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G543" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H543" t="inlineStr">
+        <is>
+          <t>Cuatro cascos verde</t>
+        </is>
+      </c>
+      <c r="I543" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J543" t="n">
+        <v>700</v>
+      </c>
+      <c r="K543" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L543" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M543" t="n">
+        <v>7750</v>
+      </c>
+      <c r="N543" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O543" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P543" t="n">
+        <v>431</v>
+      </c>
+      <c r="Q543" t="n">
+        <v>18</v>
+      </c>
+      <c r="R543" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="n">
+        <v>2</v>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D544" s="2" t="n">
+        <v>44307</v>
+      </c>
+      <c r="E544" t="n">
+        <v>4</v>
+      </c>
+      <c r="F544" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G544" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H544" t="inlineStr">
+        <is>
+          <t>Cuatro cascos verde</t>
+        </is>
+      </c>
+      <c r="I544" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J544" t="n">
+        <v>400</v>
+      </c>
+      <c r="K544" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L544" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M544" t="n">
+        <v>5750</v>
+      </c>
+      <c r="N544" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O544" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P544" t="n">
+        <v>319</v>
+      </c>
+      <c r="Q544" t="n">
+        <v>18</v>
+      </c>
+      <c r="R544" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="n">
+        <v>2</v>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D545" s="2" t="n">
+        <v>44307</v>
+      </c>
+      <c r="E545" t="n">
+        <v>4</v>
+      </c>
+      <c r="F545" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G545" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H545" t="inlineStr">
+        <is>
+          <t>Cuatro cascos verde</t>
+        </is>
+      </c>
+      <c r="I545" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J545" t="n">
+        <v>160</v>
+      </c>
+      <c r="K545" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L545" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M545" t="n">
+        <v>3750</v>
+      </c>
+      <c r="N545" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O545" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P545" t="n">
+        <v>208</v>
+      </c>
+      <c r="Q545" t="n">
+        <v>18</v>
+      </c>
+      <c r="R545" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="n">
+        <v>2</v>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D546" s="2" t="n">
+        <v>44307</v>
+      </c>
+      <c r="E546" t="n">
+        <v>4</v>
+      </c>
+      <c r="F546" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G546" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H546" t="inlineStr">
+        <is>
           <t>Morrón rojo</t>
         </is>
       </c>
-      <c r="I542" t="inlineStr">
+      <c r="I546" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J546" t="n">
+        <v>700</v>
+      </c>
+      <c r="K546" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L546" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M546" t="n">
+        <v>5750</v>
+      </c>
+      <c r="N546" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O546" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P546" t="n">
+        <v>319</v>
+      </c>
+      <c r="Q546" t="n">
+        <v>18</v>
+      </c>
+      <c r="R546" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="n">
+        <v>2</v>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D547" s="2" t="n">
+        <v>44307</v>
+      </c>
+      <c r="E547" t="n">
+        <v>4</v>
+      </c>
+      <c r="F547" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G547" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H547" t="inlineStr">
+        <is>
+          <t>Morrón rojo</t>
+        </is>
+      </c>
+      <c r="I547" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J547" t="n">
+        <v>500</v>
+      </c>
+      <c r="K547" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L547" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M547" t="n">
+        <v>3750</v>
+      </c>
+      <c r="N547" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O547" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P547" t="n">
+        <v>208</v>
+      </c>
+      <c r="Q547" t="n">
+        <v>18</v>
+      </c>
+      <c r="R547" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="n">
+        <v>2</v>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D548" s="2" t="n">
+        <v>44307</v>
+      </c>
+      <c r="E548" t="n">
+        <v>4</v>
+      </c>
+      <c r="F548" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G548" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H548" t="inlineStr">
+        <is>
+          <t>Morrón rojo</t>
+        </is>
+      </c>
+      <c r="I548" t="inlineStr">
         <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="J542" t="n">
+      <c r="J548" t="n">
         <v>300</v>
       </c>
-      <c r="K542" t="n">
+      <c r="K548" t="n">
         <v>2000</v>
       </c>
-      <c r="L542" t="n">
+      <c r="L548" t="n">
         <v>2500</v>
       </c>
-      <c r="M542" t="n">
+      <c r="M548" t="n">
         <v>2250</v>
       </c>
-      <c r="N542" t="inlineStr">
-        <is>
-          <t>$/caja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O542" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P542" t="n">
+      <c r="N548" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O548" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P548" t="n">
         <v>125</v>
       </c>
-      <c r="Q542" t="n">
-        <v>18</v>
-      </c>
-      <c r="R542" t="inlineStr">
+      <c r="Q548" t="n">
+        <v>18</v>
+      </c>
+      <c r="R548" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pimiento.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pimiento.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R577"/>
+  <dimension ref="A1:R582"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28125,7 +28125,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44167</v>
+        <v>44553</v>
       </c>
       <c r="E386" t="n">
         <v>4</v>
@@ -28140,7 +28140,7 @@
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
@@ -28149,16 +28149,16 @@
         </is>
       </c>
       <c r="J386" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="K386" t="n">
-        <v>13500</v>
+        <v>19000</v>
       </c>
       <c r="L386" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M386" t="n">
-        <v>13750</v>
+        <v>19500</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
@@ -28171,7 +28171,7 @@
         </is>
       </c>
       <c r="P386" t="n">
-        <v>764</v>
+        <v>1083</v>
       </c>
       <c r="Q386" t="n">
         <v>18</v>
@@ -28197,7 +28197,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44167</v>
+        <v>44553</v>
       </c>
       <c r="E387" t="n">
         <v>4</v>
@@ -28212,7 +28212,7 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
@@ -28221,16 +28221,16 @@
         </is>
       </c>
       <c r="J387" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="K387" t="n">
-        <v>8500</v>
+        <v>16000</v>
       </c>
       <c r="L387" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="M387" t="n">
-        <v>8750</v>
+        <v>16500</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
@@ -28243,7 +28243,7 @@
         </is>
       </c>
       <c r="P387" t="n">
-        <v>486</v>
+        <v>917</v>
       </c>
       <c r="Q387" t="n">
         <v>18</v>
@@ -28269,7 +28269,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44167</v>
+        <v>44553</v>
       </c>
       <c r="E388" t="n">
         <v>4</v>
@@ -28284,7 +28284,7 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
@@ -28293,16 +28293,16 @@
         </is>
       </c>
       <c r="J388" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="K388" t="n">
-        <v>5500</v>
+        <v>14000</v>
       </c>
       <c r="L388" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="M388" t="n">
-        <v>5750</v>
+        <v>14500</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         </is>
       </c>
       <c r="P388" t="n">
-        <v>319</v>
+        <v>806</v>
       </c>
       <c r="Q388" t="n">
         <v>18</v>
@@ -28341,7 +28341,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44161</v>
+        <v>44553</v>
       </c>
       <c r="E389" t="n">
         <v>4</v>
@@ -28365,16 +28365,16 @@
         </is>
       </c>
       <c r="J389" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K389" t="n">
-        <v>13000</v>
+        <v>5500</v>
       </c>
       <c r="L389" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="M389" t="n">
-        <v>13500</v>
+        <v>5750</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
@@ -28387,7 +28387,7 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>750</v>
+        <v>319</v>
       </c>
       <c r="Q389" t="n">
         <v>18</v>
@@ -28413,7 +28413,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44161</v>
+        <v>44553</v>
       </c>
       <c r="E390" t="n">
         <v>4</v>
@@ -28437,16 +28437,16 @@
         </is>
       </c>
       <c r="J390" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K390" t="n">
-        <v>9000</v>
+        <v>3500</v>
       </c>
       <c r="L390" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M390" t="n">
-        <v>9500</v>
+        <v>3750</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
@@ -28459,7 +28459,7 @@
         </is>
       </c>
       <c r="P390" t="n">
-        <v>528</v>
+        <v>208</v>
       </c>
       <c r="Q390" t="n">
         <v>18</v>
@@ -28485,7 +28485,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44161</v>
+        <v>44167</v>
       </c>
       <c r="E391" t="n">
         <v>4</v>
@@ -28505,20 +28505,20 @@
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J391" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="K391" t="n">
-        <v>6000</v>
+        <v>13500</v>
       </c>
       <c r="L391" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M391" t="n">
-        <v>6500</v>
+        <v>13750</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
@@ -28531,7 +28531,7 @@
         </is>
       </c>
       <c r="P391" t="n">
-        <v>361</v>
+        <v>764</v>
       </c>
       <c r="Q391" t="n">
         <v>18</v>
@@ -28557,7 +28557,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44328</v>
+        <v>44167</v>
       </c>
       <c r="E392" t="n">
         <v>4</v>
@@ -28577,20 +28577,20 @@
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J392" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K392" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="L392" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M392" t="n">
-        <v>7750</v>
+        <v>8750</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         </is>
       </c>
       <c r="P392" t="n">
-        <v>431</v>
+        <v>486</v>
       </c>
       <c r="Q392" t="n">
         <v>18</v>
@@ -28629,7 +28629,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44328</v>
+        <v>44167</v>
       </c>
       <c r="E393" t="n">
         <v>4</v>
@@ -28649,7 +28649,7 @@
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J393" t="n">
@@ -28701,7 +28701,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44328</v>
+        <v>44161</v>
       </c>
       <c r="E394" t="n">
         <v>4</v>
@@ -28721,20 +28721,20 @@
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J394" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K394" t="n">
-        <v>3500</v>
+        <v>13000</v>
       </c>
       <c r="L394" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="M394" t="n">
-        <v>3750</v>
+        <v>13500</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
@@ -28747,7 +28747,7 @@
         </is>
       </c>
       <c r="P394" t="n">
-        <v>208</v>
+        <v>750</v>
       </c>
       <c r="Q394" t="n">
         <v>18</v>
@@ -28773,7 +28773,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44328</v>
+        <v>44161</v>
       </c>
       <c r="E395" t="n">
         <v>4</v>
@@ -28788,25 +28788,25 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J395" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K395" t="n">
-        <v>11500</v>
+        <v>9000</v>
       </c>
       <c r="L395" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M395" t="n">
-        <v>11750</v>
+        <v>9500</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>653</v>
+        <v>528</v>
       </c>
       <c r="Q395" t="n">
         <v>18</v>
@@ -28845,7 +28845,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44328</v>
+        <v>44161</v>
       </c>
       <c r="E396" t="n">
         <v>4</v>
@@ -28860,25 +28860,25 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J396" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K396" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="L396" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M396" t="n">
-        <v>9750</v>
+        <v>6500</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         </is>
       </c>
       <c r="P396" t="n">
-        <v>542</v>
+        <v>361</v>
       </c>
       <c r="Q396" t="n">
         <v>18</v>
@@ -28932,16 +28932,16 @@
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J397" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K397" t="n">
         <v>7500</v>
@@ -28989,7 +28989,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44160</v>
+        <v>44328</v>
       </c>
       <c r="E398" t="n">
         <v>4</v>
@@ -29009,20 +29009,20 @@
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J398" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="K398" t="n">
-        <v>13000</v>
+        <v>5500</v>
       </c>
       <c r="L398" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="M398" t="n">
-        <v>13500</v>
+        <v>5750</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="P398" t="n">
-        <v>750</v>
+        <v>319</v>
       </c>
       <c r="Q398" t="n">
         <v>18</v>
@@ -29061,7 +29061,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44160</v>
+        <v>44328</v>
       </c>
       <c r="E399" t="n">
         <v>4</v>
@@ -29081,20 +29081,20 @@
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J399" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="K399" t="n">
-        <v>9000</v>
+        <v>3500</v>
       </c>
       <c r="L399" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M399" t="n">
-        <v>9500</v>
+        <v>3750</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         </is>
       </c>
       <c r="P399" t="n">
-        <v>528</v>
+        <v>208</v>
       </c>
       <c r="Q399" t="n">
         <v>18</v>
@@ -29133,7 +29133,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44160</v>
+        <v>44328</v>
       </c>
       <c r="E400" t="n">
         <v>4</v>
@@ -29148,25 +29148,25 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J400" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K400" t="n">
-        <v>6000</v>
+        <v>11500</v>
       </c>
       <c r="L400" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M400" t="n">
-        <v>6500</v>
+        <v>11750</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         </is>
       </c>
       <c r="P400" t="n">
-        <v>361</v>
+        <v>653</v>
       </c>
       <c r="Q400" t="n">
         <v>18</v>
@@ -29205,7 +29205,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44434</v>
+        <v>44328</v>
       </c>
       <c r="E401" t="n">
         <v>4</v>
@@ -29220,25 +29220,25 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J401" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K401" t="n">
-        <v>23000</v>
+        <v>9500</v>
       </c>
       <c r="L401" t="n">
-        <v>24000</v>
+        <v>10000</v>
       </c>
       <c r="M401" t="n">
-        <v>23500</v>
+        <v>9750</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         </is>
       </c>
       <c r="P401" t="n">
-        <v>1306</v>
+        <v>542</v>
       </c>
       <c r="Q401" t="n">
         <v>18</v>
@@ -29277,7 +29277,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44434</v>
+        <v>44328</v>
       </c>
       <c r="E402" t="n">
         <v>4</v>
@@ -29292,25 +29292,25 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J402" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K402" t="n">
-        <v>21000</v>
+        <v>7500</v>
       </c>
       <c r="L402" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="M402" t="n">
-        <v>21500</v>
+        <v>7750</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         </is>
       </c>
       <c r="P402" t="n">
-        <v>1194</v>
+        <v>431</v>
       </c>
       <c r="Q402" t="n">
         <v>18</v>
@@ -29349,7 +29349,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44434</v>
+        <v>44160</v>
       </c>
       <c r="E403" t="n">
         <v>4</v>
@@ -29369,20 +29369,20 @@
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J403" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="K403" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L403" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M403" t="n">
-        <v>17500</v>
+        <v>13500</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
@@ -29395,7 +29395,7 @@
         </is>
       </c>
       <c r="P403" t="n">
-        <v>972</v>
+        <v>750</v>
       </c>
       <c r="Q403" t="n">
         <v>18</v>
@@ -29421,7 +29421,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44434</v>
+        <v>44160</v>
       </c>
       <c r="E404" t="n">
         <v>4</v>
@@ -29436,25 +29436,25 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J404" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K404" t="n">
-        <v>27000</v>
+        <v>9000</v>
       </c>
       <c r="L404" t="n">
-        <v>29000</v>
+        <v>10000</v>
       </c>
       <c r="M404" t="n">
-        <v>28000</v>
+        <v>9500</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
@@ -29467,7 +29467,7 @@
         </is>
       </c>
       <c r="P404" t="n">
-        <v>1556</v>
+        <v>528</v>
       </c>
       <c r="Q404" t="n">
         <v>18</v>
@@ -29493,7 +29493,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44434</v>
+        <v>44160</v>
       </c>
       <c r="E405" t="n">
         <v>4</v>
@@ -29508,25 +29508,25 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J405" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K405" t="n">
-        <v>22000</v>
+        <v>6000</v>
       </c>
       <c r="L405" t="n">
-        <v>24000</v>
+        <v>7000</v>
       </c>
       <c r="M405" t="n">
-        <v>23000</v>
+        <v>6500</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
@@ -29539,7 +29539,7 @@
         </is>
       </c>
       <c r="P405" t="n">
-        <v>1278</v>
+        <v>361</v>
       </c>
       <c r="Q405" t="n">
         <v>18</v>
@@ -29580,25 +29580,25 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J406" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="K406" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="L406" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="M406" t="n">
-        <v>18000</v>
+        <v>23500</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         </is>
       </c>
       <c r="P406" t="n">
-        <v>1000</v>
+        <v>1306</v>
       </c>
       <c r="Q406" t="n">
         <v>18</v>
@@ -29637,7 +29637,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44231</v>
+        <v>44434</v>
       </c>
       <c r="E407" t="n">
         <v>4</v>
@@ -29652,25 +29652,25 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J407" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="K407" t="n">
-        <v>12500</v>
+        <v>21000</v>
       </c>
       <c r="L407" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="M407" t="n">
-        <v>12750</v>
+        <v>21500</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
@@ -29683,7 +29683,7 @@
         </is>
       </c>
       <c r="P407" t="n">
-        <v>708</v>
+        <v>1194</v>
       </c>
       <c r="Q407" t="n">
         <v>18</v>
@@ -29709,7 +29709,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44231</v>
+        <v>44434</v>
       </c>
       <c r="E408" t="n">
         <v>4</v>
@@ -29724,25 +29724,25 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J408" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K408" t="n">
-        <v>10500</v>
+        <v>17000</v>
       </c>
       <c r="L408" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="M408" t="n">
-        <v>10750</v>
+        <v>17500</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         </is>
       </c>
       <c r="P408" t="n">
-        <v>597</v>
+        <v>972</v>
       </c>
       <c r="Q408" t="n">
         <v>18</v>
@@ -29781,7 +29781,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44231</v>
+        <v>44434</v>
       </c>
       <c r="E409" t="n">
         <v>4</v>
@@ -29796,25 +29796,25 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J409" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="K409" t="n">
-        <v>7500</v>
+        <v>27000</v>
       </c>
       <c r="L409" t="n">
-        <v>8000</v>
+        <v>29000</v>
       </c>
       <c r="M409" t="n">
-        <v>7750</v>
+        <v>28000</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
@@ -29827,7 +29827,7 @@
         </is>
       </c>
       <c r="P409" t="n">
-        <v>431</v>
+        <v>1556</v>
       </c>
       <c r="Q409" t="n">
         <v>18</v>
@@ -29853,7 +29853,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44231</v>
+        <v>44434</v>
       </c>
       <c r="E410" t="n">
         <v>4</v>
@@ -29868,25 +29868,25 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J410" t="n">
         <v>500</v>
       </c>
       <c r="K410" t="n">
-        <v>5500</v>
+        <v>22000</v>
       </c>
       <c r="L410" t="n">
-        <v>6000</v>
+        <v>24000</v>
       </c>
       <c r="M410" t="n">
-        <v>5750</v>
+        <v>23000</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
@@ -29899,7 +29899,7 @@
         </is>
       </c>
       <c r="P410" t="n">
-        <v>319</v>
+        <v>1278</v>
       </c>
       <c r="Q410" t="n">
         <v>18</v>
@@ -29925,7 +29925,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44231</v>
+        <v>44434</v>
       </c>
       <c r="E411" t="n">
         <v>4</v>
@@ -29940,25 +29940,25 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J411" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K411" t="n">
-        <v>3500</v>
+        <v>17000</v>
       </c>
       <c r="L411" t="n">
-        <v>4000</v>
+        <v>19000</v>
       </c>
       <c r="M411" t="n">
-        <v>3750</v>
+        <v>18000</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
@@ -29971,7 +29971,7 @@
         </is>
       </c>
       <c r="P411" t="n">
-        <v>208</v>
+        <v>1000</v>
       </c>
       <c r="Q411" t="n">
         <v>18</v>
@@ -30012,7 +30012,7 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
@@ -30021,16 +30021,16 @@
         </is>
       </c>
       <c r="J412" t="n">
-        <v>700</v>
+        <v>160</v>
       </c>
       <c r="K412" t="n">
-        <v>16500</v>
+        <v>12500</v>
       </c>
       <c r="L412" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M412" t="n">
-        <v>16750</v>
+        <v>12750</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
@@ -30043,7 +30043,7 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>931</v>
+        <v>708</v>
       </c>
       <c r="Q412" t="n">
         <v>18</v>
@@ -30084,7 +30084,7 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
@@ -30093,16 +30093,16 @@
         </is>
       </c>
       <c r="J413" t="n">
-        <v>600</v>
+        <v>160</v>
       </c>
       <c r="K413" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="L413" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M413" t="n">
-        <v>13750</v>
+        <v>10750</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
@@ -30115,7 +30115,7 @@
         </is>
       </c>
       <c r="P413" t="n">
-        <v>764</v>
+        <v>597</v>
       </c>
       <c r="Q413" t="n">
         <v>18</v>
@@ -30156,7 +30156,7 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
@@ -30165,16 +30165,16 @@
         </is>
       </c>
       <c r="J414" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K414" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="L414" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M414" t="n">
-        <v>9750</v>
+        <v>7750</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
@@ -30187,7 +30187,7 @@
         </is>
       </c>
       <c r="P414" t="n">
-        <v>542</v>
+        <v>431</v>
       </c>
       <c r="Q414" t="n">
         <v>18</v>
@@ -30213,7 +30213,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44490</v>
+        <v>44231</v>
       </c>
       <c r="E415" t="n">
         <v>4</v>
@@ -30237,16 +30237,16 @@
         </is>
       </c>
       <c r="J415" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="K415" t="n">
-        <v>26000</v>
+        <v>5500</v>
       </c>
       <c r="L415" t="n">
-        <v>28000</v>
+        <v>6000</v>
       </c>
       <c r="M415" t="n">
-        <v>27000</v>
+        <v>5750</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
@@ -30259,7 +30259,7 @@
         </is>
       </c>
       <c r="P415" t="n">
-        <v>1500</v>
+        <v>319</v>
       </c>
       <c r="Q415" t="n">
         <v>18</v>
@@ -30285,7 +30285,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44490</v>
+        <v>44231</v>
       </c>
       <c r="E416" t="n">
         <v>4</v>
@@ -30309,16 +30309,16 @@
         </is>
       </c>
       <c r="J416" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K416" t="n">
-        <v>22000</v>
+        <v>3500</v>
       </c>
       <c r="L416" t="n">
-        <v>24000</v>
+        <v>4000</v>
       </c>
       <c r="M416" t="n">
-        <v>23000</v>
+        <v>3750</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>1278</v>
+        <v>208</v>
       </c>
       <c r="Q416" t="n">
         <v>18</v>
@@ -30357,7 +30357,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44490</v>
+        <v>44231</v>
       </c>
       <c r="E417" t="n">
         <v>4</v>
@@ -30372,25 +30372,25 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J417" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K417" t="n">
-        <v>18000</v>
+        <v>16500</v>
       </c>
       <c r="L417" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="M417" t="n">
-        <v>19000</v>
+        <v>16750</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
@@ -30403,7 +30403,7 @@
         </is>
       </c>
       <c r="P417" t="n">
-        <v>1056</v>
+        <v>931</v>
       </c>
       <c r="Q417" t="n">
         <v>18</v>
@@ -30429,7 +30429,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44259</v>
+        <v>44231</v>
       </c>
       <c r="E418" t="n">
         <v>4</v>
@@ -30444,25 +30444,25 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J418" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K418" t="n">
-        <v>8500</v>
+        <v>13500</v>
       </c>
       <c r="L418" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M418" t="n">
-        <v>8750</v>
+        <v>13750</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         </is>
       </c>
       <c r="P418" t="n">
-        <v>486</v>
+        <v>764</v>
       </c>
       <c r="Q418" t="n">
         <v>18</v>
@@ -30501,7 +30501,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44259</v>
+        <v>44231</v>
       </c>
       <c r="E419" t="n">
         <v>4</v>
@@ -30516,25 +30516,25 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J419" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K419" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="L419" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M419" t="n">
-        <v>6750</v>
+        <v>9750</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         </is>
       </c>
       <c r="P419" t="n">
-        <v>375</v>
+        <v>542</v>
       </c>
       <c r="Q419" t="n">
         <v>18</v>
@@ -30573,7 +30573,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44259</v>
+        <v>44490</v>
       </c>
       <c r="E420" t="n">
         <v>4</v>
@@ -30588,25 +30588,25 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J420" t="n">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="K420" t="n">
-        <v>4500</v>
+        <v>26000</v>
       </c>
       <c r="L420" t="n">
-        <v>5000</v>
+        <v>28000</v>
       </c>
       <c r="M420" t="n">
-        <v>4750</v>
+        <v>27000</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>264</v>
+        <v>1500</v>
       </c>
       <c r="Q420" t="n">
         <v>18</v>
@@ -30645,7 +30645,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44259</v>
+        <v>44490</v>
       </c>
       <c r="E421" t="n">
         <v>4</v>
@@ -30665,20 +30665,20 @@
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J421" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K421" t="n">
-        <v>5500</v>
+        <v>22000</v>
       </c>
       <c r="L421" t="n">
-        <v>6000</v>
+        <v>24000</v>
       </c>
       <c r="M421" t="n">
-        <v>5750</v>
+        <v>23000</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
@@ -30691,7 +30691,7 @@
         </is>
       </c>
       <c r="P421" t="n">
-        <v>319</v>
+        <v>1278</v>
       </c>
       <c r="Q421" t="n">
         <v>18</v>
@@ -30717,7 +30717,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44259</v>
+        <v>44490</v>
       </c>
       <c r="E422" t="n">
         <v>4</v>
@@ -30737,20 +30737,20 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J422" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K422" t="n">
-        <v>3500</v>
+        <v>18000</v>
       </c>
       <c r="L422" t="n">
-        <v>4000</v>
+        <v>20000</v>
       </c>
       <c r="M422" t="n">
-        <v>3750</v>
+        <v>19000</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
@@ -30763,7 +30763,7 @@
         </is>
       </c>
       <c r="P422" t="n">
-        <v>208</v>
+        <v>1056</v>
       </c>
       <c r="Q422" t="n">
         <v>18</v>
@@ -30804,7 +30804,7 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
@@ -30813,16 +30813,16 @@
         </is>
       </c>
       <c r="J423" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K423" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="L423" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M423" t="n">
-        <v>7500</v>
+        <v>8750</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
@@ -30835,7 +30835,7 @@
         </is>
       </c>
       <c r="P423" t="n">
-        <v>417</v>
+        <v>486</v>
       </c>
       <c r="Q423" t="n">
         <v>18</v>
@@ -30876,7 +30876,7 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
@@ -30888,13 +30888,13 @@
         <v>400</v>
       </c>
       <c r="K424" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L424" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M424" t="n">
-        <v>5500</v>
+        <v>6750</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
@@ -30907,7 +30907,7 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>306</v>
+        <v>375</v>
       </c>
       <c r="Q424" t="n">
         <v>18</v>
@@ -30948,7 +30948,7 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
@@ -30960,13 +30960,13 @@
         <v>300</v>
       </c>
       <c r="K425" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L425" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M425" t="n">
-        <v>3500</v>
+        <v>4750</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>194</v>
+        <v>264</v>
       </c>
       <c r="Q425" t="n">
         <v>18</v>
@@ -31005,7 +31005,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44251</v>
+        <v>44259</v>
       </c>
       <c r="E426" t="n">
         <v>4</v>
@@ -31020,7 +31020,7 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
@@ -31029,16 +31029,16 @@
         </is>
       </c>
       <c r="J426" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K426" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L426" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M426" t="n">
-        <v>7750</v>
+        <v>5750</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>431</v>
+        <v>319</v>
       </c>
       <c r="Q426" t="n">
         <v>18</v>
@@ -31077,7 +31077,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44251</v>
+        <v>44259</v>
       </c>
       <c r="E427" t="n">
         <v>4</v>
@@ -31092,7 +31092,7 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
@@ -31101,16 +31101,16 @@
         </is>
       </c>
       <c r="J427" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K427" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="L427" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M427" t="n">
-        <v>5750</v>
+        <v>3750</v>
       </c>
       <c r="N427" t="inlineStr">
         <is>
@@ -31123,7 +31123,7 @@
         </is>
       </c>
       <c r="P427" t="n">
-        <v>319</v>
+        <v>208</v>
       </c>
       <c r="Q427" t="n">
         <v>18</v>
@@ -31149,7 +31149,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44251</v>
+        <v>44259</v>
       </c>
       <c r="E428" t="n">
         <v>4</v>
@@ -31164,25 +31164,25 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J428" t="n">
-        <v>160</v>
+        <v>600</v>
       </c>
       <c r="K428" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="L428" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M428" t="n">
-        <v>3750</v>
+        <v>7500</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         </is>
       </c>
       <c r="P428" t="n">
-        <v>208</v>
+        <v>417</v>
       </c>
       <c r="Q428" t="n">
         <v>18</v>
@@ -31221,7 +31221,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44251</v>
+        <v>44259</v>
       </c>
       <c r="E429" t="n">
         <v>4</v>
@@ -31236,25 +31236,25 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J429" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K429" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L429" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M429" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="N429" t="inlineStr">
         <is>
@@ -31267,7 +31267,7 @@
         </is>
       </c>
       <c r="P429" t="n">
-        <v>250</v>
+        <v>306</v>
       </c>
       <c r="Q429" t="n">
         <v>18</v>
@@ -31293,7 +31293,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44251</v>
+        <v>44259</v>
       </c>
       <c r="E430" t="n">
         <v>4</v>
@@ -31308,25 +31308,25 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J430" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K430" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L430" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M430" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
@@ -31339,7 +31339,7 @@
         </is>
       </c>
       <c r="P430" t="n">
-        <v>139</v>
+        <v>194</v>
       </c>
       <c r="Q430" t="n">
         <v>18</v>
@@ -31380,7 +31380,7 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
@@ -31389,16 +31389,16 @@
         </is>
       </c>
       <c r="J431" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="K431" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="L431" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M431" t="n">
-        <v>9500</v>
+        <v>7750</v>
       </c>
       <c r="N431" t="inlineStr">
         <is>
@@ -31411,7 +31411,7 @@
         </is>
       </c>
       <c r="P431" t="n">
-        <v>528</v>
+        <v>431</v>
       </c>
       <c r="Q431" t="n">
         <v>18</v>
@@ -31452,7 +31452,7 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
@@ -31461,16 +31461,16 @@
         </is>
       </c>
       <c r="J432" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="K432" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L432" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M432" t="n">
-        <v>7500</v>
+        <v>5750</v>
       </c>
       <c r="N432" t="inlineStr">
         <is>
@@ -31483,7 +31483,7 @@
         </is>
       </c>
       <c r="P432" t="n">
-        <v>417</v>
+        <v>319</v>
       </c>
       <c r="Q432" t="n">
         <v>18</v>
@@ -31509,7 +31509,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44286</v>
+        <v>44251</v>
       </c>
       <c r="E433" t="n">
         <v>4</v>
@@ -31529,20 +31529,20 @@
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J433" t="n">
-        <v>1200</v>
+        <v>160</v>
       </c>
       <c r="K433" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L433" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M433" t="n">
-        <v>5500</v>
+        <v>3750</v>
       </c>
       <c r="N433" t="inlineStr">
         <is>
@@ -31555,7 +31555,7 @@
         </is>
       </c>
       <c r="P433" t="n">
-        <v>306</v>
+        <v>208</v>
       </c>
       <c r="Q433" t="n">
         <v>18</v>
@@ -31581,7 +31581,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44286</v>
+        <v>44251</v>
       </c>
       <c r="E434" t="n">
         <v>4</v>
@@ -31596,25 +31596,25 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J434" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K434" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L434" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M434" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="N434" t="inlineStr">
         <is>
@@ -31627,7 +31627,7 @@
         </is>
       </c>
       <c r="P434" t="n">
-        <v>194</v>
+        <v>250</v>
       </c>
       <c r="Q434" t="n">
         <v>18</v>
@@ -31653,7 +31653,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44286</v>
+        <v>44251</v>
       </c>
       <c r="E435" t="n">
         <v>4</v>
@@ -31673,20 +31673,20 @@
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J435" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="K435" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="L435" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M435" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
@@ -31699,7 +31699,7 @@
         </is>
       </c>
       <c r="P435" t="n">
-        <v>250</v>
+        <v>139</v>
       </c>
       <c r="Q435" t="n">
         <v>18</v>
@@ -31725,7 +31725,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44286</v>
+        <v>44251</v>
       </c>
       <c r="E436" t="n">
         <v>4</v>
@@ -31740,25 +31740,25 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J436" t="n">
         <v>1100</v>
       </c>
       <c r="K436" t="n">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="L436" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="M436" t="n">
-        <v>2500</v>
+        <v>9500</v>
       </c>
       <c r="N436" t="inlineStr">
         <is>
@@ -31771,7 +31771,7 @@
         </is>
       </c>
       <c r="P436" t="n">
-        <v>139</v>
+        <v>528</v>
       </c>
       <c r="Q436" t="n">
         <v>18</v>
@@ -31797,7 +31797,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44286</v>
+        <v>44251</v>
       </c>
       <c r="E437" t="n">
         <v>4</v>
@@ -31817,20 +31817,20 @@
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J437" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="K437" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L437" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M437" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
@@ -31843,7 +31843,7 @@
         </is>
       </c>
       <c r="P437" t="n">
-        <v>250</v>
+        <v>417</v>
       </c>
       <c r="Q437" t="n">
         <v>18</v>
@@ -31884,25 +31884,25 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J438" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="K438" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="L438" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M438" t="n">
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         </is>
       </c>
       <c r="P438" t="n">
-        <v>139</v>
+        <v>306</v>
       </c>
       <c r="Q438" t="n">
         <v>18</v>
@@ -31941,7 +31941,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44279</v>
+        <v>44286</v>
       </c>
       <c r="E439" t="n">
         <v>4</v>
@@ -31961,20 +31961,20 @@
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J439" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="K439" t="n">
-        <v>7500</v>
+        <v>3000</v>
       </c>
       <c r="L439" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M439" t="n">
-        <v>7750</v>
+        <v>3500</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
@@ -31987,7 +31987,7 @@
         </is>
       </c>
       <c r="P439" t="n">
-        <v>431</v>
+        <v>194</v>
       </c>
       <c r="Q439" t="n">
         <v>18</v>
@@ -32013,7 +32013,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44279</v>
+        <v>44286</v>
       </c>
       <c r="E440" t="n">
         <v>4</v>
@@ -32028,25 +32028,25 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J440" t="n">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="K440" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L440" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M440" t="n">
-        <v>5750</v>
+        <v>4500</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
@@ -32059,7 +32059,7 @@
         </is>
       </c>
       <c r="P440" t="n">
-        <v>319</v>
+        <v>250</v>
       </c>
       <c r="Q440" t="n">
         <v>18</v>
@@ -32085,7 +32085,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44279</v>
+        <v>44286</v>
       </c>
       <c r="E441" t="n">
         <v>4</v>
@@ -32100,25 +32100,25 @@
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J441" t="n">
-        <v>160</v>
+        <v>1100</v>
       </c>
       <c r="K441" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="L441" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M441" t="n">
-        <v>3750</v>
+        <v>2500</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         </is>
       </c>
       <c r="P441" t="n">
-        <v>208</v>
+        <v>139</v>
       </c>
       <c r="Q441" t="n">
         <v>18</v>
@@ -32157,7 +32157,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44279</v>
+        <v>44286</v>
       </c>
       <c r="E442" t="n">
         <v>4</v>
@@ -32172,7 +32172,7 @@
       </c>
       <c r="H442" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I442" t="inlineStr">
@@ -32181,16 +32181,16 @@
         </is>
       </c>
       <c r="J442" t="n">
-        <v>360</v>
+        <v>1200</v>
       </c>
       <c r="K442" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L442" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M442" t="n">
-        <v>5750</v>
+        <v>4500</v>
       </c>
       <c r="N442" t="inlineStr">
         <is>
@@ -32203,7 +32203,7 @@
         </is>
       </c>
       <c r="P442" t="n">
-        <v>319</v>
+        <v>250</v>
       </c>
       <c r="Q442" t="n">
         <v>18</v>
@@ -32229,7 +32229,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44279</v>
+        <v>44286</v>
       </c>
       <c r="E443" t="n">
         <v>4</v>
@@ -32244,7 +32244,7 @@
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I443" t="inlineStr">
@@ -32253,16 +32253,16 @@
         </is>
       </c>
       <c r="J443" t="n">
-        <v>240</v>
+        <v>800</v>
       </c>
       <c r="K443" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="L443" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M443" t="n">
-        <v>3750</v>
+        <v>2500</v>
       </c>
       <c r="N443" t="inlineStr">
         <is>
@@ -32275,7 +32275,7 @@
         </is>
       </c>
       <c r="P443" t="n">
-        <v>208</v>
+        <v>139</v>
       </c>
       <c r="Q443" t="n">
         <v>18</v>
@@ -32316,25 +32316,25 @@
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J444" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K444" t="n">
-        <v>1500</v>
+        <v>7500</v>
       </c>
       <c r="L444" t="n">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="M444" t="n">
-        <v>1750</v>
+        <v>7750</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
@@ -32347,7 +32347,7 @@
         </is>
       </c>
       <c r="P444" t="n">
-        <v>97</v>
+        <v>431</v>
       </c>
       <c r="Q444" t="n">
         <v>18</v>
@@ -32373,7 +32373,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44322</v>
+        <v>44279</v>
       </c>
       <c r="E445" t="n">
         <v>4</v>
@@ -32388,25 +32388,25 @@
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J445" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="K445" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L445" t="n">
         <v>6000</v>
       </c>
-      <c r="L445" t="n">
-        <v>7000</v>
-      </c>
       <c r="M445" t="n">
-        <v>6500</v>
+        <v>5750</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         </is>
       </c>
       <c r="P445" t="n">
-        <v>361</v>
+        <v>319</v>
       </c>
       <c r="Q445" t="n">
         <v>18</v>
@@ -32445,7 +32445,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44322</v>
+        <v>44279</v>
       </c>
       <c r="E446" t="n">
         <v>4</v>
@@ -32460,25 +32460,25 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J446" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="K446" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L446" t="n">
         <v>4000</v>
       </c>
-      <c r="L446" t="n">
-        <v>5000</v>
-      </c>
       <c r="M446" t="n">
-        <v>4500</v>
+        <v>3750</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
@@ -32491,7 +32491,7 @@
         </is>
       </c>
       <c r="P446" t="n">
-        <v>250</v>
+        <v>208</v>
       </c>
       <c r="Q446" t="n">
         <v>18</v>
@@ -32517,7 +32517,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44322</v>
+        <v>44279</v>
       </c>
       <c r="E447" t="n">
         <v>4</v>
@@ -32537,20 +32537,20 @@
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J447" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="K447" t="n">
-        <v>2000</v>
+        <v>5500</v>
       </c>
       <c r="L447" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M447" t="n">
-        <v>2500</v>
+        <v>5750</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
@@ -32563,7 +32563,7 @@
         </is>
       </c>
       <c r="P447" t="n">
-        <v>139</v>
+        <v>319</v>
       </c>
       <c r="Q447" t="n">
         <v>18</v>
@@ -32589,7 +32589,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44322</v>
+        <v>44279</v>
       </c>
       <c r="E448" t="n">
         <v>4</v>
@@ -32604,25 +32604,25 @@
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J448" t="n">
-        <v>700</v>
+        <v>240</v>
       </c>
       <c r="K448" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L448" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="M448" t="n">
-        <v>6250</v>
+        <v>3750</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         </is>
       </c>
       <c r="P448" t="n">
-        <v>347</v>
+        <v>208</v>
       </c>
       <c r="Q448" t="n">
         <v>18</v>
@@ -32661,7 +32661,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44322</v>
+        <v>44279</v>
       </c>
       <c r="E449" t="n">
         <v>4</v>
@@ -32676,25 +32676,25 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J449" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="K449" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="L449" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="M449" t="n">
-        <v>4250</v>
+        <v>1750</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
@@ -32707,7 +32707,7 @@
         </is>
       </c>
       <c r="P449" t="n">
-        <v>236</v>
+        <v>97</v>
       </c>
       <c r="Q449" t="n">
         <v>18</v>
@@ -32748,25 +32748,25 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J450" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="K450" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="L450" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="M450" t="n">
-        <v>2250</v>
+        <v>6500</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
@@ -32779,7 +32779,7 @@
         </is>
       </c>
       <c r="P450" t="n">
-        <v>125</v>
+        <v>361</v>
       </c>
       <c r="Q450" t="n">
         <v>18</v>
@@ -32805,7 +32805,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44391</v>
+        <v>44322</v>
       </c>
       <c r="E451" t="n">
         <v>4</v>
@@ -32825,20 +32825,20 @@
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J451" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K451" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="L451" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="M451" t="n">
-        <v>14500</v>
+        <v>4500</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
@@ -32851,7 +32851,7 @@
         </is>
       </c>
       <c r="P451" t="n">
-        <v>806</v>
+        <v>250</v>
       </c>
       <c r="Q451" t="n">
         <v>18</v>
@@ -32877,7 +32877,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44391</v>
+        <v>44322</v>
       </c>
       <c r="E452" t="n">
         <v>4</v>
@@ -32897,20 +32897,20 @@
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J452" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K452" t="n">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="L452" t="n">
-        <v>13000</v>
+        <v>3000</v>
       </c>
       <c r="M452" t="n">
-        <v>12500</v>
+        <v>2500</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
@@ -32923,7 +32923,7 @@
         </is>
       </c>
       <c r="P452" t="n">
-        <v>694</v>
+        <v>139</v>
       </c>
       <c r="Q452" t="n">
         <v>18</v>
@@ -32949,7 +32949,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44391</v>
+        <v>44322</v>
       </c>
       <c r="E453" t="n">
         <v>4</v>
@@ -32964,25 +32964,25 @@
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J453" t="n">
-        <v>160</v>
+        <v>700</v>
       </c>
       <c r="K453" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L453" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="M453" t="n">
-        <v>10500</v>
+        <v>6250</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
@@ -32995,7 +32995,7 @@
         </is>
       </c>
       <c r="P453" t="n">
-        <v>583</v>
+        <v>347</v>
       </c>
       <c r="Q453" t="n">
         <v>18</v>
@@ -33021,7 +33021,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44391</v>
+        <v>44322</v>
       </c>
       <c r="E454" t="n">
         <v>4</v>
@@ -33041,20 +33041,20 @@
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J454" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K454" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="L454" t="n">
-        <v>16000</v>
+        <v>4500</v>
       </c>
       <c r="M454" t="n">
-        <v>15500</v>
+        <v>4250</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
@@ -33067,7 +33067,7 @@
         </is>
       </c>
       <c r="P454" t="n">
-        <v>861</v>
+        <v>236</v>
       </c>
       <c r="Q454" t="n">
         <v>18</v>
@@ -33093,7 +33093,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44391</v>
+        <v>44322</v>
       </c>
       <c r="E455" t="n">
         <v>4</v>
@@ -33113,20 +33113,20 @@
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J455" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K455" t="n">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="L455" t="n">
-        <v>13000</v>
+        <v>2500</v>
       </c>
       <c r="M455" t="n">
-        <v>12500</v>
+        <v>2250</v>
       </c>
       <c r="N455" t="inlineStr">
         <is>
@@ -33139,7 +33139,7 @@
         </is>
       </c>
       <c r="P455" t="n">
-        <v>694</v>
+        <v>125</v>
       </c>
       <c r="Q455" t="n">
         <v>18</v>
@@ -33180,25 +33180,25 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J456" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K456" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L456" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M456" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
@@ -33211,7 +33211,7 @@
         </is>
       </c>
       <c r="P456" t="n">
-        <v>583</v>
+        <v>806</v>
       </c>
       <c r="Q456" t="n">
         <v>18</v>
@@ -33237,7 +33237,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44510</v>
+        <v>44391</v>
       </c>
       <c r="E457" t="n">
         <v>4</v>
@@ -33257,20 +33257,20 @@
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J457" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="K457" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="L457" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M457" t="n">
-        <v>19500</v>
+        <v>12500</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
@@ -33283,7 +33283,7 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>1083</v>
+        <v>694</v>
       </c>
       <c r="Q457" t="n">
         <v>18</v>
@@ -33309,7 +33309,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44510</v>
+        <v>44391</v>
       </c>
       <c r="E458" t="n">
         <v>4</v>
@@ -33329,20 +33329,20 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J458" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="K458" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="L458" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="M458" t="n">
-        <v>16500</v>
+        <v>10500</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         </is>
       </c>
       <c r="P458" t="n">
-        <v>917</v>
+        <v>583</v>
       </c>
       <c r="Q458" t="n">
         <v>18</v>
@@ -33381,7 +33381,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44510</v>
+        <v>44391</v>
       </c>
       <c r="E459" t="n">
         <v>4</v>
@@ -33396,25 +33396,25 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J459" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K459" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L459" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M459" t="n">
-        <v>13500</v>
+        <v>15500</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
@@ -33427,7 +33427,7 @@
         </is>
       </c>
       <c r="P459" t="n">
-        <v>750</v>
+        <v>861</v>
       </c>
       <c r="Q459" t="n">
         <v>18</v>
@@ -33453,7 +33453,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44420</v>
+        <v>44391</v>
       </c>
       <c r="E460" t="n">
         <v>4</v>
@@ -33468,25 +33468,25 @@
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J460" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K460" t="n">
-        <v>29000</v>
+        <v>12000</v>
       </c>
       <c r="L460" t="n">
-        <v>30000</v>
+        <v>13000</v>
       </c>
       <c r="M460" t="n">
-        <v>29500</v>
+        <v>12500</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
@@ -33499,7 +33499,7 @@
         </is>
       </c>
       <c r="P460" t="n">
-        <v>1639</v>
+        <v>694</v>
       </c>
       <c r="Q460" t="n">
         <v>18</v>
@@ -33525,7 +33525,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44420</v>
+        <v>44391</v>
       </c>
       <c r="E461" t="n">
         <v>4</v>
@@ -33540,25 +33540,25 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J461" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="K461" t="n">
-        <v>27000</v>
+        <v>10000</v>
       </c>
       <c r="L461" t="n">
-        <v>28000</v>
+        <v>11000</v>
       </c>
       <c r="M461" t="n">
-        <v>27500</v>
+        <v>10500</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
@@ -33571,7 +33571,7 @@
         </is>
       </c>
       <c r="P461" t="n">
-        <v>1528</v>
+        <v>583</v>
       </c>
       <c r="Q461" t="n">
         <v>18</v>
@@ -33597,7 +33597,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44420</v>
+        <v>44510</v>
       </c>
       <c r="E462" t="n">
         <v>4</v>
@@ -33617,20 +33617,20 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J462" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="K462" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="L462" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M462" t="n">
-        <v>24500</v>
+        <v>19500</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
@@ -33643,7 +33643,7 @@
         </is>
       </c>
       <c r="P462" t="n">
-        <v>1361</v>
+        <v>1083</v>
       </c>
       <c r="Q462" t="n">
         <v>18</v>
@@ -33669,7 +33669,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44420</v>
+        <v>44510</v>
       </c>
       <c r="E463" t="n">
         <v>4</v>
@@ -33684,29 +33684,29 @@
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J463" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="K463" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="L463" t="n">
-        <v>27000</v>
+        <v>17000</v>
       </c>
       <c r="M463" t="n">
-        <v>26000</v>
+        <v>16500</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O463" t="inlineStr">
@@ -33715,10 +33715,10 @@
         </is>
       </c>
       <c r="P463" t="n">
-        <v>1300</v>
+        <v>917</v>
       </c>
       <c r="Q463" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R463" t="inlineStr">
         <is>
@@ -33741,7 +33741,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44420</v>
+        <v>44510</v>
       </c>
       <c r="E464" t="n">
         <v>4</v>
@@ -33756,29 +33756,29 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J464" t="n">
         <v>800</v>
       </c>
       <c r="K464" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="L464" t="n">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="M464" t="n">
-        <v>22000</v>
+        <v>13500</v>
       </c>
       <c r="N464" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O464" t="inlineStr">
@@ -33787,10 +33787,10 @@
         </is>
       </c>
       <c r="P464" t="n">
-        <v>1100</v>
+        <v>750</v>
       </c>
       <c r="Q464" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R464" t="inlineStr">
         <is>
@@ -33828,29 +33828,29 @@
       </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J465" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="K465" t="n">
-        <v>17000</v>
+        <v>29000</v>
       </c>
       <c r="L465" t="n">
-        <v>19000</v>
+        <v>30000</v>
       </c>
       <c r="M465" t="n">
-        <v>18000</v>
+        <v>29500</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O465" t="inlineStr">
@@ -33859,10 +33859,10 @@
         </is>
       </c>
       <c r="P465" t="n">
-        <v>900</v>
+        <v>1639</v>
       </c>
       <c r="Q465" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R465" t="inlineStr">
         <is>
@@ -33885,7 +33885,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44321</v>
+        <v>44420</v>
       </c>
       <c r="E466" t="n">
         <v>4</v>
@@ -33905,20 +33905,20 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J466" t="n">
         <v>1100</v>
       </c>
       <c r="K466" t="n">
-        <v>6000</v>
+        <v>27000</v>
       </c>
       <c r="L466" t="n">
-        <v>7000</v>
+        <v>28000</v>
       </c>
       <c r="M466" t="n">
-        <v>6500</v>
+        <v>27500</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
@@ -33931,7 +33931,7 @@
         </is>
       </c>
       <c r="P466" t="n">
-        <v>361</v>
+        <v>1528</v>
       </c>
       <c r="Q466" t="n">
         <v>18</v>
@@ -33957,7 +33957,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44321</v>
+        <v>44420</v>
       </c>
       <c r="E467" t="n">
         <v>4</v>
@@ -33977,20 +33977,20 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J467" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K467" t="n">
-        <v>4000</v>
+        <v>24000</v>
       </c>
       <c r="L467" t="n">
-        <v>5000</v>
+        <v>25000</v>
       </c>
       <c r="M467" t="n">
-        <v>4500</v>
+        <v>24500</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
@@ -34003,7 +34003,7 @@
         </is>
       </c>
       <c r="P467" t="n">
-        <v>250</v>
+        <v>1361</v>
       </c>
       <c r="Q467" t="n">
         <v>18</v>
@@ -34029,7 +34029,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44321</v>
+        <v>44420</v>
       </c>
       <c r="E468" t="n">
         <v>4</v>
@@ -34044,29 +34044,29 @@
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J468" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="K468" t="n">
-        <v>2000</v>
+        <v>25000</v>
       </c>
       <c r="L468" t="n">
-        <v>3000</v>
+        <v>27000</v>
       </c>
       <c r="M468" t="n">
-        <v>2500</v>
+        <v>26000</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O468" t="inlineStr">
@@ -34075,10 +34075,10 @@
         </is>
       </c>
       <c r="P468" t="n">
-        <v>139</v>
+        <v>1300</v>
       </c>
       <c r="Q468" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R468" t="inlineStr">
         <is>
@@ -34101,7 +34101,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44321</v>
+        <v>44420</v>
       </c>
       <c r="E469" t="n">
         <v>4</v>
@@ -34121,24 +34121,24 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J469" t="n">
         <v>800</v>
       </c>
       <c r="K469" t="n">
-        <v>6000</v>
+        <v>21000</v>
       </c>
       <c r="L469" t="n">
-        <v>6500</v>
+        <v>23000</v>
       </c>
       <c r="M469" t="n">
-        <v>6250</v>
+        <v>22000</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O469" t="inlineStr">
@@ -34147,10 +34147,10 @@
         </is>
       </c>
       <c r="P469" t="n">
-        <v>347</v>
+        <v>1100</v>
       </c>
       <c r="Q469" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R469" t="inlineStr">
         <is>
@@ -34173,7 +34173,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44321</v>
+        <v>44420</v>
       </c>
       <c r="E470" t="n">
         <v>4</v>
@@ -34193,24 +34193,24 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J470" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K470" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="L470" t="n">
-        <v>4500</v>
+        <v>19000</v>
       </c>
       <c r="M470" t="n">
-        <v>4250</v>
+        <v>18000</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O470" t="inlineStr">
@@ -34219,10 +34219,10 @@
         </is>
       </c>
       <c r="P470" t="n">
-        <v>236</v>
+        <v>900</v>
       </c>
       <c r="Q470" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R470" t="inlineStr">
         <is>
@@ -34260,25 +34260,25 @@
       </c>
       <c r="H471" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J471" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K471" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="L471" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="M471" t="n">
-        <v>2250</v>
+        <v>6500</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
@@ -34291,7 +34291,7 @@
         </is>
       </c>
       <c r="P471" t="n">
-        <v>125</v>
+        <v>361</v>
       </c>
       <c r="Q471" t="n">
         <v>18</v>
@@ -34317,7 +34317,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E472" t="n">
         <v>4</v>
@@ -34337,20 +34337,20 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J472" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K472" t="n">
-        <v>11500</v>
+        <v>4000</v>
       </c>
       <c r="L472" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="M472" t="n">
-        <v>11750</v>
+        <v>4500</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
@@ -34363,7 +34363,7 @@
         </is>
       </c>
       <c r="P472" t="n">
-        <v>653</v>
+        <v>250</v>
       </c>
       <c r="Q472" t="n">
         <v>18</v>
@@ -34389,7 +34389,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E473" t="n">
         <v>4</v>
@@ -34409,20 +34409,20 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J473" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K473" t="n">
-        <v>9500</v>
+        <v>2000</v>
       </c>
       <c r="L473" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="M473" t="n">
-        <v>9750</v>
+        <v>2500</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
@@ -34435,7 +34435,7 @@
         </is>
       </c>
       <c r="P473" t="n">
-        <v>542</v>
+        <v>139</v>
       </c>
       <c r="Q473" t="n">
         <v>18</v>
@@ -34461,7 +34461,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E474" t="n">
         <v>4</v>
@@ -34476,25 +34476,25 @@
       </c>
       <c r="H474" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J474" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="K474" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L474" t="n">
         <v>6500</v>
       </c>
-      <c r="L474" t="n">
-        <v>7000</v>
-      </c>
       <c r="M474" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
@@ -34507,7 +34507,7 @@
         </is>
       </c>
       <c r="P474" t="n">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="Q474" t="n">
         <v>18</v>
@@ -34533,7 +34533,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E475" t="n">
         <v>4</v>
@@ -34553,20 +34553,20 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J475" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K475" t="n">
-        <v>10500</v>
+        <v>4000</v>
       </c>
       <c r="L475" t="n">
-        <v>11000</v>
+        <v>4500</v>
       </c>
       <c r="M475" t="n">
-        <v>10750</v>
+        <v>4250</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         </is>
       </c>
       <c r="P475" t="n">
-        <v>597</v>
+        <v>236</v>
       </c>
       <c r="Q475" t="n">
         <v>18</v>
@@ -34605,7 +34605,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E476" t="n">
         <v>4</v>
@@ -34625,20 +34625,20 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J476" t="n">
         <v>400</v>
       </c>
       <c r="K476" t="n">
-        <v>8500</v>
+        <v>2000</v>
       </c>
       <c r="L476" t="n">
-        <v>9000</v>
+        <v>2500</v>
       </c>
       <c r="M476" t="n">
-        <v>8750</v>
+        <v>2250</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
@@ -34651,7 +34651,7 @@
         </is>
       </c>
       <c r="P476" t="n">
-        <v>486</v>
+        <v>125</v>
       </c>
       <c r="Q476" t="n">
         <v>18</v>
@@ -34692,25 +34692,25 @@
       </c>
       <c r="H477" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J477" t="n">
-        <v>240</v>
+        <v>800</v>
       </c>
       <c r="K477" t="n">
-        <v>6500</v>
+        <v>11500</v>
       </c>
       <c r="L477" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M477" t="n">
-        <v>6750</v>
+        <v>11750</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
@@ -34723,7 +34723,7 @@
         </is>
       </c>
       <c r="P477" t="n">
-        <v>375</v>
+        <v>653</v>
       </c>
       <c r="Q477" t="n">
         <v>18</v>
@@ -34749,7 +34749,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44308</v>
+        <v>44385</v>
       </c>
       <c r="E478" t="n">
         <v>4</v>
@@ -34769,20 +34769,20 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J478" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K478" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L478" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M478" t="n">
-        <v>7750</v>
+        <v>9750</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
@@ -34795,7 +34795,7 @@
         </is>
       </c>
       <c r="P478" t="n">
-        <v>431</v>
+        <v>542</v>
       </c>
       <c r="Q478" t="n">
         <v>18</v>
@@ -34821,7 +34821,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44308</v>
+        <v>44385</v>
       </c>
       <c r="E479" t="n">
         <v>4</v>
@@ -34841,20 +34841,20 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J479" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K479" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L479" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M479" t="n">
-        <v>5750</v>
+        <v>6750</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
@@ -34867,7 +34867,7 @@
         </is>
       </c>
       <c r="P479" t="n">
-        <v>319</v>
+        <v>375</v>
       </c>
       <c r="Q479" t="n">
         <v>18</v>
@@ -34893,7 +34893,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44308</v>
+        <v>44385</v>
       </c>
       <c r="E480" t="n">
         <v>4</v>
@@ -34908,25 +34908,25 @@
       </c>
       <c r="H480" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J480" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K480" t="n">
-        <v>3500</v>
+        <v>10500</v>
       </c>
       <c r="L480" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="M480" t="n">
-        <v>3750</v>
+        <v>10750</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
@@ -34939,7 +34939,7 @@
         </is>
       </c>
       <c r="P480" t="n">
-        <v>208</v>
+        <v>597</v>
       </c>
       <c r="Q480" t="n">
         <v>18</v>
@@ -34965,7 +34965,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44308</v>
+        <v>44385</v>
       </c>
       <c r="E481" t="n">
         <v>4</v>
@@ -34985,20 +34985,20 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J481" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="K481" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="L481" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M481" t="n">
-        <v>5750</v>
+        <v>8750</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         </is>
       </c>
       <c r="P481" t="n">
-        <v>319</v>
+        <v>486</v>
       </c>
       <c r="Q481" t="n">
         <v>18</v>
@@ -35037,7 +35037,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44308</v>
+        <v>44385</v>
       </c>
       <c r="E482" t="n">
         <v>4</v>
@@ -35057,20 +35057,20 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J482" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K482" t="n">
-        <v>3200</v>
+        <v>6500</v>
       </c>
       <c r="L482" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M482" t="n">
-        <v>3600</v>
+        <v>6750</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
@@ -35083,7 +35083,7 @@
         </is>
       </c>
       <c r="P482" t="n">
-        <v>200</v>
+        <v>375</v>
       </c>
       <c r="Q482" t="n">
         <v>18</v>
@@ -35124,25 +35124,25 @@
       </c>
       <c r="H483" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J483" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K483" t="n">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="L483" t="n">
-        <v>2500</v>
+        <v>8000</v>
       </c>
       <c r="M483" t="n">
-        <v>2250</v>
+        <v>7750</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
@@ -35155,7 +35155,7 @@
         </is>
       </c>
       <c r="P483" t="n">
-        <v>125</v>
+        <v>431</v>
       </c>
       <c r="Q483" t="n">
         <v>18</v>
@@ -35181,7 +35181,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44350</v>
+        <v>44308</v>
       </c>
       <c r="E484" t="n">
         <v>4</v>
@@ -35196,25 +35196,25 @@
       </c>
       <c r="H484" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J484" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K484" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="L484" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="M484" t="n">
-        <v>12500</v>
+        <v>5750</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
@@ -35227,7 +35227,7 @@
         </is>
       </c>
       <c r="P484" t="n">
-        <v>694</v>
+        <v>319</v>
       </c>
       <c r="Q484" t="n">
         <v>18</v>
@@ -35253,7 +35253,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44350</v>
+        <v>44308</v>
       </c>
       <c r="E485" t="n">
         <v>4</v>
@@ -35268,25 +35268,25 @@
       </c>
       <c r="H485" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J485" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="K485" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="L485" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="M485" t="n">
-        <v>10486</v>
+        <v>3750</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         </is>
       </c>
       <c r="P485" t="n">
-        <v>583</v>
+        <v>208</v>
       </c>
       <c r="Q485" t="n">
         <v>18</v>
@@ -35325,7 +35325,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44350</v>
+        <v>44308</v>
       </c>
       <c r="E486" t="n">
         <v>4</v>
@@ -35340,25 +35340,25 @@
       </c>
       <c r="H486" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J486" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="K486" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L486" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M486" t="n">
-        <v>8500</v>
+        <v>5750</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         </is>
       </c>
       <c r="P486" t="n">
-        <v>472</v>
+        <v>319</v>
       </c>
       <c r="Q486" t="n">
         <v>18</v>
@@ -35397,7 +35397,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44350</v>
+        <v>44308</v>
       </c>
       <c r="E487" t="n">
         <v>4</v>
@@ -35412,25 +35412,25 @@
       </c>
       <c r="H487" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J487" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="K487" t="n">
-        <v>8500</v>
+        <v>3200</v>
       </c>
       <c r="L487" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="M487" t="n">
-        <v>8750</v>
+        <v>3600</v>
       </c>
       <c r="N487" t="inlineStr">
         <is>
@@ -35443,7 +35443,7 @@
         </is>
       </c>
       <c r="P487" t="n">
-        <v>486</v>
+        <v>200</v>
       </c>
       <c r="Q487" t="n">
         <v>18</v>
@@ -35469,7 +35469,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44350</v>
+        <v>44308</v>
       </c>
       <c r="E488" t="n">
         <v>4</v>
@@ -35484,25 +35484,25 @@
       </c>
       <c r="H488" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I488" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J488" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="K488" t="n">
-        <v>6500</v>
+        <v>2000</v>
       </c>
       <c r="L488" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="M488" t="n">
-        <v>6750</v>
+        <v>2250</v>
       </c>
       <c r="N488" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
         </is>
       </c>
       <c r="P488" t="n">
-        <v>375</v>
+        <v>125</v>
       </c>
       <c r="Q488" t="n">
         <v>18</v>
@@ -35556,25 +35556,25 @@
       </c>
       <c r="H489" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I489" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J489" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="K489" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="L489" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="M489" t="n">
-        <v>4750</v>
+        <v>12500</v>
       </c>
       <c r="N489" t="inlineStr">
         <is>
@@ -35587,7 +35587,7 @@
         </is>
       </c>
       <c r="P489" t="n">
-        <v>264</v>
+        <v>694</v>
       </c>
       <c r="Q489" t="n">
         <v>18</v>
@@ -35628,25 +35628,25 @@
       </c>
       <c r="H490" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J490" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="K490" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L490" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M490" t="n">
-        <v>13500</v>
+        <v>10486</v>
       </c>
       <c r="N490" t="inlineStr">
         <is>
@@ -35659,7 +35659,7 @@
         </is>
       </c>
       <c r="P490" t="n">
-        <v>750</v>
+        <v>583</v>
       </c>
       <c r="Q490" t="n">
         <v>18</v>
@@ -35700,25 +35700,25 @@
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J491" t="n">
         <v>240</v>
       </c>
       <c r="K491" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L491" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M491" t="n">
-        <v>10500</v>
+        <v>8500</v>
       </c>
       <c r="N491" t="inlineStr">
         <is>
@@ -35731,7 +35731,7 @@
         </is>
       </c>
       <c r="P491" t="n">
-        <v>583</v>
+        <v>472</v>
       </c>
       <c r="Q491" t="n">
         <v>18</v>
@@ -35772,25 +35772,25 @@
       </c>
       <c r="H492" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J492" t="n">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="K492" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="L492" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M492" t="n">
-        <v>7500</v>
+        <v>8750</v>
       </c>
       <c r="N492" t="inlineStr">
         <is>
@@ -35803,7 +35803,7 @@
         </is>
       </c>
       <c r="P492" t="n">
-        <v>417</v>
+        <v>486</v>
       </c>
       <c r="Q492" t="n">
         <v>18</v>
@@ -35829,7 +35829,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44405</v>
+        <v>44350</v>
       </c>
       <c r="E493" t="n">
         <v>4</v>
@@ -35849,20 +35849,20 @@
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J493" t="n">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="K493" t="n">
-        <v>17000</v>
+        <v>6500</v>
       </c>
       <c r="L493" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="M493" t="n">
-        <v>17500</v>
+        <v>6750</v>
       </c>
       <c r="N493" t="inlineStr">
         <is>
@@ -35875,7 +35875,7 @@
         </is>
       </c>
       <c r="P493" t="n">
-        <v>972</v>
+        <v>375</v>
       </c>
       <c r="Q493" t="n">
         <v>18</v>
@@ -35901,7 +35901,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44405</v>
+        <v>44350</v>
       </c>
       <c r="E494" t="n">
         <v>4</v>
@@ -35921,20 +35921,20 @@
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J494" t="n">
-        <v>600</v>
+        <v>340</v>
       </c>
       <c r="K494" t="n">
-        <v>14000</v>
+        <v>4500</v>
       </c>
       <c r="L494" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="M494" t="n">
-        <v>14500</v>
+        <v>4750</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
@@ -35947,7 +35947,7 @@
         </is>
       </c>
       <c r="P494" t="n">
-        <v>806</v>
+        <v>264</v>
       </c>
       <c r="Q494" t="n">
         <v>18</v>
@@ -35973,7 +35973,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44405</v>
+        <v>44350</v>
       </c>
       <c r="E495" t="n">
         <v>4</v>
@@ -35988,25 +35988,25 @@
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J495" t="n">
-        <v>240</v>
+        <v>340</v>
       </c>
       <c r="K495" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L495" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M495" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         </is>
       </c>
       <c r="P495" t="n">
-        <v>583</v>
+        <v>750</v>
       </c>
       <c r="Q495" t="n">
         <v>18</v>
@@ -36045,7 +36045,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44405</v>
+        <v>44350</v>
       </c>
       <c r="E496" t="n">
         <v>4</v>
@@ -36065,20 +36065,20 @@
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J496" t="n">
         <v>240</v>
       </c>
       <c r="K496" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="L496" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="M496" t="n">
-        <v>20500</v>
+        <v>10500</v>
       </c>
       <c r="N496" t="inlineStr">
         <is>
@@ -36091,7 +36091,7 @@
         </is>
       </c>
       <c r="P496" t="n">
-        <v>1139</v>
+        <v>583</v>
       </c>
       <c r="Q496" t="n">
         <v>18</v>
@@ -36117,7 +36117,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44405</v>
+        <v>44350</v>
       </c>
       <c r="E497" t="n">
         <v>4</v>
@@ -36137,20 +36137,20 @@
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J497" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K497" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="L497" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="M497" t="n">
-        <v>17500</v>
+        <v>7500</v>
       </c>
       <c r="N497" t="inlineStr">
         <is>
@@ -36163,7 +36163,7 @@
         </is>
       </c>
       <c r="P497" t="n">
-        <v>972</v>
+        <v>417</v>
       </c>
       <c r="Q497" t="n">
         <v>18</v>
@@ -36204,25 +36204,25 @@
       </c>
       <c r="H498" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J498" t="n">
-        <v>160</v>
+        <v>600</v>
       </c>
       <c r="K498" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L498" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M498" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N498" t="inlineStr">
         <is>
@@ -36235,7 +36235,7 @@
         </is>
       </c>
       <c r="P498" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q498" t="n">
         <v>18</v>
@@ -36261,7 +36261,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44413</v>
+        <v>44405</v>
       </c>
       <c r="E499" t="n">
         <v>4</v>
@@ -36281,20 +36281,20 @@
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J499" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K499" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L499" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M499" t="n">
-        <v>19500</v>
+        <v>14500</v>
       </c>
       <c r="N499" t="inlineStr">
         <is>
@@ -36307,7 +36307,7 @@
         </is>
       </c>
       <c r="P499" t="n">
-        <v>1083</v>
+        <v>806</v>
       </c>
       <c r="Q499" t="n">
         <v>18</v>
@@ -36333,7 +36333,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44413</v>
+        <v>44405</v>
       </c>
       <c r="E500" t="n">
         <v>4</v>
@@ -36353,20 +36353,20 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J500" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="K500" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="L500" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="M500" t="n">
-        <v>16500</v>
+        <v>10500</v>
       </c>
       <c r="N500" t="inlineStr">
         <is>
@@ -36379,7 +36379,7 @@
         </is>
       </c>
       <c r="P500" t="n">
-        <v>917</v>
+        <v>583</v>
       </c>
       <c r="Q500" t="n">
         <v>18</v>
@@ -36405,7 +36405,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44413</v>
+        <v>44405</v>
       </c>
       <c r="E501" t="n">
         <v>4</v>
@@ -36420,25 +36420,25 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J501" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K501" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="L501" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="M501" t="n">
-        <v>13500</v>
+        <v>20500</v>
       </c>
       <c r="N501" t="inlineStr">
         <is>
@@ -36451,7 +36451,7 @@
         </is>
       </c>
       <c r="P501" t="n">
-        <v>750</v>
+        <v>1139</v>
       </c>
       <c r="Q501" t="n">
         <v>18</v>
@@ -36477,7 +36477,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44413</v>
+        <v>44405</v>
       </c>
       <c r="E502" t="n">
         <v>4</v>
@@ -36501,16 +36501,16 @@
         </is>
       </c>
       <c r="J502" t="n">
-        <v>710</v>
+        <v>300</v>
       </c>
       <c r="K502" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="L502" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="M502" t="n">
-        <v>21493</v>
+        <v>17500</v>
       </c>
       <c r="N502" t="inlineStr">
         <is>
@@ -36523,7 +36523,7 @@
         </is>
       </c>
       <c r="P502" t="n">
-        <v>1194</v>
+        <v>972</v>
       </c>
       <c r="Q502" t="n">
         <v>18</v>
@@ -36549,7 +36549,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44413</v>
+        <v>44405</v>
       </c>
       <c r="E503" t="n">
         <v>4</v>
@@ -36573,16 +36573,16 @@
         </is>
       </c>
       <c r="J503" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K503" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L503" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M503" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N503" t="inlineStr">
         <is>
@@ -36595,7 +36595,7 @@
         </is>
       </c>
       <c r="P503" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q503" t="n">
         <v>18</v>
@@ -36636,25 +36636,25 @@
       </c>
       <c r="H504" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I504" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J504" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="K504" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L504" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M504" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="N504" t="inlineStr">
         <is>
@@ -36667,7 +36667,7 @@
         </is>
       </c>
       <c r="P504" t="n">
-        <v>806</v>
+        <v>1083</v>
       </c>
       <c r="Q504" t="n">
         <v>18</v>
@@ -36693,7 +36693,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44238</v>
+        <v>44413</v>
       </c>
       <c r="E505" t="n">
         <v>4</v>
@@ -36708,25 +36708,25 @@
       </c>
       <c r="H505" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I505" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J505" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="K505" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="L505" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M505" t="n">
-        <v>11500</v>
+        <v>16500</v>
       </c>
       <c r="N505" t="inlineStr">
         <is>
@@ -36739,7 +36739,7 @@
         </is>
       </c>
       <c r="P505" t="n">
-        <v>639</v>
+        <v>917</v>
       </c>
       <c r="Q505" t="n">
         <v>18</v>
@@ -36765,7 +36765,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44238</v>
+        <v>44413</v>
       </c>
       <c r="E506" t="n">
         <v>4</v>
@@ -36780,25 +36780,25 @@
       </c>
       <c r="H506" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I506" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J506" t="n">
         <v>300</v>
       </c>
       <c r="K506" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L506" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M506" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="N506" t="inlineStr">
         <is>
@@ -36811,7 +36811,7 @@
         </is>
       </c>
       <c r="P506" t="n">
-        <v>528</v>
+        <v>750</v>
       </c>
       <c r="Q506" t="n">
         <v>18</v>
@@ -36837,7 +36837,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44238</v>
+        <v>44413</v>
       </c>
       <c r="E507" t="n">
         <v>4</v>
@@ -36852,25 +36852,25 @@
       </c>
       <c r="H507" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I507" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J507" t="n">
-        <v>240</v>
+        <v>710</v>
       </c>
       <c r="K507" t="n">
-        <v>7000</v>
+        <v>21000</v>
       </c>
       <c r="L507" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="M507" t="n">
-        <v>7500</v>
+        <v>21493</v>
       </c>
       <c r="N507" t="inlineStr">
         <is>
@@ -36883,7 +36883,7 @@
         </is>
       </c>
       <c r="P507" t="n">
-        <v>417</v>
+        <v>1194</v>
       </c>
       <c r="Q507" t="n">
         <v>18</v>
@@ -36909,7 +36909,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44238</v>
+        <v>44413</v>
       </c>
       <c r="E508" t="n">
         <v>4</v>
@@ -36924,25 +36924,25 @@
       </c>
       <c r="H508" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I508" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J508" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="K508" t="n">
-        <v>5500</v>
+        <v>17000</v>
       </c>
       <c r="L508" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="M508" t="n">
-        <v>5750</v>
+        <v>17500</v>
       </c>
       <c r="N508" t="inlineStr">
         <is>
@@ -36955,7 +36955,7 @@
         </is>
       </c>
       <c r="P508" t="n">
-        <v>319</v>
+        <v>972</v>
       </c>
       <c r="Q508" t="n">
         <v>18</v>
@@ -36981,7 +36981,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44238</v>
+        <v>44413</v>
       </c>
       <c r="E509" t="n">
         <v>4</v>
@@ -36996,25 +36996,25 @@
       </c>
       <c r="H509" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I509" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J509" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K509" t="n">
-        <v>3500</v>
+        <v>14000</v>
       </c>
       <c r="L509" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="M509" t="n">
-        <v>3750</v>
+        <v>14500</v>
       </c>
       <c r="N509" t="inlineStr">
         <is>
@@ -37027,7 +37027,7 @@
         </is>
       </c>
       <c r="P509" t="n">
-        <v>208</v>
+        <v>806</v>
       </c>
       <c r="Q509" t="n">
         <v>18</v>
@@ -37053,7 +37053,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44175</v>
+        <v>44238</v>
       </c>
       <c r="E510" t="n">
         <v>4</v>
@@ -37068,7 +37068,7 @@
       </c>
       <c r="H510" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I510" t="inlineStr">
@@ -37077,16 +37077,16 @@
         </is>
       </c>
       <c r="J510" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K510" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L510" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M510" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="N510" t="inlineStr">
         <is>
@@ -37099,7 +37099,7 @@
         </is>
       </c>
       <c r="P510" t="n">
-        <v>528</v>
+        <v>639</v>
       </c>
       <c r="Q510" t="n">
         <v>18</v>
@@ -37125,7 +37125,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44175</v>
+        <v>44238</v>
       </c>
       <c r="E511" t="n">
         <v>4</v>
@@ -37140,7 +37140,7 @@
       </c>
       <c r="H511" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I511" t="inlineStr">
@@ -37152,13 +37152,13 @@
         <v>300</v>
       </c>
       <c r="K511" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L511" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M511" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="N511" t="inlineStr">
         <is>
@@ -37171,7 +37171,7 @@
         </is>
       </c>
       <c r="P511" t="n">
-        <v>417</v>
+        <v>528</v>
       </c>
       <c r="Q511" t="n">
         <v>18</v>
@@ -37197,7 +37197,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44175</v>
+        <v>44238</v>
       </c>
       <c r="E512" t="n">
         <v>4</v>
@@ -37212,7 +37212,7 @@
       </c>
       <c r="H512" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I512" t="inlineStr">
@@ -37224,13 +37224,13 @@
         <v>240</v>
       </c>
       <c r="K512" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L512" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M512" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="N512" t="inlineStr">
         <is>
@@ -37243,7 +37243,7 @@
         </is>
       </c>
       <c r="P512" t="n">
-        <v>250</v>
+        <v>417</v>
       </c>
       <c r="Q512" t="n">
         <v>18</v>
@@ -37269,7 +37269,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44188</v>
+        <v>44238</v>
       </c>
       <c r="E513" t="n">
         <v>4</v>
@@ -37284,7 +37284,7 @@
       </c>
       <c r="H513" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I513" t="inlineStr">
@@ -37293,16 +37293,16 @@
         </is>
       </c>
       <c r="J513" t="n">
-        <v>160</v>
+        <v>700</v>
       </c>
       <c r="K513" t="n">
-        <v>13500</v>
+        <v>5500</v>
       </c>
       <c r="L513" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="M513" t="n">
-        <v>13750</v>
+        <v>5750</v>
       </c>
       <c r="N513" t="inlineStr">
         <is>
@@ -37315,7 +37315,7 @@
         </is>
       </c>
       <c r="P513" t="n">
-        <v>764</v>
+        <v>319</v>
       </c>
       <c r="Q513" t="n">
         <v>18</v>
@@ -37341,7 +37341,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44188</v>
+        <v>44238</v>
       </c>
       <c r="E514" t="n">
         <v>4</v>
@@ -37356,7 +37356,7 @@
       </c>
       <c r="H514" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I514" t="inlineStr">
@@ -37365,16 +37365,16 @@
         </is>
       </c>
       <c r="J514" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K514" t="n">
-        <v>11500</v>
+        <v>3500</v>
       </c>
       <c r="L514" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="M514" t="n">
-        <v>11750</v>
+        <v>3750</v>
       </c>
       <c r="N514" t="inlineStr">
         <is>
@@ -37387,7 +37387,7 @@
         </is>
       </c>
       <c r="P514" t="n">
-        <v>653</v>
+        <v>208</v>
       </c>
       <c r="Q514" t="n">
         <v>18</v>
@@ -37413,7 +37413,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44188</v>
+        <v>44175</v>
       </c>
       <c r="E515" t="n">
         <v>4</v>
@@ -37428,25 +37428,25 @@
       </c>
       <c r="H515" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I515" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J515" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K515" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="L515" t="n">
         <v>10000</v>
       </c>
       <c r="M515" t="n">
-        <v>9750</v>
+        <v>9500</v>
       </c>
       <c r="N515" t="inlineStr">
         <is>
@@ -37459,7 +37459,7 @@
         </is>
       </c>
       <c r="P515" t="n">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="Q515" t="n">
         <v>18</v>
@@ -37485,7 +37485,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44188</v>
+        <v>44175</v>
       </c>
       <c r="E516" t="n">
         <v>4</v>
@@ -37505,20 +37505,20 @@
       </c>
       <c r="I516" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J516" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="K516" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="L516" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M516" t="n">
-        <v>9750</v>
+        <v>7500</v>
       </c>
       <c r="N516" t="inlineStr">
         <is>
@@ -37531,7 +37531,7 @@
         </is>
       </c>
       <c r="P516" t="n">
-        <v>542</v>
+        <v>417</v>
       </c>
       <c r="Q516" t="n">
         <v>18</v>
@@ -37557,7 +37557,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44188</v>
+        <v>44175</v>
       </c>
       <c r="E517" t="n">
         <v>4</v>
@@ -37577,20 +37577,20 @@
       </c>
       <c r="I517" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J517" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K517" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="L517" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M517" t="n">
-        <v>7750</v>
+        <v>4500</v>
       </c>
       <c r="N517" t="inlineStr">
         <is>
@@ -37603,7 +37603,7 @@
         </is>
       </c>
       <c r="P517" t="n">
-        <v>431</v>
+        <v>250</v>
       </c>
       <c r="Q517" t="n">
         <v>18</v>
@@ -37644,25 +37644,25 @@
       </c>
       <c r="H518" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I518" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J518" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="K518" t="n">
-        <v>5500</v>
+        <v>13500</v>
       </c>
       <c r="L518" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="M518" t="n">
-        <v>5750</v>
+        <v>13750</v>
       </c>
       <c r="N518" t="inlineStr">
         <is>
@@ -37675,7 +37675,7 @@
         </is>
       </c>
       <c r="P518" t="n">
-        <v>319</v>
+        <v>764</v>
       </c>
       <c r="Q518" t="n">
         <v>18</v>
@@ -37701,7 +37701,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E519" t="n">
         <v>4</v>
@@ -37721,20 +37721,20 @@
       </c>
       <c r="I519" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J519" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K519" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="L519" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M519" t="n">
-        <v>8750</v>
+        <v>11750</v>
       </c>
       <c r="N519" t="inlineStr">
         <is>
@@ -37747,7 +37747,7 @@
         </is>
       </c>
       <c r="P519" t="n">
-        <v>486</v>
+        <v>653</v>
       </c>
       <c r="Q519" t="n">
         <v>18</v>
@@ -37773,7 +37773,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E520" t="n">
         <v>4</v>
@@ -37793,20 +37793,20 @@
       </c>
       <c r="I520" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J520" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K520" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="L520" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M520" t="n">
-        <v>6750</v>
+        <v>9750</v>
       </c>
       <c r="N520" t="inlineStr">
         <is>
@@ -37819,7 +37819,7 @@
         </is>
       </c>
       <c r="P520" t="n">
-        <v>375</v>
+        <v>542</v>
       </c>
       <c r="Q520" t="n">
         <v>18</v>
@@ -37845,7 +37845,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E521" t="n">
         <v>4</v>
@@ -37860,25 +37860,25 @@
       </c>
       <c r="H521" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I521" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J521" t="n">
-        <v>600</v>
+        <v>340</v>
       </c>
       <c r="K521" t="n">
-        <v>4500</v>
+        <v>9500</v>
       </c>
       <c r="L521" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M521" t="n">
-        <v>4750</v>
+        <v>9750</v>
       </c>
       <c r="N521" t="inlineStr">
         <is>
@@ -37891,7 +37891,7 @@
         </is>
       </c>
       <c r="P521" t="n">
-        <v>264</v>
+        <v>542</v>
       </c>
       <c r="Q521" t="n">
         <v>18</v>
@@ -37917,7 +37917,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E522" t="n">
         <v>4</v>
@@ -37937,20 +37937,20 @@
       </c>
       <c r="I522" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J522" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="K522" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="L522" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="M522" t="n">
-        <v>5250</v>
+        <v>7750</v>
       </c>
       <c r="N522" t="inlineStr">
         <is>
@@ -37963,7 +37963,7 @@
         </is>
       </c>
       <c r="P522" t="n">
-        <v>292</v>
+        <v>431</v>
       </c>
       <c r="Q522" t="n">
         <v>18</v>
@@ -37989,7 +37989,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E523" t="n">
         <v>4</v>
@@ -38009,20 +38009,20 @@
       </c>
       <c r="I523" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J523" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="K523" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L523" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="M523" t="n">
-        <v>3250</v>
+        <v>5750</v>
       </c>
       <c r="N523" t="inlineStr">
         <is>
@@ -38035,7 +38035,7 @@
         </is>
       </c>
       <c r="P523" t="n">
-        <v>181</v>
+        <v>319</v>
       </c>
       <c r="Q523" t="n">
         <v>18</v>
@@ -38076,7 +38076,7 @@
       </c>
       <c r="H524" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I524" t="inlineStr">
@@ -38085,16 +38085,16 @@
         </is>
       </c>
       <c r="J524" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="K524" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="L524" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M524" t="n">
-        <v>7500</v>
+        <v>8750</v>
       </c>
       <c r="N524" t="inlineStr">
         <is>
@@ -38107,7 +38107,7 @@
         </is>
       </c>
       <c r="P524" t="n">
-        <v>417</v>
+        <v>486</v>
       </c>
       <c r="Q524" t="n">
         <v>18</v>
@@ -38148,7 +38148,7 @@
       </c>
       <c r="H525" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I525" t="inlineStr">
@@ -38157,16 +38157,16 @@
         </is>
       </c>
       <c r="J525" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K525" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L525" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M525" t="n">
-        <v>5500</v>
+        <v>6750</v>
       </c>
       <c r="N525" t="inlineStr">
         <is>
@@ -38179,7 +38179,7 @@
         </is>
       </c>
       <c r="P525" t="n">
-        <v>306</v>
+        <v>375</v>
       </c>
       <c r="Q525" t="n">
         <v>18</v>
@@ -38205,7 +38205,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E526" t="n">
         <v>4</v>
@@ -38225,20 +38225,20 @@
       </c>
       <c r="I526" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J526" t="n">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="K526" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="L526" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="M526" t="n">
-        <v>15500</v>
+        <v>4750</v>
       </c>
       <c r="N526" t="inlineStr">
         <is>
@@ -38251,7 +38251,7 @@
         </is>
       </c>
       <c r="P526" t="n">
-        <v>861</v>
+        <v>264</v>
       </c>
       <c r="Q526" t="n">
         <v>18</v>
@@ -38277,7 +38277,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E527" t="n">
         <v>4</v>
@@ -38292,25 +38292,25 @@
       </c>
       <c r="H527" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I527" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J527" t="n">
-        <v>240</v>
+        <v>1100</v>
       </c>
       <c r="K527" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="L527" t="n">
-        <v>14000</v>
+        <v>5500</v>
       </c>
       <c r="M527" t="n">
-        <v>13500</v>
+        <v>5250</v>
       </c>
       <c r="N527" t="inlineStr">
         <is>
@@ -38323,7 +38323,7 @@
         </is>
       </c>
       <c r="P527" t="n">
-        <v>750</v>
+        <v>292</v>
       </c>
       <c r="Q527" t="n">
         <v>18</v>
@@ -38349,7 +38349,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E528" t="n">
         <v>4</v>
@@ -38364,25 +38364,25 @@
       </c>
       <c r="H528" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I528" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J528" t="n">
-        <v>140</v>
+        <v>600</v>
       </c>
       <c r="K528" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="L528" t="n">
-        <v>11000</v>
+        <v>3500</v>
       </c>
       <c r="M528" t="n">
-        <v>10500</v>
+        <v>3250</v>
       </c>
       <c r="N528" t="inlineStr">
         <is>
@@ -38395,7 +38395,7 @@
         </is>
       </c>
       <c r="P528" t="n">
-        <v>583</v>
+        <v>181</v>
       </c>
       <c r="Q528" t="n">
         <v>18</v>
@@ -38421,7 +38421,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E529" t="n">
         <v>4</v>
@@ -38436,7 +38436,7 @@
       </c>
       <c r="H529" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I529" t="inlineStr">
@@ -38445,16 +38445,16 @@
         </is>
       </c>
       <c r="J529" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="K529" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L529" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M529" t="n">
-        <v>6750</v>
+        <v>7500</v>
       </c>
       <c r="N529" t="inlineStr">
         <is>
@@ -38467,7 +38467,7 @@
         </is>
       </c>
       <c r="P529" t="n">
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="Q529" t="n">
         <v>18</v>
@@ -38493,7 +38493,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E530" t="n">
         <v>4</v>
@@ -38508,7 +38508,7 @@
       </c>
       <c r="H530" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I530" t="inlineStr">
@@ -38517,16 +38517,16 @@
         </is>
       </c>
       <c r="J530" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K530" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L530" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M530" t="n">
-        <v>4750</v>
+        <v>5500</v>
       </c>
       <c r="N530" t="inlineStr">
         <is>
@@ -38539,7 +38539,7 @@
         </is>
       </c>
       <c r="P530" t="n">
-        <v>264</v>
+        <v>306</v>
       </c>
       <c r="Q530" t="n">
         <v>18</v>
@@ -38580,25 +38580,25 @@
       </c>
       <c r="H531" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I531" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J531" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K531" t="n">
-        <v>2500</v>
+        <v>15000</v>
       </c>
       <c r="L531" t="n">
-        <v>3000</v>
+        <v>16000</v>
       </c>
       <c r="M531" t="n">
-        <v>2750</v>
+        <v>15500</v>
       </c>
       <c r="N531" t="inlineStr">
         <is>
@@ -38611,7 +38611,7 @@
         </is>
       </c>
       <c r="P531" t="n">
-        <v>153</v>
+        <v>861</v>
       </c>
       <c r="Q531" t="n">
         <v>18</v>
@@ -38637,7 +38637,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44329</v>
+        <v>44224</v>
       </c>
       <c r="E532" t="n">
         <v>4</v>
@@ -38652,25 +38652,25 @@
       </c>
       <c r="H532" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I532" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J532" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K532" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="L532" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M532" t="n">
-        <v>7750</v>
+        <v>13500</v>
       </c>
       <c r="N532" t="inlineStr">
         <is>
@@ -38683,7 +38683,7 @@
         </is>
       </c>
       <c r="P532" t="n">
-        <v>431</v>
+        <v>750</v>
       </c>
       <c r="Q532" t="n">
         <v>18</v>
@@ -38709,7 +38709,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44329</v>
+        <v>44224</v>
       </c>
       <c r="E533" t="n">
         <v>4</v>
@@ -38724,25 +38724,25 @@
       </c>
       <c r="H533" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I533" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J533" t="n">
-        <v>500</v>
+        <v>140</v>
       </c>
       <c r="K533" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="L533" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M533" t="n">
-        <v>5750</v>
+        <v>10500</v>
       </c>
       <c r="N533" t="inlineStr">
         <is>
@@ -38755,7 +38755,7 @@
         </is>
       </c>
       <c r="P533" t="n">
-        <v>319</v>
+        <v>583</v>
       </c>
       <c r="Q533" t="n">
         <v>18</v>
@@ -38781,7 +38781,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44329</v>
+        <v>44224</v>
       </c>
       <c r="E534" t="n">
         <v>4</v>
@@ -38801,20 +38801,20 @@
       </c>
       <c r="I534" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J534" t="n">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="K534" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="L534" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M534" t="n">
-        <v>3750</v>
+        <v>6750</v>
       </c>
       <c r="N534" t="inlineStr">
         <is>
@@ -38827,7 +38827,7 @@
         </is>
       </c>
       <c r="P534" t="n">
-        <v>208</v>
+        <v>375</v>
       </c>
       <c r="Q534" t="n">
         <v>18</v>
@@ -38853,7 +38853,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44329</v>
+        <v>44224</v>
       </c>
       <c r="E535" t="n">
         <v>4</v>
@@ -38868,25 +38868,25 @@
       </c>
       <c r="H535" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I535" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J535" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K535" t="n">
-        <v>12500</v>
+        <v>4500</v>
       </c>
       <c r="L535" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="M535" t="n">
-        <v>12750</v>
+        <v>4750</v>
       </c>
       <c r="N535" t="inlineStr">
         <is>
@@ -38899,7 +38899,7 @@
         </is>
       </c>
       <c r="P535" t="n">
-        <v>708</v>
+        <v>264</v>
       </c>
       <c r="Q535" t="n">
         <v>18</v>
@@ -38925,7 +38925,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44329</v>
+        <v>44224</v>
       </c>
       <c r="E536" t="n">
         <v>4</v>
@@ -38940,25 +38940,25 @@
       </c>
       <c r="H536" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I536" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J536" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="K536" t="n">
-        <v>10500</v>
+        <v>2500</v>
       </c>
       <c r="L536" t="n">
-        <v>11000</v>
+        <v>3000</v>
       </c>
       <c r="M536" t="n">
-        <v>10750</v>
+        <v>2750</v>
       </c>
       <c r="N536" t="inlineStr">
         <is>
@@ -38971,7 +38971,7 @@
         </is>
       </c>
       <c r="P536" t="n">
-        <v>597</v>
+        <v>153</v>
       </c>
       <c r="Q536" t="n">
         <v>18</v>
@@ -39012,25 +39012,25 @@
       </c>
       <c r="H537" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I537" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J537" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K537" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="L537" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M537" t="n">
-        <v>8750</v>
+        <v>7750</v>
       </c>
       <c r="N537" t="inlineStr">
         <is>
@@ -39043,7 +39043,7 @@
         </is>
       </c>
       <c r="P537" t="n">
-        <v>486</v>
+        <v>431</v>
       </c>
       <c r="Q537" t="n">
         <v>18</v>
@@ -39069,7 +39069,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44195</v>
+        <v>44329</v>
       </c>
       <c r="E538" t="n">
         <v>4</v>
@@ -39084,25 +39084,25 @@
       </c>
       <c r="H538" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I538" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J538" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K538" t="n">
-        <v>14500</v>
+        <v>5500</v>
       </c>
       <c r="L538" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="M538" t="n">
-        <v>14750</v>
+        <v>5750</v>
       </c>
       <c r="N538" t="inlineStr">
         <is>
@@ -39115,7 +39115,7 @@
         </is>
       </c>
       <c r="P538" t="n">
-        <v>819</v>
+        <v>319</v>
       </c>
       <c r="Q538" t="n">
         <v>18</v>
@@ -39141,7 +39141,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44195</v>
+        <v>44329</v>
       </c>
       <c r="E539" t="n">
         <v>4</v>
@@ -39156,25 +39156,25 @@
       </c>
       <c r="H539" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I539" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J539" t="n">
-        <v>308</v>
+        <v>240</v>
       </c>
       <c r="K539" t="n">
-        <v>11500</v>
+        <v>3500</v>
       </c>
       <c r="L539" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="M539" t="n">
-        <v>11744</v>
+        <v>3750</v>
       </c>
       <c r="N539" t="inlineStr">
         <is>
@@ -39187,7 +39187,7 @@
         </is>
       </c>
       <c r="P539" t="n">
-        <v>652</v>
+        <v>208</v>
       </c>
       <c r="Q539" t="n">
         <v>18</v>
@@ -39213,7 +39213,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44195</v>
+        <v>44329</v>
       </c>
       <c r="E540" t="n">
         <v>4</v>
@@ -39228,25 +39228,25 @@
       </c>
       <c r="H540" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I540" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J540" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="K540" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="L540" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M540" t="n">
-        <v>9750</v>
+        <v>12750</v>
       </c>
       <c r="N540" t="inlineStr">
         <is>
@@ -39259,7 +39259,7 @@
         </is>
       </c>
       <c r="P540" t="n">
-        <v>542</v>
+        <v>708</v>
       </c>
       <c r="Q540" t="n">
         <v>18</v>
@@ -39285,7 +39285,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44195</v>
+        <v>44329</v>
       </c>
       <c r="E541" t="n">
         <v>4</v>
@@ -39300,25 +39300,25 @@
       </c>
       <c r="H541" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I541" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J541" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K541" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="L541" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M541" t="n">
-        <v>9750</v>
+        <v>10750</v>
       </c>
       <c r="N541" t="inlineStr">
         <is>
@@ -39331,7 +39331,7 @@
         </is>
       </c>
       <c r="P541" t="n">
-        <v>542</v>
+        <v>597</v>
       </c>
       <c r="Q541" t="n">
         <v>18</v>
@@ -39357,7 +39357,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44195</v>
+        <v>44329</v>
       </c>
       <c r="E542" t="n">
         <v>4</v>
@@ -39372,25 +39372,25 @@
       </c>
       <c r="H542" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I542" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J542" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K542" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="L542" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M542" t="n">
-        <v>7750</v>
+        <v>8750</v>
       </c>
       <c r="N542" t="inlineStr">
         <is>
@@ -39403,7 +39403,7 @@
         </is>
       </c>
       <c r="P542" t="n">
-        <v>431</v>
+        <v>486</v>
       </c>
       <c r="Q542" t="n">
         <v>18</v>
@@ -39444,25 +39444,25 @@
       </c>
       <c r="H543" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I543" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J543" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K543" t="n">
-        <v>4500</v>
+        <v>14500</v>
       </c>
       <c r="L543" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="M543" t="n">
-        <v>4750</v>
+        <v>14750</v>
       </c>
       <c r="N543" t="inlineStr">
         <is>
@@ -39475,7 +39475,7 @@
         </is>
       </c>
       <c r="P543" t="n">
-        <v>264</v>
+        <v>819</v>
       </c>
       <c r="Q543" t="n">
         <v>18</v>
@@ -39501,7 +39501,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44398</v>
+        <v>44195</v>
       </c>
       <c r="E544" t="n">
         <v>4</v>
@@ -39516,25 +39516,25 @@
       </c>
       <c r="H544" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I544" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J544" t="n">
-        <v>500</v>
+        <v>308</v>
       </c>
       <c r="K544" t="n">
-        <v>16000</v>
+        <v>11500</v>
       </c>
       <c r="L544" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M544" t="n">
-        <v>16500</v>
+        <v>11744</v>
       </c>
       <c r="N544" t="inlineStr">
         <is>
@@ -39547,7 +39547,7 @@
         </is>
       </c>
       <c r="P544" t="n">
-        <v>917</v>
+        <v>652</v>
       </c>
       <c r="Q544" t="n">
         <v>18</v>
@@ -39573,7 +39573,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44398</v>
+        <v>44195</v>
       </c>
       <c r="E545" t="n">
         <v>4</v>
@@ -39588,25 +39588,25 @@
       </c>
       <c r="H545" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I545" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J545" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K545" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="L545" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M545" t="n">
-        <v>13500</v>
+        <v>9750</v>
       </c>
       <c r="N545" t="inlineStr">
         <is>
@@ -39619,7 +39619,7 @@
         </is>
       </c>
       <c r="P545" t="n">
-        <v>750</v>
+        <v>542</v>
       </c>
       <c r="Q545" t="n">
         <v>18</v>
@@ -39645,7 +39645,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44398</v>
+        <v>44195</v>
       </c>
       <c r="E546" t="n">
         <v>4</v>
@@ -39665,20 +39665,20 @@
       </c>
       <c r="I546" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J546" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="K546" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="L546" t="n">
         <v>10000</v>
       </c>
       <c r="M546" t="n">
-        <v>9500</v>
+        <v>9750</v>
       </c>
       <c r="N546" t="inlineStr">
         <is>
@@ -39691,7 +39691,7 @@
         </is>
       </c>
       <c r="P546" t="n">
-        <v>528</v>
+        <v>542</v>
       </c>
       <c r="Q546" t="n">
         <v>18</v>
@@ -39717,7 +39717,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44398</v>
+        <v>44195</v>
       </c>
       <c r="E547" t="n">
         <v>4</v>
@@ -39732,25 +39732,25 @@
       </c>
       <c r="H547" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I547" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J547" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="K547" t="n">
-        <v>18500</v>
+        <v>7500</v>
       </c>
       <c r="L547" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="M547" t="n">
-        <v>18750</v>
+        <v>7750</v>
       </c>
       <c r="N547" t="inlineStr">
         <is>
@@ -39763,7 +39763,7 @@
         </is>
       </c>
       <c r="P547" t="n">
-        <v>1042</v>
+        <v>431</v>
       </c>
       <c r="Q547" t="n">
         <v>18</v>
@@ -39789,7 +39789,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44398</v>
+        <v>44195</v>
       </c>
       <c r="E548" t="n">
         <v>4</v>
@@ -39804,25 +39804,25 @@
       </c>
       <c r="H548" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I548" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J548" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K548" t="n">
-        <v>16500</v>
+        <v>4500</v>
       </c>
       <c r="L548" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="M548" t="n">
-        <v>16750</v>
+        <v>4750</v>
       </c>
       <c r="N548" t="inlineStr">
         <is>
@@ -39835,7 +39835,7 @@
         </is>
       </c>
       <c r="P548" t="n">
-        <v>931</v>
+        <v>264</v>
       </c>
       <c r="Q548" t="n">
         <v>18</v>
@@ -39876,25 +39876,25 @@
       </c>
       <c r="H549" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I549" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J549" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K549" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="L549" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M549" t="n">
-        <v>14750</v>
+        <v>16500</v>
       </c>
       <c r="N549" t="inlineStr">
         <is>
@@ -39907,7 +39907,7 @@
         </is>
       </c>
       <c r="P549" t="n">
-        <v>819</v>
+        <v>917</v>
       </c>
       <c r="Q549" t="n">
         <v>18</v>
@@ -39933,7 +39933,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44461</v>
+        <v>44398</v>
       </c>
       <c r="E550" t="n">
         <v>4</v>
@@ -39953,20 +39953,20 @@
       </c>
       <c r="I550" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J550" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K550" t="n">
-        <v>30000</v>
+        <v>13000</v>
       </c>
       <c r="L550" t="n">
-        <v>31000</v>
+        <v>14000</v>
       </c>
       <c r="M550" t="n">
-        <v>30500</v>
+        <v>13500</v>
       </c>
       <c r="N550" t="inlineStr">
         <is>
@@ -39979,7 +39979,7 @@
         </is>
       </c>
       <c r="P550" t="n">
-        <v>1694</v>
+        <v>750</v>
       </c>
       <c r="Q550" t="n">
         <v>18</v>
@@ -40005,7 +40005,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44461</v>
+        <v>44398</v>
       </c>
       <c r="E551" t="n">
         <v>4</v>
@@ -40025,20 +40025,20 @@
       </c>
       <c r="I551" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J551" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="K551" t="n">
-        <v>28000</v>
+        <v>9000</v>
       </c>
       <c r="L551" t="n">
-        <v>29000</v>
+        <v>10000</v>
       </c>
       <c r="M551" t="n">
-        <v>28500</v>
+        <v>9500</v>
       </c>
       <c r="N551" t="inlineStr">
         <is>
@@ -40051,7 +40051,7 @@
         </is>
       </c>
       <c r="P551" t="n">
-        <v>1583</v>
+        <v>528</v>
       </c>
       <c r="Q551" t="n">
         <v>18</v>
@@ -40077,7 +40077,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44461</v>
+        <v>44398</v>
       </c>
       <c r="E552" t="n">
         <v>4</v>
@@ -40092,25 +40092,25 @@
       </c>
       <c r="H552" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I552" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J552" t="n">
         <v>500</v>
       </c>
       <c r="K552" t="n">
-        <v>25000</v>
+        <v>18500</v>
       </c>
       <c r="L552" t="n">
-        <v>26000</v>
+        <v>19000</v>
       </c>
       <c r="M552" t="n">
-        <v>25500</v>
+        <v>18750</v>
       </c>
       <c r="N552" t="inlineStr">
         <is>
@@ -40123,7 +40123,7 @@
         </is>
       </c>
       <c r="P552" t="n">
-        <v>1417</v>
+        <v>1042</v>
       </c>
       <c r="Q552" t="n">
         <v>18</v>
@@ -40149,7 +40149,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44461</v>
+        <v>44398</v>
       </c>
       <c r="E553" t="n">
         <v>4</v>
@@ -40169,20 +40169,20 @@
       </c>
       <c r="I553" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J553" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="K553" t="n">
-        <v>37000</v>
+        <v>16500</v>
       </c>
       <c r="L553" t="n">
-        <v>38000</v>
+        <v>17000</v>
       </c>
       <c r="M553" t="n">
-        <v>37500</v>
+        <v>16750</v>
       </c>
       <c r="N553" t="inlineStr">
         <is>
@@ -40195,7 +40195,7 @@
         </is>
       </c>
       <c r="P553" t="n">
-        <v>2083</v>
+        <v>931</v>
       </c>
       <c r="Q553" t="n">
         <v>18</v>
@@ -40221,7 +40221,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44357</v>
+        <v>44398</v>
       </c>
       <c r="E554" t="n">
         <v>4</v>
@@ -40236,25 +40236,25 @@
       </c>
       <c r="H554" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I554" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J554" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K554" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="L554" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M554" t="n">
-        <v>12500</v>
+        <v>14750</v>
       </c>
       <c r="N554" t="inlineStr">
         <is>
@@ -40267,7 +40267,7 @@
         </is>
       </c>
       <c r="P554" t="n">
-        <v>694</v>
+        <v>819</v>
       </c>
       <c r="Q554" t="n">
         <v>18</v>
@@ -40293,7 +40293,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E555" t="n">
         <v>4</v>
@@ -40308,25 +40308,25 @@
       </c>
       <c r="H555" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I555" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J555" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K555" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="L555" t="n">
-        <v>11000</v>
+        <v>31000</v>
       </c>
       <c r="M555" t="n">
-        <v>10500</v>
+        <v>30500</v>
       </c>
       <c r="N555" t="inlineStr">
         <is>
@@ -40339,7 +40339,7 @@
         </is>
       </c>
       <c r="P555" t="n">
-        <v>583</v>
+        <v>1694</v>
       </c>
       <c r="Q555" t="n">
         <v>18</v>
@@ -40365,7 +40365,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E556" t="n">
         <v>4</v>
@@ -40380,25 +40380,25 @@
       </c>
       <c r="H556" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I556" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J556" t="n">
-        <v>530</v>
+        <v>600</v>
       </c>
       <c r="K556" t="n">
-        <v>8000</v>
+        <v>28000</v>
       </c>
       <c r="L556" t="n">
-        <v>9000</v>
+        <v>29000</v>
       </c>
       <c r="M556" t="n">
-        <v>8472</v>
+        <v>28500</v>
       </c>
       <c r="N556" t="inlineStr">
         <is>
@@ -40411,7 +40411,7 @@
         </is>
       </c>
       <c r="P556" t="n">
-        <v>471</v>
+        <v>1583</v>
       </c>
       <c r="Q556" t="n">
         <v>18</v>
@@ -40437,7 +40437,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E557" t="n">
         <v>4</v>
@@ -40457,20 +40457,20 @@
       </c>
       <c r="I557" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J557" t="n">
         <v>500</v>
       </c>
       <c r="K557" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="L557" t="n">
-        <v>13000</v>
+        <v>26000</v>
       </c>
       <c r="M557" t="n">
-        <v>12500</v>
+        <v>25500</v>
       </c>
       <c r="N557" t="inlineStr">
         <is>
@@ -40483,7 +40483,7 @@
         </is>
       </c>
       <c r="P557" t="n">
-        <v>694</v>
+        <v>1417</v>
       </c>
       <c r="Q557" t="n">
         <v>18</v>
@@ -40509,7 +40509,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E558" t="n">
         <v>4</v>
@@ -40524,25 +40524,25 @@
       </c>
       <c r="H558" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I558" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J558" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="K558" t="n">
-        <v>10000</v>
+        <v>37000</v>
       </c>
       <c r="L558" t="n">
-        <v>11000</v>
+        <v>38000</v>
       </c>
       <c r="M558" t="n">
-        <v>10500</v>
+        <v>37500</v>
       </c>
       <c r="N558" t="inlineStr">
         <is>
@@ -40555,7 +40555,7 @@
         </is>
       </c>
       <c r="P558" t="n">
-        <v>583</v>
+        <v>2083</v>
       </c>
       <c r="Q558" t="n">
         <v>18</v>
@@ -40596,25 +40596,25 @@
       </c>
       <c r="H559" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I559" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J559" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="K559" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L559" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M559" t="n">
-        <v>8500</v>
+        <v>12500</v>
       </c>
       <c r="N559" t="inlineStr">
         <is>
@@ -40627,7 +40627,7 @@
         </is>
       </c>
       <c r="P559" t="n">
-        <v>472</v>
+        <v>694</v>
       </c>
       <c r="Q559" t="n">
         <v>18</v>
@@ -40668,25 +40668,25 @@
       </c>
       <c r="H560" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I560" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J560" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K560" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L560" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M560" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="N560" t="inlineStr">
         <is>
@@ -40699,7 +40699,7 @@
         </is>
       </c>
       <c r="P560" t="n">
-        <v>694</v>
+        <v>583</v>
       </c>
       <c r="Q560" t="n">
         <v>18</v>
@@ -40740,25 +40740,25 @@
       </c>
       <c r="H561" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I561" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J561" t="n">
-        <v>600</v>
+        <v>530</v>
       </c>
       <c r="K561" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L561" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M561" t="n">
-        <v>10500</v>
+        <v>8472</v>
       </c>
       <c r="N561" t="inlineStr">
         <is>
@@ -40771,7 +40771,7 @@
         </is>
       </c>
       <c r="P561" t="n">
-        <v>583</v>
+        <v>471</v>
       </c>
       <c r="Q561" t="n">
         <v>18</v>
@@ -40812,25 +40812,25 @@
       </c>
       <c r="H562" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I562" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J562" t="n">
         <v>500</v>
       </c>
       <c r="K562" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L562" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M562" t="n">
-        <v>8500</v>
+        <v>12500</v>
       </c>
       <c r="N562" t="inlineStr">
         <is>
@@ -40843,7 +40843,7 @@
         </is>
       </c>
       <c r="P562" t="n">
-        <v>472</v>
+        <v>694</v>
       </c>
       <c r="Q562" t="n">
         <v>18</v>
@@ -40869,7 +40869,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44371</v>
+        <v>44357</v>
       </c>
       <c r="E563" t="n">
         <v>4</v>
@@ -40889,20 +40889,20 @@
       </c>
       <c r="I563" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J563" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K563" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="L563" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M563" t="n">
-        <v>14750</v>
+        <v>10500</v>
       </c>
       <c r="N563" t="inlineStr">
         <is>
@@ -40915,7 +40915,7 @@
         </is>
       </c>
       <c r="P563" t="n">
-        <v>819</v>
+        <v>583</v>
       </c>
       <c r="Q563" t="n">
         <v>18</v>
@@ -40941,7 +40941,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44371</v>
+        <v>44357</v>
       </c>
       <c r="E564" t="n">
         <v>4</v>
@@ -40961,20 +40961,20 @@
       </c>
       <c r="I564" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J564" t="n">
-        <v>700</v>
+        <v>260</v>
       </c>
       <c r="K564" t="n">
-        <v>11500</v>
+        <v>8000</v>
       </c>
       <c r="L564" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M564" t="n">
-        <v>11750</v>
+        <v>8500</v>
       </c>
       <c r="N564" t="inlineStr">
         <is>
@@ -40987,7 +40987,7 @@
         </is>
       </c>
       <c r="P564" t="n">
-        <v>653</v>
+        <v>472</v>
       </c>
       <c r="Q564" t="n">
         <v>18</v>
@@ -41013,7 +41013,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44371</v>
+        <v>44357</v>
       </c>
       <c r="E565" t="n">
         <v>4</v>
@@ -41028,25 +41028,25 @@
       </c>
       <c r="H565" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I565" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J565" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="K565" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="L565" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M565" t="n">
-        <v>8750</v>
+        <v>12500</v>
       </c>
       <c r="N565" t="inlineStr">
         <is>
@@ -41059,7 +41059,7 @@
         </is>
       </c>
       <c r="P565" t="n">
-        <v>486</v>
+        <v>694</v>
       </c>
       <c r="Q565" t="n">
         <v>18</v>
@@ -41085,7 +41085,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44371</v>
+        <v>44357</v>
       </c>
       <c r="E566" t="n">
         <v>4</v>
@@ -41105,20 +41105,20 @@
       </c>
       <c r="I566" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J566" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K566" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="L566" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M566" t="n">
-        <v>13750</v>
+        <v>10500</v>
       </c>
       <c r="N566" t="inlineStr">
         <is>
@@ -41131,7 +41131,7 @@
         </is>
       </c>
       <c r="P566" t="n">
-        <v>764</v>
+        <v>583</v>
       </c>
       <c r="Q566" t="n">
         <v>18</v>
@@ -41157,7 +41157,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44371</v>
+        <v>44357</v>
       </c>
       <c r="E567" t="n">
         <v>4</v>
@@ -41177,20 +41177,20 @@
       </c>
       <c r="I567" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J567" t="n">
         <v>500</v>
       </c>
       <c r="K567" t="n">
-        <v>11500</v>
+        <v>8000</v>
       </c>
       <c r="L567" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M567" t="n">
-        <v>11750</v>
+        <v>8500</v>
       </c>
       <c r="N567" t="inlineStr">
         <is>
@@ -41203,7 +41203,7 @@
         </is>
       </c>
       <c r="P567" t="n">
-        <v>653</v>
+        <v>472</v>
       </c>
       <c r="Q567" t="n">
         <v>18</v>
@@ -41244,25 +41244,25 @@
       </c>
       <c r="H568" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I568" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J568" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="K568" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="L568" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M568" t="n">
-        <v>9750</v>
+        <v>14750</v>
       </c>
       <c r="N568" t="inlineStr">
         <is>
@@ -41275,7 +41275,7 @@
         </is>
       </c>
       <c r="P568" t="n">
-        <v>542</v>
+        <v>819</v>
       </c>
       <c r="Q568" t="n">
         <v>18</v>
@@ -41301,7 +41301,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44454</v>
+        <v>44371</v>
       </c>
       <c r="E569" t="n">
         <v>4</v>
@@ -41321,20 +41321,20 @@
       </c>
       <c r="I569" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J569" t="n">
         <v>700</v>
       </c>
       <c r="K569" t="n">
-        <v>32000</v>
+        <v>11500</v>
       </c>
       <c r="L569" t="n">
-        <v>33000</v>
+        <v>12000</v>
       </c>
       <c r="M569" t="n">
-        <v>32500</v>
+        <v>11750</v>
       </c>
       <c r="N569" t="inlineStr">
         <is>
@@ -41347,7 +41347,7 @@
         </is>
       </c>
       <c r="P569" t="n">
-        <v>1806</v>
+        <v>653</v>
       </c>
       <c r="Q569" t="n">
         <v>18</v>
@@ -41373,7 +41373,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44454</v>
+        <v>44371</v>
       </c>
       <c r="E570" t="n">
         <v>4</v>
@@ -41393,20 +41393,20 @@
       </c>
       <c r="I570" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J570" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K570" t="n">
-        <v>29000</v>
+        <v>8500</v>
       </c>
       <c r="L570" t="n">
-        <v>30000</v>
+        <v>9000</v>
       </c>
       <c r="M570" t="n">
-        <v>29500</v>
+        <v>8750</v>
       </c>
       <c r="N570" t="inlineStr">
         <is>
@@ -41419,7 +41419,7 @@
         </is>
       </c>
       <c r="P570" t="n">
-        <v>1639</v>
+        <v>486</v>
       </c>
       <c r="Q570" t="n">
         <v>18</v>
@@ -41445,7 +41445,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44454</v>
+        <v>44371</v>
       </c>
       <c r="E571" t="n">
         <v>4</v>
@@ -41460,25 +41460,25 @@
       </c>
       <c r="H571" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I571" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J571" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K571" t="n">
-        <v>26000</v>
+        <v>13500</v>
       </c>
       <c r="L571" t="n">
-        <v>27000</v>
+        <v>14000</v>
       </c>
       <c r="M571" t="n">
-        <v>26500</v>
+        <v>13750</v>
       </c>
       <c r="N571" t="inlineStr">
         <is>
@@ -41491,7 +41491,7 @@
         </is>
       </c>
       <c r="P571" t="n">
-        <v>1472</v>
+        <v>764</v>
       </c>
       <c r="Q571" t="n">
         <v>18</v>
@@ -41517,7 +41517,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44272</v>
+        <v>44371</v>
       </c>
       <c r="E572" t="n">
         <v>4</v>
@@ -41532,25 +41532,25 @@
       </c>
       <c r="H572" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I572" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J572" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K572" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="L572" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M572" t="n">
-        <v>7750</v>
+        <v>11750</v>
       </c>
       <c r="N572" t="inlineStr">
         <is>
@@ -41563,7 +41563,7 @@
         </is>
       </c>
       <c r="P572" t="n">
-        <v>431</v>
+        <v>653</v>
       </c>
       <c r="Q572" t="n">
         <v>18</v>
@@ -41589,7 +41589,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44272</v>
+        <v>44371</v>
       </c>
       <c r="E573" t="n">
         <v>4</v>
@@ -41604,25 +41604,25 @@
       </c>
       <c r="H573" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I573" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J573" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K573" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="L573" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M573" t="n">
-        <v>5750</v>
+        <v>9750</v>
       </c>
       <c r="N573" t="inlineStr">
         <is>
@@ -41635,7 +41635,7 @@
         </is>
       </c>
       <c r="P573" t="n">
-        <v>319</v>
+        <v>542</v>
       </c>
       <c r="Q573" t="n">
         <v>18</v>
@@ -41661,7 +41661,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44272</v>
+        <v>44454</v>
       </c>
       <c r="E574" t="n">
         <v>4</v>
@@ -41676,25 +41676,25 @@
       </c>
       <c r="H574" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I574" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J574" t="n">
-        <v>240</v>
+        <v>700</v>
       </c>
       <c r="K574" t="n">
-        <v>3500</v>
+        <v>32000</v>
       </c>
       <c r="L574" t="n">
-        <v>4000</v>
+        <v>33000</v>
       </c>
       <c r="M574" t="n">
-        <v>3750</v>
+        <v>32500</v>
       </c>
       <c r="N574" t="inlineStr">
         <is>
@@ -41707,7 +41707,7 @@
         </is>
       </c>
       <c r="P574" t="n">
-        <v>208</v>
+        <v>1806</v>
       </c>
       <c r="Q574" t="n">
         <v>18</v>
@@ -41733,7 +41733,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44272</v>
+        <v>44454</v>
       </c>
       <c r="E575" t="n">
         <v>4</v>
@@ -41753,20 +41753,20 @@
       </c>
       <c r="I575" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J575" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K575" t="n">
-        <v>5500</v>
+        <v>29000</v>
       </c>
       <c r="L575" t="n">
-        <v>6000</v>
+        <v>30000</v>
       </c>
       <c r="M575" t="n">
-        <v>5750</v>
+        <v>29500</v>
       </c>
       <c r="N575" t="inlineStr">
         <is>
@@ -41779,7 +41779,7 @@
         </is>
       </c>
       <c r="P575" t="n">
-        <v>319</v>
+        <v>1639</v>
       </c>
       <c r="Q575" t="n">
         <v>18</v>
@@ -41805,7 +41805,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44272</v>
+        <v>44454</v>
       </c>
       <c r="E576" t="n">
         <v>4</v>
@@ -41825,20 +41825,20 @@
       </c>
       <c r="I576" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J576" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K576" t="n">
-        <v>3500</v>
+        <v>26000</v>
       </c>
       <c r="L576" t="n">
-        <v>4000</v>
+        <v>27000</v>
       </c>
       <c r="M576" t="n">
-        <v>3750</v>
+        <v>26500</v>
       </c>
       <c r="N576" t="inlineStr">
         <is>
@@ -41851,7 +41851,7 @@
         </is>
       </c>
       <c r="P576" t="n">
-        <v>208</v>
+        <v>1472</v>
       </c>
       <c r="Q576" t="n">
         <v>18</v>
@@ -41892,43 +41892,403 @@
       </c>
       <c r="H577" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I577" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J577" t="n">
         <v>300</v>
       </c>
       <c r="K577" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L577" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M577" t="n">
+        <v>7750</v>
+      </c>
+      <c r="N577" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O577" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P577" t="n">
+        <v>431</v>
+      </c>
+      <c r="Q577" t="n">
+        <v>18</v>
+      </c>
+      <c r="R577" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="n">
+        <v>2</v>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D578" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E578" t="n">
+        <v>4</v>
+      </c>
+      <c r="F578" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G578" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H578" t="inlineStr">
+        <is>
+          <t>Cuatro cascos rojo</t>
+        </is>
+      </c>
+      <c r="I578" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J578" t="n">
+        <v>300</v>
+      </c>
+      <c r="K578" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L578" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M578" t="n">
+        <v>5750</v>
+      </c>
+      <c r="N578" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O578" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P578" t="n">
+        <v>319</v>
+      </c>
+      <c r="Q578" t="n">
+        <v>18</v>
+      </c>
+      <c r="R578" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="n">
+        <v>2</v>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D579" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E579" t="n">
+        <v>4</v>
+      </c>
+      <c r="F579" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G579" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H579" t="inlineStr">
+        <is>
+          <t>Cuatro cascos rojo</t>
+        </is>
+      </c>
+      <c r="I579" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J579" t="n">
+        <v>240</v>
+      </c>
+      <c r="K579" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L579" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M579" t="n">
+        <v>3750</v>
+      </c>
+      <c r="N579" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O579" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P579" t="n">
+        <v>208</v>
+      </c>
+      <c r="Q579" t="n">
+        <v>18</v>
+      </c>
+      <c r="R579" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="n">
+        <v>2</v>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D580" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E580" t="n">
+        <v>4</v>
+      </c>
+      <c r="F580" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G580" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H580" t="inlineStr">
+        <is>
+          <t>Cuatro cascos verde</t>
+        </is>
+      </c>
+      <c r="I580" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J580" t="n">
+        <v>600</v>
+      </c>
+      <c r="K580" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L580" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M580" t="n">
+        <v>5750</v>
+      </c>
+      <c r="N580" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O580" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P580" t="n">
+        <v>319</v>
+      </c>
+      <c r="Q580" t="n">
+        <v>18</v>
+      </c>
+      <c r="R580" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="n">
+        <v>2</v>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D581" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E581" t="n">
+        <v>4</v>
+      </c>
+      <c r="F581" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G581" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H581" t="inlineStr">
+        <is>
+          <t>Cuatro cascos verde</t>
+        </is>
+      </c>
+      <c r="I581" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J581" t="n">
+        <v>400</v>
+      </c>
+      <c r="K581" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L581" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M581" t="n">
+        <v>3750</v>
+      </c>
+      <c r="N581" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O581" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P581" t="n">
+        <v>208</v>
+      </c>
+      <c r="Q581" t="n">
+        <v>18</v>
+      </c>
+      <c r="R581" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="n">
+        <v>2</v>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D582" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E582" t="n">
+        <v>4</v>
+      </c>
+      <c r="F582" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G582" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H582" t="inlineStr">
+        <is>
+          <t>Cuatro cascos verde</t>
+        </is>
+      </c>
+      <c r="I582" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J582" t="n">
+        <v>300</v>
+      </c>
+      <c r="K582" t="n">
         <v>1500</v>
       </c>
-      <c r="L577" t="n">
+      <c r="L582" t="n">
         <v>2000</v>
       </c>
-      <c r="M577" t="n">
+      <c r="M582" t="n">
         <v>1750</v>
       </c>
-      <c r="N577" t="inlineStr">
-        <is>
-          <t>$/caja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O577" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P577" t="n">
+      <c r="N582" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O582" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P582" t="n">
         <v>97</v>
       </c>
-      <c r="Q577" t="n">
-        <v>18</v>
-      </c>
-      <c r="R577" t="inlineStr">
+      <c r="Q582" t="n">
+        <v>18</v>
+      </c>
+      <c r="R582" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pimiento.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pimiento.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R582"/>
+  <dimension ref="A1:R587"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31869,7 +31869,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44286</v>
+        <v>44559</v>
       </c>
       <c r="E438" t="n">
         <v>4</v>
@@ -31893,16 +31893,16 @@
         </is>
       </c>
       <c r="J438" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="K438" t="n">
-        <v>5000</v>
+        <v>19000</v>
       </c>
       <c r="L438" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="M438" t="n">
-        <v>5500</v>
+        <v>19500</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         </is>
       </c>
       <c r="P438" t="n">
-        <v>306</v>
+        <v>1083</v>
       </c>
       <c r="Q438" t="n">
         <v>18</v>
@@ -31941,7 +31941,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44286</v>
+        <v>44559</v>
       </c>
       <c r="E439" t="n">
         <v>4</v>
@@ -31965,16 +31965,16 @@
         </is>
       </c>
       <c r="J439" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K439" t="n">
-        <v>3000</v>
+        <v>16000</v>
       </c>
       <c r="L439" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="M439" t="n">
-        <v>3500</v>
+        <v>16500</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
@@ -31987,7 +31987,7 @@
         </is>
       </c>
       <c r="P439" t="n">
-        <v>194</v>
+        <v>917</v>
       </c>
       <c r="Q439" t="n">
         <v>18</v>
@@ -32013,7 +32013,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44286</v>
+        <v>44559</v>
       </c>
       <c r="E440" t="n">
         <v>4</v>
@@ -32028,25 +32028,25 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J440" t="n">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="K440" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="L440" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="M440" t="n">
-        <v>4500</v>
+        <v>13500</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
@@ -32059,7 +32059,7 @@
         </is>
       </c>
       <c r="P440" t="n">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="Q440" t="n">
         <v>18</v>
@@ -32085,7 +32085,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44286</v>
+        <v>44559</v>
       </c>
       <c r="E441" t="n">
         <v>4</v>
@@ -32105,20 +32105,20 @@
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J441" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="K441" t="n">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="L441" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="M441" t="n">
-        <v>2500</v>
+        <v>7500</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         </is>
       </c>
       <c r="P441" t="n">
-        <v>139</v>
+        <v>417</v>
       </c>
       <c r="Q441" t="n">
         <v>18</v>
@@ -32157,7 +32157,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44286</v>
+        <v>44559</v>
       </c>
       <c r="E442" t="n">
         <v>4</v>
@@ -32172,25 +32172,25 @@
       </c>
       <c r="H442" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J442" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="K442" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L442" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M442" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="N442" t="inlineStr">
         <is>
@@ -32203,7 +32203,7 @@
         </is>
       </c>
       <c r="P442" t="n">
-        <v>250</v>
+        <v>306</v>
       </c>
       <c r="Q442" t="n">
         <v>18</v>
@@ -32244,25 +32244,25 @@
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J443" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="K443" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="L443" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M443" t="n">
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="N443" t="inlineStr">
         <is>
@@ -32275,7 +32275,7 @@
         </is>
       </c>
       <c r="P443" t="n">
-        <v>139</v>
+        <v>306</v>
       </c>
       <c r="Q443" t="n">
         <v>18</v>
@@ -32301,7 +32301,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44279</v>
+        <v>44286</v>
       </c>
       <c r="E444" t="n">
         <v>4</v>
@@ -32321,20 +32321,20 @@
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J444" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="K444" t="n">
-        <v>7500</v>
+        <v>3000</v>
       </c>
       <c r="L444" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M444" t="n">
-        <v>7750</v>
+        <v>3500</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
@@ -32347,7 +32347,7 @@
         </is>
       </c>
       <c r="P444" t="n">
-        <v>431</v>
+        <v>194</v>
       </c>
       <c r="Q444" t="n">
         <v>18</v>
@@ -32373,7 +32373,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44279</v>
+        <v>44286</v>
       </c>
       <c r="E445" t="n">
         <v>4</v>
@@ -32388,25 +32388,25 @@
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J445" t="n">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="K445" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L445" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M445" t="n">
-        <v>5750</v>
+        <v>4500</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         </is>
       </c>
       <c r="P445" t="n">
-        <v>319</v>
+        <v>250</v>
       </c>
       <c r="Q445" t="n">
         <v>18</v>
@@ -32445,7 +32445,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44279</v>
+        <v>44286</v>
       </c>
       <c r="E446" t="n">
         <v>4</v>
@@ -32460,25 +32460,25 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J446" t="n">
-        <v>160</v>
+        <v>1100</v>
       </c>
       <c r="K446" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="L446" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M446" t="n">
-        <v>3750</v>
+        <v>2500</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
@@ -32491,7 +32491,7 @@
         </is>
       </c>
       <c r="P446" t="n">
-        <v>208</v>
+        <v>139</v>
       </c>
       <c r="Q446" t="n">
         <v>18</v>
@@ -32517,7 +32517,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44279</v>
+        <v>44286</v>
       </c>
       <c r="E447" t="n">
         <v>4</v>
@@ -32532,7 +32532,7 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
@@ -32541,16 +32541,16 @@
         </is>
       </c>
       <c r="J447" t="n">
-        <v>360</v>
+        <v>1200</v>
       </c>
       <c r="K447" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L447" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M447" t="n">
-        <v>5750</v>
+        <v>4500</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
@@ -32563,7 +32563,7 @@
         </is>
       </c>
       <c r="P447" t="n">
-        <v>319</v>
+        <v>250</v>
       </c>
       <c r="Q447" t="n">
         <v>18</v>
@@ -32589,7 +32589,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44279</v>
+        <v>44286</v>
       </c>
       <c r="E448" t="n">
         <v>4</v>
@@ -32604,7 +32604,7 @@
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
@@ -32613,16 +32613,16 @@
         </is>
       </c>
       <c r="J448" t="n">
-        <v>240</v>
+        <v>800</v>
       </c>
       <c r="K448" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="L448" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M448" t="n">
-        <v>3750</v>
+        <v>2500</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         </is>
       </c>
       <c r="P448" t="n">
-        <v>208</v>
+        <v>139</v>
       </c>
       <c r="Q448" t="n">
         <v>18</v>
@@ -32676,25 +32676,25 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J449" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K449" t="n">
-        <v>1500</v>
+        <v>7500</v>
       </c>
       <c r="L449" t="n">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="M449" t="n">
-        <v>1750</v>
+        <v>7750</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
@@ -32707,7 +32707,7 @@
         </is>
       </c>
       <c r="P449" t="n">
-        <v>97</v>
+        <v>431</v>
       </c>
       <c r="Q449" t="n">
         <v>18</v>
@@ -32733,7 +32733,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44322</v>
+        <v>44279</v>
       </c>
       <c r="E450" t="n">
         <v>4</v>
@@ -32748,25 +32748,25 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J450" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="K450" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L450" t="n">
         <v>6000</v>
       </c>
-      <c r="L450" t="n">
-        <v>7000</v>
-      </c>
       <c r="M450" t="n">
-        <v>6500</v>
+        <v>5750</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
@@ -32779,7 +32779,7 @@
         </is>
       </c>
       <c r="P450" t="n">
-        <v>361</v>
+        <v>319</v>
       </c>
       <c r="Q450" t="n">
         <v>18</v>
@@ -32805,7 +32805,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44322</v>
+        <v>44279</v>
       </c>
       <c r="E451" t="n">
         <v>4</v>
@@ -32820,25 +32820,25 @@
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J451" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="K451" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L451" t="n">
         <v>4000</v>
       </c>
-      <c r="L451" t="n">
-        <v>5000</v>
-      </c>
       <c r="M451" t="n">
-        <v>4500</v>
+        <v>3750</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
@@ -32851,7 +32851,7 @@
         </is>
       </c>
       <c r="P451" t="n">
-        <v>250</v>
+        <v>208</v>
       </c>
       <c r="Q451" t="n">
         <v>18</v>
@@ -32877,7 +32877,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44322</v>
+        <v>44279</v>
       </c>
       <c r="E452" t="n">
         <v>4</v>
@@ -32897,20 +32897,20 @@
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J452" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="K452" t="n">
-        <v>2000</v>
+        <v>5500</v>
       </c>
       <c r="L452" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M452" t="n">
-        <v>2500</v>
+        <v>5750</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
@@ -32923,7 +32923,7 @@
         </is>
       </c>
       <c r="P452" t="n">
-        <v>139</v>
+        <v>319</v>
       </c>
       <c r="Q452" t="n">
         <v>18</v>
@@ -32949,7 +32949,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44322</v>
+        <v>44279</v>
       </c>
       <c r="E453" t="n">
         <v>4</v>
@@ -32964,25 +32964,25 @@
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J453" t="n">
-        <v>700</v>
+        <v>240</v>
       </c>
       <c r="K453" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L453" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="M453" t="n">
-        <v>6250</v>
+        <v>3750</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
@@ -32995,7 +32995,7 @@
         </is>
       </c>
       <c r="P453" t="n">
-        <v>347</v>
+        <v>208</v>
       </c>
       <c r="Q453" t="n">
         <v>18</v>
@@ -33021,7 +33021,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44322</v>
+        <v>44279</v>
       </c>
       <c r="E454" t="n">
         <v>4</v>
@@ -33036,25 +33036,25 @@
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J454" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="K454" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="L454" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="M454" t="n">
-        <v>4250</v>
+        <v>1750</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
@@ -33067,7 +33067,7 @@
         </is>
       </c>
       <c r="P454" t="n">
-        <v>236</v>
+        <v>97</v>
       </c>
       <c r="Q454" t="n">
         <v>18</v>
@@ -33108,25 +33108,25 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J455" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="K455" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="L455" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="M455" t="n">
-        <v>2250</v>
+        <v>6500</v>
       </c>
       <c r="N455" t="inlineStr">
         <is>
@@ -33139,7 +33139,7 @@
         </is>
       </c>
       <c r="P455" t="n">
-        <v>125</v>
+        <v>361</v>
       </c>
       <c r="Q455" t="n">
         <v>18</v>
@@ -33165,7 +33165,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44391</v>
+        <v>44322</v>
       </c>
       <c r="E456" t="n">
         <v>4</v>
@@ -33185,20 +33185,20 @@
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J456" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K456" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="L456" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="M456" t="n">
-        <v>14500</v>
+        <v>4500</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
@@ -33211,7 +33211,7 @@
         </is>
       </c>
       <c r="P456" t="n">
-        <v>806</v>
+        <v>250</v>
       </c>
       <c r="Q456" t="n">
         <v>18</v>
@@ -33237,7 +33237,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44391</v>
+        <v>44322</v>
       </c>
       <c r="E457" t="n">
         <v>4</v>
@@ -33257,20 +33257,20 @@
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J457" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K457" t="n">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="L457" t="n">
-        <v>13000</v>
+        <v>3000</v>
       </c>
       <c r="M457" t="n">
-        <v>12500</v>
+        <v>2500</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
@@ -33283,7 +33283,7 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>694</v>
+        <v>139</v>
       </c>
       <c r="Q457" t="n">
         <v>18</v>
@@ -33309,7 +33309,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44391</v>
+        <v>44322</v>
       </c>
       <c r="E458" t="n">
         <v>4</v>
@@ -33324,25 +33324,25 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J458" t="n">
-        <v>160</v>
+        <v>700</v>
       </c>
       <c r="K458" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L458" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="M458" t="n">
-        <v>10500</v>
+        <v>6250</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         </is>
       </c>
       <c r="P458" t="n">
-        <v>583</v>
+        <v>347</v>
       </c>
       <c r="Q458" t="n">
         <v>18</v>
@@ -33381,7 +33381,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44391</v>
+        <v>44322</v>
       </c>
       <c r="E459" t="n">
         <v>4</v>
@@ -33401,20 +33401,20 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J459" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K459" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="L459" t="n">
-        <v>16000</v>
+        <v>4500</v>
       </c>
       <c r="M459" t="n">
-        <v>15500</v>
+        <v>4250</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
@@ -33427,7 +33427,7 @@
         </is>
       </c>
       <c r="P459" t="n">
-        <v>861</v>
+        <v>236</v>
       </c>
       <c r="Q459" t="n">
         <v>18</v>
@@ -33453,7 +33453,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44391</v>
+        <v>44322</v>
       </c>
       <c r="E460" t="n">
         <v>4</v>
@@ -33473,20 +33473,20 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J460" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K460" t="n">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="L460" t="n">
-        <v>13000</v>
+        <v>2500</v>
       </c>
       <c r="M460" t="n">
-        <v>12500</v>
+        <v>2250</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
@@ -33499,7 +33499,7 @@
         </is>
       </c>
       <c r="P460" t="n">
-        <v>694</v>
+        <v>125</v>
       </c>
       <c r="Q460" t="n">
         <v>18</v>
@@ -33540,25 +33540,25 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J461" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K461" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L461" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M461" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
@@ -33571,7 +33571,7 @@
         </is>
       </c>
       <c r="P461" t="n">
-        <v>583</v>
+        <v>806</v>
       </c>
       <c r="Q461" t="n">
         <v>18</v>
@@ -33597,7 +33597,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44510</v>
+        <v>44391</v>
       </c>
       <c r="E462" t="n">
         <v>4</v>
@@ -33617,20 +33617,20 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J462" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="K462" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="L462" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M462" t="n">
-        <v>19500</v>
+        <v>12500</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
@@ -33643,7 +33643,7 @@
         </is>
       </c>
       <c r="P462" t="n">
-        <v>1083</v>
+        <v>694</v>
       </c>
       <c r="Q462" t="n">
         <v>18</v>
@@ -33669,7 +33669,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44510</v>
+        <v>44391</v>
       </c>
       <c r="E463" t="n">
         <v>4</v>
@@ -33689,20 +33689,20 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J463" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="K463" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="L463" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="M463" t="n">
-        <v>16500</v>
+        <v>10500</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
@@ -33715,7 +33715,7 @@
         </is>
       </c>
       <c r="P463" t="n">
-        <v>917</v>
+        <v>583</v>
       </c>
       <c r="Q463" t="n">
         <v>18</v>
@@ -33741,7 +33741,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44510</v>
+        <v>44391</v>
       </c>
       <c r="E464" t="n">
         <v>4</v>
@@ -33756,25 +33756,25 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J464" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K464" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L464" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M464" t="n">
-        <v>13500</v>
+        <v>15500</v>
       </c>
       <c r="N464" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         </is>
       </c>
       <c r="P464" t="n">
-        <v>750</v>
+        <v>861</v>
       </c>
       <c r="Q464" t="n">
         <v>18</v>
@@ -33813,7 +33813,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44420</v>
+        <v>44391</v>
       </c>
       <c r="E465" t="n">
         <v>4</v>
@@ -33828,25 +33828,25 @@
       </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J465" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K465" t="n">
-        <v>29000</v>
+        <v>12000</v>
       </c>
       <c r="L465" t="n">
-        <v>30000</v>
+        <v>13000</v>
       </c>
       <c r="M465" t="n">
-        <v>29500</v>
+        <v>12500</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
@@ -33859,7 +33859,7 @@
         </is>
       </c>
       <c r="P465" t="n">
-        <v>1639</v>
+        <v>694</v>
       </c>
       <c r="Q465" t="n">
         <v>18</v>
@@ -33885,7 +33885,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44420</v>
+        <v>44391</v>
       </c>
       <c r="E466" t="n">
         <v>4</v>
@@ -33900,25 +33900,25 @@
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J466" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="K466" t="n">
-        <v>27000</v>
+        <v>10000</v>
       </c>
       <c r="L466" t="n">
-        <v>28000</v>
+        <v>11000</v>
       </c>
       <c r="M466" t="n">
-        <v>27500</v>
+        <v>10500</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
@@ -33931,7 +33931,7 @@
         </is>
       </c>
       <c r="P466" t="n">
-        <v>1528</v>
+        <v>583</v>
       </c>
       <c r="Q466" t="n">
         <v>18</v>
@@ -33957,7 +33957,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44420</v>
+        <v>44510</v>
       </c>
       <c r="E467" t="n">
         <v>4</v>
@@ -33977,20 +33977,20 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J467" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="K467" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="L467" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M467" t="n">
-        <v>24500</v>
+        <v>19500</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
@@ -34003,7 +34003,7 @@
         </is>
       </c>
       <c r="P467" t="n">
-        <v>1361</v>
+        <v>1083</v>
       </c>
       <c r="Q467" t="n">
         <v>18</v>
@@ -34029,7 +34029,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44420</v>
+        <v>44510</v>
       </c>
       <c r="E468" t="n">
         <v>4</v>
@@ -34044,29 +34044,29 @@
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J468" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="K468" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="L468" t="n">
-        <v>27000</v>
+        <v>17000</v>
       </c>
       <c r="M468" t="n">
-        <v>26000</v>
+        <v>16500</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O468" t="inlineStr">
@@ -34075,10 +34075,10 @@
         </is>
       </c>
       <c r="P468" t="n">
-        <v>1300</v>
+        <v>917</v>
       </c>
       <c r="Q468" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R468" t="inlineStr">
         <is>
@@ -34101,7 +34101,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44420</v>
+        <v>44510</v>
       </c>
       <c r="E469" t="n">
         <v>4</v>
@@ -34116,29 +34116,29 @@
       </c>
       <c r="H469" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J469" t="n">
         <v>800</v>
       </c>
       <c r="K469" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="L469" t="n">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="M469" t="n">
-        <v>22000</v>
+        <v>13500</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O469" t="inlineStr">
@@ -34147,10 +34147,10 @@
         </is>
       </c>
       <c r="P469" t="n">
-        <v>1100</v>
+        <v>750</v>
       </c>
       <c r="Q469" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R469" t="inlineStr">
         <is>
@@ -34188,29 +34188,29 @@
       </c>
       <c r="H470" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J470" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="K470" t="n">
-        <v>17000</v>
+        <v>29000</v>
       </c>
       <c r="L470" t="n">
-        <v>19000</v>
+        <v>30000</v>
       </c>
       <c r="M470" t="n">
-        <v>18000</v>
+        <v>29500</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O470" t="inlineStr">
@@ -34219,10 +34219,10 @@
         </is>
       </c>
       <c r="P470" t="n">
-        <v>900</v>
+        <v>1639</v>
       </c>
       <c r="Q470" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R470" t="inlineStr">
         <is>
@@ -34245,7 +34245,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44321</v>
+        <v>44420</v>
       </c>
       <c r="E471" t="n">
         <v>4</v>
@@ -34265,20 +34265,20 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J471" t="n">
         <v>1100</v>
       </c>
       <c r="K471" t="n">
-        <v>6000</v>
+        <v>27000</v>
       </c>
       <c r="L471" t="n">
-        <v>7000</v>
+        <v>28000</v>
       </c>
       <c r="M471" t="n">
-        <v>6500</v>
+        <v>27500</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
@@ -34291,7 +34291,7 @@
         </is>
       </c>
       <c r="P471" t="n">
-        <v>361</v>
+        <v>1528</v>
       </c>
       <c r="Q471" t="n">
         <v>18</v>
@@ -34317,7 +34317,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44321</v>
+        <v>44420</v>
       </c>
       <c r="E472" t="n">
         <v>4</v>
@@ -34337,20 +34337,20 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J472" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K472" t="n">
-        <v>4000</v>
+        <v>24000</v>
       </c>
       <c r="L472" t="n">
-        <v>5000</v>
+        <v>25000</v>
       </c>
       <c r="M472" t="n">
-        <v>4500</v>
+        <v>24500</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
@@ -34363,7 +34363,7 @@
         </is>
       </c>
       <c r="P472" t="n">
-        <v>250</v>
+        <v>1361</v>
       </c>
       <c r="Q472" t="n">
         <v>18</v>
@@ -34389,7 +34389,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44321</v>
+        <v>44420</v>
       </c>
       <c r="E473" t="n">
         <v>4</v>
@@ -34404,29 +34404,29 @@
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J473" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="K473" t="n">
-        <v>2000</v>
+        <v>25000</v>
       </c>
       <c r="L473" t="n">
-        <v>3000</v>
+        <v>27000</v>
       </c>
       <c r="M473" t="n">
-        <v>2500</v>
+        <v>26000</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O473" t="inlineStr">
@@ -34435,10 +34435,10 @@
         </is>
       </c>
       <c r="P473" t="n">
-        <v>139</v>
+        <v>1300</v>
       </c>
       <c r="Q473" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R473" t="inlineStr">
         <is>
@@ -34461,7 +34461,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44321</v>
+        <v>44420</v>
       </c>
       <c r="E474" t="n">
         <v>4</v>
@@ -34481,24 +34481,24 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J474" t="n">
         <v>800</v>
       </c>
       <c r="K474" t="n">
-        <v>6000</v>
+        <v>21000</v>
       </c>
       <c r="L474" t="n">
-        <v>6500</v>
+        <v>23000</v>
       </c>
       <c r="M474" t="n">
-        <v>6250</v>
+        <v>22000</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O474" t="inlineStr">
@@ -34507,10 +34507,10 @@
         </is>
       </c>
       <c r="P474" t="n">
-        <v>347</v>
+        <v>1100</v>
       </c>
       <c r="Q474" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R474" t="inlineStr">
         <is>
@@ -34533,7 +34533,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44321</v>
+        <v>44420</v>
       </c>
       <c r="E475" t="n">
         <v>4</v>
@@ -34553,24 +34553,24 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J475" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K475" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="L475" t="n">
-        <v>4500</v>
+        <v>19000</v>
       </c>
       <c r="M475" t="n">
-        <v>4250</v>
+        <v>18000</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O475" t="inlineStr">
@@ -34579,10 +34579,10 @@
         </is>
       </c>
       <c r="P475" t="n">
-        <v>236</v>
+        <v>900</v>
       </c>
       <c r="Q475" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R475" t="inlineStr">
         <is>
@@ -34620,25 +34620,25 @@
       </c>
       <c r="H476" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J476" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K476" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="L476" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="M476" t="n">
-        <v>2250</v>
+        <v>6500</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
@@ -34651,7 +34651,7 @@
         </is>
       </c>
       <c r="P476" t="n">
-        <v>125</v>
+        <v>361</v>
       </c>
       <c r="Q476" t="n">
         <v>18</v>
@@ -34677,7 +34677,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E477" t="n">
         <v>4</v>
@@ -34697,20 +34697,20 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J477" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K477" t="n">
-        <v>11500</v>
+        <v>4000</v>
       </c>
       <c r="L477" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="M477" t="n">
-        <v>11750</v>
+        <v>4500</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
@@ -34723,7 +34723,7 @@
         </is>
       </c>
       <c r="P477" t="n">
-        <v>653</v>
+        <v>250</v>
       </c>
       <c r="Q477" t="n">
         <v>18</v>
@@ -34749,7 +34749,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E478" t="n">
         <v>4</v>
@@ -34769,20 +34769,20 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J478" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K478" t="n">
-        <v>9500</v>
+        <v>2000</v>
       </c>
       <c r="L478" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="M478" t="n">
-        <v>9750</v>
+        <v>2500</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
@@ -34795,7 +34795,7 @@
         </is>
       </c>
       <c r="P478" t="n">
-        <v>542</v>
+        <v>139</v>
       </c>
       <c r="Q478" t="n">
         <v>18</v>
@@ -34821,7 +34821,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E479" t="n">
         <v>4</v>
@@ -34836,25 +34836,25 @@
       </c>
       <c r="H479" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J479" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="K479" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L479" t="n">
         <v>6500</v>
       </c>
-      <c r="L479" t="n">
-        <v>7000</v>
-      </c>
       <c r="M479" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
@@ -34867,7 +34867,7 @@
         </is>
       </c>
       <c r="P479" t="n">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="Q479" t="n">
         <v>18</v>
@@ -34893,7 +34893,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E480" t="n">
         <v>4</v>
@@ -34913,20 +34913,20 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J480" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K480" t="n">
-        <v>10500</v>
+        <v>4000</v>
       </c>
       <c r="L480" t="n">
-        <v>11000</v>
+        <v>4500</v>
       </c>
       <c r="M480" t="n">
-        <v>10750</v>
+        <v>4250</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
@@ -34939,7 +34939,7 @@
         </is>
       </c>
       <c r="P480" t="n">
-        <v>597</v>
+        <v>236</v>
       </c>
       <c r="Q480" t="n">
         <v>18</v>
@@ -34965,7 +34965,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E481" t="n">
         <v>4</v>
@@ -34985,20 +34985,20 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J481" t="n">
         <v>400</v>
       </c>
       <c r="K481" t="n">
-        <v>8500</v>
+        <v>2000</v>
       </c>
       <c r="L481" t="n">
-        <v>9000</v>
+        <v>2500</v>
       </c>
       <c r="M481" t="n">
-        <v>8750</v>
+        <v>2250</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         </is>
       </c>
       <c r="P481" t="n">
-        <v>486</v>
+        <v>125</v>
       </c>
       <c r="Q481" t="n">
         <v>18</v>
@@ -35052,25 +35052,25 @@
       </c>
       <c r="H482" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J482" t="n">
-        <v>240</v>
+        <v>800</v>
       </c>
       <c r="K482" t="n">
-        <v>6500</v>
+        <v>11500</v>
       </c>
       <c r="L482" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M482" t="n">
-        <v>6750</v>
+        <v>11750</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
@@ -35083,7 +35083,7 @@
         </is>
       </c>
       <c r="P482" t="n">
-        <v>375</v>
+        <v>653</v>
       </c>
       <c r="Q482" t="n">
         <v>18</v>
@@ -35109,7 +35109,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44308</v>
+        <v>44385</v>
       </c>
       <c r="E483" t="n">
         <v>4</v>
@@ -35129,20 +35129,20 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J483" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K483" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L483" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M483" t="n">
-        <v>7750</v>
+        <v>9750</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
@@ -35155,7 +35155,7 @@
         </is>
       </c>
       <c r="P483" t="n">
-        <v>431</v>
+        <v>542</v>
       </c>
       <c r="Q483" t="n">
         <v>18</v>
@@ -35181,7 +35181,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44308</v>
+        <v>44385</v>
       </c>
       <c r="E484" t="n">
         <v>4</v>
@@ -35201,20 +35201,20 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J484" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K484" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L484" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M484" t="n">
-        <v>5750</v>
+        <v>6750</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
@@ -35227,7 +35227,7 @@
         </is>
       </c>
       <c r="P484" t="n">
-        <v>319</v>
+        <v>375</v>
       </c>
       <c r="Q484" t="n">
         <v>18</v>
@@ -35253,7 +35253,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44308</v>
+        <v>44385</v>
       </c>
       <c r="E485" t="n">
         <v>4</v>
@@ -35268,25 +35268,25 @@
       </c>
       <c r="H485" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J485" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K485" t="n">
-        <v>3500</v>
+        <v>10500</v>
       </c>
       <c r="L485" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="M485" t="n">
-        <v>3750</v>
+        <v>10750</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         </is>
       </c>
       <c r="P485" t="n">
-        <v>208</v>
+        <v>597</v>
       </c>
       <c r="Q485" t="n">
         <v>18</v>
@@ -35325,7 +35325,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44308</v>
+        <v>44385</v>
       </c>
       <c r="E486" t="n">
         <v>4</v>
@@ -35345,20 +35345,20 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J486" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="K486" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="L486" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M486" t="n">
-        <v>5750</v>
+        <v>8750</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         </is>
       </c>
       <c r="P486" t="n">
-        <v>319</v>
+        <v>486</v>
       </c>
       <c r="Q486" t="n">
         <v>18</v>
@@ -35397,7 +35397,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44308</v>
+        <v>44385</v>
       </c>
       <c r="E487" t="n">
         <v>4</v>
@@ -35417,20 +35417,20 @@
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J487" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K487" t="n">
-        <v>3200</v>
+        <v>6500</v>
       </c>
       <c r="L487" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M487" t="n">
-        <v>3600</v>
+        <v>6750</v>
       </c>
       <c r="N487" t="inlineStr">
         <is>
@@ -35443,7 +35443,7 @@
         </is>
       </c>
       <c r="P487" t="n">
-        <v>200</v>
+        <v>375</v>
       </c>
       <c r="Q487" t="n">
         <v>18</v>
@@ -35484,25 +35484,25 @@
       </c>
       <c r="H488" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I488" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J488" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K488" t="n">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="L488" t="n">
-        <v>2500</v>
+        <v>8000</v>
       </c>
       <c r="M488" t="n">
-        <v>2250</v>
+        <v>7750</v>
       </c>
       <c r="N488" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
         </is>
       </c>
       <c r="P488" t="n">
-        <v>125</v>
+        <v>431</v>
       </c>
       <c r="Q488" t="n">
         <v>18</v>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44350</v>
+        <v>44308</v>
       </c>
       <c r="E489" t="n">
         <v>4</v>
@@ -35556,25 +35556,25 @@
       </c>
       <c r="H489" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I489" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J489" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K489" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="L489" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="M489" t="n">
-        <v>12500</v>
+        <v>5750</v>
       </c>
       <c r="N489" t="inlineStr">
         <is>
@@ -35587,7 +35587,7 @@
         </is>
       </c>
       <c r="P489" t="n">
-        <v>694</v>
+        <v>319</v>
       </c>
       <c r="Q489" t="n">
         <v>18</v>
@@ -35613,7 +35613,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44350</v>
+        <v>44308</v>
       </c>
       <c r="E490" t="n">
         <v>4</v>
@@ -35628,25 +35628,25 @@
       </c>
       <c r="H490" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J490" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="K490" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="L490" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="M490" t="n">
-        <v>10486</v>
+        <v>3750</v>
       </c>
       <c r="N490" t="inlineStr">
         <is>
@@ -35659,7 +35659,7 @@
         </is>
       </c>
       <c r="P490" t="n">
-        <v>583</v>
+        <v>208</v>
       </c>
       <c r="Q490" t="n">
         <v>18</v>
@@ -35685,7 +35685,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44350</v>
+        <v>44308</v>
       </c>
       <c r="E491" t="n">
         <v>4</v>
@@ -35700,25 +35700,25 @@
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J491" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="K491" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L491" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M491" t="n">
-        <v>8500</v>
+        <v>5750</v>
       </c>
       <c r="N491" t="inlineStr">
         <is>
@@ -35731,7 +35731,7 @@
         </is>
       </c>
       <c r="P491" t="n">
-        <v>472</v>
+        <v>319</v>
       </c>
       <c r="Q491" t="n">
         <v>18</v>
@@ -35757,7 +35757,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44350</v>
+        <v>44308</v>
       </c>
       <c r="E492" t="n">
         <v>4</v>
@@ -35772,25 +35772,25 @@
       </c>
       <c r="H492" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J492" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="K492" t="n">
-        <v>8500</v>
+        <v>3200</v>
       </c>
       <c r="L492" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="M492" t="n">
-        <v>8750</v>
+        <v>3600</v>
       </c>
       <c r="N492" t="inlineStr">
         <is>
@@ -35803,7 +35803,7 @@
         </is>
       </c>
       <c r="P492" t="n">
-        <v>486</v>
+        <v>200</v>
       </c>
       <c r="Q492" t="n">
         <v>18</v>
@@ -35829,7 +35829,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44350</v>
+        <v>44308</v>
       </c>
       <c r="E493" t="n">
         <v>4</v>
@@ -35844,25 +35844,25 @@
       </c>
       <c r="H493" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J493" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="K493" t="n">
-        <v>6500</v>
+        <v>2000</v>
       </c>
       <c r="L493" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="M493" t="n">
-        <v>6750</v>
+        <v>2250</v>
       </c>
       <c r="N493" t="inlineStr">
         <is>
@@ -35875,7 +35875,7 @@
         </is>
       </c>
       <c r="P493" t="n">
-        <v>375</v>
+        <v>125</v>
       </c>
       <c r="Q493" t="n">
         <v>18</v>
@@ -35916,25 +35916,25 @@
       </c>
       <c r="H494" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J494" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="K494" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="L494" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="M494" t="n">
-        <v>4750</v>
+        <v>12500</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
@@ -35947,7 +35947,7 @@
         </is>
       </c>
       <c r="P494" t="n">
-        <v>264</v>
+        <v>694</v>
       </c>
       <c r="Q494" t="n">
         <v>18</v>
@@ -35988,25 +35988,25 @@
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J495" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="K495" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L495" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M495" t="n">
-        <v>13500</v>
+        <v>10486</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         </is>
       </c>
       <c r="P495" t="n">
-        <v>750</v>
+        <v>583</v>
       </c>
       <c r="Q495" t="n">
         <v>18</v>
@@ -36060,25 +36060,25 @@
       </c>
       <c r="H496" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J496" t="n">
         <v>240</v>
       </c>
       <c r="K496" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L496" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M496" t="n">
-        <v>10500</v>
+        <v>8500</v>
       </c>
       <c r="N496" t="inlineStr">
         <is>
@@ -36091,7 +36091,7 @@
         </is>
       </c>
       <c r="P496" t="n">
-        <v>583</v>
+        <v>472</v>
       </c>
       <c r="Q496" t="n">
         <v>18</v>
@@ -36132,25 +36132,25 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J497" t="n">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="K497" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="L497" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M497" t="n">
-        <v>7500</v>
+        <v>8750</v>
       </c>
       <c r="N497" t="inlineStr">
         <is>
@@ -36163,7 +36163,7 @@
         </is>
       </c>
       <c r="P497" t="n">
-        <v>417</v>
+        <v>486</v>
       </c>
       <c r="Q497" t="n">
         <v>18</v>
@@ -36189,7 +36189,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44405</v>
+        <v>44350</v>
       </c>
       <c r="E498" t="n">
         <v>4</v>
@@ -36209,20 +36209,20 @@
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J498" t="n">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="K498" t="n">
-        <v>17000</v>
+        <v>6500</v>
       </c>
       <c r="L498" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="M498" t="n">
-        <v>17500</v>
+        <v>6750</v>
       </c>
       <c r="N498" t="inlineStr">
         <is>
@@ -36235,7 +36235,7 @@
         </is>
       </c>
       <c r="P498" t="n">
-        <v>972</v>
+        <v>375</v>
       </c>
       <c r="Q498" t="n">
         <v>18</v>
@@ -36261,7 +36261,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44405</v>
+        <v>44350</v>
       </c>
       <c r="E499" t="n">
         <v>4</v>
@@ -36281,20 +36281,20 @@
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J499" t="n">
-        <v>600</v>
+        <v>340</v>
       </c>
       <c r="K499" t="n">
-        <v>14000</v>
+        <v>4500</v>
       </c>
       <c r="L499" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="M499" t="n">
-        <v>14500</v>
+        <v>4750</v>
       </c>
       <c r="N499" t="inlineStr">
         <is>
@@ -36307,7 +36307,7 @@
         </is>
       </c>
       <c r="P499" t="n">
-        <v>806</v>
+        <v>264</v>
       </c>
       <c r="Q499" t="n">
         <v>18</v>
@@ -36333,7 +36333,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44405</v>
+        <v>44350</v>
       </c>
       <c r="E500" t="n">
         <v>4</v>
@@ -36348,25 +36348,25 @@
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J500" t="n">
-        <v>240</v>
+        <v>340</v>
       </c>
       <c r="K500" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L500" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M500" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="N500" t="inlineStr">
         <is>
@@ -36379,7 +36379,7 @@
         </is>
       </c>
       <c r="P500" t="n">
-        <v>583</v>
+        <v>750</v>
       </c>
       <c r="Q500" t="n">
         <v>18</v>
@@ -36405,7 +36405,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44405</v>
+        <v>44350</v>
       </c>
       <c r="E501" t="n">
         <v>4</v>
@@ -36425,20 +36425,20 @@
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J501" t="n">
         <v>240</v>
       </c>
       <c r="K501" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="L501" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="M501" t="n">
-        <v>20500</v>
+        <v>10500</v>
       </c>
       <c r="N501" t="inlineStr">
         <is>
@@ -36451,7 +36451,7 @@
         </is>
       </c>
       <c r="P501" t="n">
-        <v>1139</v>
+        <v>583</v>
       </c>
       <c r="Q501" t="n">
         <v>18</v>
@@ -36477,7 +36477,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44405</v>
+        <v>44350</v>
       </c>
       <c r="E502" t="n">
         <v>4</v>
@@ -36497,20 +36497,20 @@
       </c>
       <c r="I502" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J502" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K502" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="L502" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="M502" t="n">
-        <v>17500</v>
+        <v>7500</v>
       </c>
       <c r="N502" t="inlineStr">
         <is>
@@ -36523,7 +36523,7 @@
         </is>
       </c>
       <c r="P502" t="n">
-        <v>972</v>
+        <v>417</v>
       </c>
       <c r="Q502" t="n">
         <v>18</v>
@@ -36564,25 +36564,25 @@
       </c>
       <c r="H503" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I503" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J503" t="n">
-        <v>160</v>
+        <v>600</v>
       </c>
       <c r="K503" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L503" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M503" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N503" t="inlineStr">
         <is>
@@ -36595,7 +36595,7 @@
         </is>
       </c>
       <c r="P503" t="n">
-        <v>806</v>
+        <v>972</v>
       </c>
       <c r="Q503" t="n">
         <v>18</v>
@@ -36621,7 +36621,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44413</v>
+        <v>44405</v>
       </c>
       <c r="E504" t="n">
         <v>4</v>
@@ -36641,20 +36641,20 @@
       </c>
       <c r="I504" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J504" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K504" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L504" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M504" t="n">
-        <v>19500</v>
+        <v>14500</v>
       </c>
       <c r="N504" t="inlineStr">
         <is>
@@ -36667,7 +36667,7 @@
         </is>
       </c>
       <c r="P504" t="n">
-        <v>1083</v>
+        <v>806</v>
       </c>
       <c r="Q504" t="n">
         <v>18</v>
@@ -36693,7 +36693,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44413</v>
+        <v>44405</v>
       </c>
       <c r="E505" t="n">
         <v>4</v>
@@ -36713,20 +36713,20 @@
       </c>
       <c r="I505" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J505" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="K505" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="L505" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="M505" t="n">
-        <v>16500</v>
+        <v>10500</v>
       </c>
       <c r="N505" t="inlineStr">
         <is>
@@ -36739,7 +36739,7 @@
         </is>
       </c>
       <c r="P505" t="n">
-        <v>917</v>
+        <v>583</v>
       </c>
       <c r="Q505" t="n">
         <v>18</v>
@@ -36765,7 +36765,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44413</v>
+        <v>44405</v>
       </c>
       <c r="E506" t="n">
         <v>4</v>
@@ -36780,25 +36780,25 @@
       </c>
       <c r="H506" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I506" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J506" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K506" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="L506" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="M506" t="n">
-        <v>13500</v>
+        <v>20500</v>
       </c>
       <c r="N506" t="inlineStr">
         <is>
@@ -36811,7 +36811,7 @@
         </is>
       </c>
       <c r="P506" t="n">
-        <v>750</v>
+        <v>1139</v>
       </c>
       <c r="Q506" t="n">
         <v>18</v>
@@ -36837,7 +36837,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44413</v>
+        <v>44405</v>
       </c>
       <c r="E507" t="n">
         <v>4</v>
@@ -36861,16 +36861,16 @@
         </is>
       </c>
       <c r="J507" t="n">
-        <v>710</v>
+        <v>300</v>
       </c>
       <c r="K507" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="L507" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="M507" t="n">
-        <v>21493</v>
+        <v>17500</v>
       </c>
       <c r="N507" t="inlineStr">
         <is>
@@ -36883,7 +36883,7 @@
         </is>
       </c>
       <c r="P507" t="n">
-        <v>1194</v>
+        <v>972</v>
       </c>
       <c r="Q507" t="n">
         <v>18</v>
@@ -36909,7 +36909,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44413</v>
+        <v>44405</v>
       </c>
       <c r="E508" t="n">
         <v>4</v>
@@ -36933,16 +36933,16 @@
         </is>
       </c>
       <c r="J508" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K508" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L508" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M508" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N508" t="inlineStr">
         <is>
@@ -36955,7 +36955,7 @@
         </is>
       </c>
       <c r="P508" t="n">
-        <v>972</v>
+        <v>806</v>
       </c>
       <c r="Q508" t="n">
         <v>18</v>
@@ -36996,25 +36996,25 @@
       </c>
       <c r="H509" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I509" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J509" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="K509" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L509" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M509" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="N509" t="inlineStr">
         <is>
@@ -37027,7 +37027,7 @@
         </is>
       </c>
       <c r="P509" t="n">
-        <v>806</v>
+        <v>1083</v>
       </c>
       <c r="Q509" t="n">
         <v>18</v>
@@ -37053,7 +37053,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44238</v>
+        <v>44413</v>
       </c>
       <c r="E510" t="n">
         <v>4</v>
@@ -37068,25 +37068,25 @@
       </c>
       <c r="H510" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I510" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J510" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="K510" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="L510" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M510" t="n">
-        <v>11500</v>
+        <v>16500</v>
       </c>
       <c r="N510" t="inlineStr">
         <is>
@@ -37099,7 +37099,7 @@
         </is>
       </c>
       <c r="P510" t="n">
-        <v>639</v>
+        <v>917</v>
       </c>
       <c r="Q510" t="n">
         <v>18</v>
@@ -37125,7 +37125,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44238</v>
+        <v>44413</v>
       </c>
       <c r="E511" t="n">
         <v>4</v>
@@ -37140,25 +37140,25 @@
       </c>
       <c r="H511" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I511" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J511" t="n">
         <v>300</v>
       </c>
       <c r="K511" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L511" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M511" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="N511" t="inlineStr">
         <is>
@@ -37171,7 +37171,7 @@
         </is>
       </c>
       <c r="P511" t="n">
-        <v>528</v>
+        <v>750</v>
       </c>
       <c r="Q511" t="n">
         <v>18</v>
@@ -37197,7 +37197,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44238</v>
+        <v>44413</v>
       </c>
       <c r="E512" t="n">
         <v>4</v>
@@ -37212,25 +37212,25 @@
       </c>
       <c r="H512" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I512" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J512" t="n">
-        <v>240</v>
+        <v>710</v>
       </c>
       <c r="K512" t="n">
-        <v>7000</v>
+        <v>21000</v>
       </c>
       <c r="L512" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="M512" t="n">
-        <v>7500</v>
+        <v>21493</v>
       </c>
       <c r="N512" t="inlineStr">
         <is>
@@ -37243,7 +37243,7 @@
         </is>
       </c>
       <c r="P512" t="n">
-        <v>417</v>
+        <v>1194</v>
       </c>
       <c r="Q512" t="n">
         <v>18</v>
@@ -37269,7 +37269,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44238</v>
+        <v>44413</v>
       </c>
       <c r="E513" t="n">
         <v>4</v>
@@ -37284,25 +37284,25 @@
       </c>
       <c r="H513" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I513" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J513" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="K513" t="n">
-        <v>5500</v>
+        <v>17000</v>
       </c>
       <c r="L513" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="M513" t="n">
-        <v>5750</v>
+        <v>17500</v>
       </c>
       <c r="N513" t="inlineStr">
         <is>
@@ -37315,7 +37315,7 @@
         </is>
       </c>
       <c r="P513" t="n">
-        <v>319</v>
+        <v>972</v>
       </c>
       <c r="Q513" t="n">
         <v>18</v>
@@ -37341,7 +37341,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44238</v>
+        <v>44413</v>
       </c>
       <c r="E514" t="n">
         <v>4</v>
@@ -37356,25 +37356,25 @@
       </c>
       <c r="H514" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I514" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J514" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K514" t="n">
-        <v>3500</v>
+        <v>14000</v>
       </c>
       <c r="L514" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="M514" t="n">
-        <v>3750</v>
+        <v>14500</v>
       </c>
       <c r="N514" t="inlineStr">
         <is>
@@ -37387,7 +37387,7 @@
         </is>
       </c>
       <c r="P514" t="n">
-        <v>208</v>
+        <v>806</v>
       </c>
       <c r="Q514" t="n">
         <v>18</v>
@@ -37413,7 +37413,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44175</v>
+        <v>44238</v>
       </c>
       <c r="E515" t="n">
         <v>4</v>
@@ -37428,7 +37428,7 @@
       </c>
       <c r="H515" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I515" t="inlineStr">
@@ -37437,16 +37437,16 @@
         </is>
       </c>
       <c r="J515" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K515" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L515" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M515" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="N515" t="inlineStr">
         <is>
@@ -37459,7 +37459,7 @@
         </is>
       </c>
       <c r="P515" t="n">
-        <v>528</v>
+        <v>639</v>
       </c>
       <c r="Q515" t="n">
         <v>18</v>
@@ -37485,7 +37485,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44175</v>
+        <v>44238</v>
       </c>
       <c r="E516" t="n">
         <v>4</v>
@@ -37500,7 +37500,7 @@
       </c>
       <c r="H516" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I516" t="inlineStr">
@@ -37512,13 +37512,13 @@
         <v>300</v>
       </c>
       <c r="K516" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L516" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M516" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="N516" t="inlineStr">
         <is>
@@ -37531,7 +37531,7 @@
         </is>
       </c>
       <c r="P516" t="n">
-        <v>417</v>
+        <v>528</v>
       </c>
       <c r="Q516" t="n">
         <v>18</v>
@@ -37557,7 +37557,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44175</v>
+        <v>44238</v>
       </c>
       <c r="E517" t="n">
         <v>4</v>
@@ -37572,7 +37572,7 @@
       </c>
       <c r="H517" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I517" t="inlineStr">
@@ -37584,13 +37584,13 @@
         <v>240</v>
       </c>
       <c r="K517" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L517" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M517" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="N517" t="inlineStr">
         <is>
@@ -37603,7 +37603,7 @@
         </is>
       </c>
       <c r="P517" t="n">
-        <v>250</v>
+        <v>417</v>
       </c>
       <c r="Q517" t="n">
         <v>18</v>
@@ -37629,7 +37629,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44188</v>
+        <v>44238</v>
       </c>
       <c r="E518" t="n">
         <v>4</v>
@@ -37644,7 +37644,7 @@
       </c>
       <c r="H518" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I518" t="inlineStr">
@@ -37653,16 +37653,16 @@
         </is>
       </c>
       <c r="J518" t="n">
-        <v>160</v>
+        <v>700</v>
       </c>
       <c r="K518" t="n">
-        <v>13500</v>
+        <v>5500</v>
       </c>
       <c r="L518" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="M518" t="n">
-        <v>13750</v>
+        <v>5750</v>
       </c>
       <c r="N518" t="inlineStr">
         <is>
@@ -37675,7 +37675,7 @@
         </is>
       </c>
       <c r="P518" t="n">
-        <v>764</v>
+        <v>319</v>
       </c>
       <c r="Q518" t="n">
         <v>18</v>
@@ -37701,7 +37701,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44188</v>
+        <v>44238</v>
       </c>
       <c r="E519" t="n">
         <v>4</v>
@@ -37716,7 +37716,7 @@
       </c>
       <c r="H519" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I519" t="inlineStr">
@@ -37725,16 +37725,16 @@
         </is>
       </c>
       <c r="J519" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K519" t="n">
-        <v>11500</v>
+        <v>3500</v>
       </c>
       <c r="L519" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="M519" t="n">
-        <v>11750</v>
+        <v>3750</v>
       </c>
       <c r="N519" t="inlineStr">
         <is>
@@ -37747,7 +37747,7 @@
         </is>
       </c>
       <c r="P519" t="n">
-        <v>653</v>
+        <v>208</v>
       </c>
       <c r="Q519" t="n">
         <v>18</v>
@@ -37773,7 +37773,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44188</v>
+        <v>44175</v>
       </c>
       <c r="E520" t="n">
         <v>4</v>
@@ -37788,25 +37788,25 @@
       </c>
       <c r="H520" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I520" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J520" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K520" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="L520" t="n">
         <v>10000</v>
       </c>
       <c r="M520" t="n">
-        <v>9750</v>
+        <v>9500</v>
       </c>
       <c r="N520" t="inlineStr">
         <is>
@@ -37819,7 +37819,7 @@
         </is>
       </c>
       <c r="P520" t="n">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="Q520" t="n">
         <v>18</v>
@@ -37845,7 +37845,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44188</v>
+        <v>44175</v>
       </c>
       <c r="E521" t="n">
         <v>4</v>
@@ -37865,20 +37865,20 @@
       </c>
       <c r="I521" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J521" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="K521" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="L521" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M521" t="n">
-        <v>9750</v>
+        <v>7500</v>
       </c>
       <c r="N521" t="inlineStr">
         <is>
@@ -37891,7 +37891,7 @@
         </is>
       </c>
       <c r="P521" t="n">
-        <v>542</v>
+        <v>417</v>
       </c>
       <c r="Q521" t="n">
         <v>18</v>
@@ -37917,7 +37917,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44188</v>
+        <v>44175</v>
       </c>
       <c r="E522" t="n">
         <v>4</v>
@@ -37937,20 +37937,20 @@
       </c>
       <c r="I522" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J522" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K522" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="L522" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M522" t="n">
-        <v>7750</v>
+        <v>4500</v>
       </c>
       <c r="N522" t="inlineStr">
         <is>
@@ -37963,7 +37963,7 @@
         </is>
       </c>
       <c r="P522" t="n">
-        <v>431</v>
+        <v>250</v>
       </c>
       <c r="Q522" t="n">
         <v>18</v>
@@ -38004,25 +38004,25 @@
       </c>
       <c r="H523" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I523" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J523" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="K523" t="n">
-        <v>5500</v>
+        <v>13500</v>
       </c>
       <c r="L523" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="M523" t="n">
-        <v>5750</v>
+        <v>13750</v>
       </c>
       <c r="N523" t="inlineStr">
         <is>
@@ -38035,7 +38035,7 @@
         </is>
       </c>
       <c r="P523" t="n">
-        <v>319</v>
+        <v>764</v>
       </c>
       <c r="Q523" t="n">
         <v>18</v>
@@ -38061,7 +38061,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E524" t="n">
         <v>4</v>
@@ -38081,20 +38081,20 @@
       </c>
       <c r="I524" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J524" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K524" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="L524" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M524" t="n">
-        <v>8750</v>
+        <v>11750</v>
       </c>
       <c r="N524" t="inlineStr">
         <is>
@@ -38107,7 +38107,7 @@
         </is>
       </c>
       <c r="P524" t="n">
-        <v>486</v>
+        <v>653</v>
       </c>
       <c r="Q524" t="n">
         <v>18</v>
@@ -38133,7 +38133,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E525" t="n">
         <v>4</v>
@@ -38153,20 +38153,20 @@
       </c>
       <c r="I525" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J525" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K525" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="L525" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M525" t="n">
-        <v>6750</v>
+        <v>9750</v>
       </c>
       <c r="N525" t="inlineStr">
         <is>
@@ -38179,7 +38179,7 @@
         </is>
       </c>
       <c r="P525" t="n">
-        <v>375</v>
+        <v>542</v>
       </c>
       <c r="Q525" t="n">
         <v>18</v>
@@ -38205,7 +38205,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E526" t="n">
         <v>4</v>
@@ -38220,25 +38220,25 @@
       </c>
       <c r="H526" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I526" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J526" t="n">
-        <v>600</v>
+        <v>340</v>
       </c>
       <c r="K526" t="n">
-        <v>4500</v>
+        <v>9500</v>
       </c>
       <c r="L526" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M526" t="n">
-        <v>4750</v>
+        <v>9750</v>
       </c>
       <c r="N526" t="inlineStr">
         <is>
@@ -38251,7 +38251,7 @@
         </is>
       </c>
       <c r="P526" t="n">
-        <v>264</v>
+        <v>542</v>
       </c>
       <c r="Q526" t="n">
         <v>18</v>
@@ -38277,7 +38277,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E527" t="n">
         <v>4</v>
@@ -38297,20 +38297,20 @@
       </c>
       <c r="I527" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J527" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="K527" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="L527" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="M527" t="n">
-        <v>5250</v>
+        <v>7750</v>
       </c>
       <c r="N527" t="inlineStr">
         <is>
@@ -38323,7 +38323,7 @@
         </is>
       </c>
       <c r="P527" t="n">
-        <v>292</v>
+        <v>431</v>
       </c>
       <c r="Q527" t="n">
         <v>18</v>
@@ -38349,7 +38349,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E528" t="n">
         <v>4</v>
@@ -38369,20 +38369,20 @@
       </c>
       <c r="I528" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J528" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="K528" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L528" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="M528" t="n">
-        <v>3250</v>
+        <v>5750</v>
       </c>
       <c r="N528" t="inlineStr">
         <is>
@@ -38395,7 +38395,7 @@
         </is>
       </c>
       <c r="P528" t="n">
-        <v>181</v>
+        <v>319</v>
       </c>
       <c r="Q528" t="n">
         <v>18</v>
@@ -38436,7 +38436,7 @@
       </c>
       <c r="H529" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I529" t="inlineStr">
@@ -38445,16 +38445,16 @@
         </is>
       </c>
       <c r="J529" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="K529" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="L529" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M529" t="n">
-        <v>7500</v>
+        <v>8750</v>
       </c>
       <c r="N529" t="inlineStr">
         <is>
@@ -38467,7 +38467,7 @@
         </is>
       </c>
       <c r="P529" t="n">
-        <v>417</v>
+        <v>486</v>
       </c>
       <c r="Q529" t="n">
         <v>18</v>
@@ -38508,7 +38508,7 @@
       </c>
       <c r="H530" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I530" t="inlineStr">
@@ -38517,16 +38517,16 @@
         </is>
       </c>
       <c r="J530" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K530" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L530" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M530" t="n">
-        <v>5500</v>
+        <v>6750</v>
       </c>
       <c r="N530" t="inlineStr">
         <is>
@@ -38539,7 +38539,7 @@
         </is>
       </c>
       <c r="P530" t="n">
-        <v>306</v>
+        <v>375</v>
       </c>
       <c r="Q530" t="n">
         <v>18</v>
@@ -38565,7 +38565,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E531" t="n">
         <v>4</v>
@@ -38585,20 +38585,20 @@
       </c>
       <c r="I531" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J531" t="n">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="K531" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="L531" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="M531" t="n">
-        <v>15500</v>
+        <v>4750</v>
       </c>
       <c r="N531" t="inlineStr">
         <is>
@@ -38611,7 +38611,7 @@
         </is>
       </c>
       <c r="P531" t="n">
-        <v>861</v>
+        <v>264</v>
       </c>
       <c r="Q531" t="n">
         <v>18</v>
@@ -38637,7 +38637,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E532" t="n">
         <v>4</v>
@@ -38652,25 +38652,25 @@
       </c>
       <c r="H532" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I532" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J532" t="n">
-        <v>240</v>
+        <v>1100</v>
       </c>
       <c r="K532" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="L532" t="n">
-        <v>14000</v>
+        <v>5500</v>
       </c>
       <c r="M532" t="n">
-        <v>13500</v>
+        <v>5250</v>
       </c>
       <c r="N532" t="inlineStr">
         <is>
@@ -38683,7 +38683,7 @@
         </is>
       </c>
       <c r="P532" t="n">
-        <v>750</v>
+        <v>292</v>
       </c>
       <c r="Q532" t="n">
         <v>18</v>
@@ -38709,7 +38709,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E533" t="n">
         <v>4</v>
@@ -38724,25 +38724,25 @@
       </c>
       <c r="H533" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I533" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J533" t="n">
-        <v>140</v>
+        <v>600</v>
       </c>
       <c r="K533" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="L533" t="n">
-        <v>11000</v>
+        <v>3500</v>
       </c>
       <c r="M533" t="n">
-        <v>10500</v>
+        <v>3250</v>
       </c>
       <c r="N533" t="inlineStr">
         <is>
@@ -38755,7 +38755,7 @@
         </is>
       </c>
       <c r="P533" t="n">
-        <v>583</v>
+        <v>181</v>
       </c>
       <c r="Q533" t="n">
         <v>18</v>
@@ -38781,7 +38781,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E534" t="n">
         <v>4</v>
@@ -38796,7 +38796,7 @@
       </c>
       <c r="H534" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I534" t="inlineStr">
@@ -38805,16 +38805,16 @@
         </is>
       </c>
       <c r="J534" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="K534" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L534" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M534" t="n">
-        <v>6750</v>
+        <v>7500</v>
       </c>
       <c r="N534" t="inlineStr">
         <is>
@@ -38827,7 +38827,7 @@
         </is>
       </c>
       <c r="P534" t="n">
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="Q534" t="n">
         <v>18</v>
@@ -38853,7 +38853,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E535" t="n">
         <v>4</v>
@@ -38868,7 +38868,7 @@
       </c>
       <c r="H535" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I535" t="inlineStr">
@@ -38877,16 +38877,16 @@
         </is>
       </c>
       <c r="J535" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K535" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L535" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M535" t="n">
-        <v>4750</v>
+        <v>5500</v>
       </c>
       <c r="N535" t="inlineStr">
         <is>
@@ -38899,7 +38899,7 @@
         </is>
       </c>
       <c r="P535" t="n">
-        <v>264</v>
+        <v>306</v>
       </c>
       <c r="Q535" t="n">
         <v>18</v>
@@ -38940,25 +38940,25 @@
       </c>
       <c r="H536" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I536" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J536" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K536" t="n">
-        <v>2500</v>
+        <v>15000</v>
       </c>
       <c r="L536" t="n">
-        <v>3000</v>
+        <v>16000</v>
       </c>
       <c r="M536" t="n">
-        <v>2750</v>
+        <v>15500</v>
       </c>
       <c r="N536" t="inlineStr">
         <is>
@@ -38971,7 +38971,7 @@
         </is>
       </c>
       <c r="P536" t="n">
-        <v>153</v>
+        <v>861</v>
       </c>
       <c r="Q536" t="n">
         <v>18</v>
@@ -38997,7 +38997,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44329</v>
+        <v>44224</v>
       </c>
       <c r="E537" t="n">
         <v>4</v>
@@ -39012,25 +39012,25 @@
       </c>
       <c r="H537" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I537" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J537" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K537" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="L537" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M537" t="n">
-        <v>7750</v>
+        <v>13500</v>
       </c>
       <c r="N537" t="inlineStr">
         <is>
@@ -39043,7 +39043,7 @@
         </is>
       </c>
       <c r="P537" t="n">
-        <v>431</v>
+        <v>750</v>
       </c>
       <c r="Q537" t="n">
         <v>18</v>
@@ -39069,7 +39069,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44329</v>
+        <v>44224</v>
       </c>
       <c r="E538" t="n">
         <v>4</v>
@@ -39084,25 +39084,25 @@
       </c>
       <c r="H538" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I538" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J538" t="n">
-        <v>500</v>
+        <v>140</v>
       </c>
       <c r="K538" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="L538" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M538" t="n">
-        <v>5750</v>
+        <v>10500</v>
       </c>
       <c r="N538" t="inlineStr">
         <is>
@@ -39115,7 +39115,7 @@
         </is>
       </c>
       <c r="P538" t="n">
-        <v>319</v>
+        <v>583</v>
       </c>
       <c r="Q538" t="n">
         <v>18</v>
@@ -39141,7 +39141,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44329</v>
+        <v>44224</v>
       </c>
       <c r="E539" t="n">
         <v>4</v>
@@ -39161,20 +39161,20 @@
       </c>
       <c r="I539" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J539" t="n">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="K539" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="L539" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M539" t="n">
-        <v>3750</v>
+        <v>6750</v>
       </c>
       <c r="N539" t="inlineStr">
         <is>
@@ -39187,7 +39187,7 @@
         </is>
       </c>
       <c r="P539" t="n">
-        <v>208</v>
+        <v>375</v>
       </c>
       <c r="Q539" t="n">
         <v>18</v>
@@ -39213,7 +39213,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44329</v>
+        <v>44224</v>
       </c>
       <c r="E540" t="n">
         <v>4</v>
@@ -39228,25 +39228,25 @@
       </c>
       <c r="H540" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I540" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J540" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K540" t="n">
-        <v>12500</v>
+        <v>4500</v>
       </c>
       <c r="L540" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="M540" t="n">
-        <v>12750</v>
+        <v>4750</v>
       </c>
       <c r="N540" t="inlineStr">
         <is>
@@ -39259,7 +39259,7 @@
         </is>
       </c>
       <c r="P540" t="n">
-        <v>708</v>
+        <v>264</v>
       </c>
       <c r="Q540" t="n">
         <v>18</v>
@@ -39285,7 +39285,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44329</v>
+        <v>44224</v>
       </c>
       <c r="E541" t="n">
         <v>4</v>
@@ -39300,25 +39300,25 @@
       </c>
       <c r="H541" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I541" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J541" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="K541" t="n">
-        <v>10500</v>
+        <v>2500</v>
       </c>
       <c r="L541" t="n">
-        <v>11000</v>
+        <v>3000</v>
       </c>
       <c r="M541" t="n">
-        <v>10750</v>
+        <v>2750</v>
       </c>
       <c r="N541" t="inlineStr">
         <is>
@@ -39331,7 +39331,7 @@
         </is>
       </c>
       <c r="P541" t="n">
-        <v>597</v>
+        <v>153</v>
       </c>
       <c r="Q541" t="n">
         <v>18</v>
@@ -39372,25 +39372,25 @@
       </c>
       <c r="H542" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I542" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J542" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K542" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="L542" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M542" t="n">
-        <v>8750</v>
+        <v>7750</v>
       </c>
       <c r="N542" t="inlineStr">
         <is>
@@ -39403,7 +39403,7 @@
         </is>
       </c>
       <c r="P542" t="n">
-        <v>486</v>
+        <v>431</v>
       </c>
       <c r="Q542" t="n">
         <v>18</v>
@@ -39429,7 +39429,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44195</v>
+        <v>44329</v>
       </c>
       <c r="E543" t="n">
         <v>4</v>
@@ -39444,25 +39444,25 @@
       </c>
       <c r="H543" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I543" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J543" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K543" t="n">
-        <v>14500</v>
+        <v>5500</v>
       </c>
       <c r="L543" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="M543" t="n">
-        <v>14750</v>
+        <v>5750</v>
       </c>
       <c r="N543" t="inlineStr">
         <is>
@@ -39475,7 +39475,7 @@
         </is>
       </c>
       <c r="P543" t="n">
-        <v>819</v>
+        <v>319</v>
       </c>
       <c r="Q543" t="n">
         <v>18</v>
@@ -39501,7 +39501,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44195</v>
+        <v>44329</v>
       </c>
       <c r="E544" t="n">
         <v>4</v>
@@ -39516,25 +39516,25 @@
       </c>
       <c r="H544" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I544" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J544" t="n">
-        <v>308</v>
+        <v>240</v>
       </c>
       <c r="K544" t="n">
-        <v>11500</v>
+        <v>3500</v>
       </c>
       <c r="L544" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="M544" t="n">
-        <v>11744</v>
+        <v>3750</v>
       </c>
       <c r="N544" t="inlineStr">
         <is>
@@ -39547,7 +39547,7 @@
         </is>
       </c>
       <c r="P544" t="n">
-        <v>652</v>
+        <v>208</v>
       </c>
       <c r="Q544" t="n">
         <v>18</v>
@@ -39573,7 +39573,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44195</v>
+        <v>44329</v>
       </c>
       <c r="E545" t="n">
         <v>4</v>
@@ -39588,25 +39588,25 @@
       </c>
       <c r="H545" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I545" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J545" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="K545" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="L545" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M545" t="n">
-        <v>9750</v>
+        <v>12750</v>
       </c>
       <c r="N545" t="inlineStr">
         <is>
@@ -39619,7 +39619,7 @@
         </is>
       </c>
       <c r="P545" t="n">
-        <v>542</v>
+        <v>708</v>
       </c>
       <c r="Q545" t="n">
         <v>18</v>
@@ -39645,7 +39645,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44195</v>
+        <v>44329</v>
       </c>
       <c r="E546" t="n">
         <v>4</v>
@@ -39660,25 +39660,25 @@
       </c>
       <c r="H546" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I546" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J546" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K546" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="L546" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M546" t="n">
-        <v>9750</v>
+        <v>10750</v>
       </c>
       <c r="N546" t="inlineStr">
         <is>
@@ -39691,7 +39691,7 @@
         </is>
       </c>
       <c r="P546" t="n">
-        <v>542</v>
+        <v>597</v>
       </c>
       <c r="Q546" t="n">
         <v>18</v>
@@ -39717,7 +39717,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44195</v>
+        <v>44329</v>
       </c>
       <c r="E547" t="n">
         <v>4</v>
@@ -39732,25 +39732,25 @@
       </c>
       <c r="H547" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I547" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J547" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K547" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="L547" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M547" t="n">
-        <v>7750</v>
+        <v>8750</v>
       </c>
       <c r="N547" t="inlineStr">
         <is>
@@ -39763,7 +39763,7 @@
         </is>
       </c>
       <c r="P547" t="n">
-        <v>431</v>
+        <v>486</v>
       </c>
       <c r="Q547" t="n">
         <v>18</v>
@@ -39804,25 +39804,25 @@
       </c>
       <c r="H548" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I548" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J548" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K548" t="n">
-        <v>4500</v>
+        <v>14500</v>
       </c>
       <c r="L548" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="M548" t="n">
-        <v>4750</v>
+        <v>14750</v>
       </c>
       <c r="N548" t="inlineStr">
         <is>
@@ -39835,7 +39835,7 @@
         </is>
       </c>
       <c r="P548" t="n">
-        <v>264</v>
+        <v>819</v>
       </c>
       <c r="Q548" t="n">
         <v>18</v>
@@ -39861,7 +39861,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44398</v>
+        <v>44195</v>
       </c>
       <c r="E549" t="n">
         <v>4</v>
@@ -39876,25 +39876,25 @@
       </c>
       <c r="H549" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I549" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J549" t="n">
-        <v>500</v>
+        <v>308</v>
       </c>
       <c r="K549" t="n">
-        <v>16000</v>
+        <v>11500</v>
       </c>
       <c r="L549" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M549" t="n">
-        <v>16500</v>
+        <v>11744</v>
       </c>
       <c r="N549" t="inlineStr">
         <is>
@@ -39907,7 +39907,7 @@
         </is>
       </c>
       <c r="P549" t="n">
-        <v>917</v>
+        <v>652</v>
       </c>
       <c r="Q549" t="n">
         <v>18</v>
@@ -39933,7 +39933,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44398</v>
+        <v>44195</v>
       </c>
       <c r="E550" t="n">
         <v>4</v>
@@ -39948,25 +39948,25 @@
       </c>
       <c r="H550" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I550" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J550" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K550" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="L550" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M550" t="n">
-        <v>13500</v>
+        <v>9750</v>
       </c>
       <c r="N550" t="inlineStr">
         <is>
@@ -39979,7 +39979,7 @@
         </is>
       </c>
       <c r="P550" t="n">
-        <v>750</v>
+        <v>542</v>
       </c>
       <c r="Q550" t="n">
         <v>18</v>
@@ -40005,7 +40005,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44398</v>
+        <v>44195</v>
       </c>
       <c r="E551" t="n">
         <v>4</v>
@@ -40025,20 +40025,20 @@
       </c>
       <c r="I551" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J551" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="K551" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="L551" t="n">
         <v>10000</v>
       </c>
       <c r="M551" t="n">
-        <v>9500</v>
+        <v>9750</v>
       </c>
       <c r="N551" t="inlineStr">
         <is>
@@ -40051,7 +40051,7 @@
         </is>
       </c>
       <c r="P551" t="n">
-        <v>528</v>
+        <v>542</v>
       </c>
       <c r="Q551" t="n">
         <v>18</v>
@@ -40077,7 +40077,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44398</v>
+        <v>44195</v>
       </c>
       <c r="E552" t="n">
         <v>4</v>
@@ -40092,25 +40092,25 @@
       </c>
       <c r="H552" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I552" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J552" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="K552" t="n">
-        <v>18500</v>
+        <v>7500</v>
       </c>
       <c r="L552" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="M552" t="n">
-        <v>18750</v>
+        <v>7750</v>
       </c>
       <c r="N552" t="inlineStr">
         <is>
@@ -40123,7 +40123,7 @@
         </is>
       </c>
       <c r="P552" t="n">
-        <v>1042</v>
+        <v>431</v>
       </c>
       <c r="Q552" t="n">
         <v>18</v>
@@ -40149,7 +40149,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44398</v>
+        <v>44195</v>
       </c>
       <c r="E553" t="n">
         <v>4</v>
@@ -40164,25 +40164,25 @@
       </c>
       <c r="H553" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I553" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J553" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K553" t="n">
-        <v>16500</v>
+        <v>4500</v>
       </c>
       <c r="L553" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="M553" t="n">
-        <v>16750</v>
+        <v>4750</v>
       </c>
       <c r="N553" t="inlineStr">
         <is>
@@ -40195,7 +40195,7 @@
         </is>
       </c>
       <c r="P553" t="n">
-        <v>931</v>
+        <v>264</v>
       </c>
       <c r="Q553" t="n">
         <v>18</v>
@@ -40236,25 +40236,25 @@
       </c>
       <c r="H554" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I554" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J554" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K554" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="L554" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M554" t="n">
-        <v>14750</v>
+        <v>16500</v>
       </c>
       <c r="N554" t="inlineStr">
         <is>
@@ -40267,7 +40267,7 @@
         </is>
       </c>
       <c r="P554" t="n">
-        <v>819</v>
+        <v>917</v>
       </c>
       <c r="Q554" t="n">
         <v>18</v>
@@ -40293,7 +40293,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44461</v>
+        <v>44398</v>
       </c>
       <c r="E555" t="n">
         <v>4</v>
@@ -40313,20 +40313,20 @@
       </c>
       <c r="I555" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J555" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K555" t="n">
-        <v>30000</v>
+        <v>13000</v>
       </c>
       <c r="L555" t="n">
-        <v>31000</v>
+        <v>14000</v>
       </c>
       <c r="M555" t="n">
-        <v>30500</v>
+        <v>13500</v>
       </c>
       <c r="N555" t="inlineStr">
         <is>
@@ -40339,7 +40339,7 @@
         </is>
       </c>
       <c r="P555" t="n">
-        <v>1694</v>
+        <v>750</v>
       </c>
       <c r="Q555" t="n">
         <v>18</v>
@@ -40365,7 +40365,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44461</v>
+        <v>44398</v>
       </c>
       <c r="E556" t="n">
         <v>4</v>
@@ -40385,20 +40385,20 @@
       </c>
       <c r="I556" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J556" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="K556" t="n">
-        <v>28000</v>
+        <v>9000</v>
       </c>
       <c r="L556" t="n">
-        <v>29000</v>
+        <v>10000</v>
       </c>
       <c r="M556" t="n">
-        <v>28500</v>
+        <v>9500</v>
       </c>
       <c r="N556" t="inlineStr">
         <is>
@@ -40411,7 +40411,7 @@
         </is>
       </c>
       <c r="P556" t="n">
-        <v>1583</v>
+        <v>528</v>
       </c>
       <c r="Q556" t="n">
         <v>18</v>
@@ -40437,7 +40437,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44461</v>
+        <v>44398</v>
       </c>
       <c r="E557" t="n">
         <v>4</v>
@@ -40452,25 +40452,25 @@
       </c>
       <c r="H557" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I557" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J557" t="n">
         <v>500</v>
       </c>
       <c r="K557" t="n">
-        <v>25000</v>
+        <v>18500</v>
       </c>
       <c r="L557" t="n">
-        <v>26000</v>
+        <v>19000</v>
       </c>
       <c r="M557" t="n">
-        <v>25500</v>
+        <v>18750</v>
       </c>
       <c r="N557" t="inlineStr">
         <is>
@@ -40483,7 +40483,7 @@
         </is>
       </c>
       <c r="P557" t="n">
-        <v>1417</v>
+        <v>1042</v>
       </c>
       <c r="Q557" t="n">
         <v>18</v>
@@ -40509,7 +40509,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44461</v>
+        <v>44398</v>
       </c>
       <c r="E558" t="n">
         <v>4</v>
@@ -40529,20 +40529,20 @@
       </c>
       <c r="I558" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J558" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="K558" t="n">
-        <v>37000</v>
+        <v>16500</v>
       </c>
       <c r="L558" t="n">
-        <v>38000</v>
+        <v>17000</v>
       </c>
       <c r="M558" t="n">
-        <v>37500</v>
+        <v>16750</v>
       </c>
       <c r="N558" t="inlineStr">
         <is>
@@ -40555,7 +40555,7 @@
         </is>
       </c>
       <c r="P558" t="n">
-        <v>2083</v>
+        <v>931</v>
       </c>
       <c r="Q558" t="n">
         <v>18</v>
@@ -40581,7 +40581,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44357</v>
+        <v>44398</v>
       </c>
       <c r="E559" t="n">
         <v>4</v>
@@ -40596,25 +40596,25 @@
       </c>
       <c r="H559" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I559" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J559" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K559" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="L559" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M559" t="n">
-        <v>12500</v>
+        <v>14750</v>
       </c>
       <c r="N559" t="inlineStr">
         <is>
@@ -40627,7 +40627,7 @@
         </is>
       </c>
       <c r="P559" t="n">
-        <v>694</v>
+        <v>819</v>
       </c>
       <c r="Q559" t="n">
         <v>18</v>
@@ -40653,7 +40653,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E560" t="n">
         <v>4</v>
@@ -40668,25 +40668,25 @@
       </c>
       <c r="H560" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I560" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J560" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K560" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="L560" t="n">
-        <v>11000</v>
+        <v>31000</v>
       </c>
       <c r="M560" t="n">
-        <v>10500</v>
+        <v>30500</v>
       </c>
       <c r="N560" t="inlineStr">
         <is>
@@ -40699,7 +40699,7 @@
         </is>
       </c>
       <c r="P560" t="n">
-        <v>583</v>
+        <v>1694</v>
       </c>
       <c r="Q560" t="n">
         <v>18</v>
@@ -40725,7 +40725,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E561" t="n">
         <v>4</v>
@@ -40740,25 +40740,25 @@
       </c>
       <c r="H561" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I561" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J561" t="n">
-        <v>530</v>
+        <v>600</v>
       </c>
       <c r="K561" t="n">
-        <v>8000</v>
+        <v>28000</v>
       </c>
       <c r="L561" t="n">
-        <v>9000</v>
+        <v>29000</v>
       </c>
       <c r="M561" t="n">
-        <v>8472</v>
+        <v>28500</v>
       </c>
       <c r="N561" t="inlineStr">
         <is>
@@ -40771,7 +40771,7 @@
         </is>
       </c>
       <c r="P561" t="n">
-        <v>471</v>
+        <v>1583</v>
       </c>
       <c r="Q561" t="n">
         <v>18</v>
@@ -40797,7 +40797,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E562" t="n">
         <v>4</v>
@@ -40817,20 +40817,20 @@
       </c>
       <c r="I562" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J562" t="n">
         <v>500</v>
       </c>
       <c r="K562" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="L562" t="n">
-        <v>13000</v>
+        <v>26000</v>
       </c>
       <c r="M562" t="n">
-        <v>12500</v>
+        <v>25500</v>
       </c>
       <c r="N562" t="inlineStr">
         <is>
@@ -40843,7 +40843,7 @@
         </is>
       </c>
       <c r="P562" t="n">
-        <v>694</v>
+        <v>1417</v>
       </c>
       <c r="Q562" t="n">
         <v>18</v>
@@ -40869,7 +40869,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E563" t="n">
         <v>4</v>
@@ -40884,25 +40884,25 @@
       </c>
       <c r="H563" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I563" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J563" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="K563" t="n">
-        <v>10000</v>
+        <v>37000</v>
       </c>
       <c r="L563" t="n">
-        <v>11000</v>
+        <v>38000</v>
       </c>
       <c r="M563" t="n">
-        <v>10500</v>
+        <v>37500</v>
       </c>
       <c r="N563" t="inlineStr">
         <is>
@@ -40915,7 +40915,7 @@
         </is>
       </c>
       <c r="P563" t="n">
-        <v>583</v>
+        <v>2083</v>
       </c>
       <c r="Q563" t="n">
         <v>18</v>
@@ -40956,25 +40956,25 @@
       </c>
       <c r="H564" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I564" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J564" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="K564" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L564" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M564" t="n">
-        <v>8500</v>
+        <v>12500</v>
       </c>
       <c r="N564" t="inlineStr">
         <is>
@@ -40987,7 +40987,7 @@
         </is>
       </c>
       <c r="P564" t="n">
-        <v>472</v>
+        <v>694</v>
       </c>
       <c r="Q564" t="n">
         <v>18</v>
@@ -41028,25 +41028,25 @@
       </c>
       <c r="H565" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I565" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J565" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K565" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L565" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M565" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="N565" t="inlineStr">
         <is>
@@ -41059,7 +41059,7 @@
         </is>
       </c>
       <c r="P565" t="n">
-        <v>694</v>
+        <v>583</v>
       </c>
       <c r="Q565" t="n">
         <v>18</v>
@@ -41100,25 +41100,25 @@
       </c>
       <c r="H566" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I566" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J566" t="n">
-        <v>600</v>
+        <v>530</v>
       </c>
       <c r="K566" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L566" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M566" t="n">
-        <v>10500</v>
+        <v>8472</v>
       </c>
       <c r="N566" t="inlineStr">
         <is>
@@ -41131,7 +41131,7 @@
         </is>
       </c>
       <c r="P566" t="n">
-        <v>583</v>
+        <v>471</v>
       </c>
       <c r="Q566" t="n">
         <v>18</v>
@@ -41172,25 +41172,25 @@
       </c>
       <c r="H567" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I567" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J567" t="n">
         <v>500</v>
       </c>
       <c r="K567" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L567" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M567" t="n">
-        <v>8500</v>
+        <v>12500</v>
       </c>
       <c r="N567" t="inlineStr">
         <is>
@@ -41203,7 +41203,7 @@
         </is>
       </c>
       <c r="P567" t="n">
-        <v>472</v>
+        <v>694</v>
       </c>
       <c r="Q567" t="n">
         <v>18</v>
@@ -41229,7 +41229,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44371</v>
+        <v>44357</v>
       </c>
       <c r="E568" t="n">
         <v>4</v>
@@ -41249,20 +41249,20 @@
       </c>
       <c r="I568" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J568" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K568" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="L568" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M568" t="n">
-        <v>14750</v>
+        <v>10500</v>
       </c>
       <c r="N568" t="inlineStr">
         <is>
@@ -41275,7 +41275,7 @@
         </is>
       </c>
       <c r="P568" t="n">
-        <v>819</v>
+        <v>583</v>
       </c>
       <c r="Q568" t="n">
         <v>18</v>
@@ -41301,7 +41301,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44371</v>
+        <v>44357</v>
       </c>
       <c r="E569" t="n">
         <v>4</v>
@@ -41321,20 +41321,20 @@
       </c>
       <c r="I569" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J569" t="n">
-        <v>700</v>
+        <v>260</v>
       </c>
       <c r="K569" t="n">
-        <v>11500</v>
+        <v>8000</v>
       </c>
       <c r="L569" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M569" t="n">
-        <v>11750</v>
+        <v>8500</v>
       </c>
       <c r="N569" t="inlineStr">
         <is>
@@ -41347,7 +41347,7 @@
         </is>
       </c>
       <c r="P569" t="n">
-        <v>653</v>
+        <v>472</v>
       </c>
       <c r="Q569" t="n">
         <v>18</v>
@@ -41373,7 +41373,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44371</v>
+        <v>44357</v>
       </c>
       <c r="E570" t="n">
         <v>4</v>
@@ -41388,25 +41388,25 @@
       </c>
       <c r="H570" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I570" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J570" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="K570" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="L570" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M570" t="n">
-        <v>8750</v>
+        <v>12500</v>
       </c>
       <c r="N570" t="inlineStr">
         <is>
@@ -41419,7 +41419,7 @@
         </is>
       </c>
       <c r="P570" t="n">
-        <v>486</v>
+        <v>694</v>
       </c>
       <c r="Q570" t="n">
         <v>18</v>
@@ -41445,7 +41445,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44371</v>
+        <v>44357</v>
       </c>
       <c r="E571" t="n">
         <v>4</v>
@@ -41465,20 +41465,20 @@
       </c>
       <c r="I571" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J571" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K571" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="L571" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M571" t="n">
-        <v>13750</v>
+        <v>10500</v>
       </c>
       <c r="N571" t="inlineStr">
         <is>
@@ -41491,7 +41491,7 @@
         </is>
       </c>
       <c r="P571" t="n">
-        <v>764</v>
+        <v>583</v>
       </c>
       <c r="Q571" t="n">
         <v>18</v>
@@ -41517,7 +41517,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44371</v>
+        <v>44357</v>
       </c>
       <c r="E572" t="n">
         <v>4</v>
@@ -41537,20 +41537,20 @@
       </c>
       <c r="I572" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J572" t="n">
         <v>500</v>
       </c>
       <c r="K572" t="n">
-        <v>11500</v>
+        <v>8000</v>
       </c>
       <c r="L572" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M572" t="n">
-        <v>11750</v>
+        <v>8500</v>
       </c>
       <c r="N572" t="inlineStr">
         <is>
@@ -41563,7 +41563,7 @@
         </is>
       </c>
       <c r="P572" t="n">
-        <v>653</v>
+        <v>472</v>
       </c>
       <c r="Q572" t="n">
         <v>18</v>
@@ -41604,25 +41604,25 @@
       </c>
       <c r="H573" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I573" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J573" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="K573" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="L573" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M573" t="n">
-        <v>9750</v>
+        <v>14750</v>
       </c>
       <c r="N573" t="inlineStr">
         <is>
@@ -41635,7 +41635,7 @@
         </is>
       </c>
       <c r="P573" t="n">
-        <v>542</v>
+        <v>819</v>
       </c>
       <c r="Q573" t="n">
         <v>18</v>
@@ -41661,7 +41661,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44454</v>
+        <v>44371</v>
       </c>
       <c r="E574" t="n">
         <v>4</v>
@@ -41681,20 +41681,20 @@
       </c>
       <c r="I574" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J574" t="n">
         <v>700</v>
       </c>
       <c r="K574" t="n">
-        <v>32000</v>
+        <v>11500</v>
       </c>
       <c r="L574" t="n">
-        <v>33000</v>
+        <v>12000</v>
       </c>
       <c r="M574" t="n">
-        <v>32500</v>
+        <v>11750</v>
       </c>
       <c r="N574" t="inlineStr">
         <is>
@@ -41707,7 +41707,7 @@
         </is>
       </c>
       <c r="P574" t="n">
-        <v>1806</v>
+        <v>653</v>
       </c>
       <c r="Q574" t="n">
         <v>18</v>
@@ -41733,7 +41733,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44454</v>
+        <v>44371</v>
       </c>
       <c r="E575" t="n">
         <v>4</v>
@@ -41753,20 +41753,20 @@
       </c>
       <c r="I575" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J575" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K575" t="n">
-        <v>29000</v>
+        <v>8500</v>
       </c>
       <c r="L575" t="n">
-        <v>30000</v>
+        <v>9000</v>
       </c>
       <c r="M575" t="n">
-        <v>29500</v>
+        <v>8750</v>
       </c>
       <c r="N575" t="inlineStr">
         <is>
@@ -41779,7 +41779,7 @@
         </is>
       </c>
       <c r="P575" t="n">
-        <v>1639</v>
+        <v>486</v>
       </c>
       <c r="Q575" t="n">
         <v>18</v>
@@ -41805,7 +41805,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44454</v>
+        <v>44371</v>
       </c>
       <c r="E576" t="n">
         <v>4</v>
@@ -41820,25 +41820,25 @@
       </c>
       <c r="H576" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I576" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J576" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K576" t="n">
-        <v>26000</v>
+        <v>13500</v>
       </c>
       <c r="L576" t="n">
-        <v>27000</v>
+        <v>14000</v>
       </c>
       <c r="M576" t="n">
-        <v>26500</v>
+        <v>13750</v>
       </c>
       <c r="N576" t="inlineStr">
         <is>
@@ -41851,7 +41851,7 @@
         </is>
       </c>
       <c r="P576" t="n">
-        <v>1472</v>
+        <v>764</v>
       </c>
       <c r="Q576" t="n">
         <v>18</v>
@@ -41877,7 +41877,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44272</v>
+        <v>44371</v>
       </c>
       <c r="E577" t="n">
         <v>4</v>
@@ -41892,25 +41892,25 @@
       </c>
       <c r="H577" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I577" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J577" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K577" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="L577" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M577" t="n">
-        <v>7750</v>
+        <v>11750</v>
       </c>
       <c r="N577" t="inlineStr">
         <is>
@@ -41923,7 +41923,7 @@
         </is>
       </c>
       <c r="P577" t="n">
-        <v>431</v>
+        <v>653</v>
       </c>
       <c r="Q577" t="n">
         <v>18</v>
@@ -41949,7 +41949,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44272</v>
+        <v>44371</v>
       </c>
       <c r="E578" t="n">
         <v>4</v>
@@ -41964,25 +41964,25 @@
       </c>
       <c r="H578" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I578" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J578" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K578" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="L578" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M578" t="n">
-        <v>5750</v>
+        <v>9750</v>
       </c>
       <c r="N578" t="inlineStr">
         <is>
@@ -41995,7 +41995,7 @@
         </is>
       </c>
       <c r="P578" t="n">
-        <v>319</v>
+        <v>542</v>
       </c>
       <c r="Q578" t="n">
         <v>18</v>
@@ -42021,7 +42021,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44272</v>
+        <v>44454</v>
       </c>
       <c r="E579" t="n">
         <v>4</v>
@@ -42036,25 +42036,25 @@
       </c>
       <c r="H579" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I579" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J579" t="n">
-        <v>240</v>
+        <v>700</v>
       </c>
       <c r="K579" t="n">
-        <v>3500</v>
+        <v>32000</v>
       </c>
       <c r="L579" t="n">
-        <v>4000</v>
+        <v>33000</v>
       </c>
       <c r="M579" t="n">
-        <v>3750</v>
+        <v>32500</v>
       </c>
       <c r="N579" t="inlineStr">
         <is>
@@ -42067,7 +42067,7 @@
         </is>
       </c>
       <c r="P579" t="n">
-        <v>208</v>
+        <v>1806</v>
       </c>
       <c r="Q579" t="n">
         <v>18</v>
@@ -42093,7 +42093,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44272</v>
+        <v>44454</v>
       </c>
       <c r="E580" t="n">
         <v>4</v>
@@ -42113,20 +42113,20 @@
       </c>
       <c r="I580" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J580" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K580" t="n">
-        <v>5500</v>
+        <v>29000</v>
       </c>
       <c r="L580" t="n">
-        <v>6000</v>
+        <v>30000</v>
       </c>
       <c r="M580" t="n">
-        <v>5750</v>
+        <v>29500</v>
       </c>
       <c r="N580" t="inlineStr">
         <is>
@@ -42139,7 +42139,7 @@
         </is>
       </c>
       <c r="P580" t="n">
-        <v>319</v>
+        <v>1639</v>
       </c>
       <c r="Q580" t="n">
         <v>18</v>
@@ -42165,7 +42165,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44272</v>
+        <v>44454</v>
       </c>
       <c r="E581" t="n">
         <v>4</v>
@@ -42185,20 +42185,20 @@
       </c>
       <c r="I581" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J581" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K581" t="n">
-        <v>3500</v>
+        <v>26000</v>
       </c>
       <c r="L581" t="n">
-        <v>4000</v>
+        <v>27000</v>
       </c>
       <c r="M581" t="n">
-        <v>3750</v>
+        <v>26500</v>
       </c>
       <c r="N581" t="inlineStr">
         <is>
@@ -42211,7 +42211,7 @@
         </is>
       </c>
       <c r="P581" t="n">
-        <v>208</v>
+        <v>1472</v>
       </c>
       <c r="Q581" t="n">
         <v>18</v>
@@ -42252,43 +42252,403 @@
       </c>
       <c r="H582" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I582" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J582" t="n">
         <v>300</v>
       </c>
       <c r="K582" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L582" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M582" t="n">
+        <v>7750</v>
+      </c>
+      <c r="N582" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O582" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P582" t="n">
+        <v>431</v>
+      </c>
+      <c r="Q582" t="n">
+        <v>18</v>
+      </c>
+      <c r="R582" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="n">
+        <v>2</v>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D583" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E583" t="n">
+        <v>4</v>
+      </c>
+      <c r="F583" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G583" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H583" t="inlineStr">
+        <is>
+          <t>Cuatro cascos rojo</t>
+        </is>
+      </c>
+      <c r="I583" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J583" t="n">
+        <v>300</v>
+      </c>
+      <c r="K583" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L583" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M583" t="n">
+        <v>5750</v>
+      </c>
+      <c r="N583" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O583" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P583" t="n">
+        <v>319</v>
+      </c>
+      <c r="Q583" t="n">
+        <v>18</v>
+      </c>
+      <c r="R583" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="n">
+        <v>2</v>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D584" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E584" t="n">
+        <v>4</v>
+      </c>
+      <c r="F584" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G584" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H584" t="inlineStr">
+        <is>
+          <t>Cuatro cascos rojo</t>
+        </is>
+      </c>
+      <c r="I584" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J584" t="n">
+        <v>240</v>
+      </c>
+      <c r="K584" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L584" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M584" t="n">
+        <v>3750</v>
+      </c>
+      <c r="N584" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O584" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P584" t="n">
+        <v>208</v>
+      </c>
+      <c r="Q584" t="n">
+        <v>18</v>
+      </c>
+      <c r="R584" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="n">
+        <v>2</v>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D585" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E585" t="n">
+        <v>4</v>
+      </c>
+      <c r="F585" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G585" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H585" t="inlineStr">
+        <is>
+          <t>Cuatro cascos verde</t>
+        </is>
+      </c>
+      <c r="I585" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J585" t="n">
+        <v>600</v>
+      </c>
+      <c r="K585" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L585" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M585" t="n">
+        <v>5750</v>
+      </c>
+      <c r="N585" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O585" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P585" t="n">
+        <v>319</v>
+      </c>
+      <c r="Q585" t="n">
+        <v>18</v>
+      </c>
+      <c r="R585" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="n">
+        <v>2</v>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D586" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E586" t="n">
+        <v>4</v>
+      </c>
+      <c r="F586" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G586" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H586" t="inlineStr">
+        <is>
+          <t>Cuatro cascos verde</t>
+        </is>
+      </c>
+      <c r="I586" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J586" t="n">
+        <v>400</v>
+      </c>
+      <c r="K586" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L586" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M586" t="n">
+        <v>3750</v>
+      </c>
+      <c r="N586" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O586" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P586" t="n">
+        <v>208</v>
+      </c>
+      <c r="Q586" t="n">
+        <v>18</v>
+      </c>
+      <c r="R586" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="n">
+        <v>2</v>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D587" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E587" t="n">
+        <v>4</v>
+      </c>
+      <c r="F587" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G587" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H587" t="inlineStr">
+        <is>
+          <t>Cuatro cascos verde</t>
+        </is>
+      </c>
+      <c r="I587" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J587" t="n">
+        <v>300</v>
+      </c>
+      <c r="K587" t="n">
         <v>1500</v>
       </c>
-      <c r="L582" t="n">
+      <c r="L587" t="n">
         <v>2000</v>
       </c>
-      <c r="M582" t="n">
+      <c r="M587" t="n">
         <v>1750</v>
       </c>
-      <c r="N582" t="inlineStr">
-        <is>
-          <t>$/caja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O582" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P582" t="n">
+      <c r="N587" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O587" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P587" t="n">
         <v>97</v>
       </c>
-      <c r="Q582" t="n">
-        <v>18</v>
-      </c>
-      <c r="R582" t="inlineStr">
+      <c r="Q587" t="n">
+        <v>18</v>
+      </c>
+      <c r="R587" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pimiento.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pimiento.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R629"/>
+  <dimension ref="A1:R635"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35181,7 +35181,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44447</v>
+        <v>44588</v>
       </c>
       <c r="E484" t="n">
         <v>4</v>
@@ -35196,7 +35196,7 @@
       </c>
       <c r="H484" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I484" t="inlineStr">
@@ -35205,16 +35205,16 @@
         </is>
       </c>
       <c r="J484" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K484" t="n">
-        <v>31000</v>
+        <v>12000</v>
       </c>
       <c r="L484" t="n">
-        <v>32000</v>
+        <v>13000</v>
       </c>
       <c r="M484" t="n">
-        <v>31500</v>
+        <v>12500</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
@@ -35227,7 +35227,7 @@
         </is>
       </c>
       <c r="P484" t="n">
-        <v>1750</v>
+        <v>694</v>
       </c>
       <c r="Q484" t="n">
         <v>18</v>
@@ -35253,7 +35253,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44447</v>
+        <v>44588</v>
       </c>
       <c r="E485" t="n">
         <v>4</v>
@@ -35268,7 +35268,7 @@
       </c>
       <c r="H485" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I485" t="inlineStr">
@@ -35277,16 +35277,16 @@
         </is>
       </c>
       <c r="J485" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K485" t="n">
-        <v>26000</v>
+        <v>8000</v>
       </c>
       <c r="L485" t="n">
-        <v>27000</v>
+        <v>9000</v>
       </c>
       <c r="M485" t="n">
-        <v>26500</v>
+        <v>8500</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         </is>
       </c>
       <c r="P485" t="n">
-        <v>1472</v>
+        <v>472</v>
       </c>
       <c r="Q485" t="n">
         <v>18</v>
@@ -35325,7 +35325,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44447</v>
+        <v>44588</v>
       </c>
       <c r="E486" t="n">
         <v>4</v>
@@ -35340,7 +35340,7 @@
       </c>
       <c r="H486" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I486" t="inlineStr">
@@ -35349,16 +35349,16 @@
         </is>
       </c>
       <c r="J486" t="n">
-        <v>340</v>
+        <v>200</v>
       </c>
       <c r="K486" t="n">
-        <v>21000</v>
+        <v>4000</v>
       </c>
       <c r="L486" t="n">
-        <v>22000</v>
+        <v>5000</v>
       </c>
       <c r="M486" t="n">
-        <v>21500</v>
+        <v>4500</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         </is>
       </c>
       <c r="P486" t="n">
-        <v>1194</v>
+        <v>250</v>
       </c>
       <c r="Q486" t="n">
         <v>18</v>
@@ -35397,7 +35397,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44447</v>
+        <v>44588</v>
       </c>
       <c r="E487" t="n">
         <v>4</v>
@@ -35412,7 +35412,7 @@
       </c>
       <c r="H487" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I487" t="inlineStr">
@@ -35424,13 +35424,13 @@
         <v>800</v>
       </c>
       <c r="K487" t="n">
-        <v>36000</v>
+        <v>7000</v>
       </c>
       <c r="L487" t="n">
-        <v>37000</v>
+        <v>8000</v>
       </c>
       <c r="M487" t="n">
-        <v>36500</v>
+        <v>7500</v>
       </c>
       <c r="N487" t="inlineStr">
         <is>
@@ -35443,7 +35443,7 @@
         </is>
       </c>
       <c r="P487" t="n">
-        <v>2028</v>
+        <v>417</v>
       </c>
       <c r="Q487" t="n">
         <v>18</v>
@@ -35469,7 +35469,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44447</v>
+        <v>44588</v>
       </c>
       <c r="E488" t="n">
         <v>4</v>
@@ -35484,7 +35484,7 @@
       </c>
       <c r="H488" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I488" t="inlineStr">
@@ -35496,13 +35496,13 @@
         <v>700</v>
       </c>
       <c r="K488" t="n">
-        <v>33000</v>
+        <v>5000</v>
       </c>
       <c r="L488" t="n">
-        <v>34000</v>
+        <v>6000</v>
       </c>
       <c r="M488" t="n">
-        <v>33500</v>
+        <v>5500</v>
       </c>
       <c r="N488" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
         </is>
       </c>
       <c r="P488" t="n">
-        <v>1861</v>
+        <v>306</v>
       </c>
       <c r="Q488" t="n">
         <v>18</v>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44447</v>
+        <v>44588</v>
       </c>
       <c r="E489" t="n">
         <v>4</v>
@@ -35556,7 +35556,7 @@
       </c>
       <c r="H489" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I489" t="inlineStr">
@@ -35565,16 +35565,16 @@
         </is>
       </c>
       <c r="J489" t="n">
-        <v>360</v>
+        <v>248</v>
       </c>
       <c r="K489" t="n">
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="L489" t="n">
-        <v>31000</v>
+        <v>4000</v>
       </c>
       <c r="M489" t="n">
-        <v>30500</v>
+        <v>3516</v>
       </c>
       <c r="N489" t="inlineStr">
         <is>
@@ -35587,7 +35587,7 @@
         </is>
       </c>
       <c r="P489" t="n">
-        <v>1694</v>
+        <v>195</v>
       </c>
       <c r="Q489" t="n">
         <v>18</v>
@@ -35613,7 +35613,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44266</v>
+        <v>44447</v>
       </c>
       <c r="E490" t="n">
         <v>4</v>
@@ -35628,7 +35628,7 @@
       </c>
       <c r="H490" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I490" t="inlineStr">
@@ -35637,16 +35637,16 @@
         </is>
       </c>
       <c r="J490" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="K490" t="n">
-        <v>7500</v>
+        <v>31000</v>
       </c>
       <c r="L490" t="n">
-        <v>8000</v>
+        <v>32000</v>
       </c>
       <c r="M490" t="n">
-        <v>7750</v>
+        <v>31500</v>
       </c>
       <c r="N490" t="inlineStr">
         <is>
@@ -35659,7 +35659,7 @@
         </is>
       </c>
       <c r="P490" t="n">
-        <v>431</v>
+        <v>1750</v>
       </c>
       <c r="Q490" t="n">
         <v>18</v>
@@ -35685,7 +35685,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44266</v>
+        <v>44447</v>
       </c>
       <c r="E491" t="n">
         <v>4</v>
@@ -35700,7 +35700,7 @@
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I491" t="inlineStr">
@@ -35709,16 +35709,16 @@
         </is>
       </c>
       <c r="J491" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="K491" t="n">
-        <v>5500</v>
+        <v>26000</v>
       </c>
       <c r="L491" t="n">
-        <v>6000</v>
+        <v>27000</v>
       </c>
       <c r="M491" t="n">
-        <v>5750</v>
+        <v>26500</v>
       </c>
       <c r="N491" t="inlineStr">
         <is>
@@ -35731,7 +35731,7 @@
         </is>
       </c>
       <c r="P491" t="n">
-        <v>319</v>
+        <v>1472</v>
       </c>
       <c r="Q491" t="n">
         <v>18</v>
@@ -35757,7 +35757,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44266</v>
+        <v>44447</v>
       </c>
       <c r="E492" t="n">
         <v>4</v>
@@ -35772,7 +35772,7 @@
       </c>
       <c r="H492" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I492" t="inlineStr">
@@ -35781,16 +35781,16 @@
         </is>
       </c>
       <c r="J492" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K492" t="n">
-        <v>3500</v>
+        <v>21000</v>
       </c>
       <c r="L492" t="n">
-        <v>4000</v>
+        <v>22000</v>
       </c>
       <c r="M492" t="n">
-        <v>3750</v>
+        <v>21500</v>
       </c>
       <c r="N492" t="inlineStr">
         <is>
@@ -35803,7 +35803,7 @@
         </is>
       </c>
       <c r="P492" t="n">
-        <v>208</v>
+        <v>1194</v>
       </c>
       <c r="Q492" t="n">
         <v>18</v>
@@ -35829,7 +35829,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44266</v>
+        <v>44447</v>
       </c>
       <c r="E493" t="n">
         <v>4</v>
@@ -35844,7 +35844,7 @@
       </c>
       <c r="H493" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I493" t="inlineStr">
@@ -35853,16 +35853,16 @@
         </is>
       </c>
       <c r="J493" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K493" t="n">
-        <v>6500</v>
+        <v>36000</v>
       </c>
       <c r="L493" t="n">
-        <v>7000</v>
+        <v>37000</v>
       </c>
       <c r="M493" t="n">
-        <v>6750</v>
+        <v>36500</v>
       </c>
       <c r="N493" t="inlineStr">
         <is>
@@ -35875,7 +35875,7 @@
         </is>
       </c>
       <c r="P493" t="n">
-        <v>375</v>
+        <v>2028</v>
       </c>
       <c r="Q493" t="n">
         <v>18</v>
@@ -35901,7 +35901,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44266</v>
+        <v>44447</v>
       </c>
       <c r="E494" t="n">
         <v>4</v>
@@ -35916,7 +35916,7 @@
       </c>
       <c r="H494" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I494" t="inlineStr">
@@ -35925,16 +35925,16 @@
         </is>
       </c>
       <c r="J494" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K494" t="n">
-        <v>4500</v>
+        <v>33000</v>
       </c>
       <c r="L494" t="n">
-        <v>5000</v>
+        <v>34000</v>
       </c>
       <c r="M494" t="n">
-        <v>4750</v>
+        <v>33500</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
@@ -35947,7 +35947,7 @@
         </is>
       </c>
       <c r="P494" t="n">
-        <v>264</v>
+        <v>1861</v>
       </c>
       <c r="Q494" t="n">
         <v>18</v>
@@ -35973,7 +35973,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44266</v>
+        <v>44447</v>
       </c>
       <c r="E495" t="n">
         <v>4</v>
@@ -35988,7 +35988,7 @@
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I495" t="inlineStr">
@@ -35997,16 +35997,16 @@
         </is>
       </c>
       <c r="J495" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="K495" t="n">
-        <v>2500</v>
+        <v>30000</v>
       </c>
       <c r="L495" t="n">
-        <v>3000</v>
+        <v>31000</v>
       </c>
       <c r="M495" t="n">
-        <v>2750</v>
+        <v>30500</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         </is>
       </c>
       <c r="P495" t="n">
-        <v>153</v>
+        <v>1694</v>
       </c>
       <c r="Q495" t="n">
         <v>18</v>
@@ -36060,7 +36060,7 @@
       </c>
       <c r="H496" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I496" t="inlineStr">
@@ -36069,7 +36069,7 @@
         </is>
       </c>
       <c r="J496" t="n">
-        <v>800</v>
+        <v>240</v>
       </c>
       <c r="K496" t="n">
         <v>7500</v>
@@ -36132,7 +36132,7 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
@@ -36141,16 +36141,16 @@
         </is>
       </c>
       <c r="J497" t="n">
-        <v>700</v>
+        <v>240</v>
       </c>
       <c r="K497" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L497" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M497" t="n">
-        <v>4750</v>
+        <v>5750</v>
       </c>
       <c r="N497" t="inlineStr">
         <is>
@@ -36163,7 +36163,7 @@
         </is>
       </c>
       <c r="P497" t="n">
-        <v>264</v>
+        <v>319</v>
       </c>
       <c r="Q497" t="n">
         <v>18</v>
@@ -36189,7 +36189,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44391</v>
+        <v>44266</v>
       </c>
       <c r="E498" t="n">
         <v>4</v>
@@ -36204,25 +36204,25 @@
       </c>
       <c r="H498" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J498" t="n">
-        <v>700</v>
+        <v>160</v>
       </c>
       <c r="K498" t="n">
-        <v>14000</v>
+        <v>3500</v>
       </c>
       <c r="L498" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="M498" t="n">
-        <v>14500</v>
+        <v>3750</v>
       </c>
       <c r="N498" t="inlineStr">
         <is>
@@ -36235,7 +36235,7 @@
         </is>
       </c>
       <c r="P498" t="n">
-        <v>806</v>
+        <v>208</v>
       </c>
       <c r="Q498" t="n">
         <v>18</v>
@@ -36261,7 +36261,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44391</v>
+        <v>44266</v>
       </c>
       <c r="E499" t="n">
         <v>4</v>
@@ -36281,20 +36281,20 @@
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J499" t="n">
         <v>500</v>
       </c>
       <c r="K499" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="L499" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M499" t="n">
-        <v>12500</v>
+        <v>6750</v>
       </c>
       <c r="N499" t="inlineStr">
         <is>
@@ -36307,7 +36307,7 @@
         </is>
       </c>
       <c r="P499" t="n">
-        <v>694</v>
+        <v>375</v>
       </c>
       <c r="Q499" t="n">
         <v>18</v>
@@ -36333,7 +36333,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44391</v>
+        <v>44266</v>
       </c>
       <c r="E500" t="n">
         <v>4</v>
@@ -36353,20 +36353,20 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J500" t="n">
-        <v>160</v>
+        <v>600</v>
       </c>
       <c r="K500" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="L500" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="M500" t="n">
-        <v>10500</v>
+        <v>4750</v>
       </c>
       <c r="N500" t="inlineStr">
         <is>
@@ -36379,7 +36379,7 @@
         </is>
       </c>
       <c r="P500" t="n">
-        <v>583</v>
+        <v>264</v>
       </c>
       <c r="Q500" t="n">
         <v>18</v>
@@ -36405,7 +36405,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44391</v>
+        <v>44266</v>
       </c>
       <c r="E501" t="n">
         <v>4</v>
@@ -36420,25 +36420,25 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J501" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K501" t="n">
-        <v>15000</v>
+        <v>2500</v>
       </c>
       <c r="L501" t="n">
-        <v>16000</v>
+        <v>3000</v>
       </c>
       <c r="M501" t="n">
-        <v>15500</v>
+        <v>2750</v>
       </c>
       <c r="N501" t="inlineStr">
         <is>
@@ -36451,7 +36451,7 @@
         </is>
       </c>
       <c r="P501" t="n">
-        <v>861</v>
+        <v>153</v>
       </c>
       <c r="Q501" t="n">
         <v>18</v>
@@ -36477,7 +36477,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44391</v>
+        <v>44266</v>
       </c>
       <c r="E502" t="n">
         <v>4</v>
@@ -36497,20 +36497,20 @@
       </c>
       <c r="I502" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J502" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K502" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="L502" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M502" t="n">
-        <v>12500</v>
+        <v>7750</v>
       </c>
       <c r="N502" t="inlineStr">
         <is>
@@ -36523,7 +36523,7 @@
         </is>
       </c>
       <c r="P502" t="n">
-        <v>694</v>
+        <v>431</v>
       </c>
       <c r="Q502" t="n">
         <v>18</v>
@@ -36549,7 +36549,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44391</v>
+        <v>44266</v>
       </c>
       <c r="E503" t="n">
         <v>4</v>
@@ -36569,20 +36569,20 @@
       </c>
       <c r="I503" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J503" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K503" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="L503" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="M503" t="n">
-        <v>10500</v>
+        <v>4750</v>
       </c>
       <c r="N503" t="inlineStr">
         <is>
@@ -36595,7 +36595,7 @@
         </is>
       </c>
       <c r="P503" t="n">
-        <v>583</v>
+        <v>264</v>
       </c>
       <c r="Q503" t="n">
         <v>18</v>
@@ -36621,7 +36621,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44454</v>
+        <v>44391</v>
       </c>
       <c r="E504" t="n">
         <v>4</v>
@@ -36648,13 +36648,13 @@
         <v>700</v>
       </c>
       <c r="K504" t="n">
-        <v>32000</v>
+        <v>14000</v>
       </c>
       <c r="L504" t="n">
-        <v>33000</v>
+        <v>15000</v>
       </c>
       <c r="M504" t="n">
-        <v>32500</v>
+        <v>14500</v>
       </c>
       <c r="N504" t="inlineStr">
         <is>
@@ -36667,7 +36667,7 @@
         </is>
       </c>
       <c r="P504" t="n">
-        <v>1806</v>
+        <v>806</v>
       </c>
       <c r="Q504" t="n">
         <v>18</v>
@@ -36693,7 +36693,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44454</v>
+        <v>44391</v>
       </c>
       <c r="E505" t="n">
         <v>4</v>
@@ -36720,13 +36720,13 @@
         <v>500</v>
       </c>
       <c r="K505" t="n">
-        <v>29000</v>
+        <v>12000</v>
       </c>
       <c r="L505" t="n">
-        <v>30000</v>
+        <v>13000</v>
       </c>
       <c r="M505" t="n">
-        <v>29500</v>
+        <v>12500</v>
       </c>
       <c r="N505" t="inlineStr">
         <is>
@@ -36739,7 +36739,7 @@
         </is>
       </c>
       <c r="P505" t="n">
-        <v>1639</v>
+        <v>694</v>
       </c>
       <c r="Q505" t="n">
         <v>18</v>
@@ -36765,7 +36765,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44454</v>
+        <v>44391</v>
       </c>
       <c r="E506" t="n">
         <v>4</v>
@@ -36789,16 +36789,16 @@
         </is>
       </c>
       <c r="J506" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K506" t="n">
-        <v>26000</v>
+        <v>10000</v>
       </c>
       <c r="L506" t="n">
-        <v>27000</v>
+        <v>11000</v>
       </c>
       <c r="M506" t="n">
-        <v>26500</v>
+        <v>10500</v>
       </c>
       <c r="N506" t="inlineStr">
         <is>
@@ -36811,7 +36811,7 @@
         </is>
       </c>
       <c r="P506" t="n">
-        <v>1472</v>
+        <v>583</v>
       </c>
       <c r="Q506" t="n">
         <v>18</v>
@@ -36837,7 +36837,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44202</v>
+        <v>44391</v>
       </c>
       <c r="E507" t="n">
         <v>4</v>
@@ -36852,7 +36852,7 @@
       </c>
       <c r="H507" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I507" t="inlineStr">
@@ -36861,16 +36861,16 @@
         </is>
       </c>
       <c r="J507" t="n">
-        <v>160</v>
+        <v>600</v>
       </c>
       <c r="K507" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="L507" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M507" t="n">
-        <v>14750</v>
+        <v>15500</v>
       </c>
       <c r="N507" t="inlineStr">
         <is>
@@ -36883,7 +36883,7 @@
         </is>
       </c>
       <c r="P507" t="n">
-        <v>819</v>
+        <v>861</v>
       </c>
       <c r="Q507" t="n">
         <v>18</v>
@@ -36909,7 +36909,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44202</v>
+        <v>44391</v>
       </c>
       <c r="E508" t="n">
         <v>4</v>
@@ -36924,7 +36924,7 @@
       </c>
       <c r="H508" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I508" t="inlineStr">
@@ -36933,16 +36933,16 @@
         </is>
       </c>
       <c r="J508" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K508" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="L508" t="n">
         <v>13000</v>
       </c>
       <c r="M508" t="n">
-        <v>12750</v>
+        <v>12500</v>
       </c>
       <c r="N508" t="inlineStr">
         <is>
@@ -36955,7 +36955,7 @@
         </is>
       </c>
       <c r="P508" t="n">
-        <v>708</v>
+        <v>694</v>
       </c>
       <c r="Q508" t="n">
         <v>18</v>
@@ -36981,7 +36981,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44202</v>
+        <v>44391</v>
       </c>
       <c r="E509" t="n">
         <v>4</v>
@@ -36996,7 +36996,7 @@
       </c>
       <c r="H509" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I509" t="inlineStr">
@@ -37005,16 +37005,16 @@
         </is>
       </c>
       <c r="J509" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K509" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="L509" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M509" t="n">
-        <v>9750</v>
+        <v>10500</v>
       </c>
       <c r="N509" t="inlineStr">
         <is>
@@ -37027,7 +37027,7 @@
         </is>
       </c>
       <c r="P509" t="n">
-        <v>542</v>
+        <v>583</v>
       </c>
       <c r="Q509" t="n">
         <v>18</v>
@@ -37053,7 +37053,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44202</v>
+        <v>44454</v>
       </c>
       <c r="E510" t="n">
         <v>4</v>
@@ -37077,16 +37077,16 @@
         </is>
       </c>
       <c r="J510" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K510" t="n">
-        <v>9500</v>
+        <v>32000</v>
       </c>
       <c r="L510" t="n">
-        <v>10000</v>
+        <v>33000</v>
       </c>
       <c r="M510" t="n">
-        <v>9750</v>
+        <v>32500</v>
       </c>
       <c r="N510" t="inlineStr">
         <is>
@@ -37099,7 +37099,7 @@
         </is>
       </c>
       <c r="P510" t="n">
-        <v>542</v>
+        <v>1806</v>
       </c>
       <c r="Q510" t="n">
         <v>18</v>
@@ -37125,7 +37125,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44202</v>
+        <v>44454</v>
       </c>
       <c r="E511" t="n">
         <v>4</v>
@@ -37149,16 +37149,16 @@
         </is>
       </c>
       <c r="J511" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K511" t="n">
-        <v>7500</v>
+        <v>29000</v>
       </c>
       <c r="L511" t="n">
-        <v>8000</v>
+        <v>30000</v>
       </c>
       <c r="M511" t="n">
-        <v>7750</v>
+        <v>29500</v>
       </c>
       <c r="N511" t="inlineStr">
         <is>
@@ -37171,7 +37171,7 @@
         </is>
       </c>
       <c r="P511" t="n">
-        <v>431</v>
+        <v>1639</v>
       </c>
       <c r="Q511" t="n">
         <v>18</v>
@@ -37197,7 +37197,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44202</v>
+        <v>44454</v>
       </c>
       <c r="E512" t="n">
         <v>4</v>
@@ -37221,16 +37221,16 @@
         </is>
       </c>
       <c r="J512" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K512" t="n">
-        <v>4500</v>
+        <v>26000</v>
       </c>
       <c r="L512" t="n">
-        <v>5000</v>
+        <v>27000</v>
       </c>
       <c r="M512" t="n">
-        <v>4750</v>
+        <v>26500</v>
       </c>
       <c r="N512" t="inlineStr">
         <is>
@@ -37243,7 +37243,7 @@
         </is>
       </c>
       <c r="P512" t="n">
-        <v>264</v>
+        <v>1472</v>
       </c>
       <c r="Q512" t="n">
         <v>18</v>
@@ -37269,7 +37269,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44371</v>
+        <v>44202</v>
       </c>
       <c r="E513" t="n">
         <v>4</v>
@@ -37284,7 +37284,7 @@
       </c>
       <c r="H513" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I513" t="inlineStr">
@@ -37293,7 +37293,7 @@
         </is>
       </c>
       <c r="J513" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="K513" t="n">
         <v>14500</v>
@@ -37341,7 +37341,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44371</v>
+        <v>44202</v>
       </c>
       <c r="E514" t="n">
         <v>4</v>
@@ -37356,7 +37356,7 @@
       </c>
       <c r="H514" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I514" t="inlineStr">
@@ -37365,16 +37365,16 @@
         </is>
       </c>
       <c r="J514" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="K514" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="L514" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M514" t="n">
-        <v>11750</v>
+        <v>12750</v>
       </c>
       <c r="N514" t="inlineStr">
         <is>
@@ -37387,7 +37387,7 @@
         </is>
       </c>
       <c r="P514" t="n">
-        <v>653</v>
+        <v>708</v>
       </c>
       <c r="Q514" t="n">
         <v>18</v>
@@ -37413,7 +37413,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44371</v>
+        <v>44202</v>
       </c>
       <c r="E515" t="n">
         <v>4</v>
@@ -37428,7 +37428,7 @@
       </c>
       <c r="H515" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I515" t="inlineStr">
@@ -37437,16 +37437,16 @@
         </is>
       </c>
       <c r="J515" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="K515" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="L515" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M515" t="n">
-        <v>8750</v>
+        <v>9750</v>
       </c>
       <c r="N515" t="inlineStr">
         <is>
@@ -37459,7 +37459,7 @@
         </is>
       </c>
       <c r="P515" t="n">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="Q515" t="n">
         <v>18</v>
@@ -37485,7 +37485,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44371</v>
+        <v>44202</v>
       </c>
       <c r="E516" t="n">
         <v>4</v>
@@ -37500,7 +37500,7 @@
       </c>
       <c r="H516" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I516" t="inlineStr">
@@ -37509,16 +37509,16 @@
         </is>
       </c>
       <c r="J516" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K516" t="n">
-        <v>13500</v>
+        <v>9500</v>
       </c>
       <c r="L516" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M516" t="n">
-        <v>13750</v>
+        <v>9750</v>
       </c>
       <c r="N516" t="inlineStr">
         <is>
@@ -37531,7 +37531,7 @@
         </is>
       </c>
       <c r="P516" t="n">
-        <v>764</v>
+        <v>542</v>
       </c>
       <c r="Q516" t="n">
         <v>18</v>
@@ -37557,7 +37557,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44371</v>
+        <v>44202</v>
       </c>
       <c r="E517" t="n">
         <v>4</v>
@@ -37572,7 +37572,7 @@
       </c>
       <c r="H517" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I517" t="inlineStr">
@@ -37581,16 +37581,16 @@
         </is>
       </c>
       <c r="J517" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K517" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="L517" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M517" t="n">
-        <v>11750</v>
+        <v>7750</v>
       </c>
       <c r="N517" t="inlineStr">
         <is>
@@ -37603,7 +37603,7 @@
         </is>
       </c>
       <c r="P517" t="n">
-        <v>653</v>
+        <v>431</v>
       </c>
       <c r="Q517" t="n">
         <v>18</v>
@@ -37629,7 +37629,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44371</v>
+        <v>44202</v>
       </c>
       <c r="E518" t="n">
         <v>4</v>
@@ -37644,7 +37644,7 @@
       </c>
       <c r="H518" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I518" t="inlineStr">
@@ -37653,16 +37653,16 @@
         </is>
       </c>
       <c r="J518" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="K518" t="n">
-        <v>9500</v>
+        <v>4500</v>
       </c>
       <c r="L518" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M518" t="n">
-        <v>9750</v>
+        <v>4750</v>
       </c>
       <c r="N518" t="inlineStr">
         <is>
@@ -37675,7 +37675,7 @@
         </is>
       </c>
       <c r="P518" t="n">
-        <v>542</v>
+        <v>264</v>
       </c>
       <c r="Q518" t="n">
         <v>18</v>
@@ -37701,7 +37701,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44259</v>
+        <v>44371</v>
       </c>
       <c r="E519" t="n">
         <v>4</v>
@@ -37716,7 +37716,7 @@
       </c>
       <c r="H519" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I519" t="inlineStr">
@@ -37725,16 +37725,16 @@
         </is>
       </c>
       <c r="J519" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K519" t="n">
-        <v>8500</v>
+        <v>14500</v>
       </c>
       <c r="L519" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M519" t="n">
-        <v>8750</v>
+        <v>14750</v>
       </c>
       <c r="N519" t="inlineStr">
         <is>
@@ -37747,7 +37747,7 @@
         </is>
       </c>
       <c r="P519" t="n">
-        <v>486</v>
+        <v>819</v>
       </c>
       <c r="Q519" t="n">
         <v>18</v>
@@ -37773,7 +37773,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44259</v>
+        <v>44371</v>
       </c>
       <c r="E520" t="n">
         <v>4</v>
@@ -37788,7 +37788,7 @@
       </c>
       <c r="H520" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I520" t="inlineStr">
@@ -37797,16 +37797,16 @@
         </is>
       </c>
       <c r="J520" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K520" t="n">
-        <v>6500</v>
+        <v>11500</v>
       </c>
       <c r="L520" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M520" t="n">
-        <v>6750</v>
+        <v>11750</v>
       </c>
       <c r="N520" t="inlineStr">
         <is>
@@ -37819,7 +37819,7 @@
         </is>
       </c>
       <c r="P520" t="n">
-        <v>375</v>
+        <v>653</v>
       </c>
       <c r="Q520" t="n">
         <v>18</v>
@@ -37845,7 +37845,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44259</v>
+        <v>44371</v>
       </c>
       <c r="E521" t="n">
         <v>4</v>
@@ -37860,7 +37860,7 @@
       </c>
       <c r="H521" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I521" t="inlineStr">
@@ -37869,16 +37869,16 @@
         </is>
       </c>
       <c r="J521" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K521" t="n">
-        <v>4500</v>
+        <v>8500</v>
       </c>
       <c r="L521" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M521" t="n">
-        <v>4750</v>
+        <v>8750</v>
       </c>
       <c r="N521" t="inlineStr">
         <is>
@@ -37891,7 +37891,7 @@
         </is>
       </c>
       <c r="P521" t="n">
-        <v>264</v>
+        <v>486</v>
       </c>
       <c r="Q521" t="n">
         <v>18</v>
@@ -37917,7 +37917,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44259</v>
+        <v>44371</v>
       </c>
       <c r="E522" t="n">
         <v>4</v>
@@ -37932,7 +37932,7 @@
       </c>
       <c r="H522" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I522" t="inlineStr">
@@ -37941,16 +37941,16 @@
         </is>
       </c>
       <c r="J522" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K522" t="n">
-        <v>5500</v>
+        <v>13500</v>
       </c>
       <c r="L522" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="M522" t="n">
-        <v>5750</v>
+        <v>13750</v>
       </c>
       <c r="N522" t="inlineStr">
         <is>
@@ -37963,7 +37963,7 @@
         </is>
       </c>
       <c r="P522" t="n">
-        <v>319</v>
+        <v>764</v>
       </c>
       <c r="Q522" t="n">
         <v>18</v>
@@ -37989,7 +37989,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44259</v>
+        <v>44371</v>
       </c>
       <c r="E523" t="n">
         <v>4</v>
@@ -38004,7 +38004,7 @@
       </c>
       <c r="H523" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I523" t="inlineStr">
@@ -38016,13 +38016,13 @@
         <v>500</v>
       </c>
       <c r="K523" t="n">
-        <v>3500</v>
+        <v>11500</v>
       </c>
       <c r="L523" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="M523" t="n">
-        <v>3750</v>
+        <v>11750</v>
       </c>
       <c r="N523" t="inlineStr">
         <is>
@@ -38035,7 +38035,7 @@
         </is>
       </c>
       <c r="P523" t="n">
-        <v>208</v>
+        <v>653</v>
       </c>
       <c r="Q523" t="n">
         <v>18</v>
@@ -38061,7 +38061,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44259</v>
+        <v>44371</v>
       </c>
       <c r="E524" t="n">
         <v>4</v>
@@ -38081,20 +38081,20 @@
       </c>
       <c r="I524" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J524" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K524" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="L524" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M524" t="n">
-        <v>7500</v>
+        <v>9750</v>
       </c>
       <c r="N524" t="inlineStr">
         <is>
@@ -38107,7 +38107,7 @@
         </is>
       </c>
       <c r="P524" t="n">
-        <v>417</v>
+        <v>542</v>
       </c>
       <c r="Q524" t="n">
         <v>18</v>
@@ -38148,25 +38148,25 @@
       </c>
       <c r="H525" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I525" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J525" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K525" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="L525" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M525" t="n">
-        <v>5500</v>
+        <v>8750</v>
       </c>
       <c r="N525" t="inlineStr">
         <is>
@@ -38179,7 +38179,7 @@
         </is>
       </c>
       <c r="P525" t="n">
-        <v>306</v>
+        <v>486</v>
       </c>
       <c r="Q525" t="n">
         <v>18</v>
@@ -38220,25 +38220,25 @@
       </c>
       <c r="H526" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I526" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J526" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K526" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="L526" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M526" t="n">
-        <v>3500</v>
+        <v>6750</v>
       </c>
       <c r="N526" t="inlineStr">
         <is>
@@ -38251,7 +38251,7 @@
         </is>
       </c>
       <c r="P526" t="n">
-        <v>194</v>
+        <v>375</v>
       </c>
       <c r="Q526" t="n">
         <v>18</v>
@@ -38277,7 +38277,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44328</v>
+        <v>44259</v>
       </c>
       <c r="E527" t="n">
         <v>4</v>
@@ -38292,25 +38292,25 @@
       </c>
       <c r="H527" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I527" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J527" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K527" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="L527" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M527" t="n">
-        <v>7750</v>
+        <v>4750</v>
       </c>
       <c r="N527" t="inlineStr">
         <is>
@@ -38323,7 +38323,7 @@
         </is>
       </c>
       <c r="P527" t="n">
-        <v>431</v>
+        <v>264</v>
       </c>
       <c r="Q527" t="n">
         <v>18</v>
@@ -38349,7 +38349,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44328</v>
+        <v>44259</v>
       </c>
       <c r="E528" t="n">
         <v>4</v>
@@ -38369,11 +38369,11 @@
       </c>
       <c r="I528" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J528" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K528" t="n">
         <v>5500</v>
@@ -38421,7 +38421,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44328</v>
+        <v>44259</v>
       </c>
       <c r="E529" t="n">
         <v>4</v>
@@ -38441,11 +38441,11 @@
       </c>
       <c r="I529" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J529" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K529" t="n">
         <v>3500</v>
@@ -38493,7 +38493,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44328</v>
+        <v>44259</v>
       </c>
       <c r="E530" t="n">
         <v>4</v>
@@ -38517,16 +38517,16 @@
         </is>
       </c>
       <c r="J530" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K530" t="n">
-        <v>11500</v>
+        <v>7000</v>
       </c>
       <c r="L530" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M530" t="n">
-        <v>11750</v>
+        <v>7500</v>
       </c>
       <c r="N530" t="inlineStr">
         <is>
@@ -38539,7 +38539,7 @@
         </is>
       </c>
       <c r="P530" t="n">
-        <v>653</v>
+        <v>417</v>
       </c>
       <c r="Q530" t="n">
         <v>18</v>
@@ -38565,7 +38565,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44328</v>
+        <v>44259</v>
       </c>
       <c r="E531" t="n">
         <v>4</v>
@@ -38589,16 +38589,16 @@
         </is>
       </c>
       <c r="J531" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K531" t="n">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="L531" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M531" t="n">
-        <v>9750</v>
+        <v>5500</v>
       </c>
       <c r="N531" t="inlineStr">
         <is>
@@ -38611,7 +38611,7 @@
         </is>
       </c>
       <c r="P531" t="n">
-        <v>542</v>
+        <v>306</v>
       </c>
       <c r="Q531" t="n">
         <v>18</v>
@@ -38637,7 +38637,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44328</v>
+        <v>44259</v>
       </c>
       <c r="E532" t="n">
         <v>4</v>
@@ -38661,16 +38661,16 @@
         </is>
       </c>
       <c r="J532" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K532" t="n">
-        <v>7500</v>
+        <v>3000</v>
       </c>
       <c r="L532" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M532" t="n">
-        <v>7750</v>
+        <v>3500</v>
       </c>
       <c r="N532" t="inlineStr">
         <is>
@@ -38683,7 +38683,7 @@
         </is>
       </c>
       <c r="P532" t="n">
-        <v>431</v>
+        <v>194</v>
       </c>
       <c r="Q532" t="n">
         <v>18</v>
@@ -38709,7 +38709,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44489</v>
+        <v>44328</v>
       </c>
       <c r="E533" t="n">
         <v>4</v>
@@ -38733,16 +38733,16 @@
         </is>
       </c>
       <c r="J533" t="n">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="K533" t="n">
-        <v>26000</v>
+        <v>7500</v>
       </c>
       <c r="L533" t="n">
-        <v>28000</v>
+        <v>8000</v>
       </c>
       <c r="M533" t="n">
-        <v>27000</v>
+        <v>7750</v>
       </c>
       <c r="N533" t="inlineStr">
         <is>
@@ -38755,7 +38755,7 @@
         </is>
       </c>
       <c r="P533" t="n">
-        <v>1500</v>
+        <v>431</v>
       </c>
       <c r="Q533" t="n">
         <v>18</v>
@@ -38781,7 +38781,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44489</v>
+        <v>44328</v>
       </c>
       <c r="E534" t="n">
         <v>4</v>
@@ -38805,16 +38805,16 @@
         </is>
       </c>
       <c r="J534" t="n">
-        <v>1400</v>
+        <v>500</v>
       </c>
       <c r="K534" t="n">
-        <v>22000</v>
+        <v>5500</v>
       </c>
       <c r="L534" t="n">
-        <v>24000</v>
+        <v>6000</v>
       </c>
       <c r="M534" t="n">
-        <v>23000</v>
+        <v>5750</v>
       </c>
       <c r="N534" t="inlineStr">
         <is>
@@ -38827,7 +38827,7 @@
         </is>
       </c>
       <c r="P534" t="n">
-        <v>1278</v>
+        <v>319</v>
       </c>
       <c r="Q534" t="n">
         <v>18</v>
@@ -38853,7 +38853,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44489</v>
+        <v>44328</v>
       </c>
       <c r="E535" t="n">
         <v>4</v>
@@ -38877,16 +38877,16 @@
         </is>
       </c>
       <c r="J535" t="n">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="K535" t="n">
-        <v>18000</v>
+        <v>3500</v>
       </c>
       <c r="L535" t="n">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="M535" t="n">
-        <v>19000</v>
+        <v>3750</v>
       </c>
       <c r="N535" t="inlineStr">
         <is>
@@ -38899,7 +38899,7 @@
         </is>
       </c>
       <c r="P535" t="n">
-        <v>1056</v>
+        <v>208</v>
       </c>
       <c r="Q535" t="n">
         <v>18</v>
@@ -38925,7 +38925,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44399</v>
+        <v>44328</v>
       </c>
       <c r="E536" t="n">
         <v>4</v>
@@ -38940,7 +38940,7 @@
       </c>
       <c r="H536" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I536" t="inlineStr">
@@ -38949,16 +38949,16 @@
         </is>
       </c>
       <c r="J536" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K536" t="n">
-        <v>16000</v>
+        <v>11500</v>
       </c>
       <c r="L536" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M536" t="n">
-        <v>16500</v>
+        <v>11750</v>
       </c>
       <c r="N536" t="inlineStr">
         <is>
@@ -38971,7 +38971,7 @@
         </is>
       </c>
       <c r="P536" t="n">
-        <v>917</v>
+        <v>653</v>
       </c>
       <c r="Q536" t="n">
         <v>18</v>
@@ -38997,7 +38997,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44399</v>
+        <v>44328</v>
       </c>
       <c r="E537" t="n">
         <v>4</v>
@@ -39012,7 +39012,7 @@
       </c>
       <c r="H537" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I537" t="inlineStr">
@@ -39021,16 +39021,16 @@
         </is>
       </c>
       <c r="J537" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K537" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="L537" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M537" t="n">
-        <v>13500</v>
+        <v>9750</v>
       </c>
       <c r="N537" t="inlineStr">
         <is>
@@ -39043,7 +39043,7 @@
         </is>
       </c>
       <c r="P537" t="n">
-        <v>750</v>
+        <v>542</v>
       </c>
       <c r="Q537" t="n">
         <v>18</v>
@@ -39069,7 +39069,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44399</v>
+        <v>44328</v>
       </c>
       <c r="E538" t="n">
         <v>4</v>
@@ -39084,7 +39084,7 @@
       </c>
       <c r="H538" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I538" t="inlineStr">
@@ -39093,16 +39093,16 @@
         </is>
       </c>
       <c r="J538" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K538" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="L538" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M538" t="n">
-        <v>9500</v>
+        <v>7750</v>
       </c>
       <c r="N538" t="inlineStr">
         <is>
@@ -39115,7 +39115,7 @@
         </is>
       </c>
       <c r="P538" t="n">
-        <v>528</v>
+        <v>431</v>
       </c>
       <c r="Q538" t="n">
         <v>18</v>
@@ -39141,7 +39141,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44399</v>
+        <v>44489</v>
       </c>
       <c r="E539" t="n">
         <v>4</v>
@@ -39156,7 +39156,7 @@
       </c>
       <c r="H539" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I539" t="inlineStr">
@@ -39165,16 +39165,16 @@
         </is>
       </c>
       <c r="J539" t="n">
-        <v>400</v>
+        <v>1800</v>
       </c>
       <c r="K539" t="n">
-        <v>18000</v>
+        <v>26000</v>
       </c>
       <c r="L539" t="n">
-        <v>18500</v>
+        <v>28000</v>
       </c>
       <c r="M539" t="n">
-        <v>18250</v>
+        <v>27000</v>
       </c>
       <c r="N539" t="inlineStr">
         <is>
@@ -39187,7 +39187,7 @@
         </is>
       </c>
       <c r="P539" t="n">
-        <v>1014</v>
+        <v>1500</v>
       </c>
       <c r="Q539" t="n">
         <v>18</v>
@@ -39213,7 +39213,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44399</v>
+        <v>44489</v>
       </c>
       <c r="E540" t="n">
         <v>4</v>
@@ -39228,7 +39228,7 @@
       </c>
       <c r="H540" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I540" t="inlineStr">
@@ -39237,16 +39237,16 @@
         </is>
       </c>
       <c r="J540" t="n">
-        <v>400</v>
+        <v>1400</v>
       </c>
       <c r="K540" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="L540" t="n">
-        <v>16500</v>
+        <v>24000</v>
       </c>
       <c r="M540" t="n">
-        <v>16250</v>
+        <v>23000</v>
       </c>
       <c r="N540" t="inlineStr">
         <is>
@@ -39259,7 +39259,7 @@
         </is>
       </c>
       <c r="P540" t="n">
-        <v>903</v>
+        <v>1278</v>
       </c>
       <c r="Q540" t="n">
         <v>18</v>
@@ -39285,7 +39285,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44399</v>
+        <v>44489</v>
       </c>
       <c r="E541" t="n">
         <v>4</v>
@@ -39300,7 +39300,7 @@
       </c>
       <c r="H541" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I541" t="inlineStr">
@@ -39309,16 +39309,16 @@
         </is>
       </c>
       <c r="J541" t="n">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="K541" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L541" t="n">
-        <v>14500</v>
+        <v>20000</v>
       </c>
       <c r="M541" t="n">
-        <v>14250</v>
+        <v>19000</v>
       </c>
       <c r="N541" t="inlineStr">
         <is>
@@ -39331,7 +39331,7 @@
         </is>
       </c>
       <c r="P541" t="n">
-        <v>792</v>
+        <v>1056</v>
       </c>
       <c r="Q541" t="n">
         <v>18</v>
@@ -39357,7 +39357,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44441</v>
+        <v>44399</v>
       </c>
       <c r="E542" t="n">
         <v>4</v>
@@ -39381,16 +39381,16 @@
         </is>
       </c>
       <c r="J542" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K542" t="n">
-        <v>29000</v>
+        <v>16000</v>
       </c>
       <c r="L542" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="M542" t="n">
-        <v>29500</v>
+        <v>16500</v>
       </c>
       <c r="N542" t="inlineStr">
         <is>
@@ -39403,7 +39403,7 @@
         </is>
       </c>
       <c r="P542" t="n">
-        <v>1639</v>
+        <v>917</v>
       </c>
       <c r="Q542" t="n">
         <v>18</v>
@@ -39429,7 +39429,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44441</v>
+        <v>44399</v>
       </c>
       <c r="E543" t="n">
         <v>4</v>
@@ -39453,16 +39453,16 @@
         </is>
       </c>
       <c r="J543" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K543" t="n">
-        <v>26000</v>
+        <v>13000</v>
       </c>
       <c r="L543" t="n">
-        <v>27000</v>
+        <v>14000</v>
       </c>
       <c r="M543" t="n">
-        <v>26500</v>
+        <v>13500</v>
       </c>
       <c r="N543" t="inlineStr">
         <is>
@@ -39475,7 +39475,7 @@
         </is>
       </c>
       <c r="P543" t="n">
-        <v>1472</v>
+        <v>750</v>
       </c>
       <c r="Q543" t="n">
         <v>18</v>
@@ -39501,7 +39501,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44441</v>
+        <v>44399</v>
       </c>
       <c r="E544" t="n">
         <v>4</v>
@@ -39525,16 +39525,16 @@
         </is>
       </c>
       <c r="J544" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K544" t="n">
-        <v>23000</v>
+        <v>9000</v>
       </c>
       <c r="L544" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="M544" t="n">
-        <v>24000</v>
+        <v>9500</v>
       </c>
       <c r="N544" t="inlineStr">
         <is>
@@ -39547,7 +39547,7 @@
         </is>
       </c>
       <c r="P544" t="n">
-        <v>1333</v>
+        <v>528</v>
       </c>
       <c r="Q544" t="n">
         <v>18</v>
@@ -39573,7 +39573,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44441</v>
+        <v>44399</v>
       </c>
       <c r="E545" t="n">
         <v>4</v>
@@ -39597,16 +39597,16 @@
         </is>
       </c>
       <c r="J545" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K545" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="L545" t="n">
-        <v>31000</v>
+        <v>18500</v>
       </c>
       <c r="M545" t="n">
-        <v>30500</v>
+        <v>18250</v>
       </c>
       <c r="N545" t="inlineStr">
         <is>
@@ -39619,7 +39619,7 @@
         </is>
       </c>
       <c r="P545" t="n">
-        <v>1694</v>
+        <v>1014</v>
       </c>
       <c r="Q545" t="n">
         <v>18</v>
@@ -39645,7 +39645,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44441</v>
+        <v>44399</v>
       </c>
       <c r="E546" t="n">
         <v>4</v>
@@ -39669,16 +39669,16 @@
         </is>
       </c>
       <c r="J546" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K546" t="n">
-        <v>27000</v>
+        <v>16000</v>
       </c>
       <c r="L546" t="n">
-        <v>28000</v>
+        <v>16500</v>
       </c>
       <c r="M546" t="n">
-        <v>27500</v>
+        <v>16250</v>
       </c>
       <c r="N546" t="inlineStr">
         <is>
@@ -39691,7 +39691,7 @@
         </is>
       </c>
       <c r="P546" t="n">
-        <v>1528</v>
+        <v>903</v>
       </c>
       <c r="Q546" t="n">
         <v>18</v>
@@ -39717,7 +39717,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44441</v>
+        <v>44399</v>
       </c>
       <c r="E547" t="n">
         <v>4</v>
@@ -39741,16 +39741,16 @@
         </is>
       </c>
       <c r="J547" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K547" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="L547" t="n">
-        <v>25000</v>
+        <v>14500</v>
       </c>
       <c r="M547" t="n">
-        <v>24500</v>
+        <v>14250</v>
       </c>
       <c r="N547" t="inlineStr">
         <is>
@@ -39763,7 +39763,7 @@
         </is>
       </c>
       <c r="P547" t="n">
-        <v>1361</v>
+        <v>792</v>
       </c>
       <c r="Q547" t="n">
         <v>18</v>
@@ -39789,7 +39789,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44167</v>
+        <v>44441</v>
       </c>
       <c r="E548" t="n">
         <v>4</v>
@@ -39813,16 +39813,16 @@
         </is>
       </c>
       <c r="J548" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="K548" t="n">
-        <v>13500</v>
+        <v>29000</v>
       </c>
       <c r="L548" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="M548" t="n">
-        <v>13750</v>
+        <v>29500</v>
       </c>
       <c r="N548" t="inlineStr">
         <is>
@@ -39835,7 +39835,7 @@
         </is>
       </c>
       <c r="P548" t="n">
-        <v>764</v>
+        <v>1639</v>
       </c>
       <c r="Q548" t="n">
         <v>18</v>
@@ -39861,7 +39861,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44167</v>
+        <v>44441</v>
       </c>
       <c r="E549" t="n">
         <v>4</v>
@@ -39885,16 +39885,16 @@
         </is>
       </c>
       <c r="J549" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K549" t="n">
-        <v>8500</v>
+        <v>26000</v>
       </c>
       <c r="L549" t="n">
-        <v>9000</v>
+        <v>27000</v>
       </c>
       <c r="M549" t="n">
-        <v>8750</v>
+        <v>26500</v>
       </c>
       <c r="N549" t="inlineStr">
         <is>
@@ -39907,7 +39907,7 @@
         </is>
       </c>
       <c r="P549" t="n">
-        <v>486</v>
+        <v>1472</v>
       </c>
       <c r="Q549" t="n">
         <v>18</v>
@@ -39933,7 +39933,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44167</v>
+        <v>44441</v>
       </c>
       <c r="E550" t="n">
         <v>4</v>
@@ -39957,16 +39957,16 @@
         </is>
       </c>
       <c r="J550" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K550" t="n">
-        <v>5500</v>
+        <v>23000</v>
       </c>
       <c r="L550" t="n">
-        <v>6000</v>
+        <v>25000</v>
       </c>
       <c r="M550" t="n">
-        <v>5750</v>
+        <v>24000</v>
       </c>
       <c r="N550" t="inlineStr">
         <is>
@@ -39979,7 +39979,7 @@
         </is>
       </c>
       <c r="P550" t="n">
-        <v>319</v>
+        <v>1333</v>
       </c>
       <c r="Q550" t="n">
         <v>18</v>
@@ -40005,7 +40005,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44335</v>
+        <v>44441</v>
       </c>
       <c r="E551" t="n">
         <v>4</v>
@@ -40020,7 +40020,7 @@
       </c>
       <c r="H551" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I551" t="inlineStr">
@@ -40029,16 +40029,16 @@
         </is>
       </c>
       <c r="J551" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K551" t="n">
-        <v>9500</v>
+        <v>30000</v>
       </c>
       <c r="L551" t="n">
-        <v>10000</v>
+        <v>31000</v>
       </c>
       <c r="M551" t="n">
-        <v>9750</v>
+        <v>30500</v>
       </c>
       <c r="N551" t="inlineStr">
         <is>
@@ -40051,7 +40051,7 @@
         </is>
       </c>
       <c r="P551" t="n">
-        <v>542</v>
+        <v>1694</v>
       </c>
       <c r="Q551" t="n">
         <v>18</v>
@@ -40077,7 +40077,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44335</v>
+        <v>44441</v>
       </c>
       <c r="E552" t="n">
         <v>4</v>
@@ -40092,7 +40092,7 @@
       </c>
       <c r="H552" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I552" t="inlineStr">
@@ -40101,16 +40101,16 @@
         </is>
       </c>
       <c r="J552" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K552" t="n">
-        <v>7500</v>
+        <v>27000</v>
       </c>
       <c r="L552" t="n">
-        <v>8000</v>
+        <v>28000</v>
       </c>
       <c r="M552" t="n">
-        <v>7750</v>
+        <v>27500</v>
       </c>
       <c r="N552" t="inlineStr">
         <is>
@@ -40123,7 +40123,7 @@
         </is>
       </c>
       <c r="P552" t="n">
-        <v>431</v>
+        <v>1528</v>
       </c>
       <c r="Q552" t="n">
         <v>18</v>
@@ -40149,7 +40149,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44335</v>
+        <v>44441</v>
       </c>
       <c r="E553" t="n">
         <v>4</v>
@@ -40164,7 +40164,7 @@
       </c>
       <c r="H553" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I553" t="inlineStr">
@@ -40176,13 +40176,13 @@
         <v>400</v>
       </c>
       <c r="K553" t="n">
-        <v>5500</v>
+        <v>24000</v>
       </c>
       <c r="L553" t="n">
-        <v>6000</v>
+        <v>25000</v>
       </c>
       <c r="M553" t="n">
-        <v>5750</v>
+        <v>24500</v>
       </c>
       <c r="N553" t="inlineStr">
         <is>
@@ -40195,7 +40195,7 @@
         </is>
       </c>
       <c r="P553" t="n">
-        <v>319</v>
+        <v>1361</v>
       </c>
       <c r="Q553" t="n">
         <v>18</v>
@@ -40221,7 +40221,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44335</v>
+        <v>44167</v>
       </c>
       <c r="E554" t="n">
         <v>4</v>
@@ -40236,7 +40236,7 @@
       </c>
       <c r="H554" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I554" t="inlineStr">
@@ -40245,16 +40245,16 @@
         </is>
       </c>
       <c r="J554" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K554" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="L554" t="n">
         <v>14000</v>
       </c>
       <c r="M554" t="n">
-        <v>13500</v>
+        <v>13750</v>
       </c>
       <c r="N554" t="inlineStr">
         <is>
@@ -40267,7 +40267,7 @@
         </is>
       </c>
       <c r="P554" t="n">
-        <v>750</v>
+        <v>764</v>
       </c>
       <c r="Q554" t="n">
         <v>18</v>
@@ -40293,7 +40293,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44335</v>
+        <v>44167</v>
       </c>
       <c r="E555" t="n">
         <v>4</v>
@@ -40308,7 +40308,7 @@
       </c>
       <c r="H555" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I555" t="inlineStr">
@@ -40317,16 +40317,16 @@
         </is>
       </c>
       <c r="J555" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K555" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="L555" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M555" t="n">
-        <v>11500</v>
+        <v>8750</v>
       </c>
       <c r="N555" t="inlineStr">
         <is>
@@ -40339,7 +40339,7 @@
         </is>
       </c>
       <c r="P555" t="n">
-        <v>639</v>
+        <v>486</v>
       </c>
       <c r="Q555" t="n">
         <v>18</v>
@@ -40365,7 +40365,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44335</v>
+        <v>44167</v>
       </c>
       <c r="E556" t="n">
         <v>4</v>
@@ -40380,7 +40380,7 @@
       </c>
       <c r="H556" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I556" t="inlineStr">
@@ -40389,16 +40389,16 @@
         </is>
       </c>
       <c r="J556" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K556" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="L556" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M556" t="n">
-        <v>9500</v>
+        <v>5750</v>
       </c>
       <c r="N556" t="inlineStr">
         <is>
@@ -40411,7 +40411,7 @@
         </is>
       </c>
       <c r="P556" t="n">
-        <v>528</v>
+        <v>319</v>
       </c>
       <c r="Q556" t="n">
         <v>18</v>
@@ -40437,7 +40437,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44475</v>
+        <v>44335</v>
       </c>
       <c r="E557" t="n">
         <v>4</v>
@@ -40464,13 +40464,13 @@
         <v>1000</v>
       </c>
       <c r="K557" t="n">
-        <v>31000</v>
+        <v>9500</v>
       </c>
       <c r="L557" t="n">
-        <v>33000</v>
+        <v>10000</v>
       </c>
       <c r="M557" t="n">
-        <v>32000</v>
+        <v>9750</v>
       </c>
       <c r="N557" t="inlineStr">
         <is>
@@ -40483,7 +40483,7 @@
         </is>
       </c>
       <c r="P557" t="n">
-        <v>1778</v>
+        <v>542</v>
       </c>
       <c r="Q557" t="n">
         <v>18</v>
@@ -40509,7 +40509,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44475</v>
+        <v>44335</v>
       </c>
       <c r="E558" t="n">
         <v>4</v>
@@ -40533,16 +40533,16 @@
         </is>
       </c>
       <c r="J558" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="K558" t="n">
-        <v>28000</v>
+        <v>7500</v>
       </c>
       <c r="L558" t="n">
-        <v>30000</v>
+        <v>8000</v>
       </c>
       <c r="M558" t="n">
-        <v>29000</v>
+        <v>7750</v>
       </c>
       <c r="N558" t="inlineStr">
         <is>
@@ -40555,7 +40555,7 @@
         </is>
       </c>
       <c r="P558" t="n">
-        <v>1611</v>
+        <v>431</v>
       </c>
       <c r="Q558" t="n">
         <v>18</v>
@@ -40581,7 +40581,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44475</v>
+        <v>44335</v>
       </c>
       <c r="E559" t="n">
         <v>4</v>
@@ -40605,16 +40605,16 @@
         </is>
       </c>
       <c r="J559" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K559" t="n">
-        <v>25000</v>
+        <v>5500</v>
       </c>
       <c r="L559" t="n">
-        <v>27000</v>
+        <v>6000</v>
       </c>
       <c r="M559" t="n">
-        <v>26000</v>
+        <v>5750</v>
       </c>
       <c r="N559" t="inlineStr">
         <is>
@@ -40627,7 +40627,7 @@
         </is>
       </c>
       <c r="P559" t="n">
-        <v>1444</v>
+        <v>319</v>
       </c>
       <c r="Q559" t="n">
         <v>18</v>
@@ -40653,7 +40653,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44315</v>
+        <v>44335</v>
       </c>
       <c r="E560" t="n">
         <v>4</v>
@@ -40668,7 +40668,7 @@
       </c>
       <c r="H560" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I560" t="inlineStr">
@@ -40677,16 +40677,16 @@
         </is>
       </c>
       <c r="J560" t="n">
-        <v>360</v>
+        <v>600</v>
       </c>
       <c r="K560" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L560" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M560" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="N560" t="inlineStr">
         <is>
@@ -40699,7 +40699,7 @@
         </is>
       </c>
       <c r="P560" t="n">
-        <v>528</v>
+        <v>750</v>
       </c>
       <c r="Q560" t="n">
         <v>18</v>
@@ -40725,7 +40725,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44315</v>
+        <v>44335</v>
       </c>
       <c r="E561" t="n">
         <v>4</v>
@@ -40740,7 +40740,7 @@
       </c>
       <c r="H561" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I561" t="inlineStr">
@@ -40749,16 +40749,16 @@
         </is>
       </c>
       <c r="J561" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K561" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L561" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M561" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="N561" t="inlineStr">
         <is>
@@ -40771,7 +40771,7 @@
         </is>
       </c>
       <c r="P561" t="n">
-        <v>417</v>
+        <v>639</v>
       </c>
       <c r="Q561" t="n">
         <v>18</v>
@@ -40797,7 +40797,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44315</v>
+        <v>44335</v>
       </c>
       <c r="E562" t="n">
         <v>4</v>
@@ -40812,7 +40812,7 @@
       </c>
       <c r="H562" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I562" t="inlineStr">
@@ -40821,16 +40821,16 @@
         </is>
       </c>
       <c r="J562" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K562" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L562" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M562" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="N562" t="inlineStr">
         <is>
@@ -40843,7 +40843,7 @@
         </is>
       </c>
       <c r="P562" t="n">
-        <v>306</v>
+        <v>528</v>
       </c>
       <c r="Q562" t="n">
         <v>18</v>
@@ -40869,7 +40869,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44315</v>
+        <v>44475</v>
       </c>
       <c r="E563" t="n">
         <v>4</v>
@@ -40893,16 +40893,16 @@
         </is>
       </c>
       <c r="J563" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K563" t="n">
-        <v>6000</v>
+        <v>31000</v>
       </c>
       <c r="L563" t="n">
-        <v>7000</v>
+        <v>33000</v>
       </c>
       <c r="M563" t="n">
-        <v>6500</v>
+        <v>32000</v>
       </c>
       <c r="N563" t="inlineStr">
         <is>
@@ -40915,7 +40915,7 @@
         </is>
       </c>
       <c r="P563" t="n">
-        <v>361</v>
+        <v>1778</v>
       </c>
       <c r="Q563" t="n">
         <v>18</v>
@@ -40941,7 +40941,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44315</v>
+        <v>44475</v>
       </c>
       <c r="E564" t="n">
         <v>4</v>
@@ -40965,16 +40965,16 @@
         </is>
       </c>
       <c r="J564" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="K564" t="n">
-        <v>4000</v>
+        <v>28000</v>
       </c>
       <c r="L564" t="n">
-        <v>5000</v>
+        <v>30000</v>
       </c>
       <c r="M564" t="n">
-        <v>4500</v>
+        <v>29000</v>
       </c>
       <c r="N564" t="inlineStr">
         <is>
@@ -40987,7 +40987,7 @@
         </is>
       </c>
       <c r="P564" t="n">
-        <v>250</v>
+        <v>1611</v>
       </c>
       <c r="Q564" t="n">
         <v>18</v>
@@ -41013,7 +41013,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44315</v>
+        <v>44475</v>
       </c>
       <c r="E565" t="n">
         <v>4</v>
@@ -41037,16 +41037,16 @@
         </is>
       </c>
       <c r="J565" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="K565" t="n">
-        <v>2000</v>
+        <v>25000</v>
       </c>
       <c r="L565" t="n">
-        <v>3000</v>
+        <v>27000</v>
       </c>
       <c r="M565" t="n">
-        <v>2500</v>
+        <v>26000</v>
       </c>
       <c r="N565" t="inlineStr">
         <is>
@@ -41059,7 +41059,7 @@
         </is>
       </c>
       <c r="P565" t="n">
-        <v>139</v>
+        <v>1444</v>
       </c>
       <c r="Q565" t="n">
         <v>18</v>
@@ -41100,7 +41100,7 @@
       </c>
       <c r="H566" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I566" t="inlineStr">
@@ -41109,16 +41109,16 @@
         </is>
       </c>
       <c r="J566" t="n">
-        <v>1000</v>
+        <v>360</v>
       </c>
       <c r="K566" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L566" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M566" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="N566" t="inlineStr">
         <is>
@@ -41131,7 +41131,7 @@
         </is>
       </c>
       <c r="P566" t="n">
-        <v>306</v>
+        <v>528</v>
       </c>
       <c r="Q566" t="n">
         <v>18</v>
@@ -41172,7 +41172,7 @@
       </c>
       <c r="H567" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I567" t="inlineStr">
@@ -41181,16 +41181,16 @@
         </is>
       </c>
       <c r="J567" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K567" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="L567" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M567" t="n">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="N567" t="inlineStr">
         <is>
@@ -41203,7 +41203,7 @@
         </is>
       </c>
       <c r="P567" t="n">
-        <v>194</v>
+        <v>417</v>
       </c>
       <c r="Q567" t="n">
         <v>18</v>
@@ -41244,7 +41244,7 @@
       </c>
       <c r="H568" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I568" t="inlineStr">
@@ -41253,16 +41253,16 @@
         </is>
       </c>
       <c r="J568" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K568" t="n">
-        <v>1500</v>
+        <v>5000</v>
       </c>
       <c r="L568" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="M568" t="n">
-        <v>1750</v>
+        <v>5500</v>
       </c>
       <c r="N568" t="inlineStr">
         <is>
@@ -41275,7 +41275,7 @@
         </is>
       </c>
       <c r="P568" t="n">
-        <v>97</v>
+        <v>306</v>
       </c>
       <c r="Q568" t="n">
         <v>18</v>
@@ -41301,7 +41301,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44300</v>
+        <v>44315</v>
       </c>
       <c r="E569" t="n">
         <v>4</v>
@@ -41316,7 +41316,7 @@
       </c>
       <c r="H569" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I569" t="inlineStr">
@@ -41325,16 +41325,16 @@
         </is>
       </c>
       <c r="J569" t="n">
-        <v>240</v>
+        <v>700</v>
       </c>
       <c r="K569" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L569" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M569" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="N569" t="inlineStr">
         <is>
@@ -41347,7 +41347,7 @@
         </is>
       </c>
       <c r="P569" t="n">
-        <v>528</v>
+        <v>361</v>
       </c>
       <c r="Q569" t="n">
         <v>18</v>
@@ -41373,7 +41373,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44300</v>
+        <v>44315</v>
       </c>
       <c r="E570" t="n">
         <v>4</v>
@@ -41388,7 +41388,7 @@
       </c>
       <c r="H570" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I570" t="inlineStr">
@@ -41397,16 +41397,16 @@
         </is>
       </c>
       <c r="J570" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K570" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L570" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M570" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="N570" t="inlineStr">
         <is>
@@ -41419,7 +41419,7 @@
         </is>
       </c>
       <c r="P570" t="n">
-        <v>417</v>
+        <v>250</v>
       </c>
       <c r="Q570" t="n">
         <v>18</v>
@@ -41445,7 +41445,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44300</v>
+        <v>44315</v>
       </c>
       <c r="E571" t="n">
         <v>4</v>
@@ -41460,7 +41460,7 @@
       </c>
       <c r="H571" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I571" t="inlineStr">
@@ -41469,16 +41469,16 @@
         </is>
       </c>
       <c r="J571" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="K571" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="L571" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M571" t="n">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="N571" t="inlineStr">
         <is>
@@ -41491,7 +41491,7 @@
         </is>
       </c>
       <c r="P571" t="n">
-        <v>306</v>
+        <v>139</v>
       </c>
       <c r="Q571" t="n">
         <v>18</v>
@@ -41517,7 +41517,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44300</v>
+        <v>44315</v>
       </c>
       <c r="E572" t="n">
         <v>4</v>
@@ -41532,7 +41532,7 @@
       </c>
       <c r="H572" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I572" t="inlineStr">
@@ -41541,16 +41541,16 @@
         </is>
       </c>
       <c r="J572" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K572" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L572" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M572" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="N572" t="inlineStr">
         <is>
@@ -41563,7 +41563,7 @@
         </is>
       </c>
       <c r="P572" t="n">
-        <v>417</v>
+        <v>306</v>
       </c>
       <c r="Q572" t="n">
         <v>18</v>
@@ -41589,7 +41589,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44300</v>
+        <v>44315</v>
       </c>
       <c r="E573" t="n">
         <v>4</v>
@@ -41604,7 +41604,7 @@
       </c>
       <c r="H573" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I573" t="inlineStr">
@@ -41613,16 +41613,16 @@
         </is>
       </c>
       <c r="J573" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K573" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L573" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M573" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="N573" t="inlineStr">
         <is>
@@ -41635,7 +41635,7 @@
         </is>
       </c>
       <c r="P573" t="n">
-        <v>306</v>
+        <v>194</v>
       </c>
       <c r="Q573" t="n">
         <v>18</v>
@@ -41661,7 +41661,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44300</v>
+        <v>44315</v>
       </c>
       <c r="E574" t="n">
         <v>4</v>
@@ -41676,7 +41676,7 @@
       </c>
       <c r="H574" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I574" t="inlineStr">
@@ -41685,16 +41685,16 @@
         </is>
       </c>
       <c r="J574" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K574" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="L574" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M574" t="n">
-        <v>3500</v>
+        <v>1750</v>
       </c>
       <c r="N574" t="inlineStr">
         <is>
@@ -41707,7 +41707,7 @@
         </is>
       </c>
       <c r="P574" t="n">
-        <v>194</v>
+        <v>97</v>
       </c>
       <c r="Q574" t="n">
         <v>18</v>
@@ -41748,7 +41748,7 @@
       </c>
       <c r="H575" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I575" t="inlineStr">
@@ -41757,16 +41757,16 @@
         </is>
       </c>
       <c r="J575" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="K575" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L575" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M575" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="N575" t="inlineStr">
         <is>
@@ -41779,7 +41779,7 @@
         </is>
       </c>
       <c r="P575" t="n">
-        <v>306</v>
+        <v>528</v>
       </c>
       <c r="Q575" t="n">
         <v>18</v>
@@ -41820,7 +41820,7 @@
       </c>
       <c r="H576" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I576" t="inlineStr">
@@ -41829,16 +41829,16 @@
         </is>
       </c>
       <c r="J576" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="K576" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="L576" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M576" t="n">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="N576" t="inlineStr">
         <is>
@@ -41851,7 +41851,7 @@
         </is>
       </c>
       <c r="P576" t="n">
-        <v>194</v>
+        <v>417</v>
       </c>
       <c r="Q576" t="n">
         <v>18</v>
@@ -41877,7 +41877,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44314</v>
+        <v>44300</v>
       </c>
       <c r="E577" t="n">
         <v>4</v>
@@ -41897,20 +41897,20 @@
       </c>
       <c r="I577" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J577" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K577" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L577" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M577" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="N577" t="inlineStr">
         <is>
@@ -41923,7 +41923,7 @@
         </is>
       </c>
       <c r="P577" t="n">
-        <v>528</v>
+        <v>306</v>
       </c>
       <c r="Q577" t="n">
         <v>18</v>
@@ -41949,7 +41949,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44314</v>
+        <v>44300</v>
       </c>
       <c r="E578" t="n">
         <v>4</v>
@@ -41964,16 +41964,16 @@
       </c>
       <c r="H578" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I578" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J578" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K578" t="n">
         <v>7000</v>
@@ -42021,7 +42021,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44314</v>
+        <v>44300</v>
       </c>
       <c r="E579" t="n">
         <v>4</v>
@@ -42036,16 +42036,16 @@
       </c>
       <c r="H579" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I579" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J579" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K579" t="n">
         <v>5000</v>
@@ -42093,7 +42093,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44314</v>
+        <v>44300</v>
       </c>
       <c r="E580" t="n">
         <v>4</v>
@@ -42113,20 +42113,20 @@
       </c>
       <c r="I580" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J580" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="K580" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L580" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M580" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="N580" t="inlineStr">
         <is>
@@ -42139,7 +42139,7 @@
         </is>
       </c>
       <c r="P580" t="n">
-        <v>361</v>
+        <v>194</v>
       </c>
       <c r="Q580" t="n">
         <v>18</v>
@@ -42165,7 +42165,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44314</v>
+        <v>44300</v>
       </c>
       <c r="E581" t="n">
         <v>4</v>
@@ -42180,25 +42180,25 @@
       </c>
       <c r="H581" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I581" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J581" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K581" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L581" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M581" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="N581" t="inlineStr">
         <is>
@@ -42211,7 +42211,7 @@
         </is>
       </c>
       <c r="P581" t="n">
-        <v>250</v>
+        <v>306</v>
       </c>
       <c r="Q581" t="n">
         <v>18</v>
@@ -42237,7 +42237,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44314</v>
+        <v>44300</v>
       </c>
       <c r="E582" t="n">
         <v>4</v>
@@ -42252,25 +42252,25 @@
       </c>
       <c r="H582" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I582" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J582" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K582" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L582" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M582" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="N582" t="inlineStr">
         <is>
@@ -42283,7 +42283,7 @@
         </is>
       </c>
       <c r="P582" t="n">
-        <v>139</v>
+        <v>194</v>
       </c>
       <c r="Q582" t="n">
         <v>18</v>
@@ -42324,7 +42324,7 @@
       </c>
       <c r="H583" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I583" t="inlineStr">
@@ -42333,16 +42333,16 @@
         </is>
       </c>
       <c r="J583" t="n">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="K583" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L583" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M583" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="N583" t="inlineStr">
         <is>
@@ -42355,7 +42355,7 @@
         </is>
       </c>
       <c r="P583" t="n">
-        <v>306</v>
+        <v>528</v>
       </c>
       <c r="Q583" t="n">
         <v>18</v>
@@ -42396,7 +42396,7 @@
       </c>
       <c r="H584" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I584" t="inlineStr">
@@ -42405,16 +42405,16 @@
         </is>
       </c>
       <c r="J584" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K584" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="L584" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M584" t="n">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="N584" t="inlineStr">
         <is>
@@ -42427,7 +42427,7 @@
         </is>
       </c>
       <c r="P584" t="n">
-        <v>194</v>
+        <v>417</v>
       </c>
       <c r="Q584" t="n">
         <v>18</v>
@@ -42468,7 +42468,7 @@
       </c>
       <c r="H585" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I585" t="inlineStr">
@@ -42480,13 +42480,13 @@
         <v>300</v>
       </c>
       <c r="K585" t="n">
-        <v>1500</v>
+        <v>5000</v>
       </c>
       <c r="L585" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="M585" t="n">
-        <v>1750</v>
+        <v>5500</v>
       </c>
       <c r="N585" t="inlineStr">
         <is>
@@ -42499,7 +42499,7 @@
         </is>
       </c>
       <c r="P585" t="n">
-        <v>97</v>
+        <v>306</v>
       </c>
       <c r="Q585" t="n">
         <v>18</v>
@@ -42525,7 +42525,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44468</v>
+        <v>44314</v>
       </c>
       <c r="E586" t="n">
         <v>4</v>
@@ -42549,16 +42549,16 @@
         </is>
       </c>
       <c r="J586" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K586" t="n">
-        <v>32000</v>
+        <v>6000</v>
       </c>
       <c r="L586" t="n">
-        <v>33000</v>
+        <v>7000</v>
       </c>
       <c r="M586" t="n">
-        <v>32500</v>
+        <v>6500</v>
       </c>
       <c r="N586" t="inlineStr">
         <is>
@@ -42571,7 +42571,7 @@
         </is>
       </c>
       <c r="P586" t="n">
-        <v>1806</v>
+        <v>361</v>
       </c>
       <c r="Q586" t="n">
         <v>18</v>
@@ -42597,7 +42597,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44468</v>
+        <v>44314</v>
       </c>
       <c r="E587" t="n">
         <v>4</v>
@@ -42621,16 +42621,16 @@
         </is>
       </c>
       <c r="J587" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K587" t="n">
-        <v>29000</v>
+        <v>4000</v>
       </c>
       <c r="L587" t="n">
-        <v>30000</v>
+        <v>5000</v>
       </c>
       <c r="M587" t="n">
-        <v>29500</v>
+        <v>4500</v>
       </c>
       <c r="N587" t="inlineStr">
         <is>
@@ -42643,7 +42643,7 @@
         </is>
       </c>
       <c r="P587" t="n">
-        <v>1639</v>
+        <v>250</v>
       </c>
       <c r="Q587" t="n">
         <v>18</v>
@@ -42669,7 +42669,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44468</v>
+        <v>44314</v>
       </c>
       <c r="E588" t="n">
         <v>4</v>
@@ -42693,16 +42693,16 @@
         </is>
       </c>
       <c r="J588" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K588" t="n">
-        <v>25000</v>
+        <v>2000</v>
       </c>
       <c r="L588" t="n">
-        <v>26000</v>
+        <v>3000</v>
       </c>
       <c r="M588" t="n">
-        <v>25500</v>
+        <v>2500</v>
       </c>
       <c r="N588" t="inlineStr">
         <is>
@@ -42715,7 +42715,7 @@
         </is>
       </c>
       <c r="P588" t="n">
-        <v>1417</v>
+        <v>139</v>
       </c>
       <c r="Q588" t="n">
         <v>18</v>
@@ -42741,7 +42741,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44560</v>
+        <v>44314</v>
       </c>
       <c r="E589" t="n">
         <v>4</v>
@@ -42756,7 +42756,7 @@
       </c>
       <c r="H589" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I589" t="inlineStr">
@@ -42765,16 +42765,16 @@
         </is>
       </c>
       <c r="J589" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K589" t="n">
-        <v>19000</v>
+        <v>5000</v>
       </c>
       <c r="L589" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="M589" t="n">
-        <v>19500</v>
+        <v>5500</v>
       </c>
       <c r="N589" t="inlineStr">
         <is>
@@ -42787,7 +42787,7 @@
         </is>
       </c>
       <c r="P589" t="n">
-        <v>1083</v>
+        <v>306</v>
       </c>
       <c r="Q589" t="n">
         <v>18</v>
@@ -42813,7 +42813,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44560</v>
+        <v>44314</v>
       </c>
       <c r="E590" t="n">
         <v>4</v>
@@ -42828,7 +42828,7 @@
       </c>
       <c r="H590" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I590" t="inlineStr">
@@ -42837,16 +42837,16 @@
         </is>
       </c>
       <c r="J590" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K590" t="n">
-        <v>16000</v>
+        <v>3000</v>
       </c>
       <c r="L590" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="M590" t="n">
-        <v>16500</v>
+        <v>3500</v>
       </c>
       <c r="N590" t="inlineStr">
         <is>
@@ -42859,7 +42859,7 @@
         </is>
       </c>
       <c r="P590" t="n">
-        <v>917</v>
+        <v>194</v>
       </c>
       <c r="Q590" t="n">
         <v>18</v>
@@ -42885,7 +42885,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44560</v>
+        <v>44314</v>
       </c>
       <c r="E591" t="n">
         <v>4</v>
@@ -42900,7 +42900,7 @@
       </c>
       <c r="H591" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I591" t="inlineStr">
@@ -42909,16 +42909,16 @@
         </is>
       </c>
       <c r="J591" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K591" t="n">
-        <v>13000</v>
+        <v>1500</v>
       </c>
       <c r="L591" t="n">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="M591" t="n">
-        <v>13500</v>
+        <v>1750</v>
       </c>
       <c r="N591" t="inlineStr">
         <is>
@@ -42931,7 +42931,7 @@
         </is>
       </c>
       <c r="P591" t="n">
-        <v>750</v>
+        <v>97</v>
       </c>
       <c r="Q591" t="n">
         <v>18</v>
@@ -42957,7 +42957,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44560</v>
+        <v>44468</v>
       </c>
       <c r="E592" t="n">
         <v>4</v>
@@ -42981,16 +42981,16 @@
         </is>
       </c>
       <c r="J592" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="K592" t="n">
-        <v>7000</v>
+        <v>32000</v>
       </c>
       <c r="L592" t="n">
-        <v>8000</v>
+        <v>33000</v>
       </c>
       <c r="M592" t="n">
-        <v>7500</v>
+        <v>32500</v>
       </c>
       <c r="N592" t="inlineStr">
         <is>
@@ -43003,7 +43003,7 @@
         </is>
       </c>
       <c r="P592" t="n">
-        <v>417</v>
+        <v>1806</v>
       </c>
       <c r="Q592" t="n">
         <v>18</v>
@@ -43029,7 +43029,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44560</v>
+        <v>44468</v>
       </c>
       <c r="E593" t="n">
         <v>4</v>
@@ -43053,16 +43053,16 @@
         </is>
       </c>
       <c r="J593" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K593" t="n">
-        <v>5000</v>
+        <v>29000</v>
       </c>
       <c r="L593" t="n">
-        <v>6000</v>
+        <v>30000</v>
       </c>
       <c r="M593" t="n">
-        <v>5500</v>
+        <v>29500</v>
       </c>
       <c r="N593" t="inlineStr">
         <is>
@@ -43075,7 +43075,7 @@
         </is>
       </c>
       <c r="P593" t="n">
-        <v>306</v>
+        <v>1639</v>
       </c>
       <c r="Q593" t="n">
         <v>18</v>
@@ -43101,7 +43101,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44272</v>
+        <v>44468</v>
       </c>
       <c r="E594" t="n">
         <v>4</v>
@@ -43116,25 +43116,25 @@
       </c>
       <c r="H594" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I594" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J594" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K594" t="n">
-        <v>7500</v>
+        <v>25000</v>
       </c>
       <c r="L594" t="n">
-        <v>8000</v>
+        <v>26000</v>
       </c>
       <c r="M594" t="n">
-        <v>7750</v>
+        <v>25500</v>
       </c>
       <c r="N594" t="inlineStr">
         <is>
@@ -43147,7 +43147,7 @@
         </is>
       </c>
       <c r="P594" t="n">
-        <v>431</v>
+        <v>1417</v>
       </c>
       <c r="Q594" t="n">
         <v>18</v>
@@ -43173,7 +43173,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44272</v>
+        <v>44560</v>
       </c>
       <c r="E595" t="n">
         <v>4</v>
@@ -43193,20 +43193,20 @@
       </c>
       <c r="I595" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J595" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K595" t="n">
-        <v>5500</v>
+        <v>19000</v>
       </c>
       <c r="L595" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="M595" t="n">
-        <v>5750</v>
+        <v>19500</v>
       </c>
       <c r="N595" t="inlineStr">
         <is>
@@ -43219,7 +43219,7 @@
         </is>
       </c>
       <c r="P595" t="n">
-        <v>319</v>
+        <v>1083</v>
       </c>
       <c r="Q595" t="n">
         <v>18</v>
@@ -43245,7 +43245,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44272</v>
+        <v>44560</v>
       </c>
       <c r="E596" t="n">
         <v>4</v>
@@ -43265,20 +43265,20 @@
       </c>
       <c r="I596" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J596" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K596" t="n">
-        <v>3500</v>
+        <v>16000</v>
       </c>
       <c r="L596" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="M596" t="n">
-        <v>3750</v>
+        <v>16500</v>
       </c>
       <c r="N596" t="inlineStr">
         <is>
@@ -43291,7 +43291,7 @@
         </is>
       </c>
       <c r="P596" t="n">
-        <v>208</v>
+        <v>917</v>
       </c>
       <c r="Q596" t="n">
         <v>18</v>
@@ -43317,7 +43317,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44272</v>
+        <v>44560</v>
       </c>
       <c r="E597" t="n">
         <v>4</v>
@@ -43332,25 +43332,25 @@
       </c>
       <c r="H597" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I597" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J597" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="K597" t="n">
-        <v>5500</v>
+        <v>13000</v>
       </c>
       <c r="L597" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="M597" t="n">
-        <v>5750</v>
+        <v>13500</v>
       </c>
       <c r="N597" t="inlineStr">
         <is>
@@ -43363,7 +43363,7 @@
         </is>
       </c>
       <c r="P597" t="n">
-        <v>319</v>
+        <v>750</v>
       </c>
       <c r="Q597" t="n">
         <v>18</v>
@@ -43389,7 +43389,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44272</v>
+        <v>44560</v>
       </c>
       <c r="E598" t="n">
         <v>4</v>
@@ -43409,20 +43409,20 @@
       </c>
       <c r="I598" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J598" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K598" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="L598" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M598" t="n">
-        <v>3750</v>
+        <v>7500</v>
       </c>
       <c r="N598" t="inlineStr">
         <is>
@@ -43435,7 +43435,7 @@
         </is>
       </c>
       <c r="P598" t="n">
-        <v>208</v>
+        <v>417</v>
       </c>
       <c r="Q598" t="n">
         <v>18</v>
@@ -43461,7 +43461,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44272</v>
+        <v>44560</v>
       </c>
       <c r="E599" t="n">
         <v>4</v>
@@ -43481,20 +43481,20 @@
       </c>
       <c r="I599" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J599" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K599" t="n">
-        <v>1500</v>
+        <v>5000</v>
       </c>
       <c r="L599" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="M599" t="n">
-        <v>1750</v>
+        <v>5500</v>
       </c>
       <c r="N599" t="inlineStr">
         <is>
@@ -43507,7 +43507,7 @@
         </is>
       </c>
       <c r="P599" t="n">
-        <v>97</v>
+        <v>306</v>
       </c>
       <c r="Q599" t="n">
         <v>18</v>
@@ -43533,7 +43533,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44385</v>
+        <v>44272</v>
       </c>
       <c r="E600" t="n">
         <v>4</v>
@@ -43548,7 +43548,7 @@
       </c>
       <c r="H600" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I600" t="inlineStr">
@@ -43557,16 +43557,16 @@
         </is>
       </c>
       <c r="J600" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="K600" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="L600" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M600" t="n">
-        <v>11750</v>
+        <v>7750</v>
       </c>
       <c r="N600" t="inlineStr">
         <is>
@@ -43579,7 +43579,7 @@
         </is>
       </c>
       <c r="P600" t="n">
-        <v>653</v>
+        <v>431</v>
       </c>
       <c r="Q600" t="n">
         <v>18</v>
@@ -43605,7 +43605,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44385</v>
+        <v>44272</v>
       </c>
       <c r="E601" t="n">
         <v>4</v>
@@ -43620,7 +43620,7 @@
       </c>
       <c r="H601" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I601" t="inlineStr">
@@ -43629,16 +43629,16 @@
         </is>
       </c>
       <c r="J601" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K601" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="L601" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M601" t="n">
-        <v>9750</v>
+        <v>5750</v>
       </c>
       <c r="N601" t="inlineStr">
         <is>
@@ -43651,7 +43651,7 @@
         </is>
       </c>
       <c r="P601" t="n">
-        <v>542</v>
+        <v>319</v>
       </c>
       <c r="Q601" t="n">
         <v>18</v>
@@ -43677,7 +43677,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44385</v>
+        <v>44272</v>
       </c>
       <c r="E602" t="n">
         <v>4</v>
@@ -43692,7 +43692,7 @@
       </c>
       <c r="H602" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I602" t="inlineStr">
@@ -43701,16 +43701,16 @@
         </is>
       </c>
       <c r="J602" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K602" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="L602" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M602" t="n">
-        <v>6750</v>
+        <v>3750</v>
       </c>
       <c r="N602" t="inlineStr">
         <is>
@@ -43723,7 +43723,7 @@
         </is>
       </c>
       <c r="P602" t="n">
-        <v>375</v>
+        <v>208</v>
       </c>
       <c r="Q602" t="n">
         <v>18</v>
@@ -43749,7 +43749,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44385</v>
+        <v>44272</v>
       </c>
       <c r="E603" t="n">
         <v>4</v>
@@ -43764,7 +43764,7 @@
       </c>
       <c r="H603" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I603" t="inlineStr">
@@ -43773,16 +43773,16 @@
         </is>
       </c>
       <c r="J603" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K603" t="n">
-        <v>10500</v>
+        <v>5500</v>
       </c>
       <c r="L603" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="M603" t="n">
-        <v>10750</v>
+        <v>5750</v>
       </c>
       <c r="N603" t="inlineStr">
         <is>
@@ -43795,7 +43795,7 @@
         </is>
       </c>
       <c r="P603" t="n">
-        <v>597</v>
+        <v>319</v>
       </c>
       <c r="Q603" t="n">
         <v>18</v>
@@ -43821,7 +43821,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44385</v>
+        <v>44272</v>
       </c>
       <c r="E604" t="n">
         <v>4</v>
@@ -43836,7 +43836,7 @@
       </c>
       <c r="H604" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I604" t="inlineStr">
@@ -43848,13 +43848,13 @@
         <v>400</v>
       </c>
       <c r="K604" t="n">
-        <v>8500</v>
+        <v>3500</v>
       </c>
       <c r="L604" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="M604" t="n">
-        <v>8750</v>
+        <v>3750</v>
       </c>
       <c r="N604" t="inlineStr">
         <is>
@@ -43867,7 +43867,7 @@
         </is>
       </c>
       <c r="P604" t="n">
-        <v>486</v>
+        <v>208</v>
       </c>
       <c r="Q604" t="n">
         <v>18</v>
@@ -43893,7 +43893,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44385</v>
+        <v>44272</v>
       </c>
       <c r="E605" t="n">
         <v>4</v>
@@ -43908,7 +43908,7 @@
       </c>
       <c r="H605" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I605" t="inlineStr">
@@ -43917,16 +43917,16 @@
         </is>
       </c>
       <c r="J605" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K605" t="n">
-        <v>6500</v>
+        <v>1500</v>
       </c>
       <c r="L605" t="n">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="M605" t="n">
-        <v>6750</v>
+        <v>1750</v>
       </c>
       <c r="N605" t="inlineStr">
         <is>
@@ -43939,7 +43939,7 @@
         </is>
       </c>
       <c r="P605" t="n">
-        <v>375</v>
+        <v>97</v>
       </c>
       <c r="Q605" t="n">
         <v>18</v>
@@ -43965,7 +43965,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44189</v>
+        <v>44385</v>
       </c>
       <c r="E606" t="n">
         <v>4</v>
@@ -43980,7 +43980,7 @@
       </c>
       <c r="H606" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I606" t="inlineStr">
@@ -43989,16 +43989,16 @@
         </is>
       </c>
       <c r="J606" t="n">
-        <v>140</v>
+        <v>800</v>
       </c>
       <c r="K606" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="L606" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M606" t="n">
-        <v>13750</v>
+        <v>11750</v>
       </c>
       <c r="N606" t="inlineStr">
         <is>
@@ -44011,7 +44011,7 @@
         </is>
       </c>
       <c r="P606" t="n">
-        <v>764</v>
+        <v>653</v>
       </c>
       <c r="Q606" t="n">
         <v>18</v>
@@ -44037,7 +44037,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44189</v>
+        <v>44385</v>
       </c>
       <c r="E607" t="n">
         <v>4</v>
@@ -44052,7 +44052,7 @@
       </c>
       <c r="H607" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I607" t="inlineStr">
@@ -44061,16 +44061,16 @@
         </is>
       </c>
       <c r="J607" t="n">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="K607" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="L607" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M607" t="n">
-        <v>11750</v>
+        <v>9750</v>
       </c>
       <c r="N607" t="inlineStr">
         <is>
@@ -44083,7 +44083,7 @@
         </is>
       </c>
       <c r="P607" t="n">
-        <v>653</v>
+        <v>542</v>
       </c>
       <c r="Q607" t="n">
         <v>18</v>
@@ -44109,7 +44109,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44189</v>
+        <v>44385</v>
       </c>
       <c r="E608" t="n">
         <v>4</v>
@@ -44124,7 +44124,7 @@
       </c>
       <c r="H608" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I608" t="inlineStr">
@@ -44133,16 +44133,16 @@
         </is>
       </c>
       <c r="J608" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K608" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="L608" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M608" t="n">
-        <v>9750</v>
+        <v>6750</v>
       </c>
       <c r="N608" t="inlineStr">
         <is>
@@ -44155,7 +44155,7 @@
         </is>
       </c>
       <c r="P608" t="n">
-        <v>542</v>
+        <v>375</v>
       </c>
       <c r="Q608" t="n">
         <v>18</v>
@@ -44181,7 +44181,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44189</v>
+        <v>44385</v>
       </c>
       <c r="E609" t="n">
         <v>4</v>
@@ -44196,7 +44196,7 @@
       </c>
       <c r="H609" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I609" t="inlineStr">
@@ -44205,16 +44205,16 @@
         </is>
       </c>
       <c r="J609" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K609" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="L609" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M609" t="n">
-        <v>9750</v>
+        <v>10750</v>
       </c>
       <c r="N609" t="inlineStr">
         <is>
@@ -44227,7 +44227,7 @@
         </is>
       </c>
       <c r="P609" t="n">
-        <v>542</v>
+        <v>597</v>
       </c>
       <c r="Q609" t="n">
         <v>18</v>
@@ -44253,7 +44253,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44189</v>
+        <v>44385</v>
       </c>
       <c r="E610" t="n">
         <v>4</v>
@@ -44268,7 +44268,7 @@
       </c>
       <c r="H610" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I610" t="inlineStr">
@@ -44277,16 +44277,16 @@
         </is>
       </c>
       <c r="J610" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K610" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="L610" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M610" t="n">
-        <v>7750</v>
+        <v>8750</v>
       </c>
       <c r="N610" t="inlineStr">
         <is>
@@ -44299,7 +44299,7 @@
         </is>
       </c>
       <c r="P610" t="n">
-        <v>431</v>
+        <v>486</v>
       </c>
       <c r="Q610" t="n">
         <v>18</v>
@@ -44325,7 +44325,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44189</v>
+        <v>44385</v>
       </c>
       <c r="E611" t="n">
         <v>4</v>
@@ -44340,7 +44340,7 @@
       </c>
       <c r="H611" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I611" t="inlineStr">
@@ -44349,16 +44349,16 @@
         </is>
       </c>
       <c r="J611" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="K611" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L611" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M611" t="n">
-        <v>5750</v>
+        <v>6750</v>
       </c>
       <c r="N611" t="inlineStr">
         <is>
@@ -44371,7 +44371,7 @@
         </is>
       </c>
       <c r="P611" t="n">
-        <v>319</v>
+        <v>375</v>
       </c>
       <c r="Q611" t="n">
         <v>18</v>
@@ -44397,7 +44397,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44321</v>
+        <v>44189</v>
       </c>
       <c r="E612" t="n">
         <v>4</v>
@@ -44412,7 +44412,7 @@
       </c>
       <c r="H612" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I612" t="inlineStr">
@@ -44421,16 +44421,16 @@
         </is>
       </c>
       <c r="J612" t="n">
-        <v>1100</v>
+        <v>140</v>
       </c>
       <c r="K612" t="n">
-        <v>6000</v>
+        <v>13500</v>
       </c>
       <c r="L612" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M612" t="n">
-        <v>6500</v>
+        <v>13750</v>
       </c>
       <c r="N612" t="inlineStr">
         <is>
@@ -44443,7 +44443,7 @@
         </is>
       </c>
       <c r="P612" t="n">
-        <v>361</v>
+        <v>764</v>
       </c>
       <c r="Q612" t="n">
         <v>18</v>
@@ -44469,7 +44469,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44321</v>
+        <v>44189</v>
       </c>
       <c r="E613" t="n">
         <v>4</v>
@@ -44484,7 +44484,7 @@
       </c>
       <c r="H613" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I613" t="inlineStr">
@@ -44493,16 +44493,16 @@
         </is>
       </c>
       <c r="J613" t="n">
-        <v>700</v>
+        <v>160</v>
       </c>
       <c r="K613" t="n">
-        <v>4000</v>
+        <v>11500</v>
       </c>
       <c r="L613" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="M613" t="n">
-        <v>4500</v>
+        <v>11750</v>
       </c>
       <c r="N613" t="inlineStr">
         <is>
@@ -44515,7 +44515,7 @@
         </is>
       </c>
       <c r="P613" t="n">
-        <v>250</v>
+        <v>653</v>
       </c>
       <c r="Q613" t="n">
         <v>18</v>
@@ -44541,7 +44541,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44321</v>
+        <v>44189</v>
       </c>
       <c r="E614" t="n">
         <v>4</v>
@@ -44556,7 +44556,7 @@
       </c>
       <c r="H614" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I614" t="inlineStr">
@@ -44565,16 +44565,16 @@
         </is>
       </c>
       <c r="J614" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="K614" t="n">
-        <v>2000</v>
+        <v>9500</v>
       </c>
       <c r="L614" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="M614" t="n">
-        <v>2500</v>
+        <v>9750</v>
       </c>
       <c r="N614" t="inlineStr">
         <is>
@@ -44587,7 +44587,7 @@
         </is>
       </c>
       <c r="P614" t="n">
-        <v>139</v>
+        <v>542</v>
       </c>
       <c r="Q614" t="n">
         <v>18</v>
@@ -44613,7 +44613,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44321</v>
+        <v>44189</v>
       </c>
       <c r="E615" t="n">
         <v>4</v>
@@ -44628,7 +44628,7 @@
       </c>
       <c r="H615" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I615" t="inlineStr">
@@ -44637,16 +44637,16 @@
         </is>
       </c>
       <c r="J615" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="K615" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="L615" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="M615" t="n">
-        <v>6250</v>
+        <v>9750</v>
       </c>
       <c r="N615" t="inlineStr">
         <is>
@@ -44659,7 +44659,7 @@
         </is>
       </c>
       <c r="P615" t="n">
-        <v>347</v>
+        <v>542</v>
       </c>
       <c r="Q615" t="n">
         <v>18</v>
@@ -44685,7 +44685,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44321</v>
+        <v>44189</v>
       </c>
       <c r="E616" t="n">
         <v>4</v>
@@ -44700,7 +44700,7 @@
       </c>
       <c r="H616" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I616" t="inlineStr">
@@ -44709,16 +44709,16 @@
         </is>
       </c>
       <c r="J616" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="K616" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="L616" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="M616" t="n">
-        <v>4250</v>
+        <v>7750</v>
       </c>
       <c r="N616" t="inlineStr">
         <is>
@@ -44731,7 +44731,7 @@
         </is>
       </c>
       <c r="P616" t="n">
-        <v>236</v>
+        <v>431</v>
       </c>
       <c r="Q616" t="n">
         <v>18</v>
@@ -44757,7 +44757,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44321</v>
+        <v>44189</v>
       </c>
       <c r="E617" t="n">
         <v>4</v>
@@ -44772,7 +44772,7 @@
       </c>
       <c r="H617" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I617" t="inlineStr">
@@ -44781,16 +44781,16 @@
         </is>
       </c>
       <c r="J617" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="K617" t="n">
-        <v>2000</v>
+        <v>5500</v>
       </c>
       <c r="L617" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="M617" t="n">
-        <v>2250</v>
+        <v>5750</v>
       </c>
       <c r="N617" t="inlineStr">
         <is>
@@ -44803,7 +44803,7 @@
         </is>
       </c>
       <c r="P617" t="n">
-        <v>125</v>
+        <v>319</v>
       </c>
       <c r="Q617" t="n">
         <v>18</v>
@@ -44829,7 +44829,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44209</v>
+        <v>44321</v>
       </c>
       <c r="E618" t="n">
         <v>4</v>
@@ -44844,7 +44844,7 @@
       </c>
       <c r="H618" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I618" t="inlineStr">
@@ -44853,16 +44853,16 @@
         </is>
       </c>
       <c r="J618" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K618" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="L618" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M618" t="n">
-        <v>9750</v>
+        <v>6500</v>
       </c>
       <c r="N618" t="inlineStr">
         <is>
@@ -44875,7 +44875,7 @@
         </is>
       </c>
       <c r="P618" t="n">
-        <v>542</v>
+        <v>361</v>
       </c>
       <c r="Q618" t="n">
         <v>18</v>
@@ -44901,7 +44901,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44209</v>
+        <v>44321</v>
       </c>
       <c r="E619" t="n">
         <v>4</v>
@@ -44916,7 +44916,7 @@
       </c>
       <c r="H619" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I619" t="inlineStr">
@@ -44925,16 +44925,16 @@
         </is>
       </c>
       <c r="J619" t="n">
-        <v>360</v>
+        <v>700</v>
       </c>
       <c r="K619" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="L619" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M619" t="n">
-        <v>7750</v>
+        <v>4500</v>
       </c>
       <c r="N619" t="inlineStr">
         <is>
@@ -44947,7 +44947,7 @@
         </is>
       </c>
       <c r="P619" t="n">
-        <v>431</v>
+        <v>250</v>
       </c>
       <c r="Q619" t="n">
         <v>18</v>
@@ -44973,7 +44973,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44209</v>
+        <v>44321</v>
       </c>
       <c r="E620" t="n">
         <v>4</v>
@@ -44988,7 +44988,7 @@
       </c>
       <c r="H620" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I620" t="inlineStr">
@@ -44997,16 +44997,16 @@
         </is>
       </c>
       <c r="J620" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K620" t="n">
-        <v>5500</v>
+        <v>2000</v>
       </c>
       <c r="L620" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M620" t="n">
-        <v>5750</v>
+        <v>2500</v>
       </c>
       <c r="N620" t="inlineStr">
         <is>
@@ -45019,7 +45019,7 @@
         </is>
       </c>
       <c r="P620" t="n">
-        <v>319</v>
+        <v>139</v>
       </c>
       <c r="Q620" t="n">
         <v>18</v>
@@ -45045,7 +45045,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44209</v>
+        <v>44321</v>
       </c>
       <c r="E621" t="n">
         <v>4</v>
@@ -45060,7 +45060,7 @@
       </c>
       <c r="H621" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I621" t="inlineStr">
@@ -45069,16 +45069,16 @@
         </is>
       </c>
       <c r="J621" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K621" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L621" t="n">
         <v>6500</v>
       </c>
-      <c r="L621" t="n">
-        <v>7000</v>
-      </c>
       <c r="M621" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N621" t="inlineStr">
         <is>
@@ -45091,7 +45091,7 @@
         </is>
       </c>
       <c r="P621" t="n">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="Q621" t="n">
         <v>18</v>
@@ -45117,7 +45117,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44209</v>
+        <v>44321</v>
       </c>
       <c r="E622" t="n">
         <v>4</v>
@@ -45132,7 +45132,7 @@
       </c>
       <c r="H622" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I622" t="inlineStr">
@@ -45141,16 +45141,16 @@
         </is>
       </c>
       <c r="J622" t="n">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="K622" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L622" t="n">
         <v>4500</v>
       </c>
-      <c r="L622" t="n">
-        <v>5000</v>
-      </c>
       <c r="M622" t="n">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="N622" t="inlineStr">
         <is>
@@ -45163,7 +45163,7 @@
         </is>
       </c>
       <c r="P622" t="n">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="Q622" t="n">
         <v>18</v>
@@ -45189,7 +45189,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44209</v>
+        <v>44321</v>
       </c>
       <c r="E623" t="n">
         <v>4</v>
@@ -45204,7 +45204,7 @@
       </c>
       <c r="H623" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I623" t="inlineStr">
@@ -45216,13 +45216,13 @@
         <v>400</v>
       </c>
       <c r="K623" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L623" t="n">
         <v>2500</v>
       </c>
-      <c r="L623" t="n">
-        <v>3000</v>
-      </c>
       <c r="M623" t="n">
-        <v>2750</v>
+        <v>2250</v>
       </c>
       <c r="N623" t="inlineStr">
         <is>
@@ -45235,7 +45235,7 @@
         </is>
       </c>
       <c r="P623" t="n">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="Q623" t="n">
         <v>18</v>
@@ -45261,7 +45261,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44392</v>
+        <v>44209</v>
       </c>
       <c r="E624" t="n">
         <v>4</v>
@@ -45276,7 +45276,7 @@
       </c>
       <c r="H624" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I624" t="inlineStr">
@@ -45285,16 +45285,16 @@
         </is>
       </c>
       <c r="J624" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K624" t="n">
-        <v>14000</v>
+        <v>9500</v>
       </c>
       <c r="L624" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M624" t="n">
-        <v>14500</v>
+        <v>9750</v>
       </c>
       <c r="N624" t="inlineStr">
         <is>
@@ -45307,7 +45307,7 @@
         </is>
       </c>
       <c r="P624" t="n">
-        <v>806</v>
+        <v>542</v>
       </c>
       <c r="Q624" t="n">
         <v>18</v>
@@ -45333,7 +45333,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44392</v>
+        <v>44209</v>
       </c>
       <c r="E625" t="n">
         <v>4</v>
@@ -45348,7 +45348,7 @@
       </c>
       <c r="H625" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I625" t="inlineStr">
@@ -45357,16 +45357,16 @@
         </is>
       </c>
       <c r="J625" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="K625" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="L625" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M625" t="n">
-        <v>12500</v>
+        <v>7750</v>
       </c>
       <c r="N625" t="inlineStr">
         <is>
@@ -45379,7 +45379,7 @@
         </is>
       </c>
       <c r="P625" t="n">
-        <v>694</v>
+        <v>431</v>
       </c>
       <c r="Q625" t="n">
         <v>18</v>
@@ -45405,7 +45405,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44392</v>
+        <v>44209</v>
       </c>
       <c r="E626" t="n">
         <v>4</v>
@@ -45420,7 +45420,7 @@
       </c>
       <c r="H626" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I626" t="inlineStr">
@@ -45432,13 +45432,13 @@
         <v>300</v>
       </c>
       <c r="K626" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="L626" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="M626" t="n">
-        <v>10500</v>
+        <v>5750</v>
       </c>
       <c r="N626" t="inlineStr">
         <is>
@@ -45451,7 +45451,7 @@
         </is>
       </c>
       <c r="P626" t="n">
-        <v>583</v>
+        <v>319</v>
       </c>
       <c r="Q626" t="n">
         <v>18</v>
@@ -45477,7 +45477,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44392</v>
+        <v>44209</v>
       </c>
       <c r="E627" t="n">
         <v>4</v>
@@ -45492,7 +45492,7 @@
       </c>
       <c r="H627" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I627" t="inlineStr">
@@ -45501,16 +45501,16 @@
         </is>
       </c>
       <c r="J627" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K627" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="L627" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="M627" t="n">
-        <v>15500</v>
+        <v>6750</v>
       </c>
       <c r="N627" t="inlineStr">
         <is>
@@ -45523,7 +45523,7 @@
         </is>
       </c>
       <c r="P627" t="n">
-        <v>861</v>
+        <v>375</v>
       </c>
       <c r="Q627" t="n">
         <v>18</v>
@@ -45549,7 +45549,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44392</v>
+        <v>44209</v>
       </c>
       <c r="E628" t="n">
         <v>4</v>
@@ -45564,7 +45564,7 @@
       </c>
       <c r="H628" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I628" t="inlineStr">
@@ -45573,16 +45573,16 @@
         </is>
       </c>
       <c r="J628" t="n">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="K628" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="L628" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="M628" t="n">
-        <v>12500</v>
+        <v>4750</v>
       </c>
       <c r="N628" t="inlineStr">
         <is>
@@ -45595,7 +45595,7 @@
         </is>
       </c>
       <c r="P628" t="n">
-        <v>694</v>
+        <v>264</v>
       </c>
       <c r="Q628" t="n">
         <v>18</v>
@@ -45621,58 +45621,490 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
+        <v>44209</v>
+      </c>
+      <c r="E629" t="n">
+        <v>4</v>
+      </c>
+      <c r="F629" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G629" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H629" t="inlineStr">
+        <is>
+          <t>Cuatro cascos verde</t>
+        </is>
+      </c>
+      <c r="I629" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J629" t="n">
+        <v>400</v>
+      </c>
+      <c r="K629" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L629" t="n">
+        <v>3000</v>
+      </c>
+      <c r="M629" t="n">
+        <v>2750</v>
+      </c>
+      <c r="N629" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O629" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P629" t="n">
+        <v>153</v>
+      </c>
+      <c r="Q629" t="n">
+        <v>18</v>
+      </c>
+      <c r="R629" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="n">
+        <v>2</v>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D630" s="2" t="n">
         <v>44392</v>
       </c>
-      <c r="E629" t="n">
-        <v>4</v>
-      </c>
-      <c r="F629" t="n">
-        <v>100112002</v>
-      </c>
-      <c r="G629" t="inlineStr">
-        <is>
-          <t>Pimiento</t>
-        </is>
-      </c>
-      <c r="H629" t="inlineStr">
+      <c r="E630" t="n">
+        <v>4</v>
+      </c>
+      <c r="F630" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G630" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H630" t="inlineStr">
+        <is>
+          <t>Cuatro cascos verde</t>
+        </is>
+      </c>
+      <c r="I630" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J630" t="n">
+        <v>600</v>
+      </c>
+      <c r="K630" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L630" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M630" t="n">
+        <v>14500</v>
+      </c>
+      <c r="N630" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O630" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P630" t="n">
+        <v>806</v>
+      </c>
+      <c r="Q630" t="n">
+        <v>18</v>
+      </c>
+      <c r="R630" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="n">
+        <v>2</v>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D631" s="2" t="n">
+        <v>44392</v>
+      </c>
+      <c r="E631" t="n">
+        <v>4</v>
+      </c>
+      <c r="F631" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G631" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H631" t="inlineStr">
+        <is>
+          <t>Cuatro cascos verde</t>
+        </is>
+      </c>
+      <c r="I631" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J631" t="n">
+        <v>500</v>
+      </c>
+      <c r="K631" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L631" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M631" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N631" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O631" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P631" t="n">
+        <v>694</v>
+      </c>
+      <c r="Q631" t="n">
+        <v>18</v>
+      </c>
+      <c r="R631" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="n">
+        <v>2</v>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D632" s="2" t="n">
+        <v>44392</v>
+      </c>
+      <c r="E632" t="n">
+        <v>4</v>
+      </c>
+      <c r="F632" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G632" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H632" t="inlineStr">
+        <is>
+          <t>Cuatro cascos verde</t>
+        </is>
+      </c>
+      <c r="I632" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J632" t="n">
+        <v>300</v>
+      </c>
+      <c r="K632" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L632" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M632" t="n">
+        <v>10500</v>
+      </c>
+      <c r="N632" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O632" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P632" t="n">
+        <v>583</v>
+      </c>
+      <c r="Q632" t="n">
+        <v>18</v>
+      </c>
+      <c r="R632" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="n">
+        <v>2</v>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D633" s="2" t="n">
+        <v>44392</v>
+      </c>
+      <c r="E633" t="n">
+        <v>4</v>
+      </c>
+      <c r="F633" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G633" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H633" t="inlineStr">
         <is>
           <t>Morrón rojo</t>
         </is>
       </c>
-      <c r="I629" t="inlineStr">
+      <c r="I633" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J633" t="n">
+        <v>600</v>
+      </c>
+      <c r="K633" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L633" t="n">
+        <v>16000</v>
+      </c>
+      <c r="M633" t="n">
+        <v>15500</v>
+      </c>
+      <c r="N633" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O633" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P633" t="n">
+        <v>861</v>
+      </c>
+      <c r="Q633" t="n">
+        <v>18</v>
+      </c>
+      <c r="R633" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="n">
+        <v>2</v>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D634" s="2" t="n">
+        <v>44392</v>
+      </c>
+      <c r="E634" t="n">
+        <v>4</v>
+      </c>
+      <c r="F634" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G634" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H634" t="inlineStr">
+        <is>
+          <t>Morrón rojo</t>
+        </is>
+      </c>
+      <c r="I634" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J634" t="n">
+        <v>500</v>
+      </c>
+      <c r="K634" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L634" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M634" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N634" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O634" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P634" t="n">
+        <v>694</v>
+      </c>
+      <c r="Q634" t="n">
+        <v>18</v>
+      </c>
+      <c r="R634" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="n">
+        <v>2</v>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D635" s="2" t="n">
+        <v>44392</v>
+      </c>
+      <c r="E635" t="n">
+        <v>4</v>
+      </c>
+      <c r="F635" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G635" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H635" t="inlineStr">
+        <is>
+          <t>Morrón rojo</t>
+        </is>
+      </c>
+      <c r="I635" t="inlineStr">
         <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="J629" t="n">
+      <c r="J635" t="n">
         <v>240</v>
       </c>
-      <c r="K629" t="n">
+      <c r="K635" t="n">
         <v>10000</v>
       </c>
-      <c r="L629" t="n">
+      <c r="L635" t="n">
         <v>11000</v>
       </c>
-      <c r="M629" t="n">
+      <c r="M635" t="n">
         <v>10500</v>
       </c>
-      <c r="N629" t="inlineStr">
-        <is>
-          <t>$/caja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O629" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P629" t="n">
+      <c r="N635" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O635" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P635" t="n">
         <v>583</v>
       </c>
-      <c r="Q629" t="n">
-        <v>18</v>
-      </c>
-      <c r="R629" t="inlineStr">
+      <c r="Q635" t="n">
+        <v>18</v>
+      </c>
+      <c r="R635" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pimiento.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pimiento.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R641"/>
+  <dimension ref="A1:R647"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45549,7 +45549,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E628" t="n">
         <v>4</v>
@@ -45564,7 +45564,7 @@
       </c>
       <c r="H628" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I628" t="inlineStr">
@@ -45573,16 +45573,16 @@
         </is>
       </c>
       <c r="J628" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="K628" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="L628" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M628" t="n">
-        <v>9750</v>
+        <v>11500</v>
       </c>
       <c r="N628" t="inlineStr">
         <is>
@@ -45595,7 +45595,7 @@
         </is>
       </c>
       <c r="P628" t="n">
-        <v>542</v>
+        <v>639</v>
       </c>
       <c r="Q628" t="n">
         <v>18</v>
@@ -45621,7 +45621,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E629" t="n">
         <v>4</v>
@@ -45636,7 +45636,7 @@
       </c>
       <c r="H629" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I629" t="inlineStr">
@@ -45645,16 +45645,16 @@
         </is>
       </c>
       <c r="J629" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="K629" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L629" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M629" t="n">
-        <v>7750</v>
+        <v>8500</v>
       </c>
       <c r="N629" t="inlineStr">
         <is>
@@ -45667,7 +45667,7 @@
         </is>
       </c>
       <c r="P629" t="n">
-        <v>431</v>
+        <v>472</v>
       </c>
       <c r="Q629" t="n">
         <v>18</v>
@@ -45693,7 +45693,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E630" t="n">
         <v>4</v>
@@ -45708,7 +45708,7 @@
       </c>
       <c r="H630" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I630" t="inlineStr">
@@ -45717,16 +45717,16 @@
         </is>
       </c>
       <c r="J630" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K630" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L630" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M630" t="n">
-        <v>5750</v>
+        <v>4500</v>
       </c>
       <c r="N630" t="inlineStr">
         <is>
@@ -45739,7 +45739,7 @@
         </is>
       </c>
       <c r="P630" t="n">
-        <v>319</v>
+        <v>250</v>
       </c>
       <c r="Q630" t="n">
         <v>18</v>
@@ -45765,7 +45765,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E631" t="n">
         <v>4</v>
@@ -45780,7 +45780,7 @@
       </c>
       <c r="H631" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I631" t="inlineStr">
@@ -45789,16 +45789,16 @@
         </is>
       </c>
       <c r="J631" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K631" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="L631" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M631" t="n">
-        <v>13500</v>
+        <v>7750</v>
       </c>
       <c r="N631" t="inlineStr">
         <is>
@@ -45811,7 +45811,7 @@
         </is>
       </c>
       <c r="P631" t="n">
-        <v>750</v>
+        <v>431</v>
       </c>
       <c r="Q631" t="n">
         <v>18</v>
@@ -45837,7 +45837,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E632" t="n">
         <v>4</v>
@@ -45852,7 +45852,7 @@
       </c>
       <c r="H632" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I632" t="inlineStr">
@@ -45861,16 +45861,16 @@
         </is>
       </c>
       <c r="J632" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="K632" t="n">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="L632" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M632" t="n">
-        <v>11500</v>
+        <v>5750</v>
       </c>
       <c r="N632" t="inlineStr">
         <is>
@@ -45883,7 +45883,7 @@
         </is>
       </c>
       <c r="P632" t="n">
-        <v>639</v>
+        <v>319</v>
       </c>
       <c r="Q632" t="n">
         <v>18</v>
@@ -45909,7 +45909,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E633" t="n">
         <v>4</v>
@@ -45924,7 +45924,7 @@
       </c>
       <c r="H633" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I633" t="inlineStr">
@@ -45933,16 +45933,16 @@
         </is>
       </c>
       <c r="J633" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K633" t="n">
-        <v>9000</v>
+        <v>3500</v>
       </c>
       <c r="L633" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M633" t="n">
-        <v>9500</v>
+        <v>3750</v>
       </c>
       <c r="N633" t="inlineStr">
         <is>
@@ -45955,7 +45955,7 @@
         </is>
       </c>
       <c r="P633" t="n">
-        <v>528</v>
+        <v>208</v>
       </c>
       <c r="Q633" t="n">
         <v>18</v>
@@ -45981,7 +45981,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44552</v>
+        <v>44335</v>
       </c>
       <c r="E634" t="n">
         <v>4</v>
@@ -45996,7 +45996,7 @@
       </c>
       <c r="H634" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I634" t="inlineStr">
@@ -46005,16 +46005,16 @@
         </is>
       </c>
       <c r="J634" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="K634" t="n">
-        <v>19000</v>
+        <v>9500</v>
       </c>
       <c r="L634" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M634" t="n">
-        <v>19500</v>
+        <v>9750</v>
       </c>
       <c r="N634" t="inlineStr">
         <is>
@@ -46027,7 +46027,7 @@
         </is>
       </c>
       <c r="P634" t="n">
-        <v>1083</v>
+        <v>542</v>
       </c>
       <c r="Q634" t="n">
         <v>18</v>
@@ -46053,7 +46053,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44552</v>
+        <v>44335</v>
       </c>
       <c r="E635" t="n">
         <v>4</v>
@@ -46068,7 +46068,7 @@
       </c>
       <c r="H635" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I635" t="inlineStr">
@@ -46077,16 +46077,16 @@
         </is>
       </c>
       <c r="J635" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K635" t="n">
-        <v>16000</v>
+        <v>7500</v>
       </c>
       <c r="L635" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="M635" t="n">
-        <v>16500</v>
+        <v>7750</v>
       </c>
       <c r="N635" t="inlineStr">
         <is>
@@ -46099,7 +46099,7 @@
         </is>
       </c>
       <c r="P635" t="n">
-        <v>917</v>
+        <v>431</v>
       </c>
       <c r="Q635" t="n">
         <v>18</v>
@@ -46125,7 +46125,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44552</v>
+        <v>44335</v>
       </c>
       <c r="E636" t="n">
         <v>4</v>
@@ -46140,7 +46140,7 @@
       </c>
       <c r="H636" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I636" t="inlineStr">
@@ -46149,16 +46149,16 @@
         </is>
       </c>
       <c r="J636" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K636" t="n">
-        <v>14000</v>
+        <v>5500</v>
       </c>
       <c r="L636" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="M636" t="n">
-        <v>14500</v>
+        <v>5750</v>
       </c>
       <c r="N636" t="inlineStr">
         <is>
@@ -46171,7 +46171,7 @@
         </is>
       </c>
       <c r="P636" t="n">
-        <v>806</v>
+        <v>319</v>
       </c>
       <c r="Q636" t="n">
         <v>18</v>
@@ -46197,7 +46197,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44552</v>
+        <v>44335</v>
       </c>
       <c r="E637" t="n">
         <v>4</v>
@@ -46212,7 +46212,7 @@
       </c>
       <c r="H637" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I637" t="inlineStr">
@@ -46221,16 +46221,16 @@
         </is>
       </c>
       <c r="J637" t="n">
-        <v>720</v>
+        <v>600</v>
       </c>
       <c r="K637" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="L637" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M637" t="n">
-        <v>6500</v>
+        <v>13500</v>
       </c>
       <c r="N637" t="inlineStr">
         <is>
@@ -46243,7 +46243,7 @@
         </is>
       </c>
       <c r="P637" t="n">
-        <v>361</v>
+        <v>750</v>
       </c>
       <c r="Q637" t="n">
         <v>18</v>
@@ -46269,7 +46269,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44552</v>
+        <v>44335</v>
       </c>
       <c r="E638" t="n">
         <v>4</v>
@@ -46284,7 +46284,7 @@
       </c>
       <c r="H638" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I638" t="inlineStr">
@@ -46293,16 +46293,16 @@
         </is>
       </c>
       <c r="J638" t="n">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="K638" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="L638" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="M638" t="n">
-        <v>4500</v>
+        <v>11500</v>
       </c>
       <c r="N638" t="inlineStr">
         <is>
@@ -46315,7 +46315,7 @@
         </is>
       </c>
       <c r="P638" t="n">
-        <v>250</v>
+        <v>639</v>
       </c>
       <c r="Q638" t="n">
         <v>18</v>
@@ -46341,7 +46341,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44160</v>
+        <v>44335</v>
       </c>
       <c r="E639" t="n">
         <v>4</v>
@@ -46356,25 +46356,25 @@
       </c>
       <c r="H639" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I639" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J639" t="n">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="K639" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L639" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M639" t="n">
-        <v>13500</v>
+        <v>9500</v>
       </c>
       <c r="N639" t="inlineStr">
         <is>
@@ -46387,7 +46387,7 @@
         </is>
       </c>
       <c r="P639" t="n">
-        <v>750</v>
+        <v>528</v>
       </c>
       <c r="Q639" t="n">
         <v>18</v>
@@ -46413,7 +46413,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44160</v>
+        <v>44552</v>
       </c>
       <c r="E640" t="n">
         <v>4</v>
@@ -46428,25 +46428,25 @@
       </c>
       <c r="H640" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I640" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J640" t="n">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="K640" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="L640" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M640" t="n">
-        <v>9500</v>
+        <v>19500</v>
       </c>
       <c r="N640" t="inlineStr">
         <is>
@@ -46459,7 +46459,7 @@
         </is>
       </c>
       <c r="P640" t="n">
-        <v>528</v>
+        <v>1083</v>
       </c>
       <c r="Q640" t="n">
         <v>18</v>
@@ -46485,58 +46485,490 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="E641" t="n">
+        <v>4</v>
+      </c>
+      <c r="F641" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G641" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H641" t="inlineStr">
+        <is>
+          <t>Cuatro cascos rojo</t>
+        </is>
+      </c>
+      <c r="I641" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J641" t="n">
+        <v>300</v>
+      </c>
+      <c r="K641" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L641" t="n">
+        <v>17000</v>
+      </c>
+      <c r="M641" t="n">
+        <v>16500</v>
+      </c>
+      <c r="N641" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O641" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P641" t="n">
+        <v>917</v>
+      </c>
+      <c r="Q641" t="n">
+        <v>18</v>
+      </c>
+      <c r="R641" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="n">
+        <v>2</v>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D642" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="E642" t="n">
+        <v>4</v>
+      </c>
+      <c r="F642" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G642" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H642" t="inlineStr">
+        <is>
+          <t>Cuatro cascos rojo</t>
+        </is>
+      </c>
+      <c r="I642" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J642" t="n">
+        <v>300</v>
+      </c>
+      <c r="K642" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L642" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M642" t="n">
+        <v>14500</v>
+      </c>
+      <c r="N642" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O642" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P642" t="n">
+        <v>806</v>
+      </c>
+      <c r="Q642" t="n">
+        <v>18</v>
+      </c>
+      <c r="R642" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="n">
+        <v>2</v>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D643" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="E643" t="n">
+        <v>4</v>
+      </c>
+      <c r="F643" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G643" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H643" t="inlineStr">
+        <is>
+          <t>Cuatro cascos verde</t>
+        </is>
+      </c>
+      <c r="I643" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J643" t="n">
+        <v>720</v>
+      </c>
+      <c r="K643" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L643" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M643" t="n">
+        <v>6500</v>
+      </c>
+      <c r="N643" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O643" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P643" t="n">
+        <v>361</v>
+      </c>
+      <c r="Q643" t="n">
+        <v>18</v>
+      </c>
+      <c r="R643" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="n">
+        <v>2</v>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D644" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="E644" t="n">
+        <v>4</v>
+      </c>
+      <c r="F644" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G644" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H644" t="inlineStr">
+        <is>
+          <t>Cuatro cascos verde</t>
+        </is>
+      </c>
+      <c r="I644" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J644" t="n">
+        <v>560</v>
+      </c>
+      <c r="K644" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L644" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M644" t="n">
+        <v>4500</v>
+      </c>
+      <c r="N644" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O644" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P644" t="n">
+        <v>250</v>
+      </c>
+      <c r="Q644" t="n">
+        <v>18</v>
+      </c>
+      <c r="R644" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="n">
+        <v>2</v>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D645" s="2" t="n">
         <v>44160</v>
       </c>
-      <c r="E641" t="n">
-        <v>4</v>
-      </c>
-      <c r="F641" t="n">
-        <v>100112002</v>
-      </c>
-      <c r="G641" t="inlineStr">
-        <is>
-          <t>Pimiento</t>
-        </is>
-      </c>
-      <c r="H641" t="inlineStr">
+      <c r="E645" t="n">
+        <v>4</v>
+      </c>
+      <c r="F645" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G645" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H645" t="inlineStr">
         <is>
           <t>Cuatro cascos verde</t>
         </is>
       </c>
-      <c r="I641" t="inlineStr">
+      <c r="I645" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J645" t="n">
+        <v>1100</v>
+      </c>
+      <c r="K645" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L645" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M645" t="n">
+        <v>13500</v>
+      </c>
+      <c r="N645" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O645" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P645" t="n">
+        <v>750</v>
+      </c>
+      <c r="Q645" t="n">
+        <v>18</v>
+      </c>
+      <c r="R645" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="n">
+        <v>2</v>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D646" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E646" t="n">
+        <v>4</v>
+      </c>
+      <c r="F646" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G646" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H646" t="inlineStr">
+        <is>
+          <t>Cuatro cascos verde</t>
+        </is>
+      </c>
+      <c r="I646" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J646" t="n">
+        <v>1100</v>
+      </c>
+      <c r="K646" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L646" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M646" t="n">
+        <v>9500</v>
+      </c>
+      <c r="N646" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O646" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P646" t="n">
+        <v>528</v>
+      </c>
+      <c r="Q646" t="n">
+        <v>18</v>
+      </c>
+      <c r="R646" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="n">
+        <v>2</v>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D647" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E647" t="n">
+        <v>4</v>
+      </c>
+      <c r="F647" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G647" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H647" t="inlineStr">
+        <is>
+          <t>Cuatro cascos verde</t>
+        </is>
+      </c>
+      <c r="I647" t="inlineStr">
         <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="J641" t="n">
+      <c r="J647" t="n">
         <v>700</v>
       </c>
-      <c r="K641" t="n">
+      <c r="K647" t="n">
         <v>6000</v>
       </c>
-      <c r="L641" t="n">
+      <c r="L647" t="n">
         <v>7000</v>
       </c>
-      <c r="M641" t="n">
+      <c r="M647" t="n">
         <v>6500</v>
       </c>
-      <c r="N641" t="inlineStr">
-        <is>
-          <t>$/caja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O641" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P641" t="n">
+      <c r="N647" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O647" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P647" t="n">
         <v>361</v>
       </c>
-      <c r="Q641" t="n">
-        <v>18</v>
-      </c>
-      <c r="R641" t="inlineStr">
+      <c r="Q647" t="n">
+        <v>18</v>
+      </c>
+      <c r="R647" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pimiento.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pimiento.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R738"/>
+  <dimension ref="A1:R747"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45621,7 +45621,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44524</v>
+        <v>44637</v>
       </c>
       <c r="E629" t="n">
         <v>4</v>
@@ -45645,16 +45645,16 @@
         </is>
       </c>
       <c r="J629" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="K629" t="n">
-        <v>24000</v>
+        <v>11000</v>
       </c>
       <c r="L629" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="M629" t="n">
-        <v>24357</v>
+        <v>11500</v>
       </c>
       <c r="N629" t="inlineStr">
         <is>
@@ -45667,7 +45667,7 @@
         </is>
       </c>
       <c r="P629" t="n">
-        <v>1353</v>
+        <v>639</v>
       </c>
       <c r="Q629" t="n">
         <v>18</v>
@@ -45693,7 +45693,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44524</v>
+        <v>44637</v>
       </c>
       <c r="E630" t="n">
         <v>4</v>
@@ -45717,16 +45717,16 @@
         </is>
       </c>
       <c r="J630" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K630" t="n">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="L630" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M630" t="n">
-        <v>19500</v>
+        <v>9500</v>
       </c>
       <c r="N630" t="inlineStr">
         <is>
@@ -45739,7 +45739,7 @@
         </is>
       </c>
       <c r="P630" t="n">
-        <v>1083</v>
+        <v>528</v>
       </c>
       <c r="Q630" t="n">
         <v>18</v>
@@ -45765,7 +45765,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44524</v>
+        <v>44637</v>
       </c>
       <c r="E631" t="n">
         <v>4</v>
@@ -45789,16 +45789,16 @@
         </is>
       </c>
       <c r="J631" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="K631" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L631" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M631" t="n">
-        <v>14500</v>
+        <v>7500</v>
       </c>
       <c r="N631" t="inlineStr">
         <is>
@@ -45811,7 +45811,7 @@
         </is>
       </c>
       <c r="P631" t="n">
-        <v>806</v>
+        <v>417</v>
       </c>
       <c r="Q631" t="n">
         <v>18</v>
@@ -45837,7 +45837,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44524</v>
+        <v>44637</v>
       </c>
       <c r="E632" t="n">
         <v>4</v>
@@ -45861,16 +45861,16 @@
         </is>
       </c>
       <c r="J632" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K632" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L632" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M632" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="N632" t="inlineStr">
         <is>
@@ -45883,7 +45883,7 @@
         </is>
       </c>
       <c r="P632" t="n">
-        <v>639</v>
+        <v>417</v>
       </c>
       <c r="Q632" t="n">
         <v>18</v>
@@ -45909,7 +45909,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44524</v>
+        <v>44637</v>
       </c>
       <c r="E633" t="n">
         <v>4</v>
@@ -45933,16 +45933,16 @@
         </is>
       </c>
       <c r="J633" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K633" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L633" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M633" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="N633" t="inlineStr">
         <is>
@@ -45955,7 +45955,7 @@
         </is>
       </c>
       <c r="P633" t="n">
-        <v>472</v>
+        <v>306</v>
       </c>
       <c r="Q633" t="n">
         <v>18</v>
@@ -45981,7 +45981,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44524</v>
+        <v>44637</v>
       </c>
       <c r="E634" t="n">
         <v>4</v>
@@ -46008,13 +46008,13 @@
         <v>300</v>
       </c>
       <c r="K634" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L634" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M634" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="N634" t="inlineStr">
         <is>
@@ -46027,7 +46027,7 @@
         </is>
       </c>
       <c r="P634" t="n">
-        <v>306</v>
+        <v>194</v>
       </c>
       <c r="Q634" t="n">
         <v>18</v>
@@ -46053,7 +46053,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44483</v>
+        <v>44637</v>
       </c>
       <c r="E635" t="n">
         <v>4</v>
@@ -46068,7 +46068,7 @@
       </c>
       <c r="H635" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I635" t="inlineStr">
@@ -46077,16 +46077,16 @@
         </is>
       </c>
       <c r="J635" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K635" t="n">
-        <v>27000</v>
+        <v>11000</v>
       </c>
       <c r="L635" t="n">
-        <v>29000</v>
+        <v>12000</v>
       </c>
       <c r="M635" t="n">
-        <v>28000</v>
+        <v>11500</v>
       </c>
       <c r="N635" t="inlineStr">
         <is>
@@ -46099,7 +46099,7 @@
         </is>
       </c>
       <c r="P635" t="n">
-        <v>1556</v>
+        <v>639</v>
       </c>
       <c r="Q635" t="n">
         <v>18</v>
@@ -46125,7 +46125,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44483</v>
+        <v>44637</v>
       </c>
       <c r="E636" t="n">
         <v>4</v>
@@ -46140,7 +46140,7 @@
       </c>
       <c r="H636" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I636" t="inlineStr">
@@ -46152,13 +46152,13 @@
         <v>400</v>
       </c>
       <c r="K636" t="n">
-        <v>24000</v>
+        <v>9000</v>
       </c>
       <c r="L636" t="n">
-        <v>26000</v>
+        <v>10000</v>
       </c>
       <c r="M636" t="n">
-        <v>25000</v>
+        <v>9500</v>
       </c>
       <c r="N636" t="inlineStr">
         <is>
@@ -46171,7 +46171,7 @@
         </is>
       </c>
       <c r="P636" t="n">
-        <v>1389</v>
+        <v>528</v>
       </c>
       <c r="Q636" t="n">
         <v>18</v>
@@ -46197,7 +46197,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44483</v>
+        <v>44637</v>
       </c>
       <c r="E637" t="n">
         <v>4</v>
@@ -46212,7 +46212,7 @@
       </c>
       <c r="H637" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I637" t="inlineStr">
@@ -46221,16 +46221,16 @@
         </is>
       </c>
       <c r="J637" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K637" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="L637" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="M637" t="n">
-        <v>20000</v>
+        <v>7500</v>
       </c>
       <c r="N637" t="inlineStr">
         <is>
@@ -46243,7 +46243,7 @@
         </is>
       </c>
       <c r="P637" t="n">
-        <v>1111</v>
+        <v>417</v>
       </c>
       <c r="Q637" t="n">
         <v>18</v>
@@ -46269,7 +46269,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44294</v>
+        <v>44524</v>
       </c>
       <c r="E638" t="n">
         <v>4</v>
@@ -46284,7 +46284,7 @@
       </c>
       <c r="H638" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I638" t="inlineStr">
@@ -46293,16 +46293,16 @@
         </is>
       </c>
       <c r="J638" t="n">
-        <v>360</v>
+        <v>280</v>
       </c>
       <c r="K638" t="n">
-        <v>9500</v>
+        <v>24000</v>
       </c>
       <c r="L638" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="M638" t="n">
-        <v>9750</v>
+        <v>24357</v>
       </c>
       <c r="N638" t="inlineStr">
         <is>
@@ -46315,7 +46315,7 @@
         </is>
       </c>
       <c r="P638" t="n">
-        <v>542</v>
+        <v>1353</v>
       </c>
       <c r="Q638" t="n">
         <v>18</v>
@@ -46341,7 +46341,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44294</v>
+        <v>44524</v>
       </c>
       <c r="E639" t="n">
         <v>4</v>
@@ -46356,7 +46356,7 @@
       </c>
       <c r="H639" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I639" t="inlineStr">
@@ -46365,16 +46365,16 @@
         </is>
       </c>
       <c r="J639" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="K639" t="n">
-        <v>7500</v>
+        <v>19000</v>
       </c>
       <c r="L639" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="M639" t="n">
-        <v>7750</v>
+        <v>19500</v>
       </c>
       <c r="N639" t="inlineStr">
         <is>
@@ -46387,7 +46387,7 @@
         </is>
       </c>
       <c r="P639" t="n">
-        <v>431</v>
+        <v>1083</v>
       </c>
       <c r="Q639" t="n">
         <v>18</v>
@@ -46413,7 +46413,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44294</v>
+        <v>44524</v>
       </c>
       <c r="E640" t="n">
         <v>4</v>
@@ -46428,7 +46428,7 @@
       </c>
       <c r="H640" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I640" t="inlineStr">
@@ -46437,16 +46437,16 @@
         </is>
       </c>
       <c r="J640" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="K640" t="n">
-        <v>5500</v>
+        <v>14000</v>
       </c>
       <c r="L640" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="M640" t="n">
-        <v>5750</v>
+        <v>14500</v>
       </c>
       <c r="N640" t="inlineStr">
         <is>
@@ -46459,7 +46459,7 @@
         </is>
       </c>
       <c r="P640" t="n">
-        <v>319</v>
+        <v>806</v>
       </c>
       <c r="Q640" t="n">
         <v>18</v>
@@ -46485,7 +46485,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44294</v>
+        <v>44524</v>
       </c>
       <c r="E641" t="n">
         <v>4</v>
@@ -46500,7 +46500,7 @@
       </c>
       <c r="H641" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I641" t="inlineStr">
@@ -46509,20 +46509,20 @@
         </is>
       </c>
       <c r="J641" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="K641" t="n">
-        <v>5500</v>
+        <v>11000</v>
       </c>
       <c r="L641" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M641" t="n">
-        <v>5750</v>
+        <v>11500</v>
       </c>
       <c r="N641" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O641" t="inlineStr">
@@ -46531,10 +46531,10 @@
         </is>
       </c>
       <c r="P641" t="n">
-        <v>288</v>
+        <v>639</v>
       </c>
       <c r="Q641" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R641" t="inlineStr">
         <is>
@@ -46557,7 +46557,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44294</v>
+        <v>44524</v>
       </c>
       <c r="E642" t="n">
         <v>4</v>
@@ -46572,7 +46572,7 @@
       </c>
       <c r="H642" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I642" t="inlineStr">
@@ -46581,20 +46581,20 @@
         </is>
       </c>
       <c r="J642" t="n">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="K642" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="L642" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="M642" t="n">
-        <v>3750</v>
+        <v>8500</v>
       </c>
       <c r="N642" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O642" t="inlineStr">
@@ -46603,10 +46603,10 @@
         </is>
       </c>
       <c r="P642" t="n">
-        <v>188</v>
+        <v>472</v>
       </c>
       <c r="Q642" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R642" t="inlineStr">
         <is>
@@ -46629,7 +46629,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44294</v>
+        <v>44524</v>
       </c>
       <c r="E643" t="n">
         <v>4</v>
@@ -46644,7 +46644,7 @@
       </c>
       <c r="H643" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I643" t="inlineStr">
@@ -46653,20 +46653,20 @@
         </is>
       </c>
       <c r="J643" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K643" t="n">
-        <v>1500</v>
+        <v>5000</v>
       </c>
       <c r="L643" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="M643" t="n">
-        <v>1750</v>
+        <v>5500</v>
       </c>
       <c r="N643" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O643" t="inlineStr">
@@ -46675,10 +46675,10 @@
         </is>
       </c>
       <c r="P643" t="n">
-        <v>88</v>
+        <v>306</v>
       </c>
       <c r="Q643" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R643" t="inlineStr">
         <is>
@@ -46701,7 +46701,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44489</v>
+        <v>44483</v>
       </c>
       <c r="E644" t="n">
         <v>4</v>
@@ -46725,17 +46725,17 @@
         </is>
       </c>
       <c r="J644" t="n">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="K644" t="n">
-        <v>26000</v>
+        <v>27000</v>
       </c>
       <c r="L644" t="n">
+        <v>29000</v>
+      </c>
+      <c r="M644" t="n">
         <v>28000</v>
       </c>
-      <c r="M644" t="n">
-        <v>27000</v>
-      </c>
       <c r="N644" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
@@ -46747,7 +46747,7 @@
         </is>
       </c>
       <c r="P644" t="n">
-        <v>1500</v>
+        <v>1556</v>
       </c>
       <c r="Q644" t="n">
         <v>18</v>
@@ -46773,7 +46773,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44489</v>
+        <v>44483</v>
       </c>
       <c r="E645" t="n">
         <v>4</v>
@@ -46797,16 +46797,16 @@
         </is>
       </c>
       <c r="J645" t="n">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="K645" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="L645" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="M645" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="N645" t="inlineStr">
         <is>
@@ -46819,7 +46819,7 @@
         </is>
       </c>
       <c r="P645" t="n">
-        <v>1278</v>
+        <v>1389</v>
       </c>
       <c r="Q645" t="n">
         <v>18</v>
@@ -46845,7 +46845,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44489</v>
+        <v>44483</v>
       </c>
       <c r="E646" t="n">
         <v>4</v>
@@ -46869,17 +46869,17 @@
         </is>
       </c>
       <c r="J646" t="n">
-        <v>1200</v>
+        <v>240</v>
       </c>
       <c r="K646" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="L646" t="n">
+        <v>21000</v>
+      </c>
+      <c r="M646" t="n">
         <v>20000</v>
       </c>
-      <c r="M646" t="n">
-        <v>19000</v>
-      </c>
       <c r="N646" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
@@ -46891,7 +46891,7 @@
         </is>
       </c>
       <c r="P646" t="n">
-        <v>1056</v>
+        <v>1111</v>
       </c>
       <c r="Q646" t="n">
         <v>18</v>
@@ -46917,7 +46917,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44279</v>
+        <v>44294</v>
       </c>
       <c r="E647" t="n">
         <v>4</v>
@@ -46932,7 +46932,7 @@
       </c>
       <c r="H647" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I647" t="inlineStr">
@@ -46941,16 +46941,16 @@
         </is>
       </c>
       <c r="J647" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K647" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L647" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M647" t="n">
-        <v>7750</v>
+        <v>9750</v>
       </c>
       <c r="N647" t="inlineStr">
         <is>
@@ -46963,7 +46963,7 @@
         </is>
       </c>
       <c r="P647" t="n">
-        <v>431</v>
+        <v>542</v>
       </c>
       <c r="Q647" t="n">
         <v>18</v>
@@ -46989,7 +46989,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44279</v>
+        <v>44294</v>
       </c>
       <c r="E648" t="n">
         <v>4</v>
@@ -47004,7 +47004,7 @@
       </c>
       <c r="H648" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I648" t="inlineStr">
@@ -47013,16 +47013,16 @@
         </is>
       </c>
       <c r="J648" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="K648" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L648" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M648" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N648" t="inlineStr">
         <is>
@@ -47035,7 +47035,7 @@
         </is>
       </c>
       <c r="P648" t="n">
-        <v>319</v>
+        <v>431</v>
       </c>
       <c r="Q648" t="n">
         <v>18</v>
@@ -47061,7 +47061,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44279</v>
+        <v>44294</v>
       </c>
       <c r="E649" t="n">
         <v>4</v>
@@ -47076,7 +47076,7 @@
       </c>
       <c r="H649" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I649" t="inlineStr">
@@ -47085,16 +47085,16 @@
         </is>
       </c>
       <c r="J649" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K649" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L649" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M649" t="n">
-        <v>3750</v>
+        <v>5750</v>
       </c>
       <c r="N649" t="inlineStr">
         <is>
@@ -47107,7 +47107,7 @@
         </is>
       </c>
       <c r="P649" t="n">
-        <v>208</v>
+        <v>319</v>
       </c>
       <c r="Q649" t="n">
         <v>18</v>
@@ -47133,7 +47133,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44279</v>
+        <v>44294</v>
       </c>
       <c r="E650" t="n">
         <v>4</v>
@@ -47148,7 +47148,7 @@
       </c>
       <c r="H650" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I650" t="inlineStr">
@@ -47157,7 +47157,7 @@
         </is>
       </c>
       <c r="J650" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K650" t="n">
         <v>5500</v>
@@ -47170,7 +47170,7 @@
       </c>
       <c r="N650" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O650" t="inlineStr">
@@ -47179,10 +47179,10 @@
         </is>
       </c>
       <c r="P650" t="n">
-        <v>319</v>
+        <v>288</v>
       </c>
       <c r="Q650" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R650" t="inlineStr">
         <is>
@@ -47205,7 +47205,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44279</v>
+        <v>44294</v>
       </c>
       <c r="E651" t="n">
         <v>4</v>
@@ -47220,7 +47220,7 @@
       </c>
       <c r="H651" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I651" t="inlineStr">
@@ -47242,7 +47242,7 @@
       </c>
       <c r="N651" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O651" t="inlineStr">
@@ -47251,10 +47251,10 @@
         </is>
       </c>
       <c r="P651" t="n">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="Q651" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R651" t="inlineStr">
         <is>
@@ -47277,7 +47277,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44279</v>
+        <v>44294</v>
       </c>
       <c r="E652" t="n">
         <v>4</v>
@@ -47292,7 +47292,7 @@
       </c>
       <c r="H652" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I652" t="inlineStr">
@@ -47314,7 +47314,7 @@
       </c>
       <c r="N652" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O652" t="inlineStr">
@@ -47323,10 +47323,10 @@
         </is>
       </c>
       <c r="P652" t="n">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="Q652" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R652" t="inlineStr">
         <is>
@@ -47349,7 +47349,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44504</v>
+        <v>44489</v>
       </c>
       <c r="E653" t="n">
         <v>4</v>
@@ -47373,16 +47373,16 @@
         </is>
       </c>
       <c r="J653" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="K653" t="n">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="L653" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="M653" t="n">
-        <v>23500</v>
+        <v>27000</v>
       </c>
       <c r="N653" t="inlineStr">
         <is>
@@ -47395,7 +47395,7 @@
         </is>
       </c>
       <c r="P653" t="n">
-        <v>1306</v>
+        <v>1500</v>
       </c>
       <c r="Q653" t="n">
         <v>18</v>
@@ -47421,7 +47421,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44504</v>
+        <v>44489</v>
       </c>
       <c r="E654" t="n">
         <v>4</v>
@@ -47445,16 +47445,16 @@
         </is>
       </c>
       <c r="J654" t="n">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="K654" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="L654" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="M654" t="n">
-        <v>18500</v>
+        <v>23000</v>
       </c>
       <c r="N654" t="inlineStr">
         <is>
@@ -47467,7 +47467,7 @@
         </is>
       </c>
       <c r="P654" t="n">
-        <v>1028</v>
+        <v>1278</v>
       </c>
       <c r="Q654" t="n">
         <v>18</v>
@@ -47493,7 +47493,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44504</v>
+        <v>44489</v>
       </c>
       <c r="E655" t="n">
         <v>4</v>
@@ -47517,16 +47517,16 @@
         </is>
       </c>
       <c r="J655" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="K655" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L655" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M655" t="n">
-        <v>13500</v>
+        <v>19000</v>
       </c>
       <c r="N655" t="inlineStr">
         <is>
@@ -47539,7 +47539,7 @@
         </is>
       </c>
       <c r="P655" t="n">
-        <v>750</v>
+        <v>1056</v>
       </c>
       <c r="Q655" t="n">
         <v>18</v>
@@ -47565,7 +47565,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44301</v>
+        <v>44279</v>
       </c>
       <c r="E656" t="n">
         <v>4</v>
@@ -47580,7 +47580,7 @@
       </c>
       <c r="H656" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I656" t="inlineStr">
@@ -47589,16 +47589,16 @@
         </is>
       </c>
       <c r="J656" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K656" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L656" t="n">
         <v>8000</v>
       </c>
       <c r="M656" t="n">
-        <v>7500</v>
+        <v>7750</v>
       </c>
       <c r="N656" t="inlineStr">
         <is>
@@ -47611,7 +47611,7 @@
         </is>
       </c>
       <c r="P656" t="n">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="Q656" t="n">
         <v>18</v>
@@ -47637,7 +47637,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44301</v>
+        <v>44279</v>
       </c>
       <c r="E657" t="n">
         <v>4</v>
@@ -47652,7 +47652,7 @@
       </c>
       <c r="H657" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I657" t="inlineStr">
@@ -47661,16 +47661,16 @@
         </is>
       </c>
       <c r="J657" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K657" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L657" t="n">
         <v>6000</v>
       </c>
       <c r="M657" t="n">
-        <v>5500</v>
+        <v>5750</v>
       </c>
       <c r="N657" t="inlineStr">
         <is>
@@ -47683,7 +47683,7 @@
         </is>
       </c>
       <c r="P657" t="n">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="Q657" t="n">
         <v>18</v>
@@ -47709,7 +47709,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44301</v>
+        <v>44279</v>
       </c>
       <c r="E658" t="n">
         <v>4</v>
@@ -47724,7 +47724,7 @@
       </c>
       <c r="H658" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I658" t="inlineStr">
@@ -47733,16 +47733,16 @@
         </is>
       </c>
       <c r="J658" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="K658" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L658" t="n">
         <v>4000</v>
       </c>
       <c r="M658" t="n">
-        <v>3500</v>
+        <v>3750</v>
       </c>
       <c r="N658" t="inlineStr">
         <is>
@@ -47755,7 +47755,7 @@
         </is>
       </c>
       <c r="P658" t="n">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="Q658" t="n">
         <v>18</v>
@@ -47781,7 +47781,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44301</v>
+        <v>44279</v>
       </c>
       <c r="E659" t="n">
         <v>4</v>
@@ -47796,7 +47796,7 @@
       </c>
       <c r="H659" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I659" t="inlineStr">
@@ -47805,16 +47805,16 @@
         </is>
       </c>
       <c r="J659" t="n">
-        <v>700</v>
+        <v>360</v>
       </c>
       <c r="K659" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L659" t="n">
         <v>6000</v>
       </c>
       <c r="M659" t="n">
-        <v>5500</v>
+        <v>5750</v>
       </c>
       <c r="N659" t="inlineStr">
         <is>
@@ -47827,7 +47827,7 @@
         </is>
       </c>
       <c r="P659" t="n">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="Q659" t="n">
         <v>18</v>
@@ -47853,7 +47853,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44301</v>
+        <v>44279</v>
       </c>
       <c r="E660" t="n">
         <v>4</v>
@@ -47868,7 +47868,7 @@
       </c>
       <c r="H660" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I660" t="inlineStr">
@@ -47877,16 +47877,16 @@
         </is>
       </c>
       <c r="J660" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="K660" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L660" t="n">
         <v>4000</v>
       </c>
       <c r="M660" t="n">
-        <v>3500</v>
+        <v>3750</v>
       </c>
       <c r="N660" t="inlineStr">
         <is>
@@ -47899,7 +47899,7 @@
         </is>
       </c>
       <c r="P660" t="n">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="Q660" t="n">
         <v>18</v>
@@ -47925,7 +47925,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44370</v>
+        <v>44279</v>
       </c>
       <c r="E661" t="n">
         <v>4</v>
@@ -47940,25 +47940,25 @@
       </c>
       <c r="H661" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I661" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J661" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="K661" t="n">
-        <v>16500</v>
+        <v>1500</v>
       </c>
       <c r="L661" t="n">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="M661" t="n">
-        <v>16750</v>
+        <v>1750</v>
       </c>
       <c r="N661" t="inlineStr">
         <is>
@@ -47971,7 +47971,7 @@
         </is>
       </c>
       <c r="P661" t="n">
-        <v>931</v>
+        <v>97</v>
       </c>
       <c r="Q661" t="n">
         <v>18</v>
@@ -47997,7 +47997,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44370</v>
+        <v>44504</v>
       </c>
       <c r="E662" t="n">
         <v>4</v>
@@ -48012,25 +48012,25 @@
       </c>
       <c r="H662" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I662" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J662" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K662" t="n">
-        <v>13500</v>
+        <v>23000</v>
       </c>
       <c r="L662" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="M662" t="n">
-        <v>13750</v>
+        <v>23500</v>
       </c>
       <c r="N662" t="inlineStr">
         <is>
@@ -48043,7 +48043,7 @@
         </is>
       </c>
       <c r="P662" t="n">
-        <v>764</v>
+        <v>1306</v>
       </c>
       <c r="Q662" t="n">
         <v>18</v>
@@ -48069,7 +48069,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44370</v>
+        <v>44504</v>
       </c>
       <c r="E663" t="n">
         <v>4</v>
@@ -48084,25 +48084,25 @@
       </c>
       <c r="H663" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I663" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J663" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K663" t="n">
-        <v>11500</v>
+        <v>18000</v>
       </c>
       <c r="L663" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="M663" t="n">
-        <v>11750</v>
+        <v>18500</v>
       </c>
       <c r="N663" t="inlineStr">
         <is>
@@ -48115,7 +48115,7 @@
         </is>
       </c>
       <c r="P663" t="n">
-        <v>653</v>
+        <v>1028</v>
       </c>
       <c r="Q663" t="n">
         <v>18</v>
@@ -48141,7 +48141,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44370</v>
+        <v>44504</v>
       </c>
       <c r="E664" t="n">
         <v>4</v>
@@ -48161,20 +48161,20 @@
       </c>
       <c r="I664" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J664" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K664" t="n">
-        <v>15500</v>
+        <v>13000</v>
       </c>
       <c r="L664" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M664" t="n">
-        <v>15750</v>
+        <v>13500</v>
       </c>
       <c r="N664" t="inlineStr">
         <is>
@@ -48187,7 +48187,7 @@
         </is>
       </c>
       <c r="P664" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="Q664" t="n">
         <v>18</v>
@@ -48213,7 +48213,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44370</v>
+        <v>44301</v>
       </c>
       <c r="E665" t="n">
         <v>4</v>
@@ -48233,20 +48233,20 @@
       </c>
       <c r="I665" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J665" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K665" t="n">
-        <v>12500</v>
+        <v>7000</v>
       </c>
       <c r="L665" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M665" t="n">
-        <v>12750</v>
+        <v>7500</v>
       </c>
       <c r="N665" t="inlineStr">
         <is>
@@ -48259,7 +48259,7 @@
         </is>
       </c>
       <c r="P665" t="n">
-        <v>708</v>
+        <v>417</v>
       </c>
       <c r="Q665" t="n">
         <v>18</v>
@@ -48285,7 +48285,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44370</v>
+        <v>44301</v>
       </c>
       <c r="E666" t="n">
         <v>4</v>
@@ -48305,20 +48305,20 @@
       </c>
       <c r="I666" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J666" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K666" t="n">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="L666" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M666" t="n">
-        <v>9750</v>
+        <v>5500</v>
       </c>
       <c r="N666" t="inlineStr">
         <is>
@@ -48331,7 +48331,7 @@
         </is>
       </c>
       <c r="P666" t="n">
-        <v>542</v>
+        <v>306</v>
       </c>
       <c r="Q666" t="n">
         <v>18</v>
@@ -48357,7 +48357,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44370</v>
+        <v>44301</v>
       </c>
       <c r="E667" t="n">
         <v>4</v>
@@ -48372,25 +48372,25 @@
       </c>
       <c r="H667" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I667" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J667" t="n">
-        <v>700</v>
+        <v>240</v>
       </c>
       <c r="K667" t="n">
-        <v>13500</v>
+        <v>3000</v>
       </c>
       <c r="L667" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="M667" t="n">
-        <v>13750</v>
+        <v>3500</v>
       </c>
       <c r="N667" t="inlineStr">
         <is>
@@ -48403,7 +48403,7 @@
         </is>
       </c>
       <c r="P667" t="n">
-        <v>764</v>
+        <v>194</v>
       </c>
       <c r="Q667" t="n">
         <v>18</v>
@@ -48429,7 +48429,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44370</v>
+        <v>44301</v>
       </c>
       <c r="E668" t="n">
         <v>4</v>
@@ -48449,20 +48449,20 @@
       </c>
       <c r="I668" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J668" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K668" t="n">
-        <v>11500</v>
+        <v>5000</v>
       </c>
       <c r="L668" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M668" t="n">
-        <v>11750</v>
+        <v>5500</v>
       </c>
       <c r="N668" t="inlineStr">
         <is>
@@ -48475,7 +48475,7 @@
         </is>
       </c>
       <c r="P668" t="n">
-        <v>653</v>
+        <v>306</v>
       </c>
       <c r="Q668" t="n">
         <v>18</v>
@@ -48501,7 +48501,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44370</v>
+        <v>44301</v>
       </c>
       <c r="E669" t="n">
         <v>4</v>
@@ -48521,20 +48521,20 @@
       </c>
       <c r="I669" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J669" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K669" t="n">
-        <v>9500</v>
+        <v>3000</v>
       </c>
       <c r="L669" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M669" t="n">
-        <v>9750</v>
+        <v>3500</v>
       </c>
       <c r="N669" t="inlineStr">
         <is>
@@ -48547,7 +48547,7 @@
         </is>
       </c>
       <c r="P669" t="n">
-        <v>542</v>
+        <v>194</v>
       </c>
       <c r="Q669" t="n">
         <v>18</v>
@@ -48573,7 +48573,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44385</v>
+        <v>44370</v>
       </c>
       <c r="E670" t="n">
         <v>4</v>
@@ -48588,7 +48588,7 @@
       </c>
       <c r="H670" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I670" t="inlineStr">
@@ -48597,16 +48597,16 @@
         </is>
       </c>
       <c r="J670" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K670" t="n">
-        <v>11500</v>
+        <v>16500</v>
       </c>
       <c r="L670" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M670" t="n">
-        <v>11750</v>
+        <v>16750</v>
       </c>
       <c r="N670" t="inlineStr">
         <is>
@@ -48619,7 +48619,7 @@
         </is>
       </c>
       <c r="P670" t="n">
-        <v>653</v>
+        <v>931</v>
       </c>
       <c r="Q670" t="n">
         <v>18</v>
@@ -48645,7 +48645,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44385</v>
+        <v>44370</v>
       </c>
       <c r="E671" t="n">
         <v>4</v>
@@ -48660,7 +48660,7 @@
       </c>
       <c r="H671" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I671" t="inlineStr">
@@ -48672,13 +48672,13 @@
         <v>500</v>
       </c>
       <c r="K671" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="L671" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M671" t="n">
-        <v>9750</v>
+        <v>13750</v>
       </c>
       <c r="N671" t="inlineStr">
         <is>
@@ -48691,7 +48691,7 @@
         </is>
       </c>
       <c r="P671" t="n">
-        <v>542</v>
+        <v>764</v>
       </c>
       <c r="Q671" t="n">
         <v>18</v>
@@ -48717,7 +48717,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44385</v>
+        <v>44370</v>
       </c>
       <c r="E672" t="n">
         <v>4</v>
@@ -48732,7 +48732,7 @@
       </c>
       <c r="H672" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I672" t="inlineStr">
@@ -48741,16 +48741,16 @@
         </is>
       </c>
       <c r="J672" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K672" t="n">
-        <v>6500</v>
+        <v>11500</v>
       </c>
       <c r="L672" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M672" t="n">
-        <v>6750</v>
+        <v>11750</v>
       </c>
       <c r="N672" t="inlineStr">
         <is>
@@ -48763,7 +48763,7 @@
         </is>
       </c>
       <c r="P672" t="n">
-        <v>375</v>
+        <v>653</v>
       </c>
       <c r="Q672" t="n">
         <v>18</v>
@@ -48789,7 +48789,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44385</v>
+        <v>44370</v>
       </c>
       <c r="E673" t="n">
         <v>4</v>
@@ -48804,7 +48804,7 @@
       </c>
       <c r="H673" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I673" t="inlineStr">
@@ -48813,16 +48813,16 @@
         </is>
       </c>
       <c r="J673" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K673" t="n">
-        <v>10500</v>
+        <v>15500</v>
       </c>
       <c r="L673" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="M673" t="n">
-        <v>10750</v>
+        <v>15750</v>
       </c>
       <c r="N673" t="inlineStr">
         <is>
@@ -48835,7 +48835,7 @@
         </is>
       </c>
       <c r="P673" t="n">
-        <v>597</v>
+        <v>875</v>
       </c>
       <c r="Q673" t="n">
         <v>18</v>
@@ -48861,7 +48861,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44385</v>
+        <v>44370</v>
       </c>
       <c r="E674" t="n">
         <v>4</v>
@@ -48876,7 +48876,7 @@
       </c>
       <c r="H674" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I674" t="inlineStr">
@@ -48885,16 +48885,16 @@
         </is>
       </c>
       <c r="J674" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K674" t="n">
-        <v>8500</v>
+        <v>12500</v>
       </c>
       <c r="L674" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M674" t="n">
-        <v>8750</v>
+        <v>12750</v>
       </c>
       <c r="N674" t="inlineStr">
         <is>
@@ -48907,7 +48907,7 @@
         </is>
       </c>
       <c r="P674" t="n">
-        <v>486</v>
+        <v>708</v>
       </c>
       <c r="Q674" t="n">
         <v>18</v>
@@ -48933,7 +48933,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44385</v>
+        <v>44370</v>
       </c>
       <c r="E675" t="n">
         <v>4</v>
@@ -48948,7 +48948,7 @@
       </c>
       <c r="H675" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I675" t="inlineStr">
@@ -48957,16 +48957,16 @@
         </is>
       </c>
       <c r="J675" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K675" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="L675" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M675" t="n">
-        <v>6750</v>
+        <v>9750</v>
       </c>
       <c r="N675" t="inlineStr">
         <is>
@@ -48979,7 +48979,7 @@
         </is>
       </c>
       <c r="P675" t="n">
-        <v>375</v>
+        <v>542</v>
       </c>
       <c r="Q675" t="n">
         <v>18</v>
@@ -49005,7 +49005,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44413</v>
+        <v>44370</v>
       </c>
       <c r="E676" t="n">
         <v>4</v>
@@ -49020,7 +49020,7 @@
       </c>
       <c r="H676" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I676" t="inlineStr">
@@ -49029,16 +49029,16 @@
         </is>
       </c>
       <c r="J676" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K676" t="n">
-        <v>19000</v>
+        <v>13500</v>
       </c>
       <c r="L676" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M676" t="n">
-        <v>19500</v>
+        <v>13750</v>
       </c>
       <c r="N676" t="inlineStr">
         <is>
@@ -49051,7 +49051,7 @@
         </is>
       </c>
       <c r="P676" t="n">
-        <v>1083</v>
+        <v>764</v>
       </c>
       <c r="Q676" t="n">
         <v>18</v>
@@ -49077,7 +49077,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44413</v>
+        <v>44370</v>
       </c>
       <c r="E677" t="n">
         <v>4</v>
@@ -49092,7 +49092,7 @@
       </c>
       <c r="H677" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I677" t="inlineStr">
@@ -49101,16 +49101,16 @@
         </is>
       </c>
       <c r="J677" t="n">
-        <v>360</v>
+        <v>600</v>
       </c>
       <c r="K677" t="n">
-        <v>16000</v>
+        <v>11500</v>
       </c>
       <c r="L677" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M677" t="n">
-        <v>16500</v>
+        <v>11750</v>
       </c>
       <c r="N677" t="inlineStr">
         <is>
@@ -49123,7 +49123,7 @@
         </is>
       </c>
       <c r="P677" t="n">
-        <v>917</v>
+        <v>653</v>
       </c>
       <c r="Q677" t="n">
         <v>18</v>
@@ -49149,7 +49149,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44413</v>
+        <v>44370</v>
       </c>
       <c r="E678" t="n">
         <v>4</v>
@@ -49164,7 +49164,7 @@
       </c>
       <c r="H678" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I678" t="inlineStr">
@@ -49173,16 +49173,16 @@
         </is>
       </c>
       <c r="J678" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K678" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="L678" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M678" t="n">
-        <v>13500</v>
+        <v>9750</v>
       </c>
       <c r="N678" t="inlineStr">
         <is>
@@ -49195,7 +49195,7 @@
         </is>
       </c>
       <c r="P678" t="n">
-        <v>750</v>
+        <v>542</v>
       </c>
       <c r="Q678" t="n">
         <v>18</v>
@@ -49221,7 +49221,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44413</v>
+        <v>44385</v>
       </c>
       <c r="E679" t="n">
         <v>4</v>
@@ -49236,7 +49236,7 @@
       </c>
       <c r="H679" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I679" t="inlineStr">
@@ -49245,16 +49245,16 @@
         </is>
       </c>
       <c r="J679" t="n">
-        <v>710</v>
+        <v>800</v>
       </c>
       <c r="K679" t="n">
-        <v>21000</v>
+        <v>11500</v>
       </c>
       <c r="L679" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="M679" t="n">
-        <v>21493</v>
+        <v>11750</v>
       </c>
       <c r="N679" t="inlineStr">
         <is>
@@ -49267,7 +49267,7 @@
         </is>
       </c>
       <c r="P679" t="n">
-        <v>1194</v>
+        <v>653</v>
       </c>
       <c r="Q679" t="n">
         <v>18</v>
@@ -49293,7 +49293,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44413</v>
+        <v>44385</v>
       </c>
       <c r="E680" t="n">
         <v>4</v>
@@ -49308,7 +49308,7 @@
       </c>
       <c r="H680" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I680" t="inlineStr">
@@ -49317,16 +49317,16 @@
         </is>
       </c>
       <c r="J680" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K680" t="n">
-        <v>17000</v>
+        <v>9500</v>
       </c>
       <c r="L680" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M680" t="n">
-        <v>17500</v>
+        <v>9750</v>
       </c>
       <c r="N680" t="inlineStr">
         <is>
@@ -49339,7 +49339,7 @@
         </is>
       </c>
       <c r="P680" t="n">
-        <v>972</v>
+        <v>542</v>
       </c>
       <c r="Q680" t="n">
         <v>18</v>
@@ -49365,7 +49365,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44413</v>
+        <v>44385</v>
       </c>
       <c r="E681" t="n">
         <v>4</v>
@@ -49380,7 +49380,7 @@
       </c>
       <c r="H681" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I681" t="inlineStr">
@@ -49392,13 +49392,13 @@
         <v>200</v>
       </c>
       <c r="K681" t="n">
-        <v>14000</v>
+        <v>6500</v>
       </c>
       <c r="L681" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M681" t="n">
-        <v>14500</v>
+        <v>6750</v>
       </c>
       <c r="N681" t="inlineStr">
         <is>
@@ -49411,7 +49411,7 @@
         </is>
       </c>
       <c r="P681" t="n">
-        <v>806</v>
+        <v>375</v>
       </c>
       <c r="Q681" t="n">
         <v>18</v>
@@ -49437,7 +49437,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44272</v>
+        <v>44385</v>
       </c>
       <c r="E682" t="n">
         <v>4</v>
@@ -49452,7 +49452,7 @@
       </c>
       <c r="H682" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I682" t="inlineStr">
@@ -49461,16 +49461,16 @@
         </is>
       </c>
       <c r="J682" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K682" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="L682" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M682" t="n">
-        <v>7750</v>
+        <v>10750</v>
       </c>
       <c r="N682" t="inlineStr">
         <is>
@@ -49483,7 +49483,7 @@
         </is>
       </c>
       <c r="P682" t="n">
-        <v>431</v>
+        <v>597</v>
       </c>
       <c r="Q682" t="n">
         <v>18</v>
@@ -49509,7 +49509,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44272</v>
+        <v>44385</v>
       </c>
       <c r="E683" t="n">
         <v>4</v>
@@ -49524,7 +49524,7 @@
       </c>
       <c r="H683" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I683" t="inlineStr">
@@ -49533,16 +49533,16 @@
         </is>
       </c>
       <c r="J683" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K683" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="L683" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M683" t="n">
-        <v>5750</v>
+        <v>8750</v>
       </c>
       <c r="N683" t="inlineStr">
         <is>
@@ -49555,7 +49555,7 @@
         </is>
       </c>
       <c r="P683" t="n">
-        <v>319</v>
+        <v>486</v>
       </c>
       <c r="Q683" t="n">
         <v>18</v>
@@ -49581,7 +49581,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44272</v>
+        <v>44385</v>
       </c>
       <c r="E684" t="n">
         <v>4</v>
@@ -49596,7 +49596,7 @@
       </c>
       <c r="H684" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I684" t="inlineStr">
@@ -49608,13 +49608,13 @@
         <v>240</v>
       </c>
       <c r="K684" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="L684" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M684" t="n">
-        <v>3750</v>
+        <v>6750</v>
       </c>
       <c r="N684" t="inlineStr">
         <is>
@@ -49627,7 +49627,7 @@
         </is>
       </c>
       <c r="P684" t="n">
-        <v>208</v>
+        <v>375</v>
       </c>
       <c r="Q684" t="n">
         <v>18</v>
@@ -49653,7 +49653,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44272</v>
+        <v>44413</v>
       </c>
       <c r="E685" t="n">
         <v>4</v>
@@ -49677,16 +49677,16 @@
         </is>
       </c>
       <c r="J685" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K685" t="n">
-        <v>5500</v>
+        <v>19000</v>
       </c>
       <c r="L685" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="M685" t="n">
-        <v>5750</v>
+        <v>19500</v>
       </c>
       <c r="N685" t="inlineStr">
         <is>
@@ -49699,7 +49699,7 @@
         </is>
       </c>
       <c r="P685" t="n">
-        <v>319</v>
+        <v>1083</v>
       </c>
       <c r="Q685" t="n">
         <v>18</v>
@@ -49725,7 +49725,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44272</v>
+        <v>44413</v>
       </c>
       <c r="E686" t="n">
         <v>4</v>
@@ -49749,16 +49749,16 @@
         </is>
       </c>
       <c r="J686" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K686" t="n">
-        <v>3500</v>
+        <v>16000</v>
       </c>
       <c r="L686" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="M686" t="n">
-        <v>3750</v>
+        <v>16500</v>
       </c>
       <c r="N686" t="inlineStr">
         <is>
@@ -49771,7 +49771,7 @@
         </is>
       </c>
       <c r="P686" t="n">
-        <v>208</v>
+        <v>917</v>
       </c>
       <c r="Q686" t="n">
         <v>18</v>
@@ -49797,7 +49797,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44272</v>
+        <v>44413</v>
       </c>
       <c r="E687" t="n">
         <v>4</v>
@@ -49824,13 +49824,13 @@
         <v>300</v>
       </c>
       <c r="K687" t="n">
-        <v>1500</v>
+        <v>13000</v>
       </c>
       <c r="L687" t="n">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="M687" t="n">
-        <v>1750</v>
+        <v>13500</v>
       </c>
       <c r="N687" t="inlineStr">
         <is>
@@ -49843,7 +49843,7 @@
         </is>
       </c>
       <c r="P687" t="n">
-        <v>97</v>
+        <v>750</v>
       </c>
       <c r="Q687" t="n">
         <v>18</v>
@@ -49869,7 +49869,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44399</v>
+        <v>44413</v>
       </c>
       <c r="E688" t="n">
         <v>4</v>
@@ -49884,7 +49884,7 @@
       </c>
       <c r="H688" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I688" t="inlineStr">
@@ -49893,16 +49893,16 @@
         </is>
       </c>
       <c r="J688" t="n">
-        <v>500</v>
+        <v>710</v>
       </c>
       <c r="K688" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="L688" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="M688" t="n">
-        <v>16500</v>
+        <v>21493</v>
       </c>
       <c r="N688" t="inlineStr">
         <is>
@@ -49915,7 +49915,7 @@
         </is>
       </c>
       <c r="P688" t="n">
-        <v>917</v>
+        <v>1194</v>
       </c>
       <c r="Q688" t="n">
         <v>18</v>
@@ -49941,7 +49941,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44399</v>
+        <v>44413</v>
       </c>
       <c r="E689" t="n">
         <v>4</v>
@@ -49956,7 +49956,7 @@
       </c>
       <c r="H689" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I689" t="inlineStr">
@@ -49965,16 +49965,16 @@
         </is>
       </c>
       <c r="J689" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K689" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L689" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M689" t="n">
-        <v>13500</v>
+        <v>17500</v>
       </c>
       <c r="N689" t="inlineStr">
         <is>
@@ -49987,7 +49987,7 @@
         </is>
       </c>
       <c r="P689" t="n">
-        <v>750</v>
+        <v>972</v>
       </c>
       <c r="Q689" t="n">
         <v>18</v>
@@ -50013,7 +50013,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44399</v>
+        <v>44413</v>
       </c>
       <c r="E690" t="n">
         <v>4</v>
@@ -50028,7 +50028,7 @@
       </c>
       <c r="H690" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I690" t="inlineStr">
@@ -50040,13 +50040,13 @@
         <v>200</v>
       </c>
       <c r="K690" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L690" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M690" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="N690" t="inlineStr">
         <is>
@@ -50059,7 +50059,7 @@
         </is>
       </c>
       <c r="P690" t="n">
-        <v>528</v>
+        <v>806</v>
       </c>
       <c r="Q690" t="n">
         <v>18</v>
@@ -50085,7 +50085,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44399</v>
+        <v>44272</v>
       </c>
       <c r="E691" t="n">
         <v>4</v>
@@ -50100,7 +50100,7 @@
       </c>
       <c r="H691" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I691" t="inlineStr">
@@ -50109,16 +50109,16 @@
         </is>
       </c>
       <c r="J691" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K691" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="L691" t="n">
-        <v>18500</v>
+        <v>8000</v>
       </c>
       <c r="M691" t="n">
-        <v>18250</v>
+        <v>7750</v>
       </c>
       <c r="N691" t="inlineStr">
         <is>
@@ -50131,7 +50131,7 @@
         </is>
       </c>
       <c r="P691" t="n">
-        <v>1014</v>
+        <v>431</v>
       </c>
       <c r="Q691" t="n">
         <v>18</v>
@@ -50157,7 +50157,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44399</v>
+        <v>44272</v>
       </c>
       <c r="E692" t="n">
         <v>4</v>
@@ -50172,7 +50172,7 @@
       </c>
       <c r="H692" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I692" t="inlineStr">
@@ -50181,16 +50181,16 @@
         </is>
       </c>
       <c r="J692" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K692" t="n">
-        <v>16000</v>
+        <v>5500</v>
       </c>
       <c r="L692" t="n">
-        <v>16500</v>
+        <v>6000</v>
       </c>
       <c r="M692" t="n">
-        <v>16250</v>
+        <v>5750</v>
       </c>
       <c r="N692" t="inlineStr">
         <is>
@@ -50203,7 +50203,7 @@
         </is>
       </c>
       <c r="P692" t="n">
-        <v>903</v>
+        <v>319</v>
       </c>
       <c r="Q692" t="n">
         <v>18</v>
@@ -50229,7 +50229,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44399</v>
+        <v>44272</v>
       </c>
       <c r="E693" t="n">
         <v>4</v>
@@ -50244,7 +50244,7 @@
       </c>
       <c r="H693" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I693" t="inlineStr">
@@ -50253,16 +50253,16 @@
         </is>
       </c>
       <c r="J693" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K693" t="n">
-        <v>14000</v>
+        <v>3500</v>
       </c>
       <c r="L693" t="n">
-        <v>14500</v>
+        <v>4000</v>
       </c>
       <c r="M693" t="n">
-        <v>14250</v>
+        <v>3750</v>
       </c>
       <c r="N693" t="inlineStr">
         <is>
@@ -50275,7 +50275,7 @@
         </is>
       </c>
       <c r="P693" t="n">
-        <v>792</v>
+        <v>208</v>
       </c>
       <c r="Q693" t="n">
         <v>18</v>
@@ -50301,7 +50301,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44615</v>
+        <v>44272</v>
       </c>
       <c r="E694" t="n">
         <v>4</v>
@@ -50316,7 +50316,7 @@
       </c>
       <c r="H694" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I694" t="inlineStr">
@@ -50325,16 +50325,16 @@
         </is>
       </c>
       <c r="J694" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K694" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="L694" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="M694" t="n">
-        <v>10500</v>
+        <v>5750</v>
       </c>
       <c r="N694" t="inlineStr">
         <is>
@@ -50347,7 +50347,7 @@
         </is>
       </c>
       <c r="P694" t="n">
-        <v>583</v>
+        <v>319</v>
       </c>
       <c r="Q694" t="n">
         <v>18</v>
@@ -50373,7 +50373,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44615</v>
+        <v>44272</v>
       </c>
       <c r="E695" t="n">
         <v>4</v>
@@ -50388,7 +50388,7 @@
       </c>
       <c r="H695" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I695" t="inlineStr">
@@ -50400,13 +50400,13 @@
         <v>400</v>
       </c>
       <c r="K695" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="L695" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M695" t="n">
-        <v>7500</v>
+        <v>3750</v>
       </c>
       <c r="N695" t="inlineStr">
         <is>
@@ -50419,7 +50419,7 @@
         </is>
       </c>
       <c r="P695" t="n">
-        <v>417</v>
+        <v>208</v>
       </c>
       <c r="Q695" t="n">
         <v>18</v>
@@ -50445,7 +50445,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44615</v>
+        <v>44272</v>
       </c>
       <c r="E696" t="n">
         <v>4</v>
@@ -50460,7 +50460,7 @@
       </c>
       <c r="H696" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I696" t="inlineStr">
@@ -50472,13 +50472,13 @@
         <v>300</v>
       </c>
       <c r="K696" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="L696" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="M696" t="n">
-        <v>4500</v>
+        <v>1750</v>
       </c>
       <c r="N696" t="inlineStr">
         <is>
@@ -50491,7 +50491,7 @@
         </is>
       </c>
       <c r="P696" t="n">
-        <v>250</v>
+        <v>97</v>
       </c>
       <c r="Q696" t="n">
         <v>18</v>
@@ -50517,7 +50517,7 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44615</v>
+        <v>44399</v>
       </c>
       <c r="E697" t="n">
         <v>4</v>
@@ -50541,16 +50541,16 @@
         </is>
       </c>
       <c r="J697" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K697" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="L697" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="M697" t="n">
-        <v>6500</v>
+        <v>16500</v>
       </c>
       <c r="N697" t="inlineStr">
         <is>
@@ -50563,7 +50563,7 @@
         </is>
       </c>
       <c r="P697" t="n">
-        <v>361</v>
+        <v>917</v>
       </c>
       <c r="Q697" t="n">
         <v>18</v>
@@ -50589,7 +50589,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44615</v>
+        <v>44399</v>
       </c>
       <c r="E698" t="n">
         <v>4</v>
@@ -50613,16 +50613,16 @@
         </is>
       </c>
       <c r="J698" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K698" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="L698" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="M698" t="n">
-        <v>4500</v>
+        <v>13500</v>
       </c>
       <c r="N698" t="inlineStr">
         <is>
@@ -50635,7 +50635,7 @@
         </is>
       </c>
       <c r="P698" t="n">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="Q698" t="n">
         <v>18</v>
@@ -50661,7 +50661,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44615</v>
+        <v>44399</v>
       </c>
       <c r="E699" t="n">
         <v>4</v>
@@ -50688,13 +50688,13 @@
         <v>200</v>
       </c>
       <c r="K699" t="n">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="L699" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="M699" t="n">
-        <v>2500</v>
+        <v>9500</v>
       </c>
       <c r="N699" t="inlineStr">
         <is>
@@ -50707,7 +50707,7 @@
         </is>
       </c>
       <c r="P699" t="n">
-        <v>139</v>
+        <v>528</v>
       </c>
       <c r="Q699" t="n">
         <v>18</v>
@@ -50733,7 +50733,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44615</v>
+        <v>44399</v>
       </c>
       <c r="E700" t="n">
         <v>4</v>
@@ -50757,16 +50757,16 @@
         </is>
       </c>
       <c r="J700" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K700" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="L700" t="n">
-        <v>11000</v>
+        <v>18500</v>
       </c>
       <c r="M700" t="n">
-        <v>10500</v>
+        <v>18250</v>
       </c>
       <c r="N700" t="inlineStr">
         <is>
@@ -50779,7 +50779,7 @@
         </is>
       </c>
       <c r="P700" t="n">
-        <v>583</v>
+        <v>1014</v>
       </c>
       <c r="Q700" t="n">
         <v>18</v>
@@ -50805,7 +50805,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44615</v>
+        <v>44399</v>
       </c>
       <c r="E701" t="n">
         <v>4</v>
@@ -50832,13 +50832,13 @@
         <v>400</v>
       </c>
       <c r="K701" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="L701" t="n">
-        <v>8000</v>
+        <v>16500</v>
       </c>
       <c r="M701" t="n">
-        <v>7500</v>
+        <v>16250</v>
       </c>
       <c r="N701" t="inlineStr">
         <is>
@@ -50851,7 +50851,7 @@
         </is>
       </c>
       <c r="P701" t="n">
-        <v>417</v>
+        <v>903</v>
       </c>
       <c r="Q701" t="n">
         <v>18</v>
@@ -50877,7 +50877,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44615</v>
+        <v>44399</v>
       </c>
       <c r="E702" t="n">
         <v>4</v>
@@ -50901,16 +50901,16 @@
         </is>
       </c>
       <c r="J702" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K702" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="L702" t="n">
-        <v>5000</v>
+        <v>14500</v>
       </c>
       <c r="M702" t="n">
-        <v>4500</v>
+        <v>14250</v>
       </c>
       <c r="N702" t="inlineStr">
         <is>
@@ -50923,7 +50923,7 @@
         </is>
       </c>
       <c r="P702" t="n">
-        <v>250</v>
+        <v>792</v>
       </c>
       <c r="Q702" t="n">
         <v>18</v>
@@ -50949,7 +50949,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44167</v>
+        <v>44615</v>
       </c>
       <c r="E703" t="n">
         <v>4</v>
@@ -50964,7 +50964,7 @@
       </c>
       <c r="H703" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I703" t="inlineStr">
@@ -50973,16 +50973,16 @@
         </is>
       </c>
       <c r="J703" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="K703" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="L703" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M703" t="n">
-        <v>13750</v>
+        <v>10500</v>
       </c>
       <c r="N703" t="inlineStr">
         <is>
@@ -50995,7 +50995,7 @@
         </is>
       </c>
       <c r="P703" t="n">
-        <v>764</v>
+        <v>583</v>
       </c>
       <c r="Q703" t="n">
         <v>18</v>
@@ -51021,7 +51021,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44167</v>
+        <v>44615</v>
       </c>
       <c r="E704" t="n">
         <v>4</v>
@@ -51036,7 +51036,7 @@
       </c>
       <c r="H704" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I704" t="inlineStr">
@@ -51045,16 +51045,16 @@
         </is>
       </c>
       <c r="J704" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K704" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L704" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M704" t="n">
-        <v>8750</v>
+        <v>7500</v>
       </c>
       <c r="N704" t="inlineStr">
         <is>
@@ -51067,7 +51067,7 @@
         </is>
       </c>
       <c r="P704" t="n">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="Q704" t="n">
         <v>18</v>
@@ -51093,7 +51093,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44167</v>
+        <v>44615</v>
       </c>
       <c r="E705" t="n">
         <v>4</v>
@@ -51108,7 +51108,7 @@
       </c>
       <c r="H705" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I705" t="inlineStr">
@@ -51117,16 +51117,16 @@
         </is>
       </c>
       <c r="J705" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K705" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L705" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M705" t="n">
-        <v>5750</v>
+        <v>4500</v>
       </c>
       <c r="N705" t="inlineStr">
         <is>
@@ -51139,7 +51139,7 @@
         </is>
       </c>
       <c r="P705" t="n">
-        <v>319</v>
+        <v>250</v>
       </c>
       <c r="Q705" t="n">
         <v>18</v>
@@ -51165,7 +51165,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44258</v>
+        <v>44615</v>
       </c>
       <c r="E706" t="n">
         <v>4</v>
@@ -51180,7 +51180,7 @@
       </c>
       <c r="H706" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I706" t="inlineStr">
@@ -51189,16 +51189,16 @@
         </is>
       </c>
       <c r="J706" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K706" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="L706" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M706" t="n">
-        <v>8750</v>
+        <v>6500</v>
       </c>
       <c r="N706" t="inlineStr">
         <is>
@@ -51211,7 +51211,7 @@
         </is>
       </c>
       <c r="P706" t="n">
-        <v>486</v>
+        <v>361</v>
       </c>
       <c r="Q706" t="n">
         <v>18</v>
@@ -51237,7 +51237,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44258</v>
+        <v>44615</v>
       </c>
       <c r="E707" t="n">
         <v>4</v>
@@ -51252,7 +51252,7 @@
       </c>
       <c r="H707" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I707" t="inlineStr">
@@ -51261,16 +51261,16 @@
         </is>
       </c>
       <c r="J707" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K707" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L707" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M707" t="n">
-        <v>6750</v>
+        <v>4500</v>
       </c>
       <c r="N707" t="inlineStr">
         <is>
@@ -51283,7 +51283,7 @@
         </is>
       </c>
       <c r="P707" t="n">
-        <v>375</v>
+        <v>250</v>
       </c>
       <c r="Q707" t="n">
         <v>18</v>
@@ -51309,7 +51309,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44258</v>
+        <v>44615</v>
       </c>
       <c r="E708" t="n">
         <v>4</v>
@@ -51324,7 +51324,7 @@
       </c>
       <c r="H708" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I708" t="inlineStr">
@@ -51333,16 +51333,16 @@
         </is>
       </c>
       <c r="J708" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K708" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="L708" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M708" t="n">
-        <v>4750</v>
+        <v>2500</v>
       </c>
       <c r="N708" t="inlineStr">
         <is>
@@ -51355,7 +51355,7 @@
         </is>
       </c>
       <c r="P708" t="n">
-        <v>264</v>
+        <v>139</v>
       </c>
       <c r="Q708" t="n">
         <v>18</v>
@@ -51381,7 +51381,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44258</v>
+        <v>44615</v>
       </c>
       <c r="E709" t="n">
         <v>4</v>
@@ -51396,7 +51396,7 @@
       </c>
       <c r="H709" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I709" t="inlineStr">
@@ -51405,16 +51405,16 @@
         </is>
       </c>
       <c r="J709" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="K709" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L709" t="n">
-        <v>5500</v>
+        <v>11000</v>
       </c>
       <c r="M709" t="n">
-        <v>5250</v>
+        <v>10500</v>
       </c>
       <c r="N709" t="inlineStr">
         <is>
@@ -51427,7 +51427,7 @@
         </is>
       </c>
       <c r="P709" t="n">
-        <v>292</v>
+        <v>583</v>
       </c>
       <c r="Q709" t="n">
         <v>18</v>
@@ -51453,7 +51453,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44258</v>
+        <v>44615</v>
       </c>
       <c r="E710" t="n">
         <v>4</v>
@@ -51468,7 +51468,7 @@
       </c>
       <c r="H710" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I710" t="inlineStr">
@@ -51477,16 +51477,16 @@
         </is>
       </c>
       <c r="J710" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K710" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="L710" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="M710" t="n">
-        <v>3250</v>
+        <v>7500</v>
       </c>
       <c r="N710" t="inlineStr">
         <is>
@@ -51499,7 +51499,7 @@
         </is>
       </c>
       <c r="P710" t="n">
-        <v>181</v>
+        <v>417</v>
       </c>
       <c r="Q710" t="n">
         <v>18</v>
@@ -51525,7 +51525,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44258</v>
+        <v>44615</v>
       </c>
       <c r="E711" t="n">
         <v>4</v>
@@ -51545,20 +51545,20 @@
       </c>
       <c r="I711" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J711" t="n">
-        <v>900</v>
+        <v>240</v>
       </c>
       <c r="K711" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L711" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M711" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="N711" t="inlineStr">
         <is>
@@ -51571,7 +51571,7 @@
         </is>
       </c>
       <c r="P711" t="n">
-        <v>417</v>
+        <v>250</v>
       </c>
       <c r="Q711" t="n">
         <v>18</v>
@@ -51597,7 +51597,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44258</v>
+        <v>44167</v>
       </c>
       <c r="E712" t="n">
         <v>4</v>
@@ -51612,25 +51612,25 @@
       </c>
       <c r="H712" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I712" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J712" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="K712" t="n">
-        <v>5000</v>
+        <v>13500</v>
       </c>
       <c r="L712" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="M712" t="n">
-        <v>5500</v>
+        <v>13750</v>
       </c>
       <c r="N712" t="inlineStr">
         <is>
@@ -51643,7 +51643,7 @@
         </is>
       </c>
       <c r="P712" t="n">
-        <v>306</v>
+        <v>764</v>
       </c>
       <c r="Q712" t="n">
         <v>18</v>
@@ -51669,7 +51669,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44349</v>
+        <v>44167</v>
       </c>
       <c r="E713" t="n">
         <v>4</v>
@@ -51689,11 +51689,11 @@
       </c>
       <c r="I713" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J713" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K713" t="n">
         <v>8500</v>
@@ -51741,7 +51741,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44349</v>
+        <v>44167</v>
       </c>
       <c r="E714" t="n">
         <v>4</v>
@@ -51761,20 +51761,20 @@
       </c>
       <c r="I714" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J714" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K714" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L714" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M714" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N714" t="inlineStr">
         <is>
@@ -51787,7 +51787,7 @@
         </is>
       </c>
       <c r="P714" t="n">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="Q714" t="n">
         <v>18</v>
@@ -51813,7 +51813,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44349</v>
+        <v>44258</v>
       </c>
       <c r="E715" t="n">
         <v>4</v>
@@ -51828,25 +51828,25 @@
       </c>
       <c r="H715" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I715" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J715" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K715" t="n">
-        <v>4500</v>
+        <v>8500</v>
       </c>
       <c r="L715" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M715" t="n">
-        <v>4750</v>
+        <v>8750</v>
       </c>
       <c r="N715" t="inlineStr">
         <is>
@@ -51859,7 +51859,7 @@
         </is>
       </c>
       <c r="P715" t="n">
-        <v>264</v>
+        <v>486</v>
       </c>
       <c r="Q715" t="n">
         <v>18</v>
@@ -51885,7 +51885,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44349</v>
+        <v>44258</v>
       </c>
       <c r="E716" t="n">
         <v>4</v>
@@ -51900,25 +51900,25 @@
       </c>
       <c r="H716" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I716" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J716" t="n">
         <v>400</v>
       </c>
       <c r="K716" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="L716" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M716" t="n">
-        <v>12500</v>
+        <v>6750</v>
       </c>
       <c r="N716" t="inlineStr">
         <is>
@@ -51931,7 +51931,7 @@
         </is>
       </c>
       <c r="P716" t="n">
-        <v>694</v>
+        <v>375</v>
       </c>
       <c r="Q716" t="n">
         <v>18</v>
@@ -51957,7 +51957,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44349</v>
+        <v>44258</v>
       </c>
       <c r="E717" t="n">
         <v>4</v>
@@ -51972,25 +51972,25 @@
       </c>
       <c r="H717" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I717" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J717" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K717" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="L717" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M717" t="n">
-        <v>9500</v>
+        <v>4750</v>
       </c>
       <c r="N717" t="inlineStr">
         <is>
@@ -52003,7 +52003,7 @@
         </is>
       </c>
       <c r="P717" t="n">
-        <v>528</v>
+        <v>264</v>
       </c>
       <c r="Q717" t="n">
         <v>18</v>
@@ -52029,7 +52029,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44349</v>
+        <v>44258</v>
       </c>
       <c r="E718" t="n">
         <v>4</v>
@@ -52044,25 +52044,25 @@
       </c>
       <c r="H718" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I718" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J718" t="n">
-        <v>160</v>
+        <v>1100</v>
       </c>
       <c r="K718" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L718" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M718" t="n">
-        <v>6500</v>
+        <v>5250</v>
       </c>
       <c r="N718" t="inlineStr">
         <is>
@@ -52075,7 +52075,7 @@
         </is>
       </c>
       <c r="P718" t="n">
-        <v>361</v>
+        <v>292</v>
       </c>
       <c r="Q718" t="n">
         <v>18</v>
@@ -52101,7 +52101,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44595</v>
+        <v>44258</v>
       </c>
       <c r="E719" t="n">
         <v>4</v>
@@ -52116,25 +52116,25 @@
       </c>
       <c r="H719" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I719" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J719" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K719" t="n">
-        <v>11000</v>
+        <v>3000</v>
       </c>
       <c r="L719" t="n">
-        <v>12000</v>
+        <v>3500</v>
       </c>
       <c r="M719" t="n">
-        <v>11500</v>
+        <v>3250</v>
       </c>
       <c r="N719" t="inlineStr">
         <is>
@@ -52147,7 +52147,7 @@
         </is>
       </c>
       <c r="P719" t="n">
-        <v>639</v>
+        <v>181</v>
       </c>
       <c r="Q719" t="n">
         <v>18</v>
@@ -52173,7 +52173,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44595</v>
+        <v>44258</v>
       </c>
       <c r="E720" t="n">
         <v>4</v>
@@ -52188,25 +52188,25 @@
       </c>
       <c r="H720" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I720" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J720" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="K720" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L720" t="n">
         <v>8000</v>
       </c>
-      <c r="L720" t="n">
-        <v>9000</v>
-      </c>
       <c r="M720" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N720" t="inlineStr">
         <is>
@@ -52219,7 +52219,7 @@
         </is>
       </c>
       <c r="P720" t="n">
-        <v>472</v>
+        <v>417</v>
       </c>
       <c r="Q720" t="n">
         <v>18</v>
@@ -52245,7 +52245,7 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44595</v>
+        <v>44258</v>
       </c>
       <c r="E721" t="n">
         <v>4</v>
@@ -52260,25 +52260,25 @@
       </c>
       <c r="H721" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I721" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J721" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="K721" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L721" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M721" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="N721" t="inlineStr">
         <is>
@@ -52291,7 +52291,7 @@
         </is>
       </c>
       <c r="P721" t="n">
-        <v>250</v>
+        <v>306</v>
       </c>
       <c r="Q721" t="n">
         <v>18</v>
@@ -52317,7 +52317,7 @@
         </is>
       </c>
       <c r="D722" s="2" t="n">
-        <v>44595</v>
+        <v>44349</v>
       </c>
       <c r="E722" t="n">
         <v>4</v>
@@ -52344,13 +52344,13 @@
         <v>400</v>
       </c>
       <c r="K722" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="L722" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M722" t="n">
-        <v>7750</v>
+        <v>8750</v>
       </c>
       <c r="N722" t="inlineStr">
         <is>
@@ -52363,7 +52363,7 @@
         </is>
       </c>
       <c r="P722" t="n">
-        <v>431</v>
+        <v>486</v>
       </c>
       <c r="Q722" t="n">
         <v>18</v>
@@ -52389,7 +52389,7 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44595</v>
+        <v>44349</v>
       </c>
       <c r="E723" t="n">
         <v>4</v>
@@ -52413,16 +52413,16 @@
         </is>
       </c>
       <c r="J723" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="K723" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L723" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M723" t="n">
-        <v>5750</v>
+        <v>6750</v>
       </c>
       <c r="N723" t="inlineStr">
         <is>
@@ -52435,7 +52435,7 @@
         </is>
       </c>
       <c r="P723" t="n">
-        <v>319</v>
+        <v>375</v>
       </c>
       <c r="Q723" t="n">
         <v>18</v>
@@ -52461,7 +52461,7 @@
         </is>
       </c>
       <c r="D724" s="2" t="n">
-        <v>44595</v>
+        <v>44349</v>
       </c>
       <c r="E724" t="n">
         <v>4</v>
@@ -52485,16 +52485,16 @@
         </is>
       </c>
       <c r="J724" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K724" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L724" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M724" t="n">
-        <v>3750</v>
+        <v>4750</v>
       </c>
       <c r="N724" t="inlineStr">
         <is>
@@ -52507,7 +52507,7 @@
         </is>
       </c>
       <c r="P724" t="n">
-        <v>208</v>
+        <v>264</v>
       </c>
       <c r="Q724" t="n">
         <v>18</v>
@@ -52533,7 +52533,7 @@
         </is>
       </c>
       <c r="D725" s="2" t="n">
-        <v>44335</v>
+        <v>44349</v>
       </c>
       <c r="E725" t="n">
         <v>4</v>
@@ -52548,7 +52548,7 @@
       </c>
       <c r="H725" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I725" t="inlineStr">
@@ -52557,16 +52557,16 @@
         </is>
       </c>
       <c r="J725" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K725" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="L725" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M725" t="n">
-        <v>9750</v>
+        <v>12500</v>
       </c>
       <c r="N725" t="inlineStr">
         <is>
@@ -52579,7 +52579,7 @@
         </is>
       </c>
       <c r="P725" t="n">
-        <v>542</v>
+        <v>694</v>
       </c>
       <c r="Q725" t="n">
         <v>18</v>
@@ -52605,7 +52605,7 @@
         </is>
       </c>
       <c r="D726" s="2" t="n">
-        <v>44335</v>
+        <v>44349</v>
       </c>
       <c r="E726" t="n">
         <v>4</v>
@@ -52620,7 +52620,7 @@
       </c>
       <c r="H726" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I726" t="inlineStr">
@@ -52629,16 +52629,16 @@
         </is>
       </c>
       <c r="J726" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="K726" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L726" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M726" t="n">
-        <v>7750</v>
+        <v>9500</v>
       </c>
       <c r="N726" t="inlineStr">
         <is>
@@ -52651,7 +52651,7 @@
         </is>
       </c>
       <c r="P726" t="n">
-        <v>431</v>
+        <v>528</v>
       </c>
       <c r="Q726" t="n">
         <v>18</v>
@@ -52677,7 +52677,7 @@
         </is>
       </c>
       <c r="D727" s="2" t="n">
-        <v>44335</v>
+        <v>44349</v>
       </c>
       <c r="E727" t="n">
         <v>4</v>
@@ -52692,7 +52692,7 @@
       </c>
       <c r="H727" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I727" t="inlineStr">
@@ -52701,16 +52701,16 @@
         </is>
       </c>
       <c r="J727" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="K727" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L727" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M727" t="n">
-        <v>5750</v>
+        <v>6500</v>
       </c>
       <c r="N727" t="inlineStr">
         <is>
@@ -52723,7 +52723,7 @@
         </is>
       </c>
       <c r="P727" t="n">
-        <v>319</v>
+        <v>361</v>
       </c>
       <c r="Q727" t="n">
         <v>18</v>
@@ -52749,7 +52749,7 @@
         </is>
       </c>
       <c r="D728" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E728" t="n">
         <v>4</v>
@@ -52764,7 +52764,7 @@
       </c>
       <c r="H728" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I728" t="inlineStr">
@@ -52773,16 +52773,16 @@
         </is>
       </c>
       <c r="J728" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K728" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L728" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M728" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="N728" t="inlineStr">
         <is>
@@ -52795,7 +52795,7 @@
         </is>
       </c>
       <c r="P728" t="n">
-        <v>750</v>
+        <v>639</v>
       </c>
       <c r="Q728" t="n">
         <v>18</v>
@@ -52821,7 +52821,7 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E729" t="n">
         <v>4</v>
@@ -52836,7 +52836,7 @@
       </c>
       <c r="H729" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I729" t="inlineStr">
@@ -52845,16 +52845,16 @@
         </is>
       </c>
       <c r="J729" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K729" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L729" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M729" t="n">
-        <v>11500</v>
+        <v>8500</v>
       </c>
       <c r="N729" t="inlineStr">
         <is>
@@ -52867,7 +52867,7 @@
         </is>
       </c>
       <c r="P729" t="n">
-        <v>639</v>
+        <v>472</v>
       </c>
       <c r="Q729" t="n">
         <v>18</v>
@@ -52893,7 +52893,7 @@
         </is>
       </c>
       <c r="D730" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E730" t="n">
         <v>4</v>
@@ -52908,7 +52908,7 @@
       </c>
       <c r="H730" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I730" t="inlineStr">
@@ -52917,16 +52917,16 @@
         </is>
       </c>
       <c r="J730" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K730" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L730" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M730" t="n">
-        <v>9500</v>
+        <v>4500</v>
       </c>
       <c r="N730" t="inlineStr">
         <is>
@@ -52939,7 +52939,7 @@
         </is>
       </c>
       <c r="P730" t="n">
-        <v>528</v>
+        <v>250</v>
       </c>
       <c r="Q730" t="n">
         <v>18</v>
@@ -52965,7 +52965,7 @@
         </is>
       </c>
       <c r="D731" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E731" t="n">
         <v>4</v>
@@ -52980,7 +52980,7 @@
       </c>
       <c r="H731" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I731" t="inlineStr">
@@ -52992,13 +52992,13 @@
         <v>400</v>
       </c>
       <c r="K731" t="n">
-        <v>19000</v>
+        <v>7500</v>
       </c>
       <c r="L731" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="M731" t="n">
-        <v>19500</v>
+        <v>7750</v>
       </c>
       <c r="N731" t="inlineStr">
         <is>
@@ -53011,7 +53011,7 @@
         </is>
       </c>
       <c r="P731" t="n">
-        <v>1083</v>
+        <v>431</v>
       </c>
       <c r="Q731" t="n">
         <v>18</v>
@@ -53037,7 +53037,7 @@
         </is>
       </c>
       <c r="D732" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E732" t="n">
         <v>4</v>
@@ -53052,7 +53052,7 @@
       </c>
       <c r="H732" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I732" t="inlineStr">
@@ -53061,16 +53061,16 @@
         </is>
       </c>
       <c r="J732" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K732" t="n">
-        <v>16000</v>
+        <v>5500</v>
       </c>
       <c r="L732" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="M732" t="n">
-        <v>16500</v>
+        <v>5750</v>
       </c>
       <c r="N732" t="inlineStr">
         <is>
@@ -53083,7 +53083,7 @@
         </is>
       </c>
       <c r="P732" t="n">
-        <v>917</v>
+        <v>319</v>
       </c>
       <c r="Q732" t="n">
         <v>18</v>
@@ -53109,7 +53109,7 @@
         </is>
       </c>
       <c r="D733" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E733" t="n">
         <v>4</v>
@@ -53124,7 +53124,7 @@
       </c>
       <c r="H733" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I733" t="inlineStr">
@@ -53133,16 +53133,16 @@
         </is>
       </c>
       <c r="J733" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K733" t="n">
-        <v>14000</v>
+        <v>3500</v>
       </c>
       <c r="L733" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="M733" t="n">
-        <v>14500</v>
+        <v>3750</v>
       </c>
       <c r="N733" t="inlineStr">
         <is>
@@ -53155,7 +53155,7 @@
         </is>
       </c>
       <c r="P733" t="n">
-        <v>806</v>
+        <v>208</v>
       </c>
       <c r="Q733" t="n">
         <v>18</v>
@@ -53181,7 +53181,7 @@
         </is>
       </c>
       <c r="D734" s="2" t="n">
-        <v>44552</v>
+        <v>44335</v>
       </c>
       <c r="E734" t="n">
         <v>4</v>
@@ -53205,16 +53205,16 @@
         </is>
       </c>
       <c r="J734" t="n">
-        <v>720</v>
+        <v>1000</v>
       </c>
       <c r="K734" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="L734" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M734" t="n">
-        <v>6500</v>
+        <v>9750</v>
       </c>
       <c r="N734" t="inlineStr">
         <is>
@@ -53227,7 +53227,7 @@
         </is>
       </c>
       <c r="P734" t="n">
-        <v>361</v>
+        <v>542</v>
       </c>
       <c r="Q734" t="n">
         <v>18</v>
@@ -53253,7 +53253,7 @@
         </is>
       </c>
       <c r="D735" s="2" t="n">
-        <v>44552</v>
+        <v>44335</v>
       </c>
       <c r="E735" t="n">
         <v>4</v>
@@ -53277,16 +53277,16 @@
         </is>
       </c>
       <c r="J735" t="n">
-        <v>560</v>
+        <v>700</v>
       </c>
       <c r="K735" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="L735" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M735" t="n">
-        <v>4500</v>
+        <v>7750</v>
       </c>
       <c r="N735" t="inlineStr">
         <is>
@@ -53299,7 +53299,7 @@
         </is>
       </c>
       <c r="P735" t="n">
-        <v>250</v>
+        <v>431</v>
       </c>
       <c r="Q735" t="n">
         <v>18</v>
@@ -53325,7 +53325,7 @@
         </is>
       </c>
       <c r="D736" s="2" t="n">
-        <v>44160</v>
+        <v>44335</v>
       </c>
       <c r="E736" t="n">
         <v>4</v>
@@ -53345,20 +53345,20 @@
       </c>
       <c r="I736" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J736" t="n">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="K736" t="n">
-        <v>13000</v>
+        <v>5500</v>
       </c>
       <c r="L736" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="M736" t="n">
-        <v>13500</v>
+        <v>5750</v>
       </c>
       <c r="N736" t="inlineStr">
         <is>
@@ -53371,7 +53371,7 @@
         </is>
       </c>
       <c r="P736" t="n">
-        <v>750</v>
+        <v>319</v>
       </c>
       <c r="Q736" t="n">
         <v>18</v>
@@ -53397,7 +53397,7 @@
         </is>
       </c>
       <c r="D737" s="2" t="n">
-        <v>44160</v>
+        <v>44335</v>
       </c>
       <c r="E737" t="n">
         <v>4</v>
@@ -53412,25 +53412,25 @@
       </c>
       <c r="H737" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I737" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J737" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K737" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L737" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M737" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="N737" t="inlineStr">
         <is>
@@ -53443,7 +53443,7 @@
         </is>
       </c>
       <c r="P737" t="n">
-        <v>528</v>
+        <v>750</v>
       </c>
       <c r="Q737" t="n">
         <v>18</v>
@@ -53469,58 +53469,706 @@
         </is>
       </c>
       <c r="D738" s="2" t="n">
+        <v>44335</v>
+      </c>
+      <c r="E738" t="n">
+        <v>4</v>
+      </c>
+      <c r="F738" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G738" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H738" t="inlineStr">
+        <is>
+          <t>Morrón rojo</t>
+        </is>
+      </c>
+      <c r="I738" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J738" t="n">
+        <v>500</v>
+      </c>
+      <c r="K738" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L738" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M738" t="n">
+        <v>11500</v>
+      </c>
+      <c r="N738" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O738" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P738" t="n">
+        <v>639</v>
+      </c>
+      <c r="Q738" t="n">
+        <v>18</v>
+      </c>
+      <c r="R738" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="n">
+        <v>2</v>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C739" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D739" s="2" t="n">
+        <v>44335</v>
+      </c>
+      <c r="E739" t="n">
+        <v>4</v>
+      </c>
+      <c r="F739" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G739" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H739" t="inlineStr">
+        <is>
+          <t>Morrón rojo</t>
+        </is>
+      </c>
+      <c r="I739" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J739" t="n">
+        <v>400</v>
+      </c>
+      <c r="K739" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L739" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M739" t="n">
+        <v>9500</v>
+      </c>
+      <c r="N739" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O739" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P739" t="n">
+        <v>528</v>
+      </c>
+      <c r="Q739" t="n">
+        <v>18</v>
+      </c>
+      <c r="R739" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="n">
+        <v>2</v>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C740" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D740" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="E740" t="n">
+        <v>4</v>
+      </c>
+      <c r="F740" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G740" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H740" t="inlineStr">
+        <is>
+          <t>Cuatro cascos rojo</t>
+        </is>
+      </c>
+      <c r="I740" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J740" t="n">
+        <v>400</v>
+      </c>
+      <c r="K740" t="n">
+        <v>19000</v>
+      </c>
+      <c r="L740" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M740" t="n">
+        <v>19500</v>
+      </c>
+      <c r="N740" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O740" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P740" t="n">
+        <v>1083</v>
+      </c>
+      <c r="Q740" t="n">
+        <v>18</v>
+      </c>
+      <c r="R740" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="n">
+        <v>2</v>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C741" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D741" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="E741" t="n">
+        <v>4</v>
+      </c>
+      <c r="F741" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G741" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H741" t="inlineStr">
+        <is>
+          <t>Cuatro cascos rojo</t>
+        </is>
+      </c>
+      <c r="I741" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J741" t="n">
+        <v>300</v>
+      </c>
+      <c r="K741" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L741" t="n">
+        <v>17000</v>
+      </c>
+      <c r="M741" t="n">
+        <v>16500</v>
+      </c>
+      <c r="N741" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O741" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P741" t="n">
+        <v>917</v>
+      </c>
+      <c r="Q741" t="n">
+        <v>18</v>
+      </c>
+      <c r="R741" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="n">
+        <v>2</v>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C742" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D742" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="E742" t="n">
+        <v>4</v>
+      </c>
+      <c r="F742" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G742" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H742" t="inlineStr">
+        <is>
+          <t>Cuatro cascos rojo</t>
+        </is>
+      </c>
+      <c r="I742" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J742" t="n">
+        <v>300</v>
+      </c>
+      <c r="K742" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L742" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M742" t="n">
+        <v>14500</v>
+      </c>
+      <c r="N742" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O742" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P742" t="n">
+        <v>806</v>
+      </c>
+      <c r="Q742" t="n">
+        <v>18</v>
+      </c>
+      <c r="R742" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="n">
+        <v>2</v>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C743" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D743" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="E743" t="n">
+        <v>4</v>
+      </c>
+      <c r="F743" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G743" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H743" t="inlineStr">
+        <is>
+          <t>Cuatro cascos verde</t>
+        </is>
+      </c>
+      <c r="I743" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J743" t="n">
+        <v>720</v>
+      </c>
+      <c r="K743" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L743" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M743" t="n">
+        <v>6500</v>
+      </c>
+      <c r="N743" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O743" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P743" t="n">
+        <v>361</v>
+      </c>
+      <c r="Q743" t="n">
+        <v>18</v>
+      </c>
+      <c r="R743" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="n">
+        <v>2</v>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C744" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D744" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="E744" t="n">
+        <v>4</v>
+      </c>
+      <c r="F744" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G744" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H744" t="inlineStr">
+        <is>
+          <t>Cuatro cascos verde</t>
+        </is>
+      </c>
+      <c r="I744" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J744" t="n">
+        <v>560</v>
+      </c>
+      <c r="K744" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L744" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M744" t="n">
+        <v>4500</v>
+      </c>
+      <c r="N744" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O744" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P744" t="n">
+        <v>250</v>
+      </c>
+      <c r="Q744" t="n">
+        <v>18</v>
+      </c>
+      <c r="R744" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="n">
+        <v>2</v>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C745" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D745" s="2" t="n">
         <v>44160</v>
       </c>
-      <c r="E738" t="n">
-        <v>4</v>
-      </c>
-      <c r="F738" t="n">
-        <v>100112002</v>
-      </c>
-      <c r="G738" t="inlineStr">
-        <is>
-          <t>Pimiento</t>
-        </is>
-      </c>
-      <c r="H738" t="inlineStr">
+      <c r="E745" t="n">
+        <v>4</v>
+      </c>
+      <c r="F745" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G745" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H745" t="inlineStr">
         <is>
           <t>Cuatro cascos verde</t>
         </is>
       </c>
-      <c r="I738" t="inlineStr">
+      <c r="I745" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J745" t="n">
+        <v>1100</v>
+      </c>
+      <c r="K745" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L745" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M745" t="n">
+        <v>13500</v>
+      </c>
+      <c r="N745" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O745" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P745" t="n">
+        <v>750</v>
+      </c>
+      <c r="Q745" t="n">
+        <v>18</v>
+      </c>
+      <c r="R745" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="n">
+        <v>2</v>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C746" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D746" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E746" t="n">
+        <v>4</v>
+      </c>
+      <c r="F746" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G746" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H746" t="inlineStr">
+        <is>
+          <t>Cuatro cascos verde</t>
+        </is>
+      </c>
+      <c r="I746" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J746" t="n">
+        <v>1100</v>
+      </c>
+      <c r="K746" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L746" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M746" t="n">
+        <v>9500</v>
+      </c>
+      <c r="N746" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O746" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P746" t="n">
+        <v>528</v>
+      </c>
+      <c r="Q746" t="n">
+        <v>18</v>
+      </c>
+      <c r="R746" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="n">
+        <v>2</v>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C747" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D747" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E747" t="n">
+        <v>4</v>
+      </c>
+      <c r="F747" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G747" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H747" t="inlineStr">
+        <is>
+          <t>Cuatro cascos verde</t>
+        </is>
+      </c>
+      <c r="I747" t="inlineStr">
         <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="J738" t="n">
+      <c r="J747" t="n">
         <v>700</v>
       </c>
-      <c r="K738" t="n">
+      <c r="K747" t="n">
         <v>6000</v>
       </c>
-      <c r="L738" t="n">
+      <c r="L747" t="n">
         <v>7000</v>
       </c>
-      <c r="M738" t="n">
+      <c r="M747" t="n">
         <v>6500</v>
       </c>
-      <c r="N738" t="inlineStr">
-        <is>
-          <t>$/caja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O738" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P738" t="n">
+      <c r="N747" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O747" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P747" t="n">
         <v>361</v>
       </c>
-      <c r="Q738" t="n">
-        <v>18</v>
-      </c>
-      <c r="R738" t="inlineStr">
+      <c r="Q747" t="n">
+        <v>18</v>
+      </c>
+      <c r="R747" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pimiento.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pimiento.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R756"/>
+  <dimension ref="A1:R765"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47349,7 +47349,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44483</v>
+        <v>44644</v>
       </c>
       <c r="E653" t="n">
         <v>4</v>
@@ -47364,7 +47364,7 @@
       </c>
       <c r="H653" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I653" t="inlineStr">
@@ -47373,16 +47373,16 @@
         </is>
       </c>
       <c r="J653" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K653" t="n">
-        <v>27000</v>
+        <v>9000</v>
       </c>
       <c r="L653" t="n">
-        <v>29000</v>
+        <v>10000</v>
       </c>
       <c r="M653" t="n">
-        <v>28000</v>
+        <v>9500</v>
       </c>
       <c r="N653" t="inlineStr">
         <is>
@@ -47395,7 +47395,7 @@
         </is>
       </c>
       <c r="P653" t="n">
-        <v>1556</v>
+        <v>528</v>
       </c>
       <c r="Q653" t="n">
         <v>18</v>
@@ -47421,7 +47421,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44483</v>
+        <v>44644</v>
       </c>
       <c r="E654" t="n">
         <v>4</v>
@@ -47436,7 +47436,7 @@
       </c>
       <c r="H654" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I654" t="inlineStr">
@@ -47448,13 +47448,13 @@
         <v>400</v>
       </c>
       <c r="K654" t="n">
-        <v>24000</v>
+        <v>7000</v>
       </c>
       <c r="L654" t="n">
-        <v>26000</v>
+        <v>8000</v>
       </c>
       <c r="M654" t="n">
-        <v>25000</v>
+        <v>7500</v>
       </c>
       <c r="N654" t="inlineStr">
         <is>
@@ -47467,7 +47467,7 @@
         </is>
       </c>
       <c r="P654" t="n">
-        <v>1389</v>
+        <v>417</v>
       </c>
       <c r="Q654" t="n">
         <v>18</v>
@@ -47493,7 +47493,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44483</v>
+        <v>44644</v>
       </c>
       <c r="E655" t="n">
         <v>4</v>
@@ -47508,7 +47508,7 @@
       </c>
       <c r="H655" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I655" t="inlineStr">
@@ -47520,13 +47520,13 @@
         <v>240</v>
       </c>
       <c r="K655" t="n">
-        <v>19000</v>
+        <v>5000</v>
       </c>
       <c r="L655" t="n">
-        <v>21000</v>
+        <v>6000</v>
       </c>
       <c r="M655" t="n">
-        <v>20000</v>
+        <v>5500</v>
       </c>
       <c r="N655" t="inlineStr">
         <is>
@@ -47539,7 +47539,7 @@
         </is>
       </c>
       <c r="P655" t="n">
-        <v>1111</v>
+        <v>306</v>
       </c>
       <c r="Q655" t="n">
         <v>18</v>
@@ -47565,7 +47565,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44294</v>
+        <v>44644</v>
       </c>
       <c r="E656" t="n">
         <v>4</v>
@@ -47589,16 +47589,16 @@
         </is>
       </c>
       <c r="J656" t="n">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="K656" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="L656" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M656" t="n">
-        <v>9750</v>
+        <v>7500</v>
       </c>
       <c r="N656" t="inlineStr">
         <is>
@@ -47611,7 +47611,7 @@
         </is>
       </c>
       <c r="P656" t="n">
-        <v>542</v>
+        <v>417</v>
       </c>
       <c r="Q656" t="n">
         <v>18</v>
@@ -47637,7 +47637,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44294</v>
+        <v>44644</v>
       </c>
       <c r="E657" t="n">
         <v>4</v>
@@ -47661,16 +47661,16 @@
         </is>
       </c>
       <c r="J657" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="K657" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="L657" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M657" t="n">
-        <v>7750</v>
+        <v>5500</v>
       </c>
       <c r="N657" t="inlineStr">
         <is>
@@ -47683,7 +47683,7 @@
         </is>
       </c>
       <c r="P657" t="n">
-        <v>431</v>
+        <v>306</v>
       </c>
       <c r="Q657" t="n">
         <v>18</v>
@@ -47709,7 +47709,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44294</v>
+        <v>44644</v>
       </c>
       <c r="E658" t="n">
         <v>4</v>
@@ -47733,16 +47733,16 @@
         </is>
       </c>
       <c r="J658" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K658" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L658" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M658" t="n">
-        <v>5750</v>
+        <v>3500</v>
       </c>
       <c r="N658" t="inlineStr">
         <is>
@@ -47755,7 +47755,7 @@
         </is>
       </c>
       <c r="P658" t="n">
-        <v>319</v>
+        <v>194</v>
       </c>
       <c r="Q658" t="n">
         <v>18</v>
@@ -47781,7 +47781,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44294</v>
+        <v>44644</v>
       </c>
       <c r="E659" t="n">
         <v>4</v>
@@ -47805,20 +47805,20 @@
         </is>
       </c>
       <c r="J659" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="K659" t="n">
-        <v>5500</v>
+        <v>11000</v>
       </c>
       <c r="L659" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M659" t="n">
-        <v>5750</v>
+        <v>11500</v>
       </c>
       <c r="N659" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O659" t="inlineStr">
@@ -47827,10 +47827,10 @@
         </is>
       </c>
       <c r="P659" t="n">
-        <v>288</v>
+        <v>639</v>
       </c>
       <c r="Q659" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R659" t="inlineStr">
         <is>
@@ -47853,7 +47853,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44294</v>
+        <v>44644</v>
       </c>
       <c r="E660" t="n">
         <v>4</v>
@@ -47877,20 +47877,20 @@
         </is>
       </c>
       <c r="J660" t="n">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="K660" t="n">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="L660" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="M660" t="n">
-        <v>3750</v>
+        <v>9500</v>
       </c>
       <c r="N660" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O660" t="inlineStr">
@@ -47899,10 +47899,10 @@
         </is>
       </c>
       <c r="P660" t="n">
-        <v>188</v>
+        <v>528</v>
       </c>
       <c r="Q660" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R660" t="inlineStr">
         <is>
@@ -47925,7 +47925,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44294</v>
+        <v>44644</v>
       </c>
       <c r="E661" t="n">
         <v>4</v>
@@ -47949,20 +47949,20 @@
         </is>
       </c>
       <c r="J661" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K661" t="n">
-        <v>1500</v>
+        <v>5000</v>
       </c>
       <c r="L661" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="M661" t="n">
-        <v>1750</v>
+        <v>5500</v>
       </c>
       <c r="N661" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O661" t="inlineStr">
@@ -47971,10 +47971,10 @@
         </is>
       </c>
       <c r="P661" t="n">
-        <v>88</v>
+        <v>306</v>
       </c>
       <c r="Q661" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R661" t="inlineStr">
         <is>
@@ -47997,7 +47997,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44489</v>
+        <v>44483</v>
       </c>
       <c r="E662" t="n">
         <v>4</v>
@@ -48021,17 +48021,17 @@
         </is>
       </c>
       <c r="J662" t="n">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="K662" t="n">
-        <v>26000</v>
+        <v>27000</v>
       </c>
       <c r="L662" t="n">
+        <v>29000</v>
+      </c>
+      <c r="M662" t="n">
         <v>28000</v>
       </c>
-      <c r="M662" t="n">
-        <v>27000</v>
-      </c>
       <c r="N662" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
@@ -48043,7 +48043,7 @@
         </is>
       </c>
       <c r="P662" t="n">
-        <v>1500</v>
+        <v>1556</v>
       </c>
       <c r="Q662" t="n">
         <v>18</v>
@@ -48069,7 +48069,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44489</v>
+        <v>44483</v>
       </c>
       <c r="E663" t="n">
         <v>4</v>
@@ -48093,16 +48093,16 @@
         </is>
       </c>
       <c r="J663" t="n">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="K663" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="L663" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="M663" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="N663" t="inlineStr">
         <is>
@@ -48115,7 +48115,7 @@
         </is>
       </c>
       <c r="P663" t="n">
-        <v>1278</v>
+        <v>1389</v>
       </c>
       <c r="Q663" t="n">
         <v>18</v>
@@ -48141,7 +48141,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44489</v>
+        <v>44483</v>
       </c>
       <c r="E664" t="n">
         <v>4</v>
@@ -48165,17 +48165,17 @@
         </is>
       </c>
       <c r="J664" t="n">
-        <v>1200</v>
+        <v>240</v>
       </c>
       <c r="K664" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="L664" t="n">
+        <v>21000</v>
+      </c>
+      <c r="M664" t="n">
         <v>20000</v>
       </c>
-      <c r="M664" t="n">
-        <v>19000</v>
-      </c>
       <c r="N664" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
@@ -48187,7 +48187,7 @@
         </is>
       </c>
       <c r="P664" t="n">
-        <v>1056</v>
+        <v>1111</v>
       </c>
       <c r="Q664" t="n">
         <v>18</v>
@@ -48213,7 +48213,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44279</v>
+        <v>44294</v>
       </c>
       <c r="E665" t="n">
         <v>4</v>
@@ -48228,7 +48228,7 @@
       </c>
       <c r="H665" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I665" t="inlineStr">
@@ -48237,16 +48237,16 @@
         </is>
       </c>
       <c r="J665" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K665" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L665" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M665" t="n">
-        <v>7750</v>
+        <v>9750</v>
       </c>
       <c r="N665" t="inlineStr">
         <is>
@@ -48259,7 +48259,7 @@
         </is>
       </c>
       <c r="P665" t="n">
-        <v>431</v>
+        <v>542</v>
       </c>
       <c r="Q665" t="n">
         <v>18</v>
@@ -48285,7 +48285,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44279</v>
+        <v>44294</v>
       </c>
       <c r="E666" t="n">
         <v>4</v>
@@ -48300,7 +48300,7 @@
       </c>
       <c r="H666" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I666" t="inlineStr">
@@ -48309,16 +48309,16 @@
         </is>
       </c>
       <c r="J666" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="K666" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L666" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M666" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N666" t="inlineStr">
         <is>
@@ -48331,7 +48331,7 @@
         </is>
       </c>
       <c r="P666" t="n">
-        <v>319</v>
+        <v>431</v>
       </c>
       <c r="Q666" t="n">
         <v>18</v>
@@ -48357,7 +48357,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44279</v>
+        <v>44294</v>
       </c>
       <c r="E667" t="n">
         <v>4</v>
@@ -48372,7 +48372,7 @@
       </c>
       <c r="H667" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I667" t="inlineStr">
@@ -48381,16 +48381,16 @@
         </is>
       </c>
       <c r="J667" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K667" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L667" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M667" t="n">
-        <v>3750</v>
+        <v>5750</v>
       </c>
       <c r="N667" t="inlineStr">
         <is>
@@ -48403,7 +48403,7 @@
         </is>
       </c>
       <c r="P667" t="n">
-        <v>208</v>
+        <v>319</v>
       </c>
       <c r="Q667" t="n">
         <v>18</v>
@@ -48429,7 +48429,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44279</v>
+        <v>44294</v>
       </c>
       <c r="E668" t="n">
         <v>4</v>
@@ -48444,7 +48444,7 @@
       </c>
       <c r="H668" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I668" t="inlineStr">
@@ -48453,7 +48453,7 @@
         </is>
       </c>
       <c r="J668" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K668" t="n">
         <v>5500</v>
@@ -48466,7 +48466,7 @@
       </c>
       <c r="N668" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O668" t="inlineStr">
@@ -48475,10 +48475,10 @@
         </is>
       </c>
       <c r="P668" t="n">
-        <v>319</v>
+        <v>288</v>
       </c>
       <c r="Q668" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R668" t="inlineStr">
         <is>
@@ -48501,7 +48501,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44279</v>
+        <v>44294</v>
       </c>
       <c r="E669" t="n">
         <v>4</v>
@@ -48516,7 +48516,7 @@
       </c>
       <c r="H669" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I669" t="inlineStr">
@@ -48538,7 +48538,7 @@
       </c>
       <c r="N669" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O669" t="inlineStr">
@@ -48547,10 +48547,10 @@
         </is>
       </c>
       <c r="P669" t="n">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="Q669" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R669" t="inlineStr">
         <is>
@@ -48573,7 +48573,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44279</v>
+        <v>44294</v>
       </c>
       <c r="E670" t="n">
         <v>4</v>
@@ -48588,7 +48588,7 @@
       </c>
       <c r="H670" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I670" t="inlineStr">
@@ -48610,7 +48610,7 @@
       </c>
       <c r="N670" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O670" t="inlineStr">
@@ -48619,10 +48619,10 @@
         </is>
       </c>
       <c r="P670" t="n">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="Q670" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R670" t="inlineStr">
         <is>
@@ -48645,7 +48645,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44504</v>
+        <v>44489</v>
       </c>
       <c r="E671" t="n">
         <v>4</v>
@@ -48669,16 +48669,16 @@
         </is>
       </c>
       <c r="J671" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="K671" t="n">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="L671" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="M671" t="n">
-        <v>23500</v>
+        <v>27000</v>
       </c>
       <c r="N671" t="inlineStr">
         <is>
@@ -48691,7 +48691,7 @@
         </is>
       </c>
       <c r="P671" t="n">
-        <v>1306</v>
+        <v>1500</v>
       </c>
       <c r="Q671" t="n">
         <v>18</v>
@@ -48717,7 +48717,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44504</v>
+        <v>44489</v>
       </c>
       <c r="E672" t="n">
         <v>4</v>
@@ -48741,16 +48741,16 @@
         </is>
       </c>
       <c r="J672" t="n">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="K672" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="L672" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="M672" t="n">
-        <v>18500</v>
+        <v>23000</v>
       </c>
       <c r="N672" t="inlineStr">
         <is>
@@ -48763,7 +48763,7 @@
         </is>
       </c>
       <c r="P672" t="n">
-        <v>1028</v>
+        <v>1278</v>
       </c>
       <c r="Q672" t="n">
         <v>18</v>
@@ -48789,7 +48789,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44504</v>
+        <v>44489</v>
       </c>
       <c r="E673" t="n">
         <v>4</v>
@@ -48813,16 +48813,16 @@
         </is>
       </c>
       <c r="J673" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="K673" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L673" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M673" t="n">
-        <v>13500</v>
+        <v>19000</v>
       </c>
       <c r="N673" t="inlineStr">
         <is>
@@ -48835,7 +48835,7 @@
         </is>
       </c>
       <c r="P673" t="n">
-        <v>750</v>
+        <v>1056</v>
       </c>
       <c r="Q673" t="n">
         <v>18</v>
@@ -48861,7 +48861,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44301</v>
+        <v>44279</v>
       </c>
       <c r="E674" t="n">
         <v>4</v>
@@ -48876,7 +48876,7 @@
       </c>
       <c r="H674" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I674" t="inlineStr">
@@ -48885,16 +48885,16 @@
         </is>
       </c>
       <c r="J674" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K674" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L674" t="n">
         <v>8000</v>
       </c>
       <c r="M674" t="n">
-        <v>7500</v>
+        <v>7750</v>
       </c>
       <c r="N674" t="inlineStr">
         <is>
@@ -48907,7 +48907,7 @@
         </is>
       </c>
       <c r="P674" t="n">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="Q674" t="n">
         <v>18</v>
@@ -48933,7 +48933,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44301</v>
+        <v>44279</v>
       </c>
       <c r="E675" t="n">
         <v>4</v>
@@ -48948,7 +48948,7 @@
       </c>
       <c r="H675" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I675" t="inlineStr">
@@ -48957,16 +48957,16 @@
         </is>
       </c>
       <c r="J675" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K675" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L675" t="n">
         <v>6000</v>
       </c>
       <c r="M675" t="n">
-        <v>5500</v>
+        <v>5750</v>
       </c>
       <c r="N675" t="inlineStr">
         <is>
@@ -48979,7 +48979,7 @@
         </is>
       </c>
       <c r="P675" t="n">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="Q675" t="n">
         <v>18</v>
@@ -49005,7 +49005,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44301</v>
+        <v>44279</v>
       </c>
       <c r="E676" t="n">
         <v>4</v>
@@ -49020,7 +49020,7 @@
       </c>
       <c r="H676" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I676" t="inlineStr">
@@ -49029,16 +49029,16 @@
         </is>
       </c>
       <c r="J676" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="K676" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L676" t="n">
         <v>4000</v>
       </c>
       <c r="M676" t="n">
-        <v>3500</v>
+        <v>3750</v>
       </c>
       <c r="N676" t="inlineStr">
         <is>
@@ -49051,7 +49051,7 @@
         </is>
       </c>
       <c r="P676" t="n">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="Q676" t="n">
         <v>18</v>
@@ -49077,7 +49077,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44301</v>
+        <v>44279</v>
       </c>
       <c r="E677" t="n">
         <v>4</v>
@@ -49092,7 +49092,7 @@
       </c>
       <c r="H677" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I677" t="inlineStr">
@@ -49101,16 +49101,16 @@
         </is>
       </c>
       <c r="J677" t="n">
-        <v>700</v>
+        <v>360</v>
       </c>
       <c r="K677" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L677" t="n">
         <v>6000</v>
       </c>
       <c r="M677" t="n">
-        <v>5500</v>
+        <v>5750</v>
       </c>
       <c r="N677" t="inlineStr">
         <is>
@@ -49123,7 +49123,7 @@
         </is>
       </c>
       <c r="P677" t="n">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="Q677" t="n">
         <v>18</v>
@@ -49149,7 +49149,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44301</v>
+        <v>44279</v>
       </c>
       <c r="E678" t="n">
         <v>4</v>
@@ -49164,7 +49164,7 @@
       </c>
       <c r="H678" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I678" t="inlineStr">
@@ -49173,16 +49173,16 @@
         </is>
       </c>
       <c r="J678" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="K678" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L678" t="n">
         <v>4000</v>
       </c>
       <c r="M678" t="n">
-        <v>3500</v>
+        <v>3750</v>
       </c>
       <c r="N678" t="inlineStr">
         <is>
@@ -49195,7 +49195,7 @@
         </is>
       </c>
       <c r="P678" t="n">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="Q678" t="n">
         <v>18</v>
@@ -49221,7 +49221,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44370</v>
+        <v>44279</v>
       </c>
       <c r="E679" t="n">
         <v>4</v>
@@ -49236,25 +49236,25 @@
       </c>
       <c r="H679" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I679" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J679" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="K679" t="n">
-        <v>16500</v>
+        <v>1500</v>
       </c>
       <c r="L679" t="n">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="M679" t="n">
-        <v>16750</v>
+        <v>1750</v>
       </c>
       <c r="N679" t="inlineStr">
         <is>
@@ -49267,7 +49267,7 @@
         </is>
       </c>
       <c r="P679" t="n">
-        <v>931</v>
+        <v>97</v>
       </c>
       <c r="Q679" t="n">
         <v>18</v>
@@ -49293,7 +49293,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44370</v>
+        <v>44504</v>
       </c>
       <c r="E680" t="n">
         <v>4</v>
@@ -49308,25 +49308,25 @@
       </c>
       <c r="H680" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I680" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J680" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K680" t="n">
-        <v>13500</v>
+        <v>23000</v>
       </c>
       <c r="L680" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="M680" t="n">
-        <v>13750</v>
+        <v>23500</v>
       </c>
       <c r="N680" t="inlineStr">
         <is>
@@ -49339,7 +49339,7 @@
         </is>
       </c>
       <c r="P680" t="n">
-        <v>764</v>
+        <v>1306</v>
       </c>
       <c r="Q680" t="n">
         <v>18</v>
@@ -49365,7 +49365,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44370</v>
+        <v>44504</v>
       </c>
       <c r="E681" t="n">
         <v>4</v>
@@ -49380,25 +49380,25 @@
       </c>
       <c r="H681" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I681" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J681" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K681" t="n">
-        <v>11500</v>
+        <v>18000</v>
       </c>
       <c r="L681" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="M681" t="n">
-        <v>11750</v>
+        <v>18500</v>
       </c>
       <c r="N681" t="inlineStr">
         <is>
@@ -49411,7 +49411,7 @@
         </is>
       </c>
       <c r="P681" t="n">
-        <v>653</v>
+        <v>1028</v>
       </c>
       <c r="Q681" t="n">
         <v>18</v>
@@ -49437,7 +49437,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44370</v>
+        <v>44504</v>
       </c>
       <c r="E682" t="n">
         <v>4</v>
@@ -49457,20 +49457,20 @@
       </c>
       <c r="I682" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J682" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K682" t="n">
-        <v>15500</v>
+        <v>13000</v>
       </c>
       <c r="L682" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M682" t="n">
-        <v>15750</v>
+        <v>13500</v>
       </c>
       <c r="N682" t="inlineStr">
         <is>
@@ -49483,7 +49483,7 @@
         </is>
       </c>
       <c r="P682" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="Q682" t="n">
         <v>18</v>
@@ -49509,7 +49509,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44370</v>
+        <v>44301</v>
       </c>
       <c r="E683" t="n">
         <v>4</v>
@@ -49529,20 +49529,20 @@
       </c>
       <c r="I683" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J683" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K683" t="n">
-        <v>12500</v>
+        <v>7000</v>
       </c>
       <c r="L683" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M683" t="n">
-        <v>12750</v>
+        <v>7500</v>
       </c>
       <c r="N683" t="inlineStr">
         <is>
@@ -49555,7 +49555,7 @@
         </is>
       </c>
       <c r="P683" t="n">
-        <v>708</v>
+        <v>417</v>
       </c>
       <c r="Q683" t="n">
         <v>18</v>
@@ -49581,7 +49581,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44370</v>
+        <v>44301</v>
       </c>
       <c r="E684" t="n">
         <v>4</v>
@@ -49601,20 +49601,20 @@
       </c>
       <c r="I684" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J684" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K684" t="n">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="L684" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M684" t="n">
-        <v>9750</v>
+        <v>5500</v>
       </c>
       <c r="N684" t="inlineStr">
         <is>
@@ -49627,7 +49627,7 @@
         </is>
       </c>
       <c r="P684" t="n">
-        <v>542</v>
+        <v>306</v>
       </c>
       <c r="Q684" t="n">
         <v>18</v>
@@ -49653,7 +49653,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44370</v>
+        <v>44301</v>
       </c>
       <c r="E685" t="n">
         <v>4</v>
@@ -49668,25 +49668,25 @@
       </c>
       <c r="H685" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I685" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J685" t="n">
-        <v>700</v>
+        <v>240</v>
       </c>
       <c r="K685" t="n">
-        <v>13500</v>
+        <v>3000</v>
       </c>
       <c r="L685" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="M685" t="n">
-        <v>13750</v>
+        <v>3500</v>
       </c>
       <c r="N685" t="inlineStr">
         <is>
@@ -49699,7 +49699,7 @@
         </is>
       </c>
       <c r="P685" t="n">
-        <v>764</v>
+        <v>194</v>
       </c>
       <c r="Q685" t="n">
         <v>18</v>
@@ -49725,7 +49725,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44370</v>
+        <v>44301</v>
       </c>
       <c r="E686" t="n">
         <v>4</v>
@@ -49745,20 +49745,20 @@
       </c>
       <c r="I686" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J686" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K686" t="n">
-        <v>11500</v>
+        <v>5000</v>
       </c>
       <c r="L686" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M686" t="n">
-        <v>11750</v>
+        <v>5500</v>
       </c>
       <c r="N686" t="inlineStr">
         <is>
@@ -49771,7 +49771,7 @@
         </is>
       </c>
       <c r="P686" t="n">
-        <v>653</v>
+        <v>306</v>
       </c>
       <c r="Q686" t="n">
         <v>18</v>
@@ -49797,7 +49797,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44370</v>
+        <v>44301</v>
       </c>
       <c r="E687" t="n">
         <v>4</v>
@@ -49817,20 +49817,20 @@
       </c>
       <c r="I687" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J687" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K687" t="n">
-        <v>9500</v>
+        <v>3000</v>
       </c>
       <c r="L687" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M687" t="n">
-        <v>9750</v>
+        <v>3500</v>
       </c>
       <c r="N687" t="inlineStr">
         <is>
@@ -49843,7 +49843,7 @@
         </is>
       </c>
       <c r="P687" t="n">
-        <v>542</v>
+        <v>194</v>
       </c>
       <c r="Q687" t="n">
         <v>18</v>
@@ -49869,7 +49869,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44385</v>
+        <v>44370</v>
       </c>
       <c r="E688" t="n">
         <v>4</v>
@@ -49884,7 +49884,7 @@
       </c>
       <c r="H688" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I688" t="inlineStr">
@@ -49893,16 +49893,16 @@
         </is>
       </c>
       <c r="J688" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K688" t="n">
-        <v>11500</v>
+        <v>16500</v>
       </c>
       <c r="L688" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M688" t="n">
-        <v>11750</v>
+        <v>16750</v>
       </c>
       <c r="N688" t="inlineStr">
         <is>
@@ -49915,7 +49915,7 @@
         </is>
       </c>
       <c r="P688" t="n">
-        <v>653</v>
+        <v>931</v>
       </c>
       <c r="Q688" t="n">
         <v>18</v>
@@ -49941,7 +49941,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44385</v>
+        <v>44370</v>
       </c>
       <c r="E689" t="n">
         <v>4</v>
@@ -49956,7 +49956,7 @@
       </c>
       <c r="H689" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I689" t="inlineStr">
@@ -49968,13 +49968,13 @@
         <v>500</v>
       </c>
       <c r="K689" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="L689" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M689" t="n">
-        <v>9750</v>
+        <v>13750</v>
       </c>
       <c r="N689" t="inlineStr">
         <is>
@@ -49987,7 +49987,7 @@
         </is>
       </c>
       <c r="P689" t="n">
-        <v>542</v>
+        <v>764</v>
       </c>
       <c r="Q689" t="n">
         <v>18</v>
@@ -50013,7 +50013,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44385</v>
+        <v>44370</v>
       </c>
       <c r="E690" t="n">
         <v>4</v>
@@ -50028,7 +50028,7 @@
       </c>
       <c r="H690" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I690" t="inlineStr">
@@ -50037,16 +50037,16 @@
         </is>
       </c>
       <c r="J690" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K690" t="n">
-        <v>6500</v>
+        <v>11500</v>
       </c>
       <c r="L690" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M690" t="n">
-        <v>6750</v>
+        <v>11750</v>
       </c>
       <c r="N690" t="inlineStr">
         <is>
@@ -50059,7 +50059,7 @@
         </is>
       </c>
       <c r="P690" t="n">
-        <v>375</v>
+        <v>653</v>
       </c>
       <c r="Q690" t="n">
         <v>18</v>
@@ -50085,7 +50085,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44385</v>
+        <v>44370</v>
       </c>
       <c r="E691" t="n">
         <v>4</v>
@@ -50100,7 +50100,7 @@
       </c>
       <c r="H691" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I691" t="inlineStr">
@@ -50109,16 +50109,16 @@
         </is>
       </c>
       <c r="J691" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K691" t="n">
-        <v>10500</v>
+        <v>15500</v>
       </c>
       <c r="L691" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="M691" t="n">
-        <v>10750</v>
+        <v>15750</v>
       </c>
       <c r="N691" t="inlineStr">
         <is>
@@ -50131,7 +50131,7 @@
         </is>
       </c>
       <c r="P691" t="n">
-        <v>597</v>
+        <v>875</v>
       </c>
       <c r="Q691" t="n">
         <v>18</v>
@@ -50157,7 +50157,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44385</v>
+        <v>44370</v>
       </c>
       <c r="E692" t="n">
         <v>4</v>
@@ -50172,7 +50172,7 @@
       </c>
       <c r="H692" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I692" t="inlineStr">
@@ -50181,16 +50181,16 @@
         </is>
       </c>
       <c r="J692" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K692" t="n">
-        <v>8500</v>
+        <v>12500</v>
       </c>
       <c r="L692" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M692" t="n">
-        <v>8750</v>
+        <v>12750</v>
       </c>
       <c r="N692" t="inlineStr">
         <is>
@@ -50203,7 +50203,7 @@
         </is>
       </c>
       <c r="P692" t="n">
-        <v>486</v>
+        <v>708</v>
       </c>
       <c r="Q692" t="n">
         <v>18</v>
@@ -50229,7 +50229,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44385</v>
+        <v>44370</v>
       </c>
       <c r="E693" t="n">
         <v>4</v>
@@ -50244,7 +50244,7 @@
       </c>
       <c r="H693" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I693" t="inlineStr">
@@ -50253,16 +50253,16 @@
         </is>
       </c>
       <c r="J693" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K693" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="L693" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M693" t="n">
-        <v>6750</v>
+        <v>9750</v>
       </c>
       <c r="N693" t="inlineStr">
         <is>
@@ -50275,7 +50275,7 @@
         </is>
       </c>
       <c r="P693" t="n">
-        <v>375</v>
+        <v>542</v>
       </c>
       <c r="Q693" t="n">
         <v>18</v>
@@ -50301,7 +50301,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44413</v>
+        <v>44370</v>
       </c>
       <c r="E694" t="n">
         <v>4</v>
@@ -50316,7 +50316,7 @@
       </c>
       <c r="H694" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I694" t="inlineStr">
@@ -50325,16 +50325,16 @@
         </is>
       </c>
       <c r="J694" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K694" t="n">
-        <v>19000</v>
+        <v>13500</v>
       </c>
       <c r="L694" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M694" t="n">
-        <v>19500</v>
+        <v>13750</v>
       </c>
       <c r="N694" t="inlineStr">
         <is>
@@ -50347,7 +50347,7 @@
         </is>
       </c>
       <c r="P694" t="n">
-        <v>1083</v>
+        <v>764</v>
       </c>
       <c r="Q694" t="n">
         <v>18</v>
@@ -50373,7 +50373,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44413</v>
+        <v>44370</v>
       </c>
       <c r="E695" t="n">
         <v>4</v>
@@ -50388,7 +50388,7 @@
       </c>
       <c r="H695" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I695" t="inlineStr">
@@ -50397,16 +50397,16 @@
         </is>
       </c>
       <c r="J695" t="n">
-        <v>360</v>
+        <v>600</v>
       </c>
       <c r="K695" t="n">
-        <v>16000</v>
+        <v>11500</v>
       </c>
       <c r="L695" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M695" t="n">
-        <v>16500</v>
+        <v>11750</v>
       </c>
       <c r="N695" t="inlineStr">
         <is>
@@ -50419,7 +50419,7 @@
         </is>
       </c>
       <c r="P695" t="n">
-        <v>917</v>
+        <v>653</v>
       </c>
       <c r="Q695" t="n">
         <v>18</v>
@@ -50445,7 +50445,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44413</v>
+        <v>44370</v>
       </c>
       <c r="E696" t="n">
         <v>4</v>
@@ -50460,7 +50460,7 @@
       </c>
       <c r="H696" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I696" t="inlineStr">
@@ -50469,16 +50469,16 @@
         </is>
       </c>
       <c r="J696" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K696" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="L696" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M696" t="n">
-        <v>13500</v>
+        <v>9750</v>
       </c>
       <c r="N696" t="inlineStr">
         <is>
@@ -50491,7 +50491,7 @@
         </is>
       </c>
       <c r="P696" t="n">
-        <v>750</v>
+        <v>542</v>
       </c>
       <c r="Q696" t="n">
         <v>18</v>
@@ -50517,7 +50517,7 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44413</v>
+        <v>44385</v>
       </c>
       <c r="E697" t="n">
         <v>4</v>
@@ -50532,7 +50532,7 @@
       </c>
       <c r="H697" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I697" t="inlineStr">
@@ -50541,16 +50541,16 @@
         </is>
       </c>
       <c r="J697" t="n">
-        <v>710</v>
+        <v>800</v>
       </c>
       <c r="K697" t="n">
-        <v>21000</v>
+        <v>11500</v>
       </c>
       <c r="L697" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="M697" t="n">
-        <v>21493</v>
+        <v>11750</v>
       </c>
       <c r="N697" t="inlineStr">
         <is>
@@ -50563,7 +50563,7 @@
         </is>
       </c>
       <c r="P697" t="n">
-        <v>1194</v>
+        <v>653</v>
       </c>
       <c r="Q697" t="n">
         <v>18</v>
@@ -50589,7 +50589,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44413</v>
+        <v>44385</v>
       </c>
       <c r="E698" t="n">
         <v>4</v>
@@ -50604,7 +50604,7 @@
       </c>
       <c r="H698" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I698" t="inlineStr">
@@ -50613,16 +50613,16 @@
         </is>
       </c>
       <c r="J698" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K698" t="n">
-        <v>17000</v>
+        <v>9500</v>
       </c>
       <c r="L698" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M698" t="n">
-        <v>17500</v>
+        <v>9750</v>
       </c>
       <c r="N698" t="inlineStr">
         <is>
@@ -50635,7 +50635,7 @@
         </is>
       </c>
       <c r="P698" t="n">
-        <v>972</v>
+        <v>542</v>
       </c>
       <c r="Q698" t="n">
         <v>18</v>
@@ -50661,7 +50661,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44413</v>
+        <v>44385</v>
       </c>
       <c r="E699" t="n">
         <v>4</v>
@@ -50676,7 +50676,7 @@
       </c>
       <c r="H699" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I699" t="inlineStr">
@@ -50688,13 +50688,13 @@
         <v>200</v>
       </c>
       <c r="K699" t="n">
-        <v>14000</v>
+        <v>6500</v>
       </c>
       <c r="L699" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M699" t="n">
-        <v>14500</v>
+        <v>6750</v>
       </c>
       <c r="N699" t="inlineStr">
         <is>
@@ -50707,7 +50707,7 @@
         </is>
       </c>
       <c r="P699" t="n">
-        <v>806</v>
+        <v>375</v>
       </c>
       <c r="Q699" t="n">
         <v>18</v>
@@ -50733,7 +50733,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44272</v>
+        <v>44385</v>
       </c>
       <c r="E700" t="n">
         <v>4</v>
@@ -50748,7 +50748,7 @@
       </c>
       <c r="H700" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I700" t="inlineStr">
@@ -50757,16 +50757,16 @@
         </is>
       </c>
       <c r="J700" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K700" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="L700" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M700" t="n">
-        <v>7750</v>
+        <v>10750</v>
       </c>
       <c r="N700" t="inlineStr">
         <is>
@@ -50779,7 +50779,7 @@
         </is>
       </c>
       <c r="P700" t="n">
-        <v>431</v>
+        <v>597</v>
       </c>
       <c r="Q700" t="n">
         <v>18</v>
@@ -50805,7 +50805,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44272</v>
+        <v>44385</v>
       </c>
       <c r="E701" t="n">
         <v>4</v>
@@ -50820,7 +50820,7 @@
       </c>
       <c r="H701" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I701" t="inlineStr">
@@ -50829,16 +50829,16 @@
         </is>
       </c>
       <c r="J701" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K701" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="L701" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M701" t="n">
-        <v>5750</v>
+        <v>8750</v>
       </c>
       <c r="N701" t="inlineStr">
         <is>
@@ -50851,7 +50851,7 @@
         </is>
       </c>
       <c r="P701" t="n">
-        <v>319</v>
+        <v>486</v>
       </c>
       <c r="Q701" t="n">
         <v>18</v>
@@ -50877,7 +50877,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44272</v>
+        <v>44385</v>
       </c>
       <c r="E702" t="n">
         <v>4</v>
@@ -50892,7 +50892,7 @@
       </c>
       <c r="H702" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I702" t="inlineStr">
@@ -50904,13 +50904,13 @@
         <v>240</v>
       </c>
       <c r="K702" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="L702" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M702" t="n">
-        <v>3750</v>
+        <v>6750</v>
       </c>
       <c r="N702" t="inlineStr">
         <is>
@@ -50923,7 +50923,7 @@
         </is>
       </c>
       <c r="P702" t="n">
-        <v>208</v>
+        <v>375</v>
       </c>
       <c r="Q702" t="n">
         <v>18</v>
@@ -50949,7 +50949,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44272</v>
+        <v>44413</v>
       </c>
       <c r="E703" t="n">
         <v>4</v>
@@ -50973,16 +50973,16 @@
         </is>
       </c>
       <c r="J703" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K703" t="n">
-        <v>5500</v>
+        <v>19000</v>
       </c>
       <c r="L703" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="M703" t="n">
-        <v>5750</v>
+        <v>19500</v>
       </c>
       <c r="N703" t="inlineStr">
         <is>
@@ -50995,7 +50995,7 @@
         </is>
       </c>
       <c r="P703" t="n">
-        <v>319</v>
+        <v>1083</v>
       </c>
       <c r="Q703" t="n">
         <v>18</v>
@@ -51021,7 +51021,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44272</v>
+        <v>44413</v>
       </c>
       <c r="E704" t="n">
         <v>4</v>
@@ -51045,16 +51045,16 @@
         </is>
       </c>
       <c r="J704" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K704" t="n">
-        <v>3500</v>
+        <v>16000</v>
       </c>
       <c r="L704" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="M704" t="n">
-        <v>3750</v>
+        <v>16500</v>
       </c>
       <c r="N704" t="inlineStr">
         <is>
@@ -51067,7 +51067,7 @@
         </is>
       </c>
       <c r="P704" t="n">
-        <v>208</v>
+        <v>917</v>
       </c>
       <c r="Q704" t="n">
         <v>18</v>
@@ -51093,7 +51093,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44272</v>
+        <v>44413</v>
       </c>
       <c r="E705" t="n">
         <v>4</v>
@@ -51120,13 +51120,13 @@
         <v>300</v>
       </c>
       <c r="K705" t="n">
-        <v>1500</v>
+        <v>13000</v>
       </c>
       <c r="L705" t="n">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="M705" t="n">
-        <v>1750</v>
+        <v>13500</v>
       </c>
       <c r="N705" t="inlineStr">
         <is>
@@ -51139,7 +51139,7 @@
         </is>
       </c>
       <c r="P705" t="n">
-        <v>97</v>
+        <v>750</v>
       </c>
       <c r="Q705" t="n">
         <v>18</v>
@@ -51165,7 +51165,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44399</v>
+        <v>44413</v>
       </c>
       <c r="E706" t="n">
         <v>4</v>
@@ -51180,7 +51180,7 @@
       </c>
       <c r="H706" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I706" t="inlineStr">
@@ -51189,16 +51189,16 @@
         </is>
       </c>
       <c r="J706" t="n">
-        <v>500</v>
+        <v>710</v>
       </c>
       <c r="K706" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="L706" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="M706" t="n">
-        <v>16500</v>
+        <v>21493</v>
       </c>
       <c r="N706" t="inlineStr">
         <is>
@@ -51211,7 +51211,7 @@
         </is>
       </c>
       <c r="P706" t="n">
-        <v>917</v>
+        <v>1194</v>
       </c>
       <c r="Q706" t="n">
         <v>18</v>
@@ -51237,7 +51237,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44399</v>
+        <v>44413</v>
       </c>
       <c r="E707" t="n">
         <v>4</v>
@@ -51252,7 +51252,7 @@
       </c>
       <c r="H707" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I707" t="inlineStr">
@@ -51261,16 +51261,16 @@
         </is>
       </c>
       <c r="J707" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K707" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L707" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M707" t="n">
-        <v>13500</v>
+        <v>17500</v>
       </c>
       <c r="N707" t="inlineStr">
         <is>
@@ -51283,7 +51283,7 @@
         </is>
       </c>
       <c r="P707" t="n">
-        <v>750</v>
+        <v>972</v>
       </c>
       <c r="Q707" t="n">
         <v>18</v>
@@ -51309,7 +51309,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44399</v>
+        <v>44413</v>
       </c>
       <c r="E708" t="n">
         <v>4</v>
@@ -51324,7 +51324,7 @@
       </c>
       <c r="H708" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I708" t="inlineStr">
@@ -51336,13 +51336,13 @@
         <v>200</v>
       </c>
       <c r="K708" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L708" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M708" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="N708" t="inlineStr">
         <is>
@@ -51355,7 +51355,7 @@
         </is>
       </c>
       <c r="P708" t="n">
-        <v>528</v>
+        <v>806</v>
       </c>
       <c r="Q708" t="n">
         <v>18</v>
@@ -51381,7 +51381,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44399</v>
+        <v>44272</v>
       </c>
       <c r="E709" t="n">
         <v>4</v>
@@ -51396,7 +51396,7 @@
       </c>
       <c r="H709" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I709" t="inlineStr">
@@ -51405,16 +51405,16 @@
         </is>
       </c>
       <c r="J709" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K709" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="L709" t="n">
-        <v>18500</v>
+        <v>8000</v>
       </c>
       <c r="M709" t="n">
-        <v>18250</v>
+        <v>7750</v>
       </c>
       <c r="N709" t="inlineStr">
         <is>
@@ -51427,7 +51427,7 @@
         </is>
       </c>
       <c r="P709" t="n">
-        <v>1014</v>
+        <v>431</v>
       </c>
       <c r="Q709" t="n">
         <v>18</v>
@@ -51453,7 +51453,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44399</v>
+        <v>44272</v>
       </c>
       <c r="E710" t="n">
         <v>4</v>
@@ -51468,7 +51468,7 @@
       </c>
       <c r="H710" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I710" t="inlineStr">
@@ -51477,16 +51477,16 @@
         </is>
       </c>
       <c r="J710" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K710" t="n">
-        <v>16000</v>
+        <v>5500</v>
       </c>
       <c r="L710" t="n">
-        <v>16500</v>
+        <v>6000</v>
       </c>
       <c r="M710" t="n">
-        <v>16250</v>
+        <v>5750</v>
       </c>
       <c r="N710" t="inlineStr">
         <is>
@@ -51499,7 +51499,7 @@
         </is>
       </c>
       <c r="P710" t="n">
-        <v>903</v>
+        <v>319</v>
       </c>
       <c r="Q710" t="n">
         <v>18</v>
@@ -51525,7 +51525,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44399</v>
+        <v>44272</v>
       </c>
       <c r="E711" t="n">
         <v>4</v>
@@ -51540,7 +51540,7 @@
       </c>
       <c r="H711" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I711" t="inlineStr">
@@ -51549,16 +51549,16 @@
         </is>
       </c>
       <c r="J711" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K711" t="n">
-        <v>14000</v>
+        <v>3500</v>
       </c>
       <c r="L711" t="n">
-        <v>14500</v>
+        <v>4000</v>
       </c>
       <c r="M711" t="n">
-        <v>14250</v>
+        <v>3750</v>
       </c>
       <c r="N711" t="inlineStr">
         <is>
@@ -51571,7 +51571,7 @@
         </is>
       </c>
       <c r="P711" t="n">
-        <v>792</v>
+        <v>208</v>
       </c>
       <c r="Q711" t="n">
         <v>18</v>
@@ -51597,7 +51597,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44615</v>
+        <v>44272</v>
       </c>
       <c r="E712" t="n">
         <v>4</v>
@@ -51612,7 +51612,7 @@
       </c>
       <c r="H712" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I712" t="inlineStr">
@@ -51621,16 +51621,16 @@
         </is>
       </c>
       <c r="J712" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K712" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="L712" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="M712" t="n">
-        <v>10500</v>
+        <v>5750</v>
       </c>
       <c r="N712" t="inlineStr">
         <is>
@@ -51643,7 +51643,7 @@
         </is>
       </c>
       <c r="P712" t="n">
-        <v>583</v>
+        <v>319</v>
       </c>
       <c r="Q712" t="n">
         <v>18</v>
@@ -51669,7 +51669,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44615</v>
+        <v>44272</v>
       </c>
       <c r="E713" t="n">
         <v>4</v>
@@ -51684,7 +51684,7 @@
       </c>
       <c r="H713" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I713" t="inlineStr">
@@ -51696,13 +51696,13 @@
         <v>400</v>
       </c>
       <c r="K713" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="L713" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M713" t="n">
-        <v>7500</v>
+        <v>3750</v>
       </c>
       <c r="N713" t="inlineStr">
         <is>
@@ -51715,7 +51715,7 @@
         </is>
       </c>
       <c r="P713" t="n">
-        <v>417</v>
+        <v>208</v>
       </c>
       <c r="Q713" t="n">
         <v>18</v>
@@ -51741,7 +51741,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44615</v>
+        <v>44272</v>
       </c>
       <c r="E714" t="n">
         <v>4</v>
@@ -51756,7 +51756,7 @@
       </c>
       <c r="H714" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I714" t="inlineStr">
@@ -51768,13 +51768,13 @@
         <v>300</v>
       </c>
       <c r="K714" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="L714" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="M714" t="n">
-        <v>4500</v>
+        <v>1750</v>
       </c>
       <c r="N714" t="inlineStr">
         <is>
@@ -51787,7 +51787,7 @@
         </is>
       </c>
       <c r="P714" t="n">
-        <v>250</v>
+        <v>97</v>
       </c>
       <c r="Q714" t="n">
         <v>18</v>
@@ -51813,7 +51813,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44615</v>
+        <v>44399</v>
       </c>
       <c r="E715" t="n">
         <v>4</v>
@@ -51837,16 +51837,16 @@
         </is>
       </c>
       <c r="J715" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K715" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="L715" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="M715" t="n">
-        <v>6500</v>
+        <v>16500</v>
       </c>
       <c r="N715" t="inlineStr">
         <is>
@@ -51859,7 +51859,7 @@
         </is>
       </c>
       <c r="P715" t="n">
-        <v>361</v>
+        <v>917</v>
       </c>
       <c r="Q715" t="n">
         <v>18</v>
@@ -51885,7 +51885,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44615</v>
+        <v>44399</v>
       </c>
       <c r="E716" t="n">
         <v>4</v>
@@ -51909,16 +51909,16 @@
         </is>
       </c>
       <c r="J716" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K716" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="L716" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="M716" t="n">
-        <v>4500</v>
+        <v>13500</v>
       </c>
       <c r="N716" t="inlineStr">
         <is>
@@ -51931,7 +51931,7 @@
         </is>
       </c>
       <c r="P716" t="n">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="Q716" t="n">
         <v>18</v>
@@ -51957,7 +51957,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44615</v>
+        <v>44399</v>
       </c>
       <c r="E717" t="n">
         <v>4</v>
@@ -51984,13 +51984,13 @@
         <v>200</v>
       </c>
       <c r="K717" t="n">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="L717" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="M717" t="n">
-        <v>2500</v>
+        <v>9500</v>
       </c>
       <c r="N717" t="inlineStr">
         <is>
@@ -52003,7 +52003,7 @@
         </is>
       </c>
       <c r="P717" t="n">
-        <v>139</v>
+        <v>528</v>
       </c>
       <c r="Q717" t="n">
         <v>18</v>
@@ -52029,7 +52029,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44615</v>
+        <v>44399</v>
       </c>
       <c r="E718" t="n">
         <v>4</v>
@@ -52053,16 +52053,16 @@
         </is>
       </c>
       <c r="J718" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K718" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="L718" t="n">
-        <v>11000</v>
+        <v>18500</v>
       </c>
       <c r="M718" t="n">
-        <v>10500</v>
+        <v>18250</v>
       </c>
       <c r="N718" t="inlineStr">
         <is>
@@ -52075,7 +52075,7 @@
         </is>
       </c>
       <c r="P718" t="n">
-        <v>583</v>
+        <v>1014</v>
       </c>
       <c r="Q718" t="n">
         <v>18</v>
@@ -52101,7 +52101,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44615</v>
+        <v>44399</v>
       </c>
       <c r="E719" t="n">
         <v>4</v>
@@ -52128,13 +52128,13 @@
         <v>400</v>
       </c>
       <c r="K719" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="L719" t="n">
-        <v>8000</v>
+        <v>16500</v>
       </c>
       <c r="M719" t="n">
-        <v>7500</v>
+        <v>16250</v>
       </c>
       <c r="N719" t="inlineStr">
         <is>
@@ -52147,7 +52147,7 @@
         </is>
       </c>
       <c r="P719" t="n">
-        <v>417</v>
+        <v>903</v>
       </c>
       <c r="Q719" t="n">
         <v>18</v>
@@ -52173,7 +52173,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44615</v>
+        <v>44399</v>
       </c>
       <c r="E720" t="n">
         <v>4</v>
@@ -52197,16 +52197,16 @@
         </is>
       </c>
       <c r="J720" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K720" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="L720" t="n">
-        <v>5000</v>
+        <v>14500</v>
       </c>
       <c r="M720" t="n">
-        <v>4500</v>
+        <v>14250</v>
       </c>
       <c r="N720" t="inlineStr">
         <is>
@@ -52219,7 +52219,7 @@
         </is>
       </c>
       <c r="P720" t="n">
-        <v>250</v>
+        <v>792</v>
       </c>
       <c r="Q720" t="n">
         <v>18</v>
@@ -52245,7 +52245,7 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44167</v>
+        <v>44615</v>
       </c>
       <c r="E721" t="n">
         <v>4</v>
@@ -52260,7 +52260,7 @@
       </c>
       <c r="H721" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I721" t="inlineStr">
@@ -52269,16 +52269,16 @@
         </is>
       </c>
       <c r="J721" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="K721" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="L721" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M721" t="n">
-        <v>13750</v>
+        <v>10500</v>
       </c>
       <c r="N721" t="inlineStr">
         <is>
@@ -52291,7 +52291,7 @@
         </is>
       </c>
       <c r="P721" t="n">
-        <v>764</v>
+        <v>583</v>
       </c>
       <c r="Q721" t="n">
         <v>18</v>
@@ -52317,7 +52317,7 @@
         </is>
       </c>
       <c r="D722" s="2" t="n">
-        <v>44167</v>
+        <v>44615</v>
       </c>
       <c r="E722" t="n">
         <v>4</v>
@@ -52332,7 +52332,7 @@
       </c>
       <c r="H722" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I722" t="inlineStr">
@@ -52341,16 +52341,16 @@
         </is>
       </c>
       <c r="J722" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K722" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L722" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M722" t="n">
-        <v>8750</v>
+        <v>7500</v>
       </c>
       <c r="N722" t="inlineStr">
         <is>
@@ -52363,7 +52363,7 @@
         </is>
       </c>
       <c r="P722" t="n">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="Q722" t="n">
         <v>18</v>
@@ -52389,7 +52389,7 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44167</v>
+        <v>44615</v>
       </c>
       <c r="E723" t="n">
         <v>4</v>
@@ -52404,7 +52404,7 @@
       </c>
       <c r="H723" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I723" t="inlineStr">
@@ -52413,16 +52413,16 @@
         </is>
       </c>
       <c r="J723" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K723" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L723" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M723" t="n">
-        <v>5750</v>
+        <v>4500</v>
       </c>
       <c r="N723" t="inlineStr">
         <is>
@@ -52435,7 +52435,7 @@
         </is>
       </c>
       <c r="P723" t="n">
-        <v>319</v>
+        <v>250</v>
       </c>
       <c r="Q723" t="n">
         <v>18</v>
@@ -52461,7 +52461,7 @@
         </is>
       </c>
       <c r="D724" s="2" t="n">
-        <v>44258</v>
+        <v>44615</v>
       </c>
       <c r="E724" t="n">
         <v>4</v>
@@ -52476,7 +52476,7 @@
       </c>
       <c r="H724" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I724" t="inlineStr">
@@ -52485,16 +52485,16 @@
         </is>
       </c>
       <c r="J724" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K724" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="L724" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M724" t="n">
-        <v>8750</v>
+        <v>6500</v>
       </c>
       <c r="N724" t="inlineStr">
         <is>
@@ -52507,7 +52507,7 @@
         </is>
       </c>
       <c r="P724" t="n">
-        <v>486</v>
+        <v>361</v>
       </c>
       <c r="Q724" t="n">
         <v>18</v>
@@ -52533,7 +52533,7 @@
         </is>
       </c>
       <c r="D725" s="2" t="n">
-        <v>44258</v>
+        <v>44615</v>
       </c>
       <c r="E725" t="n">
         <v>4</v>
@@ -52548,7 +52548,7 @@
       </c>
       <c r="H725" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I725" t="inlineStr">
@@ -52557,16 +52557,16 @@
         </is>
       </c>
       <c r="J725" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K725" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L725" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M725" t="n">
-        <v>6750</v>
+        <v>4500</v>
       </c>
       <c r="N725" t="inlineStr">
         <is>
@@ -52579,7 +52579,7 @@
         </is>
       </c>
       <c r="P725" t="n">
-        <v>375</v>
+        <v>250</v>
       </c>
       <c r="Q725" t="n">
         <v>18</v>
@@ -52605,7 +52605,7 @@
         </is>
       </c>
       <c r="D726" s="2" t="n">
-        <v>44258</v>
+        <v>44615</v>
       </c>
       <c r="E726" t="n">
         <v>4</v>
@@ -52620,7 +52620,7 @@
       </c>
       <c r="H726" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I726" t="inlineStr">
@@ -52629,16 +52629,16 @@
         </is>
       </c>
       <c r="J726" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K726" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="L726" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M726" t="n">
-        <v>4750</v>
+        <v>2500</v>
       </c>
       <c r="N726" t="inlineStr">
         <is>
@@ -52651,7 +52651,7 @@
         </is>
       </c>
       <c r="P726" t="n">
-        <v>264</v>
+        <v>139</v>
       </c>
       <c r="Q726" t="n">
         <v>18</v>
@@ -52677,7 +52677,7 @@
         </is>
       </c>
       <c r="D727" s="2" t="n">
-        <v>44258</v>
+        <v>44615</v>
       </c>
       <c r="E727" t="n">
         <v>4</v>
@@ -52692,7 +52692,7 @@
       </c>
       <c r="H727" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I727" t="inlineStr">
@@ -52701,16 +52701,16 @@
         </is>
       </c>
       <c r="J727" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="K727" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L727" t="n">
-        <v>5500</v>
+        <v>11000</v>
       </c>
       <c r="M727" t="n">
-        <v>5250</v>
+        <v>10500</v>
       </c>
       <c r="N727" t="inlineStr">
         <is>
@@ -52723,7 +52723,7 @@
         </is>
       </c>
       <c r="P727" t="n">
-        <v>292</v>
+        <v>583</v>
       </c>
       <c r="Q727" t="n">
         <v>18</v>
@@ -52749,7 +52749,7 @@
         </is>
       </c>
       <c r="D728" s="2" t="n">
-        <v>44258</v>
+        <v>44615</v>
       </c>
       <c r="E728" t="n">
         <v>4</v>
@@ -52764,7 +52764,7 @@
       </c>
       <c r="H728" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I728" t="inlineStr">
@@ -52773,16 +52773,16 @@
         </is>
       </c>
       <c r="J728" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K728" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="L728" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="M728" t="n">
-        <v>3250</v>
+        <v>7500</v>
       </c>
       <c r="N728" t="inlineStr">
         <is>
@@ -52795,7 +52795,7 @@
         </is>
       </c>
       <c r="P728" t="n">
-        <v>181</v>
+        <v>417</v>
       </c>
       <c r="Q728" t="n">
         <v>18</v>
@@ -52821,7 +52821,7 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
-        <v>44258</v>
+        <v>44615</v>
       </c>
       <c r="E729" t="n">
         <v>4</v>
@@ -52841,20 +52841,20 @@
       </c>
       <c r="I729" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J729" t="n">
-        <v>900</v>
+        <v>240</v>
       </c>
       <c r="K729" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L729" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M729" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="N729" t="inlineStr">
         <is>
@@ -52867,7 +52867,7 @@
         </is>
       </c>
       <c r="P729" t="n">
-        <v>417</v>
+        <v>250</v>
       </c>
       <c r="Q729" t="n">
         <v>18</v>
@@ -52893,7 +52893,7 @@
         </is>
       </c>
       <c r="D730" s="2" t="n">
-        <v>44258</v>
+        <v>44167</v>
       </c>
       <c r="E730" t="n">
         <v>4</v>
@@ -52908,25 +52908,25 @@
       </c>
       <c r="H730" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I730" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J730" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="K730" t="n">
-        <v>5000</v>
+        <v>13500</v>
       </c>
       <c r="L730" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="M730" t="n">
-        <v>5500</v>
+        <v>13750</v>
       </c>
       <c r="N730" t="inlineStr">
         <is>
@@ -52939,7 +52939,7 @@
         </is>
       </c>
       <c r="P730" t="n">
-        <v>306</v>
+        <v>764</v>
       </c>
       <c r="Q730" t="n">
         <v>18</v>
@@ -52965,7 +52965,7 @@
         </is>
       </c>
       <c r="D731" s="2" t="n">
-        <v>44349</v>
+        <v>44167</v>
       </c>
       <c r="E731" t="n">
         <v>4</v>
@@ -52985,11 +52985,11 @@
       </c>
       <c r="I731" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J731" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K731" t="n">
         <v>8500</v>
@@ -53037,7 +53037,7 @@
         </is>
       </c>
       <c r="D732" s="2" t="n">
-        <v>44349</v>
+        <v>44167</v>
       </c>
       <c r="E732" t="n">
         <v>4</v>
@@ -53057,20 +53057,20 @@
       </c>
       <c r="I732" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J732" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K732" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L732" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M732" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N732" t="inlineStr">
         <is>
@@ -53083,7 +53083,7 @@
         </is>
       </c>
       <c r="P732" t="n">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="Q732" t="n">
         <v>18</v>
@@ -53109,7 +53109,7 @@
         </is>
       </c>
       <c r="D733" s="2" t="n">
-        <v>44349</v>
+        <v>44258</v>
       </c>
       <c r="E733" t="n">
         <v>4</v>
@@ -53124,25 +53124,25 @@
       </c>
       <c r="H733" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I733" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J733" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K733" t="n">
-        <v>4500</v>
+        <v>8500</v>
       </c>
       <c r="L733" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M733" t="n">
-        <v>4750</v>
+        <v>8750</v>
       </c>
       <c r="N733" t="inlineStr">
         <is>
@@ -53155,7 +53155,7 @@
         </is>
       </c>
       <c r="P733" t="n">
-        <v>264</v>
+        <v>486</v>
       </c>
       <c r="Q733" t="n">
         <v>18</v>
@@ -53181,7 +53181,7 @@
         </is>
       </c>
       <c r="D734" s="2" t="n">
-        <v>44349</v>
+        <v>44258</v>
       </c>
       <c r="E734" t="n">
         <v>4</v>
@@ -53196,25 +53196,25 @@
       </c>
       <c r="H734" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I734" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J734" t="n">
         <v>400</v>
       </c>
       <c r="K734" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="L734" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M734" t="n">
-        <v>12500</v>
+        <v>6750</v>
       </c>
       <c r="N734" t="inlineStr">
         <is>
@@ -53227,7 +53227,7 @@
         </is>
       </c>
       <c r="P734" t="n">
-        <v>694</v>
+        <v>375</v>
       </c>
       <c r="Q734" t="n">
         <v>18</v>
@@ -53253,7 +53253,7 @@
         </is>
       </c>
       <c r="D735" s="2" t="n">
-        <v>44349</v>
+        <v>44258</v>
       </c>
       <c r="E735" t="n">
         <v>4</v>
@@ -53268,25 +53268,25 @@
       </c>
       <c r="H735" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I735" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J735" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K735" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="L735" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M735" t="n">
-        <v>9500</v>
+        <v>4750</v>
       </c>
       <c r="N735" t="inlineStr">
         <is>
@@ -53299,7 +53299,7 @@
         </is>
       </c>
       <c r="P735" t="n">
-        <v>528</v>
+        <v>264</v>
       </c>
       <c r="Q735" t="n">
         <v>18</v>
@@ -53325,7 +53325,7 @@
         </is>
       </c>
       <c r="D736" s="2" t="n">
-        <v>44349</v>
+        <v>44258</v>
       </c>
       <c r="E736" t="n">
         <v>4</v>
@@ -53340,25 +53340,25 @@
       </c>
       <c r="H736" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I736" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J736" t="n">
-        <v>160</v>
+        <v>1100</v>
       </c>
       <c r="K736" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L736" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M736" t="n">
-        <v>6500</v>
+        <v>5250</v>
       </c>
       <c r="N736" t="inlineStr">
         <is>
@@ -53371,7 +53371,7 @@
         </is>
       </c>
       <c r="P736" t="n">
-        <v>361</v>
+        <v>292</v>
       </c>
       <c r="Q736" t="n">
         <v>18</v>
@@ -53397,7 +53397,7 @@
         </is>
       </c>
       <c r="D737" s="2" t="n">
-        <v>44595</v>
+        <v>44258</v>
       </c>
       <c r="E737" t="n">
         <v>4</v>
@@ -53412,25 +53412,25 @@
       </c>
       <c r="H737" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I737" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J737" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K737" t="n">
-        <v>11000</v>
+        <v>3000</v>
       </c>
       <c r="L737" t="n">
-        <v>12000</v>
+        <v>3500</v>
       </c>
       <c r="M737" t="n">
-        <v>11500</v>
+        <v>3250</v>
       </c>
       <c r="N737" t="inlineStr">
         <is>
@@ -53443,7 +53443,7 @@
         </is>
       </c>
       <c r="P737" t="n">
-        <v>639</v>
+        <v>181</v>
       </c>
       <c r="Q737" t="n">
         <v>18</v>
@@ -53469,7 +53469,7 @@
         </is>
       </c>
       <c r="D738" s="2" t="n">
-        <v>44595</v>
+        <v>44258</v>
       </c>
       <c r="E738" t="n">
         <v>4</v>
@@ -53484,25 +53484,25 @@
       </c>
       <c r="H738" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I738" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J738" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="K738" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L738" t="n">
         <v>8000</v>
       </c>
-      <c r="L738" t="n">
-        <v>9000</v>
-      </c>
       <c r="M738" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N738" t="inlineStr">
         <is>
@@ -53515,7 +53515,7 @@
         </is>
       </c>
       <c r="P738" t="n">
-        <v>472</v>
+        <v>417</v>
       </c>
       <c r="Q738" t="n">
         <v>18</v>
@@ -53541,7 +53541,7 @@
         </is>
       </c>
       <c r="D739" s="2" t="n">
-        <v>44595</v>
+        <v>44258</v>
       </c>
       <c r="E739" t="n">
         <v>4</v>
@@ -53556,25 +53556,25 @@
       </c>
       <c r="H739" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I739" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J739" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="K739" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L739" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M739" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="N739" t="inlineStr">
         <is>
@@ -53587,7 +53587,7 @@
         </is>
       </c>
       <c r="P739" t="n">
-        <v>250</v>
+        <v>306</v>
       </c>
       <c r="Q739" t="n">
         <v>18</v>
@@ -53613,7 +53613,7 @@
         </is>
       </c>
       <c r="D740" s="2" t="n">
-        <v>44595</v>
+        <v>44349</v>
       </c>
       <c r="E740" t="n">
         <v>4</v>
@@ -53640,13 +53640,13 @@
         <v>400</v>
       </c>
       <c r="K740" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="L740" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M740" t="n">
-        <v>7750</v>
+        <v>8750</v>
       </c>
       <c r="N740" t="inlineStr">
         <is>
@@ -53659,7 +53659,7 @@
         </is>
       </c>
       <c r="P740" t="n">
-        <v>431</v>
+        <v>486</v>
       </c>
       <c r="Q740" t="n">
         <v>18</v>
@@ -53685,7 +53685,7 @@
         </is>
       </c>
       <c r="D741" s="2" t="n">
-        <v>44595</v>
+        <v>44349</v>
       </c>
       <c r="E741" t="n">
         <v>4</v>
@@ -53709,16 +53709,16 @@
         </is>
       </c>
       <c r="J741" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="K741" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L741" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M741" t="n">
-        <v>5750</v>
+        <v>6750</v>
       </c>
       <c r="N741" t="inlineStr">
         <is>
@@ -53731,7 +53731,7 @@
         </is>
       </c>
       <c r="P741" t="n">
-        <v>319</v>
+        <v>375</v>
       </c>
       <c r="Q741" t="n">
         <v>18</v>
@@ -53757,7 +53757,7 @@
         </is>
       </c>
       <c r="D742" s="2" t="n">
-        <v>44595</v>
+        <v>44349</v>
       </c>
       <c r="E742" t="n">
         <v>4</v>
@@ -53781,16 +53781,16 @@
         </is>
       </c>
       <c r="J742" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K742" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L742" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M742" t="n">
-        <v>3750</v>
+        <v>4750</v>
       </c>
       <c r="N742" t="inlineStr">
         <is>
@@ -53803,7 +53803,7 @@
         </is>
       </c>
       <c r="P742" t="n">
-        <v>208</v>
+        <v>264</v>
       </c>
       <c r="Q742" t="n">
         <v>18</v>
@@ -53829,7 +53829,7 @@
         </is>
       </c>
       <c r="D743" s="2" t="n">
-        <v>44335</v>
+        <v>44349</v>
       </c>
       <c r="E743" t="n">
         <v>4</v>
@@ -53844,7 +53844,7 @@
       </c>
       <c r="H743" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I743" t="inlineStr">
@@ -53853,16 +53853,16 @@
         </is>
       </c>
       <c r="J743" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K743" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="L743" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M743" t="n">
-        <v>9750</v>
+        <v>12500</v>
       </c>
       <c r="N743" t="inlineStr">
         <is>
@@ -53875,7 +53875,7 @@
         </is>
       </c>
       <c r="P743" t="n">
-        <v>542</v>
+        <v>694</v>
       </c>
       <c r="Q743" t="n">
         <v>18</v>
@@ -53901,7 +53901,7 @@
         </is>
       </c>
       <c r="D744" s="2" t="n">
-        <v>44335</v>
+        <v>44349</v>
       </c>
       <c r="E744" t="n">
         <v>4</v>
@@ -53916,7 +53916,7 @@
       </c>
       <c r="H744" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I744" t="inlineStr">
@@ -53925,16 +53925,16 @@
         </is>
       </c>
       <c r="J744" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="K744" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L744" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M744" t="n">
-        <v>7750</v>
+        <v>9500</v>
       </c>
       <c r="N744" t="inlineStr">
         <is>
@@ -53947,7 +53947,7 @@
         </is>
       </c>
       <c r="P744" t="n">
-        <v>431</v>
+        <v>528</v>
       </c>
       <c r="Q744" t="n">
         <v>18</v>
@@ -53973,7 +53973,7 @@
         </is>
       </c>
       <c r="D745" s="2" t="n">
-        <v>44335</v>
+        <v>44349</v>
       </c>
       <c r="E745" t="n">
         <v>4</v>
@@ -53988,7 +53988,7 @@
       </c>
       <c r="H745" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I745" t="inlineStr">
@@ -53997,16 +53997,16 @@
         </is>
       </c>
       <c r="J745" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="K745" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L745" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M745" t="n">
-        <v>5750</v>
+        <v>6500</v>
       </c>
       <c r="N745" t="inlineStr">
         <is>
@@ -54019,7 +54019,7 @@
         </is>
       </c>
       <c r="P745" t="n">
-        <v>319</v>
+        <v>361</v>
       </c>
       <c r="Q745" t="n">
         <v>18</v>
@@ -54045,7 +54045,7 @@
         </is>
       </c>
       <c r="D746" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E746" t="n">
         <v>4</v>
@@ -54060,7 +54060,7 @@
       </c>
       <c r="H746" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I746" t="inlineStr">
@@ -54069,16 +54069,16 @@
         </is>
       </c>
       <c r="J746" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K746" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L746" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M746" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="N746" t="inlineStr">
         <is>
@@ -54091,7 +54091,7 @@
         </is>
       </c>
       <c r="P746" t="n">
-        <v>750</v>
+        <v>639</v>
       </c>
       <c r="Q746" t="n">
         <v>18</v>
@@ -54117,7 +54117,7 @@
         </is>
       </c>
       <c r="D747" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E747" t="n">
         <v>4</v>
@@ -54132,7 +54132,7 @@
       </c>
       <c r="H747" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I747" t="inlineStr">
@@ -54141,16 +54141,16 @@
         </is>
       </c>
       <c r="J747" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K747" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L747" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M747" t="n">
-        <v>11500</v>
+        <v>8500</v>
       </c>
       <c r="N747" t="inlineStr">
         <is>
@@ -54163,7 +54163,7 @@
         </is>
       </c>
       <c r="P747" t="n">
-        <v>639</v>
+        <v>472</v>
       </c>
       <c r="Q747" t="n">
         <v>18</v>
@@ -54189,7 +54189,7 @@
         </is>
       </c>
       <c r="D748" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E748" t="n">
         <v>4</v>
@@ -54204,7 +54204,7 @@
       </c>
       <c r="H748" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I748" t="inlineStr">
@@ -54213,16 +54213,16 @@
         </is>
       </c>
       <c r="J748" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K748" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L748" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M748" t="n">
-        <v>9500</v>
+        <v>4500</v>
       </c>
       <c r="N748" t="inlineStr">
         <is>
@@ -54235,7 +54235,7 @@
         </is>
       </c>
       <c r="P748" t="n">
-        <v>528</v>
+        <v>250</v>
       </c>
       <c r="Q748" t="n">
         <v>18</v>
@@ -54261,7 +54261,7 @@
         </is>
       </c>
       <c r="D749" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E749" t="n">
         <v>4</v>
@@ -54276,7 +54276,7 @@
       </c>
       <c r="H749" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I749" t="inlineStr">
@@ -54288,13 +54288,13 @@
         <v>400</v>
       </c>
       <c r="K749" t="n">
-        <v>19000</v>
+        <v>7500</v>
       </c>
       <c r="L749" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="M749" t="n">
-        <v>19500</v>
+        <v>7750</v>
       </c>
       <c r="N749" t="inlineStr">
         <is>
@@ -54307,7 +54307,7 @@
         </is>
       </c>
       <c r="P749" t="n">
-        <v>1083</v>
+        <v>431</v>
       </c>
       <c r="Q749" t="n">
         <v>18</v>
@@ -54333,7 +54333,7 @@
         </is>
       </c>
       <c r="D750" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E750" t="n">
         <v>4</v>
@@ -54348,7 +54348,7 @@
       </c>
       <c r="H750" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I750" t="inlineStr">
@@ -54357,16 +54357,16 @@
         </is>
       </c>
       <c r="J750" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K750" t="n">
-        <v>16000</v>
+        <v>5500</v>
       </c>
       <c r="L750" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="M750" t="n">
-        <v>16500</v>
+        <v>5750</v>
       </c>
       <c r="N750" t="inlineStr">
         <is>
@@ -54379,7 +54379,7 @@
         </is>
       </c>
       <c r="P750" t="n">
-        <v>917</v>
+        <v>319</v>
       </c>
       <c r="Q750" t="n">
         <v>18</v>
@@ -54405,7 +54405,7 @@
         </is>
       </c>
       <c r="D751" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E751" t="n">
         <v>4</v>
@@ -54420,7 +54420,7 @@
       </c>
       <c r="H751" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I751" t="inlineStr">
@@ -54429,16 +54429,16 @@
         </is>
       </c>
       <c r="J751" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K751" t="n">
-        <v>14000</v>
+        <v>3500</v>
       </c>
       <c r="L751" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="M751" t="n">
-        <v>14500</v>
+        <v>3750</v>
       </c>
       <c r="N751" t="inlineStr">
         <is>
@@ -54451,7 +54451,7 @@
         </is>
       </c>
       <c r="P751" t="n">
-        <v>806</v>
+        <v>208</v>
       </c>
       <c r="Q751" t="n">
         <v>18</v>
@@ -54477,7 +54477,7 @@
         </is>
       </c>
       <c r="D752" s="2" t="n">
-        <v>44552</v>
+        <v>44335</v>
       </c>
       <c r="E752" t="n">
         <v>4</v>
@@ -54501,16 +54501,16 @@
         </is>
       </c>
       <c r="J752" t="n">
-        <v>720</v>
+        <v>1000</v>
       </c>
       <c r="K752" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="L752" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M752" t="n">
-        <v>6500</v>
+        <v>9750</v>
       </c>
       <c r="N752" t="inlineStr">
         <is>
@@ -54523,7 +54523,7 @@
         </is>
       </c>
       <c r="P752" t="n">
-        <v>361</v>
+        <v>542</v>
       </c>
       <c r="Q752" t="n">
         <v>18</v>
@@ -54549,7 +54549,7 @@
         </is>
       </c>
       <c r="D753" s="2" t="n">
-        <v>44552</v>
+        <v>44335</v>
       </c>
       <c r="E753" t="n">
         <v>4</v>
@@ -54573,16 +54573,16 @@
         </is>
       </c>
       <c r="J753" t="n">
-        <v>560</v>
+        <v>700</v>
       </c>
       <c r="K753" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="L753" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M753" t="n">
-        <v>4500</v>
+        <v>7750</v>
       </c>
       <c r="N753" t="inlineStr">
         <is>
@@ -54595,7 +54595,7 @@
         </is>
       </c>
       <c r="P753" t="n">
-        <v>250</v>
+        <v>431</v>
       </c>
       <c r="Q753" t="n">
         <v>18</v>
@@ -54621,7 +54621,7 @@
         </is>
       </c>
       <c r="D754" s="2" t="n">
-        <v>44160</v>
+        <v>44335</v>
       </c>
       <c r="E754" t="n">
         <v>4</v>
@@ -54641,20 +54641,20 @@
       </c>
       <c r="I754" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J754" t="n">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="K754" t="n">
-        <v>13000</v>
+        <v>5500</v>
       </c>
       <c r="L754" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="M754" t="n">
-        <v>13500</v>
+        <v>5750</v>
       </c>
       <c r="N754" t="inlineStr">
         <is>
@@ -54667,7 +54667,7 @@
         </is>
       </c>
       <c r="P754" t="n">
-        <v>750</v>
+        <v>319</v>
       </c>
       <c r="Q754" t="n">
         <v>18</v>
@@ -54693,7 +54693,7 @@
         </is>
       </c>
       <c r="D755" s="2" t="n">
-        <v>44160</v>
+        <v>44335</v>
       </c>
       <c r="E755" t="n">
         <v>4</v>
@@ -54708,25 +54708,25 @@
       </c>
       <c r="H755" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I755" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J755" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K755" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L755" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M755" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="N755" t="inlineStr">
         <is>
@@ -54739,7 +54739,7 @@
         </is>
       </c>
       <c r="P755" t="n">
-        <v>528</v>
+        <v>750</v>
       </c>
       <c r="Q755" t="n">
         <v>18</v>
@@ -54765,58 +54765,706 @@
         </is>
       </c>
       <c r="D756" s="2" t="n">
+        <v>44335</v>
+      </c>
+      <c r="E756" t="n">
+        <v>4</v>
+      </c>
+      <c r="F756" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G756" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H756" t="inlineStr">
+        <is>
+          <t>Morrón rojo</t>
+        </is>
+      </c>
+      <c r="I756" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J756" t="n">
+        <v>500</v>
+      </c>
+      <c r="K756" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L756" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M756" t="n">
+        <v>11500</v>
+      </c>
+      <c r="N756" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O756" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P756" t="n">
+        <v>639</v>
+      </c>
+      <c r="Q756" t="n">
+        <v>18</v>
+      </c>
+      <c r="R756" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="n">
+        <v>2</v>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C757" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D757" s="2" t="n">
+        <v>44335</v>
+      </c>
+      <c r="E757" t="n">
+        <v>4</v>
+      </c>
+      <c r="F757" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G757" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H757" t="inlineStr">
+        <is>
+          <t>Morrón rojo</t>
+        </is>
+      </c>
+      <c r="I757" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J757" t="n">
+        <v>400</v>
+      </c>
+      <c r="K757" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L757" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M757" t="n">
+        <v>9500</v>
+      </c>
+      <c r="N757" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O757" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P757" t="n">
+        <v>528</v>
+      </c>
+      <c r="Q757" t="n">
+        <v>18</v>
+      </c>
+      <c r="R757" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="n">
+        <v>2</v>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C758" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D758" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="E758" t="n">
+        <v>4</v>
+      </c>
+      <c r="F758" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G758" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H758" t="inlineStr">
+        <is>
+          <t>Cuatro cascos rojo</t>
+        </is>
+      </c>
+      <c r="I758" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J758" t="n">
+        <v>400</v>
+      </c>
+      <c r="K758" t="n">
+        <v>19000</v>
+      </c>
+      <c r="L758" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M758" t="n">
+        <v>19500</v>
+      </c>
+      <c r="N758" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O758" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P758" t="n">
+        <v>1083</v>
+      </c>
+      <c r="Q758" t="n">
+        <v>18</v>
+      </c>
+      <c r="R758" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="n">
+        <v>2</v>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C759" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D759" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="E759" t="n">
+        <v>4</v>
+      </c>
+      <c r="F759" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G759" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H759" t="inlineStr">
+        <is>
+          <t>Cuatro cascos rojo</t>
+        </is>
+      </c>
+      <c r="I759" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J759" t="n">
+        <v>300</v>
+      </c>
+      <c r="K759" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L759" t="n">
+        <v>17000</v>
+      </c>
+      <c r="M759" t="n">
+        <v>16500</v>
+      </c>
+      <c r="N759" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O759" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P759" t="n">
+        <v>917</v>
+      </c>
+      <c r="Q759" t="n">
+        <v>18</v>
+      </c>
+      <c r="R759" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="n">
+        <v>2</v>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C760" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D760" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="E760" t="n">
+        <v>4</v>
+      </c>
+      <c r="F760" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G760" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H760" t="inlineStr">
+        <is>
+          <t>Cuatro cascos rojo</t>
+        </is>
+      </c>
+      <c r="I760" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J760" t="n">
+        <v>300</v>
+      </c>
+      <c r="K760" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L760" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M760" t="n">
+        <v>14500</v>
+      </c>
+      <c r="N760" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O760" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P760" t="n">
+        <v>806</v>
+      </c>
+      <c r="Q760" t="n">
+        <v>18</v>
+      </c>
+      <c r="R760" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="n">
+        <v>2</v>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C761" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D761" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="E761" t="n">
+        <v>4</v>
+      </c>
+      <c r="F761" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G761" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H761" t="inlineStr">
+        <is>
+          <t>Cuatro cascos verde</t>
+        </is>
+      </c>
+      <c r="I761" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J761" t="n">
+        <v>720</v>
+      </c>
+      <c r="K761" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L761" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M761" t="n">
+        <v>6500</v>
+      </c>
+      <c r="N761" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O761" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P761" t="n">
+        <v>361</v>
+      </c>
+      <c r="Q761" t="n">
+        <v>18</v>
+      </c>
+      <c r="R761" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="n">
+        <v>2</v>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C762" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D762" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="E762" t="n">
+        <v>4</v>
+      </c>
+      <c r="F762" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G762" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H762" t="inlineStr">
+        <is>
+          <t>Cuatro cascos verde</t>
+        </is>
+      </c>
+      <c r="I762" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J762" t="n">
+        <v>560</v>
+      </c>
+      <c r="K762" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L762" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M762" t="n">
+        <v>4500</v>
+      </c>
+      <c r="N762" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O762" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P762" t="n">
+        <v>250</v>
+      </c>
+      <c r="Q762" t="n">
+        <v>18</v>
+      </c>
+      <c r="R762" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="n">
+        <v>2</v>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C763" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D763" s="2" t="n">
         <v>44160</v>
       </c>
-      <c r="E756" t="n">
-        <v>4</v>
-      </c>
-      <c r="F756" t="n">
-        <v>100112002</v>
-      </c>
-      <c r="G756" t="inlineStr">
-        <is>
-          <t>Pimiento</t>
-        </is>
-      </c>
-      <c r="H756" t="inlineStr">
+      <c r="E763" t="n">
+        <v>4</v>
+      </c>
+      <c r="F763" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G763" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H763" t="inlineStr">
         <is>
           <t>Cuatro cascos verde</t>
         </is>
       </c>
-      <c r="I756" t="inlineStr">
+      <c r="I763" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J763" t="n">
+        <v>1100</v>
+      </c>
+      <c r="K763" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L763" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M763" t="n">
+        <v>13500</v>
+      </c>
+      <c r="N763" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O763" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P763" t="n">
+        <v>750</v>
+      </c>
+      <c r="Q763" t="n">
+        <v>18</v>
+      </c>
+      <c r="R763" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="n">
+        <v>2</v>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C764" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D764" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E764" t="n">
+        <v>4</v>
+      </c>
+      <c r="F764" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G764" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H764" t="inlineStr">
+        <is>
+          <t>Cuatro cascos verde</t>
+        </is>
+      </c>
+      <c r="I764" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J764" t="n">
+        <v>1100</v>
+      </c>
+      <c r="K764" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L764" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M764" t="n">
+        <v>9500</v>
+      </c>
+      <c r="N764" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O764" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P764" t="n">
+        <v>528</v>
+      </c>
+      <c r="Q764" t="n">
+        <v>18</v>
+      </c>
+      <c r="R764" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="n">
+        <v>2</v>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C765" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D765" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E765" t="n">
+        <v>4</v>
+      </c>
+      <c r="F765" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G765" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H765" t="inlineStr">
+        <is>
+          <t>Cuatro cascos verde</t>
+        </is>
+      </c>
+      <c r="I765" t="inlineStr">
         <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="J756" t="n">
+      <c r="J765" t="n">
         <v>700</v>
       </c>
-      <c r="K756" t="n">
+      <c r="K765" t="n">
         <v>6000</v>
       </c>
-      <c r="L756" t="n">
+      <c r="L765" t="n">
         <v>7000</v>
       </c>
-      <c r="M756" t="n">
+      <c r="M765" t="n">
         <v>6500</v>
       </c>
-      <c r="N756" t="inlineStr">
-        <is>
-          <t>$/caja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O756" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P756" t="n">
+      <c r="N765" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O765" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P765" t="n">
         <v>361</v>
       </c>
-      <c r="Q756" t="n">
-        <v>18</v>
-      </c>
-      <c r="R756" t="inlineStr">
+      <c r="Q765" t="n">
+        <v>18</v>
+      </c>
+      <c r="R765" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pimiento.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pimiento.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R865"/>
+  <dimension ref="A1:R874"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59373,7 +59373,7 @@
         </is>
       </c>
       <c r="D820" s="2" t="n">
-        <v>44664</v>
+        <v>44706</v>
       </c>
       <c r="E820" t="n">
         <v>4</v>
@@ -59397,16 +59397,16 @@
         </is>
       </c>
       <c r="J820" t="n">
-        <v>248</v>
+        <v>160</v>
       </c>
       <c r="K820" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="L820" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M820" t="n">
-        <v>12516</v>
+        <v>19500</v>
       </c>
       <c r="N820" t="inlineStr">
         <is>
@@ -59419,7 +59419,7 @@
         </is>
       </c>
       <c r="P820" t="n">
-        <v>695</v>
+        <v>1083</v>
       </c>
       <c r="Q820" t="n">
         <v>18</v>
@@ -59445,7 +59445,7 @@
         </is>
       </c>
       <c r="D821" s="2" t="n">
-        <v>44664</v>
+        <v>44706</v>
       </c>
       <c r="E821" t="n">
         <v>4</v>
@@ -59469,16 +59469,16 @@
         </is>
       </c>
       <c r="J821" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K821" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L821" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="M821" t="n">
-        <v>10500</v>
+        <v>16500</v>
       </c>
       <c r="N821" t="inlineStr">
         <is>
@@ -59491,7 +59491,7 @@
         </is>
       </c>
       <c r="P821" t="n">
-        <v>583</v>
+        <v>917</v>
       </c>
       <c r="Q821" t="n">
         <v>18</v>
@@ -59517,7 +59517,7 @@
         </is>
       </c>
       <c r="D822" s="2" t="n">
-        <v>44664</v>
+        <v>44706</v>
       </c>
       <c r="E822" t="n">
         <v>4</v>
@@ -59541,16 +59541,16 @@
         </is>
       </c>
       <c r="J822" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K822" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L822" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M822" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="N822" t="inlineStr">
         <is>
@@ -59563,7 +59563,7 @@
         </is>
       </c>
       <c r="P822" t="n">
-        <v>472</v>
+        <v>639</v>
       </c>
       <c r="Q822" t="n">
         <v>18</v>
@@ -59589,7 +59589,7 @@
         </is>
       </c>
       <c r="D823" s="2" t="n">
-        <v>44664</v>
+        <v>44706</v>
       </c>
       <c r="E823" t="n">
         <v>4</v>
@@ -59613,16 +59613,16 @@
         </is>
       </c>
       <c r="J823" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K823" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="L823" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M823" t="n">
-        <v>9500</v>
+        <v>15500</v>
       </c>
       <c r="N823" t="inlineStr">
         <is>
@@ -59635,7 +59635,7 @@
         </is>
       </c>
       <c r="P823" t="n">
-        <v>528</v>
+        <v>861</v>
       </c>
       <c r="Q823" t="n">
         <v>18</v>
@@ -59661,7 +59661,7 @@
         </is>
       </c>
       <c r="D824" s="2" t="n">
-        <v>44664</v>
+        <v>44706</v>
       </c>
       <c r="E824" t="n">
         <v>4</v>
@@ -59685,16 +59685,16 @@
         </is>
       </c>
       <c r="J824" t="n">
-        <v>440</v>
+        <v>1000</v>
       </c>
       <c r="K824" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L824" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M824" t="n">
-        <v>7500</v>
+        <v>12500</v>
       </c>
       <c r="N824" t="inlineStr">
         <is>
@@ -59707,7 +59707,7 @@
         </is>
       </c>
       <c r="P824" t="n">
-        <v>417</v>
+        <v>694</v>
       </c>
       <c r="Q824" t="n">
         <v>18</v>
@@ -59733,7 +59733,7 @@
         </is>
       </c>
       <c r="D825" s="2" t="n">
-        <v>44664</v>
+        <v>44706</v>
       </c>
       <c r="E825" t="n">
         <v>4</v>
@@ -59757,16 +59757,16 @@
         </is>
       </c>
       <c r="J825" t="n">
-        <v>160</v>
+        <v>700</v>
       </c>
       <c r="K825" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L825" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M825" t="n">
-        <v>4500</v>
+        <v>8500</v>
       </c>
       <c r="N825" t="inlineStr">
         <is>
@@ -59779,7 +59779,7 @@
         </is>
       </c>
       <c r="P825" t="n">
-        <v>250</v>
+        <v>472</v>
       </c>
       <c r="Q825" t="n">
         <v>18</v>
@@ -59805,7 +59805,7 @@
         </is>
       </c>
       <c r="D826" s="2" t="n">
-        <v>44664</v>
+        <v>44706</v>
       </c>
       <c r="E826" t="n">
         <v>4</v>
@@ -59829,16 +59829,16 @@
         </is>
       </c>
       <c r="J826" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K826" t="n">
-        <v>19000</v>
+        <v>29000</v>
       </c>
       <c r="L826" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="M826" t="n">
-        <v>19500</v>
+        <v>29500</v>
       </c>
       <c r="N826" t="inlineStr">
         <is>
@@ -59851,7 +59851,7 @@
         </is>
       </c>
       <c r="P826" t="n">
-        <v>1083</v>
+        <v>1639</v>
       </c>
       <c r="Q826" t="n">
         <v>18</v>
@@ -59877,7 +59877,7 @@
         </is>
       </c>
       <c r="D827" s="2" t="n">
-        <v>44664</v>
+        <v>44706</v>
       </c>
       <c r="E827" t="n">
         <v>4</v>
@@ -59901,16 +59901,16 @@
         </is>
       </c>
       <c r="J827" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="K827" t="n">
-        <v>16000</v>
+        <v>27000</v>
       </c>
       <c r="L827" t="n">
-        <v>17000</v>
+        <v>28000</v>
       </c>
       <c r="M827" t="n">
-        <v>16500</v>
+        <v>27500</v>
       </c>
       <c r="N827" t="inlineStr">
         <is>
@@ -59923,7 +59923,7 @@
         </is>
       </c>
       <c r="P827" t="n">
-        <v>917</v>
+        <v>1528</v>
       </c>
       <c r="Q827" t="n">
         <v>18</v>
@@ -59949,7 +59949,7 @@
         </is>
       </c>
       <c r="D828" s="2" t="n">
-        <v>44664</v>
+        <v>44706</v>
       </c>
       <c r="E828" t="n">
         <v>4</v>
@@ -59973,16 +59973,16 @@
         </is>
       </c>
       <c r="J828" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="K828" t="n">
-        <v>11000</v>
+        <v>24000</v>
       </c>
       <c r="L828" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="M828" t="n">
-        <v>11500</v>
+        <v>24500</v>
       </c>
       <c r="N828" t="inlineStr">
         <is>
@@ -59995,7 +59995,7 @@
         </is>
       </c>
       <c r="P828" t="n">
-        <v>639</v>
+        <v>1361</v>
       </c>
       <c r="Q828" t="n">
         <v>18</v>
@@ -60021,7 +60021,7 @@
         </is>
       </c>
       <c r="D829" s="2" t="n">
-        <v>44566</v>
+        <v>44664</v>
       </c>
       <c r="E829" t="n">
         <v>4</v>
@@ -60045,16 +60045,16 @@
         </is>
       </c>
       <c r="J829" t="n">
-        <v>300</v>
+        <v>248</v>
       </c>
       <c r="K829" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L829" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M829" t="n">
-        <v>17500</v>
+        <v>12516</v>
       </c>
       <c r="N829" t="inlineStr">
         <is>
@@ -60067,7 +60067,7 @@
         </is>
       </c>
       <c r="P829" t="n">
-        <v>972</v>
+        <v>695</v>
       </c>
       <c r="Q829" t="n">
         <v>18</v>
@@ -60093,7 +60093,7 @@
         </is>
       </c>
       <c r="D830" s="2" t="n">
-        <v>44566</v>
+        <v>44664</v>
       </c>
       <c r="E830" t="n">
         <v>4</v>
@@ -60117,16 +60117,16 @@
         </is>
       </c>
       <c r="J830" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K830" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L830" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M830" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="N830" t="inlineStr">
         <is>
@@ -60139,7 +60139,7 @@
         </is>
       </c>
       <c r="P830" t="n">
-        <v>806</v>
+        <v>583</v>
       </c>
       <c r="Q830" t="n">
         <v>18</v>
@@ -60165,7 +60165,7 @@
         </is>
       </c>
       <c r="D831" s="2" t="n">
-        <v>44566</v>
+        <v>44664</v>
       </c>
       <c r="E831" t="n">
         <v>4</v>
@@ -60192,13 +60192,13 @@
         <v>160</v>
       </c>
       <c r="K831" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L831" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M831" t="n">
-        <v>11500</v>
+        <v>8500</v>
       </c>
       <c r="N831" t="inlineStr">
         <is>
@@ -60211,7 +60211,7 @@
         </is>
       </c>
       <c r="P831" t="n">
-        <v>639</v>
+        <v>472</v>
       </c>
       <c r="Q831" t="n">
         <v>18</v>
@@ -60237,7 +60237,7 @@
         </is>
       </c>
       <c r="D832" s="2" t="n">
-        <v>44566</v>
+        <v>44664</v>
       </c>
       <c r="E832" t="n">
         <v>4</v>
@@ -60261,16 +60261,16 @@
         </is>
       </c>
       <c r="J832" t="n">
-        <v>220</v>
+        <v>500</v>
       </c>
       <c r="K832" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L832" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M832" t="n">
-        <v>7909</v>
+        <v>9500</v>
       </c>
       <c r="N832" t="inlineStr">
         <is>
@@ -60283,7 +60283,7 @@
         </is>
       </c>
       <c r="P832" t="n">
-        <v>439</v>
+        <v>528</v>
       </c>
       <c r="Q832" t="n">
         <v>18</v>
@@ -60309,7 +60309,7 @@
         </is>
       </c>
       <c r="D833" s="2" t="n">
-        <v>44566</v>
+        <v>44664</v>
       </c>
       <c r="E833" t="n">
         <v>4</v>
@@ -60333,16 +60333,16 @@
         </is>
       </c>
       <c r="J833" t="n">
-        <v>360</v>
+        <v>440</v>
       </c>
       <c r="K833" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L833" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M833" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="N833" t="inlineStr">
         <is>
@@ -60355,7 +60355,7 @@
         </is>
       </c>
       <c r="P833" t="n">
-        <v>306</v>
+        <v>417</v>
       </c>
       <c r="Q833" t="n">
         <v>18</v>
@@ -60381,7 +60381,7 @@
         </is>
       </c>
       <c r="D834" s="2" t="n">
-        <v>44566</v>
+        <v>44664</v>
       </c>
       <c r="E834" t="n">
         <v>4</v>
@@ -60405,16 +60405,16 @@
         </is>
       </c>
       <c r="J834" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="K834" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L834" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M834" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="N834" t="inlineStr">
         <is>
@@ -60427,7 +60427,7 @@
         </is>
       </c>
       <c r="P834" t="n">
-        <v>194</v>
+        <v>250</v>
       </c>
       <c r="Q834" t="n">
         <v>18</v>
@@ -60453,7 +60453,7 @@
         </is>
       </c>
       <c r="D835" s="2" t="n">
-        <v>44602</v>
+        <v>44664</v>
       </c>
       <c r="E835" t="n">
         <v>4</v>
@@ -60468,7 +60468,7 @@
       </c>
       <c r="H835" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I835" t="inlineStr">
@@ -60477,16 +60477,16 @@
         </is>
       </c>
       <c r="J835" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K835" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="L835" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="M835" t="n">
-        <v>11500</v>
+        <v>19500</v>
       </c>
       <c r="N835" t="inlineStr">
         <is>
@@ -60499,7 +60499,7 @@
         </is>
       </c>
       <c r="P835" t="n">
-        <v>639</v>
+        <v>1083</v>
       </c>
       <c r="Q835" t="n">
         <v>18</v>
@@ -60525,7 +60525,7 @@
         </is>
       </c>
       <c r="D836" s="2" t="n">
-        <v>44602</v>
+        <v>44664</v>
       </c>
       <c r="E836" t="n">
         <v>4</v>
@@ -60540,7 +60540,7 @@
       </c>
       <c r="H836" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I836" t="inlineStr">
@@ -60552,13 +60552,13 @@
         <v>300</v>
       </c>
       <c r="K836" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="L836" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="M836" t="n">
-        <v>8500</v>
+        <v>16500</v>
       </c>
       <c r="N836" t="inlineStr">
         <is>
@@ -60571,7 +60571,7 @@
         </is>
       </c>
       <c r="P836" t="n">
-        <v>472</v>
+        <v>917</v>
       </c>
       <c r="Q836" t="n">
         <v>18</v>
@@ -60597,7 +60597,7 @@
         </is>
       </c>
       <c r="D837" s="2" t="n">
-        <v>44602</v>
+        <v>44664</v>
       </c>
       <c r="E837" t="n">
         <v>4</v>
@@ -60612,7 +60612,7 @@
       </c>
       <c r="H837" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I837" t="inlineStr">
@@ -60621,16 +60621,16 @@
         </is>
       </c>
       <c r="J837" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="K837" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="L837" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M837" t="n">
-        <v>5500</v>
+        <v>11500</v>
       </c>
       <c r="N837" t="inlineStr">
         <is>
@@ -60643,7 +60643,7 @@
         </is>
       </c>
       <c r="P837" t="n">
-        <v>306</v>
+        <v>639</v>
       </c>
       <c r="Q837" t="n">
         <v>18</v>
@@ -60669,7 +60669,7 @@
         </is>
       </c>
       <c r="D838" s="2" t="n">
-        <v>44602</v>
+        <v>44566</v>
       </c>
       <c r="E838" t="n">
         <v>4</v>
@@ -60684,7 +60684,7 @@
       </c>
       <c r="H838" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I838" t="inlineStr">
@@ -60693,16 +60693,16 @@
         </is>
       </c>
       <c r="J838" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K838" t="n">
-        <v>7500</v>
+        <v>17000</v>
       </c>
       <c r="L838" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="M838" t="n">
-        <v>7750</v>
+        <v>17500</v>
       </c>
       <c r="N838" t="inlineStr">
         <is>
@@ -60715,7 +60715,7 @@
         </is>
       </c>
       <c r="P838" t="n">
-        <v>431</v>
+        <v>972</v>
       </c>
       <c r="Q838" t="n">
         <v>18</v>
@@ -60741,7 +60741,7 @@
         </is>
       </c>
       <c r="D839" s="2" t="n">
-        <v>44602</v>
+        <v>44566</v>
       </c>
       <c r="E839" t="n">
         <v>4</v>
@@ -60756,7 +60756,7 @@
       </c>
       <c r="H839" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I839" t="inlineStr">
@@ -60765,16 +60765,16 @@
         </is>
       </c>
       <c r="J839" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="K839" t="n">
-        <v>5500</v>
+        <v>14000</v>
       </c>
       <c r="L839" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="M839" t="n">
-        <v>5750</v>
+        <v>14500</v>
       </c>
       <c r="N839" t="inlineStr">
         <is>
@@ -60787,7 +60787,7 @@
         </is>
       </c>
       <c r="P839" t="n">
-        <v>319</v>
+        <v>806</v>
       </c>
       <c r="Q839" t="n">
         <v>18</v>
@@ -60813,7 +60813,7 @@
         </is>
       </c>
       <c r="D840" s="2" t="n">
-        <v>44602</v>
+        <v>44566</v>
       </c>
       <c r="E840" t="n">
         <v>4</v>
@@ -60828,7 +60828,7 @@
       </c>
       <c r="H840" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I840" t="inlineStr">
@@ -60837,16 +60837,16 @@
         </is>
       </c>
       <c r="J840" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="K840" t="n">
-        <v>3500</v>
+        <v>11000</v>
       </c>
       <c r="L840" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="M840" t="n">
-        <v>3750</v>
+        <v>11500</v>
       </c>
       <c r="N840" t="inlineStr">
         <is>
@@ -60859,7 +60859,7 @@
         </is>
       </c>
       <c r="P840" t="n">
-        <v>208</v>
+        <v>639</v>
       </c>
       <c r="Q840" t="n">
         <v>18</v>
@@ -60885,7 +60885,7 @@
         </is>
       </c>
       <c r="D841" s="2" t="n">
-        <v>44602</v>
+        <v>44566</v>
       </c>
       <c r="E841" t="n">
         <v>4</v>
@@ -60900,7 +60900,7 @@
       </c>
       <c r="H841" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I841" t="inlineStr">
@@ -60909,16 +60909,16 @@
         </is>
       </c>
       <c r="J841" t="n">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="K841" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L841" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M841" t="n">
-        <v>12500</v>
+        <v>7909</v>
       </c>
       <c r="N841" t="inlineStr">
         <is>
@@ -60931,7 +60931,7 @@
         </is>
       </c>
       <c r="P841" t="n">
-        <v>694</v>
+        <v>439</v>
       </c>
       <c r="Q841" t="n">
         <v>18</v>
@@ -60957,7 +60957,7 @@
         </is>
       </c>
       <c r="D842" s="2" t="n">
-        <v>44602</v>
+        <v>44566</v>
       </c>
       <c r="E842" t="n">
         <v>4</v>
@@ -60972,7 +60972,7 @@
       </c>
       <c r="H842" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I842" t="inlineStr">
@@ -60981,16 +60981,16 @@
         </is>
       </c>
       <c r="J842" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="K842" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L842" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M842" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="N842" t="inlineStr">
         <is>
@@ -61003,7 +61003,7 @@
         </is>
       </c>
       <c r="P842" t="n">
-        <v>528</v>
+        <v>306</v>
       </c>
       <c r="Q842" t="n">
         <v>18</v>
@@ -61029,7 +61029,7 @@
         </is>
       </c>
       <c r="D843" s="2" t="n">
-        <v>44602</v>
+        <v>44566</v>
       </c>
       <c r="E843" t="n">
         <v>4</v>
@@ -61044,7 +61044,7 @@
       </c>
       <c r="H843" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I843" t="inlineStr">
@@ -61053,16 +61053,16 @@
         </is>
       </c>
       <c r="J843" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="K843" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L843" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M843" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="N843" t="inlineStr">
         <is>
@@ -61075,7 +61075,7 @@
         </is>
       </c>
       <c r="P843" t="n">
-        <v>361</v>
+        <v>194</v>
       </c>
       <c r="Q843" t="n">
         <v>18</v>
@@ -61101,7 +61101,7 @@
         </is>
       </c>
       <c r="D844" s="2" t="n">
-        <v>44692</v>
+        <v>44602</v>
       </c>
       <c r="E844" t="n">
         <v>4</v>
@@ -61125,16 +61125,16 @@
         </is>
       </c>
       <c r="J844" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K844" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="L844" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M844" t="n">
-        <v>16500</v>
+        <v>11500</v>
       </c>
       <c r="N844" t="inlineStr">
         <is>
@@ -61147,7 +61147,7 @@
         </is>
       </c>
       <c r="P844" t="n">
-        <v>917</v>
+        <v>639</v>
       </c>
       <c r="Q844" t="n">
         <v>18</v>
@@ -61173,7 +61173,7 @@
         </is>
       </c>
       <c r="D845" s="2" t="n">
-        <v>44692</v>
+        <v>44602</v>
       </c>
       <c r="E845" t="n">
         <v>4</v>
@@ -61197,16 +61197,16 @@
         </is>
       </c>
       <c r="J845" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K845" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L845" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M845" t="n">
-        <v>13500</v>
+        <v>8500</v>
       </c>
       <c r="N845" t="inlineStr">
         <is>
@@ -61219,7 +61219,7 @@
         </is>
       </c>
       <c r="P845" t="n">
-        <v>750</v>
+        <v>472</v>
       </c>
       <c r="Q845" t="n">
         <v>18</v>
@@ -61245,7 +61245,7 @@
         </is>
       </c>
       <c r="D846" s="2" t="n">
-        <v>44692</v>
+        <v>44602</v>
       </c>
       <c r="E846" t="n">
         <v>4</v>
@@ -61269,16 +61269,16 @@
         </is>
       </c>
       <c r="J846" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K846" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L846" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M846" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="N846" t="inlineStr">
         <is>
@@ -61291,7 +61291,7 @@
         </is>
       </c>
       <c r="P846" t="n">
-        <v>528</v>
+        <v>306</v>
       </c>
       <c r="Q846" t="n">
         <v>18</v>
@@ -61317,7 +61317,7 @@
         </is>
       </c>
       <c r="D847" s="2" t="n">
-        <v>44692</v>
+        <v>44602</v>
       </c>
       <c r="E847" t="n">
         <v>4</v>
@@ -61341,16 +61341,16 @@
         </is>
       </c>
       <c r="J847" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K847" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="L847" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M847" t="n">
-        <v>14500</v>
+        <v>7750</v>
       </c>
       <c r="N847" t="inlineStr">
         <is>
@@ -61363,7 +61363,7 @@
         </is>
       </c>
       <c r="P847" t="n">
-        <v>806</v>
+        <v>431</v>
       </c>
       <c r="Q847" t="n">
         <v>18</v>
@@ -61389,7 +61389,7 @@
         </is>
       </c>
       <c r="D848" s="2" t="n">
-        <v>44692</v>
+        <v>44602</v>
       </c>
       <c r="E848" t="n">
         <v>4</v>
@@ -61413,16 +61413,16 @@
         </is>
       </c>
       <c r="J848" t="n">
-        <v>700</v>
+        <v>360</v>
       </c>
       <c r="K848" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="L848" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="M848" t="n">
-        <v>10500</v>
+        <v>5750</v>
       </c>
       <c r="N848" t="inlineStr">
         <is>
@@ -61435,7 +61435,7 @@
         </is>
       </c>
       <c r="P848" t="n">
-        <v>583</v>
+        <v>319</v>
       </c>
       <c r="Q848" t="n">
         <v>18</v>
@@ -61461,7 +61461,7 @@
         </is>
       </c>
       <c r="D849" s="2" t="n">
-        <v>44692</v>
+        <v>44602</v>
       </c>
       <c r="E849" t="n">
         <v>4</v>
@@ -61485,16 +61485,16 @@
         </is>
       </c>
       <c r="J849" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K849" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="L849" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M849" t="n">
-        <v>7500</v>
+        <v>3750</v>
       </c>
       <c r="N849" t="inlineStr">
         <is>
@@ -61507,7 +61507,7 @@
         </is>
       </c>
       <c r="P849" t="n">
-        <v>417</v>
+        <v>208</v>
       </c>
       <c r="Q849" t="n">
         <v>18</v>
@@ -61533,7 +61533,7 @@
         </is>
       </c>
       <c r="D850" s="2" t="n">
-        <v>44692</v>
+        <v>44602</v>
       </c>
       <c r="E850" t="n">
         <v>4</v>
@@ -61557,16 +61557,16 @@
         </is>
       </c>
       <c r="J850" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="K850" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="L850" t="n">
-        <v>30000</v>
+        <v>13000</v>
       </c>
       <c r="M850" t="n">
-        <v>29000</v>
+        <v>12500</v>
       </c>
       <c r="N850" t="inlineStr">
         <is>
@@ -61579,7 +61579,7 @@
         </is>
       </c>
       <c r="P850" t="n">
-        <v>1611</v>
+        <v>694</v>
       </c>
       <c r="Q850" t="n">
         <v>18</v>
@@ -61605,7 +61605,7 @@
         </is>
       </c>
       <c r="D851" s="2" t="n">
-        <v>44692</v>
+        <v>44602</v>
       </c>
       <c r="E851" t="n">
         <v>4</v>
@@ -61629,16 +61629,16 @@
         </is>
       </c>
       <c r="J851" t="n">
-        <v>700</v>
+        <v>240</v>
       </c>
       <c r="K851" t="n">
-        <v>23000</v>
+        <v>9000</v>
       </c>
       <c r="L851" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="M851" t="n">
-        <v>24000</v>
+        <v>9500</v>
       </c>
       <c r="N851" t="inlineStr">
         <is>
@@ -61651,7 +61651,7 @@
         </is>
       </c>
       <c r="P851" t="n">
-        <v>1333</v>
+        <v>528</v>
       </c>
       <c r="Q851" t="n">
         <v>18</v>
@@ -61677,7 +61677,7 @@
         </is>
       </c>
       <c r="D852" s="2" t="n">
-        <v>44692</v>
+        <v>44602</v>
       </c>
       <c r="E852" t="n">
         <v>4</v>
@@ -61701,16 +61701,16 @@
         </is>
       </c>
       <c r="J852" t="n">
-        <v>600</v>
+        <v>160</v>
       </c>
       <c r="K852" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="L852" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="M852" t="n">
-        <v>19000</v>
+        <v>6500</v>
       </c>
       <c r="N852" t="inlineStr">
         <is>
@@ -61723,7 +61723,7 @@
         </is>
       </c>
       <c r="P852" t="n">
-        <v>1056</v>
+        <v>361</v>
       </c>
       <c r="Q852" t="n">
         <v>18</v>
@@ -61749,7 +61749,7 @@
         </is>
       </c>
       <c r="D853" s="2" t="n">
-        <v>44315</v>
+        <v>44692</v>
       </c>
       <c r="E853" t="n">
         <v>4</v>
@@ -61773,16 +61773,16 @@
         </is>
       </c>
       <c r="J853" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="K853" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="L853" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="M853" t="n">
-        <v>9500</v>
+        <v>16500</v>
       </c>
       <c r="N853" t="inlineStr">
         <is>
@@ -61795,7 +61795,7 @@
         </is>
       </c>
       <c r="P853" t="n">
-        <v>528</v>
+        <v>917</v>
       </c>
       <c r="Q853" t="n">
         <v>18</v>
@@ -61821,7 +61821,7 @@
         </is>
       </c>
       <c r="D854" s="2" t="n">
-        <v>44315</v>
+        <v>44692</v>
       </c>
       <c r="E854" t="n">
         <v>4</v>
@@ -61845,16 +61845,16 @@
         </is>
       </c>
       <c r="J854" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K854" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L854" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M854" t="n">
-        <v>7500</v>
+        <v>13500</v>
       </c>
       <c r="N854" t="inlineStr">
         <is>
@@ -61867,7 +61867,7 @@
         </is>
       </c>
       <c r="P854" t="n">
-        <v>417</v>
+        <v>750</v>
       </c>
       <c r="Q854" t="n">
         <v>18</v>
@@ -61893,7 +61893,7 @@
         </is>
       </c>
       <c r="D855" s="2" t="n">
-        <v>44315</v>
+        <v>44692</v>
       </c>
       <c r="E855" t="n">
         <v>4</v>
@@ -61920,13 +61920,13 @@
         <v>240</v>
       </c>
       <c r="K855" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L855" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M855" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="N855" t="inlineStr">
         <is>
@@ -61939,7 +61939,7 @@
         </is>
       </c>
       <c r="P855" t="n">
-        <v>306</v>
+        <v>528</v>
       </c>
       <c r="Q855" t="n">
         <v>18</v>
@@ -61965,7 +61965,7 @@
         </is>
       </c>
       <c r="D856" s="2" t="n">
-        <v>44315</v>
+        <v>44692</v>
       </c>
       <c r="E856" t="n">
         <v>4</v>
@@ -61989,16 +61989,16 @@
         </is>
       </c>
       <c r="J856" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="K856" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="L856" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M856" t="n">
-        <v>6500</v>
+        <v>14500</v>
       </c>
       <c r="N856" t="inlineStr">
         <is>
@@ -62011,7 +62011,7 @@
         </is>
       </c>
       <c r="P856" t="n">
-        <v>361</v>
+        <v>806</v>
       </c>
       <c r="Q856" t="n">
         <v>18</v>
@@ -62037,7 +62037,7 @@
         </is>
       </c>
       <c r="D857" s="2" t="n">
-        <v>44315</v>
+        <v>44692</v>
       </c>
       <c r="E857" t="n">
         <v>4</v>
@@ -62061,16 +62061,16 @@
         </is>
       </c>
       <c r="J857" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K857" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="L857" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="M857" t="n">
-        <v>4500</v>
+        <v>10500</v>
       </c>
       <c r="N857" t="inlineStr">
         <is>
@@ -62083,7 +62083,7 @@
         </is>
       </c>
       <c r="P857" t="n">
-        <v>250</v>
+        <v>583</v>
       </c>
       <c r="Q857" t="n">
         <v>18</v>
@@ -62109,7 +62109,7 @@
         </is>
       </c>
       <c r="D858" s="2" t="n">
-        <v>44315</v>
+        <v>44692</v>
       </c>
       <c r="E858" t="n">
         <v>4</v>
@@ -62133,16 +62133,16 @@
         </is>
       </c>
       <c r="J858" t="n">
-        <v>260</v>
+        <v>600</v>
       </c>
       <c r="K858" t="n">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="L858" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="M858" t="n">
-        <v>2500</v>
+        <v>7500</v>
       </c>
       <c r="N858" t="inlineStr">
         <is>
@@ -62155,7 +62155,7 @@
         </is>
       </c>
       <c r="P858" t="n">
-        <v>139</v>
+        <v>417</v>
       </c>
       <c r="Q858" t="n">
         <v>18</v>
@@ -62181,7 +62181,7 @@
         </is>
       </c>
       <c r="D859" s="2" t="n">
-        <v>44315</v>
+        <v>44692</v>
       </c>
       <c r="E859" t="n">
         <v>4</v>
@@ -62208,13 +62208,13 @@
         <v>1000</v>
       </c>
       <c r="K859" t="n">
-        <v>5000</v>
+        <v>28000</v>
       </c>
       <c r="L859" t="n">
-        <v>6000</v>
+        <v>30000</v>
       </c>
       <c r="M859" t="n">
-        <v>5500</v>
+        <v>29000</v>
       </c>
       <c r="N859" t="inlineStr">
         <is>
@@ -62227,7 +62227,7 @@
         </is>
       </c>
       <c r="P859" t="n">
-        <v>306</v>
+        <v>1611</v>
       </c>
       <c r="Q859" t="n">
         <v>18</v>
@@ -62253,7 +62253,7 @@
         </is>
       </c>
       <c r="D860" s="2" t="n">
-        <v>44315</v>
+        <v>44692</v>
       </c>
       <c r="E860" t="n">
         <v>4</v>
@@ -62277,16 +62277,16 @@
         </is>
       </c>
       <c r="J860" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K860" t="n">
-        <v>3000</v>
+        <v>23000</v>
       </c>
       <c r="L860" t="n">
-        <v>4000</v>
+        <v>25000</v>
       </c>
       <c r="M860" t="n">
-        <v>3500</v>
+        <v>24000</v>
       </c>
       <c r="N860" t="inlineStr">
         <is>
@@ -62299,7 +62299,7 @@
         </is>
       </c>
       <c r="P860" t="n">
-        <v>194</v>
+        <v>1333</v>
       </c>
       <c r="Q860" t="n">
         <v>18</v>
@@ -62325,7 +62325,7 @@
         </is>
       </c>
       <c r="D861" s="2" t="n">
-        <v>44315</v>
+        <v>44692</v>
       </c>
       <c r="E861" t="n">
         <v>4</v>
@@ -62349,16 +62349,16 @@
         </is>
       </c>
       <c r="J861" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K861" t="n">
-        <v>1500</v>
+        <v>18000</v>
       </c>
       <c r="L861" t="n">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="M861" t="n">
-        <v>1750</v>
+        <v>19000</v>
       </c>
       <c r="N861" t="inlineStr">
         <is>
@@ -62371,7 +62371,7 @@
         </is>
       </c>
       <c r="P861" t="n">
-        <v>97</v>
+        <v>1056</v>
       </c>
       <c r="Q861" t="n">
         <v>18</v>
@@ -62397,7 +62397,7 @@
         </is>
       </c>
       <c r="D862" s="2" t="n">
-        <v>44448</v>
+        <v>44315</v>
       </c>
       <c r="E862" t="n">
         <v>4</v>
@@ -62412,7 +62412,7 @@
       </c>
       <c r="H862" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I862" t="inlineStr">
@@ -62421,16 +62421,16 @@
         </is>
       </c>
       <c r="J862" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K862" t="n">
-        <v>31000</v>
+        <v>9000</v>
       </c>
       <c r="L862" t="n">
-        <v>32000</v>
+        <v>10000</v>
       </c>
       <c r="M862" t="n">
-        <v>31500</v>
+        <v>9500</v>
       </c>
       <c r="N862" t="inlineStr">
         <is>
@@ -62443,7 +62443,7 @@
         </is>
       </c>
       <c r="P862" t="n">
-        <v>1750</v>
+        <v>528</v>
       </c>
       <c r="Q862" t="n">
         <v>18</v>
@@ -62469,7 +62469,7 @@
         </is>
       </c>
       <c r="D863" s="2" t="n">
-        <v>44448</v>
+        <v>44315</v>
       </c>
       <c r="E863" t="n">
         <v>4</v>
@@ -62484,7 +62484,7 @@
       </c>
       <c r="H863" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I863" t="inlineStr">
@@ -62496,13 +62496,13 @@
         <v>400</v>
       </c>
       <c r="K863" t="n">
-        <v>27000</v>
+        <v>7000</v>
       </c>
       <c r="L863" t="n">
-        <v>28000</v>
+        <v>8000</v>
       </c>
       <c r="M863" t="n">
-        <v>27500</v>
+        <v>7500</v>
       </c>
       <c r="N863" t="inlineStr">
         <is>
@@ -62515,7 +62515,7 @@
         </is>
       </c>
       <c r="P863" t="n">
-        <v>1528</v>
+        <v>417</v>
       </c>
       <c r="Q863" t="n">
         <v>18</v>
@@ -62541,7 +62541,7 @@
         </is>
       </c>
       <c r="D864" s="2" t="n">
-        <v>44448</v>
+        <v>44315</v>
       </c>
       <c r="E864" t="n">
         <v>4</v>
@@ -62556,7 +62556,7 @@
       </c>
       <c r="H864" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I864" t="inlineStr">
@@ -62568,13 +62568,13 @@
         <v>240</v>
       </c>
       <c r="K864" t="n">
-        <v>22000</v>
+        <v>5000</v>
       </c>
       <c r="L864" t="n">
-        <v>23000</v>
+        <v>6000</v>
       </c>
       <c r="M864" t="n">
-        <v>22500</v>
+        <v>5500</v>
       </c>
       <c r="N864" t="inlineStr">
         <is>
@@ -62587,7 +62587,7 @@
         </is>
       </c>
       <c r="P864" t="n">
-        <v>1250</v>
+        <v>306</v>
       </c>
       <c r="Q864" t="n">
         <v>18</v>
@@ -62613,58 +62613,706 @@
         </is>
       </c>
       <c r="D865" s="2" t="n">
+        <v>44315</v>
+      </c>
+      <c r="E865" t="n">
+        <v>4</v>
+      </c>
+      <c r="F865" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G865" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H865" t="inlineStr">
+        <is>
+          <t>Cuatro cascos verde</t>
+        </is>
+      </c>
+      <c r="I865" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J865" t="n">
+        <v>700</v>
+      </c>
+      <c r="K865" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L865" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M865" t="n">
+        <v>6500</v>
+      </c>
+      <c r="N865" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O865" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P865" t="n">
+        <v>361</v>
+      </c>
+      <c r="Q865" t="n">
+        <v>18</v>
+      </c>
+      <c r="R865" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="n">
+        <v>2</v>
+      </c>
+      <c r="B866" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C866" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D866" s="2" t="n">
+        <v>44315</v>
+      </c>
+      <c r="E866" t="n">
+        <v>4</v>
+      </c>
+      <c r="F866" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G866" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H866" t="inlineStr">
+        <is>
+          <t>Cuatro cascos verde</t>
+        </is>
+      </c>
+      <c r="I866" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J866" t="n">
+        <v>500</v>
+      </c>
+      <c r="K866" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L866" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M866" t="n">
+        <v>4500</v>
+      </c>
+      <c r="N866" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O866" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P866" t="n">
+        <v>250</v>
+      </c>
+      <c r="Q866" t="n">
+        <v>18</v>
+      </c>
+      <c r="R866" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="n">
+        <v>2</v>
+      </c>
+      <c r="B867" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C867" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D867" s="2" t="n">
+        <v>44315</v>
+      </c>
+      <c r="E867" t="n">
+        <v>4</v>
+      </c>
+      <c r="F867" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G867" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H867" t="inlineStr">
+        <is>
+          <t>Cuatro cascos verde</t>
+        </is>
+      </c>
+      <c r="I867" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J867" t="n">
+        <v>260</v>
+      </c>
+      <c r="K867" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L867" t="n">
+        <v>3000</v>
+      </c>
+      <c r="M867" t="n">
+        <v>2500</v>
+      </c>
+      <c r="N867" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O867" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P867" t="n">
+        <v>139</v>
+      </c>
+      <c r="Q867" t="n">
+        <v>18</v>
+      </c>
+      <c r="R867" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="n">
+        <v>2</v>
+      </c>
+      <c r="B868" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C868" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D868" s="2" t="n">
+        <v>44315</v>
+      </c>
+      <c r="E868" t="n">
+        <v>4</v>
+      </c>
+      <c r="F868" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G868" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H868" t="inlineStr">
+        <is>
+          <t>Morrón rojo</t>
+        </is>
+      </c>
+      <c r="I868" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J868" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K868" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L868" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M868" t="n">
+        <v>5500</v>
+      </c>
+      <c r="N868" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O868" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P868" t="n">
+        <v>306</v>
+      </c>
+      <c r="Q868" t="n">
+        <v>18</v>
+      </c>
+      <c r="R868" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="n">
+        <v>2</v>
+      </c>
+      <c r="B869" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C869" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D869" s="2" t="n">
+        <v>44315</v>
+      </c>
+      <c r="E869" t="n">
+        <v>4</v>
+      </c>
+      <c r="F869" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G869" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H869" t="inlineStr">
+        <is>
+          <t>Morrón rojo</t>
+        </is>
+      </c>
+      <c r="I869" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J869" t="n">
+        <v>600</v>
+      </c>
+      <c r="K869" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L869" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M869" t="n">
+        <v>3500</v>
+      </c>
+      <c r="N869" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O869" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P869" t="n">
+        <v>194</v>
+      </c>
+      <c r="Q869" t="n">
+        <v>18</v>
+      </c>
+      <c r="R869" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="n">
+        <v>2</v>
+      </c>
+      <c r="B870" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C870" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D870" s="2" t="n">
+        <v>44315</v>
+      </c>
+      <c r="E870" t="n">
+        <v>4</v>
+      </c>
+      <c r="F870" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G870" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H870" t="inlineStr">
+        <is>
+          <t>Morrón rojo</t>
+        </is>
+      </c>
+      <c r="I870" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J870" t="n">
+        <v>300</v>
+      </c>
+      <c r="K870" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L870" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M870" t="n">
+        <v>1750</v>
+      </c>
+      <c r="N870" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O870" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P870" t="n">
+        <v>97</v>
+      </c>
+      <c r="Q870" t="n">
+        <v>18</v>
+      </c>
+      <c r="R870" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="n">
+        <v>2</v>
+      </c>
+      <c r="B871" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C871" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D871" s="2" t="n">
         <v>44448</v>
       </c>
-      <c r="E865" t="n">
-        <v>4</v>
-      </c>
-      <c r="F865" t="n">
-        <v>100112002</v>
-      </c>
-      <c r="G865" t="inlineStr">
-        <is>
-          <t>Pimiento</t>
-        </is>
-      </c>
-      <c r="H865" t="inlineStr">
+      <c r="E871" t="n">
+        <v>4</v>
+      </c>
+      <c r="F871" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G871" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H871" t="inlineStr">
+        <is>
+          <t>Cuatro cascos verde</t>
+        </is>
+      </c>
+      <c r="I871" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J871" t="n">
+        <v>400</v>
+      </c>
+      <c r="K871" t="n">
+        <v>31000</v>
+      </c>
+      <c r="L871" t="n">
+        <v>32000</v>
+      </c>
+      <c r="M871" t="n">
+        <v>31500</v>
+      </c>
+      <c r="N871" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O871" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P871" t="n">
+        <v>1750</v>
+      </c>
+      <c r="Q871" t="n">
+        <v>18</v>
+      </c>
+      <c r="R871" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="n">
+        <v>2</v>
+      </c>
+      <c r="B872" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C872" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D872" s="2" t="n">
+        <v>44448</v>
+      </c>
+      <c r="E872" t="n">
+        <v>4</v>
+      </c>
+      <c r="F872" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G872" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H872" t="inlineStr">
+        <is>
+          <t>Cuatro cascos verde</t>
+        </is>
+      </c>
+      <c r="I872" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J872" t="n">
+        <v>400</v>
+      </c>
+      <c r="K872" t="n">
+        <v>27000</v>
+      </c>
+      <c r="L872" t="n">
+        <v>28000</v>
+      </c>
+      <c r="M872" t="n">
+        <v>27500</v>
+      </c>
+      <c r="N872" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O872" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P872" t="n">
+        <v>1528</v>
+      </c>
+      <c r="Q872" t="n">
+        <v>18</v>
+      </c>
+      <c r="R872" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="n">
+        <v>2</v>
+      </c>
+      <c r="B873" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C873" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D873" s="2" t="n">
+        <v>44448</v>
+      </c>
+      <c r="E873" t="n">
+        <v>4</v>
+      </c>
+      <c r="F873" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G873" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H873" t="inlineStr">
+        <is>
+          <t>Cuatro cascos verde</t>
+        </is>
+      </c>
+      <c r="I873" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J873" t="n">
+        <v>240</v>
+      </c>
+      <c r="K873" t="n">
+        <v>22000</v>
+      </c>
+      <c r="L873" t="n">
+        <v>23000</v>
+      </c>
+      <c r="M873" t="n">
+        <v>22500</v>
+      </c>
+      <c r="N873" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O873" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P873" t="n">
+        <v>1250</v>
+      </c>
+      <c r="Q873" t="n">
+        <v>18</v>
+      </c>
+      <c r="R873" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="n">
+        <v>2</v>
+      </c>
+      <c r="B874" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C874" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D874" s="2" t="n">
+        <v>44448</v>
+      </c>
+      <c r="E874" t="n">
+        <v>4</v>
+      </c>
+      <c r="F874" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G874" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H874" t="inlineStr">
         <is>
           <t>Morrón rojo</t>
         </is>
       </c>
-      <c r="I865" t="inlineStr">
+      <c r="I874" t="inlineStr">
         <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="J865" t="n">
+      <c r="J874" t="n">
         <v>360</v>
       </c>
-      <c r="K865" t="n">
+      <c r="K874" t="n">
         <v>31000</v>
       </c>
-      <c r="L865" t="n">
+      <c r="L874" t="n">
         <v>32000</v>
       </c>
-      <c r="M865" t="n">
+      <c r="M874" t="n">
         <v>31500</v>
       </c>
-      <c r="N865" t="inlineStr">
-        <is>
-          <t>$/caja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O865" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P865" t="n">
+      <c r="N874" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O874" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P874" t="n">
         <v>1750</v>
       </c>
-      <c r="Q865" t="n">
-        <v>18</v>
-      </c>
-      <c r="R865" t="inlineStr">
+      <c r="Q874" t="n">
+        <v>18</v>
+      </c>
+      <c r="R874" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pimiento.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pimiento.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R930"/>
+  <dimension ref="A1:R933"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59229,7 +59229,7 @@
         </is>
       </c>
       <c r="D818" s="2" t="n">
-        <v>44699</v>
+        <v>44748</v>
       </c>
       <c r="E818" t="n">
         <v>4</v>
@@ -59244,7 +59244,7 @@
       </c>
       <c r="H818" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I818" t="inlineStr">
@@ -59253,16 +59253,16 @@
         </is>
       </c>
       <c r="J818" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="K818" t="n">
-        <v>16000</v>
+        <v>29000</v>
       </c>
       <c r="L818" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="M818" t="n">
-        <v>16500</v>
+        <v>29500</v>
       </c>
       <c r="N818" t="inlineStr">
         <is>
@@ -59275,7 +59275,7 @@
         </is>
       </c>
       <c r="P818" t="n">
-        <v>917</v>
+        <v>1639</v>
       </c>
       <c r="Q818" t="n">
         <v>18</v>
@@ -59301,7 +59301,7 @@
         </is>
       </c>
       <c r="D819" s="2" t="n">
-        <v>44699</v>
+        <v>44748</v>
       </c>
       <c r="E819" t="n">
         <v>4</v>
@@ -59316,7 +59316,7 @@
       </c>
       <c r="H819" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I819" t="inlineStr">
@@ -59325,16 +59325,16 @@
         </is>
       </c>
       <c r="J819" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K819" t="n">
-        <v>13000</v>
+        <v>26000</v>
       </c>
       <c r="L819" t="n">
-        <v>14000</v>
+        <v>27000</v>
       </c>
       <c r="M819" t="n">
-        <v>13500</v>
+        <v>26500</v>
       </c>
       <c r="N819" t="inlineStr">
         <is>
@@ -59347,7 +59347,7 @@
         </is>
       </c>
       <c r="P819" t="n">
-        <v>750</v>
+        <v>1472</v>
       </c>
       <c r="Q819" t="n">
         <v>18</v>
@@ -59373,7 +59373,7 @@
         </is>
       </c>
       <c r="D820" s="2" t="n">
-        <v>44699</v>
+        <v>44748</v>
       </c>
       <c r="E820" t="n">
         <v>4</v>
@@ -59388,7 +59388,7 @@
       </c>
       <c r="H820" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I820" t="inlineStr">
@@ -59397,16 +59397,16 @@
         </is>
       </c>
       <c r="J820" t="n">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="K820" t="n">
-        <v>9000</v>
+        <v>23000</v>
       </c>
       <c r="L820" t="n">
-        <v>10000</v>
+        <v>24000</v>
       </c>
       <c r="M820" t="n">
-        <v>9500</v>
+        <v>23500</v>
       </c>
       <c r="N820" t="inlineStr">
         <is>
@@ -59419,7 +59419,7 @@
         </is>
       </c>
       <c r="P820" t="n">
-        <v>528</v>
+        <v>1306</v>
       </c>
       <c r="Q820" t="n">
         <v>18</v>
@@ -59460,7 +59460,7 @@
       </c>
       <c r="H821" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I821" t="inlineStr">
@@ -59469,16 +59469,16 @@
         </is>
       </c>
       <c r="J821" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="K821" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L821" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M821" t="n">
-        <v>13500</v>
+        <v>16500</v>
       </c>
       <c r="N821" t="inlineStr">
         <is>
@@ -59491,7 +59491,7 @@
         </is>
       </c>
       <c r="P821" t="n">
-        <v>750</v>
+        <v>917</v>
       </c>
       <c r="Q821" t="n">
         <v>18</v>
@@ -59532,7 +59532,7 @@
       </c>
       <c r="H822" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I822" t="inlineStr">
@@ -59541,16 +59541,16 @@
         </is>
       </c>
       <c r="J822" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="K822" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L822" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M822" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="N822" t="inlineStr">
         <is>
@@ -59563,7 +59563,7 @@
         </is>
       </c>
       <c r="P822" t="n">
-        <v>583</v>
+        <v>750</v>
       </c>
       <c r="Q822" t="n">
         <v>18</v>
@@ -59604,7 +59604,7 @@
       </c>
       <c r="H823" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I823" t="inlineStr">
@@ -59613,16 +59613,16 @@
         </is>
       </c>
       <c r="J823" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="K823" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L823" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M823" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="N823" t="inlineStr">
         <is>
@@ -59635,7 +59635,7 @@
         </is>
       </c>
       <c r="P823" t="n">
-        <v>417</v>
+        <v>528</v>
       </c>
       <c r="Q823" t="n">
         <v>18</v>
@@ -59676,7 +59676,7 @@
       </c>
       <c r="H824" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I824" t="inlineStr">
@@ -59685,16 +59685,16 @@
         </is>
       </c>
       <c r="J824" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K824" t="n">
-        <v>27000</v>
+        <v>13000</v>
       </c>
       <c r="L824" t="n">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="M824" t="n">
-        <v>27500</v>
+        <v>13500</v>
       </c>
       <c r="N824" t="inlineStr">
         <is>
@@ -59707,7 +59707,7 @@
         </is>
       </c>
       <c r="P824" t="n">
-        <v>1528</v>
+        <v>750</v>
       </c>
       <c r="Q824" t="n">
         <v>18</v>
@@ -59748,7 +59748,7 @@
       </c>
       <c r="H825" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I825" t="inlineStr">
@@ -59757,16 +59757,16 @@
         </is>
       </c>
       <c r="J825" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K825" t="n">
-        <v>24000</v>
+        <v>10000</v>
       </c>
       <c r="L825" t="n">
-        <v>25000</v>
+        <v>11000</v>
       </c>
       <c r="M825" t="n">
-        <v>24500</v>
+        <v>10500</v>
       </c>
       <c r="N825" t="inlineStr">
         <is>
@@ -59779,7 +59779,7 @@
         </is>
       </c>
       <c r="P825" t="n">
-        <v>1361</v>
+        <v>583</v>
       </c>
       <c r="Q825" t="n">
         <v>18</v>
@@ -59820,7 +59820,7 @@
       </c>
       <c r="H826" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I826" t="inlineStr">
@@ -59832,13 +59832,13 @@
         <v>500</v>
       </c>
       <c r="K826" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="L826" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="M826" t="n">
-        <v>18500</v>
+        <v>7500</v>
       </c>
       <c r="N826" t="inlineStr">
         <is>
@@ -59851,7 +59851,7 @@
         </is>
       </c>
       <c r="P826" t="n">
-        <v>1028</v>
+        <v>417</v>
       </c>
       <c r="Q826" t="n">
         <v>18</v>
@@ -59877,7 +59877,7 @@
         </is>
       </c>
       <c r="D827" s="2" t="n">
-        <v>44385</v>
+        <v>44699</v>
       </c>
       <c r="E827" t="n">
         <v>4</v>
@@ -59892,7 +59892,7 @@
       </c>
       <c r="H827" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I827" t="inlineStr">
@@ -59901,16 +59901,16 @@
         </is>
       </c>
       <c r="J827" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K827" t="n">
-        <v>11500</v>
+        <v>27000</v>
       </c>
       <c r="L827" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="M827" t="n">
-        <v>11750</v>
+        <v>27500</v>
       </c>
       <c r="N827" t="inlineStr">
         <is>
@@ -59923,7 +59923,7 @@
         </is>
       </c>
       <c r="P827" t="n">
-        <v>653</v>
+        <v>1528</v>
       </c>
       <c r="Q827" t="n">
         <v>18</v>
@@ -59949,7 +59949,7 @@
         </is>
       </c>
       <c r="D828" s="2" t="n">
-        <v>44385</v>
+        <v>44699</v>
       </c>
       <c r="E828" t="n">
         <v>4</v>
@@ -59964,7 +59964,7 @@
       </c>
       <c r="H828" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I828" t="inlineStr">
@@ -59973,16 +59973,16 @@
         </is>
       </c>
       <c r="J828" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K828" t="n">
-        <v>9500</v>
+        <v>24000</v>
       </c>
       <c r="L828" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="M828" t="n">
-        <v>9750</v>
+        <v>24500</v>
       </c>
       <c r="N828" t="inlineStr">
         <is>
@@ -59995,7 +59995,7 @@
         </is>
       </c>
       <c r="P828" t="n">
-        <v>542</v>
+        <v>1361</v>
       </c>
       <c r="Q828" t="n">
         <v>18</v>
@@ -60021,7 +60021,7 @@
         </is>
       </c>
       <c r="D829" s="2" t="n">
-        <v>44385</v>
+        <v>44699</v>
       </c>
       <c r="E829" t="n">
         <v>4</v>
@@ -60036,7 +60036,7 @@
       </c>
       <c r="H829" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I829" t="inlineStr">
@@ -60045,16 +60045,16 @@
         </is>
       </c>
       <c r="J829" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K829" t="n">
-        <v>6500</v>
+        <v>18000</v>
       </c>
       <c r="L829" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="M829" t="n">
-        <v>6750</v>
+        <v>18500</v>
       </c>
       <c r="N829" t="inlineStr">
         <is>
@@ -60067,7 +60067,7 @@
         </is>
       </c>
       <c r="P829" t="n">
-        <v>375</v>
+        <v>1028</v>
       </c>
       <c r="Q829" t="n">
         <v>18</v>
@@ -60108,7 +60108,7 @@
       </c>
       <c r="H830" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I830" t="inlineStr">
@@ -60117,16 +60117,16 @@
         </is>
       </c>
       <c r="J830" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K830" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="L830" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M830" t="n">
-        <v>10750</v>
+        <v>11750</v>
       </c>
       <c r="N830" t="inlineStr">
         <is>
@@ -60139,7 +60139,7 @@
         </is>
       </c>
       <c r="P830" t="n">
-        <v>597</v>
+        <v>653</v>
       </c>
       <c r="Q830" t="n">
         <v>18</v>
@@ -60180,7 +60180,7 @@
       </c>
       <c r="H831" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I831" t="inlineStr">
@@ -60189,16 +60189,16 @@
         </is>
       </c>
       <c r="J831" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K831" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="L831" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M831" t="n">
-        <v>8750</v>
+        <v>9750</v>
       </c>
       <c r="N831" t="inlineStr">
         <is>
@@ -60211,7 +60211,7 @@
         </is>
       </c>
       <c r="P831" t="n">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="Q831" t="n">
         <v>18</v>
@@ -60252,7 +60252,7 @@
       </c>
       <c r="H832" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I832" t="inlineStr">
@@ -60261,7 +60261,7 @@
         </is>
       </c>
       <c r="J832" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K832" t="n">
         <v>6500</v>
@@ -60309,7 +60309,7 @@
         </is>
       </c>
       <c r="D833" s="2" t="n">
-        <v>44658</v>
+        <v>44385</v>
       </c>
       <c r="E833" t="n">
         <v>4</v>
@@ -60324,7 +60324,7 @@
       </c>
       <c r="H833" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I833" t="inlineStr">
@@ -60333,16 +60333,16 @@
         </is>
       </c>
       <c r="J833" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K833" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="L833" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M833" t="n">
-        <v>9750</v>
+        <v>10750</v>
       </c>
       <c r="N833" t="inlineStr">
         <is>
@@ -60355,7 +60355,7 @@
         </is>
       </c>
       <c r="P833" t="n">
-        <v>542</v>
+        <v>597</v>
       </c>
       <c r="Q833" t="n">
         <v>18</v>
@@ -60381,7 +60381,7 @@
         </is>
       </c>
       <c r="D834" s="2" t="n">
-        <v>44658</v>
+        <v>44385</v>
       </c>
       <c r="E834" t="n">
         <v>4</v>
@@ -60396,7 +60396,7 @@
       </c>
       <c r="H834" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I834" t="inlineStr">
@@ -60405,16 +60405,16 @@
         </is>
       </c>
       <c r="J834" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K834" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="L834" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M834" t="n">
-        <v>7750</v>
+        <v>8750</v>
       </c>
       <c r="N834" t="inlineStr">
         <is>
@@ -60427,7 +60427,7 @@
         </is>
       </c>
       <c r="P834" t="n">
-        <v>431</v>
+        <v>486</v>
       </c>
       <c r="Q834" t="n">
         <v>18</v>
@@ -60453,7 +60453,7 @@
         </is>
       </c>
       <c r="D835" s="2" t="n">
-        <v>44658</v>
+        <v>44385</v>
       </c>
       <c r="E835" t="n">
         <v>4</v>
@@ -60468,7 +60468,7 @@
       </c>
       <c r="H835" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I835" t="inlineStr">
@@ -60480,13 +60480,13 @@
         <v>240</v>
       </c>
       <c r="K835" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L835" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M835" t="n">
-        <v>5750</v>
+        <v>6750</v>
       </c>
       <c r="N835" t="inlineStr">
         <is>
@@ -60499,7 +60499,7 @@
         </is>
       </c>
       <c r="P835" t="n">
-        <v>319</v>
+        <v>375</v>
       </c>
       <c r="Q835" t="n">
         <v>18</v>
@@ -60540,7 +60540,7 @@
       </c>
       <c r="H836" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I836" t="inlineStr">
@@ -60552,13 +60552,13 @@
         <v>400</v>
       </c>
       <c r="K836" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="L836" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M836" t="n">
-        <v>11500</v>
+        <v>9750</v>
       </c>
       <c r="N836" t="inlineStr">
         <is>
@@ -60571,7 +60571,7 @@
         </is>
       </c>
       <c r="P836" t="n">
-        <v>639</v>
+        <v>542</v>
       </c>
       <c r="Q836" t="n">
         <v>18</v>
@@ -60612,7 +60612,7 @@
       </c>
       <c r="H837" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I837" t="inlineStr">
@@ -60621,16 +60621,16 @@
         </is>
       </c>
       <c r="J837" t="n">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="K837" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="L837" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M837" t="n">
-        <v>9500</v>
+        <v>7750</v>
       </c>
       <c r="N837" t="inlineStr">
         <is>
@@ -60643,7 +60643,7 @@
         </is>
       </c>
       <c r="P837" t="n">
-        <v>528</v>
+        <v>431</v>
       </c>
       <c r="Q837" t="n">
         <v>18</v>
@@ -60684,7 +60684,7 @@
       </c>
       <c r="H838" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I838" t="inlineStr">
@@ -60696,13 +60696,13 @@
         <v>240</v>
       </c>
       <c r="K838" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L838" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M838" t="n">
-        <v>7500</v>
+        <v>5750</v>
       </c>
       <c r="N838" t="inlineStr">
         <is>
@@ -60715,7 +60715,7 @@
         </is>
       </c>
       <c r="P838" t="n">
-        <v>417</v>
+        <v>319</v>
       </c>
       <c r="Q838" t="n">
         <v>18</v>
@@ -60756,7 +60756,7 @@
       </c>
       <c r="H839" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I839" t="inlineStr">
@@ -60765,16 +60765,16 @@
         </is>
       </c>
       <c r="J839" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K839" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L839" t="n">
         <v>12000</v>
       </c>
-      <c r="L839" t="n">
-        <v>13000</v>
-      </c>
       <c r="M839" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="N839" t="inlineStr">
         <is>
@@ -60787,7 +60787,7 @@
         </is>
       </c>
       <c r="P839" t="n">
-        <v>694</v>
+        <v>639</v>
       </c>
       <c r="Q839" t="n">
         <v>18</v>
@@ -60828,7 +60828,7 @@
       </c>
       <c r="H840" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I840" t="inlineStr">
@@ -60837,16 +60837,16 @@
         </is>
       </c>
       <c r="J840" t="n">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="K840" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L840" t="n">
         <v>10000</v>
       </c>
-      <c r="L840" t="n">
-        <v>11000</v>
-      </c>
       <c r="M840" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N840" t="inlineStr">
         <is>
@@ -60859,7 +60859,7 @@
         </is>
       </c>
       <c r="P840" t="n">
-        <v>583</v>
+        <v>528</v>
       </c>
       <c r="Q840" t="n">
         <v>18</v>
@@ -60900,7 +60900,7 @@
       </c>
       <c r="H841" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I841" t="inlineStr">
@@ -60909,16 +60909,16 @@
         </is>
       </c>
       <c r="J841" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="K841" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L841" t="n">
         <v>8000</v>
       </c>
-      <c r="L841" t="n">
-        <v>9000</v>
-      </c>
       <c r="M841" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N841" t="inlineStr">
         <is>
@@ -60931,7 +60931,7 @@
         </is>
       </c>
       <c r="P841" t="n">
-        <v>472</v>
+        <v>417</v>
       </c>
       <c r="Q841" t="n">
         <v>18</v>
@@ -60957,7 +60957,7 @@
         </is>
       </c>
       <c r="D842" s="2" t="n">
-        <v>44272</v>
+        <v>44658</v>
       </c>
       <c r="E842" t="n">
         <v>4</v>
@@ -60972,7 +60972,7 @@
       </c>
       <c r="H842" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I842" t="inlineStr">
@@ -60981,16 +60981,16 @@
         </is>
       </c>
       <c r="J842" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K842" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="L842" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M842" t="n">
-        <v>7750</v>
+        <v>12500</v>
       </c>
       <c r="N842" t="inlineStr">
         <is>
@@ -61003,7 +61003,7 @@
         </is>
       </c>
       <c r="P842" t="n">
-        <v>431</v>
+        <v>694</v>
       </c>
       <c r="Q842" t="n">
         <v>18</v>
@@ -61029,7 +61029,7 @@
         </is>
       </c>
       <c r="D843" s="2" t="n">
-        <v>44272</v>
+        <v>44658</v>
       </c>
       <c r="E843" t="n">
         <v>4</v>
@@ -61044,7 +61044,7 @@
       </c>
       <c r="H843" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I843" t="inlineStr">
@@ -61053,16 +61053,16 @@
         </is>
       </c>
       <c r="J843" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K843" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="L843" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M843" t="n">
-        <v>5750</v>
+        <v>10500</v>
       </c>
       <c r="N843" t="inlineStr">
         <is>
@@ -61075,7 +61075,7 @@
         </is>
       </c>
       <c r="P843" t="n">
-        <v>319</v>
+        <v>583</v>
       </c>
       <c r="Q843" t="n">
         <v>18</v>
@@ -61101,7 +61101,7 @@
         </is>
       </c>
       <c r="D844" s="2" t="n">
-        <v>44272</v>
+        <v>44658</v>
       </c>
       <c r="E844" t="n">
         <v>4</v>
@@ -61116,7 +61116,7 @@
       </c>
       <c r="H844" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I844" t="inlineStr">
@@ -61125,16 +61125,16 @@
         </is>
       </c>
       <c r="J844" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="K844" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="L844" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="M844" t="n">
-        <v>3750</v>
+        <v>8500</v>
       </c>
       <c r="N844" t="inlineStr">
         <is>
@@ -61147,7 +61147,7 @@
         </is>
       </c>
       <c r="P844" t="n">
-        <v>208</v>
+        <v>472</v>
       </c>
       <c r="Q844" t="n">
         <v>18</v>
@@ -61188,7 +61188,7 @@
       </c>
       <c r="H845" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I845" t="inlineStr">
@@ -61197,16 +61197,16 @@
         </is>
       </c>
       <c r="J845" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K845" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L845" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M845" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N845" t="inlineStr">
         <is>
@@ -61219,7 +61219,7 @@
         </is>
       </c>
       <c r="P845" t="n">
-        <v>319</v>
+        <v>431</v>
       </c>
       <c r="Q845" t="n">
         <v>18</v>
@@ -61260,7 +61260,7 @@
       </c>
       <c r="H846" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I846" t="inlineStr">
@@ -61269,16 +61269,16 @@
         </is>
       </c>
       <c r="J846" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K846" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L846" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M846" t="n">
-        <v>3750</v>
+        <v>5750</v>
       </c>
       <c r="N846" t="inlineStr">
         <is>
@@ -61291,7 +61291,7 @@
         </is>
       </c>
       <c r="P846" t="n">
-        <v>208</v>
+        <v>319</v>
       </c>
       <c r="Q846" t="n">
         <v>18</v>
@@ -61332,7 +61332,7 @@
       </c>
       <c r="H847" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I847" t="inlineStr">
@@ -61341,16 +61341,16 @@
         </is>
       </c>
       <c r="J847" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K847" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="L847" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="M847" t="n">
-        <v>1750</v>
+        <v>3750</v>
       </c>
       <c r="N847" t="inlineStr">
         <is>
@@ -61363,7 +61363,7 @@
         </is>
       </c>
       <c r="P847" t="n">
-        <v>97</v>
+        <v>208</v>
       </c>
       <c r="Q847" t="n">
         <v>18</v>
@@ -61389,7 +61389,7 @@
         </is>
       </c>
       <c r="D848" s="2" t="n">
-        <v>44307</v>
+        <v>44272</v>
       </c>
       <c r="E848" t="n">
         <v>4</v>
@@ -61404,7 +61404,7 @@
       </c>
       <c r="H848" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I848" t="inlineStr">
@@ -61413,16 +61413,16 @@
         </is>
       </c>
       <c r="J848" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K848" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="L848" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M848" t="n">
-        <v>9750</v>
+        <v>5750</v>
       </c>
       <c r="N848" t="inlineStr">
         <is>
@@ -61435,7 +61435,7 @@
         </is>
       </c>
       <c r="P848" t="n">
-        <v>542</v>
+        <v>319</v>
       </c>
       <c r="Q848" t="n">
         <v>18</v>
@@ -61461,7 +61461,7 @@
         </is>
       </c>
       <c r="D849" s="2" t="n">
-        <v>44307</v>
+        <v>44272</v>
       </c>
       <c r="E849" t="n">
         <v>4</v>
@@ -61476,7 +61476,7 @@
       </c>
       <c r="H849" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I849" t="inlineStr">
@@ -61485,16 +61485,16 @@
         </is>
       </c>
       <c r="J849" t="n">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="K849" t="n">
-        <v>7500</v>
+        <v>3500</v>
       </c>
       <c r="L849" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M849" t="n">
-        <v>7955</v>
+        <v>3750</v>
       </c>
       <c r="N849" t="inlineStr">
         <is>
@@ -61507,7 +61507,7 @@
         </is>
       </c>
       <c r="P849" t="n">
-        <v>442</v>
+        <v>208</v>
       </c>
       <c r="Q849" t="n">
         <v>18</v>
@@ -61533,7 +61533,7 @@
         </is>
       </c>
       <c r="D850" s="2" t="n">
-        <v>44307</v>
+        <v>44272</v>
       </c>
       <c r="E850" t="n">
         <v>4</v>
@@ -61548,7 +61548,7 @@
       </c>
       <c r="H850" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I850" t="inlineStr">
@@ -61557,16 +61557,16 @@
         </is>
       </c>
       <c r="J850" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K850" t="n">
-        <v>5500</v>
+        <v>1500</v>
       </c>
       <c r="L850" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="M850" t="n">
-        <v>5750</v>
+        <v>1750</v>
       </c>
       <c r="N850" t="inlineStr">
         <is>
@@ -61579,7 +61579,7 @@
         </is>
       </c>
       <c r="P850" t="n">
-        <v>319</v>
+        <v>97</v>
       </c>
       <c r="Q850" t="n">
         <v>18</v>
@@ -61620,7 +61620,7 @@
       </c>
       <c r="H851" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I851" t="inlineStr">
@@ -61629,16 +61629,16 @@
         </is>
       </c>
       <c r="J851" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K851" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="L851" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M851" t="n">
-        <v>7750</v>
+        <v>9750</v>
       </c>
       <c r="N851" t="inlineStr">
         <is>
@@ -61651,7 +61651,7 @@
         </is>
       </c>
       <c r="P851" t="n">
-        <v>431</v>
+        <v>542</v>
       </c>
       <c r="Q851" t="n">
         <v>18</v>
@@ -61692,7 +61692,7 @@
       </c>
       <c r="H852" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I852" t="inlineStr">
@@ -61701,16 +61701,16 @@
         </is>
       </c>
       <c r="J852" t="n">
-        <v>400</v>
+        <v>220</v>
       </c>
       <c r="K852" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L852" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M852" t="n">
-        <v>5750</v>
+        <v>7955</v>
       </c>
       <c r="N852" t="inlineStr">
         <is>
@@ -61723,7 +61723,7 @@
         </is>
       </c>
       <c r="P852" t="n">
-        <v>319</v>
+        <v>442</v>
       </c>
       <c r="Q852" t="n">
         <v>18</v>
@@ -61764,7 +61764,7 @@
       </c>
       <c r="H853" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I853" t="inlineStr">
@@ -61776,13 +61776,13 @@
         <v>160</v>
       </c>
       <c r="K853" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L853" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M853" t="n">
-        <v>3750</v>
+        <v>5750</v>
       </c>
       <c r="N853" t="inlineStr">
         <is>
@@ -61795,7 +61795,7 @@
         </is>
       </c>
       <c r="P853" t="n">
-        <v>208</v>
+        <v>319</v>
       </c>
       <c r="Q853" t="n">
         <v>18</v>
@@ -61836,7 +61836,7 @@
       </c>
       <c r="H854" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I854" t="inlineStr">
@@ -61848,13 +61848,13 @@
         <v>700</v>
       </c>
       <c r="K854" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L854" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M854" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N854" t="inlineStr">
         <is>
@@ -61867,7 +61867,7 @@
         </is>
       </c>
       <c r="P854" t="n">
-        <v>319</v>
+        <v>431</v>
       </c>
       <c r="Q854" t="n">
         <v>18</v>
@@ -61908,7 +61908,7 @@
       </c>
       <c r="H855" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I855" t="inlineStr">
@@ -61917,16 +61917,16 @@
         </is>
       </c>
       <c r="J855" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K855" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L855" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M855" t="n">
-        <v>3750</v>
+        <v>5750</v>
       </c>
       <c r="N855" t="inlineStr">
         <is>
@@ -61939,7 +61939,7 @@
         </is>
       </c>
       <c r="P855" t="n">
-        <v>208</v>
+        <v>319</v>
       </c>
       <c r="Q855" t="n">
         <v>18</v>
@@ -61980,7 +61980,7 @@
       </c>
       <c r="H856" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I856" t="inlineStr">
@@ -61989,16 +61989,16 @@
         </is>
       </c>
       <c r="J856" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K856" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="L856" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="M856" t="n">
-        <v>2250</v>
+        <v>3750</v>
       </c>
       <c r="N856" t="inlineStr">
         <is>
@@ -62011,7 +62011,7 @@
         </is>
       </c>
       <c r="P856" t="n">
-        <v>125</v>
+        <v>208</v>
       </c>
       <c r="Q856" t="n">
         <v>18</v>
@@ -62037,7 +62037,7 @@
         </is>
       </c>
       <c r="D857" s="2" t="n">
-        <v>44672</v>
+        <v>44307</v>
       </c>
       <c r="E857" t="n">
         <v>4</v>
@@ -62052,7 +62052,7 @@
       </c>
       <c r="H857" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I857" t="inlineStr">
@@ -62061,16 +62061,16 @@
         </is>
       </c>
       <c r="J857" t="n">
-        <v>240</v>
+        <v>700</v>
       </c>
       <c r="K857" t="n">
-        <v>13000</v>
+        <v>5500</v>
       </c>
       <c r="L857" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="M857" t="n">
-        <v>13500</v>
+        <v>5750</v>
       </c>
       <c r="N857" t="inlineStr">
         <is>
@@ -62083,7 +62083,7 @@
         </is>
       </c>
       <c r="P857" t="n">
-        <v>750</v>
+        <v>319</v>
       </c>
       <c r="Q857" t="n">
         <v>18</v>
@@ -62109,7 +62109,7 @@
         </is>
       </c>
       <c r="D858" s="2" t="n">
-        <v>44672</v>
+        <v>44307</v>
       </c>
       <c r="E858" t="n">
         <v>4</v>
@@ -62124,7 +62124,7 @@
       </c>
       <c r="H858" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I858" t="inlineStr">
@@ -62133,16 +62133,16 @@
         </is>
       </c>
       <c r="J858" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K858" t="n">
-        <v>11000</v>
+        <v>3500</v>
       </c>
       <c r="L858" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="M858" t="n">
-        <v>11500</v>
+        <v>3750</v>
       </c>
       <c r="N858" t="inlineStr">
         <is>
@@ -62155,7 +62155,7 @@
         </is>
       </c>
       <c r="P858" t="n">
-        <v>639</v>
+        <v>208</v>
       </c>
       <c r="Q858" t="n">
         <v>18</v>
@@ -62181,7 +62181,7 @@
         </is>
       </c>
       <c r="D859" s="2" t="n">
-        <v>44672</v>
+        <v>44307</v>
       </c>
       <c r="E859" t="n">
         <v>4</v>
@@ -62196,7 +62196,7 @@
       </c>
       <c r="H859" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I859" t="inlineStr">
@@ -62205,16 +62205,16 @@
         </is>
       </c>
       <c r="J859" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K859" t="n">
-        <v>9000</v>
+        <v>2000</v>
       </c>
       <c r="L859" t="n">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="M859" t="n">
-        <v>9500</v>
+        <v>2250</v>
       </c>
       <c r="N859" t="inlineStr">
         <is>
@@ -62227,7 +62227,7 @@
         </is>
       </c>
       <c r="P859" t="n">
-        <v>528</v>
+        <v>125</v>
       </c>
       <c r="Q859" t="n">
         <v>18</v>
@@ -62268,7 +62268,7 @@
       </c>
       <c r="H860" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I860" t="inlineStr">
@@ -62277,16 +62277,16 @@
         </is>
       </c>
       <c r="J860" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="K860" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L860" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M860" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="N860" t="inlineStr">
         <is>
@@ -62299,7 +62299,7 @@
         </is>
       </c>
       <c r="P860" t="n">
-        <v>583</v>
+        <v>750</v>
       </c>
       <c r="Q860" t="n">
         <v>18</v>
@@ -62340,7 +62340,7 @@
       </c>
       <c r="H861" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I861" t="inlineStr">
@@ -62349,16 +62349,16 @@
         </is>
       </c>
       <c r="J861" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K861" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L861" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M861" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="N861" t="inlineStr">
         <is>
@@ -62371,7 +62371,7 @@
         </is>
       </c>
       <c r="P861" t="n">
-        <v>472</v>
+        <v>639</v>
       </c>
       <c r="Q861" t="n">
         <v>18</v>
@@ -62412,7 +62412,7 @@
       </c>
       <c r="H862" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I862" t="inlineStr">
@@ -62421,16 +62421,16 @@
         </is>
       </c>
       <c r="J862" t="n">
-        <v>360</v>
+        <v>160</v>
       </c>
       <c r="K862" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L862" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M862" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="N862" t="inlineStr">
         <is>
@@ -62443,7 +62443,7 @@
         </is>
       </c>
       <c r="P862" t="n">
-        <v>306</v>
+        <v>528</v>
       </c>
       <c r="Q862" t="n">
         <v>18</v>
@@ -62469,7 +62469,7 @@
         </is>
       </c>
       <c r="D863" s="2" t="n">
-        <v>44433</v>
+        <v>44672</v>
       </c>
       <c r="E863" t="n">
         <v>4</v>
@@ -62496,13 +62496,13 @@
         <v>600</v>
       </c>
       <c r="K863" t="n">
-        <v>24000</v>
+        <v>10000</v>
       </c>
       <c r="L863" t="n">
-        <v>25000</v>
+        <v>11000</v>
       </c>
       <c r="M863" t="n">
-        <v>24500</v>
+        <v>10500</v>
       </c>
       <c r="N863" t="inlineStr">
         <is>
@@ -62515,7 +62515,7 @@
         </is>
       </c>
       <c r="P863" t="n">
-        <v>1361</v>
+        <v>583</v>
       </c>
       <c r="Q863" t="n">
         <v>18</v>
@@ -62541,7 +62541,7 @@
         </is>
       </c>
       <c r="D864" s="2" t="n">
-        <v>44433</v>
+        <v>44672</v>
       </c>
       <c r="E864" t="n">
         <v>4</v>
@@ -62565,16 +62565,16 @@
         </is>
       </c>
       <c r="J864" t="n">
-        <v>470</v>
+        <v>500</v>
       </c>
       <c r="K864" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="L864" t="n">
-        <v>23000</v>
+        <v>9000</v>
       </c>
       <c r="M864" t="n">
-        <v>22532</v>
+        <v>8500</v>
       </c>
       <c r="N864" t="inlineStr">
         <is>
@@ -62587,7 +62587,7 @@
         </is>
       </c>
       <c r="P864" t="n">
-        <v>1252</v>
+        <v>472</v>
       </c>
       <c r="Q864" t="n">
         <v>18</v>
@@ -62613,7 +62613,7 @@
         </is>
       </c>
       <c r="D865" s="2" t="n">
-        <v>44433</v>
+        <v>44672</v>
       </c>
       <c r="E865" t="n">
         <v>4</v>
@@ -62637,16 +62637,16 @@
         </is>
       </c>
       <c r="J865" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K865" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="L865" t="n">
-        <v>19000</v>
+        <v>6000</v>
       </c>
       <c r="M865" t="n">
-        <v>18500</v>
+        <v>5500</v>
       </c>
       <c r="N865" t="inlineStr">
         <is>
@@ -62659,7 +62659,7 @@
         </is>
       </c>
       <c r="P865" t="n">
-        <v>1028</v>
+        <v>306</v>
       </c>
       <c r="Q865" t="n">
         <v>18</v>
@@ -62700,7 +62700,7 @@
       </c>
       <c r="H866" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I866" t="inlineStr">
@@ -62712,13 +62712,13 @@
         <v>600</v>
       </c>
       <c r="K866" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="L866" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M866" t="n">
-        <v>29000</v>
+        <v>24500</v>
       </c>
       <c r="N866" t="inlineStr">
         <is>
@@ -62731,7 +62731,7 @@
         </is>
       </c>
       <c r="P866" t="n">
-        <v>1611</v>
+        <v>1361</v>
       </c>
       <c r="Q866" t="n">
         <v>18</v>
@@ -62772,7 +62772,7 @@
       </c>
       <c r="H867" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I867" t="inlineStr">
@@ -62781,16 +62781,16 @@
         </is>
       </c>
       <c r="J867" t="n">
-        <v>600</v>
+        <v>470</v>
       </c>
       <c r="K867" t="n">
+        <v>22000</v>
+      </c>
+      <c r="L867" t="n">
         <v>23000</v>
       </c>
-      <c r="L867" t="n">
-        <v>25000</v>
-      </c>
       <c r="M867" t="n">
-        <v>24000</v>
+        <v>22532</v>
       </c>
       <c r="N867" t="inlineStr">
         <is>
@@ -62803,7 +62803,7 @@
         </is>
       </c>
       <c r="P867" t="n">
-        <v>1333</v>
+        <v>1252</v>
       </c>
       <c r="Q867" t="n">
         <v>18</v>
@@ -62844,7 +62844,7 @@
       </c>
       <c r="H868" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I868" t="inlineStr">
@@ -62853,16 +62853,16 @@
         </is>
       </c>
       <c r="J868" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K868" t="n">
         <v>18000</v>
       </c>
       <c r="L868" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="M868" t="n">
-        <v>19000</v>
+        <v>18500</v>
       </c>
       <c r="N868" t="inlineStr">
         <is>
@@ -62875,7 +62875,7 @@
         </is>
       </c>
       <c r="P868" t="n">
-        <v>1056</v>
+        <v>1028</v>
       </c>
       <c r="Q868" t="n">
         <v>18</v>
@@ -62901,7 +62901,7 @@
         </is>
       </c>
       <c r="D869" s="2" t="n">
-        <v>44707</v>
+        <v>44433</v>
       </c>
       <c r="E869" t="n">
         <v>4</v>
@@ -62916,7 +62916,7 @@
       </c>
       <c r="H869" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I869" t="inlineStr">
@@ -62925,16 +62925,16 @@
         </is>
       </c>
       <c r="J869" t="n">
-        <v>140</v>
+        <v>600</v>
       </c>
       <c r="K869" t="n">
-        <v>19000</v>
+        <v>28000</v>
       </c>
       <c r="L869" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="M869" t="n">
-        <v>19500</v>
+        <v>29000</v>
       </c>
       <c r="N869" t="inlineStr">
         <is>
@@ -62947,7 +62947,7 @@
         </is>
       </c>
       <c r="P869" t="n">
-        <v>1083</v>
+        <v>1611</v>
       </c>
       <c r="Q869" t="n">
         <v>18</v>
@@ -62973,7 +62973,7 @@
         </is>
       </c>
       <c r="D870" s="2" t="n">
-        <v>44707</v>
+        <v>44433</v>
       </c>
       <c r="E870" t="n">
         <v>4</v>
@@ -62988,7 +62988,7 @@
       </c>
       <c r="H870" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I870" t="inlineStr">
@@ -62997,16 +62997,16 @@
         </is>
       </c>
       <c r="J870" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="K870" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="L870" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="M870" t="n">
-        <v>16500</v>
+        <v>24000</v>
       </c>
       <c r="N870" t="inlineStr">
         <is>
@@ -63019,7 +63019,7 @@
         </is>
       </c>
       <c r="P870" t="n">
-        <v>917</v>
+        <v>1333</v>
       </c>
       <c r="Q870" t="n">
         <v>18</v>
@@ -63045,7 +63045,7 @@
         </is>
       </c>
       <c r="D871" s="2" t="n">
-        <v>44707</v>
+        <v>44433</v>
       </c>
       <c r="E871" t="n">
         <v>4</v>
@@ -63060,7 +63060,7 @@
       </c>
       <c r="H871" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I871" t="inlineStr">
@@ -63069,16 +63069,16 @@
         </is>
       </c>
       <c r="J871" t="n">
-        <v>100</v>
+        <v>360</v>
       </c>
       <c r="K871" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="L871" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="M871" t="n">
-        <v>11500</v>
+        <v>19000</v>
       </c>
       <c r="N871" t="inlineStr">
         <is>
@@ -63091,7 +63091,7 @@
         </is>
       </c>
       <c r="P871" t="n">
-        <v>639</v>
+        <v>1056</v>
       </c>
       <c r="Q871" t="n">
         <v>18</v>
@@ -63132,7 +63132,7 @@
       </c>
       <c r="H872" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I872" t="inlineStr">
@@ -63141,16 +63141,16 @@
         </is>
       </c>
       <c r="J872" t="n">
-        <v>800</v>
+        <v>140</v>
       </c>
       <c r="K872" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L872" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M872" t="n">
-        <v>15500</v>
+        <v>19500</v>
       </c>
       <c r="N872" t="inlineStr">
         <is>
@@ -63163,7 +63163,7 @@
         </is>
       </c>
       <c r="P872" t="n">
-        <v>861</v>
+        <v>1083</v>
       </c>
       <c r="Q872" t="n">
         <v>18</v>
@@ -63204,7 +63204,7 @@
       </c>
       <c r="H873" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I873" t="inlineStr">
@@ -63213,16 +63213,16 @@
         </is>
       </c>
       <c r="J873" t="n">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="K873" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L873" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M873" t="n">
-        <v>12500</v>
+        <v>16500</v>
       </c>
       <c r="N873" t="inlineStr">
         <is>
@@ -63235,7 +63235,7 @@
         </is>
       </c>
       <c r="P873" t="n">
-        <v>694</v>
+        <v>917</v>
       </c>
       <c r="Q873" t="n">
         <v>18</v>
@@ -63276,7 +63276,7 @@
       </c>
       <c r="H874" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I874" t="inlineStr">
@@ -63285,16 +63285,16 @@
         </is>
       </c>
       <c r="J874" t="n">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="K874" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L874" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M874" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="N874" t="inlineStr">
         <is>
@@ -63307,7 +63307,7 @@
         </is>
       </c>
       <c r="P874" t="n">
-        <v>472</v>
+        <v>639</v>
       </c>
       <c r="Q874" t="n">
         <v>18</v>
@@ -63348,7 +63348,7 @@
       </c>
       <c r="H875" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I875" t="inlineStr">
@@ -63360,13 +63360,13 @@
         <v>800</v>
       </c>
       <c r="K875" t="n">
-        <v>29000</v>
+        <v>15000</v>
       </c>
       <c r="L875" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="M875" t="n">
-        <v>29500</v>
+        <v>15500</v>
       </c>
       <c r="N875" t="inlineStr">
         <is>
@@ -63379,7 +63379,7 @@
         </is>
       </c>
       <c r="P875" t="n">
-        <v>1639</v>
+        <v>861</v>
       </c>
       <c r="Q875" t="n">
         <v>18</v>
@@ -63420,7 +63420,7 @@
       </c>
       <c r="H876" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I876" t="inlineStr">
@@ -63429,16 +63429,16 @@
         </is>
       </c>
       <c r="J876" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K876" t="n">
-        <v>27000</v>
+        <v>12000</v>
       </c>
       <c r="L876" t="n">
-        <v>28000</v>
+        <v>13000</v>
       </c>
       <c r="M876" t="n">
-        <v>27500</v>
+        <v>12500</v>
       </c>
       <c r="N876" t="inlineStr">
         <is>
@@ -63451,7 +63451,7 @@
         </is>
       </c>
       <c r="P876" t="n">
-        <v>1528</v>
+        <v>694</v>
       </c>
       <c r="Q876" t="n">
         <v>18</v>
@@ -63492,7 +63492,7 @@
       </c>
       <c r="H877" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I877" t="inlineStr">
@@ -63501,16 +63501,16 @@
         </is>
       </c>
       <c r="J877" t="n">
-        <v>360</v>
+        <v>600</v>
       </c>
       <c r="K877" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="L877" t="n">
-        <v>25000</v>
+        <v>9000</v>
       </c>
       <c r="M877" t="n">
-        <v>24500</v>
+        <v>8500</v>
       </c>
       <c r="N877" t="inlineStr">
         <is>
@@ -63523,7 +63523,7 @@
         </is>
       </c>
       <c r="P877" t="n">
-        <v>1361</v>
+        <v>472</v>
       </c>
       <c r="Q877" t="n">
         <v>18</v>
@@ -63549,7 +63549,7 @@
         </is>
       </c>
       <c r="D878" s="2" t="n">
-        <v>44265</v>
+        <v>44707</v>
       </c>
       <c r="E878" t="n">
         <v>4</v>
@@ -63564,7 +63564,7 @@
       </c>
       <c r="H878" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I878" t="inlineStr">
@@ -63573,16 +63573,16 @@
         </is>
       </c>
       <c r="J878" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="K878" t="n">
-        <v>7500</v>
+        <v>29000</v>
       </c>
       <c r="L878" t="n">
-        <v>8000</v>
+        <v>30000</v>
       </c>
       <c r="M878" t="n">
-        <v>7750</v>
+        <v>29500</v>
       </c>
       <c r="N878" t="inlineStr">
         <is>
@@ -63595,7 +63595,7 @@
         </is>
       </c>
       <c r="P878" t="n">
-        <v>431</v>
+        <v>1639</v>
       </c>
       <c r="Q878" t="n">
         <v>18</v>
@@ -63621,7 +63621,7 @@
         </is>
       </c>
       <c r="D879" s="2" t="n">
-        <v>44265</v>
+        <v>44707</v>
       </c>
       <c r="E879" t="n">
         <v>4</v>
@@ -63636,7 +63636,7 @@
       </c>
       <c r="H879" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I879" t="inlineStr">
@@ -63645,16 +63645,16 @@
         </is>
       </c>
       <c r="J879" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="K879" t="n">
-        <v>5500</v>
+        <v>27000</v>
       </c>
       <c r="L879" t="n">
-        <v>6000</v>
+        <v>28000</v>
       </c>
       <c r="M879" t="n">
-        <v>5750</v>
+        <v>27500</v>
       </c>
       <c r="N879" t="inlineStr">
         <is>
@@ -63667,7 +63667,7 @@
         </is>
       </c>
       <c r="P879" t="n">
-        <v>319</v>
+        <v>1528</v>
       </c>
       <c r="Q879" t="n">
         <v>18</v>
@@ -63693,7 +63693,7 @@
         </is>
       </c>
       <c r="D880" s="2" t="n">
-        <v>44265</v>
+        <v>44707</v>
       </c>
       <c r="E880" t="n">
         <v>4</v>
@@ -63708,7 +63708,7 @@
       </c>
       <c r="H880" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I880" t="inlineStr">
@@ -63717,16 +63717,16 @@
         </is>
       </c>
       <c r="J880" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="K880" t="n">
-        <v>3500</v>
+        <v>24000</v>
       </c>
       <c r="L880" t="n">
-        <v>4000</v>
+        <v>25000</v>
       </c>
       <c r="M880" t="n">
-        <v>3750</v>
+        <v>24500</v>
       </c>
       <c r="N880" t="inlineStr">
         <is>
@@ -63739,7 +63739,7 @@
         </is>
       </c>
       <c r="P880" t="n">
-        <v>208</v>
+        <v>1361</v>
       </c>
       <c r="Q880" t="n">
         <v>18</v>
@@ -63780,7 +63780,7 @@
       </c>
       <c r="H881" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I881" t="inlineStr">
@@ -63789,16 +63789,16 @@
         </is>
       </c>
       <c r="J881" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="K881" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L881" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M881" t="n">
-        <v>6750</v>
+        <v>7750</v>
       </c>
       <c r="N881" t="inlineStr">
         <is>
@@ -63811,7 +63811,7 @@
         </is>
       </c>
       <c r="P881" t="n">
-        <v>375</v>
+        <v>431</v>
       </c>
       <c r="Q881" t="n">
         <v>18</v>
@@ -63852,7 +63852,7 @@
       </c>
       <c r="H882" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I882" t="inlineStr">
@@ -63861,16 +63861,16 @@
         </is>
       </c>
       <c r="J882" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="K882" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L882" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M882" t="n">
-        <v>4750</v>
+        <v>5750</v>
       </c>
       <c r="N882" t="inlineStr">
         <is>
@@ -63883,7 +63883,7 @@
         </is>
       </c>
       <c r="P882" t="n">
-        <v>264</v>
+        <v>319</v>
       </c>
       <c r="Q882" t="n">
         <v>18</v>
@@ -63924,7 +63924,7 @@
       </c>
       <c r="H883" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I883" t="inlineStr">
@@ -63936,13 +63936,13 @@
         <v>200</v>
       </c>
       <c r="K883" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="L883" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M883" t="n">
-        <v>2750</v>
+        <v>3750</v>
       </c>
       <c r="N883" t="inlineStr">
         <is>
@@ -63955,7 +63955,7 @@
         </is>
       </c>
       <c r="P883" t="n">
-        <v>153</v>
+        <v>208</v>
       </c>
       <c r="Q883" t="n">
         <v>18</v>
@@ -63996,7 +63996,7 @@
       </c>
       <c r="H884" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I884" t="inlineStr">
@@ -64008,13 +64008,13 @@
         <v>1000</v>
       </c>
       <c r="K884" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="L884" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M884" t="n">
-        <v>7750</v>
+        <v>6750</v>
       </c>
       <c r="N884" t="inlineStr">
         <is>
@@ -64027,7 +64027,7 @@
         </is>
       </c>
       <c r="P884" t="n">
-        <v>431</v>
+        <v>375</v>
       </c>
       <c r="Q884" t="n">
         <v>18</v>
@@ -64068,7 +64068,7 @@
       </c>
       <c r="H885" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I885" t="inlineStr">
@@ -64077,7 +64077,7 @@
         </is>
       </c>
       <c r="J885" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K885" t="n">
         <v>4500</v>
@@ -64125,7 +64125,7 @@
         </is>
       </c>
       <c r="D886" s="2" t="n">
-        <v>44566</v>
+        <v>44265</v>
       </c>
       <c r="E886" t="n">
         <v>4</v>
@@ -64140,25 +64140,25 @@
       </c>
       <c r="H886" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I886" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J886" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K886" t="n">
-        <v>17000</v>
+        <v>2500</v>
       </c>
       <c r="L886" t="n">
-        <v>18000</v>
+        <v>3000</v>
       </c>
       <c r="M886" t="n">
-        <v>17500</v>
+        <v>2750</v>
       </c>
       <c r="N886" t="inlineStr">
         <is>
@@ -64171,7 +64171,7 @@
         </is>
       </c>
       <c r="P886" t="n">
-        <v>972</v>
+        <v>153</v>
       </c>
       <c r="Q886" t="n">
         <v>18</v>
@@ -64197,7 +64197,7 @@
         </is>
       </c>
       <c r="D887" s="2" t="n">
-        <v>44566</v>
+        <v>44265</v>
       </c>
       <c r="E887" t="n">
         <v>4</v>
@@ -64212,25 +64212,25 @@
       </c>
       <c r="H887" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I887" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J887" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="K887" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="L887" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M887" t="n">
-        <v>14500</v>
+        <v>7750</v>
       </c>
       <c r="N887" t="inlineStr">
         <is>
@@ -64243,7 +64243,7 @@
         </is>
       </c>
       <c r="P887" t="n">
-        <v>806</v>
+        <v>431</v>
       </c>
       <c r="Q887" t="n">
         <v>18</v>
@@ -64269,7 +64269,7 @@
         </is>
       </c>
       <c r="D888" s="2" t="n">
-        <v>44566</v>
+        <v>44265</v>
       </c>
       <c r="E888" t="n">
         <v>4</v>
@@ -64284,25 +64284,25 @@
       </c>
       <c r="H888" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I888" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J888" t="n">
-        <v>160</v>
+        <v>600</v>
       </c>
       <c r="K888" t="n">
-        <v>11000</v>
+        <v>4500</v>
       </c>
       <c r="L888" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="M888" t="n">
-        <v>11500</v>
+        <v>4750</v>
       </c>
       <c r="N888" t="inlineStr">
         <is>
@@ -64315,7 +64315,7 @@
         </is>
       </c>
       <c r="P888" t="n">
-        <v>639</v>
+        <v>264</v>
       </c>
       <c r="Q888" t="n">
         <v>18</v>
@@ -64356,7 +64356,7 @@
       </c>
       <c r="H889" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I889" t="inlineStr">
@@ -64365,16 +64365,16 @@
         </is>
       </c>
       <c r="J889" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="K889" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="L889" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="M889" t="n">
-        <v>7909</v>
+        <v>17500</v>
       </c>
       <c r="N889" t="inlineStr">
         <is>
@@ -64387,7 +64387,7 @@
         </is>
       </c>
       <c r="P889" t="n">
-        <v>439</v>
+        <v>972</v>
       </c>
       <c r="Q889" t="n">
         <v>18</v>
@@ -64428,7 +64428,7 @@
       </c>
       <c r="H890" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I890" t="inlineStr">
@@ -64437,16 +64437,16 @@
         </is>
       </c>
       <c r="J890" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="K890" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="L890" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="M890" t="n">
-        <v>5500</v>
+        <v>14500</v>
       </c>
       <c r="N890" t="inlineStr">
         <is>
@@ -64459,7 +64459,7 @@
         </is>
       </c>
       <c r="P890" t="n">
-        <v>306</v>
+        <v>806</v>
       </c>
       <c r="Q890" t="n">
         <v>18</v>
@@ -64500,7 +64500,7 @@
       </c>
       <c r="H891" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I891" t="inlineStr">
@@ -64509,16 +64509,16 @@
         </is>
       </c>
       <c r="J891" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="K891" t="n">
-        <v>3000</v>
+        <v>11000</v>
       </c>
       <c r="L891" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="M891" t="n">
-        <v>3500</v>
+        <v>11500</v>
       </c>
       <c r="N891" t="inlineStr">
         <is>
@@ -64531,7 +64531,7 @@
         </is>
       </c>
       <c r="P891" t="n">
-        <v>194</v>
+        <v>639</v>
       </c>
       <c r="Q891" t="n">
         <v>18</v>
@@ -64557,7 +64557,7 @@
         </is>
       </c>
       <c r="D892" s="2" t="n">
-        <v>44637</v>
+        <v>44566</v>
       </c>
       <c r="E892" t="n">
         <v>4</v>
@@ -64572,7 +64572,7 @@
       </c>
       <c r="H892" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I892" t="inlineStr">
@@ -64581,16 +64581,16 @@
         </is>
       </c>
       <c r="J892" t="n">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="K892" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L892" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M892" t="n">
-        <v>11500</v>
+        <v>7909</v>
       </c>
       <c r="N892" t="inlineStr">
         <is>
@@ -64603,7 +64603,7 @@
         </is>
       </c>
       <c r="P892" t="n">
-        <v>639</v>
+        <v>439</v>
       </c>
       <c r="Q892" t="n">
         <v>18</v>
@@ -64629,7 +64629,7 @@
         </is>
       </c>
       <c r="D893" s="2" t="n">
-        <v>44637</v>
+        <v>44566</v>
       </c>
       <c r="E893" t="n">
         <v>4</v>
@@ -64644,7 +64644,7 @@
       </c>
       <c r="H893" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I893" t="inlineStr">
@@ -64653,16 +64653,16 @@
         </is>
       </c>
       <c r="J893" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K893" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L893" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M893" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="N893" t="inlineStr">
         <is>
@@ -64675,7 +64675,7 @@
         </is>
       </c>
       <c r="P893" t="n">
-        <v>528</v>
+        <v>306</v>
       </c>
       <c r="Q893" t="n">
         <v>18</v>
@@ -64701,7 +64701,7 @@
         </is>
       </c>
       <c r="D894" s="2" t="n">
-        <v>44637</v>
+        <v>44566</v>
       </c>
       <c r="E894" t="n">
         <v>4</v>
@@ -64716,7 +64716,7 @@
       </c>
       <c r="H894" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I894" t="inlineStr">
@@ -64728,13 +64728,13 @@
         <v>240</v>
       </c>
       <c r="K894" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L894" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M894" t="n">
-        <v>7500</v>
+        <v>3500</v>
       </c>
       <c r="N894" t="inlineStr">
         <is>
@@ -64747,7 +64747,7 @@
         </is>
       </c>
       <c r="P894" t="n">
-        <v>417</v>
+        <v>194</v>
       </c>
       <c r="Q894" t="n">
         <v>18</v>
@@ -64788,7 +64788,7 @@
       </c>
       <c r="H895" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I895" t="inlineStr">
@@ -64797,16 +64797,16 @@
         </is>
       </c>
       <c r="J895" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K895" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L895" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M895" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="N895" t="inlineStr">
         <is>
@@ -64819,7 +64819,7 @@
         </is>
       </c>
       <c r="P895" t="n">
-        <v>417</v>
+        <v>639</v>
       </c>
       <c r="Q895" t="n">
         <v>18</v>
@@ -64860,7 +64860,7 @@
       </c>
       <c r="H896" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I896" t="inlineStr">
@@ -64869,16 +64869,16 @@
         </is>
       </c>
       <c r="J896" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K896" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L896" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M896" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="N896" t="inlineStr">
         <is>
@@ -64891,7 +64891,7 @@
         </is>
       </c>
       <c r="P896" t="n">
-        <v>306</v>
+        <v>528</v>
       </c>
       <c r="Q896" t="n">
         <v>18</v>
@@ -64932,7 +64932,7 @@
       </c>
       <c r="H897" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I897" t="inlineStr">
@@ -64941,16 +64941,16 @@
         </is>
       </c>
       <c r="J897" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K897" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="L897" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M897" t="n">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="N897" t="inlineStr">
         <is>
@@ -64963,7 +64963,7 @@
         </is>
       </c>
       <c r="P897" t="n">
-        <v>194</v>
+        <v>417</v>
       </c>
       <c r="Q897" t="n">
         <v>18</v>
@@ -65004,7 +65004,7 @@
       </c>
       <c r="H898" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I898" t="inlineStr">
@@ -65013,16 +65013,16 @@
         </is>
       </c>
       <c r="J898" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K898" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L898" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M898" t="n">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="N898" t="inlineStr">
         <is>
@@ -65035,7 +65035,7 @@
         </is>
       </c>
       <c r="P898" t="n">
-        <v>639</v>
+        <v>417</v>
       </c>
       <c r="Q898" t="n">
         <v>18</v>
@@ -65076,7 +65076,7 @@
       </c>
       <c r="H899" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I899" t="inlineStr">
@@ -65085,16 +65085,16 @@
         </is>
       </c>
       <c r="J899" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K899" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L899" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M899" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="N899" t="inlineStr">
         <is>
@@ -65107,7 +65107,7 @@
         </is>
       </c>
       <c r="P899" t="n">
-        <v>528</v>
+        <v>306</v>
       </c>
       <c r="Q899" t="n">
         <v>18</v>
@@ -65148,7 +65148,7 @@
       </c>
       <c r="H900" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I900" t="inlineStr">
@@ -65160,13 +65160,13 @@
         <v>300</v>
       </c>
       <c r="K900" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L900" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M900" t="n">
-        <v>7500</v>
+        <v>3500</v>
       </c>
       <c r="N900" t="inlineStr">
         <is>
@@ -65179,7 +65179,7 @@
         </is>
       </c>
       <c r="P900" t="n">
-        <v>417</v>
+        <v>194</v>
       </c>
       <c r="Q900" t="n">
         <v>18</v>
@@ -65205,7 +65205,7 @@
         </is>
       </c>
       <c r="D901" s="2" t="n">
-        <v>44195</v>
+        <v>44637</v>
       </c>
       <c r="E901" t="n">
         <v>4</v>
@@ -65220,7 +65220,7 @@
       </c>
       <c r="H901" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I901" t="inlineStr">
@@ -65232,13 +65232,13 @@
         <v>400</v>
       </c>
       <c r="K901" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="L901" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M901" t="n">
-        <v>14750</v>
+        <v>11500</v>
       </c>
       <c r="N901" t="inlineStr">
         <is>
@@ -65251,7 +65251,7 @@
         </is>
       </c>
       <c r="P901" t="n">
-        <v>819</v>
+        <v>639</v>
       </c>
       <c r="Q901" t="n">
         <v>18</v>
@@ -65277,7 +65277,7 @@
         </is>
       </c>
       <c r="D902" s="2" t="n">
-        <v>44195</v>
+        <v>44637</v>
       </c>
       <c r="E902" t="n">
         <v>4</v>
@@ -65292,7 +65292,7 @@
       </c>
       <c r="H902" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I902" t="inlineStr">
@@ -65301,16 +65301,16 @@
         </is>
       </c>
       <c r="J902" t="n">
-        <v>308</v>
+        <v>400</v>
       </c>
       <c r="K902" t="n">
-        <v>11500</v>
+        <v>9000</v>
       </c>
       <c r="L902" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M902" t="n">
-        <v>11744</v>
+        <v>9500</v>
       </c>
       <c r="N902" t="inlineStr">
         <is>
@@ -65323,7 +65323,7 @@
         </is>
       </c>
       <c r="P902" t="n">
-        <v>652</v>
+        <v>528</v>
       </c>
       <c r="Q902" t="n">
         <v>18</v>
@@ -65349,7 +65349,7 @@
         </is>
       </c>
       <c r="D903" s="2" t="n">
-        <v>44195</v>
+        <v>44637</v>
       </c>
       <c r="E903" t="n">
         <v>4</v>
@@ -65364,7 +65364,7 @@
       </c>
       <c r="H903" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I903" t="inlineStr">
@@ -65373,16 +65373,16 @@
         </is>
       </c>
       <c r="J903" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K903" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="L903" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M903" t="n">
-        <v>9750</v>
+        <v>7500</v>
       </c>
       <c r="N903" t="inlineStr">
         <is>
@@ -65395,7 +65395,7 @@
         </is>
       </c>
       <c r="P903" t="n">
-        <v>542</v>
+        <v>417</v>
       </c>
       <c r="Q903" t="n">
         <v>18</v>
@@ -65436,7 +65436,7 @@
       </c>
       <c r="H904" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I904" t="inlineStr">
@@ -65445,16 +65445,16 @@
         </is>
       </c>
       <c r="J904" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K904" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="L904" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M904" t="n">
-        <v>9750</v>
+        <v>14750</v>
       </c>
       <c r="N904" t="inlineStr">
         <is>
@@ -65467,7 +65467,7 @@
         </is>
       </c>
       <c r="P904" t="n">
-        <v>542</v>
+        <v>819</v>
       </c>
       <c r="Q904" t="n">
         <v>18</v>
@@ -65508,7 +65508,7 @@
       </c>
       <c r="H905" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I905" t="inlineStr">
@@ -65517,16 +65517,16 @@
         </is>
       </c>
       <c r="J905" t="n">
-        <v>360</v>
+        <v>308</v>
       </c>
       <c r="K905" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="L905" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M905" t="n">
-        <v>7750</v>
+        <v>11744</v>
       </c>
       <c r="N905" t="inlineStr">
         <is>
@@ -65539,7 +65539,7 @@
         </is>
       </c>
       <c r="P905" t="n">
-        <v>431</v>
+        <v>652</v>
       </c>
       <c r="Q905" t="n">
         <v>18</v>
@@ -65580,7 +65580,7 @@
       </c>
       <c r="H906" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I906" t="inlineStr">
@@ -65589,16 +65589,16 @@
         </is>
       </c>
       <c r="J906" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K906" t="n">
-        <v>4500</v>
+        <v>9500</v>
       </c>
       <c r="L906" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M906" t="n">
-        <v>4750</v>
+        <v>9750</v>
       </c>
       <c r="N906" t="inlineStr">
         <is>
@@ -65611,7 +65611,7 @@
         </is>
       </c>
       <c r="P906" t="n">
-        <v>264</v>
+        <v>542</v>
       </c>
       <c r="Q906" t="n">
         <v>18</v>
@@ -65637,7 +65637,7 @@
         </is>
       </c>
       <c r="D907" s="2" t="n">
-        <v>44244</v>
+        <v>44195</v>
       </c>
       <c r="E907" t="n">
         <v>4</v>
@@ -65652,7 +65652,7 @@
       </c>
       <c r="H907" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I907" t="inlineStr">
@@ -65661,16 +65661,16 @@
         </is>
       </c>
       <c r="J907" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K907" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L907" t="n">
         <v>10000</v>
       </c>
-      <c r="L907" t="n">
-        <v>11000</v>
-      </c>
       <c r="M907" t="n">
-        <v>10500</v>
+        <v>9750</v>
       </c>
       <c r="N907" t="inlineStr">
         <is>
@@ -65683,7 +65683,7 @@
         </is>
       </c>
       <c r="P907" t="n">
-        <v>583</v>
+        <v>542</v>
       </c>
       <c r="Q907" t="n">
         <v>18</v>
@@ -65709,7 +65709,7 @@
         </is>
       </c>
       <c r="D908" s="2" t="n">
-        <v>44244</v>
+        <v>44195</v>
       </c>
       <c r="E908" t="n">
         <v>4</v>
@@ -65724,7 +65724,7 @@
       </c>
       <c r="H908" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I908" t="inlineStr">
@@ -65733,16 +65733,16 @@
         </is>
       </c>
       <c r="J908" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K908" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L908" t="n">
         <v>8000</v>
       </c>
       <c r="M908" t="n">
-        <v>7500</v>
+        <v>7750</v>
       </c>
       <c r="N908" t="inlineStr">
         <is>
@@ -65755,7 +65755,7 @@
         </is>
       </c>
       <c r="P908" t="n">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="Q908" t="n">
         <v>18</v>
@@ -65781,7 +65781,7 @@
         </is>
       </c>
       <c r="D909" s="2" t="n">
-        <v>44244</v>
+        <v>44195</v>
       </c>
       <c r="E909" t="n">
         <v>4</v>
@@ -65796,7 +65796,7 @@
       </c>
       <c r="H909" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I909" t="inlineStr">
@@ -65805,16 +65805,16 @@
         </is>
       </c>
       <c r="J909" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="K909" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L909" t="n">
         <v>5000</v>
       </c>
-      <c r="L909" t="n">
-        <v>6000</v>
-      </c>
       <c r="M909" t="n">
-        <v>5500</v>
+        <v>4750</v>
       </c>
       <c r="N909" t="inlineStr">
         <is>
@@ -65827,7 +65827,7 @@
         </is>
       </c>
       <c r="P909" t="n">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="Q909" t="n">
         <v>18</v>
@@ -65868,7 +65868,7 @@
       </c>
       <c r="H910" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I910" t="inlineStr">
@@ -65877,16 +65877,16 @@
         </is>
       </c>
       <c r="J910" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K910" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="L910" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="M910" t="n">
-        <v>4750</v>
+        <v>10500</v>
       </c>
       <c r="N910" t="inlineStr">
         <is>
@@ -65899,7 +65899,7 @@
         </is>
       </c>
       <c r="P910" t="n">
-        <v>264</v>
+        <v>583</v>
       </c>
       <c r="Q910" t="n">
         <v>18</v>
@@ -65940,7 +65940,7 @@
       </c>
       <c r="H911" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I911" t="inlineStr">
@@ -65952,13 +65952,13 @@
         <v>300</v>
       </c>
       <c r="K911" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="L911" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="M911" t="n">
-        <v>2750</v>
+        <v>7500</v>
       </c>
       <c r="N911" t="inlineStr">
         <is>
@@ -65971,7 +65971,7 @@
         </is>
       </c>
       <c r="P911" t="n">
-        <v>153</v>
+        <v>417</v>
       </c>
       <c r="Q911" t="n">
         <v>18</v>
@@ -66012,25 +66012,25 @@
       </c>
       <c r="H912" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I912" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J912" t="n">
-        <v>600</v>
+        <v>160</v>
       </c>
       <c r="K912" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="L912" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="M912" t="n">
-        <v>15500</v>
+        <v>5500</v>
       </c>
       <c r="N912" t="inlineStr">
         <is>
@@ -66043,7 +66043,7 @@
         </is>
       </c>
       <c r="P912" t="n">
-        <v>861</v>
+        <v>306</v>
       </c>
       <c r="Q912" t="n">
         <v>18</v>
@@ -66084,25 +66084,25 @@
       </c>
       <c r="H913" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I913" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J913" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K913" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="L913" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="M913" t="n">
-        <v>12500</v>
+        <v>4750</v>
       </c>
       <c r="N913" t="inlineStr">
         <is>
@@ -66115,7 +66115,7 @@
         </is>
       </c>
       <c r="P913" t="n">
-        <v>694</v>
+        <v>264</v>
       </c>
       <c r="Q913" t="n">
         <v>18</v>
@@ -66141,7 +66141,7 @@
         </is>
       </c>
       <c r="D914" s="2" t="n">
-        <v>44483</v>
+        <v>44244</v>
       </c>
       <c r="E914" t="n">
         <v>4</v>
@@ -66161,20 +66161,20 @@
       </c>
       <c r="I914" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J914" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K914" t="n">
-        <v>27000</v>
+        <v>2500</v>
       </c>
       <c r="L914" t="n">
-        <v>29000</v>
+        <v>3000</v>
       </c>
       <c r="M914" t="n">
-        <v>28000</v>
+        <v>2750</v>
       </c>
       <c r="N914" t="inlineStr">
         <is>
@@ -66187,7 +66187,7 @@
         </is>
       </c>
       <c r="P914" t="n">
-        <v>1556</v>
+        <v>153</v>
       </c>
       <c r="Q914" t="n">
         <v>18</v>
@@ -66213,7 +66213,7 @@
         </is>
       </c>
       <c r="D915" s="2" t="n">
-        <v>44483</v>
+        <v>44244</v>
       </c>
       <c r="E915" t="n">
         <v>4</v>
@@ -66228,25 +66228,25 @@
       </c>
       <c r="H915" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I915" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J915" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K915" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="L915" t="n">
-        <v>26000</v>
+        <v>16000</v>
       </c>
       <c r="M915" t="n">
-        <v>25000</v>
+        <v>15500</v>
       </c>
       <c r="N915" t="inlineStr">
         <is>
@@ -66259,7 +66259,7 @@
         </is>
       </c>
       <c r="P915" t="n">
-        <v>1389</v>
+        <v>861</v>
       </c>
       <c r="Q915" t="n">
         <v>18</v>
@@ -66285,7 +66285,7 @@
         </is>
       </c>
       <c r="D916" s="2" t="n">
-        <v>44483</v>
+        <v>44244</v>
       </c>
       <c r="E916" t="n">
         <v>4</v>
@@ -66300,25 +66300,25 @@
       </c>
       <c r="H916" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I916" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J916" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K916" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="L916" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="M916" t="n">
-        <v>20000</v>
+        <v>12500</v>
       </c>
       <c r="N916" t="inlineStr">
         <is>
@@ -66331,7 +66331,7 @@
         </is>
       </c>
       <c r="P916" t="n">
-        <v>1111</v>
+        <v>694</v>
       </c>
       <c r="Q916" t="n">
         <v>18</v>
@@ -66357,7 +66357,7 @@
         </is>
       </c>
       <c r="D917" s="2" t="n">
-        <v>44188</v>
+        <v>44483</v>
       </c>
       <c r="E917" t="n">
         <v>4</v>
@@ -66372,7 +66372,7 @@
       </c>
       <c r="H917" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I917" t="inlineStr">
@@ -66381,16 +66381,16 @@
         </is>
       </c>
       <c r="J917" t="n">
-        <v>160</v>
+        <v>600</v>
       </c>
       <c r="K917" t="n">
-        <v>13500</v>
+        <v>27000</v>
       </c>
       <c r="L917" t="n">
-        <v>14000</v>
+        <v>29000</v>
       </c>
       <c r="M917" t="n">
-        <v>13750</v>
+        <v>28000</v>
       </c>
       <c r="N917" t="inlineStr">
         <is>
@@ -66403,7 +66403,7 @@
         </is>
       </c>
       <c r="P917" t="n">
-        <v>764</v>
+        <v>1556</v>
       </c>
       <c r="Q917" t="n">
         <v>18</v>
@@ -66429,7 +66429,7 @@
         </is>
       </c>
       <c r="D918" s="2" t="n">
-        <v>44188</v>
+        <v>44483</v>
       </c>
       <c r="E918" t="n">
         <v>4</v>
@@ -66444,7 +66444,7 @@
       </c>
       <c r="H918" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I918" t="inlineStr">
@@ -66453,16 +66453,16 @@
         </is>
       </c>
       <c r="J918" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K918" t="n">
-        <v>11500</v>
+        <v>24000</v>
       </c>
       <c r="L918" t="n">
-        <v>12000</v>
+        <v>26000</v>
       </c>
       <c r="M918" t="n">
-        <v>11750</v>
+        <v>25000</v>
       </c>
       <c r="N918" t="inlineStr">
         <is>
@@ -66475,7 +66475,7 @@
         </is>
       </c>
       <c r="P918" t="n">
-        <v>653</v>
+        <v>1389</v>
       </c>
       <c r="Q918" t="n">
         <v>18</v>
@@ -66501,7 +66501,7 @@
         </is>
       </c>
       <c r="D919" s="2" t="n">
-        <v>44188</v>
+        <v>44483</v>
       </c>
       <c r="E919" t="n">
         <v>4</v>
@@ -66516,7 +66516,7 @@
       </c>
       <c r="H919" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I919" t="inlineStr">
@@ -66525,16 +66525,16 @@
         </is>
       </c>
       <c r="J919" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K919" t="n">
-        <v>9500</v>
+        <v>19000</v>
       </c>
       <c r="L919" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="M919" t="n">
-        <v>9750</v>
+        <v>20000</v>
       </c>
       <c r="N919" t="inlineStr">
         <is>
@@ -66547,7 +66547,7 @@
         </is>
       </c>
       <c r="P919" t="n">
-        <v>542</v>
+        <v>1111</v>
       </c>
       <c r="Q919" t="n">
         <v>18</v>
@@ -66588,7 +66588,7 @@
       </c>
       <c r="H920" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I920" t="inlineStr">
@@ -66597,16 +66597,16 @@
         </is>
       </c>
       <c r="J920" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K920" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="L920" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M920" t="n">
-        <v>9750</v>
+        <v>13750</v>
       </c>
       <c r="N920" t="inlineStr">
         <is>
@@ -66619,7 +66619,7 @@
         </is>
       </c>
       <c r="P920" t="n">
-        <v>542</v>
+        <v>764</v>
       </c>
       <c r="Q920" t="n">
         <v>18</v>
@@ -66660,7 +66660,7 @@
       </c>
       <c r="H921" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I921" t="inlineStr">
@@ -66669,16 +66669,16 @@
         </is>
       </c>
       <c r="J921" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K921" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="L921" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M921" t="n">
-        <v>7750</v>
+        <v>11750</v>
       </c>
       <c r="N921" t="inlineStr">
         <is>
@@ -66691,7 +66691,7 @@
         </is>
       </c>
       <c r="P921" t="n">
-        <v>431</v>
+        <v>653</v>
       </c>
       <c r="Q921" t="n">
         <v>18</v>
@@ -66732,7 +66732,7 @@
       </c>
       <c r="H922" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I922" t="inlineStr">
@@ -66741,16 +66741,16 @@
         </is>
       </c>
       <c r="J922" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K922" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="L922" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M922" t="n">
-        <v>5750</v>
+        <v>9750</v>
       </c>
       <c r="N922" t="inlineStr">
         <is>
@@ -66763,7 +66763,7 @@
         </is>
       </c>
       <c r="P922" t="n">
-        <v>319</v>
+        <v>542</v>
       </c>
       <c r="Q922" t="n">
         <v>18</v>
@@ -66789,7 +66789,7 @@
         </is>
       </c>
       <c r="D923" s="2" t="n">
-        <v>44231</v>
+        <v>44188</v>
       </c>
       <c r="E923" t="n">
         <v>4</v>
@@ -66804,7 +66804,7 @@
       </c>
       <c r="H923" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I923" t="inlineStr">
@@ -66813,16 +66813,16 @@
         </is>
       </c>
       <c r="J923" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K923" t="n">
-        <v>12500</v>
+        <v>9500</v>
       </c>
       <c r="L923" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M923" t="n">
-        <v>12750</v>
+        <v>9750</v>
       </c>
       <c r="N923" t="inlineStr">
         <is>
@@ -66835,7 +66835,7 @@
         </is>
       </c>
       <c r="P923" t="n">
-        <v>708</v>
+        <v>542</v>
       </c>
       <c r="Q923" t="n">
         <v>18</v>
@@ -66861,7 +66861,7 @@
         </is>
       </c>
       <c r="D924" s="2" t="n">
-        <v>44231</v>
+        <v>44188</v>
       </c>
       <c r="E924" t="n">
         <v>4</v>
@@ -66876,7 +66876,7 @@
       </c>
       <c r="H924" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I924" t="inlineStr">
@@ -66885,16 +66885,16 @@
         </is>
       </c>
       <c r="J924" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K924" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="L924" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M924" t="n">
-        <v>10750</v>
+        <v>7750</v>
       </c>
       <c r="N924" t="inlineStr">
         <is>
@@ -66907,7 +66907,7 @@
         </is>
       </c>
       <c r="P924" t="n">
-        <v>597</v>
+        <v>431</v>
       </c>
       <c r="Q924" t="n">
         <v>18</v>
@@ -66933,7 +66933,7 @@
         </is>
       </c>
       <c r="D925" s="2" t="n">
-        <v>44231</v>
+        <v>44188</v>
       </c>
       <c r="E925" t="n">
         <v>4</v>
@@ -66948,7 +66948,7 @@
       </c>
       <c r="H925" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I925" t="inlineStr">
@@ -66957,16 +66957,16 @@
         </is>
       </c>
       <c r="J925" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="K925" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L925" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M925" t="n">
-        <v>7750</v>
+        <v>5750</v>
       </c>
       <c r="N925" t="inlineStr">
         <is>
@@ -66979,7 +66979,7 @@
         </is>
       </c>
       <c r="P925" t="n">
-        <v>431</v>
+        <v>319</v>
       </c>
       <c r="Q925" t="n">
         <v>18</v>
@@ -67020,7 +67020,7 @@
       </c>
       <c r="H926" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I926" t="inlineStr">
@@ -67029,16 +67029,16 @@
         </is>
       </c>
       <c r="J926" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="K926" t="n">
-        <v>5500</v>
+        <v>12500</v>
       </c>
       <c r="L926" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="M926" t="n">
-        <v>5750</v>
+        <v>12750</v>
       </c>
       <c r="N926" t="inlineStr">
         <is>
@@ -67051,7 +67051,7 @@
         </is>
       </c>
       <c r="P926" t="n">
-        <v>319</v>
+        <v>708</v>
       </c>
       <c r="Q926" t="n">
         <v>18</v>
@@ -67092,7 +67092,7 @@
       </c>
       <c r="H927" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I927" t="inlineStr">
@@ -67101,16 +67101,16 @@
         </is>
       </c>
       <c r="J927" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="K927" t="n">
-        <v>3500</v>
+        <v>10500</v>
       </c>
       <c r="L927" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="M927" t="n">
-        <v>3750</v>
+        <v>10750</v>
       </c>
       <c r="N927" t="inlineStr">
         <is>
@@ -67123,7 +67123,7 @@
         </is>
       </c>
       <c r="P927" t="n">
-        <v>208</v>
+        <v>597</v>
       </c>
       <c r="Q927" t="n">
         <v>18</v>
@@ -67164,25 +67164,25 @@
       </c>
       <c r="H928" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I928" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J928" t="n">
-        <v>700</v>
+        <v>120</v>
       </c>
       <c r="K928" t="n">
-        <v>16500</v>
+        <v>7500</v>
       </c>
       <c r="L928" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="M928" t="n">
-        <v>16750</v>
+        <v>7750</v>
       </c>
       <c r="N928" t="inlineStr">
         <is>
@@ -67195,7 +67195,7 @@
         </is>
       </c>
       <c r="P928" t="n">
-        <v>931</v>
+        <v>431</v>
       </c>
       <c r="Q928" t="n">
         <v>18</v>
@@ -67236,25 +67236,25 @@
       </c>
       <c r="H929" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I929" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J929" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K929" t="n">
-        <v>13500</v>
+        <v>5500</v>
       </c>
       <c r="L929" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="M929" t="n">
-        <v>13750</v>
+        <v>5750</v>
       </c>
       <c r="N929" t="inlineStr">
         <is>
@@ -67267,7 +67267,7 @@
         </is>
       </c>
       <c r="P929" t="n">
-        <v>764</v>
+        <v>319</v>
       </c>
       <c r="Q929" t="n">
         <v>18</v>
@@ -67308,43 +67308,259 @@
       </c>
       <c r="H930" t="inlineStr">
         <is>
+          <t>Cuatro cascos verde</t>
+        </is>
+      </c>
+      <c r="I930" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J930" t="n">
+        <v>400</v>
+      </c>
+      <c r="K930" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L930" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M930" t="n">
+        <v>3750</v>
+      </c>
+      <c r="N930" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O930" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P930" t="n">
+        <v>208</v>
+      </c>
+      <c r="Q930" t="n">
+        <v>18</v>
+      </c>
+      <c r="R930" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="n">
+        <v>2</v>
+      </c>
+      <c r="B931" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C931" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D931" s="2" t="n">
+        <v>44231</v>
+      </c>
+      <c r="E931" t="n">
+        <v>4</v>
+      </c>
+      <c r="F931" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G931" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H931" t="inlineStr">
+        <is>
           <t>Morrón rojo</t>
         </is>
       </c>
-      <c r="I930" t="inlineStr">
+      <c r="I931" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J931" t="n">
+        <v>700</v>
+      </c>
+      <c r="K931" t="n">
+        <v>16500</v>
+      </c>
+      <c r="L931" t="n">
+        <v>17000</v>
+      </c>
+      <c r="M931" t="n">
+        <v>16750</v>
+      </c>
+      <c r="N931" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O931" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P931" t="n">
+        <v>931</v>
+      </c>
+      <c r="Q931" t="n">
+        <v>18</v>
+      </c>
+      <c r="R931" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="n">
+        <v>2</v>
+      </c>
+      <c r="B932" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C932" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D932" s="2" t="n">
+        <v>44231</v>
+      </c>
+      <c r="E932" t="n">
+        <v>4</v>
+      </c>
+      <c r="F932" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G932" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H932" t="inlineStr">
+        <is>
+          <t>Morrón rojo</t>
+        </is>
+      </c>
+      <c r="I932" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J932" t="n">
+        <v>600</v>
+      </c>
+      <c r="K932" t="n">
+        <v>13500</v>
+      </c>
+      <c r="L932" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M932" t="n">
+        <v>13750</v>
+      </c>
+      <c r="N932" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O932" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P932" t="n">
+        <v>764</v>
+      </c>
+      <c r="Q932" t="n">
+        <v>18</v>
+      </c>
+      <c r="R932" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="n">
+        <v>2</v>
+      </c>
+      <c r="B933" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C933" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D933" s="2" t="n">
+        <v>44231</v>
+      </c>
+      <c r="E933" t="n">
+        <v>4</v>
+      </c>
+      <c r="F933" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G933" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H933" t="inlineStr">
+        <is>
+          <t>Morrón rojo</t>
+        </is>
+      </c>
+      <c r="I933" t="inlineStr">
         <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="J930" t="n">
+      <c r="J933" t="n">
         <v>300</v>
       </c>
-      <c r="K930" t="n">
+      <c r="K933" t="n">
         <v>9500</v>
       </c>
-      <c r="L930" t="n">
+      <c r="L933" t="n">
         <v>10000</v>
       </c>
-      <c r="M930" t="n">
+      <c r="M933" t="n">
         <v>9750</v>
       </c>
-      <c r="N930" t="inlineStr">
-        <is>
-          <t>$/caja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O930" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P930" t="n">
+      <c r="N933" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O933" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P933" t="n">
         <v>542</v>
       </c>
-      <c r="Q930" t="n">
-        <v>18</v>
-      </c>
-      <c r="R930" t="inlineStr">
+      <c r="Q933" t="n">
+        <v>18</v>
+      </c>
+      <c r="R933" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pimiento.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pimiento.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R958"/>
+  <dimension ref="A1:R964"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63765,7 +63765,7 @@
         </is>
       </c>
       <c r="D881" s="2" t="n">
-        <v>44399</v>
+        <v>44769</v>
       </c>
       <c r="E881" t="n">
         <v>4</v>
@@ -63789,16 +63789,16 @@
         </is>
       </c>
       <c r="J881" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K881" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="L881" t="n">
-        <v>17000</v>
+        <v>26000</v>
       </c>
       <c r="M881" t="n">
-        <v>16500</v>
+        <v>25500</v>
       </c>
       <c r="N881" t="inlineStr">
         <is>
@@ -63811,7 +63811,7 @@
         </is>
       </c>
       <c r="P881" t="n">
-        <v>917</v>
+        <v>1417</v>
       </c>
       <c r="Q881" t="n">
         <v>18</v>
@@ -63837,7 +63837,7 @@
         </is>
       </c>
       <c r="D882" s="2" t="n">
-        <v>44399</v>
+        <v>44769</v>
       </c>
       <c r="E882" t="n">
         <v>4</v>
@@ -63861,16 +63861,16 @@
         </is>
       </c>
       <c r="J882" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="K882" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="L882" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="M882" t="n">
-        <v>13500</v>
+        <v>22500</v>
       </c>
       <c r="N882" t="inlineStr">
         <is>
@@ -63883,7 +63883,7 @@
         </is>
       </c>
       <c r="P882" t="n">
-        <v>750</v>
+        <v>1250</v>
       </c>
       <c r="Q882" t="n">
         <v>18</v>
@@ -63909,7 +63909,7 @@
         </is>
       </c>
       <c r="D883" s="2" t="n">
-        <v>44399</v>
+        <v>44769</v>
       </c>
       <c r="E883" t="n">
         <v>4</v>
@@ -63933,16 +63933,16 @@
         </is>
       </c>
       <c r="J883" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="K883" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="L883" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M883" t="n">
-        <v>9500</v>
+        <v>19500</v>
       </c>
       <c r="N883" t="inlineStr">
         <is>
@@ -63955,7 +63955,7 @@
         </is>
       </c>
       <c r="P883" t="n">
-        <v>528</v>
+        <v>1083</v>
       </c>
       <c r="Q883" t="n">
         <v>18</v>
@@ -63981,7 +63981,7 @@
         </is>
       </c>
       <c r="D884" s="2" t="n">
-        <v>44399</v>
+        <v>44769</v>
       </c>
       <c r="E884" t="n">
         <v>4</v>
@@ -64005,16 +64005,16 @@
         </is>
       </c>
       <c r="J884" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K884" t="n">
-        <v>18000</v>
+        <v>28000</v>
       </c>
       <c r="L884" t="n">
-        <v>18500</v>
+        <v>29000</v>
       </c>
       <c r="M884" t="n">
-        <v>18250</v>
+        <v>28500</v>
       </c>
       <c r="N884" t="inlineStr">
         <is>
@@ -64027,7 +64027,7 @@
         </is>
       </c>
       <c r="P884" t="n">
-        <v>1014</v>
+        <v>1583</v>
       </c>
       <c r="Q884" t="n">
         <v>18</v>
@@ -64053,7 +64053,7 @@
         </is>
       </c>
       <c r="D885" s="2" t="n">
-        <v>44399</v>
+        <v>44769</v>
       </c>
       <c r="E885" t="n">
         <v>4</v>
@@ -64077,16 +64077,16 @@
         </is>
       </c>
       <c r="J885" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K885" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="L885" t="n">
-        <v>16500</v>
+        <v>26000</v>
       </c>
       <c r="M885" t="n">
-        <v>16250</v>
+        <v>25500</v>
       </c>
       <c r="N885" t="inlineStr">
         <is>
@@ -64099,7 +64099,7 @@
         </is>
       </c>
       <c r="P885" t="n">
-        <v>903</v>
+        <v>1417</v>
       </c>
       <c r="Q885" t="n">
         <v>18</v>
@@ -64125,7 +64125,7 @@
         </is>
       </c>
       <c r="D886" s="2" t="n">
-        <v>44399</v>
+        <v>44769</v>
       </c>
       <c r="E886" t="n">
         <v>4</v>
@@ -64149,16 +64149,16 @@
         </is>
       </c>
       <c r="J886" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="K886" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="L886" t="n">
-        <v>14500</v>
+        <v>23000</v>
       </c>
       <c r="M886" t="n">
-        <v>14250</v>
+        <v>22500</v>
       </c>
       <c r="N886" t="inlineStr">
         <is>
@@ -64171,7 +64171,7 @@
         </is>
       </c>
       <c r="P886" t="n">
-        <v>792</v>
+        <v>1250</v>
       </c>
       <c r="Q886" t="n">
         <v>18</v>
@@ -64197,7 +64197,7 @@
         </is>
       </c>
       <c r="D887" s="2" t="n">
-        <v>44377</v>
+        <v>44399</v>
       </c>
       <c r="E887" t="n">
         <v>4</v>
@@ -64221,16 +64221,16 @@
         </is>
       </c>
       <c r="J887" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K887" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="L887" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M887" t="n">
-        <v>13750</v>
+        <v>16500</v>
       </c>
       <c r="N887" t="inlineStr">
         <is>
@@ -64243,7 +64243,7 @@
         </is>
       </c>
       <c r="P887" t="n">
-        <v>764</v>
+        <v>917</v>
       </c>
       <c r="Q887" t="n">
         <v>18</v>
@@ -64269,7 +64269,7 @@
         </is>
       </c>
       <c r="D888" s="2" t="n">
-        <v>44377</v>
+        <v>44399</v>
       </c>
       <c r="E888" t="n">
         <v>4</v>
@@ -64293,16 +64293,16 @@
         </is>
       </c>
       <c r="J888" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K888" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="L888" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M888" t="n">
-        <v>11750</v>
+        <v>13500</v>
       </c>
       <c r="N888" t="inlineStr">
         <is>
@@ -64315,7 +64315,7 @@
         </is>
       </c>
       <c r="P888" t="n">
-        <v>653</v>
+        <v>750</v>
       </c>
       <c r="Q888" t="n">
         <v>18</v>
@@ -64341,7 +64341,7 @@
         </is>
       </c>
       <c r="D889" s="2" t="n">
-        <v>44377</v>
+        <v>44399</v>
       </c>
       <c r="E889" t="n">
         <v>4</v>
@@ -64365,16 +64365,16 @@
         </is>
       </c>
       <c r="J889" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K889" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="L889" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M889" t="n">
-        <v>8750</v>
+        <v>9500</v>
       </c>
       <c r="N889" t="inlineStr">
         <is>
@@ -64387,7 +64387,7 @@
         </is>
       </c>
       <c r="P889" t="n">
-        <v>486</v>
+        <v>528</v>
       </c>
       <c r="Q889" t="n">
         <v>18</v>
@@ -64413,7 +64413,7 @@
         </is>
       </c>
       <c r="D890" s="2" t="n">
-        <v>44377</v>
+        <v>44399</v>
       </c>
       <c r="E890" t="n">
         <v>4</v>
@@ -64437,16 +64437,16 @@
         </is>
       </c>
       <c r="J890" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="K890" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L890" t="n">
-        <v>13000</v>
+        <v>18500</v>
       </c>
       <c r="M890" t="n">
-        <v>12500</v>
+        <v>18250</v>
       </c>
       <c r="N890" t="inlineStr">
         <is>
@@ -64459,7 +64459,7 @@
         </is>
       </c>
       <c r="P890" t="n">
-        <v>694</v>
+        <v>1014</v>
       </c>
       <c r="Q890" t="n">
         <v>18</v>
@@ -64485,7 +64485,7 @@
         </is>
       </c>
       <c r="D891" s="2" t="n">
-        <v>44377</v>
+        <v>44399</v>
       </c>
       <c r="E891" t="n">
         <v>4</v>
@@ -64509,16 +64509,16 @@
         </is>
       </c>
       <c r="J891" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K891" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L891" t="n">
-        <v>11000</v>
+        <v>16500</v>
       </c>
       <c r="M891" t="n">
-        <v>10500</v>
+        <v>16250</v>
       </c>
       <c r="N891" t="inlineStr">
         <is>
@@ -64531,7 +64531,7 @@
         </is>
       </c>
       <c r="P891" t="n">
-        <v>583</v>
+        <v>903</v>
       </c>
       <c r="Q891" t="n">
         <v>18</v>
@@ -64557,7 +64557,7 @@
         </is>
       </c>
       <c r="D892" s="2" t="n">
-        <v>44377</v>
+        <v>44399</v>
       </c>
       <c r="E892" t="n">
         <v>4</v>
@@ -64581,16 +64581,16 @@
         </is>
       </c>
       <c r="J892" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K892" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L892" t="n">
-        <v>9000</v>
+        <v>14500</v>
       </c>
       <c r="M892" t="n">
-        <v>8500</v>
+        <v>14250</v>
       </c>
       <c r="N892" t="inlineStr">
         <is>
@@ -64603,7 +64603,7 @@
         </is>
       </c>
       <c r="P892" t="n">
-        <v>472</v>
+        <v>792</v>
       </c>
       <c r="Q892" t="n">
         <v>18</v>
@@ -64629,7 +64629,7 @@
         </is>
       </c>
       <c r="D893" s="2" t="n">
-        <v>44181</v>
+        <v>44377</v>
       </c>
       <c r="E893" t="n">
         <v>4</v>
@@ -64653,16 +64653,16 @@
         </is>
       </c>
       <c r="J893" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K893" t="n">
-        <v>9000</v>
+        <v>13500</v>
       </c>
       <c r="L893" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M893" t="n">
-        <v>9500</v>
+        <v>13750</v>
       </c>
       <c r="N893" t="inlineStr">
         <is>
@@ -64675,7 +64675,7 @@
         </is>
       </c>
       <c r="P893" t="n">
-        <v>528</v>
+        <v>764</v>
       </c>
       <c r="Q893" t="n">
         <v>18</v>
@@ -64701,7 +64701,7 @@
         </is>
       </c>
       <c r="D894" s="2" t="n">
-        <v>44181</v>
+        <v>44377</v>
       </c>
       <c r="E894" t="n">
         <v>4</v>
@@ -64725,16 +64725,16 @@
         </is>
       </c>
       <c r="J894" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K894" t="n">
-        <v>7000</v>
+        <v>11500</v>
       </c>
       <c r="L894" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M894" t="n">
-        <v>7500</v>
+        <v>11750</v>
       </c>
       <c r="N894" t="inlineStr">
         <is>
@@ -64747,7 +64747,7 @@
         </is>
       </c>
       <c r="P894" t="n">
-        <v>417</v>
+        <v>653</v>
       </c>
       <c r="Q894" t="n">
         <v>18</v>
@@ -64773,7 +64773,7 @@
         </is>
       </c>
       <c r="D895" s="2" t="n">
-        <v>44181</v>
+        <v>44377</v>
       </c>
       <c r="E895" t="n">
         <v>4</v>
@@ -64797,16 +64797,16 @@
         </is>
       </c>
       <c r="J895" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K895" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="L895" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M895" t="n">
-        <v>5500</v>
+        <v>8750</v>
       </c>
       <c r="N895" t="inlineStr">
         <is>
@@ -64819,7 +64819,7 @@
         </is>
       </c>
       <c r="P895" t="n">
-        <v>306</v>
+        <v>486</v>
       </c>
       <c r="Q895" t="n">
         <v>18</v>
@@ -64845,7 +64845,7 @@
         </is>
       </c>
       <c r="D896" s="2" t="n">
-        <v>44497</v>
+        <v>44377</v>
       </c>
       <c r="E896" t="n">
         <v>4</v>
@@ -64860,7 +64860,7 @@
       </c>
       <c r="H896" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I896" t="inlineStr">
@@ -64869,16 +64869,16 @@
         </is>
       </c>
       <c r="J896" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="K896" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="L896" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="M896" t="n">
-        <v>21500</v>
+        <v>12500</v>
       </c>
       <c r="N896" t="inlineStr">
         <is>
@@ -64891,7 +64891,7 @@
         </is>
       </c>
       <c r="P896" t="n">
-        <v>1194</v>
+        <v>694</v>
       </c>
       <c r="Q896" t="n">
         <v>18</v>
@@ -64917,7 +64917,7 @@
         </is>
       </c>
       <c r="D897" s="2" t="n">
-        <v>44497</v>
+        <v>44377</v>
       </c>
       <c r="E897" t="n">
         <v>4</v>
@@ -64932,7 +64932,7 @@
       </c>
       <c r="H897" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I897" t="inlineStr">
@@ -64944,13 +64944,13 @@
         <v>700</v>
       </c>
       <c r="K897" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="L897" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="M897" t="n">
-        <v>18500</v>
+        <v>10500</v>
       </c>
       <c r="N897" t="inlineStr">
         <is>
@@ -64963,7 +64963,7 @@
         </is>
       </c>
       <c r="P897" t="n">
-        <v>1028</v>
+        <v>583</v>
       </c>
       <c r="Q897" t="n">
         <v>18</v>
@@ -64989,7 +64989,7 @@
         </is>
       </c>
       <c r="D898" s="2" t="n">
-        <v>44497</v>
+        <v>44377</v>
       </c>
       <c r="E898" t="n">
         <v>4</v>
@@ -65004,7 +65004,7 @@
       </c>
       <c r="H898" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I898" t="inlineStr">
@@ -65016,13 +65016,13 @@
         <v>600</v>
       </c>
       <c r="K898" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L898" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="M898" t="n">
-        <v>15500</v>
+        <v>8500</v>
       </c>
       <c r="N898" t="inlineStr">
         <is>
@@ -65035,7 +65035,7 @@
         </is>
       </c>
       <c r="P898" t="n">
-        <v>861</v>
+        <v>472</v>
       </c>
       <c r="Q898" t="n">
         <v>18</v>
@@ -65061,7 +65061,7 @@
         </is>
       </c>
       <c r="D899" s="2" t="n">
-        <v>44357</v>
+        <v>44181</v>
       </c>
       <c r="E899" t="n">
         <v>4</v>
@@ -65076,7 +65076,7 @@
       </c>
       <c r="H899" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I899" t="inlineStr">
@@ -65085,16 +65085,16 @@
         </is>
       </c>
       <c r="J899" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K899" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L899" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M899" t="n">
-        <v>12500</v>
+        <v>9500</v>
       </c>
       <c r="N899" t="inlineStr">
         <is>
@@ -65107,7 +65107,7 @@
         </is>
       </c>
       <c r="P899" t="n">
-        <v>694</v>
+        <v>528</v>
       </c>
       <c r="Q899" t="n">
         <v>18</v>
@@ -65133,7 +65133,7 @@
         </is>
       </c>
       <c r="D900" s="2" t="n">
-        <v>44357</v>
+        <v>44181</v>
       </c>
       <c r="E900" t="n">
         <v>4</v>
@@ -65148,7 +65148,7 @@
       </c>
       <c r="H900" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I900" t="inlineStr">
@@ -65157,16 +65157,16 @@
         </is>
       </c>
       <c r="J900" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K900" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L900" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M900" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="N900" t="inlineStr">
         <is>
@@ -65179,7 +65179,7 @@
         </is>
       </c>
       <c r="P900" t="n">
-        <v>583</v>
+        <v>417</v>
       </c>
       <c r="Q900" t="n">
         <v>18</v>
@@ -65205,7 +65205,7 @@
         </is>
       </c>
       <c r="D901" s="2" t="n">
-        <v>44357</v>
+        <v>44181</v>
       </c>
       <c r="E901" t="n">
         <v>4</v>
@@ -65220,7 +65220,7 @@
       </c>
       <c r="H901" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I901" t="inlineStr">
@@ -65229,16 +65229,16 @@
         </is>
       </c>
       <c r="J901" t="n">
-        <v>530</v>
+        <v>200</v>
       </c>
       <c r="K901" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L901" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M901" t="n">
-        <v>8472</v>
+        <v>5500</v>
       </c>
       <c r="N901" t="inlineStr">
         <is>
@@ -65251,7 +65251,7 @@
         </is>
       </c>
       <c r="P901" t="n">
-        <v>471</v>
+        <v>306</v>
       </c>
       <c r="Q901" t="n">
         <v>18</v>
@@ -65277,7 +65277,7 @@
         </is>
       </c>
       <c r="D902" s="2" t="n">
-        <v>44357</v>
+        <v>44497</v>
       </c>
       <c r="E902" t="n">
         <v>4</v>
@@ -65301,16 +65301,16 @@
         </is>
       </c>
       <c r="J902" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K902" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="L902" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="M902" t="n">
-        <v>12500</v>
+        <v>21500</v>
       </c>
       <c r="N902" t="inlineStr">
         <is>
@@ -65323,7 +65323,7 @@
         </is>
       </c>
       <c r="P902" t="n">
-        <v>694</v>
+        <v>1194</v>
       </c>
       <c r="Q902" t="n">
         <v>18</v>
@@ -65349,7 +65349,7 @@
         </is>
       </c>
       <c r="D903" s="2" t="n">
-        <v>44357</v>
+        <v>44497</v>
       </c>
       <c r="E903" t="n">
         <v>4</v>
@@ -65373,16 +65373,16 @@
         </is>
       </c>
       <c r="J903" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K903" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="L903" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="M903" t="n">
-        <v>10500</v>
+        <v>18500</v>
       </c>
       <c r="N903" t="inlineStr">
         <is>
@@ -65395,7 +65395,7 @@
         </is>
       </c>
       <c r="P903" t="n">
-        <v>583</v>
+        <v>1028</v>
       </c>
       <c r="Q903" t="n">
         <v>18</v>
@@ -65421,7 +65421,7 @@
         </is>
       </c>
       <c r="D904" s="2" t="n">
-        <v>44357</v>
+        <v>44497</v>
       </c>
       <c r="E904" t="n">
         <v>4</v>
@@ -65445,16 +65445,16 @@
         </is>
       </c>
       <c r="J904" t="n">
-        <v>260</v>
+        <v>600</v>
       </c>
       <c r="K904" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="L904" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="M904" t="n">
-        <v>8500</v>
+        <v>15500</v>
       </c>
       <c r="N904" t="inlineStr">
         <is>
@@ -65467,7 +65467,7 @@
         </is>
       </c>
       <c r="P904" t="n">
-        <v>472</v>
+        <v>861</v>
       </c>
       <c r="Q904" t="n">
         <v>18</v>
@@ -65508,7 +65508,7 @@
       </c>
       <c r="H905" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I905" t="inlineStr">
@@ -65517,7 +65517,7 @@
         </is>
       </c>
       <c r="J905" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K905" t="n">
         <v>12000</v>
@@ -65580,7 +65580,7 @@
       </c>
       <c r="H906" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I906" t="inlineStr">
@@ -65652,7 +65652,7 @@
       </c>
       <c r="H907" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I907" t="inlineStr">
@@ -65661,7 +65661,7 @@
         </is>
       </c>
       <c r="J907" t="n">
-        <v>500</v>
+        <v>530</v>
       </c>
       <c r="K907" t="n">
         <v>8000</v>
@@ -65670,7 +65670,7 @@
         <v>9000</v>
       </c>
       <c r="M907" t="n">
-        <v>8500</v>
+        <v>8472</v>
       </c>
       <c r="N907" t="inlineStr">
         <is>
@@ -65683,7 +65683,7 @@
         </is>
       </c>
       <c r="P907" t="n">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="Q907" t="n">
         <v>18</v>
@@ -65709,7 +65709,7 @@
         </is>
       </c>
       <c r="D908" s="2" t="n">
-        <v>44279</v>
+        <v>44357</v>
       </c>
       <c r="E908" t="n">
         <v>4</v>
@@ -65724,7 +65724,7 @@
       </c>
       <c r="H908" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I908" t="inlineStr">
@@ -65733,16 +65733,16 @@
         </is>
       </c>
       <c r="J908" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K908" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="L908" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M908" t="n">
-        <v>7750</v>
+        <v>12500</v>
       </c>
       <c r="N908" t="inlineStr">
         <is>
@@ -65755,7 +65755,7 @@
         </is>
       </c>
       <c r="P908" t="n">
-        <v>431</v>
+        <v>694</v>
       </c>
       <c r="Q908" t="n">
         <v>18</v>
@@ -65781,7 +65781,7 @@
         </is>
       </c>
       <c r="D909" s="2" t="n">
-        <v>44279</v>
+        <v>44357</v>
       </c>
       <c r="E909" t="n">
         <v>4</v>
@@ -65796,7 +65796,7 @@
       </c>
       <c r="H909" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I909" t="inlineStr">
@@ -65805,16 +65805,16 @@
         </is>
       </c>
       <c r="J909" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K909" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="L909" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M909" t="n">
-        <v>5750</v>
+        <v>10500</v>
       </c>
       <c r="N909" t="inlineStr">
         <is>
@@ -65827,7 +65827,7 @@
         </is>
       </c>
       <c r="P909" t="n">
-        <v>319</v>
+        <v>583</v>
       </c>
       <c r="Q909" t="n">
         <v>18</v>
@@ -65853,7 +65853,7 @@
         </is>
       </c>
       <c r="D910" s="2" t="n">
-        <v>44279</v>
+        <v>44357</v>
       </c>
       <c r="E910" t="n">
         <v>4</v>
@@ -65868,7 +65868,7 @@
       </c>
       <c r="H910" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I910" t="inlineStr">
@@ -65877,16 +65877,16 @@
         </is>
       </c>
       <c r="J910" t="n">
-        <v>160</v>
+        <v>260</v>
       </c>
       <c r="K910" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="L910" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="M910" t="n">
-        <v>3750</v>
+        <v>8500</v>
       </c>
       <c r="N910" t="inlineStr">
         <is>
@@ -65899,7 +65899,7 @@
         </is>
       </c>
       <c r="P910" t="n">
-        <v>208</v>
+        <v>472</v>
       </c>
       <c r="Q910" t="n">
         <v>18</v>
@@ -65925,7 +65925,7 @@
         </is>
       </c>
       <c r="D911" s="2" t="n">
-        <v>44279</v>
+        <v>44357</v>
       </c>
       <c r="E911" t="n">
         <v>4</v>
@@ -65940,7 +65940,7 @@
       </c>
       <c r="H911" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I911" t="inlineStr">
@@ -65949,16 +65949,16 @@
         </is>
       </c>
       <c r="J911" t="n">
-        <v>360</v>
+        <v>700</v>
       </c>
       <c r="K911" t="n">
-        <v>5500</v>
+        <v>12000</v>
       </c>
       <c r="L911" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="M911" t="n">
-        <v>5750</v>
+        <v>12500</v>
       </c>
       <c r="N911" t="inlineStr">
         <is>
@@ -65971,7 +65971,7 @@
         </is>
       </c>
       <c r="P911" t="n">
-        <v>319</v>
+        <v>694</v>
       </c>
       <c r="Q911" t="n">
         <v>18</v>
@@ -65997,7 +65997,7 @@
         </is>
       </c>
       <c r="D912" s="2" t="n">
-        <v>44279</v>
+        <v>44357</v>
       </c>
       <c r="E912" t="n">
         <v>4</v>
@@ -66012,7 +66012,7 @@
       </c>
       <c r="H912" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I912" t="inlineStr">
@@ -66021,16 +66021,16 @@
         </is>
       </c>
       <c r="J912" t="n">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="K912" t="n">
-        <v>3500</v>
+        <v>10000</v>
       </c>
       <c r="L912" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="M912" t="n">
-        <v>3750</v>
+        <v>10500</v>
       </c>
       <c r="N912" t="inlineStr">
         <is>
@@ -66043,7 +66043,7 @@
         </is>
       </c>
       <c r="P912" t="n">
-        <v>208</v>
+        <v>583</v>
       </c>
       <c r="Q912" t="n">
         <v>18</v>
@@ -66069,7 +66069,7 @@
         </is>
       </c>
       <c r="D913" s="2" t="n">
-        <v>44279</v>
+        <v>44357</v>
       </c>
       <c r="E913" t="n">
         <v>4</v>
@@ -66084,7 +66084,7 @@
       </c>
       <c r="H913" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I913" t="inlineStr">
@@ -66093,16 +66093,16 @@
         </is>
       </c>
       <c r="J913" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K913" t="n">
-        <v>1500</v>
+        <v>8000</v>
       </c>
       <c r="L913" t="n">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="M913" t="n">
-        <v>1750</v>
+        <v>8500</v>
       </c>
       <c r="N913" t="inlineStr">
         <is>
@@ -66115,7 +66115,7 @@
         </is>
       </c>
       <c r="P913" t="n">
-        <v>97</v>
+        <v>472</v>
       </c>
       <c r="Q913" t="n">
         <v>18</v>
@@ -66141,7 +66141,7 @@
         </is>
       </c>
       <c r="D914" s="2" t="n">
-        <v>44517</v>
+        <v>44279</v>
       </c>
       <c r="E914" t="n">
         <v>4</v>
@@ -66168,13 +66168,13 @@
         <v>300</v>
       </c>
       <c r="K914" t="n">
-        <v>24000</v>
+        <v>7500</v>
       </c>
       <c r="L914" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="M914" t="n">
-        <v>24500</v>
+        <v>7750</v>
       </c>
       <c r="N914" t="inlineStr">
         <is>
@@ -66187,7 +66187,7 @@
         </is>
       </c>
       <c r="P914" t="n">
-        <v>1361</v>
+        <v>431</v>
       </c>
       <c r="Q914" t="n">
         <v>18</v>
@@ -66213,7 +66213,7 @@
         </is>
       </c>
       <c r="D915" s="2" t="n">
-        <v>44517</v>
+        <v>44279</v>
       </c>
       <c r="E915" t="n">
         <v>4</v>
@@ -66237,16 +66237,16 @@
         </is>
       </c>
       <c r="J915" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K915" t="n">
-        <v>19000</v>
+        <v>5500</v>
       </c>
       <c r="L915" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="M915" t="n">
-        <v>19500</v>
+        <v>5750</v>
       </c>
       <c r="N915" t="inlineStr">
         <is>
@@ -66259,7 +66259,7 @@
         </is>
       </c>
       <c r="P915" t="n">
-        <v>1083</v>
+        <v>319</v>
       </c>
       <c r="Q915" t="n">
         <v>18</v>
@@ -66285,7 +66285,7 @@
         </is>
       </c>
       <c r="D916" s="2" t="n">
-        <v>44517</v>
+        <v>44279</v>
       </c>
       <c r="E916" t="n">
         <v>4</v>
@@ -66309,16 +66309,16 @@
         </is>
       </c>
       <c r="J916" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="K916" t="n">
-        <v>14000</v>
+        <v>3500</v>
       </c>
       <c r="L916" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="M916" t="n">
-        <v>14500</v>
+        <v>3750</v>
       </c>
       <c r="N916" t="inlineStr">
         <is>
@@ -66331,7 +66331,7 @@
         </is>
       </c>
       <c r="P916" t="n">
-        <v>806</v>
+        <v>208</v>
       </c>
       <c r="Q916" t="n">
         <v>18</v>
@@ -66357,7 +66357,7 @@
         </is>
       </c>
       <c r="D917" s="2" t="n">
-        <v>44517</v>
+        <v>44279</v>
       </c>
       <c r="E917" t="n">
         <v>4</v>
@@ -66381,16 +66381,16 @@
         </is>
       </c>
       <c r="J917" t="n">
-        <v>1100</v>
+        <v>360</v>
       </c>
       <c r="K917" t="n">
-        <v>16000</v>
+        <v>5500</v>
       </c>
       <c r="L917" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="M917" t="n">
-        <v>16500</v>
+        <v>5750</v>
       </c>
       <c r="N917" t="inlineStr">
         <is>
@@ -66403,7 +66403,7 @@
         </is>
       </c>
       <c r="P917" t="n">
-        <v>917</v>
+        <v>319</v>
       </c>
       <c r="Q917" t="n">
         <v>18</v>
@@ -66429,7 +66429,7 @@
         </is>
       </c>
       <c r="D918" s="2" t="n">
-        <v>44517</v>
+        <v>44279</v>
       </c>
       <c r="E918" t="n">
         <v>4</v>
@@ -66453,16 +66453,16 @@
         </is>
       </c>
       <c r="J918" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="K918" t="n">
-        <v>13000</v>
+        <v>3500</v>
       </c>
       <c r="L918" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="M918" t="n">
-        <v>13500</v>
+        <v>3750</v>
       </c>
       <c r="N918" t="inlineStr">
         <is>
@@ -66475,7 +66475,7 @@
         </is>
       </c>
       <c r="P918" t="n">
-        <v>750</v>
+        <v>208</v>
       </c>
       <c r="Q918" t="n">
         <v>18</v>
@@ -66501,7 +66501,7 @@
         </is>
       </c>
       <c r="D919" s="2" t="n">
-        <v>44517</v>
+        <v>44279</v>
       </c>
       <c r="E919" t="n">
         <v>4</v>
@@ -66525,16 +66525,16 @@
         </is>
       </c>
       <c r="J919" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K919" t="n">
-        <v>9000</v>
+        <v>1500</v>
       </c>
       <c r="L919" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="M919" t="n">
-        <v>9500</v>
+        <v>1750</v>
       </c>
       <c r="N919" t="inlineStr">
         <is>
@@ -66547,7 +66547,7 @@
         </is>
       </c>
       <c r="P919" t="n">
-        <v>528</v>
+        <v>97</v>
       </c>
       <c r="Q919" t="n">
         <v>18</v>
@@ -66573,7 +66573,7 @@
         </is>
       </c>
       <c r="D920" s="2" t="n">
-        <v>44321</v>
+        <v>44517</v>
       </c>
       <c r="E920" t="n">
         <v>4</v>
@@ -66588,7 +66588,7 @@
       </c>
       <c r="H920" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I920" t="inlineStr">
@@ -66597,16 +66597,16 @@
         </is>
       </c>
       <c r="J920" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="K920" t="n">
-        <v>6000</v>
+        <v>24000</v>
       </c>
       <c r="L920" t="n">
-        <v>7000</v>
+        <v>25000</v>
       </c>
       <c r="M920" t="n">
-        <v>6500</v>
+        <v>24500</v>
       </c>
       <c r="N920" t="inlineStr">
         <is>
@@ -66619,7 +66619,7 @@
         </is>
       </c>
       <c r="P920" t="n">
-        <v>361</v>
+        <v>1361</v>
       </c>
       <c r="Q920" t="n">
         <v>18</v>
@@ -66645,7 +66645,7 @@
         </is>
       </c>
       <c r="D921" s="2" t="n">
-        <v>44321</v>
+        <v>44517</v>
       </c>
       <c r="E921" t="n">
         <v>4</v>
@@ -66660,7 +66660,7 @@
       </c>
       <c r="H921" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I921" t="inlineStr">
@@ -66669,16 +66669,16 @@
         </is>
       </c>
       <c r="J921" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="K921" t="n">
-        <v>4000</v>
+        <v>19000</v>
       </c>
       <c r="L921" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="M921" t="n">
-        <v>4500</v>
+        <v>19500</v>
       </c>
       <c r="N921" t="inlineStr">
         <is>
@@ -66691,7 +66691,7 @@
         </is>
       </c>
       <c r="P921" t="n">
-        <v>250</v>
+        <v>1083</v>
       </c>
       <c r="Q921" t="n">
         <v>18</v>
@@ -66717,7 +66717,7 @@
         </is>
       </c>
       <c r="D922" s="2" t="n">
-        <v>44321</v>
+        <v>44517</v>
       </c>
       <c r="E922" t="n">
         <v>4</v>
@@ -66732,7 +66732,7 @@
       </c>
       <c r="H922" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I922" t="inlineStr">
@@ -66741,16 +66741,16 @@
         </is>
       </c>
       <c r="J922" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K922" t="n">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="L922" t="n">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="M922" t="n">
-        <v>2500</v>
+        <v>14500</v>
       </c>
       <c r="N922" t="inlineStr">
         <is>
@@ -66763,7 +66763,7 @@
         </is>
       </c>
       <c r="P922" t="n">
-        <v>139</v>
+        <v>806</v>
       </c>
       <c r="Q922" t="n">
         <v>18</v>
@@ -66789,7 +66789,7 @@
         </is>
       </c>
       <c r="D923" s="2" t="n">
-        <v>44321</v>
+        <v>44517</v>
       </c>
       <c r="E923" t="n">
         <v>4</v>
@@ -66804,7 +66804,7 @@
       </c>
       <c r="H923" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I923" t="inlineStr">
@@ -66813,16 +66813,16 @@
         </is>
       </c>
       <c r="J923" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K923" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="L923" t="n">
-        <v>6500</v>
+        <v>17000</v>
       </c>
       <c r="M923" t="n">
-        <v>6250</v>
+        <v>16500</v>
       </c>
       <c r="N923" t="inlineStr">
         <is>
@@ -66835,7 +66835,7 @@
         </is>
       </c>
       <c r="P923" t="n">
-        <v>347</v>
+        <v>917</v>
       </c>
       <c r="Q923" t="n">
         <v>18</v>
@@ -66861,7 +66861,7 @@
         </is>
       </c>
       <c r="D924" s="2" t="n">
-        <v>44321</v>
+        <v>44517</v>
       </c>
       <c r="E924" t="n">
         <v>4</v>
@@ -66876,7 +66876,7 @@
       </c>
       <c r="H924" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I924" t="inlineStr">
@@ -66885,16 +66885,16 @@
         </is>
       </c>
       <c r="J924" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K924" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="L924" t="n">
-        <v>4500</v>
+        <v>14000</v>
       </c>
       <c r="M924" t="n">
-        <v>4250</v>
+        <v>13500</v>
       </c>
       <c r="N924" t="inlineStr">
         <is>
@@ -66907,7 +66907,7 @@
         </is>
       </c>
       <c r="P924" t="n">
-        <v>236</v>
+        <v>750</v>
       </c>
       <c r="Q924" t="n">
         <v>18</v>
@@ -66933,7 +66933,7 @@
         </is>
       </c>
       <c r="D925" s="2" t="n">
-        <v>44321</v>
+        <v>44517</v>
       </c>
       <c r="E925" t="n">
         <v>4</v>
@@ -66948,7 +66948,7 @@
       </c>
       <c r="H925" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I925" t="inlineStr">
@@ -66957,16 +66957,16 @@
         </is>
       </c>
       <c r="J925" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K925" t="n">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="L925" t="n">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="M925" t="n">
-        <v>2250</v>
+        <v>9500</v>
       </c>
       <c r="N925" t="inlineStr">
         <is>
@@ -66979,7 +66979,7 @@
         </is>
       </c>
       <c r="P925" t="n">
-        <v>125</v>
+        <v>528</v>
       </c>
       <c r="Q925" t="n">
         <v>18</v>
@@ -67005,7 +67005,7 @@
         </is>
       </c>
       <c r="D926" s="2" t="n">
-        <v>44657</v>
+        <v>44321</v>
       </c>
       <c r="E926" t="n">
         <v>4</v>
@@ -67020,7 +67020,7 @@
       </c>
       <c r="H926" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I926" t="inlineStr">
@@ -67029,16 +67029,16 @@
         </is>
       </c>
       <c r="J926" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="K926" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L926" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M926" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="N926" t="inlineStr">
         <is>
@@ -67051,7 +67051,7 @@
         </is>
       </c>
       <c r="P926" t="n">
-        <v>528</v>
+        <v>361</v>
       </c>
       <c r="Q926" t="n">
         <v>18</v>
@@ -67077,7 +67077,7 @@
         </is>
       </c>
       <c r="D927" s="2" t="n">
-        <v>44657</v>
+        <v>44321</v>
       </c>
       <c r="E927" t="n">
         <v>4</v>
@@ -67092,7 +67092,7 @@
       </c>
       <c r="H927" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I927" t="inlineStr">
@@ -67101,16 +67101,16 @@
         </is>
       </c>
       <c r="J927" t="n">
-        <v>360</v>
+        <v>700</v>
       </c>
       <c r="K927" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L927" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M927" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="N927" t="inlineStr">
         <is>
@@ -67123,7 +67123,7 @@
         </is>
       </c>
       <c r="P927" t="n">
-        <v>417</v>
+        <v>250</v>
       </c>
       <c r="Q927" t="n">
         <v>18</v>
@@ -67149,7 +67149,7 @@
         </is>
       </c>
       <c r="D928" s="2" t="n">
-        <v>44657</v>
+        <v>44321</v>
       </c>
       <c r="E928" t="n">
         <v>4</v>
@@ -67164,7 +67164,7 @@
       </c>
       <c r="H928" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I928" t="inlineStr">
@@ -67173,16 +67173,16 @@
         </is>
       </c>
       <c r="J928" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K928" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="L928" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M928" t="n">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="N928" t="inlineStr">
         <is>
@@ -67195,7 +67195,7 @@
         </is>
       </c>
       <c r="P928" t="n">
-        <v>306</v>
+        <v>139</v>
       </c>
       <c r="Q928" t="n">
         <v>18</v>
@@ -67221,7 +67221,7 @@
         </is>
       </c>
       <c r="D929" s="2" t="n">
-        <v>44657</v>
+        <v>44321</v>
       </c>
       <c r="E929" t="n">
         <v>4</v>
@@ -67236,7 +67236,7 @@
       </c>
       <c r="H929" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I929" t="inlineStr">
@@ -67245,16 +67245,16 @@
         </is>
       </c>
       <c r="J929" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K929" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L929" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="M929" t="n">
-        <v>10500</v>
+        <v>6250</v>
       </c>
       <c r="N929" t="inlineStr">
         <is>
@@ -67267,7 +67267,7 @@
         </is>
       </c>
       <c r="P929" t="n">
-        <v>583</v>
+        <v>347</v>
       </c>
       <c r="Q929" t="n">
         <v>18</v>
@@ -67293,7 +67293,7 @@
         </is>
       </c>
       <c r="D930" s="2" t="n">
-        <v>44657</v>
+        <v>44321</v>
       </c>
       <c r="E930" t="n">
         <v>4</v>
@@ -67308,7 +67308,7 @@
       </c>
       <c r="H930" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I930" t="inlineStr">
@@ -67317,16 +67317,16 @@
         </is>
       </c>
       <c r="J930" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K930" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L930" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="M930" t="n">
-        <v>8500</v>
+        <v>4250</v>
       </c>
       <c r="N930" t="inlineStr">
         <is>
@@ -67339,7 +67339,7 @@
         </is>
       </c>
       <c r="P930" t="n">
-        <v>472</v>
+        <v>236</v>
       </c>
       <c r="Q930" t="n">
         <v>18</v>
@@ -67365,7 +67365,7 @@
         </is>
       </c>
       <c r="D931" s="2" t="n">
-        <v>44657</v>
+        <v>44321</v>
       </c>
       <c r="E931" t="n">
         <v>4</v>
@@ -67380,7 +67380,7 @@
       </c>
       <c r="H931" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I931" t="inlineStr">
@@ -67389,16 +67389,16 @@
         </is>
       </c>
       <c r="J931" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K931" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="L931" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="M931" t="n">
-        <v>6500</v>
+        <v>2250</v>
       </c>
       <c r="N931" t="inlineStr">
         <is>
@@ -67411,7 +67411,7 @@
         </is>
       </c>
       <c r="P931" t="n">
-        <v>361</v>
+        <v>125</v>
       </c>
       <c r="Q931" t="n">
         <v>18</v>
@@ -67452,7 +67452,7 @@
       </c>
       <c r="H932" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I932" t="inlineStr">
@@ -67461,16 +67461,16 @@
         </is>
       </c>
       <c r="J932" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="K932" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L932" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M932" t="n">
-        <v>12500</v>
+        <v>9500</v>
       </c>
       <c r="N932" t="inlineStr">
         <is>
@@ -67483,7 +67483,7 @@
         </is>
       </c>
       <c r="P932" t="n">
-        <v>694</v>
+        <v>528</v>
       </c>
       <c r="Q932" t="n">
         <v>18</v>
@@ -67524,7 +67524,7 @@
       </c>
       <c r="H933" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I933" t="inlineStr">
@@ -67533,16 +67533,16 @@
         </is>
       </c>
       <c r="J933" t="n">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="K933" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L933" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M933" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="N933" t="inlineStr">
         <is>
@@ -67555,7 +67555,7 @@
         </is>
       </c>
       <c r="P933" t="n">
-        <v>583</v>
+        <v>417</v>
       </c>
       <c r="Q933" t="n">
         <v>18</v>
@@ -67596,7 +67596,7 @@
       </c>
       <c r="H934" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I934" t="inlineStr">
@@ -67605,16 +67605,16 @@
         </is>
       </c>
       <c r="J934" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K934" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L934" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M934" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="N934" t="inlineStr">
         <is>
@@ -67627,7 +67627,7 @@
         </is>
       </c>
       <c r="P934" t="n">
-        <v>472</v>
+        <v>306</v>
       </c>
       <c r="Q934" t="n">
         <v>18</v>
@@ -67653,7 +67653,7 @@
         </is>
       </c>
       <c r="D935" s="2" t="n">
-        <v>44391</v>
+        <v>44657</v>
       </c>
       <c r="E935" t="n">
         <v>4</v>
@@ -67677,16 +67677,16 @@
         </is>
       </c>
       <c r="J935" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K935" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L935" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M935" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="N935" t="inlineStr">
         <is>
@@ -67699,7 +67699,7 @@
         </is>
       </c>
       <c r="P935" t="n">
-        <v>806</v>
+        <v>583</v>
       </c>
       <c r="Q935" t="n">
         <v>18</v>
@@ -67725,7 +67725,7 @@
         </is>
       </c>
       <c r="D936" s="2" t="n">
-        <v>44391</v>
+        <v>44657</v>
       </c>
       <c r="E936" t="n">
         <v>4</v>
@@ -67749,16 +67749,16 @@
         </is>
       </c>
       <c r="J936" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K936" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L936" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M936" t="n">
-        <v>12500</v>
+        <v>8500</v>
       </c>
       <c r="N936" t="inlineStr">
         <is>
@@ -67771,7 +67771,7 @@
         </is>
       </c>
       <c r="P936" t="n">
-        <v>694</v>
+        <v>472</v>
       </c>
       <c r="Q936" t="n">
         <v>18</v>
@@ -67797,7 +67797,7 @@
         </is>
       </c>
       <c r="D937" s="2" t="n">
-        <v>44391</v>
+        <v>44657</v>
       </c>
       <c r="E937" t="n">
         <v>4</v>
@@ -67821,16 +67821,16 @@
         </is>
       </c>
       <c r="J937" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K937" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L937" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M937" t="n">
-        <v>10500</v>
+        <v>6500</v>
       </c>
       <c r="N937" t="inlineStr">
         <is>
@@ -67843,7 +67843,7 @@
         </is>
       </c>
       <c r="P937" t="n">
-        <v>583</v>
+        <v>361</v>
       </c>
       <c r="Q937" t="n">
         <v>18</v>
@@ -67869,7 +67869,7 @@
         </is>
       </c>
       <c r="D938" s="2" t="n">
-        <v>44391</v>
+        <v>44657</v>
       </c>
       <c r="E938" t="n">
         <v>4</v>
@@ -67893,16 +67893,16 @@
         </is>
       </c>
       <c r="J938" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K938" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L938" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M938" t="n">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="N938" t="inlineStr">
         <is>
@@ -67915,7 +67915,7 @@
         </is>
       </c>
       <c r="P938" t="n">
-        <v>861</v>
+        <v>694</v>
       </c>
       <c r="Q938" t="n">
         <v>18</v>
@@ -67941,7 +67941,7 @@
         </is>
       </c>
       <c r="D939" s="2" t="n">
-        <v>44391</v>
+        <v>44657</v>
       </c>
       <c r="E939" t="n">
         <v>4</v>
@@ -67965,16 +67965,16 @@
         </is>
       </c>
       <c r="J939" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K939" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L939" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M939" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="N939" t="inlineStr">
         <is>
@@ -67987,7 +67987,7 @@
         </is>
       </c>
       <c r="P939" t="n">
-        <v>694</v>
+        <v>583</v>
       </c>
       <c r="Q939" t="n">
         <v>18</v>
@@ -68013,7 +68013,7 @@
         </is>
       </c>
       <c r="D940" s="2" t="n">
-        <v>44391</v>
+        <v>44657</v>
       </c>
       <c r="E940" t="n">
         <v>4</v>
@@ -68037,16 +68037,16 @@
         </is>
       </c>
       <c r="J940" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K940" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L940" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M940" t="n">
-        <v>10500</v>
+        <v>8500</v>
       </c>
       <c r="N940" t="inlineStr">
         <is>
@@ -68059,7 +68059,7 @@
         </is>
       </c>
       <c r="P940" t="n">
-        <v>583</v>
+        <v>472</v>
       </c>
       <c r="Q940" t="n">
         <v>18</v>
@@ -68085,7 +68085,7 @@
         </is>
       </c>
       <c r="D941" s="2" t="n">
-        <v>44189</v>
+        <v>44391</v>
       </c>
       <c r="E941" t="n">
         <v>4</v>
@@ -68100,7 +68100,7 @@
       </c>
       <c r="H941" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I941" t="inlineStr">
@@ -68109,16 +68109,16 @@
         </is>
       </c>
       <c r="J941" t="n">
-        <v>140</v>
+        <v>700</v>
       </c>
       <c r="K941" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="L941" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M941" t="n">
-        <v>13750</v>
+        <v>14500</v>
       </c>
       <c r="N941" t="inlineStr">
         <is>
@@ -68131,7 +68131,7 @@
         </is>
       </c>
       <c r="P941" t="n">
-        <v>764</v>
+        <v>806</v>
       </c>
       <c r="Q941" t="n">
         <v>18</v>
@@ -68157,7 +68157,7 @@
         </is>
       </c>
       <c r="D942" s="2" t="n">
-        <v>44189</v>
+        <v>44391</v>
       </c>
       <c r="E942" t="n">
         <v>4</v>
@@ -68172,7 +68172,7 @@
       </c>
       <c r="H942" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I942" t="inlineStr">
@@ -68181,16 +68181,16 @@
         </is>
       </c>
       <c r="J942" t="n">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="K942" t="n">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="L942" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M942" t="n">
-        <v>11750</v>
+        <v>12500</v>
       </c>
       <c r="N942" t="inlineStr">
         <is>
@@ -68203,7 +68203,7 @@
         </is>
       </c>
       <c r="P942" t="n">
-        <v>653</v>
+        <v>694</v>
       </c>
       <c r="Q942" t="n">
         <v>18</v>
@@ -68229,7 +68229,7 @@
         </is>
       </c>
       <c r="D943" s="2" t="n">
-        <v>44189</v>
+        <v>44391</v>
       </c>
       <c r="E943" t="n">
         <v>4</v>
@@ -68244,7 +68244,7 @@
       </c>
       <c r="H943" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I943" t="inlineStr">
@@ -68253,16 +68253,16 @@
         </is>
       </c>
       <c r="J943" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K943" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="L943" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M943" t="n">
-        <v>9750</v>
+        <v>10500</v>
       </c>
       <c r="N943" t="inlineStr">
         <is>
@@ -68275,7 +68275,7 @@
         </is>
       </c>
       <c r="P943" t="n">
-        <v>542</v>
+        <v>583</v>
       </c>
       <c r="Q943" t="n">
         <v>18</v>
@@ -68301,7 +68301,7 @@
         </is>
       </c>
       <c r="D944" s="2" t="n">
-        <v>44189</v>
+        <v>44391</v>
       </c>
       <c r="E944" t="n">
         <v>4</v>
@@ -68316,7 +68316,7 @@
       </c>
       <c r="H944" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I944" t="inlineStr">
@@ -68325,16 +68325,16 @@
         </is>
       </c>
       <c r="J944" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K944" t="n">
-        <v>9500</v>
+        <v>15000</v>
       </c>
       <c r="L944" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M944" t="n">
-        <v>9750</v>
+        <v>15500</v>
       </c>
       <c r="N944" t="inlineStr">
         <is>
@@ -68347,7 +68347,7 @@
         </is>
       </c>
       <c r="P944" t="n">
-        <v>542</v>
+        <v>861</v>
       </c>
       <c r="Q944" t="n">
         <v>18</v>
@@ -68373,7 +68373,7 @@
         </is>
       </c>
       <c r="D945" s="2" t="n">
-        <v>44189</v>
+        <v>44391</v>
       </c>
       <c r="E945" t="n">
         <v>4</v>
@@ -68388,7 +68388,7 @@
       </c>
       <c r="H945" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I945" t="inlineStr">
@@ -68397,16 +68397,16 @@
         </is>
       </c>
       <c r="J945" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K945" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="L945" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M945" t="n">
-        <v>7750</v>
+        <v>12500</v>
       </c>
       <c r="N945" t="inlineStr">
         <is>
@@ -68419,7 +68419,7 @@
         </is>
       </c>
       <c r="P945" t="n">
-        <v>431</v>
+        <v>694</v>
       </c>
       <c r="Q945" t="n">
         <v>18</v>
@@ -68445,7 +68445,7 @@
         </is>
       </c>
       <c r="D946" s="2" t="n">
-        <v>44189</v>
+        <v>44391</v>
       </c>
       <c r="E946" t="n">
         <v>4</v>
@@ -68460,7 +68460,7 @@
       </c>
       <c r="H946" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I946" t="inlineStr">
@@ -68469,16 +68469,16 @@
         </is>
       </c>
       <c r="J946" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K946" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="L946" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M946" t="n">
-        <v>5750</v>
+        <v>10500</v>
       </c>
       <c r="N946" t="inlineStr">
         <is>
@@ -68491,7 +68491,7 @@
         </is>
       </c>
       <c r="P946" t="n">
-        <v>319</v>
+        <v>583</v>
       </c>
       <c r="Q946" t="n">
         <v>18</v>
@@ -68517,7 +68517,7 @@
         </is>
       </c>
       <c r="D947" s="2" t="n">
-        <v>44609</v>
+        <v>44189</v>
       </c>
       <c r="E947" t="n">
         <v>4</v>
@@ -68541,16 +68541,16 @@
         </is>
       </c>
       <c r="J947" t="n">
-        <v>500</v>
+        <v>140</v>
       </c>
       <c r="K947" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="L947" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M947" t="n">
-        <v>11500</v>
+        <v>13750</v>
       </c>
       <c r="N947" t="inlineStr">
         <is>
@@ -68563,7 +68563,7 @@
         </is>
       </c>
       <c r="P947" t="n">
-        <v>639</v>
+        <v>764</v>
       </c>
       <c r="Q947" t="n">
         <v>18</v>
@@ -68589,7 +68589,7 @@
         </is>
       </c>
       <c r="D948" s="2" t="n">
-        <v>44609</v>
+        <v>44189</v>
       </c>
       <c r="E948" t="n">
         <v>4</v>
@@ -68613,16 +68613,16 @@
         </is>
       </c>
       <c r="J948" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="K948" t="n">
-        <v>8000</v>
+        <v>11500</v>
       </c>
       <c r="L948" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M948" t="n">
-        <v>8500</v>
+        <v>11750</v>
       </c>
       <c r="N948" t="inlineStr">
         <is>
@@ -68635,7 +68635,7 @@
         </is>
       </c>
       <c r="P948" t="n">
-        <v>472</v>
+        <v>653</v>
       </c>
       <c r="Q948" t="n">
         <v>18</v>
@@ -68661,7 +68661,7 @@
         </is>
       </c>
       <c r="D949" s="2" t="n">
-        <v>44609</v>
+        <v>44189</v>
       </c>
       <c r="E949" t="n">
         <v>4</v>
@@ -68685,16 +68685,16 @@
         </is>
       </c>
       <c r="J949" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K949" t="n">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="L949" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M949" t="n">
-        <v>5500</v>
+        <v>9750</v>
       </c>
       <c r="N949" t="inlineStr">
         <is>
@@ -68707,7 +68707,7 @@
         </is>
       </c>
       <c r="P949" t="n">
-        <v>306</v>
+        <v>542</v>
       </c>
       <c r="Q949" t="n">
         <v>18</v>
@@ -68733,7 +68733,7 @@
         </is>
       </c>
       <c r="D950" s="2" t="n">
-        <v>44609</v>
+        <v>44189</v>
       </c>
       <c r="E950" t="n">
         <v>4</v>
@@ -68757,16 +68757,16 @@
         </is>
       </c>
       <c r="J950" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="K950" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="L950" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M950" t="n">
-        <v>7500</v>
+        <v>9750</v>
       </c>
       <c r="N950" t="inlineStr">
         <is>
@@ -68779,7 +68779,7 @@
         </is>
       </c>
       <c r="P950" t="n">
-        <v>417</v>
+        <v>542</v>
       </c>
       <c r="Q950" t="n">
         <v>18</v>
@@ -68805,7 +68805,7 @@
         </is>
       </c>
       <c r="D951" s="2" t="n">
-        <v>44609</v>
+        <v>44189</v>
       </c>
       <c r="E951" t="n">
         <v>4</v>
@@ -68829,16 +68829,16 @@
         </is>
       </c>
       <c r="J951" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="K951" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="L951" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M951" t="n">
-        <v>5500</v>
+        <v>7750</v>
       </c>
       <c r="N951" t="inlineStr">
         <is>
@@ -68851,7 +68851,7 @@
         </is>
       </c>
       <c r="P951" t="n">
-        <v>306</v>
+        <v>431</v>
       </c>
       <c r="Q951" t="n">
         <v>18</v>
@@ -68877,7 +68877,7 @@
         </is>
       </c>
       <c r="D952" s="2" t="n">
-        <v>44609</v>
+        <v>44189</v>
       </c>
       <c r="E952" t="n">
         <v>4</v>
@@ -68901,16 +68901,16 @@
         </is>
       </c>
       <c r="J952" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="K952" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L952" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M952" t="n">
-        <v>3500</v>
+        <v>5750</v>
       </c>
       <c r="N952" t="inlineStr">
         <is>
@@ -68923,7 +68923,7 @@
         </is>
       </c>
       <c r="P952" t="n">
-        <v>194</v>
+        <v>319</v>
       </c>
       <c r="Q952" t="n">
         <v>18</v>
@@ -68964,7 +68964,7 @@
       </c>
       <c r="H953" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I953" t="inlineStr">
@@ -68973,7 +68973,7 @@
         </is>
       </c>
       <c r="J953" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K953" t="n">
         <v>11000</v>
@@ -69036,7 +69036,7 @@
       </c>
       <c r="H954" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I954" t="inlineStr">
@@ -69048,13 +69048,13 @@
         <v>400</v>
       </c>
       <c r="K954" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L954" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M954" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N954" t="inlineStr">
         <is>
@@ -69067,7 +69067,7 @@
         </is>
       </c>
       <c r="P954" t="n">
-        <v>417</v>
+        <v>472</v>
       </c>
       <c r="Q954" t="n">
         <v>18</v>
@@ -69108,7 +69108,7 @@
       </c>
       <c r="H955" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I955" t="inlineStr">
@@ -69120,13 +69120,13 @@
         <v>300</v>
       </c>
       <c r="K955" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L955" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M955" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="N955" t="inlineStr">
         <is>
@@ -69139,7 +69139,7 @@
         </is>
       </c>
       <c r="P955" t="n">
-        <v>250</v>
+        <v>306</v>
       </c>
       <c r="Q955" t="n">
         <v>18</v>
@@ -69165,7 +69165,7 @@
         </is>
       </c>
       <c r="D956" s="2" t="n">
-        <v>44489</v>
+        <v>44609</v>
       </c>
       <c r="E956" t="n">
         <v>4</v>
@@ -69189,16 +69189,16 @@
         </is>
       </c>
       <c r="J956" t="n">
-        <v>1800</v>
+        <v>700</v>
       </c>
       <c r="K956" t="n">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="L956" t="n">
-        <v>28000</v>
+        <v>8000</v>
       </c>
       <c r="M956" t="n">
-        <v>27000</v>
+        <v>7500</v>
       </c>
       <c r="N956" t="inlineStr">
         <is>
@@ -69211,7 +69211,7 @@
         </is>
       </c>
       <c r="P956" t="n">
-        <v>1500</v>
+        <v>417</v>
       </c>
       <c r="Q956" t="n">
         <v>18</v>
@@ -69237,7 +69237,7 @@
         </is>
       </c>
       <c r="D957" s="2" t="n">
-        <v>44489</v>
+        <v>44609</v>
       </c>
       <c r="E957" t="n">
         <v>4</v>
@@ -69261,16 +69261,16 @@
         </is>
       </c>
       <c r="J957" t="n">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="K957" t="n">
-        <v>22000</v>
+        <v>5000</v>
       </c>
       <c r="L957" t="n">
-        <v>24000</v>
+        <v>6000</v>
       </c>
       <c r="M957" t="n">
-        <v>23000</v>
+        <v>5500</v>
       </c>
       <c r="N957" t="inlineStr">
         <is>
@@ -69283,7 +69283,7 @@
         </is>
       </c>
       <c r="P957" t="n">
-        <v>1278</v>
+        <v>306</v>
       </c>
       <c r="Q957" t="n">
         <v>18</v>
@@ -69309,58 +69309,490 @@
         </is>
       </c>
       <c r="D958" s="2" t="n">
+        <v>44609</v>
+      </c>
+      <c r="E958" t="n">
+        <v>4</v>
+      </c>
+      <c r="F958" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G958" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H958" t="inlineStr">
+        <is>
+          <t>Cuatro cascos verde</t>
+        </is>
+      </c>
+      <c r="I958" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J958" t="n">
+        <v>400</v>
+      </c>
+      <c r="K958" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L958" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M958" t="n">
+        <v>3500</v>
+      </c>
+      <c r="N958" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O958" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P958" t="n">
+        <v>194</v>
+      </c>
+      <c r="Q958" t="n">
+        <v>18</v>
+      </c>
+      <c r="R958" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="n">
+        <v>2</v>
+      </c>
+      <c r="B959" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C959" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D959" s="2" t="n">
+        <v>44609</v>
+      </c>
+      <c r="E959" t="n">
+        <v>4</v>
+      </c>
+      <c r="F959" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G959" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H959" t="inlineStr">
+        <is>
+          <t>Morrón rojo</t>
+        </is>
+      </c>
+      <c r="I959" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J959" t="n">
+        <v>400</v>
+      </c>
+      <c r="K959" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L959" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M959" t="n">
+        <v>11500</v>
+      </c>
+      <c r="N959" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O959" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P959" t="n">
+        <v>639</v>
+      </c>
+      <c r="Q959" t="n">
+        <v>18</v>
+      </c>
+      <c r="R959" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="n">
+        <v>2</v>
+      </c>
+      <c r="B960" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C960" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D960" s="2" t="n">
+        <v>44609</v>
+      </c>
+      <c r="E960" t="n">
+        <v>4</v>
+      </c>
+      <c r="F960" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G960" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H960" t="inlineStr">
+        <is>
+          <t>Morrón rojo</t>
+        </is>
+      </c>
+      <c r="I960" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J960" t="n">
+        <v>400</v>
+      </c>
+      <c r="K960" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L960" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M960" t="n">
+        <v>7500</v>
+      </c>
+      <c r="N960" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O960" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P960" t="n">
+        <v>417</v>
+      </c>
+      <c r="Q960" t="n">
+        <v>18</v>
+      </c>
+      <c r="R960" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="n">
+        <v>2</v>
+      </c>
+      <c r="B961" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C961" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D961" s="2" t="n">
+        <v>44609</v>
+      </c>
+      <c r="E961" t="n">
+        <v>4</v>
+      </c>
+      <c r="F961" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G961" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H961" t="inlineStr">
+        <is>
+          <t>Morrón rojo</t>
+        </is>
+      </c>
+      <c r="I961" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J961" t="n">
+        <v>300</v>
+      </c>
+      <c r="K961" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L961" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M961" t="n">
+        <v>4500</v>
+      </c>
+      <c r="N961" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O961" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P961" t="n">
+        <v>250</v>
+      </c>
+      <c r="Q961" t="n">
+        <v>18</v>
+      </c>
+      <c r="R961" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="n">
+        <v>2</v>
+      </c>
+      <c r="B962" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C962" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D962" s="2" t="n">
         <v>44489</v>
       </c>
-      <c r="E958" t="n">
-        <v>4</v>
-      </c>
-      <c r="F958" t="n">
-        <v>100112002</v>
-      </c>
-      <c r="G958" t="inlineStr">
-        <is>
-          <t>Pimiento</t>
-        </is>
-      </c>
-      <c r="H958" t="inlineStr">
+      <c r="E962" t="n">
+        <v>4</v>
+      </c>
+      <c r="F962" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G962" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H962" t="inlineStr">
         <is>
           <t>Cuatro cascos verde</t>
         </is>
       </c>
-      <c r="I958" t="inlineStr">
+      <c r="I962" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J962" t="n">
+        <v>1800</v>
+      </c>
+      <c r="K962" t="n">
+        <v>26000</v>
+      </c>
+      <c r="L962" t="n">
+        <v>28000</v>
+      </c>
+      <c r="M962" t="n">
+        <v>27000</v>
+      </c>
+      <c r="N962" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O962" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P962" t="n">
+        <v>1500</v>
+      </c>
+      <c r="Q962" t="n">
+        <v>18</v>
+      </c>
+      <c r="R962" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="n">
+        <v>2</v>
+      </c>
+      <c r="B963" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C963" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D963" s="2" t="n">
+        <v>44489</v>
+      </c>
+      <c r="E963" t="n">
+        <v>4</v>
+      </c>
+      <c r="F963" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G963" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H963" t="inlineStr">
+        <is>
+          <t>Cuatro cascos verde</t>
+        </is>
+      </c>
+      <c r="I963" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J963" t="n">
+        <v>1400</v>
+      </c>
+      <c r="K963" t="n">
+        <v>22000</v>
+      </c>
+      <c r="L963" t="n">
+        <v>24000</v>
+      </c>
+      <c r="M963" t="n">
+        <v>23000</v>
+      </c>
+      <c r="N963" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O963" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P963" t="n">
+        <v>1278</v>
+      </c>
+      <c r="Q963" t="n">
+        <v>18</v>
+      </c>
+      <c r="R963" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="n">
+        <v>2</v>
+      </c>
+      <c r="B964" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C964" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D964" s="2" t="n">
+        <v>44489</v>
+      </c>
+      <c r="E964" t="n">
+        <v>4</v>
+      </c>
+      <c r="F964" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G964" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H964" t="inlineStr">
+        <is>
+          <t>Cuatro cascos verde</t>
+        </is>
+      </c>
+      <c r="I964" t="inlineStr">
         <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="J958" t="n">
+      <c r="J964" t="n">
         <v>1200</v>
       </c>
-      <c r="K958" t="n">
+      <c r="K964" t="n">
         <v>18000</v>
       </c>
-      <c r="L958" t="n">
+      <c r="L964" t="n">
         <v>20000</v>
       </c>
-      <c r="M958" t="n">
+      <c r="M964" t="n">
         <v>19000</v>
       </c>
-      <c r="N958" t="inlineStr">
-        <is>
-          <t>$/caja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O958" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P958" t="n">
+      <c r="N964" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O964" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P964" t="n">
         <v>1056</v>
       </c>
-      <c r="Q958" t="n">
-        <v>18</v>
-      </c>
-      <c r="R958" t="inlineStr">
+      <c r="Q964" t="n">
+        <v>18</v>
+      </c>
+      <c r="R964" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pimiento.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pimiento.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R977"/>
+  <dimension ref="A1:R983"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65565,7 +65565,7 @@
         </is>
       </c>
       <c r="D906" s="2" t="n">
-        <v>44377</v>
+        <v>44783</v>
       </c>
       <c r="E906" t="n">
         <v>4</v>
@@ -65589,16 +65589,16 @@
         </is>
       </c>
       <c r="J906" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K906" t="n">
-        <v>13500</v>
+        <v>25000</v>
       </c>
       <c r="L906" t="n">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="M906" t="n">
-        <v>13750</v>
+        <v>25500</v>
       </c>
       <c r="N906" t="inlineStr">
         <is>
@@ -65611,7 +65611,7 @@
         </is>
       </c>
       <c r="P906" t="n">
-        <v>764</v>
+        <v>1417</v>
       </c>
       <c r="Q906" t="n">
         <v>18</v>
@@ -65637,7 +65637,7 @@
         </is>
       </c>
       <c r="D907" s="2" t="n">
-        <v>44377</v>
+        <v>44783</v>
       </c>
       <c r="E907" t="n">
         <v>4</v>
@@ -65661,16 +65661,16 @@
         </is>
       </c>
       <c r="J907" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="K907" t="n">
-        <v>11500</v>
+        <v>21000</v>
       </c>
       <c r="L907" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="M907" t="n">
-        <v>11750</v>
+        <v>21500</v>
       </c>
       <c r="N907" t="inlineStr">
         <is>
@@ -65683,7 +65683,7 @@
         </is>
       </c>
       <c r="P907" t="n">
-        <v>653</v>
+        <v>1194</v>
       </c>
       <c r="Q907" t="n">
         <v>18</v>
@@ -65709,7 +65709,7 @@
         </is>
       </c>
       <c r="D908" s="2" t="n">
-        <v>44377</v>
+        <v>44783</v>
       </c>
       <c r="E908" t="n">
         <v>4</v>
@@ -65733,16 +65733,16 @@
         </is>
       </c>
       <c r="J908" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K908" t="n">
-        <v>8500</v>
+        <v>17000</v>
       </c>
       <c r="L908" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="M908" t="n">
-        <v>8750</v>
+        <v>17500</v>
       </c>
       <c r="N908" t="inlineStr">
         <is>
@@ -65755,7 +65755,7 @@
         </is>
       </c>
       <c r="P908" t="n">
-        <v>486</v>
+        <v>972</v>
       </c>
       <c r="Q908" t="n">
         <v>18</v>
@@ -65781,7 +65781,7 @@
         </is>
       </c>
       <c r="D909" s="2" t="n">
-        <v>44377</v>
+        <v>44783</v>
       </c>
       <c r="E909" t="n">
         <v>4</v>
@@ -65805,16 +65805,16 @@
         </is>
       </c>
       <c r="J909" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="K909" t="n">
-        <v>12000</v>
+        <v>27000</v>
       </c>
       <c r="L909" t="n">
-        <v>13000</v>
+        <v>28000</v>
       </c>
       <c r="M909" t="n">
-        <v>12500</v>
+        <v>27500</v>
       </c>
       <c r="N909" t="inlineStr">
         <is>
@@ -65827,7 +65827,7 @@
         </is>
       </c>
       <c r="P909" t="n">
-        <v>694</v>
+        <v>1528</v>
       </c>
       <c r="Q909" t="n">
         <v>18</v>
@@ -65853,7 +65853,7 @@
         </is>
       </c>
       <c r="D910" s="2" t="n">
-        <v>44377</v>
+        <v>44783</v>
       </c>
       <c r="E910" t="n">
         <v>4</v>
@@ -65877,16 +65877,16 @@
         </is>
       </c>
       <c r="J910" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K910" t="n">
-        <v>10000</v>
+        <v>23000</v>
       </c>
       <c r="L910" t="n">
-        <v>11000</v>
+        <v>24000</v>
       </c>
       <c r="M910" t="n">
-        <v>10500</v>
+        <v>23500</v>
       </c>
       <c r="N910" t="inlineStr">
         <is>
@@ -65899,7 +65899,7 @@
         </is>
       </c>
       <c r="P910" t="n">
-        <v>583</v>
+        <v>1306</v>
       </c>
       <c r="Q910" t="n">
         <v>18</v>
@@ -65925,7 +65925,7 @@
         </is>
       </c>
       <c r="D911" s="2" t="n">
-        <v>44377</v>
+        <v>44783</v>
       </c>
       <c r="E911" t="n">
         <v>4</v>
@@ -65949,16 +65949,16 @@
         </is>
       </c>
       <c r="J911" t="n">
-        <v>600</v>
+        <v>340</v>
       </c>
       <c r="K911" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="L911" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="M911" t="n">
-        <v>8500</v>
+        <v>19500</v>
       </c>
       <c r="N911" t="inlineStr">
         <is>
@@ -65971,7 +65971,7 @@
         </is>
       </c>
       <c r="P911" t="n">
-        <v>472</v>
+        <v>1083</v>
       </c>
       <c r="Q911" t="n">
         <v>18</v>
@@ -65997,7 +65997,7 @@
         </is>
       </c>
       <c r="D912" s="2" t="n">
-        <v>44181</v>
+        <v>44377</v>
       </c>
       <c r="E912" t="n">
         <v>4</v>
@@ -66021,16 +66021,16 @@
         </is>
       </c>
       <c r="J912" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K912" t="n">
-        <v>9000</v>
+        <v>13500</v>
       </c>
       <c r="L912" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M912" t="n">
-        <v>9500</v>
+        <v>13750</v>
       </c>
       <c r="N912" t="inlineStr">
         <is>
@@ -66043,7 +66043,7 @@
         </is>
       </c>
       <c r="P912" t="n">
-        <v>528</v>
+        <v>764</v>
       </c>
       <c r="Q912" t="n">
         <v>18</v>
@@ -66069,7 +66069,7 @@
         </is>
       </c>
       <c r="D913" s="2" t="n">
-        <v>44181</v>
+        <v>44377</v>
       </c>
       <c r="E913" t="n">
         <v>4</v>
@@ -66093,16 +66093,16 @@
         </is>
       </c>
       <c r="J913" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K913" t="n">
-        <v>7000</v>
+        <v>11500</v>
       </c>
       <c r="L913" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M913" t="n">
-        <v>7500</v>
+        <v>11750</v>
       </c>
       <c r="N913" t="inlineStr">
         <is>
@@ -66115,7 +66115,7 @@
         </is>
       </c>
       <c r="P913" t="n">
-        <v>417</v>
+        <v>653</v>
       </c>
       <c r="Q913" t="n">
         <v>18</v>
@@ -66141,7 +66141,7 @@
         </is>
       </c>
       <c r="D914" s="2" t="n">
-        <v>44181</v>
+        <v>44377</v>
       </c>
       <c r="E914" t="n">
         <v>4</v>
@@ -66165,16 +66165,16 @@
         </is>
       </c>
       <c r="J914" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K914" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="L914" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M914" t="n">
-        <v>5500</v>
+        <v>8750</v>
       </c>
       <c r="N914" t="inlineStr">
         <is>
@@ -66187,7 +66187,7 @@
         </is>
       </c>
       <c r="P914" t="n">
-        <v>306</v>
+        <v>486</v>
       </c>
       <c r="Q914" t="n">
         <v>18</v>
@@ -66213,7 +66213,7 @@
         </is>
       </c>
       <c r="D915" s="2" t="n">
-        <v>44497</v>
+        <v>44377</v>
       </c>
       <c r="E915" t="n">
         <v>4</v>
@@ -66228,7 +66228,7 @@
       </c>
       <c r="H915" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I915" t="inlineStr">
@@ -66237,16 +66237,16 @@
         </is>
       </c>
       <c r="J915" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="K915" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="L915" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="M915" t="n">
-        <v>21500</v>
+        <v>12500</v>
       </c>
       <c r="N915" t="inlineStr">
         <is>
@@ -66259,7 +66259,7 @@
         </is>
       </c>
       <c r="P915" t="n">
-        <v>1194</v>
+        <v>694</v>
       </c>
       <c r="Q915" t="n">
         <v>18</v>
@@ -66285,7 +66285,7 @@
         </is>
       </c>
       <c r="D916" s="2" t="n">
-        <v>44497</v>
+        <v>44377</v>
       </c>
       <c r="E916" t="n">
         <v>4</v>
@@ -66300,7 +66300,7 @@
       </c>
       <c r="H916" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I916" t="inlineStr">
@@ -66312,13 +66312,13 @@
         <v>700</v>
       </c>
       <c r="K916" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="L916" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="M916" t="n">
-        <v>18500</v>
+        <v>10500</v>
       </c>
       <c r="N916" t="inlineStr">
         <is>
@@ -66331,7 +66331,7 @@
         </is>
       </c>
       <c r="P916" t="n">
-        <v>1028</v>
+        <v>583</v>
       </c>
       <c r="Q916" t="n">
         <v>18</v>
@@ -66357,7 +66357,7 @@
         </is>
       </c>
       <c r="D917" s="2" t="n">
-        <v>44497</v>
+        <v>44377</v>
       </c>
       <c r="E917" t="n">
         <v>4</v>
@@ -66372,7 +66372,7 @@
       </c>
       <c r="H917" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I917" t="inlineStr">
@@ -66384,13 +66384,13 @@
         <v>600</v>
       </c>
       <c r="K917" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L917" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="M917" t="n">
-        <v>15500</v>
+        <v>8500</v>
       </c>
       <c r="N917" t="inlineStr">
         <is>
@@ -66403,7 +66403,7 @@
         </is>
       </c>
       <c r="P917" t="n">
-        <v>861</v>
+        <v>472</v>
       </c>
       <c r="Q917" t="n">
         <v>18</v>
@@ -66429,7 +66429,7 @@
         </is>
       </c>
       <c r="D918" s="2" t="n">
-        <v>44357</v>
+        <v>44181</v>
       </c>
       <c r="E918" t="n">
         <v>4</v>
@@ -66444,7 +66444,7 @@
       </c>
       <c r="H918" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I918" t="inlineStr">
@@ -66453,16 +66453,16 @@
         </is>
       </c>
       <c r="J918" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K918" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L918" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M918" t="n">
-        <v>12500</v>
+        <v>9500</v>
       </c>
       <c r="N918" t="inlineStr">
         <is>
@@ -66475,7 +66475,7 @@
         </is>
       </c>
       <c r="P918" t="n">
-        <v>694</v>
+        <v>528</v>
       </c>
       <c r="Q918" t="n">
         <v>18</v>
@@ -66501,7 +66501,7 @@
         </is>
       </c>
       <c r="D919" s="2" t="n">
-        <v>44357</v>
+        <v>44181</v>
       </c>
       <c r="E919" t="n">
         <v>4</v>
@@ -66516,7 +66516,7 @@
       </c>
       <c r="H919" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I919" t="inlineStr">
@@ -66525,16 +66525,16 @@
         </is>
       </c>
       <c r="J919" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K919" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L919" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M919" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="N919" t="inlineStr">
         <is>
@@ -66547,7 +66547,7 @@
         </is>
       </c>
       <c r="P919" t="n">
-        <v>583</v>
+        <v>417</v>
       </c>
       <c r="Q919" t="n">
         <v>18</v>
@@ -66573,7 +66573,7 @@
         </is>
       </c>
       <c r="D920" s="2" t="n">
-        <v>44357</v>
+        <v>44181</v>
       </c>
       <c r="E920" t="n">
         <v>4</v>
@@ -66588,7 +66588,7 @@
       </c>
       <c r="H920" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I920" t="inlineStr">
@@ -66597,16 +66597,16 @@
         </is>
       </c>
       <c r="J920" t="n">
-        <v>530</v>
+        <v>200</v>
       </c>
       <c r="K920" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L920" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M920" t="n">
-        <v>8472</v>
+        <v>5500</v>
       </c>
       <c r="N920" t="inlineStr">
         <is>
@@ -66619,7 +66619,7 @@
         </is>
       </c>
       <c r="P920" t="n">
-        <v>471</v>
+        <v>306</v>
       </c>
       <c r="Q920" t="n">
         <v>18</v>
@@ -66645,7 +66645,7 @@
         </is>
       </c>
       <c r="D921" s="2" t="n">
-        <v>44357</v>
+        <v>44497</v>
       </c>
       <c r="E921" t="n">
         <v>4</v>
@@ -66669,16 +66669,16 @@
         </is>
       </c>
       <c r="J921" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K921" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="L921" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="M921" t="n">
-        <v>12500</v>
+        <v>21500</v>
       </c>
       <c r="N921" t="inlineStr">
         <is>
@@ -66691,7 +66691,7 @@
         </is>
       </c>
       <c r="P921" t="n">
-        <v>694</v>
+        <v>1194</v>
       </c>
       <c r="Q921" t="n">
         <v>18</v>
@@ -66717,7 +66717,7 @@
         </is>
       </c>
       <c r="D922" s="2" t="n">
-        <v>44357</v>
+        <v>44497</v>
       </c>
       <c r="E922" t="n">
         <v>4</v>
@@ -66741,16 +66741,16 @@
         </is>
       </c>
       <c r="J922" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K922" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="L922" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="M922" t="n">
-        <v>10500</v>
+        <v>18500</v>
       </c>
       <c r="N922" t="inlineStr">
         <is>
@@ -66763,7 +66763,7 @@
         </is>
       </c>
       <c r="P922" t="n">
-        <v>583</v>
+        <v>1028</v>
       </c>
       <c r="Q922" t="n">
         <v>18</v>
@@ -66789,7 +66789,7 @@
         </is>
       </c>
       <c r="D923" s="2" t="n">
-        <v>44357</v>
+        <v>44497</v>
       </c>
       <c r="E923" t="n">
         <v>4</v>
@@ -66813,16 +66813,16 @@
         </is>
       </c>
       <c r="J923" t="n">
-        <v>260</v>
+        <v>600</v>
       </c>
       <c r="K923" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="L923" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="M923" t="n">
-        <v>8500</v>
+        <v>15500</v>
       </c>
       <c r="N923" t="inlineStr">
         <is>
@@ -66835,7 +66835,7 @@
         </is>
       </c>
       <c r="P923" t="n">
-        <v>472</v>
+        <v>861</v>
       </c>
       <c r="Q923" t="n">
         <v>18</v>
@@ -66876,7 +66876,7 @@
       </c>
       <c r="H924" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I924" t="inlineStr">
@@ -66885,7 +66885,7 @@
         </is>
       </c>
       <c r="J924" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K924" t="n">
         <v>12000</v>
@@ -66948,7 +66948,7 @@
       </c>
       <c r="H925" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I925" t="inlineStr">
@@ -67020,7 +67020,7 @@
       </c>
       <c r="H926" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I926" t="inlineStr">
@@ -67029,7 +67029,7 @@
         </is>
       </c>
       <c r="J926" t="n">
-        <v>500</v>
+        <v>530</v>
       </c>
       <c r="K926" t="n">
         <v>8000</v>
@@ -67038,7 +67038,7 @@
         <v>9000</v>
       </c>
       <c r="M926" t="n">
-        <v>8500</v>
+        <v>8472</v>
       </c>
       <c r="N926" t="inlineStr">
         <is>
@@ -67051,7 +67051,7 @@
         </is>
       </c>
       <c r="P926" t="n">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="Q926" t="n">
         <v>18</v>
@@ -67077,7 +67077,7 @@
         </is>
       </c>
       <c r="D927" s="2" t="n">
-        <v>44279</v>
+        <v>44357</v>
       </c>
       <c r="E927" t="n">
         <v>4</v>
@@ -67092,7 +67092,7 @@
       </c>
       <c r="H927" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I927" t="inlineStr">
@@ -67101,16 +67101,16 @@
         </is>
       </c>
       <c r="J927" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K927" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="L927" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M927" t="n">
-        <v>7750</v>
+        <v>12500</v>
       </c>
       <c r="N927" t="inlineStr">
         <is>
@@ -67123,7 +67123,7 @@
         </is>
       </c>
       <c r="P927" t="n">
-        <v>431</v>
+        <v>694</v>
       </c>
       <c r="Q927" t="n">
         <v>18</v>
@@ -67149,7 +67149,7 @@
         </is>
       </c>
       <c r="D928" s="2" t="n">
-        <v>44279</v>
+        <v>44357</v>
       </c>
       <c r="E928" t="n">
         <v>4</v>
@@ -67164,7 +67164,7 @@
       </c>
       <c r="H928" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I928" t="inlineStr">
@@ -67173,16 +67173,16 @@
         </is>
       </c>
       <c r="J928" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K928" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="L928" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M928" t="n">
-        <v>5750</v>
+        <v>10500</v>
       </c>
       <c r="N928" t="inlineStr">
         <is>
@@ -67195,7 +67195,7 @@
         </is>
       </c>
       <c r="P928" t="n">
-        <v>319</v>
+        <v>583</v>
       </c>
       <c r="Q928" t="n">
         <v>18</v>
@@ -67221,7 +67221,7 @@
         </is>
       </c>
       <c r="D929" s="2" t="n">
-        <v>44279</v>
+        <v>44357</v>
       </c>
       <c r="E929" t="n">
         <v>4</v>
@@ -67236,7 +67236,7 @@
       </c>
       <c r="H929" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I929" t="inlineStr">
@@ -67245,16 +67245,16 @@
         </is>
       </c>
       <c r="J929" t="n">
-        <v>160</v>
+        <v>260</v>
       </c>
       <c r="K929" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="L929" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="M929" t="n">
-        <v>3750</v>
+        <v>8500</v>
       </c>
       <c r="N929" t="inlineStr">
         <is>
@@ -67267,7 +67267,7 @@
         </is>
       </c>
       <c r="P929" t="n">
-        <v>208</v>
+        <v>472</v>
       </c>
       <c r="Q929" t="n">
         <v>18</v>
@@ -67293,7 +67293,7 @@
         </is>
       </c>
       <c r="D930" s="2" t="n">
-        <v>44279</v>
+        <v>44357</v>
       </c>
       <c r="E930" t="n">
         <v>4</v>
@@ -67308,7 +67308,7 @@
       </c>
       <c r="H930" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I930" t="inlineStr">
@@ -67317,16 +67317,16 @@
         </is>
       </c>
       <c r="J930" t="n">
-        <v>360</v>
+        <v>700</v>
       </c>
       <c r="K930" t="n">
-        <v>5500</v>
+        <v>12000</v>
       </c>
       <c r="L930" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="M930" t="n">
-        <v>5750</v>
+        <v>12500</v>
       </c>
       <c r="N930" t="inlineStr">
         <is>
@@ -67339,7 +67339,7 @@
         </is>
       </c>
       <c r="P930" t="n">
-        <v>319</v>
+        <v>694</v>
       </c>
       <c r="Q930" t="n">
         <v>18</v>
@@ -67365,7 +67365,7 @@
         </is>
       </c>
       <c r="D931" s="2" t="n">
-        <v>44279</v>
+        <v>44357</v>
       </c>
       <c r="E931" t="n">
         <v>4</v>
@@ -67380,7 +67380,7 @@
       </c>
       <c r="H931" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I931" t="inlineStr">
@@ -67389,16 +67389,16 @@
         </is>
       </c>
       <c r="J931" t="n">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="K931" t="n">
-        <v>3500</v>
+        <v>10000</v>
       </c>
       <c r="L931" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="M931" t="n">
-        <v>3750</v>
+        <v>10500</v>
       </c>
       <c r="N931" t="inlineStr">
         <is>
@@ -67411,7 +67411,7 @@
         </is>
       </c>
       <c r="P931" t="n">
-        <v>208</v>
+        <v>583</v>
       </c>
       <c r="Q931" t="n">
         <v>18</v>
@@ -67437,7 +67437,7 @@
         </is>
       </c>
       <c r="D932" s="2" t="n">
-        <v>44279</v>
+        <v>44357</v>
       </c>
       <c r="E932" t="n">
         <v>4</v>
@@ -67452,7 +67452,7 @@
       </c>
       <c r="H932" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I932" t="inlineStr">
@@ -67461,16 +67461,16 @@
         </is>
       </c>
       <c r="J932" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K932" t="n">
-        <v>1500</v>
+        <v>8000</v>
       </c>
       <c r="L932" t="n">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="M932" t="n">
-        <v>1750</v>
+        <v>8500</v>
       </c>
       <c r="N932" t="inlineStr">
         <is>
@@ -67483,7 +67483,7 @@
         </is>
       </c>
       <c r="P932" t="n">
-        <v>97</v>
+        <v>472</v>
       </c>
       <c r="Q932" t="n">
         <v>18</v>
@@ -67509,7 +67509,7 @@
         </is>
       </c>
       <c r="D933" s="2" t="n">
-        <v>44517</v>
+        <v>44279</v>
       </c>
       <c r="E933" t="n">
         <v>4</v>
@@ -67536,13 +67536,13 @@
         <v>300</v>
       </c>
       <c r="K933" t="n">
-        <v>24000</v>
+        <v>7500</v>
       </c>
       <c r="L933" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="M933" t="n">
-        <v>24500</v>
+        <v>7750</v>
       </c>
       <c r="N933" t="inlineStr">
         <is>
@@ -67555,7 +67555,7 @@
         </is>
       </c>
       <c r="P933" t="n">
-        <v>1361</v>
+        <v>431</v>
       </c>
       <c r="Q933" t="n">
         <v>18</v>
@@ -67581,7 +67581,7 @@
         </is>
       </c>
       <c r="D934" s="2" t="n">
-        <v>44517</v>
+        <v>44279</v>
       </c>
       <c r="E934" t="n">
         <v>4</v>
@@ -67605,16 +67605,16 @@
         </is>
       </c>
       <c r="J934" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K934" t="n">
-        <v>19000</v>
+        <v>5500</v>
       </c>
       <c r="L934" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="M934" t="n">
-        <v>19500</v>
+        <v>5750</v>
       </c>
       <c r="N934" t="inlineStr">
         <is>
@@ -67627,7 +67627,7 @@
         </is>
       </c>
       <c r="P934" t="n">
-        <v>1083</v>
+        <v>319</v>
       </c>
       <c r="Q934" t="n">
         <v>18</v>
@@ -67653,7 +67653,7 @@
         </is>
       </c>
       <c r="D935" s="2" t="n">
-        <v>44517</v>
+        <v>44279</v>
       </c>
       <c r="E935" t="n">
         <v>4</v>
@@ -67677,16 +67677,16 @@
         </is>
       </c>
       <c r="J935" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="K935" t="n">
-        <v>14000</v>
+        <v>3500</v>
       </c>
       <c r="L935" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="M935" t="n">
-        <v>14500</v>
+        <v>3750</v>
       </c>
       <c r="N935" t="inlineStr">
         <is>
@@ -67699,7 +67699,7 @@
         </is>
       </c>
       <c r="P935" t="n">
-        <v>806</v>
+        <v>208</v>
       </c>
       <c r="Q935" t="n">
         <v>18</v>
@@ -67725,7 +67725,7 @@
         </is>
       </c>
       <c r="D936" s="2" t="n">
-        <v>44517</v>
+        <v>44279</v>
       </c>
       <c r="E936" t="n">
         <v>4</v>
@@ -67749,16 +67749,16 @@
         </is>
       </c>
       <c r="J936" t="n">
-        <v>1100</v>
+        <v>360</v>
       </c>
       <c r="K936" t="n">
-        <v>16000</v>
+        <v>5500</v>
       </c>
       <c r="L936" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="M936" t="n">
-        <v>16500</v>
+        <v>5750</v>
       </c>
       <c r="N936" t="inlineStr">
         <is>
@@ -67771,7 +67771,7 @@
         </is>
       </c>
       <c r="P936" t="n">
-        <v>917</v>
+        <v>319</v>
       </c>
       <c r="Q936" t="n">
         <v>18</v>
@@ -67797,7 +67797,7 @@
         </is>
       </c>
       <c r="D937" s="2" t="n">
-        <v>44517</v>
+        <v>44279</v>
       </c>
       <c r="E937" t="n">
         <v>4</v>
@@ -67821,16 +67821,16 @@
         </is>
       </c>
       <c r="J937" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="K937" t="n">
-        <v>13000</v>
+        <v>3500</v>
       </c>
       <c r="L937" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="M937" t="n">
-        <v>13500</v>
+        <v>3750</v>
       </c>
       <c r="N937" t="inlineStr">
         <is>
@@ -67843,7 +67843,7 @@
         </is>
       </c>
       <c r="P937" t="n">
-        <v>750</v>
+        <v>208</v>
       </c>
       <c r="Q937" t="n">
         <v>18</v>
@@ -67869,7 +67869,7 @@
         </is>
       </c>
       <c r="D938" s="2" t="n">
-        <v>44517</v>
+        <v>44279</v>
       </c>
       <c r="E938" t="n">
         <v>4</v>
@@ -67893,16 +67893,16 @@
         </is>
       </c>
       <c r="J938" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K938" t="n">
-        <v>9000</v>
+        <v>1500</v>
       </c>
       <c r="L938" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="M938" t="n">
-        <v>9500</v>
+        <v>1750</v>
       </c>
       <c r="N938" t="inlineStr">
         <is>
@@ -67915,7 +67915,7 @@
         </is>
       </c>
       <c r="P938" t="n">
-        <v>528</v>
+        <v>97</v>
       </c>
       <c r="Q938" t="n">
         <v>18</v>
@@ -67941,7 +67941,7 @@
         </is>
       </c>
       <c r="D939" s="2" t="n">
-        <v>44321</v>
+        <v>44517</v>
       </c>
       <c r="E939" t="n">
         <v>4</v>
@@ -67956,7 +67956,7 @@
       </c>
       <c r="H939" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I939" t="inlineStr">
@@ -67965,16 +67965,16 @@
         </is>
       </c>
       <c r="J939" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="K939" t="n">
-        <v>6000</v>
+        <v>24000</v>
       </c>
       <c r="L939" t="n">
-        <v>7000</v>
+        <v>25000</v>
       </c>
       <c r="M939" t="n">
-        <v>6500</v>
+        <v>24500</v>
       </c>
       <c r="N939" t="inlineStr">
         <is>
@@ -67987,7 +67987,7 @@
         </is>
       </c>
       <c r="P939" t="n">
-        <v>361</v>
+        <v>1361</v>
       </c>
       <c r="Q939" t="n">
         <v>18</v>
@@ -68013,7 +68013,7 @@
         </is>
       </c>
       <c r="D940" s="2" t="n">
-        <v>44321</v>
+        <v>44517</v>
       </c>
       <c r="E940" t="n">
         <v>4</v>
@@ -68028,7 +68028,7 @@
       </c>
       <c r="H940" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I940" t="inlineStr">
@@ -68037,16 +68037,16 @@
         </is>
       </c>
       <c r="J940" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="K940" t="n">
-        <v>4000</v>
+        <v>19000</v>
       </c>
       <c r="L940" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="M940" t="n">
-        <v>4500</v>
+        <v>19500</v>
       </c>
       <c r="N940" t="inlineStr">
         <is>
@@ -68059,7 +68059,7 @@
         </is>
       </c>
       <c r="P940" t="n">
-        <v>250</v>
+        <v>1083</v>
       </c>
       <c r="Q940" t="n">
         <v>18</v>
@@ -68085,7 +68085,7 @@
         </is>
       </c>
       <c r="D941" s="2" t="n">
-        <v>44321</v>
+        <v>44517</v>
       </c>
       <c r="E941" t="n">
         <v>4</v>
@@ -68100,7 +68100,7 @@
       </c>
       <c r="H941" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I941" t="inlineStr">
@@ -68109,16 +68109,16 @@
         </is>
       </c>
       <c r="J941" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K941" t="n">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="L941" t="n">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="M941" t="n">
-        <v>2500</v>
+        <v>14500</v>
       </c>
       <c r="N941" t="inlineStr">
         <is>
@@ -68131,7 +68131,7 @@
         </is>
       </c>
       <c r="P941" t="n">
-        <v>139</v>
+        <v>806</v>
       </c>
       <c r="Q941" t="n">
         <v>18</v>
@@ -68157,7 +68157,7 @@
         </is>
       </c>
       <c r="D942" s="2" t="n">
-        <v>44321</v>
+        <v>44517</v>
       </c>
       <c r="E942" t="n">
         <v>4</v>
@@ -68172,7 +68172,7 @@
       </c>
       <c r="H942" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I942" t="inlineStr">
@@ -68181,16 +68181,16 @@
         </is>
       </c>
       <c r="J942" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K942" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="L942" t="n">
-        <v>6500</v>
+        <v>17000</v>
       </c>
       <c r="M942" t="n">
-        <v>6250</v>
+        <v>16500</v>
       </c>
       <c r="N942" t="inlineStr">
         <is>
@@ -68203,7 +68203,7 @@
         </is>
       </c>
       <c r="P942" t="n">
-        <v>347</v>
+        <v>917</v>
       </c>
       <c r="Q942" t="n">
         <v>18</v>
@@ -68229,7 +68229,7 @@
         </is>
       </c>
       <c r="D943" s="2" t="n">
-        <v>44321</v>
+        <v>44517</v>
       </c>
       <c r="E943" t="n">
         <v>4</v>
@@ -68244,7 +68244,7 @@
       </c>
       <c r="H943" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I943" t="inlineStr">
@@ -68253,16 +68253,16 @@
         </is>
       </c>
       <c r="J943" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K943" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="L943" t="n">
-        <v>4500</v>
+        <v>14000</v>
       </c>
       <c r="M943" t="n">
-        <v>4250</v>
+        <v>13500</v>
       </c>
       <c r="N943" t="inlineStr">
         <is>
@@ -68275,7 +68275,7 @@
         </is>
       </c>
       <c r="P943" t="n">
-        <v>236</v>
+        <v>750</v>
       </c>
       <c r="Q943" t="n">
         <v>18</v>
@@ -68301,7 +68301,7 @@
         </is>
       </c>
       <c r="D944" s="2" t="n">
-        <v>44321</v>
+        <v>44517</v>
       </c>
       <c r="E944" t="n">
         <v>4</v>
@@ -68316,7 +68316,7 @@
       </c>
       <c r="H944" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I944" t="inlineStr">
@@ -68325,16 +68325,16 @@
         </is>
       </c>
       <c r="J944" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K944" t="n">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="L944" t="n">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="M944" t="n">
-        <v>2250</v>
+        <v>9500</v>
       </c>
       <c r="N944" t="inlineStr">
         <is>
@@ -68347,7 +68347,7 @@
         </is>
       </c>
       <c r="P944" t="n">
-        <v>125</v>
+        <v>528</v>
       </c>
       <c r="Q944" t="n">
         <v>18</v>
@@ -68373,7 +68373,7 @@
         </is>
       </c>
       <c r="D945" s="2" t="n">
-        <v>44657</v>
+        <v>44321</v>
       </c>
       <c r="E945" t="n">
         <v>4</v>
@@ -68388,7 +68388,7 @@
       </c>
       <c r="H945" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I945" t="inlineStr">
@@ -68397,16 +68397,16 @@
         </is>
       </c>
       <c r="J945" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="K945" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L945" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M945" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="N945" t="inlineStr">
         <is>
@@ -68419,7 +68419,7 @@
         </is>
       </c>
       <c r="P945" t="n">
-        <v>528</v>
+        <v>361</v>
       </c>
       <c r="Q945" t="n">
         <v>18</v>
@@ -68445,7 +68445,7 @@
         </is>
       </c>
       <c r="D946" s="2" t="n">
-        <v>44657</v>
+        <v>44321</v>
       </c>
       <c r="E946" t="n">
         <v>4</v>
@@ -68460,7 +68460,7 @@
       </c>
       <c r="H946" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I946" t="inlineStr">
@@ -68469,16 +68469,16 @@
         </is>
       </c>
       <c r="J946" t="n">
-        <v>360</v>
+        <v>700</v>
       </c>
       <c r="K946" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L946" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M946" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="N946" t="inlineStr">
         <is>
@@ -68491,7 +68491,7 @@
         </is>
       </c>
       <c r="P946" t="n">
-        <v>417</v>
+        <v>250</v>
       </c>
       <c r="Q946" t="n">
         <v>18</v>
@@ -68517,7 +68517,7 @@
         </is>
       </c>
       <c r="D947" s="2" t="n">
-        <v>44657</v>
+        <v>44321</v>
       </c>
       <c r="E947" t="n">
         <v>4</v>
@@ -68532,7 +68532,7 @@
       </c>
       <c r="H947" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I947" t="inlineStr">
@@ -68541,16 +68541,16 @@
         </is>
       </c>
       <c r="J947" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K947" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="L947" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M947" t="n">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="N947" t="inlineStr">
         <is>
@@ -68563,7 +68563,7 @@
         </is>
       </c>
       <c r="P947" t="n">
-        <v>306</v>
+        <v>139</v>
       </c>
       <c r="Q947" t="n">
         <v>18</v>
@@ -68589,7 +68589,7 @@
         </is>
       </c>
       <c r="D948" s="2" t="n">
-        <v>44657</v>
+        <v>44321</v>
       </c>
       <c r="E948" t="n">
         <v>4</v>
@@ -68604,7 +68604,7 @@
       </c>
       <c r="H948" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I948" t="inlineStr">
@@ -68613,16 +68613,16 @@
         </is>
       </c>
       <c r="J948" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K948" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L948" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="M948" t="n">
-        <v>10500</v>
+        <v>6250</v>
       </c>
       <c r="N948" t="inlineStr">
         <is>
@@ -68635,7 +68635,7 @@
         </is>
       </c>
       <c r="P948" t="n">
-        <v>583</v>
+        <v>347</v>
       </c>
       <c r="Q948" t="n">
         <v>18</v>
@@ -68661,7 +68661,7 @@
         </is>
       </c>
       <c r="D949" s="2" t="n">
-        <v>44657</v>
+        <v>44321</v>
       </c>
       <c r="E949" t="n">
         <v>4</v>
@@ -68676,7 +68676,7 @@
       </c>
       <c r="H949" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I949" t="inlineStr">
@@ -68685,16 +68685,16 @@
         </is>
       </c>
       <c r="J949" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K949" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L949" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="M949" t="n">
-        <v>8500</v>
+        <v>4250</v>
       </c>
       <c r="N949" t="inlineStr">
         <is>
@@ -68707,7 +68707,7 @@
         </is>
       </c>
       <c r="P949" t="n">
-        <v>472</v>
+        <v>236</v>
       </c>
       <c r="Q949" t="n">
         <v>18</v>
@@ -68733,7 +68733,7 @@
         </is>
       </c>
       <c r="D950" s="2" t="n">
-        <v>44657</v>
+        <v>44321</v>
       </c>
       <c r="E950" t="n">
         <v>4</v>
@@ -68748,7 +68748,7 @@
       </c>
       <c r="H950" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I950" t="inlineStr">
@@ -68757,16 +68757,16 @@
         </is>
       </c>
       <c r="J950" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K950" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="L950" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="M950" t="n">
-        <v>6500</v>
+        <v>2250</v>
       </c>
       <c r="N950" t="inlineStr">
         <is>
@@ -68779,7 +68779,7 @@
         </is>
       </c>
       <c r="P950" t="n">
-        <v>361</v>
+        <v>125</v>
       </c>
       <c r="Q950" t="n">
         <v>18</v>
@@ -68820,7 +68820,7 @@
       </c>
       <c r="H951" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I951" t="inlineStr">
@@ -68829,16 +68829,16 @@
         </is>
       </c>
       <c r="J951" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="K951" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L951" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M951" t="n">
-        <v>12500</v>
+        <v>9500</v>
       </c>
       <c r="N951" t="inlineStr">
         <is>
@@ -68851,7 +68851,7 @@
         </is>
       </c>
       <c r="P951" t="n">
-        <v>694</v>
+        <v>528</v>
       </c>
       <c r="Q951" t="n">
         <v>18</v>
@@ -68892,7 +68892,7 @@
       </c>
       <c r="H952" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I952" t="inlineStr">
@@ -68901,16 +68901,16 @@
         </is>
       </c>
       <c r="J952" t="n">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="K952" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L952" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M952" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="N952" t="inlineStr">
         <is>
@@ -68923,7 +68923,7 @@
         </is>
       </c>
       <c r="P952" t="n">
-        <v>583</v>
+        <v>417</v>
       </c>
       <c r="Q952" t="n">
         <v>18</v>
@@ -68964,7 +68964,7 @@
       </c>
       <c r="H953" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I953" t="inlineStr">
@@ -68973,16 +68973,16 @@
         </is>
       </c>
       <c r="J953" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K953" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L953" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M953" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="N953" t="inlineStr">
         <is>
@@ -68995,7 +68995,7 @@
         </is>
       </c>
       <c r="P953" t="n">
-        <v>472</v>
+        <v>306</v>
       </c>
       <c r="Q953" t="n">
         <v>18</v>
@@ -69021,7 +69021,7 @@
         </is>
       </c>
       <c r="D954" s="2" t="n">
-        <v>44391</v>
+        <v>44657</v>
       </c>
       <c r="E954" t="n">
         <v>4</v>
@@ -69045,16 +69045,16 @@
         </is>
       </c>
       <c r="J954" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K954" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L954" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M954" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="N954" t="inlineStr">
         <is>
@@ -69067,7 +69067,7 @@
         </is>
       </c>
       <c r="P954" t="n">
-        <v>806</v>
+        <v>583</v>
       </c>
       <c r="Q954" t="n">
         <v>18</v>
@@ -69093,7 +69093,7 @@
         </is>
       </c>
       <c r="D955" s="2" t="n">
-        <v>44391</v>
+        <v>44657</v>
       </c>
       <c r="E955" t="n">
         <v>4</v>
@@ -69117,16 +69117,16 @@
         </is>
       </c>
       <c r="J955" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K955" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L955" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M955" t="n">
-        <v>12500</v>
+        <v>8500</v>
       </c>
       <c r="N955" t="inlineStr">
         <is>
@@ -69139,7 +69139,7 @@
         </is>
       </c>
       <c r="P955" t="n">
-        <v>694</v>
+        <v>472</v>
       </c>
       <c r="Q955" t="n">
         <v>18</v>
@@ -69165,7 +69165,7 @@
         </is>
       </c>
       <c r="D956" s="2" t="n">
-        <v>44391</v>
+        <v>44657</v>
       </c>
       <c r="E956" t="n">
         <v>4</v>
@@ -69189,16 +69189,16 @@
         </is>
       </c>
       <c r="J956" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K956" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L956" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M956" t="n">
-        <v>10500</v>
+        <v>6500</v>
       </c>
       <c r="N956" t="inlineStr">
         <is>
@@ -69211,7 +69211,7 @@
         </is>
       </c>
       <c r="P956" t="n">
-        <v>583</v>
+        <v>361</v>
       </c>
       <c r="Q956" t="n">
         <v>18</v>
@@ -69237,7 +69237,7 @@
         </is>
       </c>
       <c r="D957" s="2" t="n">
-        <v>44391</v>
+        <v>44657</v>
       </c>
       <c r="E957" t="n">
         <v>4</v>
@@ -69261,16 +69261,16 @@
         </is>
       </c>
       <c r="J957" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K957" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L957" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M957" t="n">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="N957" t="inlineStr">
         <is>
@@ -69283,7 +69283,7 @@
         </is>
       </c>
       <c r="P957" t="n">
-        <v>861</v>
+        <v>694</v>
       </c>
       <c r="Q957" t="n">
         <v>18</v>
@@ -69309,7 +69309,7 @@
         </is>
       </c>
       <c r="D958" s="2" t="n">
-        <v>44391</v>
+        <v>44657</v>
       </c>
       <c r="E958" t="n">
         <v>4</v>
@@ -69333,16 +69333,16 @@
         </is>
       </c>
       <c r="J958" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K958" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L958" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M958" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="N958" t="inlineStr">
         <is>
@@ -69355,7 +69355,7 @@
         </is>
       </c>
       <c r="P958" t="n">
-        <v>694</v>
+        <v>583</v>
       </c>
       <c r="Q958" t="n">
         <v>18</v>
@@ -69381,7 +69381,7 @@
         </is>
       </c>
       <c r="D959" s="2" t="n">
-        <v>44391</v>
+        <v>44657</v>
       </c>
       <c r="E959" t="n">
         <v>4</v>
@@ -69405,16 +69405,16 @@
         </is>
       </c>
       <c r="J959" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K959" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L959" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M959" t="n">
-        <v>10500</v>
+        <v>8500</v>
       </c>
       <c r="N959" t="inlineStr">
         <is>
@@ -69427,7 +69427,7 @@
         </is>
       </c>
       <c r="P959" t="n">
-        <v>583</v>
+        <v>472</v>
       </c>
       <c r="Q959" t="n">
         <v>18</v>
@@ -69453,7 +69453,7 @@
         </is>
       </c>
       <c r="D960" s="2" t="n">
-        <v>44189</v>
+        <v>44391</v>
       </c>
       <c r="E960" t="n">
         <v>4</v>
@@ -69468,7 +69468,7 @@
       </c>
       <c r="H960" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I960" t="inlineStr">
@@ -69477,16 +69477,16 @@
         </is>
       </c>
       <c r="J960" t="n">
-        <v>140</v>
+        <v>700</v>
       </c>
       <c r="K960" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="L960" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M960" t="n">
-        <v>13750</v>
+        <v>14500</v>
       </c>
       <c r="N960" t="inlineStr">
         <is>
@@ -69499,7 +69499,7 @@
         </is>
       </c>
       <c r="P960" t="n">
-        <v>764</v>
+        <v>806</v>
       </c>
       <c r="Q960" t="n">
         <v>18</v>
@@ -69525,7 +69525,7 @@
         </is>
       </c>
       <c r="D961" s="2" t="n">
-        <v>44189</v>
+        <v>44391</v>
       </c>
       <c r="E961" t="n">
         <v>4</v>
@@ -69540,7 +69540,7 @@
       </c>
       <c r="H961" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I961" t="inlineStr">
@@ -69549,16 +69549,16 @@
         </is>
       </c>
       <c r="J961" t="n">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="K961" t="n">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="L961" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M961" t="n">
-        <v>11750</v>
+        <v>12500</v>
       </c>
       <c r="N961" t="inlineStr">
         <is>
@@ -69571,7 +69571,7 @@
         </is>
       </c>
       <c r="P961" t="n">
-        <v>653</v>
+        <v>694</v>
       </c>
       <c r="Q961" t="n">
         <v>18</v>
@@ -69597,7 +69597,7 @@
         </is>
       </c>
       <c r="D962" s="2" t="n">
-        <v>44189</v>
+        <v>44391</v>
       </c>
       <c r="E962" t="n">
         <v>4</v>
@@ -69612,7 +69612,7 @@
       </c>
       <c r="H962" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I962" t="inlineStr">
@@ -69621,16 +69621,16 @@
         </is>
       </c>
       <c r="J962" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K962" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="L962" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M962" t="n">
-        <v>9750</v>
+        <v>10500</v>
       </c>
       <c r="N962" t="inlineStr">
         <is>
@@ -69643,7 +69643,7 @@
         </is>
       </c>
       <c r="P962" t="n">
-        <v>542</v>
+        <v>583</v>
       </c>
       <c r="Q962" t="n">
         <v>18</v>
@@ -69669,7 +69669,7 @@
         </is>
       </c>
       <c r="D963" s="2" t="n">
-        <v>44189</v>
+        <v>44391</v>
       </c>
       <c r="E963" t="n">
         <v>4</v>
@@ -69684,7 +69684,7 @@
       </c>
       <c r="H963" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I963" t="inlineStr">
@@ -69693,16 +69693,16 @@
         </is>
       </c>
       <c r="J963" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K963" t="n">
-        <v>9500</v>
+        <v>15000</v>
       </c>
       <c r="L963" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M963" t="n">
-        <v>9750</v>
+        <v>15500</v>
       </c>
       <c r="N963" t="inlineStr">
         <is>
@@ -69715,7 +69715,7 @@
         </is>
       </c>
       <c r="P963" t="n">
-        <v>542</v>
+        <v>861</v>
       </c>
       <c r="Q963" t="n">
         <v>18</v>
@@ -69741,7 +69741,7 @@
         </is>
       </c>
       <c r="D964" s="2" t="n">
-        <v>44189</v>
+        <v>44391</v>
       </c>
       <c r="E964" t="n">
         <v>4</v>
@@ -69756,7 +69756,7 @@
       </c>
       <c r="H964" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I964" t="inlineStr">
@@ -69765,16 +69765,16 @@
         </is>
       </c>
       <c r="J964" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K964" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="L964" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M964" t="n">
-        <v>7750</v>
+        <v>12500</v>
       </c>
       <c r="N964" t="inlineStr">
         <is>
@@ -69787,7 +69787,7 @@
         </is>
       </c>
       <c r="P964" t="n">
-        <v>431</v>
+        <v>694</v>
       </c>
       <c r="Q964" t="n">
         <v>18</v>
@@ -69813,7 +69813,7 @@
         </is>
       </c>
       <c r="D965" s="2" t="n">
-        <v>44189</v>
+        <v>44391</v>
       </c>
       <c r="E965" t="n">
         <v>4</v>
@@ -69828,7 +69828,7 @@
       </c>
       <c r="H965" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I965" t="inlineStr">
@@ -69837,16 +69837,16 @@
         </is>
       </c>
       <c r="J965" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K965" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="L965" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M965" t="n">
-        <v>5750</v>
+        <v>10500</v>
       </c>
       <c r="N965" t="inlineStr">
         <is>
@@ -69859,7 +69859,7 @@
         </is>
       </c>
       <c r="P965" t="n">
-        <v>319</v>
+        <v>583</v>
       </c>
       <c r="Q965" t="n">
         <v>18</v>
@@ -69885,7 +69885,7 @@
         </is>
       </c>
       <c r="D966" s="2" t="n">
-        <v>44609</v>
+        <v>44189</v>
       </c>
       <c r="E966" t="n">
         <v>4</v>
@@ -69909,16 +69909,16 @@
         </is>
       </c>
       <c r="J966" t="n">
-        <v>500</v>
+        <v>140</v>
       </c>
       <c r="K966" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="L966" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M966" t="n">
-        <v>11500</v>
+        <v>13750</v>
       </c>
       <c r="N966" t="inlineStr">
         <is>
@@ -69931,7 +69931,7 @@
         </is>
       </c>
       <c r="P966" t="n">
-        <v>639</v>
+        <v>764</v>
       </c>
       <c r="Q966" t="n">
         <v>18</v>
@@ -69957,7 +69957,7 @@
         </is>
       </c>
       <c r="D967" s="2" t="n">
-        <v>44609</v>
+        <v>44189</v>
       </c>
       <c r="E967" t="n">
         <v>4</v>
@@ -69981,16 +69981,16 @@
         </is>
       </c>
       <c r="J967" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="K967" t="n">
-        <v>8000</v>
+        <v>11500</v>
       </c>
       <c r="L967" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M967" t="n">
-        <v>8500</v>
+        <v>11750</v>
       </c>
       <c r="N967" t="inlineStr">
         <is>
@@ -70003,7 +70003,7 @@
         </is>
       </c>
       <c r="P967" t="n">
-        <v>472</v>
+        <v>653</v>
       </c>
       <c r="Q967" t="n">
         <v>18</v>
@@ -70029,7 +70029,7 @@
         </is>
       </c>
       <c r="D968" s="2" t="n">
-        <v>44609</v>
+        <v>44189</v>
       </c>
       <c r="E968" t="n">
         <v>4</v>
@@ -70053,16 +70053,16 @@
         </is>
       </c>
       <c r="J968" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K968" t="n">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="L968" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M968" t="n">
-        <v>5500</v>
+        <v>9750</v>
       </c>
       <c r="N968" t="inlineStr">
         <is>
@@ -70075,7 +70075,7 @@
         </is>
       </c>
       <c r="P968" t="n">
-        <v>306</v>
+        <v>542</v>
       </c>
       <c r="Q968" t="n">
         <v>18</v>
@@ -70101,7 +70101,7 @@
         </is>
       </c>
       <c r="D969" s="2" t="n">
-        <v>44609</v>
+        <v>44189</v>
       </c>
       <c r="E969" t="n">
         <v>4</v>
@@ -70125,16 +70125,16 @@
         </is>
       </c>
       <c r="J969" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="K969" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="L969" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M969" t="n">
-        <v>7500</v>
+        <v>9750</v>
       </c>
       <c r="N969" t="inlineStr">
         <is>
@@ -70147,7 +70147,7 @@
         </is>
       </c>
       <c r="P969" t="n">
-        <v>417</v>
+        <v>542</v>
       </c>
       <c r="Q969" t="n">
         <v>18</v>
@@ -70173,7 +70173,7 @@
         </is>
       </c>
       <c r="D970" s="2" t="n">
-        <v>44609</v>
+        <v>44189</v>
       </c>
       <c r="E970" t="n">
         <v>4</v>
@@ -70197,16 +70197,16 @@
         </is>
       </c>
       <c r="J970" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="K970" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="L970" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M970" t="n">
-        <v>5500</v>
+        <v>7750</v>
       </c>
       <c r="N970" t="inlineStr">
         <is>
@@ -70219,7 +70219,7 @@
         </is>
       </c>
       <c r="P970" t="n">
-        <v>306</v>
+        <v>431</v>
       </c>
       <c r="Q970" t="n">
         <v>18</v>
@@ -70245,7 +70245,7 @@
         </is>
       </c>
       <c r="D971" s="2" t="n">
-        <v>44609</v>
+        <v>44189</v>
       </c>
       <c r="E971" t="n">
         <v>4</v>
@@ -70269,16 +70269,16 @@
         </is>
       </c>
       <c r="J971" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="K971" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L971" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M971" t="n">
-        <v>3500</v>
+        <v>5750</v>
       </c>
       <c r="N971" t="inlineStr">
         <is>
@@ -70291,7 +70291,7 @@
         </is>
       </c>
       <c r="P971" t="n">
-        <v>194</v>
+        <v>319</v>
       </c>
       <c r="Q971" t="n">
         <v>18</v>
@@ -70332,7 +70332,7 @@
       </c>
       <c r="H972" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I972" t="inlineStr">
@@ -70341,7 +70341,7 @@
         </is>
       </c>
       <c r="J972" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K972" t="n">
         <v>11000</v>
@@ -70404,7 +70404,7 @@
       </c>
       <c r="H973" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I973" t="inlineStr">
@@ -70416,13 +70416,13 @@
         <v>400</v>
       </c>
       <c r="K973" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L973" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M973" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N973" t="inlineStr">
         <is>
@@ -70435,7 +70435,7 @@
         </is>
       </c>
       <c r="P973" t="n">
-        <v>417</v>
+        <v>472</v>
       </c>
       <c r="Q973" t="n">
         <v>18</v>
@@ -70476,7 +70476,7 @@
       </c>
       <c r="H974" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I974" t="inlineStr">
@@ -70488,13 +70488,13 @@
         <v>300</v>
       </c>
       <c r="K974" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L974" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M974" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="N974" t="inlineStr">
         <is>
@@ -70507,7 +70507,7 @@
         </is>
       </c>
       <c r="P974" t="n">
-        <v>250</v>
+        <v>306</v>
       </c>
       <c r="Q974" t="n">
         <v>18</v>
@@ -70533,7 +70533,7 @@
         </is>
       </c>
       <c r="D975" s="2" t="n">
-        <v>44489</v>
+        <v>44609</v>
       </c>
       <c r="E975" t="n">
         <v>4</v>
@@ -70557,16 +70557,16 @@
         </is>
       </c>
       <c r="J975" t="n">
-        <v>1800</v>
+        <v>700</v>
       </c>
       <c r="K975" t="n">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="L975" t="n">
-        <v>28000</v>
+        <v>8000</v>
       </c>
       <c r="M975" t="n">
-        <v>27000</v>
+        <v>7500</v>
       </c>
       <c r="N975" t="inlineStr">
         <is>
@@ -70579,7 +70579,7 @@
         </is>
       </c>
       <c r="P975" t="n">
-        <v>1500</v>
+        <v>417</v>
       </c>
       <c r="Q975" t="n">
         <v>18</v>
@@ -70605,7 +70605,7 @@
         </is>
       </c>
       <c r="D976" s="2" t="n">
-        <v>44489</v>
+        <v>44609</v>
       </c>
       <c r="E976" t="n">
         <v>4</v>
@@ -70629,16 +70629,16 @@
         </is>
       </c>
       <c r="J976" t="n">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="K976" t="n">
-        <v>22000</v>
+        <v>5000</v>
       </c>
       <c r="L976" t="n">
-        <v>24000</v>
+        <v>6000</v>
       </c>
       <c r="M976" t="n">
-        <v>23000</v>
+        <v>5500</v>
       </c>
       <c r="N976" t="inlineStr">
         <is>
@@ -70651,7 +70651,7 @@
         </is>
       </c>
       <c r="P976" t="n">
-        <v>1278</v>
+        <v>306</v>
       </c>
       <c r="Q976" t="n">
         <v>18</v>
@@ -70677,58 +70677,490 @@
         </is>
       </c>
       <c r="D977" s="2" t="n">
+        <v>44609</v>
+      </c>
+      <c r="E977" t="n">
+        <v>4</v>
+      </c>
+      <c r="F977" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G977" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H977" t="inlineStr">
+        <is>
+          <t>Cuatro cascos verde</t>
+        </is>
+      </c>
+      <c r="I977" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J977" t="n">
+        <v>400</v>
+      </c>
+      <c r="K977" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L977" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M977" t="n">
+        <v>3500</v>
+      </c>
+      <c r="N977" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O977" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P977" t="n">
+        <v>194</v>
+      </c>
+      <c r="Q977" t="n">
+        <v>18</v>
+      </c>
+      <c r="R977" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="n">
+        <v>2</v>
+      </c>
+      <c r="B978" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C978" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D978" s="2" t="n">
+        <v>44609</v>
+      </c>
+      <c r="E978" t="n">
+        <v>4</v>
+      </c>
+      <c r="F978" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G978" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H978" t="inlineStr">
+        <is>
+          <t>Morrón rojo</t>
+        </is>
+      </c>
+      <c r="I978" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J978" t="n">
+        <v>400</v>
+      </c>
+      <c r="K978" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L978" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M978" t="n">
+        <v>11500</v>
+      </c>
+      <c r="N978" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O978" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P978" t="n">
+        <v>639</v>
+      </c>
+      <c r="Q978" t="n">
+        <v>18</v>
+      </c>
+      <c r="R978" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="n">
+        <v>2</v>
+      </c>
+      <c r="B979" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C979" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D979" s="2" t="n">
+        <v>44609</v>
+      </c>
+      <c r="E979" t="n">
+        <v>4</v>
+      </c>
+      <c r="F979" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G979" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H979" t="inlineStr">
+        <is>
+          <t>Morrón rojo</t>
+        </is>
+      </c>
+      <c r="I979" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J979" t="n">
+        <v>400</v>
+      </c>
+      <c r="K979" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L979" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M979" t="n">
+        <v>7500</v>
+      </c>
+      <c r="N979" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O979" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P979" t="n">
+        <v>417</v>
+      </c>
+      <c r="Q979" t="n">
+        <v>18</v>
+      </c>
+      <c r="R979" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="n">
+        <v>2</v>
+      </c>
+      <c r="B980" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C980" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D980" s="2" t="n">
+        <v>44609</v>
+      </c>
+      <c r="E980" t="n">
+        <v>4</v>
+      </c>
+      <c r="F980" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G980" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H980" t="inlineStr">
+        <is>
+          <t>Morrón rojo</t>
+        </is>
+      </c>
+      <c r="I980" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J980" t="n">
+        <v>300</v>
+      </c>
+      <c r="K980" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L980" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M980" t="n">
+        <v>4500</v>
+      </c>
+      <c r="N980" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O980" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P980" t="n">
+        <v>250</v>
+      </c>
+      <c r="Q980" t="n">
+        <v>18</v>
+      </c>
+      <c r="R980" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="n">
+        <v>2</v>
+      </c>
+      <c r="B981" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C981" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D981" s="2" t="n">
         <v>44489</v>
       </c>
-      <c r="E977" t="n">
-        <v>4</v>
-      </c>
-      <c r="F977" t="n">
-        <v>100112002</v>
-      </c>
-      <c r="G977" t="inlineStr">
-        <is>
-          <t>Pimiento</t>
-        </is>
-      </c>
-      <c r="H977" t="inlineStr">
+      <c r="E981" t="n">
+        <v>4</v>
+      </c>
+      <c r="F981" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G981" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H981" t="inlineStr">
         <is>
           <t>Cuatro cascos verde</t>
         </is>
       </c>
-      <c r="I977" t="inlineStr">
+      <c r="I981" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J981" t="n">
+        <v>1800</v>
+      </c>
+      <c r="K981" t="n">
+        <v>26000</v>
+      </c>
+      <c r="L981" t="n">
+        <v>28000</v>
+      </c>
+      <c r="M981" t="n">
+        <v>27000</v>
+      </c>
+      <c r="N981" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O981" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P981" t="n">
+        <v>1500</v>
+      </c>
+      <c r="Q981" t="n">
+        <v>18</v>
+      </c>
+      <c r="R981" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="n">
+        <v>2</v>
+      </c>
+      <c r="B982" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C982" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D982" s="2" t="n">
+        <v>44489</v>
+      </c>
+      <c r="E982" t="n">
+        <v>4</v>
+      </c>
+      <c r="F982" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G982" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H982" t="inlineStr">
+        <is>
+          <t>Cuatro cascos verde</t>
+        </is>
+      </c>
+      <c r="I982" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J982" t="n">
+        <v>1400</v>
+      </c>
+      <c r="K982" t="n">
+        <v>22000</v>
+      </c>
+      <c r="L982" t="n">
+        <v>24000</v>
+      </c>
+      <c r="M982" t="n">
+        <v>23000</v>
+      </c>
+      <c r="N982" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O982" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P982" t="n">
+        <v>1278</v>
+      </c>
+      <c r="Q982" t="n">
+        <v>18</v>
+      </c>
+      <c r="R982" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="n">
+        <v>2</v>
+      </c>
+      <c r="B983" t="inlineStr">
+        <is>
+          <t>Comercializadora del Agro de Limarí</t>
+        </is>
+      </c>
+      <c r="C983" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D983" s="2" t="n">
+        <v>44489</v>
+      </c>
+      <c r="E983" t="n">
+        <v>4</v>
+      </c>
+      <c r="F983" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G983" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H983" t="inlineStr">
+        <is>
+          <t>Cuatro cascos verde</t>
+        </is>
+      </c>
+      <c r="I983" t="inlineStr">
         <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="J977" t="n">
+      <c r="J983" t="n">
         <v>1200</v>
       </c>
-      <c r="K977" t="n">
+      <c r="K983" t="n">
         <v>18000</v>
       </c>
-      <c r="L977" t="n">
+      <c r="L983" t="n">
         <v>20000</v>
       </c>
-      <c r="M977" t="n">
+      <c r="M983" t="n">
         <v>19000</v>
       </c>
-      <c r="N977" t="inlineStr">
-        <is>
-          <t>$/caja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O977" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P977" t="n">
+      <c r="N983" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O983" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P983" t="n">
         <v>1056</v>
       </c>
-      <c r="Q977" t="n">
-        <v>18</v>
-      </c>
-      <c r="R977" t="inlineStr">
+      <c r="Q983" t="n">
+        <v>18</v>
+      </c>
+      <c r="R983" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pimiento.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Comercializadora del Agro de Limarí - Pimiento.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1001"/>
+  <dimension ref="A1:R1007"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58149,7 +58149,7 @@
         </is>
       </c>
       <c r="D803" s="2" t="n">
-        <v>44678</v>
+        <v>44798</v>
       </c>
       <c r="E803" t="n">
         <v>4</v>
@@ -58164,7 +58164,7 @@
       </c>
       <c r="H803" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I803" t="inlineStr">
@@ -58173,16 +58173,16 @@
         </is>
       </c>
       <c r="J803" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="K803" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L803" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M803" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="N803" t="inlineStr">
         <is>
@@ -58195,7 +58195,7 @@
         </is>
       </c>
       <c r="P803" t="n">
-        <v>806</v>
+        <v>1083</v>
       </c>
       <c r="Q803" t="n">
         <v>18</v>
@@ -58221,7 +58221,7 @@
         </is>
       </c>
       <c r="D804" s="2" t="n">
-        <v>44678</v>
+        <v>44798</v>
       </c>
       <c r="E804" t="n">
         <v>4</v>
@@ -58236,7 +58236,7 @@
       </c>
       <c r="H804" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I804" t="inlineStr">
@@ -58245,16 +58245,16 @@
         </is>
       </c>
       <c r="J804" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="K804" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L804" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M804" t="n">
-        <v>12500</v>
+        <v>16500</v>
       </c>
       <c r="N804" t="inlineStr">
         <is>
@@ -58267,7 +58267,7 @@
         </is>
       </c>
       <c r="P804" t="n">
-        <v>694</v>
+        <v>917</v>
       </c>
       <c r="Q804" t="n">
         <v>18</v>
@@ -58293,7 +58293,7 @@
         </is>
       </c>
       <c r="D805" s="2" t="n">
-        <v>44678</v>
+        <v>44798</v>
       </c>
       <c r="E805" t="n">
         <v>4</v>
@@ -58308,7 +58308,7 @@
       </c>
       <c r="H805" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I805" t="inlineStr">
@@ -58317,16 +58317,16 @@
         </is>
       </c>
       <c r="J805" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K805" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L805" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M805" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="N805" t="inlineStr">
         <is>
@@ -58339,7 +58339,7 @@
         </is>
       </c>
       <c r="P805" t="n">
-        <v>583</v>
+        <v>750</v>
       </c>
       <c r="Q805" t="n">
         <v>18</v>
@@ -58365,7 +58365,7 @@
         </is>
       </c>
       <c r="D806" s="2" t="n">
-        <v>44678</v>
+        <v>44798</v>
       </c>
       <c r="E806" t="n">
         <v>4</v>
@@ -58380,7 +58380,7 @@
       </c>
       <c r="H806" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I806" t="inlineStr">
@@ -58389,16 +58389,16 @@
         </is>
       </c>
       <c r="J806" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K806" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="L806" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="M806" t="n">
-        <v>12500</v>
+        <v>24500</v>
       </c>
       <c r="N806" t="inlineStr">
         <is>
@@ -58411,7 +58411,7 @@
         </is>
       </c>
       <c r="P806" t="n">
-        <v>694</v>
+        <v>1361</v>
       </c>
       <c r="Q806" t="n">
         <v>18</v>
@@ -58437,7 +58437,7 @@
         </is>
       </c>
       <c r="D807" s="2" t="n">
-        <v>44678</v>
+        <v>44798</v>
       </c>
       <c r="E807" t="n">
         <v>4</v>
@@ -58452,7 +58452,7 @@
       </c>
       <c r="H807" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I807" t="inlineStr">
@@ -58461,16 +58461,16 @@
         </is>
       </c>
       <c r="J807" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="K807" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="L807" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M807" t="n">
-        <v>9500</v>
+        <v>19500</v>
       </c>
       <c r="N807" t="inlineStr">
         <is>
@@ -58483,7 +58483,7 @@
         </is>
       </c>
       <c r="P807" t="n">
-        <v>528</v>
+        <v>1083</v>
       </c>
       <c r="Q807" t="n">
         <v>18</v>
@@ -58509,7 +58509,7 @@
         </is>
       </c>
       <c r="D808" s="2" t="n">
-        <v>44678</v>
+        <v>44798</v>
       </c>
       <c r="E808" t="n">
         <v>4</v>
@@ -58524,7 +58524,7 @@
       </c>
       <c r="H808" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I808" t="inlineStr">
@@ -58533,16 +58533,16 @@
         </is>
       </c>
       <c r="J808" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K808" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="L808" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M808" t="n">
-        <v>6500</v>
+        <v>14500</v>
       </c>
       <c r="N808" t="inlineStr">
         <is>
@@ -58555,7 +58555,7 @@
         </is>
       </c>
       <c r="P808" t="n">
-        <v>361</v>
+        <v>806</v>
       </c>
       <c r="Q808" t="n">
         <v>18</v>
@@ -58596,7 +58596,7 @@
       </c>
       <c r="H809" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I809" t="inlineStr">
@@ -58605,16 +58605,16 @@
         </is>
       </c>
       <c r="J809" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="K809" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="L809" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="M809" t="n">
-        <v>22500</v>
+        <v>14500</v>
       </c>
       <c r="N809" t="inlineStr">
         <is>
@@ -58627,7 +58627,7 @@
         </is>
       </c>
       <c r="P809" t="n">
-        <v>1250</v>
+        <v>806</v>
       </c>
       <c r="Q809" t="n">
         <v>18</v>
@@ -58668,7 +58668,7 @@
       </c>
       <c r="H810" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I810" t="inlineStr">
@@ -58677,16 +58677,16 @@
         </is>
       </c>
       <c r="J810" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K810" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="L810" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="M810" t="n">
-        <v>20500</v>
+        <v>12500</v>
       </c>
       <c r="N810" t="inlineStr">
         <is>
@@ -58699,7 +58699,7 @@
         </is>
       </c>
       <c r="P810" t="n">
-        <v>1139</v>
+        <v>694</v>
       </c>
       <c r="Q810" t="n">
         <v>18</v>
@@ -58740,7 +58740,7 @@
       </c>
       <c r="H811" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I811" t="inlineStr">
@@ -58749,16 +58749,16 @@
         </is>
       </c>
       <c r="J811" t="n">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="K811" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L811" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="M811" t="n">
-        <v>15500</v>
+        <v>10500</v>
       </c>
       <c r="N811" t="inlineStr">
         <is>
@@ -58771,7 +58771,7 @@
         </is>
       </c>
       <c r="P811" t="n">
-        <v>861</v>
+        <v>583</v>
       </c>
       <c r="Q811" t="n">
         <v>18</v>
@@ -58797,7 +58797,7 @@
         </is>
       </c>
       <c r="D812" s="2" t="n">
-        <v>44629</v>
+        <v>44678</v>
       </c>
       <c r="E812" t="n">
         <v>4</v>
@@ -58812,7 +58812,7 @@
       </c>
       <c r="H812" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I812" t="inlineStr">
@@ -58821,16 +58821,16 @@
         </is>
       </c>
       <c r="J812" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K812" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L812" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M812" t="n">
-        <v>8500</v>
+        <v>12500</v>
       </c>
       <c r="N812" t="inlineStr">
         <is>
@@ -58843,7 +58843,7 @@
         </is>
       </c>
       <c r="P812" t="n">
-        <v>472</v>
+        <v>694</v>
       </c>
       <c r="Q812" t="n">
         <v>18</v>
@@ -58869,7 +58869,7 @@
         </is>
       </c>
       <c r="D813" s="2" t="n">
-        <v>44629</v>
+        <v>44678</v>
       </c>
       <c r="E813" t="n">
         <v>4</v>
@@ -58884,7 +58884,7 @@
       </c>
       <c r="H813" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I813" t="inlineStr">
@@ -58893,16 +58893,16 @@
         </is>
       </c>
       <c r="J813" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K813" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L813" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M813" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="N813" t="inlineStr">
         <is>
@@ -58915,7 +58915,7 @@
         </is>
       </c>
       <c r="P813" t="n">
-        <v>361</v>
+        <v>528</v>
       </c>
       <c r="Q813" t="n">
         <v>18</v>
@@ -58941,7 +58941,7 @@
         </is>
       </c>
       <c r="D814" s="2" t="n">
-        <v>44629</v>
+        <v>44678</v>
       </c>
       <c r="E814" t="n">
         <v>4</v>
@@ -58956,7 +58956,7 @@
       </c>
       <c r="H814" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I814" t="inlineStr">
@@ -58965,16 +58965,16 @@
         </is>
       </c>
       <c r="J814" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="K814" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L814" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M814" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="N814" t="inlineStr">
         <is>
@@ -58987,7 +58987,7 @@
         </is>
       </c>
       <c r="P814" t="n">
-        <v>250</v>
+        <v>361</v>
       </c>
       <c r="Q814" t="n">
         <v>18</v>
@@ -59013,7 +59013,7 @@
         </is>
       </c>
       <c r="D815" s="2" t="n">
-        <v>44629</v>
+        <v>44678</v>
       </c>
       <c r="E815" t="n">
         <v>4</v>
@@ -59028,7 +59028,7 @@
       </c>
       <c r="H815" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I815" t="inlineStr">
@@ -59037,16 +59037,16 @@
         </is>
       </c>
       <c r="J815" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K815" t="n">
-        <v>6000</v>
+        <v>22000</v>
       </c>
       <c r="L815" t="n">
-        <v>7000</v>
+        <v>23000</v>
       </c>
       <c r="M815" t="n">
-        <v>6500</v>
+        <v>22500</v>
       </c>
       <c r="N815" t="inlineStr">
         <is>
@@ -59059,7 +59059,7 @@
         </is>
       </c>
       <c r="P815" t="n">
-        <v>361</v>
+        <v>1250</v>
       </c>
       <c r="Q815" t="n">
         <v>18</v>
@@ -59085,7 +59085,7 @@
         </is>
       </c>
       <c r="D816" s="2" t="n">
-        <v>44629</v>
+        <v>44678</v>
       </c>
       <c r="E816" t="n">
         <v>4</v>
@@ -59100,7 +59100,7 @@
       </c>
       <c r="H816" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I816" t="inlineStr">
@@ -59112,13 +59112,13 @@
         <v>400</v>
       </c>
       <c r="K816" t="n">
-        <v>4000</v>
+        <v>20000</v>
       </c>
       <c r="L816" t="n">
-        <v>5000</v>
+        <v>21000</v>
       </c>
       <c r="M816" t="n">
-        <v>4500</v>
+        <v>20500</v>
       </c>
       <c r="N816" t="inlineStr">
         <is>
@@ -59131,7 +59131,7 @@
         </is>
       </c>
       <c r="P816" t="n">
-        <v>250</v>
+        <v>1139</v>
       </c>
       <c r="Q816" t="n">
         <v>18</v>
@@ -59157,7 +59157,7 @@
         </is>
       </c>
       <c r="D817" s="2" t="n">
-        <v>44629</v>
+        <v>44678</v>
       </c>
       <c r="E817" t="n">
         <v>4</v>
@@ -59172,7 +59172,7 @@
       </c>
       <c r="H817" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I817" t="inlineStr">
@@ -59181,16 +59181,16 @@
         </is>
       </c>
       <c r="J817" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K817" t="n">
-        <v>2000</v>
+        <v>15000</v>
       </c>
       <c r="L817" t="n">
-        <v>3000</v>
+        <v>16000</v>
       </c>
       <c r="M817" t="n">
-        <v>2500</v>
+        <v>15500</v>
       </c>
       <c r="N817" t="inlineStr">
         <is>
@@ -59203,7 +59203,7 @@
         </is>
       </c>
       <c r="P817" t="n">
-        <v>139</v>
+        <v>861</v>
       </c>
       <c r="Q817" t="n">
         <v>18</v>
@@ -59244,7 +59244,7 @@
       </c>
       <c r="H818" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I818" t="inlineStr">
@@ -59253,16 +59253,16 @@
         </is>
       </c>
       <c r="J818" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K818" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L818" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M818" t="n">
-        <v>10500</v>
+        <v>8500</v>
       </c>
       <c r="N818" t="inlineStr">
         <is>
@@ -59275,7 +59275,7 @@
         </is>
       </c>
       <c r="P818" t="n">
-        <v>583</v>
+        <v>472</v>
       </c>
       <c r="Q818" t="n">
         <v>18</v>
@@ -59316,7 +59316,7 @@
       </c>
       <c r="H819" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I819" t="inlineStr">
@@ -59325,16 +59325,16 @@
         </is>
       </c>
       <c r="J819" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K819" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L819" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M819" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="N819" t="inlineStr">
         <is>
@@ -59347,7 +59347,7 @@
         </is>
       </c>
       <c r="P819" t="n">
-        <v>472</v>
+        <v>361</v>
       </c>
       <c r="Q819" t="n">
         <v>18</v>
@@ -59388,7 +59388,7 @@
       </c>
       <c r="H820" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I820" t="inlineStr">
@@ -59397,16 +59397,16 @@
         </is>
       </c>
       <c r="J820" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K820" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L820" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M820" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="N820" t="inlineStr">
         <is>
@@ -59419,7 +59419,7 @@
         </is>
       </c>
       <c r="P820" t="n">
-        <v>361</v>
+        <v>250</v>
       </c>
       <c r="Q820" t="n">
         <v>18</v>
@@ -59445,7 +59445,7 @@
         </is>
       </c>
       <c r="D821" s="2" t="n">
-        <v>44391</v>
+        <v>44629</v>
       </c>
       <c r="E821" t="n">
         <v>4</v>
@@ -59469,16 +59469,16 @@
         </is>
       </c>
       <c r="J821" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K821" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L821" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M821" t="n">
-        <v>14500</v>
+        <v>6500</v>
       </c>
       <c r="N821" t="inlineStr">
         <is>
@@ -59491,7 +59491,7 @@
         </is>
       </c>
       <c r="P821" t="n">
-        <v>806</v>
+        <v>361</v>
       </c>
       <c r="Q821" t="n">
         <v>18</v>
@@ -59517,7 +59517,7 @@
         </is>
       </c>
       <c r="D822" s="2" t="n">
-        <v>44391</v>
+        <v>44629</v>
       </c>
       <c r="E822" t="n">
         <v>4</v>
@@ -59541,16 +59541,16 @@
         </is>
       </c>
       <c r="J822" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K822" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="L822" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="M822" t="n">
-        <v>12500</v>
+        <v>4500</v>
       </c>
       <c r="N822" t="inlineStr">
         <is>
@@ -59563,7 +59563,7 @@
         </is>
       </c>
       <c r="P822" t="n">
-        <v>694</v>
+        <v>250</v>
       </c>
       <c r="Q822" t="n">
         <v>18</v>
@@ -59589,7 +59589,7 @@
         </is>
       </c>
       <c r="D823" s="2" t="n">
-        <v>44391</v>
+        <v>44629</v>
       </c>
       <c r="E823" t="n">
         <v>4</v>
@@ -59613,16 +59613,16 @@
         </is>
       </c>
       <c r="J823" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K823" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="L823" t="n">
-        <v>11000</v>
+        <v>3000</v>
       </c>
       <c r="M823" t="n">
-        <v>10500</v>
+        <v>2500</v>
       </c>
       <c r="N823" t="inlineStr">
         <is>
@@ -59635,7 +59635,7 @@
         </is>
       </c>
       <c r="P823" t="n">
-        <v>583</v>
+        <v>139</v>
       </c>
       <c r="Q823" t="n">
         <v>18</v>
@@ -59661,7 +59661,7 @@
         </is>
       </c>
       <c r="D824" s="2" t="n">
-        <v>44391</v>
+        <v>44629</v>
       </c>
       <c r="E824" t="n">
         <v>4</v>
@@ -59685,16 +59685,16 @@
         </is>
       </c>
       <c r="J824" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K824" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L824" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="M824" t="n">
-        <v>15500</v>
+        <v>10500</v>
       </c>
       <c r="N824" t="inlineStr">
         <is>
@@ -59707,7 +59707,7 @@
         </is>
       </c>
       <c r="P824" t="n">
-        <v>861</v>
+        <v>583</v>
       </c>
       <c r="Q824" t="n">
         <v>18</v>
@@ -59733,7 +59733,7 @@
         </is>
       </c>
       <c r="D825" s="2" t="n">
-        <v>44391</v>
+        <v>44629</v>
       </c>
       <c r="E825" t="n">
         <v>4</v>
@@ -59757,16 +59757,16 @@
         </is>
       </c>
       <c r="J825" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K825" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L825" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M825" t="n">
-        <v>12500</v>
+        <v>8500</v>
       </c>
       <c r="N825" t="inlineStr">
         <is>
@@ -59779,7 +59779,7 @@
         </is>
       </c>
       <c r="P825" t="n">
-        <v>694</v>
+        <v>472</v>
       </c>
       <c r="Q825" t="n">
         <v>18</v>
@@ -59805,7 +59805,7 @@
         </is>
       </c>
       <c r="D826" s="2" t="n">
-        <v>44391</v>
+        <v>44629</v>
       </c>
       <c r="E826" t="n">
         <v>4</v>
@@ -59832,13 +59832,13 @@
         <v>300</v>
       </c>
       <c r="K826" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L826" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M826" t="n">
-        <v>10500</v>
+        <v>6500</v>
       </c>
       <c r="N826" t="inlineStr">
         <is>
@@ -59851,7 +59851,7 @@
         </is>
       </c>
       <c r="P826" t="n">
-        <v>583</v>
+        <v>361</v>
       </c>
       <c r="Q826" t="n">
         <v>18</v>
@@ -59877,7 +59877,7 @@
         </is>
       </c>
       <c r="D827" s="2" t="n">
-        <v>44763</v>
+        <v>44391</v>
       </c>
       <c r="E827" t="n">
         <v>4</v>
@@ -59904,13 +59904,13 @@
         <v>700</v>
       </c>
       <c r="K827" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="L827" t="n">
-        <v>26000</v>
+        <v>15000</v>
       </c>
       <c r="M827" t="n">
-        <v>25500</v>
+        <v>14500</v>
       </c>
       <c r="N827" t="inlineStr">
         <is>
@@ -59923,7 +59923,7 @@
         </is>
       </c>
       <c r="P827" t="n">
-        <v>1417</v>
+        <v>806</v>
       </c>
       <c r="Q827" t="n">
         <v>18</v>
@@ -59949,7 +59949,7 @@
         </is>
       </c>
       <c r="D828" s="2" t="n">
-        <v>44763</v>
+        <v>44391</v>
       </c>
       <c r="E828" t="n">
         <v>4</v>
@@ -59973,16 +59973,16 @@
         </is>
       </c>
       <c r="J828" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K828" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="L828" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="M828" t="n">
-        <v>21500</v>
+        <v>12500</v>
       </c>
       <c r="N828" t="inlineStr">
         <is>
@@ -59995,7 +59995,7 @@
         </is>
       </c>
       <c r="P828" t="n">
-        <v>1194</v>
+        <v>694</v>
       </c>
       <c r="Q828" t="n">
         <v>18</v>
@@ -60021,7 +60021,7 @@
         </is>
       </c>
       <c r="D829" s="2" t="n">
-        <v>44763</v>
+        <v>44391</v>
       </c>
       <c r="E829" t="n">
         <v>4</v>
@@ -60045,16 +60045,16 @@
         </is>
       </c>
       <c r="J829" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="K829" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="L829" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="M829" t="n">
-        <v>17500</v>
+        <v>10500</v>
       </c>
       <c r="N829" t="inlineStr">
         <is>
@@ -60067,7 +60067,7 @@
         </is>
       </c>
       <c r="P829" t="n">
-        <v>972</v>
+        <v>583</v>
       </c>
       <c r="Q829" t="n">
         <v>18</v>
@@ -60093,7 +60093,7 @@
         </is>
       </c>
       <c r="D830" s="2" t="n">
-        <v>44763</v>
+        <v>44391</v>
       </c>
       <c r="E830" t="n">
         <v>4</v>
@@ -60117,16 +60117,16 @@
         </is>
       </c>
       <c r="J830" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K830" t="n">
-        <v>32000</v>
+        <v>15000</v>
       </c>
       <c r="L830" t="n">
-        <v>34000</v>
+        <v>16000</v>
       </c>
       <c r="M830" t="n">
-        <v>33000</v>
+        <v>15500</v>
       </c>
       <c r="N830" t="inlineStr">
         <is>
@@ -60139,7 +60139,7 @@
         </is>
       </c>
       <c r="P830" t="n">
-        <v>1833</v>
+        <v>861</v>
       </c>
       <c r="Q830" t="n">
         <v>18</v>
@@ -60165,7 +60165,7 @@
         </is>
       </c>
       <c r="D831" s="2" t="n">
-        <v>44763</v>
+        <v>44391</v>
       </c>
       <c r="E831" t="n">
         <v>4</v>
@@ -60189,16 +60189,16 @@
         </is>
       </c>
       <c r="J831" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="K831" t="n">
-        <v>29000</v>
+        <v>12000</v>
       </c>
       <c r="L831" t="n">
-        <v>30000</v>
+        <v>13000</v>
       </c>
       <c r="M831" t="n">
-        <v>29500</v>
+        <v>12500</v>
       </c>
       <c r="N831" t="inlineStr">
         <is>
@@ -60211,7 +60211,7 @@
         </is>
       </c>
       <c r="P831" t="n">
-        <v>1639</v>
+        <v>694</v>
       </c>
       <c r="Q831" t="n">
         <v>18</v>
@@ -60237,7 +60237,7 @@
         </is>
       </c>
       <c r="D832" s="2" t="n">
-        <v>44763</v>
+        <v>44391</v>
       </c>
       <c r="E832" t="n">
         <v>4</v>
@@ -60264,13 +60264,13 @@
         <v>300</v>
       </c>
       <c r="K832" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="L832" t="n">
-        <v>26000</v>
+        <v>11000</v>
       </c>
       <c r="M832" t="n">
-        <v>25500</v>
+        <v>10500</v>
       </c>
       <c r="N832" t="inlineStr">
         <is>
@@ -60283,7 +60283,7 @@
         </is>
       </c>
       <c r="P832" t="n">
-        <v>1417</v>
+        <v>583</v>
       </c>
       <c r="Q832" t="n">
         <v>18</v>
@@ -60309,7 +60309,7 @@
         </is>
       </c>
       <c r="D833" s="2" t="n">
-        <v>44371</v>
+        <v>44763</v>
       </c>
       <c r="E833" t="n">
         <v>4</v>
@@ -60333,16 +60333,16 @@
         </is>
       </c>
       <c r="J833" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K833" t="n">
-        <v>14500</v>
+        <v>25000</v>
       </c>
       <c r="L833" t="n">
-        <v>15000</v>
+        <v>26000</v>
       </c>
       <c r="M833" t="n">
-        <v>14750</v>
+        <v>25500</v>
       </c>
       <c r="N833" t="inlineStr">
         <is>
@@ -60355,7 +60355,7 @@
         </is>
       </c>
       <c r="P833" t="n">
-        <v>819</v>
+        <v>1417</v>
       </c>
       <c r="Q833" t="n">
         <v>18</v>
@@ -60381,7 +60381,7 @@
         </is>
       </c>
       <c r="D834" s="2" t="n">
-        <v>44371</v>
+        <v>44763</v>
       </c>
       <c r="E834" t="n">
         <v>4</v>
@@ -60405,16 +60405,16 @@
         </is>
       </c>
       <c r="J834" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K834" t="n">
-        <v>11500</v>
+        <v>21000</v>
       </c>
       <c r="L834" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="M834" t="n">
-        <v>11750</v>
+        <v>21500</v>
       </c>
       <c r="N834" t="inlineStr">
         <is>
@@ -60427,7 +60427,7 @@
         </is>
       </c>
       <c r="P834" t="n">
-        <v>653</v>
+        <v>1194</v>
       </c>
       <c r="Q834" t="n">
         <v>18</v>
@@ -60453,7 +60453,7 @@
         </is>
       </c>
       <c r="D835" s="2" t="n">
-        <v>44371</v>
+        <v>44763</v>
       </c>
       <c r="E835" t="n">
         <v>4</v>
@@ -60477,16 +60477,16 @@
         </is>
       </c>
       <c r="J835" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K835" t="n">
-        <v>8500</v>
+        <v>17000</v>
       </c>
       <c r="L835" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="M835" t="n">
-        <v>8750</v>
+        <v>17500</v>
       </c>
       <c r="N835" t="inlineStr">
         <is>
@@ -60499,7 +60499,7 @@
         </is>
       </c>
       <c r="P835" t="n">
-        <v>486</v>
+        <v>972</v>
       </c>
       <c r="Q835" t="n">
         <v>18</v>
@@ -60525,7 +60525,7 @@
         </is>
       </c>
       <c r="D836" s="2" t="n">
-        <v>44371</v>
+        <v>44763</v>
       </c>
       <c r="E836" t="n">
         <v>4</v>
@@ -60549,16 +60549,16 @@
         </is>
       </c>
       <c r="J836" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K836" t="n">
-        <v>13500</v>
+        <v>32000</v>
       </c>
       <c r="L836" t="n">
-        <v>14000</v>
+        <v>34000</v>
       </c>
       <c r="M836" t="n">
-        <v>13750</v>
+        <v>33000</v>
       </c>
       <c r="N836" t="inlineStr">
         <is>
@@ -60571,7 +60571,7 @@
         </is>
       </c>
       <c r="P836" t="n">
-        <v>764</v>
+        <v>1833</v>
       </c>
       <c r="Q836" t="n">
         <v>18</v>
@@ -60597,7 +60597,7 @@
         </is>
       </c>
       <c r="D837" s="2" t="n">
-        <v>44371</v>
+        <v>44763</v>
       </c>
       <c r="E837" t="n">
         <v>4</v>
@@ -60621,16 +60621,16 @@
         </is>
       </c>
       <c r="J837" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="K837" t="n">
-        <v>11500</v>
+        <v>29000</v>
       </c>
       <c r="L837" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="M837" t="n">
-        <v>11750</v>
+        <v>29500</v>
       </c>
       <c r="N837" t="inlineStr">
         <is>
@@ -60643,7 +60643,7 @@
         </is>
       </c>
       <c r="P837" t="n">
-        <v>653</v>
+        <v>1639</v>
       </c>
       <c r="Q837" t="n">
         <v>18</v>
@@ -60669,7 +60669,7 @@
         </is>
       </c>
       <c r="D838" s="2" t="n">
-        <v>44371</v>
+        <v>44763</v>
       </c>
       <c r="E838" t="n">
         <v>4</v>
@@ -60693,16 +60693,16 @@
         </is>
       </c>
       <c r="J838" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K838" t="n">
-        <v>9500</v>
+        <v>25000</v>
       </c>
       <c r="L838" t="n">
-        <v>10000</v>
+        <v>26000</v>
       </c>
       <c r="M838" t="n">
-        <v>9750</v>
+        <v>25500</v>
       </c>
       <c r="N838" t="inlineStr">
         <is>
@@ -60715,7 +60715,7 @@
         </is>
       </c>
       <c r="P838" t="n">
-        <v>542</v>
+        <v>1417</v>
       </c>
       <c r="Q838" t="n">
         <v>18</v>
@@ -60741,7 +60741,7 @@
         </is>
       </c>
       <c r="D839" s="2" t="n">
-        <v>44685</v>
+        <v>44371</v>
       </c>
       <c r="E839" t="n">
         <v>4</v>
@@ -60756,7 +60756,7 @@
       </c>
       <c r="H839" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I839" t="inlineStr">
@@ -60765,16 +60765,16 @@
         </is>
       </c>
       <c r="J839" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K839" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="L839" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M839" t="n">
-        <v>16500</v>
+        <v>14750</v>
       </c>
       <c r="N839" t="inlineStr">
         <is>
@@ -60787,7 +60787,7 @@
         </is>
       </c>
       <c r="P839" t="n">
-        <v>917</v>
+        <v>819</v>
       </c>
       <c r="Q839" t="n">
         <v>18</v>
@@ -60813,7 +60813,7 @@
         </is>
       </c>
       <c r="D840" s="2" t="n">
-        <v>44685</v>
+        <v>44371</v>
       </c>
       <c r="E840" t="n">
         <v>4</v>
@@ -60828,7 +60828,7 @@
       </c>
       <c r="H840" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I840" t="inlineStr">
@@ -60837,16 +60837,16 @@
         </is>
       </c>
       <c r="J840" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K840" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="L840" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M840" t="n">
-        <v>13500</v>
+        <v>11750</v>
       </c>
       <c r="N840" t="inlineStr">
         <is>
@@ -60859,7 +60859,7 @@
         </is>
       </c>
       <c r="P840" t="n">
-        <v>750</v>
+        <v>653</v>
       </c>
       <c r="Q840" t="n">
         <v>18</v>
@@ -60885,7 +60885,7 @@
         </is>
       </c>
       <c r="D841" s="2" t="n">
-        <v>44685</v>
+        <v>44371</v>
       </c>
       <c r="E841" t="n">
         <v>4</v>
@@ -60900,7 +60900,7 @@
       </c>
       <c r="H841" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I841" t="inlineStr">
@@ -60909,16 +60909,16 @@
         </is>
       </c>
       <c r="J841" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K841" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="L841" t="n">
         <v>9000</v>
       </c>
       <c r="M841" t="n">
-        <v>8500</v>
+        <v>8750</v>
       </c>
       <c r="N841" t="inlineStr">
         <is>
@@ -60931,7 +60931,7 @@
         </is>
       </c>
       <c r="P841" t="n">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="Q841" t="n">
         <v>18</v>
@@ -60957,7 +60957,7 @@
         </is>
       </c>
       <c r="D842" s="2" t="n">
-        <v>44685</v>
+        <v>44371</v>
       </c>
       <c r="E842" t="n">
         <v>4</v>
@@ -60972,7 +60972,7 @@
       </c>
       <c r="H842" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I842" t="inlineStr">
@@ -60984,13 +60984,13 @@
         <v>500</v>
       </c>
       <c r="K842" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="L842" t="n">
         <v>14000</v>
       </c>
       <c r="M842" t="n">
-        <v>13500</v>
+        <v>13750</v>
       </c>
       <c r="N842" t="inlineStr">
         <is>
@@ -61003,7 +61003,7 @@
         </is>
       </c>
       <c r="P842" t="n">
-        <v>750</v>
+        <v>764</v>
       </c>
       <c r="Q842" t="n">
         <v>18</v>
@@ -61029,7 +61029,7 @@
         </is>
       </c>
       <c r="D843" s="2" t="n">
-        <v>44685</v>
+        <v>44371</v>
       </c>
       <c r="E843" t="n">
         <v>4</v>
@@ -61044,7 +61044,7 @@
       </c>
       <c r="H843" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I843" t="inlineStr">
@@ -61053,16 +61053,16 @@
         </is>
       </c>
       <c r="J843" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K843" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="L843" t="n">
         <v>12000</v>
       </c>
       <c r="M843" t="n">
-        <v>11500</v>
+        <v>11750</v>
       </c>
       <c r="N843" t="inlineStr">
         <is>
@@ -61075,7 +61075,7 @@
         </is>
       </c>
       <c r="P843" t="n">
-        <v>639</v>
+        <v>653</v>
       </c>
       <c r="Q843" t="n">
         <v>18</v>
@@ -61101,7 +61101,7 @@
         </is>
       </c>
       <c r="D844" s="2" t="n">
-        <v>44685</v>
+        <v>44371</v>
       </c>
       <c r="E844" t="n">
         <v>4</v>
@@ -61116,7 +61116,7 @@
       </c>
       <c r="H844" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I844" t="inlineStr">
@@ -61125,16 +61125,16 @@
         </is>
       </c>
       <c r="J844" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K844" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="L844" t="n">
         <v>10000</v>
       </c>
       <c r="M844" t="n">
-        <v>9500</v>
+        <v>9750</v>
       </c>
       <c r="N844" t="inlineStr">
         <is>
@@ -61147,7 +61147,7 @@
         </is>
       </c>
       <c r="P844" t="n">
-        <v>528</v>
+        <v>542</v>
       </c>
       <c r="Q844" t="n">
         <v>18</v>
@@ -61188,7 +61188,7 @@
       </c>
       <c r="H845" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I845" t="inlineStr">
@@ -61197,16 +61197,16 @@
         </is>
       </c>
       <c r="J845" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="K845" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="L845" t="n">
-        <v>27000</v>
+        <v>17000</v>
       </c>
       <c r="M845" t="n">
-        <v>26000</v>
+        <v>16500</v>
       </c>
       <c r="N845" t="inlineStr">
         <is>
@@ -61219,7 +61219,7 @@
         </is>
       </c>
       <c r="P845" t="n">
-        <v>1444</v>
+        <v>917</v>
       </c>
       <c r="Q845" t="n">
         <v>18</v>
@@ -61260,7 +61260,7 @@
       </c>
       <c r="H846" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I846" t="inlineStr">
@@ -61269,16 +61269,16 @@
         </is>
       </c>
       <c r="J846" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K846" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="L846" t="n">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="M846" t="n">
-        <v>22000</v>
+        <v>13500</v>
       </c>
       <c r="N846" t="inlineStr">
         <is>
@@ -61291,7 +61291,7 @@
         </is>
       </c>
       <c r="P846" t="n">
-        <v>1222</v>
+        <v>750</v>
       </c>
       <c r="Q846" t="n">
         <v>18</v>
@@ -61332,7 +61332,7 @@
       </c>
       <c r="H847" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I847" t="inlineStr">
@@ -61341,16 +61341,16 @@
         </is>
       </c>
       <c r="J847" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K847" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="L847" t="n">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="M847" t="n">
-        <v>18500</v>
+        <v>8500</v>
       </c>
       <c r="N847" t="inlineStr">
         <is>
@@ -61363,7 +61363,7 @@
         </is>
       </c>
       <c r="P847" t="n">
-        <v>1028</v>
+        <v>472</v>
       </c>
       <c r="Q847" t="n">
         <v>18</v>
@@ -61389,7 +61389,7 @@
         </is>
       </c>
       <c r="D848" s="2" t="n">
-        <v>44434</v>
+        <v>44685</v>
       </c>
       <c r="E848" t="n">
         <v>4</v>
@@ -61416,13 +61416,13 @@
         <v>500</v>
       </c>
       <c r="K848" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="L848" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="M848" t="n">
-        <v>23500</v>
+        <v>13500</v>
       </c>
       <c r="N848" t="inlineStr">
         <is>
@@ -61435,7 +61435,7 @@
         </is>
       </c>
       <c r="P848" t="n">
-        <v>1306</v>
+        <v>750</v>
       </c>
       <c r="Q848" t="n">
         <v>18</v>
@@ -61461,7 +61461,7 @@
         </is>
       </c>
       <c r="D849" s="2" t="n">
-        <v>44434</v>
+        <v>44685</v>
       </c>
       <c r="E849" t="n">
         <v>4</v>
@@ -61488,13 +61488,13 @@
         <v>400</v>
       </c>
       <c r="K849" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="L849" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="M849" t="n">
-        <v>21500</v>
+        <v>11500</v>
       </c>
       <c r="N849" t="inlineStr">
         <is>
@@ -61507,7 +61507,7 @@
         </is>
       </c>
       <c r="P849" t="n">
-        <v>1194</v>
+        <v>639</v>
       </c>
       <c r="Q849" t="n">
         <v>18</v>
@@ -61533,7 +61533,7 @@
         </is>
       </c>
       <c r="D850" s="2" t="n">
-        <v>44434</v>
+        <v>44685</v>
       </c>
       <c r="E850" t="n">
         <v>4</v>
@@ -61557,16 +61557,16 @@
         </is>
       </c>
       <c r="J850" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K850" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="L850" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M850" t="n">
-        <v>17500</v>
+        <v>9500</v>
       </c>
       <c r="N850" t="inlineStr">
         <is>
@@ -61579,7 +61579,7 @@
         </is>
       </c>
       <c r="P850" t="n">
-        <v>972</v>
+        <v>528</v>
       </c>
       <c r="Q850" t="n">
         <v>18</v>
@@ -61605,7 +61605,7 @@
         </is>
       </c>
       <c r="D851" s="2" t="n">
-        <v>44434</v>
+        <v>44685</v>
       </c>
       <c r="E851" t="n">
         <v>4</v>
@@ -61629,16 +61629,16 @@
         </is>
       </c>
       <c r="J851" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="K851" t="n">
+        <v>25000</v>
+      </c>
+      <c r="L851" t="n">
         <v>27000</v>
       </c>
-      <c r="L851" t="n">
-        <v>29000</v>
-      </c>
       <c r="M851" t="n">
-        <v>28000</v>
+        <v>26000</v>
       </c>
       <c r="N851" t="inlineStr">
         <is>
@@ -61651,7 +61651,7 @@
         </is>
       </c>
       <c r="P851" t="n">
-        <v>1556</v>
+        <v>1444</v>
       </c>
       <c r="Q851" t="n">
         <v>18</v>
@@ -61677,7 +61677,7 @@
         </is>
       </c>
       <c r="D852" s="2" t="n">
-        <v>44434</v>
+        <v>44685</v>
       </c>
       <c r="E852" t="n">
         <v>4</v>
@@ -61701,17 +61701,17 @@
         </is>
       </c>
       <c r="J852" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K852" t="n">
+        <v>21000</v>
+      </c>
+      <c r="L852" t="n">
+        <v>23000</v>
+      </c>
+      <c r="M852" t="n">
         <v>22000</v>
       </c>
-      <c r="L852" t="n">
-        <v>24000</v>
-      </c>
-      <c r="M852" t="n">
-        <v>23000</v>
-      </c>
       <c r="N852" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
@@ -61723,7 +61723,7 @@
         </is>
       </c>
       <c r="P852" t="n">
-        <v>1278</v>
+        <v>1222</v>
       </c>
       <c r="Q852" t="n">
         <v>18</v>
@@ -61749,7 +61749,7 @@
         </is>
       </c>
       <c r="D853" s="2" t="n">
-        <v>44434</v>
+        <v>44685</v>
       </c>
       <c r="E853" t="n">
         <v>4</v>
@@ -61773,16 +61773,16 @@
         </is>
       </c>
       <c r="J853" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="K853" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L853" t="n">
         <v>19000</v>
       </c>
       <c r="M853" t="n">
-        <v>18000</v>
+        <v>18500</v>
       </c>
       <c r="N853" t="inlineStr">
         <is>
@@ -61795,7 +61795,7 @@
         </is>
       </c>
       <c r="P853" t="n">
-        <v>1000</v>
+        <v>1028</v>
       </c>
       <c r="Q853" t="n">
         <v>18</v>
@@ -61821,7 +61821,7 @@
         </is>
       </c>
       <c r="D854" s="2" t="n">
-        <v>44462</v>
+        <v>44434</v>
       </c>
       <c r="E854" t="n">
         <v>4</v>
@@ -61845,16 +61845,16 @@
         </is>
       </c>
       <c r="J854" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K854" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="L854" t="n">
-        <v>31000</v>
+        <v>24000</v>
       </c>
       <c r="M854" t="n">
-        <v>30500</v>
+        <v>23500</v>
       </c>
       <c r="N854" t="inlineStr">
         <is>
@@ -61867,7 +61867,7 @@
         </is>
       </c>
       <c r="P854" t="n">
-        <v>1694</v>
+        <v>1306</v>
       </c>
       <c r="Q854" t="n">
         <v>18</v>
@@ -61893,7 +61893,7 @@
         </is>
       </c>
       <c r="D855" s="2" t="n">
-        <v>44462</v>
+        <v>44434</v>
       </c>
       <c r="E855" t="n">
         <v>4</v>
@@ -61917,16 +61917,16 @@
         </is>
       </c>
       <c r="J855" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K855" t="n">
-        <v>28000</v>
+        <v>21000</v>
       </c>
       <c r="L855" t="n">
-        <v>29000</v>
+        <v>22000</v>
       </c>
       <c r="M855" t="n">
-        <v>28500</v>
+        <v>21500</v>
       </c>
       <c r="N855" t="inlineStr">
         <is>
@@ -61939,7 +61939,7 @@
         </is>
       </c>
       <c r="P855" t="n">
-        <v>1583</v>
+        <v>1194</v>
       </c>
       <c r="Q855" t="n">
         <v>18</v>
@@ -61965,7 +61965,7 @@
         </is>
       </c>
       <c r="D856" s="2" t="n">
-        <v>44462</v>
+        <v>44434</v>
       </c>
       <c r="E856" t="n">
         <v>4</v>
@@ -61992,13 +61992,13 @@
         <v>300</v>
       </c>
       <c r="K856" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="L856" t="n">
-        <v>26000</v>
+        <v>18000</v>
       </c>
       <c r="M856" t="n">
-        <v>25500</v>
+        <v>17500</v>
       </c>
       <c r="N856" t="inlineStr">
         <is>
@@ -62011,7 +62011,7 @@
         </is>
       </c>
       <c r="P856" t="n">
-        <v>1417</v>
+        <v>972</v>
       </c>
       <c r="Q856" t="n">
         <v>18</v>
@@ -62037,7 +62037,7 @@
         </is>
       </c>
       <c r="D857" s="2" t="n">
-        <v>44272</v>
+        <v>44434</v>
       </c>
       <c r="E857" t="n">
         <v>4</v>
@@ -62052,7 +62052,7 @@
       </c>
       <c r="H857" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I857" t="inlineStr">
@@ -62061,16 +62061,16 @@
         </is>
       </c>
       <c r="J857" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K857" t="n">
-        <v>7500</v>
+        <v>27000</v>
       </c>
       <c r="L857" t="n">
-        <v>8000</v>
+        <v>29000</v>
       </c>
       <c r="M857" t="n">
-        <v>7750</v>
+        <v>28000</v>
       </c>
       <c r="N857" t="inlineStr">
         <is>
@@ -62083,7 +62083,7 @@
         </is>
       </c>
       <c r="P857" t="n">
-        <v>431</v>
+        <v>1556</v>
       </c>
       <c r="Q857" t="n">
         <v>18</v>
@@ -62109,7 +62109,7 @@
         </is>
       </c>
       <c r="D858" s="2" t="n">
-        <v>44272</v>
+        <v>44434</v>
       </c>
       <c r="E858" t="n">
         <v>4</v>
@@ -62124,7 +62124,7 @@
       </c>
       <c r="H858" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I858" t="inlineStr">
@@ -62133,16 +62133,16 @@
         </is>
       </c>
       <c r="J858" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K858" t="n">
-        <v>5500</v>
+        <v>22000</v>
       </c>
       <c r="L858" t="n">
-        <v>6000</v>
+        <v>24000</v>
       </c>
       <c r="M858" t="n">
-        <v>5750</v>
+        <v>23000</v>
       </c>
       <c r="N858" t="inlineStr">
         <is>
@@ -62155,7 +62155,7 @@
         </is>
       </c>
       <c r="P858" t="n">
-        <v>319</v>
+        <v>1278</v>
       </c>
       <c r="Q858" t="n">
         <v>18</v>
@@ -62181,7 +62181,7 @@
         </is>
       </c>
       <c r="D859" s="2" t="n">
-        <v>44272</v>
+        <v>44434</v>
       </c>
       <c r="E859" t="n">
         <v>4</v>
@@ -62196,7 +62196,7 @@
       </c>
       <c r="H859" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I859" t="inlineStr">
@@ -62208,13 +62208,13 @@
         <v>240</v>
       </c>
       <c r="K859" t="n">
-        <v>3500</v>
+        <v>17000</v>
       </c>
       <c r="L859" t="n">
-        <v>4000</v>
+        <v>19000</v>
       </c>
       <c r="M859" t="n">
-        <v>3750</v>
+        <v>18000</v>
       </c>
       <c r="N859" t="inlineStr">
         <is>
@@ -62227,7 +62227,7 @@
         </is>
       </c>
       <c r="P859" t="n">
-        <v>208</v>
+        <v>1000</v>
       </c>
       <c r="Q859" t="n">
         <v>18</v>
@@ -62253,7 +62253,7 @@
         </is>
       </c>
       <c r="D860" s="2" t="n">
-        <v>44272</v>
+        <v>44462</v>
       </c>
       <c r="E860" t="n">
         <v>4</v>
@@ -62277,16 +62277,16 @@
         </is>
       </c>
       <c r="J860" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K860" t="n">
-        <v>5500</v>
+        <v>30000</v>
       </c>
       <c r="L860" t="n">
-        <v>6000</v>
+        <v>31000</v>
       </c>
       <c r="M860" t="n">
-        <v>5750</v>
+        <v>30500</v>
       </c>
       <c r="N860" t="inlineStr">
         <is>
@@ -62299,7 +62299,7 @@
         </is>
       </c>
       <c r="P860" t="n">
-        <v>319</v>
+        <v>1694</v>
       </c>
       <c r="Q860" t="n">
         <v>18</v>
@@ -62325,7 +62325,7 @@
         </is>
       </c>
       <c r="D861" s="2" t="n">
-        <v>44272</v>
+        <v>44462</v>
       </c>
       <c r="E861" t="n">
         <v>4</v>
@@ -62349,16 +62349,16 @@
         </is>
       </c>
       <c r="J861" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K861" t="n">
-        <v>3500</v>
+        <v>28000</v>
       </c>
       <c r="L861" t="n">
-        <v>4000</v>
+        <v>29000</v>
       </c>
       <c r="M861" t="n">
-        <v>3750</v>
+        <v>28500</v>
       </c>
       <c r="N861" t="inlineStr">
         <is>
@@ -62371,7 +62371,7 @@
         </is>
       </c>
       <c r="P861" t="n">
-        <v>208</v>
+        <v>1583</v>
       </c>
       <c r="Q861" t="n">
         <v>18</v>
@@ -62397,7 +62397,7 @@
         </is>
       </c>
       <c r="D862" s="2" t="n">
-        <v>44272</v>
+        <v>44462</v>
       </c>
       <c r="E862" t="n">
         <v>4</v>
@@ -62424,13 +62424,13 @@
         <v>300</v>
       </c>
       <c r="K862" t="n">
-        <v>1500</v>
+        <v>25000</v>
       </c>
       <c r="L862" t="n">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="M862" t="n">
-        <v>1750</v>
+        <v>25500</v>
       </c>
       <c r="N862" t="inlineStr">
         <is>
@@ -62443,7 +62443,7 @@
         </is>
       </c>
       <c r="P862" t="n">
-        <v>97</v>
+        <v>1417</v>
       </c>
       <c r="Q862" t="n">
         <v>18</v>
@@ -62469,7 +62469,7 @@
         </is>
       </c>
       <c r="D863" s="2" t="n">
-        <v>44238</v>
+        <v>44272</v>
       </c>
       <c r="E863" t="n">
         <v>4</v>
@@ -62493,16 +62493,16 @@
         </is>
       </c>
       <c r="J863" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K863" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="L863" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M863" t="n">
-        <v>11500</v>
+        <v>7750</v>
       </c>
       <c r="N863" t="inlineStr">
         <is>
@@ -62515,7 +62515,7 @@
         </is>
       </c>
       <c r="P863" t="n">
-        <v>639</v>
+        <v>431</v>
       </c>
       <c r="Q863" t="n">
         <v>18</v>
@@ -62541,7 +62541,7 @@
         </is>
       </c>
       <c r="D864" s="2" t="n">
-        <v>44238</v>
+        <v>44272</v>
       </c>
       <c r="E864" t="n">
         <v>4</v>
@@ -62568,13 +62568,13 @@
         <v>300</v>
       </c>
       <c r="K864" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="L864" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M864" t="n">
-        <v>9500</v>
+        <v>5750</v>
       </c>
       <c r="N864" t="inlineStr">
         <is>
@@ -62587,7 +62587,7 @@
         </is>
       </c>
       <c r="P864" t="n">
-        <v>528</v>
+        <v>319</v>
       </c>
       <c r="Q864" t="n">
         <v>18</v>
@@ -62613,7 +62613,7 @@
         </is>
       </c>
       <c r="D865" s="2" t="n">
-        <v>44238</v>
+        <v>44272</v>
       </c>
       <c r="E865" t="n">
         <v>4</v>
@@ -62640,13 +62640,13 @@
         <v>240</v>
       </c>
       <c r="K865" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="L865" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M865" t="n">
-        <v>7500</v>
+        <v>3750</v>
       </c>
       <c r="N865" t="inlineStr">
         <is>
@@ -62659,7 +62659,7 @@
         </is>
       </c>
       <c r="P865" t="n">
-        <v>417</v>
+        <v>208</v>
       </c>
       <c r="Q865" t="n">
         <v>18</v>
@@ -62685,7 +62685,7 @@
         </is>
       </c>
       <c r="D866" s="2" t="n">
-        <v>44238</v>
+        <v>44272</v>
       </c>
       <c r="E866" t="n">
         <v>4</v>
@@ -62709,7 +62709,7 @@
         </is>
       </c>
       <c r="J866" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K866" t="n">
         <v>5500</v>
@@ -62757,7 +62757,7 @@
         </is>
       </c>
       <c r="D867" s="2" t="n">
-        <v>44238</v>
+        <v>44272</v>
       </c>
       <c r="E867" t="n">
         <v>4</v>
@@ -62781,7 +62781,7 @@
         </is>
       </c>
       <c r="J867" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K867" t="n">
         <v>3500</v>
@@ -62829,7 +62829,7 @@
         </is>
       </c>
       <c r="D868" s="2" t="n">
-        <v>44336</v>
+        <v>44272</v>
       </c>
       <c r="E868" t="n">
         <v>4</v>
@@ -62849,20 +62849,20 @@
       </c>
       <c r="I868" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J868" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="K868" t="n">
-        <v>9000</v>
+        <v>1500</v>
       </c>
       <c r="L868" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="M868" t="n">
-        <v>9500</v>
+        <v>1750</v>
       </c>
       <c r="N868" t="inlineStr">
         <is>
@@ -62875,7 +62875,7 @@
         </is>
       </c>
       <c r="P868" t="n">
-        <v>528</v>
+        <v>97</v>
       </c>
       <c r="Q868" t="n">
         <v>18</v>
@@ -62901,7 +62901,7 @@
         </is>
       </c>
       <c r="D869" s="2" t="n">
-        <v>44336</v>
+        <v>44238</v>
       </c>
       <c r="E869" t="n">
         <v>4</v>
@@ -62916,25 +62916,25 @@
       </c>
       <c r="H869" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I869" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J869" t="n">
         <v>500</v>
       </c>
       <c r="K869" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L869" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M869" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="N869" t="inlineStr">
         <is>
@@ -62947,7 +62947,7 @@
         </is>
       </c>
       <c r="P869" t="n">
-        <v>417</v>
+        <v>639</v>
       </c>
       <c r="Q869" t="n">
         <v>18</v>
@@ -62973,7 +62973,7 @@
         </is>
       </c>
       <c r="D870" s="2" t="n">
-        <v>44336</v>
+        <v>44238</v>
       </c>
       <c r="E870" t="n">
         <v>4</v>
@@ -62988,25 +62988,25 @@
       </c>
       <c r="H870" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I870" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J870" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K870" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L870" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M870" t="n">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="N870" t="inlineStr">
         <is>
@@ -63019,7 +63019,7 @@
         </is>
       </c>
       <c r="P870" t="n">
-        <v>306</v>
+        <v>528</v>
       </c>
       <c r="Q870" t="n">
         <v>18</v>
@@ -63045,7 +63045,7 @@
         </is>
       </c>
       <c r="D871" s="2" t="n">
-        <v>44336</v>
+        <v>44238</v>
       </c>
       <c r="E871" t="n">
         <v>4</v>
@@ -63060,25 +63060,25 @@
       </c>
       <c r="H871" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I871" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J871" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="K871" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="L871" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="M871" t="n">
-        <v>15500</v>
+        <v>7500</v>
       </c>
       <c r="N871" t="inlineStr">
         <is>
@@ -63091,7 +63091,7 @@
         </is>
       </c>
       <c r="P871" t="n">
-        <v>861</v>
+        <v>417</v>
       </c>
       <c r="Q871" t="n">
         <v>18</v>
@@ -63117,7 +63117,7 @@
         </is>
       </c>
       <c r="D872" s="2" t="n">
-        <v>44336</v>
+        <v>44238</v>
       </c>
       <c r="E872" t="n">
         <v>4</v>
@@ -63132,25 +63132,25 @@
       </c>
       <c r="H872" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I872" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J872" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K872" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="L872" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="M872" t="n">
-        <v>12500</v>
+        <v>5750</v>
       </c>
       <c r="N872" t="inlineStr">
         <is>
@@ -63163,7 +63163,7 @@
         </is>
       </c>
       <c r="P872" t="n">
-        <v>694</v>
+        <v>319</v>
       </c>
       <c r="Q872" t="n">
         <v>18</v>
@@ -63189,7 +63189,7 @@
         </is>
       </c>
       <c r="D873" s="2" t="n">
-        <v>44336</v>
+        <v>44238</v>
       </c>
       <c r="E873" t="n">
         <v>4</v>
@@ -63204,25 +63204,25 @@
       </c>
       <c r="H873" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I873" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J873" t="n">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="K873" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="L873" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="M873" t="n">
-        <v>10500</v>
+        <v>3750</v>
       </c>
       <c r="N873" t="inlineStr">
         <is>
@@ -63235,7 +63235,7 @@
         </is>
       </c>
       <c r="P873" t="n">
-        <v>583</v>
+        <v>208</v>
       </c>
       <c r="Q873" t="n">
         <v>18</v>
@@ -63261,7 +63261,7 @@
         </is>
       </c>
       <c r="D874" s="2" t="n">
-        <v>44343</v>
+        <v>44336</v>
       </c>
       <c r="E874" t="n">
         <v>4</v>
@@ -63285,16 +63285,16 @@
         </is>
       </c>
       <c r="J874" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="K874" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L874" t="n">
         <v>10000</v>
       </c>
-      <c r="L874" t="n">
-        <v>11000</v>
-      </c>
       <c r="M874" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N874" t="inlineStr">
         <is>
@@ -63307,7 +63307,7 @@
         </is>
       </c>
       <c r="P874" t="n">
-        <v>583</v>
+        <v>528</v>
       </c>
       <c r="Q874" t="n">
         <v>18</v>
@@ -63333,7 +63333,7 @@
         </is>
       </c>
       <c r="D875" s="2" t="n">
-        <v>44343</v>
+        <v>44336</v>
       </c>
       <c r="E875" t="n">
         <v>4</v>
@@ -63357,16 +63357,16 @@
         </is>
       </c>
       <c r="J875" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K875" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L875" t="n">
         <v>8000</v>
       </c>
-      <c r="L875" t="n">
-        <v>9000</v>
-      </c>
       <c r="M875" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N875" t="inlineStr">
         <is>
@@ -63379,7 +63379,7 @@
         </is>
       </c>
       <c r="P875" t="n">
-        <v>472</v>
+        <v>417</v>
       </c>
       <c r="Q875" t="n">
         <v>18</v>
@@ -63405,7 +63405,7 @@
         </is>
       </c>
       <c r="D876" s="2" t="n">
-        <v>44343</v>
+        <v>44336</v>
       </c>
       <c r="E876" t="n">
         <v>4</v>
@@ -63429,7 +63429,7 @@
         </is>
       </c>
       <c r="J876" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K876" t="n">
         <v>5000</v>
@@ -63477,7 +63477,7 @@
         </is>
       </c>
       <c r="D877" s="2" t="n">
-        <v>44343</v>
+        <v>44336</v>
       </c>
       <c r="E877" t="n">
         <v>4</v>
@@ -63501,16 +63501,16 @@
         </is>
       </c>
       <c r="J877" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K877" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L877" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M877" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="N877" t="inlineStr">
         <is>
@@ -63523,7 +63523,7 @@
         </is>
       </c>
       <c r="P877" t="n">
-        <v>806</v>
+        <v>861</v>
       </c>
       <c r="Q877" t="n">
         <v>18</v>
@@ -63549,7 +63549,7 @@
         </is>
       </c>
       <c r="D878" s="2" t="n">
-        <v>44343</v>
+        <v>44336</v>
       </c>
       <c r="E878" t="n">
         <v>4</v>
@@ -63573,7 +63573,7 @@
         </is>
       </c>
       <c r="J878" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K878" t="n">
         <v>12000</v>
@@ -63621,7 +63621,7 @@
         </is>
       </c>
       <c r="D879" s="2" t="n">
-        <v>44343</v>
+        <v>44336</v>
       </c>
       <c r="E879" t="n">
         <v>4</v>
@@ -63693,7 +63693,7 @@
         </is>
       </c>
       <c r="D880" s="2" t="n">
-        <v>44454</v>
+        <v>44343</v>
       </c>
       <c r="E880" t="n">
         <v>4</v>
@@ -63717,16 +63717,16 @@
         </is>
       </c>
       <c r="J880" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="K880" t="n">
-        <v>32000</v>
+        <v>10000</v>
       </c>
       <c r="L880" t="n">
-        <v>33000</v>
+        <v>11000</v>
       </c>
       <c r="M880" t="n">
-        <v>32500</v>
+        <v>10500</v>
       </c>
       <c r="N880" t="inlineStr">
         <is>
@@ -63739,7 +63739,7 @@
         </is>
       </c>
       <c r="P880" t="n">
-        <v>1806</v>
+        <v>583</v>
       </c>
       <c r="Q880" t="n">
         <v>18</v>
@@ -63765,7 +63765,7 @@
         </is>
       </c>
       <c r="D881" s="2" t="n">
-        <v>44454</v>
+        <v>44343</v>
       </c>
       <c r="E881" t="n">
         <v>4</v>
@@ -63789,16 +63789,16 @@
         </is>
       </c>
       <c r="J881" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K881" t="n">
-        <v>29000</v>
+        <v>8000</v>
       </c>
       <c r="L881" t="n">
-        <v>30000</v>
+        <v>9000</v>
       </c>
       <c r="M881" t="n">
-        <v>29500</v>
+        <v>8500</v>
       </c>
       <c r="N881" t="inlineStr">
         <is>
@@ -63811,7 +63811,7 @@
         </is>
       </c>
       <c r="P881" t="n">
-        <v>1639</v>
+        <v>472</v>
       </c>
       <c r="Q881" t="n">
         <v>18</v>
@@ -63837,7 +63837,7 @@
         </is>
       </c>
       <c r="D882" s="2" t="n">
-        <v>44454</v>
+        <v>44343</v>
       </c>
       <c r="E882" t="n">
         <v>4</v>
@@ -63864,13 +63864,13 @@
         <v>300</v>
       </c>
       <c r="K882" t="n">
-        <v>26000</v>
+        <v>5000</v>
       </c>
       <c r="L882" t="n">
-        <v>27000</v>
+        <v>6000</v>
       </c>
       <c r="M882" t="n">
-        <v>26500</v>
+        <v>5500</v>
       </c>
       <c r="N882" t="inlineStr">
         <is>
@@ -63883,7 +63883,7 @@
         </is>
       </c>
       <c r="P882" t="n">
-        <v>1472</v>
+        <v>306</v>
       </c>
       <c r="Q882" t="n">
         <v>18</v>
@@ -63909,7 +63909,7 @@
         </is>
       </c>
       <c r="D883" s="2" t="n">
-        <v>44419</v>
+        <v>44343</v>
       </c>
       <c r="E883" t="n">
         <v>4</v>
@@ -63924,7 +63924,7 @@
       </c>
       <c r="H883" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I883" t="inlineStr">
@@ -63933,16 +63933,16 @@
         </is>
       </c>
       <c r="J883" t="n">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="K883" t="n">
-        <v>29000</v>
+        <v>14000</v>
       </c>
       <c r="L883" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="M883" t="n">
-        <v>29500</v>
+        <v>14500</v>
       </c>
       <c r="N883" t="inlineStr">
         <is>
@@ -63955,7 +63955,7 @@
         </is>
       </c>
       <c r="P883" t="n">
-        <v>1639</v>
+        <v>806</v>
       </c>
       <c r="Q883" t="n">
         <v>18</v>
@@ -63981,7 +63981,7 @@
         </is>
       </c>
       <c r="D884" s="2" t="n">
-        <v>44419</v>
+        <v>44343</v>
       </c>
       <c r="E884" t="n">
         <v>4</v>
@@ -63996,7 +63996,7 @@
       </c>
       <c r="H884" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I884" t="inlineStr">
@@ -64005,16 +64005,16 @@
         </is>
       </c>
       <c r="J884" t="n">
-        <v>1600</v>
+        <v>500</v>
       </c>
       <c r="K884" t="n">
-        <v>27000</v>
+        <v>12000</v>
       </c>
       <c r="L884" t="n">
-        <v>28000</v>
+        <v>13000</v>
       </c>
       <c r="M884" t="n">
-        <v>27500</v>
+        <v>12500</v>
       </c>
       <c r="N884" t="inlineStr">
         <is>
@@ -64027,7 +64027,7 @@
         </is>
       </c>
       <c r="P884" t="n">
-        <v>1528</v>
+        <v>694</v>
       </c>
       <c r="Q884" t="n">
         <v>18</v>
@@ -64053,7 +64053,7 @@
         </is>
       </c>
       <c r="D885" s="2" t="n">
-        <v>44419</v>
+        <v>44343</v>
       </c>
       <c r="E885" t="n">
         <v>4</v>
@@ -64068,7 +64068,7 @@
       </c>
       <c r="H885" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I885" t="inlineStr">
@@ -64077,16 +64077,16 @@
         </is>
       </c>
       <c r="J885" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="K885" t="n">
-        <v>24000</v>
+        <v>10000</v>
       </c>
       <c r="L885" t="n">
-        <v>25000</v>
+        <v>11000</v>
       </c>
       <c r="M885" t="n">
-        <v>24500</v>
+        <v>10500</v>
       </c>
       <c r="N885" t="inlineStr">
         <is>
@@ -64099,7 +64099,7 @@
         </is>
       </c>
       <c r="P885" t="n">
-        <v>1361</v>
+        <v>583</v>
       </c>
       <c r="Q885" t="n">
         <v>18</v>
@@ -64125,7 +64125,7 @@
         </is>
       </c>
       <c r="D886" s="2" t="n">
-        <v>44419</v>
+        <v>44454</v>
       </c>
       <c r="E886" t="n">
         <v>4</v>
@@ -64140,7 +64140,7 @@
       </c>
       <c r="H886" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I886" t="inlineStr">
@@ -64149,20 +64149,20 @@
         </is>
       </c>
       <c r="J886" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K886" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="L886" t="n">
-        <v>27000</v>
+        <v>33000</v>
       </c>
       <c r="M886" t="n">
-        <v>26000</v>
+        <v>32500</v>
       </c>
       <c r="N886" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O886" t="inlineStr">
@@ -64171,10 +64171,10 @@
         </is>
       </c>
       <c r="P886" t="n">
-        <v>1300</v>
+        <v>1806</v>
       </c>
       <c r="Q886" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R886" t="inlineStr">
         <is>
@@ -64197,7 +64197,7 @@
         </is>
       </c>
       <c r="D887" s="2" t="n">
-        <v>44419</v>
+        <v>44454</v>
       </c>
       <c r="E887" t="n">
         <v>4</v>
@@ -64212,7 +64212,7 @@
       </c>
       <c r="H887" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I887" t="inlineStr">
@@ -64221,20 +64221,20 @@
         </is>
       </c>
       <c r="J887" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="K887" t="n">
-        <v>21000</v>
+        <v>29000</v>
       </c>
       <c r="L887" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M887" t="n">
-        <v>22000</v>
+        <v>29500</v>
       </c>
       <c r="N887" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O887" t="inlineStr">
@@ -64243,10 +64243,10 @@
         </is>
       </c>
       <c r="P887" t="n">
-        <v>1100</v>
+        <v>1639</v>
       </c>
       <c r="Q887" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R887" t="inlineStr">
         <is>
@@ -64269,7 +64269,7 @@
         </is>
       </c>
       <c r="D888" s="2" t="n">
-        <v>44419</v>
+        <v>44454</v>
       </c>
       <c r="E888" t="n">
         <v>4</v>
@@ -64284,7 +64284,7 @@
       </c>
       <c r="H888" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I888" t="inlineStr">
@@ -64293,20 +64293,20 @@
         </is>
       </c>
       <c r="J888" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K888" t="n">
-        <v>17000</v>
+        <v>26000</v>
       </c>
       <c r="L888" t="n">
-        <v>19000</v>
+        <v>27000</v>
       </c>
       <c r="M888" t="n">
-        <v>18000</v>
+        <v>26500</v>
       </c>
       <c r="N888" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O888" t="inlineStr">
@@ -64315,10 +64315,10 @@
         </is>
       </c>
       <c r="P888" t="n">
-        <v>900</v>
+        <v>1472</v>
       </c>
       <c r="Q888" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R888" t="inlineStr">
         <is>
@@ -64341,7 +64341,7 @@
         </is>
       </c>
       <c r="D889" s="2" t="n">
-        <v>44489</v>
+        <v>44419</v>
       </c>
       <c r="E889" t="n">
         <v>4</v>
@@ -64365,16 +64365,16 @@
         </is>
       </c>
       <c r="J889" t="n">
-        <v>1800</v>
+        <v>1100</v>
       </c>
       <c r="K889" t="n">
-        <v>26000</v>
+        <v>29000</v>
       </c>
       <c r="L889" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M889" t="n">
-        <v>27000</v>
+        <v>29500</v>
       </c>
       <c r="N889" t="inlineStr">
         <is>
@@ -64387,7 +64387,7 @@
         </is>
       </c>
       <c r="P889" t="n">
-        <v>1500</v>
+        <v>1639</v>
       </c>
       <c r="Q889" t="n">
         <v>18</v>
@@ -64413,7 +64413,7 @@
         </is>
       </c>
       <c r="D890" s="2" t="n">
-        <v>44489</v>
+        <v>44419</v>
       </c>
       <c r="E890" t="n">
         <v>4</v>
@@ -64437,16 +64437,16 @@
         </is>
       </c>
       <c r="J890" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K890" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="L890" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="M890" t="n">
-        <v>23000</v>
+        <v>27500</v>
       </c>
       <c r="N890" t="inlineStr">
         <is>
@@ -64459,7 +64459,7 @@
         </is>
       </c>
       <c r="P890" t="n">
-        <v>1278</v>
+        <v>1528</v>
       </c>
       <c r="Q890" t="n">
         <v>18</v>
@@ -64485,7 +64485,7 @@
         </is>
       </c>
       <c r="D891" s="2" t="n">
-        <v>44489</v>
+        <v>44419</v>
       </c>
       <c r="E891" t="n">
         <v>4</v>
@@ -64509,16 +64509,16 @@
         </is>
       </c>
       <c r="J891" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="K891" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="L891" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M891" t="n">
-        <v>19000</v>
+        <v>24500</v>
       </c>
       <c r="N891" t="inlineStr">
         <is>
@@ -64531,7 +64531,7 @@
         </is>
       </c>
       <c r="P891" t="n">
-        <v>1056</v>
+        <v>1361</v>
       </c>
       <c r="Q891" t="n">
         <v>18</v>
@@ -64557,7 +64557,7 @@
         </is>
       </c>
       <c r="D892" s="2" t="n">
-        <v>44699</v>
+        <v>44419</v>
       </c>
       <c r="E892" t="n">
         <v>4</v>
@@ -64572,7 +64572,7 @@
       </c>
       <c r="H892" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I892" t="inlineStr">
@@ -64581,20 +64581,20 @@
         </is>
       </c>
       <c r="J892" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="K892" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="L892" t="n">
-        <v>17000</v>
+        <v>27000</v>
       </c>
       <c r="M892" t="n">
-        <v>16500</v>
+        <v>26000</v>
       </c>
       <c r="N892" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O892" t="inlineStr">
@@ -64603,10 +64603,10 @@
         </is>
       </c>
       <c r="P892" t="n">
-        <v>917</v>
+        <v>1300</v>
       </c>
       <c r="Q892" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R892" t="inlineStr">
         <is>
@@ -64629,7 +64629,7 @@
         </is>
       </c>
       <c r="D893" s="2" t="n">
-        <v>44699</v>
+        <v>44419</v>
       </c>
       <c r="E893" t="n">
         <v>4</v>
@@ -64644,7 +64644,7 @@
       </c>
       <c r="H893" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I893" t="inlineStr">
@@ -64653,20 +64653,20 @@
         </is>
       </c>
       <c r="J893" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="K893" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="L893" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="M893" t="n">
-        <v>13500</v>
+        <v>22000</v>
       </c>
       <c r="N893" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O893" t="inlineStr">
@@ -64675,10 +64675,10 @@
         </is>
       </c>
       <c r="P893" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="Q893" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R893" t="inlineStr">
         <is>
@@ -64701,7 +64701,7 @@
         </is>
       </c>
       <c r="D894" s="2" t="n">
-        <v>44699</v>
+        <v>44419</v>
       </c>
       <c r="E894" t="n">
         <v>4</v>
@@ -64716,7 +64716,7 @@
       </c>
       <c r="H894" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I894" t="inlineStr">
@@ -64725,20 +64725,20 @@
         </is>
       </c>
       <c r="J894" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="K894" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="L894" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="M894" t="n">
-        <v>9500</v>
+        <v>18000</v>
       </c>
       <c r="N894" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O894" t="inlineStr">
@@ -64747,10 +64747,10 @@
         </is>
       </c>
       <c r="P894" t="n">
-        <v>528</v>
+        <v>900</v>
       </c>
       <c r="Q894" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R894" t="inlineStr">
         <is>
@@ -64773,7 +64773,7 @@
         </is>
       </c>
       <c r="D895" s="2" t="n">
-        <v>44699</v>
+        <v>44489</v>
       </c>
       <c r="E895" t="n">
         <v>4</v>
@@ -64797,16 +64797,16 @@
         </is>
       </c>
       <c r="J895" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="K895" t="n">
-        <v>13000</v>
+        <v>26000</v>
       </c>
       <c r="L895" t="n">
-        <v>14000</v>
+        <v>28000</v>
       </c>
       <c r="M895" t="n">
-        <v>13500</v>
+        <v>27000</v>
       </c>
       <c r="N895" t="inlineStr">
         <is>
@@ -64819,7 +64819,7 @@
         </is>
       </c>
       <c r="P895" t="n">
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="Q895" t="n">
         <v>18</v>
@@ -64845,7 +64845,7 @@
         </is>
       </c>
       <c r="D896" s="2" t="n">
-        <v>44699</v>
+        <v>44489</v>
       </c>
       <c r="E896" t="n">
         <v>4</v>
@@ -64869,16 +64869,16 @@
         </is>
       </c>
       <c r="J896" t="n">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="K896" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="L896" t="n">
-        <v>11000</v>
+        <v>24000</v>
       </c>
       <c r="M896" t="n">
-        <v>10500</v>
+        <v>23000</v>
       </c>
       <c r="N896" t="inlineStr">
         <is>
@@ -64891,7 +64891,7 @@
         </is>
       </c>
       <c r="P896" t="n">
-        <v>583</v>
+        <v>1278</v>
       </c>
       <c r="Q896" t="n">
         <v>18</v>
@@ -64917,7 +64917,7 @@
         </is>
       </c>
       <c r="D897" s="2" t="n">
-        <v>44699</v>
+        <v>44489</v>
       </c>
       <c r="E897" t="n">
         <v>4</v>
@@ -64941,16 +64941,16 @@
         </is>
       </c>
       <c r="J897" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="K897" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="L897" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="M897" t="n">
-        <v>7500</v>
+        <v>19000</v>
       </c>
       <c r="N897" t="inlineStr">
         <is>
@@ -64963,7 +64963,7 @@
         </is>
       </c>
       <c r="P897" t="n">
-        <v>417</v>
+        <v>1056</v>
       </c>
       <c r="Q897" t="n">
         <v>18</v>
@@ -65004,7 +65004,7 @@
       </c>
       <c r="H898" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I898" t="inlineStr">
@@ -65013,16 +65013,16 @@
         </is>
       </c>
       <c r="J898" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="K898" t="n">
-        <v>27000</v>
+        <v>16000</v>
       </c>
       <c r="L898" t="n">
-        <v>28000</v>
+        <v>17000</v>
       </c>
       <c r="M898" t="n">
-        <v>27500</v>
+        <v>16500</v>
       </c>
       <c r="N898" t="inlineStr">
         <is>
@@ -65035,7 +65035,7 @@
         </is>
       </c>
       <c r="P898" t="n">
-        <v>1528</v>
+        <v>917</v>
       </c>
       <c r="Q898" t="n">
         <v>18</v>
@@ -65076,7 +65076,7 @@
       </c>
       <c r="H899" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I899" t="inlineStr">
@@ -65085,16 +65085,16 @@
         </is>
       </c>
       <c r="J899" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="K899" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="L899" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="M899" t="n">
-        <v>24500</v>
+        <v>13500</v>
       </c>
       <c r="N899" t="inlineStr">
         <is>
@@ -65107,7 +65107,7 @@
         </is>
       </c>
       <c r="P899" t="n">
-        <v>1361</v>
+        <v>750</v>
       </c>
       <c r="Q899" t="n">
         <v>18</v>
@@ -65148,7 +65148,7 @@
       </c>
       <c r="H900" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I900" t="inlineStr">
@@ -65157,16 +65157,16 @@
         </is>
       </c>
       <c r="J900" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="K900" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="L900" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="M900" t="n">
-        <v>18500</v>
+        <v>9500</v>
       </c>
       <c r="N900" t="inlineStr">
         <is>
@@ -65179,7 +65179,7 @@
         </is>
       </c>
       <c r="P900" t="n">
-        <v>1028</v>
+        <v>528</v>
       </c>
       <c r="Q900" t="n">
         <v>18</v>
@@ -65205,7 +65205,7 @@
         </is>
       </c>
       <c r="D901" s="2" t="n">
-        <v>44636</v>
+        <v>44699</v>
       </c>
       <c r="E901" t="n">
         <v>4</v>
@@ -65220,7 +65220,7 @@
       </c>
       <c r="H901" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I901" t="inlineStr">
@@ -65229,16 +65229,16 @@
         </is>
       </c>
       <c r="J901" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="K901" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L901" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M901" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="N901" t="inlineStr">
         <is>
@@ -65251,7 +65251,7 @@
         </is>
       </c>
       <c r="P901" t="n">
-        <v>639</v>
+        <v>750</v>
       </c>
       <c r="Q901" t="n">
         <v>18</v>
@@ -65277,7 +65277,7 @@
         </is>
       </c>
       <c r="D902" s="2" t="n">
-        <v>44636</v>
+        <v>44699</v>
       </c>
       <c r="E902" t="n">
         <v>4</v>
@@ -65292,7 +65292,7 @@
       </c>
       <c r="H902" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I902" t="inlineStr">
@@ -65301,16 +65301,16 @@
         </is>
       </c>
       <c r="J902" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="K902" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L902" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M902" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="N902" t="inlineStr">
         <is>
@@ -65323,7 +65323,7 @@
         </is>
       </c>
       <c r="P902" t="n">
-        <v>528</v>
+        <v>583</v>
       </c>
       <c r="Q902" t="n">
         <v>18</v>
@@ -65349,7 +65349,7 @@
         </is>
       </c>
       <c r="D903" s="2" t="n">
-        <v>44636</v>
+        <v>44699</v>
       </c>
       <c r="E903" t="n">
         <v>4</v>
@@ -65364,7 +65364,7 @@
       </c>
       <c r="H903" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I903" t="inlineStr">
@@ -65373,7 +65373,7 @@
         </is>
       </c>
       <c r="J903" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="K903" t="n">
         <v>7000</v>
@@ -65421,7 +65421,7 @@
         </is>
       </c>
       <c r="D904" s="2" t="n">
-        <v>44636</v>
+        <v>44699</v>
       </c>
       <c r="E904" t="n">
         <v>4</v>
@@ -65436,7 +65436,7 @@
       </c>
       <c r="H904" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I904" t="inlineStr">
@@ -65445,16 +65445,16 @@
         </is>
       </c>
       <c r="J904" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K904" t="n">
-        <v>8000</v>
+        <v>27000</v>
       </c>
       <c r="L904" t="n">
-        <v>9000</v>
+        <v>28000</v>
       </c>
       <c r="M904" t="n">
-        <v>8500</v>
+        <v>27500</v>
       </c>
       <c r="N904" t="inlineStr">
         <is>
@@ -65467,7 +65467,7 @@
         </is>
       </c>
       <c r="P904" t="n">
-        <v>472</v>
+        <v>1528</v>
       </c>
       <c r="Q904" t="n">
         <v>18</v>
@@ -65493,7 +65493,7 @@
         </is>
       </c>
       <c r="D905" s="2" t="n">
-        <v>44636</v>
+        <v>44699</v>
       </c>
       <c r="E905" t="n">
         <v>4</v>
@@ -65508,7 +65508,7 @@
       </c>
       <c r="H905" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I905" t="inlineStr">
@@ -65517,16 +65517,16 @@
         </is>
       </c>
       <c r="J905" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K905" t="n">
-        <v>6000</v>
+        <v>24000</v>
       </c>
       <c r="L905" t="n">
-        <v>7000</v>
+        <v>25000</v>
       </c>
       <c r="M905" t="n">
-        <v>6500</v>
+        <v>24500</v>
       </c>
       <c r="N905" t="inlineStr">
         <is>
@@ -65539,7 +65539,7 @@
         </is>
       </c>
       <c r="P905" t="n">
-        <v>361</v>
+        <v>1361</v>
       </c>
       <c r="Q905" t="n">
         <v>18</v>
@@ -65565,7 +65565,7 @@
         </is>
       </c>
       <c r="D906" s="2" t="n">
-        <v>44636</v>
+        <v>44699</v>
       </c>
       <c r="E906" t="n">
         <v>4</v>
@@ -65580,7 +65580,7 @@
       </c>
       <c r="H906" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I906" t="inlineStr">
@@ -65589,16 +65589,16 @@
         </is>
       </c>
       <c r="J906" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K906" t="n">
-        <v>4000</v>
+        <v>18000</v>
       </c>
       <c r="L906" t="n">
-        <v>5000</v>
+        <v>19000</v>
       </c>
       <c r="M906" t="n">
-        <v>4500</v>
+        <v>18500</v>
       </c>
       <c r="N906" t="inlineStr">
         <is>
@@ -65611,7 +65611,7 @@
         </is>
       </c>
       <c r="P906" t="n">
-        <v>250</v>
+        <v>1028</v>
       </c>
       <c r="Q906" t="n">
         <v>18</v>
@@ -65652,7 +65652,7 @@
       </c>
       <c r="H907" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I907" t="inlineStr">
@@ -65661,7 +65661,7 @@
         </is>
       </c>
       <c r="J907" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="K907" t="n">
         <v>11000</v>
@@ -65724,7 +65724,7 @@
       </c>
       <c r="H908" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I908" t="inlineStr">
@@ -65733,7 +65733,7 @@
         </is>
       </c>
       <c r="J908" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K908" t="n">
         <v>9000</v>
@@ -65796,7 +65796,7 @@
       </c>
       <c r="H909" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I909" t="inlineStr">
@@ -65853,7 +65853,7 @@
         </is>
       </c>
       <c r="D910" s="2" t="n">
-        <v>44405</v>
+        <v>44636</v>
       </c>
       <c r="E910" t="n">
         <v>4</v>
@@ -65877,16 +65877,16 @@
         </is>
       </c>
       <c r="J910" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K910" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="L910" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="M910" t="n">
-        <v>17500</v>
+        <v>8500</v>
       </c>
       <c r="N910" t="inlineStr">
         <is>
@@ -65899,7 +65899,7 @@
         </is>
       </c>
       <c r="P910" t="n">
-        <v>972</v>
+        <v>472</v>
       </c>
       <c r="Q910" t="n">
         <v>18</v>
@@ -65925,7 +65925,7 @@
         </is>
       </c>
       <c r="D911" s="2" t="n">
-        <v>44405</v>
+        <v>44636</v>
       </c>
       <c r="E911" t="n">
         <v>4</v>
@@ -65949,16 +65949,16 @@
         </is>
       </c>
       <c r="J911" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K911" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L911" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M911" t="n">
-        <v>14500</v>
+        <v>6500</v>
       </c>
       <c r="N911" t="inlineStr">
         <is>
@@ -65971,7 +65971,7 @@
         </is>
       </c>
       <c r="P911" t="n">
-        <v>806</v>
+        <v>361</v>
       </c>
       <c r="Q911" t="n">
         <v>18</v>
@@ -65997,7 +65997,7 @@
         </is>
       </c>
       <c r="D912" s="2" t="n">
-        <v>44405</v>
+        <v>44636</v>
       </c>
       <c r="E912" t="n">
         <v>4</v>
@@ -66021,16 +66021,16 @@
         </is>
       </c>
       <c r="J912" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K912" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="L912" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="M912" t="n">
-        <v>10500</v>
+        <v>4500</v>
       </c>
       <c r="N912" t="inlineStr">
         <is>
@@ -66043,7 +66043,7 @@
         </is>
       </c>
       <c r="P912" t="n">
-        <v>583</v>
+        <v>250</v>
       </c>
       <c r="Q912" t="n">
         <v>18</v>
@@ -66069,7 +66069,7 @@
         </is>
       </c>
       <c r="D913" s="2" t="n">
-        <v>44405</v>
+        <v>44636</v>
       </c>
       <c r="E913" t="n">
         <v>4</v>
@@ -66089,20 +66089,20 @@
       </c>
       <c r="I913" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J913" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="K913" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="L913" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="M913" t="n">
-        <v>20500</v>
+        <v>11500</v>
       </c>
       <c r="N913" t="inlineStr">
         <is>
@@ -66115,7 +66115,7 @@
         </is>
       </c>
       <c r="P913" t="n">
-        <v>1139</v>
+        <v>639</v>
       </c>
       <c r="Q913" t="n">
         <v>18</v>
@@ -66141,7 +66141,7 @@
         </is>
       </c>
       <c r="D914" s="2" t="n">
-        <v>44405</v>
+        <v>44636</v>
       </c>
       <c r="E914" t="n">
         <v>4</v>
@@ -66161,20 +66161,20 @@
       </c>
       <c r="I914" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J914" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K914" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="L914" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M914" t="n">
-        <v>17500</v>
+        <v>9500</v>
       </c>
       <c r="N914" t="inlineStr">
         <is>
@@ -66187,7 +66187,7 @@
         </is>
       </c>
       <c r="P914" t="n">
-        <v>972</v>
+        <v>528</v>
       </c>
       <c r="Q914" t="n">
         <v>18</v>
@@ -66213,7 +66213,7 @@
         </is>
       </c>
       <c r="D915" s="2" t="n">
-        <v>44405</v>
+        <v>44636</v>
       </c>
       <c r="E915" t="n">
         <v>4</v>
@@ -66233,20 +66233,20 @@
       </c>
       <c r="I915" t="inlin